--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -179,164 +179,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Zxy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0 无
-1 矩形</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Zxy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-根据 skillDirectorType 决定
-0 : 无
-1 : [1]效果资源id , [2]:x长度(*1000) , [3]:z 长度(*1000)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Zxy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0 : 无
-1 : 矩形旋转
-2 : 圆形</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Zxy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-根据 skillReleaseDirectorType 决定
-(普通攻击的范围需要特殊动态处理)
-0 : 无
-1 : [1]:效果资源id , [2]:x 宽度大小(*1000) , [3]:z 宽度大小(*1000)
- [4]:旋转类型(0 不旋转, 1 释放者到目标方向)
-2 : [1]:效果资源id , [2]:半径(*1000) </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Zxy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0 : 无
-1 : 矩形旋转
-2 : 圆形
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Zxy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-根据 skillTargetDirectorType 决定
-(普通攻击的范围需要特殊动态处理)
-0 : 无
-1 : [1]:效果资源id , [2]:x 宽度大小(*1000) , [3]:z 宽度大小(*1000)
- [4]:旋转类型(0 不旋转, 1 释放者到目标方向)
-2 : [1]:效果资源id , [2]:半径(*1000) 
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -404,22 +252,7 @@
     <t>releaserEffectResId</t>
   </si>
   <si>
-    <t>skillDirectorProjectileType</t>
-  </si>
-  <si>
-    <t>skillDirectorProjectileParam</t>
-  </si>
-  <si>
-    <t>skillReleaserDirectType</t>
-  </si>
-  <si>
-    <t>skillReleaserDirectParam</t>
-  </si>
-  <si>
-    <t>skillTargetDirectType</t>
-  </si>
-  <si>
-    <t>skillTargetDirectParam</t>
+    <t>skillDirectionId</t>
   </si>
   <si>
     <t>skillTrackList</t>
@@ -500,22 +333,7 @@
     <t>释放者释放技能时候在身上的特效</t>
   </si>
   <si>
-    <t>技能释放 投掷物 指示器类型</t>
-  </si>
-  <si>
-    <t>技能释放 投掷物 指示器参数</t>
-  </si>
-  <si>
-    <t>技能释放 释放者 指示类型</t>
-  </si>
-  <si>
-    <t>释放者指示参数</t>
-  </si>
-  <si>
-    <t>技能释放 目标 指示类型</t>
-  </si>
-  <si>
-    <t>目标指示参数</t>
+    <t>技能指示器id</t>
   </si>
   <si>
     <t>技能轨迹 Id 列表</t>
@@ -524,24 +342,12 @@
     <t>上官唯 普通攻击</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>15008102,1500,1500,0</t>
-  </si>
-  <si>
     <t>上官唯 技能1</t>
   </si>
   <si>
     <t>上官唯 技能 1 介绍 向一个点短距离发射球攻击</t>
   </si>
   <si>
-    <t>15008101,1500,4500</t>
-  </si>
-  <si>
     <t>爆裂千剑(Q)</t>
   </si>
   <si>
@@ -584,21 +390,12 @@
     <t>唐依 普通攻击</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>15008102,6000</t>
-  </si>
-  <si>
     <t>雷霆穿云(Q)</t>
   </si>
   <si>
     <t>射出一道带有穿透攻击的霹雳箭光，迅疾射向一条直线内的敌人，造成 150% 攻击力 的伤害。冷却时间：5 秒。</t>
   </si>
   <si>
-    <t>15008101,2000,2000,1</t>
-  </si>
-  <si>
     <t>影袭风暴(W)</t>
   </si>
   <si>
@@ -638,9 +435,6 @@
     <t>测试 位移技能</t>
   </si>
   <si>
-    <t>15008101,1500,10000</t>
-  </si>
-  <si>
     <t>怪物1 普通攻击</t>
   </si>
   <si>
@@ -654,9 +448,6 @@
   </si>
   <si>
     <t>怪物2 穿透投掷攻击</t>
-  </si>
-  <si>
-    <t>15008101,2000,8000,1</t>
   </si>
   <si>
     <t>刀疤 普通攻击</t>
@@ -1367,7 +1158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1384,12 +1175,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1422,22 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1788,12 +1558,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
+      <selection pane="topRight" activeCell="W30" sqref="W33 W31 W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1816,21 +1586,16 @@
     <col min="20" max="20" width="21.625" customWidth="1"/>
     <col min="21" max="21" width="21.5" style="5" customWidth="1"/>
     <col min="22" max="22" width="12.375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="10" customWidth="1"/>
-    <col min="24" max="24" width="22.625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="10.125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="25.625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="12.375" style="7" customWidth="1"/>
-    <col min="28" max="28" width="21" style="7" customWidth="1"/>
-    <col min="29" max="29" width="21.875" customWidth="1"/>
-    <col min="30" max="30" width="27.75" customWidth="1"/>
+    <col min="23" max="23" width="16.875" customWidth="1"/>
+    <col min="24" max="24" width="21.875" customWidth="1"/>
+    <col min="25" max="25" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:29">
+    <row r="1" ht="18" customHeight="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1872,1540 +1637,1217 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="15" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:24">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="E3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:29">
-      <c r="A3" t="s">
+      <c r="F3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="N3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="O3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="P3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="Q3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="R3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="S3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="T3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="U3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="V3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="W3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="X3" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA3" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>2001001</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="C4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>3001001</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
         <v>233</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="9">
         <v>100</v>
       </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>1</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8">
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6">
         <v>2000</v>
       </c>
-      <c r="U4" s="19"/>
+      <c r="U4" s="16"/>
       <c r="V4" s="5">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:28">
+        <v>2601001</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:23">
       <c r="B5" s="1">
         <v>2001002</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="C5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
         <v>2</v>
       </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
         <v>3001002</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9">
         <v>99000</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="9">
         <v>100</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="9">
         <v>500</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="9">
         <v>1000</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="8">
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="6">
         <v>1000</v>
       </c>
-      <c r="U5" s="19"/>
+      <c r="U5" s="16"/>
       <c r="V5" s="5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:28">
+        <v>2601002</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:22">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <v>2001002</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="C6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="6">
         <v>15003751</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>2</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>14001010</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
         <v>466</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="6">
         <v>200</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="6">
         <v>15000</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6">
         <v>1000</v>
       </c>
-      <c r="U6" s="19"/>
+      <c r="U6" s="16"/>
       <c r="V6" s="5">
         <v>0</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <v>2001003</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="C7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="6">
         <v>15003752</v>
       </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
         <v>466</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="6">
         <v>200</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="6">
         <v>8000</v>
       </c>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6">
         <v>1000</v>
       </c>
-      <c r="U7" s="19"/>
+      <c r="U7" s="16"/>
       <c r="V7" s="5">
         <v>15008014</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:28">
+    </row>
+    <row r="8" customFormat="1" spans="1:23">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
         <v>2001004</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="6">
         <v>15003753</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
         <v>16001001</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
         <v>100000</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="6">
         <v>466</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="6">
         <v>200</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="6">
         <v>7000</v>
       </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6">
         <v>1000</v>
       </c>
-      <c r="U8" s="19"/>
+      <c r="U8" s="16"/>
       <c r="V8" s="5">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:28">
+        <v>2601005</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:22">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
         <v>2001005</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="C9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="6">
         <v>15003754</v>
       </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>2</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
+      <c r="K9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
         <v>466</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="6">
         <v>200</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="6">
         <v>25000</v>
       </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6">
         <v>1</v>
       </c>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8">
+      <c r="S9" s="6"/>
+      <c r="T9" s="6">
         <v>1000</v>
       </c>
-      <c r="U9" s="19"/>
+      <c r="U9" s="16"/>
       <c r="V9" s="5">
         <v>0</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:28">
+    </row>
+    <row r="10" customFormat="1" spans="1:22">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
         <v>2001006</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="C10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="6">
         <v>15003755</v>
       </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
         <v>1</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>2</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8">
+      <c r="K10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6">
         <v>1000</v>
       </c>
-      <c r="U10" s="19"/>
+      <c r="U10" s="16"/>
       <c r="V10" s="5">
         <v>0</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="3:28">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="19"/>
+    </row>
+    <row r="11" customFormat="1" spans="3:22">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="16"/>
       <c r="V11" s="5"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-    </row>
-    <row r="12" customFormat="1" spans="3:28">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="19"/>
+    </row>
+    <row r="12" customFormat="1" spans="3:22">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="16"/>
       <c r="V12" s="5"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-    </row>
-    <row r="13" customFormat="1" spans="3:28">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="19"/>
+    </row>
+    <row r="13" customFormat="1" spans="3:22">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="16"/>
       <c r="V13" s="5"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-    </row>
-    <row r="15" spans="1:28">
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15">
         <v>2001021</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8">
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
         <v>1</v>
       </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="6">
         <v>3001011</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
         <v>180</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="6">
         <v>100</v>
       </c>
-      <c r="P15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8">
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>1</v>
       </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8">
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6">
         <v>2667</v>
       </c>
-      <c r="U15" s="19"/>
+      <c r="U15" s="16"/>
       <c r="V15" s="5">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+        <v>2601021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16">
         <v>2001022</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="C16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="6">
         <v>15003751</v>
       </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
         <v>2</v>
       </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
         <v>3001012</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6">
         <v>6000</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="6">
         <v>1800</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="6">
         <v>1800</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="6">
         <v>2000</v>
       </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6">
         <v>267</v>
       </c>
-      <c r="U16" s="19"/>
+      <c r="U16" s="16"/>
       <c r="V16" s="5">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB16" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
         <v>2001023</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="C17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="6">
         <v>15003752</v>
       </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
         <v>2</v>
       </c>
-      <c r="K17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
+      <c r="K17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
         <v>180</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="6">
         <v>100</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="6">
         <v>15000</v>
       </c>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8">
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6">
         <v>2667</v>
       </c>
-      <c r="U17" s="19"/>
+      <c r="U17" s="16"/>
       <c r="V17" s="5">
         <v>15008014</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:28">
+    </row>
+    <row r="18" customFormat="1" spans="1:22">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18">
         <v>2001024</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="C18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="6">
         <v>15003753</v>
       </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
         <v>1</v>
       </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
         <v>1</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="8">
+      <c r="K18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="6">
         <v>8000</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="6">
         <v>180</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="6">
         <v>100</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="6">
         <v>3000</v>
       </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8">
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6">
         <v>2667</v>
       </c>
-      <c r="U18" s="19"/>
+      <c r="U18" s="16"/>
       <c r="V18" s="5">
         <v>0</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
         <v>2001025</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="C19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="6">
         <v>15003754</v>
       </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
         <v>1</v>
       </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
         <v>1</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="8">
+      <c r="K19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="6">
         <v>8000</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="6">
         <v>180</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="6">
         <v>100</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="6">
         <v>25000</v>
       </c>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6">
         <v>1</v>
       </c>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8">
+      <c r="S19" s="6"/>
+      <c r="T19" s="6">
         <v>2667</v>
       </c>
-      <c r="U19" s="19"/>
+      <c r="U19" s="16"/>
       <c r="V19" s="5">
         <v>0</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:28">
+    </row>
+    <row r="20" customFormat="1" spans="1:22">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20">
         <v>2001026</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="C20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="6">
         <v>15003755</v>
       </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
         <v>1</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="6">
         <v>2</v>
       </c>
-      <c r="K20" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="8">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
-        <v>0</v>
-      </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8">
+      <c r="K20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6">
         <v>2667</v>
       </c>
-      <c r="U20" s="19"/>
+      <c r="U20" s="16"/>
       <c r="V20" s="5">
         <v>0</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:28">
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:23">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="19"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="16"/>
       <c r="V21" s="5"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
+      <c r="W21"/>
     </row>
     <row r="22" ht="12" customHeight="1" spans="3:21">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="19"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:29">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="16"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:24">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23">
         <v>2001050</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="C23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="6">
         <v>15003753</v>
       </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
         <v>2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="6">
         <v>1</v>
       </c>
-      <c r="I23" s="8">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
         <v>16001010</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8">
+      <c r="L23" s="6"/>
+      <c r="M23" s="6">
         <v>10000</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="6">
         <v>1500</v>
       </c>
-      <c r="O23" s="8">
-        <v>0</v>
-      </c>
-      <c r="P23" s="8">
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
         <v>600</v>
       </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8">
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6">
         <v>1000</v>
       </c>
-      <c r="U23" s="19"/>
+      <c r="U23" s="16"/>
       <c r="V23" s="5">
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC23">
+        <v>2601050</v>
+      </c>
+      <c r="X23">
         <v>2500005</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="3:28">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="19"/>
+    <row r="24" customFormat="1" spans="3:22">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="16"/>
       <c r="V24" s="5"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-    </row>
-    <row r="25" customFormat="1" spans="3:28">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="19"/>
+    </row>
+    <row r="25" customFormat="1" spans="3:22">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="16"/>
       <c r="V25" s="5"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-    </row>
-    <row r="26" customFormat="1" spans="3:28">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="19"/>
+    </row>
+    <row r="26" customFormat="1" spans="3:22">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="16"/>
       <c r="V26" s="5"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-    </row>
-    <row r="27" customFormat="1" spans="3:28">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="19"/>
+    </row>
+    <row r="27" customFormat="1" spans="3:22">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="16"/>
       <c r="V27" s="5"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="20:28">
-      <c r="T28" s="8"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="20:22">
+      <c r="T28" s="6"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
     </row>
     <row r="29" spans="20:20">
-      <c r="T29" s="8"/>
+      <c r="T29" s="6"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="s">
@@ -3414,350 +2856,298 @@
       <c r="B30">
         <v>2002001</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8">
+      <c r="C30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
         <v>1</v>
       </c>
-      <c r="H30" s="8">
-        <v>0</v>
-      </c>
-      <c r="I30" s="8">
-        <v>0</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
         <v>1</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="6">
         <v>3002001</v>
       </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8">
-        <v>0</v>
-      </c>
-      <c r="N30" s="8">
+      <c r="L30" s="6"/>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
         <v>300</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="6">
         <v>300</v>
       </c>
-      <c r="P30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="8">
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
         <v>1</v>
       </c>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8">
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6">
         <v>1540</v>
       </c>
-      <c r="U30" s="19"/>
+      <c r="U30" s="16"/>
       <c r="V30" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31">
         <v>2002002</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="8">
+      <c r="C31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="6">
         <v>15003753</v>
       </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
         <v>2</v>
       </c>
-      <c r="H31" s="8">
-        <v>0</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0</v>
-      </c>
-      <c r="J31" s="8">
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
         <v>2</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="6">
         <v>13002030</v>
       </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8">
+      <c r="L31" s="6"/>
+      <c r="M31" s="6">
         <v>4000</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="6">
         <v>1500</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="6">
         <v>700</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="6">
         <v>6500</v>
       </c>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8">
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6">
         <v>340</v>
       </c>
-      <c r="U31" s="19"/>
+      <c r="U31" s="16"/>
       <c r="V31" s="5">
         <v>0</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC31">
+      <c r="W31"/>
+      <c r="X31">
         <v>2500010</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="3:28">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="19"/>
+    <row r="32" customFormat="1" spans="3:22">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="16"/>
       <c r="V32" s="5"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:28">
+    </row>
+    <row r="33" customFormat="1" spans="1:22">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33">
         <v>2002011</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8">
+      <c r="C33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
         <v>1</v>
       </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
         <v>1</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="6">
         <v>3002011</v>
       </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8">
-        <v>0</v>
-      </c>
-      <c r="N33" s="8">
+      <c r="L33" s="6"/>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
         <v>300</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="6">
         <v>200</v>
       </c>
-      <c r="P33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="8">
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6">
         <v>1</v>
       </c>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8">
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6">
         <v>1400</v>
       </c>
-      <c r="U33" s="19"/>
+      <c r="U33" s="16"/>
       <c r="V33" s="5">
         <v>0</v>
       </c>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-    </row>
-    <row r="34" customFormat="1" spans="1:29">
+    </row>
+    <row r="34" customFormat="1" spans="1:24">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34">
         <v>2002012</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="C34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="6">
         <v>15003751</v>
       </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
         <v>2</v>
       </c>
-      <c r="H34" s="8">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
-        <v>0</v>
-      </c>
-      <c r="K34" s="8">
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
         <v>3002012</v>
       </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8">
+      <c r="L34" s="6"/>
+      <c r="M34" s="6">
         <v>8000</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="6">
         <v>1000</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="6">
         <v>700</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="6">
         <v>7000</v>
       </c>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8">
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6">
         <v>420</v>
       </c>
-      <c r="U34" s="19"/>
+      <c r="U34" s="16"/>
       <c r="V34" s="5">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y34" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z34" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB34" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC34">
+        <v>2602012</v>
+      </c>
+      <c r="X34">
         <v>2500011</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="4:28">
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="19"/>
+    <row r="35" customFormat="1" spans="4:22">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="16"/>
       <c r="V35" s="5"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-    </row>
-    <row r="36" customFormat="1" spans="4:28">
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="19"/>
+    </row>
+    <row r="36" customFormat="1" spans="4:22">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="16"/>
       <c r="V36" s="5"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:28">
+    </row>
+    <row r="37" customFormat="1" spans="1:23">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3765,492 +3155,439 @@
         <v>2003001</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8">
+        <v>88</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6">
         <v>1</v>
       </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
         <v>1</v>
       </c>
       <c r="K37">
         <v>3003001</v>
       </c>
-      <c r="M37" s="8">
-        <v>0</v>
-      </c>
-      <c r="N37" s="8">
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
         <v>300</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="6">
         <v>300</v>
       </c>
-      <c r="P37" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="8">
+      <c r="P37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6">
         <v>1</v>
       </c>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8">
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6">
         <v>1540</v>
       </c>
-      <c r="U37" s="19"/>
+      <c r="U37" s="16"/>
       <c r="V37" s="5">
         <v>0</v>
       </c>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-    </row>
-    <row r="38" s="4" customFormat="1" spans="1:28">
+      <c r="W37">
+        <v>2603001</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="1" spans="1:23">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="4">
         <v>2003002</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="13">
+      <c r="C38" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="11">
         <v>15003751</v>
       </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
         <v>2</v>
       </c>
-      <c r="H38" s="13">
-        <v>0</v>
-      </c>
-      <c r="I38" s="13">
-        <v>0</v>
-      </c>
-      <c r="J38" s="13">
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
         <v>1</v>
       </c>
-      <c r="K38" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="L38" s="16"/>
-      <c r="M38" s="13">
+      <c r="K38" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="14"/>
+      <c r="M38" s="11">
         <v>8000</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="11">
         <v>600</v>
       </c>
-      <c r="O38" s="13">
-        <v>0</v>
-      </c>
-      <c r="P38" s="13">
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
         <v>2000</v>
       </c>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="8">
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="6">
         <v>1000</v>
       </c>
-      <c r="U38" s="13"/>
+      <c r="U38" s="11"/>
       <c r="V38" s="5">
         <v>0</v>
       </c>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-    </row>
-    <row r="39" s="4" customFormat="1" spans="1:28">
+      <c r="W38" s="4">
+        <v>2603002</v>
+      </c>
+    </row>
+    <row r="39" s="4" customFormat="1" spans="1:23">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="4">
         <v>2003003</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="13">
+      <c r="C39" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="11">
         <v>15003753</v>
       </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="13">
-        <v>0</v>
-      </c>
-      <c r="H39" s="13">
-        <v>0</v>
-      </c>
-      <c r="I39" s="13">
-        <v>0</v>
-      </c>
-      <c r="J39" s="13">
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
         <v>2</v>
       </c>
-      <c r="K39" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L39" s="16"/>
-      <c r="M39" s="13">
-        <v>0</v>
-      </c>
-      <c r="N39" s="13">
+      <c r="K39" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L39" s="14"/>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
         <v>50</v>
       </c>
-      <c r="O39" s="13">
-        <v>0</v>
-      </c>
-      <c r="P39" s="13">
+      <c r="O39" s="11">
+        <v>0</v>
+      </c>
+      <c r="P39" s="11">
         <v>6000</v>
       </c>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="8">
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="6">
         <v>1000</v>
       </c>
-      <c r="U39" s="13"/>
+      <c r="U39" s="11"/>
       <c r="V39" s="5">
         <v>15008005</v>
       </c>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="1:28">
+      <c r="W39" s="4">
+        <v>2603003</v>
+      </c>
+    </row>
+    <row r="40" s="4" customFormat="1" spans="1:23">
       <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="4">
         <v>2003004</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="13">
+      <c r="C40" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="11">
         <v>15003754</v>
       </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="13">
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
         <v>2</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <v>1</v>
       </c>
-      <c r="I40" s="13">
-        <v>0</v>
-      </c>
-      <c r="J40" s="13">
-        <v>0</v>
-      </c>
-      <c r="K40" s="13">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
         <v>16001001</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13">
+      <c r="L40" s="11"/>
+      <c r="M40" s="11">
         <v>8000</v>
       </c>
-      <c r="N40" s="13">
-        <v>0</v>
-      </c>
-      <c r="O40" s="13">
-        <v>0</v>
-      </c>
-      <c r="P40" s="13">
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
         <v>1500</v>
       </c>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="8">
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="6">
         <v>1000</v>
       </c>
-      <c r="U40" s="13"/>
+      <c r="U40" s="11"/>
       <c r="V40" s="5">
         <v>0</v>
       </c>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
+      <c r="W40" s="4">
+        <v>2603004</v>
+      </c>
     </row>
     <row r="41" spans="20:20">
-      <c r="T41" s="8"/>
-    </row>
-    <row r="42" customFormat="1" spans="1:28">
+      <c r="T41" s="6"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:23">
       <c r="A42" t="s">
         <v>0</v>
       </c>
       <c r="B42">
         <v>2003050</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="8">
+      <c r="C42" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="6">
         <v>15003751</v>
       </c>
-      <c r="F42" s="8">
-        <v>0</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8">
-        <v>0</v>
-      </c>
-      <c r="I42" s="8">
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
         <v>1</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="6">
         <v>2</v>
       </c>
-      <c r="K42" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="8">
-        <v>0</v>
-      </c>
-      <c r="N42" s="8">
-        <v>0</v>
-      </c>
-      <c r="O42" s="8">
-        <v>0</v>
-      </c>
-      <c r="P42" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="8">
+      <c r="K42" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+      <c r="P42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="6">
         <v>1</v>
       </c>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8">
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6">
         <v>1000</v>
       </c>
-      <c r="U42" s="19"/>
+      <c r="U42" s="16"/>
       <c r="V42" s="5">
         <v>0</v>
       </c>
       <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y42" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z42" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA42" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB42" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:28">
+        <v>2603050</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:23">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43">
         <v>2003051</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="8">
+      <c r="C43" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="6">
         <v>15003752</v>
       </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8">
-        <v>0</v>
-      </c>
-      <c r="I43" s="8">
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
         <v>1</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="6">
         <v>2</v>
       </c>
-      <c r="K43" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="8">
-        <v>0</v>
-      </c>
-      <c r="N43" s="8">
-        <v>0</v>
-      </c>
-      <c r="O43" s="8">
-        <v>0</v>
-      </c>
-      <c r="P43" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8">
+      <c r="K43" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <v>0</v>
+      </c>
+      <c r="P43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6">
         <v>1000</v>
       </c>
-      <c r="U43" s="19"/>
+      <c r="U43" s="16"/>
       <c r="V43" s="5">
         <v>0</v>
       </c>
       <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB43" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:29">
+        <v>2603051</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:24">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44">
         <v>2003052</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" s="8">
+      <c r="C44" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="6">
         <v>15003753</v>
       </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0</v>
-      </c>
-      <c r="H44" s="8">
-        <v>0</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
-        <v>0</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="8">
-        <v>0</v>
-      </c>
-      <c r="N44" s="8">
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
         <v>1500</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O44" s="6">
         <v>700</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="6">
         <v>12000</v>
       </c>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8">
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6">
         <v>340</v>
       </c>
-      <c r="U44" s="19"/>
+      <c r="U44" s="16"/>
       <c r="V44" s="5">
         <v>15008014</v>
       </c>
       <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y44" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z44" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC44">
+        <v>2603052</v>
+      </c>
+      <c r="X44">
         <v>2500020</v>
       </c>
     </row>
     <row r="45" spans="20:20">
-      <c r="T45" s="8"/>
+      <c r="T45" s="6"/>
     </row>
     <row r="48" spans="16:16">
       <c r="P48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4258,74 +3595,59 @@
         <v>2005001</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="8">
+        <v>105</v>
+      </c>
+      <c r="E49" s="6">
         <v>15003753</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="6">
         <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="6">
         <v>2</v>
       </c>
-      <c r="I49" s="8">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
-        <v>0</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="M49" s="8">
-        <v>0</v>
-      </c>
-      <c r="N49" s="8">
-        <v>0</v>
-      </c>
-      <c r="O49" s="8">
-        <v>0</v>
-      </c>
-      <c r="P49" s="8">
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+      <c r="P49" s="6">
         <v>2000</v>
       </c>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8">
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6">
         <v>1000</v>
       </c>
-      <c r="U49" s="19"/>
+      <c r="U49" s="16"/>
       <c r="V49" s="5">
         <v>15008014</v>
       </c>
       <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y49" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z49" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA49" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="7">
-        <v>0</v>
+        <v>2605001</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t>#</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>18001002</t>
+  </si>
+  <si>
+    <t>召唤（测试）</t>
+  </si>
+  <si>
+    <t>26001001,26001002</t>
   </si>
   <si>
     <t>唐依 普通攻击</t>
@@ -1560,10 +1566,10 @@
   <sheetPr/>
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="W30" sqref="W33 W31 W30"/>
+      <selection pane="topRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2247,27 +2253,63 @@
       <c r="U11" s="16"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" customFormat="1" spans="3:22">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+    <row r="12" customFormat="1" spans="1:22">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2001008</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>466</v>
+      </c>
+      <c r="O12" s="6">
+        <v>200</v>
+      </c>
+      <c r="P12" s="6">
+        <v>2500</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="T12" s="6">
+        <v>1000</v>
+      </c>
       <c r="U12" s="16"/>
-      <c r="V12" s="5"/>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="1" spans="3:22">
       <c r="C13" s="6"/>
@@ -2299,10 +2341,10 @@
         <v>2001021</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -2358,10 +2400,10 @@
         <v>2001022</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6">
         <v>15003751</v>
@@ -2419,10 +2461,10 @@
         <v>2001023</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" s="6">
         <v>15003752</v>
@@ -2443,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="6">
@@ -2477,10 +2519,10 @@
         <v>2001024</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="6">
         <v>15003753</v>
@@ -2501,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="6">
@@ -2535,10 +2577,10 @@
         <v>2001025</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" s="6">
         <v>15003754</v>
@@ -2559,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="6">
@@ -2595,10 +2637,10 @@
         <v>2001026</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" s="6">
         <v>15003755</v>
@@ -2619,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="6">
@@ -2697,10 +2739,10 @@
         <v>2001050</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E23" s="6">
         <v>15003753</v>
@@ -2857,10 +2899,10 @@
         <v>2002001</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -2913,10 +2955,10 @@
         <v>2002002</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E31" s="6">
         <v>15003753</v>
@@ -2997,10 +3039,10 @@
         <v>2002011</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -3053,10 +3095,10 @@
         <v>2002012</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E34" s="6">
         <v>15003751</v>
@@ -3155,10 +3197,10 @@
         <v>2003001</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3213,10 +3255,10 @@
         <v>2003002</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E38" s="11">
         <v>15003751</v>
@@ -3237,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="11">
@@ -3274,10 +3316,10 @@
         <v>2003003</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E39" s="11">
         <v>15003753</v>
@@ -3298,7 +3340,7 @@
         <v>2</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="11">
@@ -3335,10 +3377,10 @@
         <v>2003004</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E40" s="11">
         <v>15003754</v>
@@ -3399,10 +3441,10 @@
         <v>2003050</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E42" s="6">
         <v>15003751</v>
@@ -3423,7 +3465,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L42" s="12"/>
       <c r="M42" s="6">
@@ -3462,10 +3504,10 @@
         <v>2003051</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E43" s="6">
         <v>15003752</v>
@@ -3486,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="6">
@@ -3523,10 +3565,10 @@
         <v>2003052</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E44" s="6">
         <v>15003753</v>
@@ -3547,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L44" s="12"/>
       <c r="M44" s="6">
@@ -3584,7 +3626,7 @@
     </row>
     <row r="48" spans="16:16">
       <c r="P48" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3595,10 +3637,10 @@
         <v>2005001</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E49" s="6">
         <v>15003753</v>
@@ -3619,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M49" s="6">
         <v>0</v>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -35,7 +35,7 @@
     <author>Zxy</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1">
+    <comment ref="H3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="1">
+    <comment ref="I3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="K3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
   <si>
     <t>#</t>
   </si>
@@ -198,12 +198,12 @@
     <t>describe</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>iconResId</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>skillReleaseTargeType</t>
   </si>
   <si>
@@ -279,6 +279,9 @@
     <t>技能介绍</t>
   </si>
   <si>
+    <t>技能等级</t>
+  </si>
+  <si>
     <t>技能图标资源id</t>
   </si>
   <si>
@@ -339,9 +342,39 @@
     <t>技能轨迹 Id 列表</t>
   </si>
   <si>
+    <t>倒数第 4 位是人物，倒数第 3 位是技能，最后 两位是等级</t>
+  </si>
+  <si>
     <t>上官唯 普通攻击</t>
   </si>
   <si>
+    <t>上官唯 专属技能</t>
+  </si>
+  <si>
+    <t>凤紫夕 普通攻击</t>
+  </si>
+  <si>
+    <t>凤紫夕 专属技能</t>
+  </si>
+  <si>
+    <t>唐依 普通攻击</t>
+  </si>
+  <si>
+    <t>唐依 专属技能</t>
+  </si>
+  <si>
+    <t>倒数第 3 位是技能，最后两位是等级</t>
+  </si>
+  <si>
+    <t>回旋镖</t>
+  </si>
+  <si>
+    <t>闪电链</t>
+  </si>
+  <si>
+    <t>道具技能（待定）</t>
+  </si>
+  <si>
     <t>上官唯 技能1</t>
   </si>
   <si>
@@ -391,9 +424,6 @@
   </si>
   <si>
     <t>26001001,26001002</t>
-  </si>
-  <si>
-    <t>唐依 普通攻击</t>
   </si>
   <si>
     <t>雷霆穿云(Q)</t>
@@ -679,12 +709,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1164,7 +1194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,28 +1222,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1564,40 +1597,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:Y84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J13" sqref="J13"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
-    <col min="11" max="12" width="32.375" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
-    <col min="16" max="16" width="12.375" customWidth="1"/>
-    <col min="17" max="17" width="16.375" customWidth="1"/>
-    <col min="18" max="19" width="12.375" customWidth="1"/>
-    <col min="20" max="20" width="21.625" customWidth="1"/>
-    <col min="21" max="21" width="21.5" style="5" customWidth="1"/>
-    <col min="22" max="22" width="12.375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="16.875" customWidth="1"/>
-    <col min="24" max="24" width="21.875" customWidth="1"/>
-    <col min="25" max="25" width="27.75" customWidth="1"/>
+    <col min="4" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="13" width="32.375" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="15" max="15" width="14.625" customWidth="1"/>
+    <col min="16" max="16" width="9.625" customWidth="1"/>
+    <col min="17" max="17" width="12.375" customWidth="1"/>
+    <col min="18" max="18" width="16.375" customWidth="1"/>
+    <col min="19" max="20" width="12.375" customWidth="1"/>
+    <col min="21" max="21" width="21.625" customWidth="1"/>
+    <col min="22" max="22" width="21.5" style="5" customWidth="1"/>
+    <col min="23" max="23" width="12.375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="16.875" customWidth="1"/>
+    <col min="25" max="25" width="21.875" customWidth="1"/>
+    <col min="26" max="26" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:24">
+    <row r="1" ht="18" customHeight="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1617,61 +1650,64 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1703,13 +1739,13 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
         <v>24</v>
@@ -1717,7 +1753,7 @@
       <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -1732,20 +1768,23 @@
       <c r="T2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>24</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:24">
+    <row r="3" ht="93" customHeight="1" spans="1:25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1806,434 +1845,231 @@
       <c r="T3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2001001</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="Y3" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>51</v>
-      </c>
+    </row>
+    <row r="4" ht="54" spans="2:22">
+      <c r="B4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6">
-        <v>3001001</v>
-      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>233</v>
-      </c>
-      <c r="O4" s="9">
-        <v>100</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>1</v>
-      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="U4" s="16"/>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>2601001</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:23">
-      <c r="B5" s="1">
-        <v>2001002</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="15"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2001101</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>2</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>3001002</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9">
-        <v>99000</v>
-      </c>
-      <c r="N5" s="9">
-        <v>100</v>
-      </c>
-      <c r="O5" s="9">
-        <v>500</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1000</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>2601002</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:22">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="15"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>2001002</v>
+        <v>2001201</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2</v>
-      </c>
-      <c r="K6" s="6">
-        <v>14001010</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>466</v>
-      </c>
-      <c r="O6" s="6">
-        <v>200</v>
-      </c>
-      <c r="P6" s="6">
-        <v>15000</v>
-      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>2001003</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>466</v>
-      </c>
-      <c r="O7" s="6">
-        <v>200</v>
-      </c>
-      <c r="P7" s="6">
-        <v>8000</v>
-      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="15"/>
+    </row>
+    <row r="7" spans="3:22">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:23">
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="15"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>2001004</v>
+        <v>2002101</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>16001001</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6">
-        <v>100000</v>
-      </c>
-      <c r="N8" s="6">
-        <v>466</v>
-      </c>
-      <c r="O8" s="6">
-        <v>200</v>
-      </c>
-      <c r="P8" s="6">
-        <v>7000</v>
-      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="5">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>2601005</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:22">
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="15"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>2001005</v>
+        <v>2002201</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6">
-        <v>15003754</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>2</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>466</v>
-      </c>
-      <c r="O9" s="6">
-        <v>200</v>
-      </c>
-      <c r="P9" s="6">
-        <v>25000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="6">
-        <v>1</v>
-      </c>
+      <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:22">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>2001006</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>2</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="15"/>
+    </row>
+    <row r="10" spans="3:22">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="3:22">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="15"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>2003101</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -2244,74 +2080,48 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:22">
+      <c r="U11" s="6"/>
+      <c r="V11" s="15"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>2001008</v>
+        <v>2003202</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>466</v>
-      </c>
-      <c r="O12" s="6">
-        <v>200</v>
-      </c>
-      <c r="P12" s="6">
-        <v>2500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U12" s="16"/>
-      <c r="V12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="3:22">
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="15"/>
+    </row>
+    <row r="13" spans="3:22">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2324,396 +2134,238 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>2001021</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="15"/>
+    </row>
+    <row r="14" spans="3:22">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="15"/>
+    </row>
+    <row r="15" spans="3:22">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="6">
-        <v>3001011</v>
-      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>180</v>
-      </c>
-      <c r="O15" s="6">
-        <v>100</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>1</v>
-      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U15" s="16"/>
-      <c r="V15" s="5">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>2601021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>2001022</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>3001012</v>
-      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="15"/>
+    </row>
+    <row r="16" spans="3:22">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N16" s="6">
-        <v>1800</v>
-      </c>
-      <c r="O16" s="6">
-        <v>1800</v>
-      </c>
-      <c r="P16" s="6">
-        <v>2000</v>
-      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="6">
-        <v>267</v>
-      </c>
-      <c r="U16" s="16"/>
-      <c r="V16" s="5">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>2001023</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>2</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>180</v>
-      </c>
-      <c r="O17" s="6">
-        <v>100</v>
-      </c>
-      <c r="P17" s="6">
-        <v>15000</v>
-      </c>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="15"/>
+    </row>
+    <row r="17" spans="3:22">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U17" s="16"/>
-      <c r="V17" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:22">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>2001024</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N18" s="6">
-        <v>180</v>
-      </c>
-      <c r="O18" s="6">
-        <v>100</v>
-      </c>
-      <c r="P18" s="6">
-        <v>3000</v>
-      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" ht="40.5" spans="2:22">
+      <c r="B18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U18" s="16"/>
-      <c r="V18" s="5">
-        <v>0</v>
-      </c>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="15"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>2001025</v>
+        <v>2100101</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>79</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="6">
-        <v>15003754</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
         <v>1</v>
       </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>1</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N19" s="6">
-        <v>180</v>
-      </c>
-      <c r="O19" s="6">
-        <v>100</v>
-      </c>
-      <c r="P19" s="6">
-        <v>25000</v>
-      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="6">
-        <v>1</v>
-      </c>
+      <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U19" s="16"/>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:22">
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="15"/>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20">
-        <v>2001026</v>
+        <v>2100102</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>82</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
         <v>2</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U20" s="16"/>
-      <c r="V20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:23">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="15"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>2100103</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
       <c r="T21" s="6"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="5"/>
-      <c r="W21"/>
-    </row>
-    <row r="22" ht="12" customHeight="1" spans="3:21">
-      <c r="C22" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="15"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>2100104</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6">
+        <v>4</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -2723,79 +2375,48 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="16"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:24">
+      <c r="U22" s="6"/>
+      <c r="V22" s="15"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23">
-        <v>2001050</v>
+        <v>2100105</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>2</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>16001010</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="6">
-        <v>10000</v>
-      </c>
-      <c r="N23" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>600</v>
-      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U23" s="16"/>
-      <c r="V23" s="5">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>2601050</v>
-      </c>
-      <c r="X23">
-        <v>2500005</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="3:22">
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="24" spans="3:22">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -2808,19 +2429,29 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25" customFormat="1" spans="3:22">
-      <c r="C25" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="15"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>2100201</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -2830,19 +2461,29 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" customFormat="1" spans="3:22">
-      <c r="C26" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="15"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>2100202</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -2852,19 +2493,29 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="5"/>
-    </row>
-    <row r="27" customFormat="1" spans="3:22">
-      <c r="C27" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="15"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>2100203</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6">
+        <v>3</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -2874,142 +2525,124 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="5"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="20:22">
+      <c r="U27" s="6"/>
+      <c r="V27" s="15"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>2100204</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>4</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="20:20">
+      <c r="U28" s="6"/>
+      <c r="V28" s="15"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>2100205</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>5</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>2002001</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="U29" s="6"/>
+      <c r="V29" s="15"/>
+    </row>
+    <row r="30" spans="3:22">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6">
-        <v>1</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6">
-        <v>1</v>
-      </c>
-      <c r="K30" s="6">
-        <v>3002001</v>
-      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <v>300</v>
-      </c>
-      <c r="O30" s="6">
-        <v>300</v>
-      </c>
-      <c r="P30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>1</v>
-      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="6">
-        <v>1540</v>
-      </c>
-      <c r="U30" s="16"/>
-      <c r="V30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>2002002</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>2</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
-        <v>2</v>
-      </c>
-      <c r="K31" s="6">
-        <v>13002030</v>
-      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="15"/>
+    </row>
+    <row r="31" spans="3:22">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6">
-        <v>4000</v>
-      </c>
-      <c r="N31" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O31" s="6">
-        <v>700</v>
-      </c>
-      <c r="P31" s="6">
-        <v>6500</v>
-      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="6">
-        <v>340</v>
-      </c>
-      <c r="U31" s="16"/>
-      <c r="V31" s="5">
-        <v>0</v>
-      </c>
-      <c r="W31"/>
-      <c r="X31">
-        <v>2500010</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="3:22">
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="15"/>
+    </row>
+    <row r="32" spans="3:22">
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -3022,155 +2655,93 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="5"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:22">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>2002011</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="15"/>
+    </row>
+    <row r="33" spans="3:22">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6">
-        <v>1</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6">
-        <v>1</v>
-      </c>
-      <c r="K33" s="6">
-        <v>3002011</v>
-      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6">
-        <v>300</v>
-      </c>
-      <c r="O33" s="6">
-        <v>200</v>
-      </c>
-      <c r="P33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>1</v>
-      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="6">
-        <v>1400</v>
-      </c>
-      <c r="U33" s="16"/>
-      <c r="V33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:24">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>2002012</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>2</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6">
-        <v>0</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0</v>
-      </c>
-      <c r="K34" s="6">
-        <v>3002012</v>
-      </c>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="15"/>
+    </row>
+    <row r="34" spans="3:22">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N34" s="6">
-        <v>1000</v>
-      </c>
-      <c r="O34" s="6">
-        <v>700</v>
-      </c>
-      <c r="P34" s="6">
-        <v>7000</v>
-      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="6">
-        <v>420</v>
-      </c>
-      <c r="U34" s="16"/>
-      <c r="V34" s="5">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>2602012</v>
-      </c>
-      <c r="X34">
-        <v>2500011</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="4:22">
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="15"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>2500001</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="5"/>
-    </row>
-    <row r="36" customFormat="1" spans="4:22">
+      <c r="U35" s="6"/>
+      <c r="V35" s="15"/>
+    </row>
+    <row r="36" spans="3:22">
+      <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -3178,517 +2749,1970 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="5"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:23">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>2003001</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="U36" s="6"/>
+      <c r="V36" s="15"/>
+    </row>
+    <row r="37" spans="3:22">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6">
-        <v>1</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>3003001</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6">
-        <v>300</v>
-      </c>
-      <c r="O37" s="6">
-        <v>300</v>
-      </c>
-      <c r="P37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>1</v>
-      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="6">
-        <v>1540</v>
-      </c>
-      <c r="U37" s="16"/>
-      <c r="V37" s="5">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>2603001</v>
-      </c>
-    </row>
-    <row r="38" s="4" customFormat="1" spans="1:23">
-      <c r="A38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="4">
-        <v>2003002</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="11">
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="15"/>
+    </row>
+    <row r="38" spans="3:22">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="15"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>2001001</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>1</v>
+      </c>
+      <c r="L39" s="6">
+        <v>3001001</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10">
+        <v>233</v>
+      </c>
+      <c r="P39" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0</v>
+      </c>
+      <c r="R39" s="6">
+        <v>1</v>
+      </c>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6">
+        <v>2000</v>
+      </c>
+      <c r="V39" s="15"/>
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>2601001</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:24">
+      <c r="B40" s="1">
+        <v>2001002</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>2</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10">
+        <v>3001002</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10">
+        <v>99000</v>
+      </c>
+      <c r="O40" s="10">
+        <v>100</v>
+      </c>
+      <c r="P40" s="10">
+        <v>500</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>1000</v>
+      </c>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V40" s="15"/>
+      <c r="W40" s="5">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>2601002</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:23">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>2001002</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6">
         <v>15003751</v>
       </c>
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
         <v>2</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>1</v>
-      </c>
-      <c r="K38" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="11">
+      <c r="L41" s="6">
+        <v>14001010</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <v>466</v>
+      </c>
+      <c r="P41" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>15000</v>
+      </c>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V41" s="15"/>
+      <c r="W41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>2001003</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M42" s="12"/>
+      <c r="N42" s="6">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
+        <v>466</v>
+      </c>
+      <c r="P42" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q42" s="6">
         <v>8000</v>
-      </c>
-      <c r="N38" s="11">
-        <v>600</v>
-      </c>
-      <c r="O38" s="11">
-        <v>0</v>
-      </c>
-      <c r="P38" s="11">
-        <v>2000</v>
-      </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U38" s="11"/>
-      <c r="V38" s="5">
-        <v>0</v>
-      </c>
-      <c r="W38" s="4">
-        <v>2603002</v>
-      </c>
-    </row>
-    <row r="39" s="4" customFormat="1" spans="1:23">
-      <c r="A39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4">
-        <v>2003003</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="11">
-        <v>15003753</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="11">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11">
-        <v>0</v>
-      </c>
-      <c r="J39" s="11">
-        <v>2</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="11">
-        <v>0</v>
-      </c>
-      <c r="N39" s="11">
-        <v>50</v>
-      </c>
-      <c r="O39" s="11">
-        <v>0</v>
-      </c>
-      <c r="P39" s="11">
-        <v>6000</v>
-      </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U39" s="11"/>
-      <c r="V39" s="5">
-        <v>15008005</v>
-      </c>
-      <c r="W39" s="4">
-        <v>2603003</v>
-      </c>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="1:23">
-      <c r="A40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="4">
-        <v>2003004</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="11">
-        <v>15003754</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <v>2</v>
-      </c>
-      <c r="H40" s="11">
-        <v>1</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>16001001</v>
-      </c>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11">
-        <v>8000</v>
-      </c>
-      <c r="N40" s="11">
-        <v>0</v>
-      </c>
-      <c r="O40" s="11">
-        <v>0</v>
-      </c>
-      <c r="P40" s="11">
-        <v>1500</v>
-      </c>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U40" s="11"/>
-      <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40" s="4">
-        <v>2603004</v>
-      </c>
-    </row>
-    <row r="41" spans="20:20">
-      <c r="T41" s="6"/>
-    </row>
-    <row r="42" customFormat="1" spans="1:23">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>2003050</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="F42" s="6">
-        <v>0</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
-        <v>1</v>
-      </c>
-      <c r="J42" s="6">
-        <v>2</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="L42" s="12"/>
-      <c r="M42" s="6">
-        <v>0</v>
-      </c>
-      <c r="N42" s="6">
-        <v>0</v>
-      </c>
-      <c r="O42" s="6">
-        <v>0</v>
-      </c>
-      <c r="P42" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>1</v>
       </c>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="6">
+      <c r="T42" s="6"/>
+      <c r="U42" s="6">
         <v>1000</v>
       </c>
-      <c r="U42" s="16"/>
-      <c r="V42" s="5">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>2603050</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:23">
+      <c r="V42" s="15"/>
+      <c r="W42" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:24">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43">
-        <v>2003051</v>
+        <v>2001004</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="6">
-        <v>15003752</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="6">
-        <v>0</v>
+        <v>15003753</v>
       </c>
       <c r="G43" s="6">
         <v>0</v>
       </c>
       <c r="H43" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" s="6">
         <v>1</v>
       </c>
       <c r="J43" s="6">
-        <v>2</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L43" s="12"/>
-      <c r="M43" s="6">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <v>16001001</v>
+      </c>
+      <c r="M43" s="6"/>
       <c r="N43" s="6">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="O43" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="P43" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>7000</v>
+      </c>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="6">
+      <c r="T43" s="6"/>
+      <c r="U43" s="6">
         <v>1000</v>
       </c>
-      <c r="U43" s="16"/>
-      <c r="V43" s="5">
-        <v>0</v>
-      </c>
-      <c r="W43">
+      <c r="V43" s="15"/>
+      <c r="W43" s="5">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>2601005</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:23">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>2001005</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
+        <v>15003754</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>2</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M44" s="12"/>
+      <c r="N44" s="6">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
+        <v>466</v>
+      </c>
+      <c r="P44" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>25000</v>
+      </c>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6">
+        <v>1</v>
+      </c>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V44" s="15"/>
+      <c r="W44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:23">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>2001006</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>1</v>
+      </c>
+      <c r="K45" s="6">
+        <v>2</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M45" s="12"/>
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+      <c r="P45" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>0</v>
+      </c>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V45" s="15"/>
+      <c r="W45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="3:23">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="5"/>
+    </row>
+    <row r="47" customFormat="1" spans="1:23">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>2001008</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="12"/>
+      <c r="N47" s="6">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
+        <v>466</v>
+      </c>
+      <c r="P47" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>2500</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V47" s="15"/>
+      <c r="W47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="3:23">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="5"/>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>2001021</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6">
+        <v>1</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1</v>
+      </c>
+      <c r="L50" s="6">
+        <v>3001011</v>
+      </c>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
+        <v>180</v>
+      </c>
+      <c r="P50" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>0</v>
+      </c>
+      <c r="R50" s="6">
+        <v>1</v>
+      </c>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6">
+        <v>2667</v>
+      </c>
+      <c r="V50" s="15"/>
+      <c r="W50" s="5">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>2601021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>2001022</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>2</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>3001012</v>
+      </c>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6">
+        <v>6000</v>
+      </c>
+      <c r="O51" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P51" s="6">
+        <v>1800</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>2000</v>
+      </c>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6">
+        <v>267</v>
+      </c>
+      <c r="V51" s="15"/>
+      <c r="W51" s="5">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>2001023</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>2</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M52" s="12"/>
+      <c r="N52" s="6">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
+        <v>180</v>
+      </c>
+      <c r="P52" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>15000</v>
+      </c>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6">
+        <v>2667</v>
+      </c>
+      <c r="V52" s="15"/>
+      <c r="W52" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:23">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>2001024</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M53" s="12"/>
+      <c r="N53" s="6">
+        <v>8000</v>
+      </c>
+      <c r="O53" s="6">
+        <v>180</v>
+      </c>
+      <c r="P53" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>3000</v>
+      </c>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6">
+        <v>2667</v>
+      </c>
+      <c r="V53" s="15"/>
+      <c r="W53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>2001025</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6">
+        <v>15003754</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M54" s="12"/>
+      <c r="N54" s="6">
+        <v>8000</v>
+      </c>
+      <c r="O54" s="6">
+        <v>180</v>
+      </c>
+      <c r="P54" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>25000</v>
+      </c>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6">
+        <v>1</v>
+      </c>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6">
+        <v>2667</v>
+      </c>
+      <c r="V54" s="15"/>
+      <c r="W54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:23">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>2001026</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>1</v>
+      </c>
+      <c r="K55" s="6">
+        <v>2</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M55" s="12"/>
+      <c r="N55" s="6">
+        <v>0</v>
+      </c>
+      <c r="O55" s="6">
+        <v>0</v>
+      </c>
+      <c r="P55" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6">
+        <v>2667</v>
+      </c>
+      <c r="V55" s="15"/>
+      <c r="W55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:24">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="5"/>
+      <c r="X56"/>
+    </row>
+    <row r="57" ht="12" customHeight="1" spans="3:22">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="15"/>
+    </row>
+    <row r="58" customFormat="1" spans="1:25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>2001050</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>2</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="6">
+        <v>16001010</v>
+      </c>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6">
+        <v>10000</v>
+      </c>
+      <c r="O58" s="6">
+        <v>1500</v>
+      </c>
+      <c r="P58" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>600</v>
+      </c>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V58" s="15"/>
+      <c r="W58" s="5">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>2601050</v>
+      </c>
+      <c r="Y58">
+        <v>2500005</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="3:23">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="5"/>
+    </row>
+    <row r="60" customFormat="1" spans="3:23">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="5"/>
+    </row>
+    <row r="61" customFormat="1" spans="3:23">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="5"/>
+    </row>
+    <row r="62" customFormat="1" spans="3:23">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="5"/>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="21:23">
+      <c r="U63" s="6"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+    </row>
+    <row r="64" spans="21:21">
+      <c r="U64" s="6"/>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>2002001</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6">
+        <v>1</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>0</v>
+      </c>
+      <c r="K65" s="6">
+        <v>1</v>
+      </c>
+      <c r="L65" s="6">
+        <v>3002001</v>
+      </c>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6">
+        <v>0</v>
+      </c>
+      <c r="O65" s="6">
+        <v>300</v>
+      </c>
+      <c r="P65" s="6">
+        <v>300</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>0</v>
+      </c>
+      <c r="R65" s="6">
+        <v>1</v>
+      </c>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6">
+        <v>1540</v>
+      </c>
+      <c r="V65" s="15"/>
+      <c r="W65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>2002002</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <v>2</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0</v>
+      </c>
+      <c r="K66" s="6">
+        <v>2</v>
+      </c>
+      <c r="L66" s="6">
+        <v>13002030</v>
+      </c>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6">
+        <v>4000</v>
+      </c>
+      <c r="O66" s="6">
+        <v>1500</v>
+      </c>
+      <c r="P66" s="6">
+        <v>700</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>6500</v>
+      </c>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6">
+        <v>340</v>
+      </c>
+      <c r="V66" s="15"/>
+      <c r="W66" s="5">
+        <v>0</v>
+      </c>
+      <c r="X66"/>
+      <c r="Y66">
+        <v>2500010</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="3:23">
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="5"/>
+    </row>
+    <row r="68" customFormat="1" spans="1:23">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>2002011</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0</v>
+      </c>
+      <c r="K68" s="6">
+        <v>1</v>
+      </c>
+      <c r="L68" s="6">
+        <v>3002011</v>
+      </c>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6">
+        <v>0</v>
+      </c>
+      <c r="O68" s="6">
+        <v>300</v>
+      </c>
+      <c r="P68" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>0</v>
+      </c>
+      <c r="R68" s="6">
+        <v>1</v>
+      </c>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6">
+        <v>1400</v>
+      </c>
+      <c r="V68" s="15"/>
+      <c r="W68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>2002012</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0</v>
+      </c>
+      <c r="H69" s="6">
+        <v>2</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0</v>
+      </c>
+      <c r="L69" s="6">
+        <v>3002012</v>
+      </c>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6">
+        <v>8000</v>
+      </c>
+      <c r="O69" s="6">
+        <v>1000</v>
+      </c>
+      <c r="P69" s="6">
+        <v>700</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>7000</v>
+      </c>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6">
+        <v>420</v>
+      </c>
+      <c r="V69" s="15"/>
+      <c r="W69" s="5">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>2602012</v>
+      </c>
+      <c r="Y69">
+        <v>2500011</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="4:23">
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="5"/>
+    </row>
+    <row r="71" customFormat="1" spans="4:23">
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="5"/>
+    </row>
+    <row r="72" customFormat="1" spans="1:24">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>2003001</v>
+      </c>
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6">
+        <v>1</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
+        <v>0</v>
+      </c>
+      <c r="K72" s="6">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>3003001</v>
+      </c>
+      <c r="N72" s="6">
+        <v>0</v>
+      </c>
+      <c r="O72" s="6">
+        <v>300</v>
+      </c>
+      <c r="P72" s="6">
+        <v>300</v>
+      </c>
+      <c r="Q72" s="6">
+        <v>0</v>
+      </c>
+      <c r="R72" s="6">
+        <v>1</v>
+      </c>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6">
+        <v>1540</v>
+      </c>
+      <c r="V72" s="15"/>
+      <c r="W72" s="5">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>2603001</v>
+      </c>
+    </row>
+    <row r="73" s="4" customFormat="1" spans="1:24">
+      <c r="A73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="4">
+        <v>2003002</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16">
+        <v>15003751</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0</v>
+      </c>
+      <c r="H73" s="16">
+        <v>2</v>
+      </c>
+      <c r="I73" s="16">
+        <v>0</v>
+      </c>
+      <c r="J73" s="16">
+        <v>0</v>
+      </c>
+      <c r="K73" s="16">
+        <v>1</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M73" s="17"/>
+      <c r="N73" s="16">
+        <v>8000</v>
+      </c>
+      <c r="O73" s="16">
+        <v>600</v>
+      </c>
+      <c r="P73" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="16">
+        <v>2000</v>
+      </c>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V73" s="16"/>
+      <c r="W73" s="5">
+        <v>0</v>
+      </c>
+      <c r="X73" s="4">
+        <v>2603002</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="1" spans="1:24">
+      <c r="A74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2003003</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16">
+        <v>15003753</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0</v>
+      </c>
+      <c r="H74" s="16">
+        <v>0</v>
+      </c>
+      <c r="I74" s="16">
+        <v>0</v>
+      </c>
+      <c r="J74" s="16">
+        <v>0</v>
+      </c>
+      <c r="K74" s="16">
+        <v>2</v>
+      </c>
+      <c r="L74" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="M74" s="17"/>
+      <c r="N74" s="16">
+        <v>0</v>
+      </c>
+      <c r="O74" s="16">
+        <v>50</v>
+      </c>
+      <c r="P74" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="16">
+        <v>6000</v>
+      </c>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V74" s="16"/>
+      <c r="W74" s="5">
+        <v>15008005</v>
+      </c>
+      <c r="X74" s="4">
+        <v>2603003</v>
+      </c>
+    </row>
+    <row r="75" s="4" customFormat="1" spans="1:24">
+      <c r="A75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="4">
+        <v>2003004</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16">
+        <v>15003754</v>
+      </c>
+      <c r="G75" s="6">
+        <v>0</v>
+      </c>
+      <c r="H75" s="16">
+        <v>2</v>
+      </c>
+      <c r="I75" s="16">
+        <v>1</v>
+      </c>
+      <c r="J75" s="16">
+        <v>0</v>
+      </c>
+      <c r="K75" s="16">
+        <v>0</v>
+      </c>
+      <c r="L75" s="16">
+        <v>16001001</v>
+      </c>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16">
+        <v>8000</v>
+      </c>
+      <c r="O75" s="16">
+        <v>0</v>
+      </c>
+      <c r="P75" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="16">
+        <v>1500</v>
+      </c>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V75" s="16"/>
+      <c r="W75" s="5">
+        <v>0</v>
+      </c>
+      <c r="X75" s="4">
+        <v>2603004</v>
+      </c>
+    </row>
+    <row r="76" spans="21:21">
+      <c r="U76" s="6"/>
+    </row>
+    <row r="77" customFormat="1" spans="1:24">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>2003050</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G77" s="6">
+        <v>0</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
+        <v>1</v>
+      </c>
+      <c r="K77" s="6">
+        <v>2</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M77" s="12"/>
+      <c r="N77" s="6">
+        <v>0</v>
+      </c>
+      <c r="O77" s="6">
+        <v>0</v>
+      </c>
+      <c r="P77" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="6">
+        <v>0</v>
+      </c>
+      <c r="R77" s="6">
+        <v>1</v>
+      </c>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V77" s="15"/>
+      <c r="W77" s="5">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>2603050</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:24">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>2003051</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G78" s="6">
+        <v>0</v>
+      </c>
+      <c r="H78" s="6">
+        <v>0</v>
+      </c>
+      <c r="I78" s="6">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6">
+        <v>1</v>
+      </c>
+      <c r="K78" s="6">
+        <v>2</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M78" s="12"/>
+      <c r="N78" s="6">
+        <v>0</v>
+      </c>
+      <c r="O78" s="6">
+        <v>0</v>
+      </c>
+      <c r="P78" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="6">
+        <v>0</v>
+      </c>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V78" s="15"/>
+      <c r="W78" s="5">
+        <v>0</v>
+      </c>
+      <c r="X78">
         <v>2603051</v>
       </c>
     </row>
-    <row r="44" customFormat="1" spans="1:24">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44">
+    <row r="79" customFormat="1" spans="1:25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
         <v>2003052</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="6">
+      <c r="C79" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6">
         <v>15003753</v>
       </c>
-      <c r="F44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0</v>
-      </c>
-      <c r="J44" s="6">
-        <v>0</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="L44" s="12"/>
-      <c r="M44" s="6">
-        <v>0</v>
-      </c>
-      <c r="N44" s="6">
+      <c r="G79" s="6">
+        <v>0</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0</v>
+      </c>
+      <c r="I79" s="6">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
+        <v>0</v>
+      </c>
+      <c r="K79" s="6">
+        <v>0</v>
+      </c>
+      <c r="L79" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M79" s="12"/>
+      <c r="N79" s="6">
+        <v>0</v>
+      </c>
+      <c r="O79" s="6">
         <v>1500</v>
       </c>
-      <c r="O44" s="6">
+      <c r="P79" s="6">
         <v>700</v>
       </c>
-      <c r="P44" s="6">
+      <c r="Q79" s="6">
         <v>12000</v>
       </c>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6">
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6">
         <v>340</v>
       </c>
-      <c r="U44" s="16"/>
-      <c r="V44" s="5">
+      <c r="V79" s="15"/>
+      <c r="W79" s="5">
         <v>15008014</v>
       </c>
-      <c r="W44">
+      <c r="X79">
         <v>2603052</v>
       </c>
-      <c r="X44">
+      <c r="Y79">
         <v>2500020</v>
       </c>
     </row>
-    <row r="45" spans="20:20">
-      <c r="T45" s="6"/>
-    </row>
-    <row r="48" spans="16:16">
-      <c r="P48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49">
+    <row r="80" spans="21:21">
+      <c r="U80" s="6"/>
+    </row>
+    <row r="83" spans="17:17">
+      <c r="Q83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
         <v>2005001</v>
       </c>
-      <c r="C49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="C84" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" t="s">
+        <v>117</v>
+      </c>
+      <c r="F84" s="6">
         <v>15003753</v>
       </c>
-      <c r="F49" s="6">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" s="6">
+      <c r="G84" s="6">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="6">
         <v>2</v>
       </c>
-      <c r="I49" s="6">
-        <v>0</v>
-      </c>
-      <c r="J49" s="6">
-        <v>0</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="M49" s="6">
-        <v>0</v>
-      </c>
-      <c r="N49" s="6">
-        <v>0</v>
-      </c>
-      <c r="O49" s="6">
-        <v>0</v>
-      </c>
-      <c r="P49" s="6">
+      <c r="J84" s="6">
+        <v>0</v>
+      </c>
+      <c r="K84" s="6">
+        <v>0</v>
+      </c>
+      <c r="L84" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M84" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N84" s="6">
+        <v>0</v>
+      </c>
+      <c r="O84" s="6">
+        <v>0</v>
+      </c>
+      <c r="P84" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="6">
         <v>2000</v>
       </c>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6">
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6">
         <v>1000</v>
       </c>
-      <c r="U49" s="16"/>
-      <c r="V49" s="5">
+      <c r="V84" s="15"/>
+      <c r="W84" s="5">
         <v>15008014</v>
       </c>
-      <c r="W49">
+      <c r="X84">
         <v>2605001</v>
       </c>
     </row>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="17655" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,37 +31,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Zxy</author>
     <author>94067</author>
-    <author>Zxy</author>
   </authors>
   <commentList>
     <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>94067:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0 绿
-1 蓝
-2 紫
-3 橙色
-4 红</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -85,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="N3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -184,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
   <si>
     <t>#</t>
   </si>
@@ -285,9 +259,6 @@
     <t>技能图标资源id</t>
   </si>
   <si>
-    <t>等级</t>
-  </si>
-  <si>
     <t>技能释放目标类型</t>
   </si>
   <si>
@@ -351,22 +322,40 @@
     <t>上官唯 专属技能</t>
   </si>
   <si>
-    <t>凤紫夕 普通攻击</t>
+    <t>唐依 普通攻击</t>
   </si>
   <si>
     <t>凤紫夕 专属技能</t>
   </si>
   <si>
-    <t>唐依 普通攻击</t>
-  </si>
-  <si>
     <t>唐依 专属技能</t>
   </si>
   <si>
     <t>倒数第 3 位是技能，最后两位是等级</t>
   </si>
   <si>
-    <t>回旋镖</t>
+    <t>回旋镖lv1</t>
+  </si>
+  <si>
+    <t>投掷一个镖，造成伤害，伤害递减</t>
+  </si>
+  <si>
+    <t>回旋镖lv2</t>
+  </si>
+  <si>
+    <t>回旋镖lv3</t>
+  </si>
+  <si>
+    <t>投掷一个能返回的镖，造成伤害，伤害递减</t>
+  </si>
+  <si>
+    <t>回旋镖lv4</t>
+  </si>
+  <si>
+    <t>回旋镖lv5</t>
+  </si>
+  <si>
+    <t>投掷一个能返回的镖，造成伤害，伤害不再递减</t>
   </si>
   <si>
     <t>闪电链</t>
@@ -709,12 +698,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1194,7 +1183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,9 +1206,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1597,40 +1583,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y84"/>
+  <dimension ref="A1:X84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+      <selection pane="topRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="13" width="32.375" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
-    <col min="15" max="15" width="14.625" customWidth="1"/>
-    <col min="16" max="16" width="9.625" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
-    <col min="18" max="18" width="16.375" customWidth="1"/>
-    <col min="19" max="20" width="12.375" customWidth="1"/>
-    <col min="21" max="21" width="21.625" customWidth="1"/>
-    <col min="22" max="22" width="21.5" style="5" customWidth="1"/>
-    <col min="23" max="23" width="12.375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="16.875" customWidth="1"/>
-    <col min="25" max="25" width="21.875" customWidth="1"/>
-    <col min="26" max="26" width="27.75" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="12" width="32.375" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="12.375" customWidth="1"/>
+    <col min="17" max="17" width="16.375" customWidth="1"/>
+    <col min="18" max="19" width="12.375" customWidth="1"/>
+    <col min="20" max="20" width="21.625" customWidth="1"/>
+    <col min="21" max="21" width="21.5" style="5" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="16.875" customWidth="1"/>
+    <col min="24" max="24" width="21.875" customWidth="1"/>
+    <col min="25" max="25" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:25">
+    <row r="1" ht="18" customHeight="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1650,64 +1637,61 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Q1" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1739,13 +1723,13 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
         <v>24</v>
@@ -1753,7 +1737,7 @@
       <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -1768,23 +1752,20 @@
       <c r="T2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" t="s">
         <v>24</v>
       </c>
       <c r="X2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:25">
+    <row r="3" ht="93" customHeight="1" spans="1:24">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1845,25 +1826,22 @@
       <c r="T3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" t="s">
         <v>50</v>
       </c>
-      <c r="Y3" t="s">
+    </row>
+    <row r="4" ht="54" spans="2:21">
+      <c r="B4" s="8" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="4" ht="54" spans="2:22">
-      <c r="B4" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1876,17 +1854,16 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="15"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="U4" s="14"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1894,10 +1871,10 @@
         <v>2001101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1908,17 +1885,16 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="15"/>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="U5" s="14"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1902,7 @@
         <v>2001201</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6">
@@ -1940,17 +1916,16 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="15"/>
-    </row>
-    <row r="7" spans="3:22">
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" spans="3:21">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1962,17 +1937,16 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="15"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="U7" s="14"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:23">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1980,30 +1954,58 @@
         <v>2002101</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3000101</v>
+      </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="6"/>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>180</v>
+      </c>
+      <c r="O8" s="6">
+        <v>100</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="15"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="T8" s="6">
+        <v>2667</v>
+      </c>
+      <c r="U8" s="14"/>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>2601021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2013,7 @@
         <v>2002201</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6">
@@ -2025,17 +2027,16 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="15"/>
-    </row>
-    <row r="10" spans="3:22">
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" spans="3:21">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2047,17 +2048,16 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="15"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="U10" s="14"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2065,10 +2065,10 @@
         <v>2003101</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -2079,17 +2079,16 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="15"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="U11" s="14"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>2003202</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
@@ -2111,17 +2110,16 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="15"/>
-    </row>
-    <row r="13" spans="3:22">
+      <c r="U12" s="14"/>
+    </row>
+    <row r="13" spans="3:21">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2133,17 +2131,16 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="15"/>
-    </row>
-    <row r="14" spans="3:22">
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="3:21">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2155,17 +2152,16 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="15"/>
-    </row>
-    <row r="15" spans="3:22">
+      <c r="U14" s="14"/>
+    </row>
+    <row r="15" spans="3:21">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2177,17 +2173,16 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="15"/>
-    </row>
-    <row r="16" spans="3:22">
+      <c r="U15" s="14"/>
+    </row>
+    <row r="16" spans="3:21">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -2199,17 +2194,16 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="15"/>
-    </row>
-    <row r="17" spans="3:22">
+      <c r="U16" s="14"/>
+    </row>
+    <row r="17" spans="3:21">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2221,19 +2215,18 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="15"/>
-    </row>
-    <row r="18" ht="40.5" spans="2:22">
-      <c r="B18" s="9" t="s">
-        <v>59</v>
+      <c r="U17" s="14"/>
+    </row>
+    <row r="18" ht="40.5" spans="2:21">
+      <c r="B18" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2246,17 +2239,16 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="15"/>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="U18" s="14"/>
+    </row>
+    <row r="19" customFormat="1" ht="27" spans="1:23">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2264,31 +2256,60 @@
         <v>2100101</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="F19" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>3100101</v>
+      </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="M19" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N19" s="6">
+        <v>400</v>
+      </c>
+      <c r="O19" s="6">
+        <v>400</v>
+      </c>
+      <c r="P19" s="6">
+        <v>2000</v>
+      </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="15"/>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="T19" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U19" s="14"/>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="27" spans="1:23">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2298,29 +2319,58 @@
       <c r="C20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="E20" s="6">
         <v>2</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="F20" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>3100102</v>
+      </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="M20" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N20" s="6">
+        <v>400</v>
+      </c>
+      <c r="O20" s="6">
+        <v>400</v>
+      </c>
+      <c r="P20" s="6">
+        <v>2000</v>
+      </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="15"/>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="T20" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U20" s="14"/>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="40.5" spans="1:23">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2328,31 +2378,60 @@
         <v>2100103</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="E21" s="6">
         <v>3</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="F21" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>3100103</v>
+      </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
+      <c r="M21" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N21" s="6">
+        <v>400</v>
+      </c>
+      <c r="O21" s="6">
+        <v>400</v>
+      </c>
+      <c r="P21" s="6">
+        <v>2000</v>
+      </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="15"/>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="T21" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U21" s="14"/>
+      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="40.5" spans="1:23">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2360,31 +2439,60 @@
         <v>2100104</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="E22" s="6">
         <v>4</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="F22" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>3100104</v>
+      </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+      <c r="M22" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N22" s="6">
+        <v>400</v>
+      </c>
+      <c r="O22" s="6">
+        <v>400</v>
+      </c>
+      <c r="P22" s="6">
+        <v>2000</v>
+      </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="15"/>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="T22" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U22" s="14"/>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="40.5" spans="1:23">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2392,31 +2500,60 @@
         <v>2100105</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="E23" s="6">
         <v>5</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="F23" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G23" s="6">
+        <v>2</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>3100105</v>
+      </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+      <c r="M23" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N23" s="6">
+        <v>400</v>
+      </c>
+      <c r="O23" s="6">
+        <v>400</v>
+      </c>
+      <c r="P23" s="6">
+        <v>2000</v>
+      </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="15"/>
-    </row>
-    <row r="24" spans="3:22">
+      <c r="T23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U23" s="14"/>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -2428,17 +2565,16 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="15"/>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="U24" s="14"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2582,7 @@
         <v>2100201</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6">
@@ -2460,17 +2596,16 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="15"/>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="U25" s="14"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2478,7 +2613,7 @@
         <v>2100202</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6">
@@ -2492,17 +2627,16 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="15"/>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="U26" s="14"/>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2644,7 @@
         <v>2100203</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6">
@@ -2524,17 +2658,16 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="15"/>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="U27" s="14"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2675,7 @@
         <v>2100204</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6">
@@ -2556,17 +2689,16 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="15"/>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="U28" s="14"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2706,7 @@
         <v>2100205</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6">
@@ -2588,17 +2720,16 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="15"/>
-    </row>
-    <row r="30" spans="3:22">
+      <c r="U29" s="14"/>
+    </row>
+    <row r="30" spans="3:21">
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2610,17 +2741,16 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="15"/>
-    </row>
-    <row r="31" spans="3:22">
+      <c r="U30" s="14"/>
+    </row>
+    <row r="31" spans="3:21">
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2632,17 +2762,16 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="15"/>
-    </row>
-    <row r="32" spans="3:22">
+      <c r="U31" s="14"/>
+    </row>
+    <row r="32" spans="3:21">
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2654,17 +2783,16 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="15"/>
-    </row>
-    <row r="33" spans="3:22">
+      <c r="U32" s="14"/>
+    </row>
+    <row r="33" spans="3:21">
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2676,17 +2804,16 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="15"/>
-    </row>
-    <row r="34" spans="3:22">
+      <c r="U33" s="14"/>
+    </row>
+    <row r="34" spans="3:21">
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2698,17 +2825,16 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="15"/>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="U34" s="14"/>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2716,7 +2842,7 @@
         <v>2500001</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6">
@@ -2730,17 +2856,16 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="15"/>
-    </row>
-    <row r="36" spans="3:22">
+      <c r="U35" s="14"/>
+    </row>
+    <row r="36" spans="3:21">
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2752,17 +2877,16 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="15"/>
-    </row>
-    <row r="37" spans="3:22">
+      <c r="U36" s="14"/>
+    </row>
+    <row r="37" spans="3:21">
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2774,17 +2898,16 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="15"/>
-    </row>
-    <row r="38" spans="3:22">
+      <c r="U37" s="14"/>
+    </row>
+    <row r="38" spans="3:21">
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2796,17 +2919,16 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="15"/>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="U38" s="14"/>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2814,118 +2936,112 @@
         <v>2001001</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
         <v>1</v>
       </c>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
       <c r="K39" s="6">
+        <v>3001001</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
+        <v>233</v>
+      </c>
+      <c r="O39" s="9">
+        <v>100</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="6">
         <v>1</v>
       </c>
-      <c r="L39" s="6">
-        <v>3001001</v>
-      </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6">
-        <v>0</v>
-      </c>
-      <c r="O39" s="10">
-        <v>233</v>
-      </c>
-      <c r="P39" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>0</v>
-      </c>
-      <c r="R39" s="6">
-        <v>1</v>
-      </c>
+      <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6">
+      <c r="T39" s="6">
         <v>2000</v>
       </c>
-      <c r="V39" s="15"/>
-      <c r="W39" s="5">
-        <v>0</v>
-      </c>
-      <c r="X39">
+      <c r="U39" s="14"/>
+      <c r="V39" s="5">
+        <v>0</v>
+      </c>
+      <c r="W39">
         <v>2601001</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="2:24">
+    <row r="40" s="1" customFormat="1" spans="2:23">
       <c r="B40" s="1">
         <v>2001002</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="10"/>
+      <c r="C40" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="9"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10">
+      <c r="G40" s="9">
         <v>2</v>
       </c>
-      <c r="I40" s="10">
-        <v>0</v>
-      </c>
-      <c r="J40" s="10">
-        <v>0</v>
-      </c>
-      <c r="K40" s="10">
-        <v>0</v>
-      </c>
-      <c r="L40" s="10">
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
         <v>3001002</v>
       </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10">
+      <c r="L40" s="9"/>
+      <c r="M40" s="9">
         <v>99000</v>
       </c>
-      <c r="O40" s="10">
+      <c r="N40" s="9">
         <v>100</v>
       </c>
-      <c r="P40" s="10">
+      <c r="O40" s="9">
         <v>500</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="P40" s="9">
         <v>1000</v>
       </c>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="6">
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="6">
         <v>1000</v>
       </c>
-      <c r="V40" s="15"/>
-      <c r="W40" s="5">
-        <v>0</v>
-      </c>
-      <c r="X40">
+      <c r="U40" s="14"/>
+      <c r="V40" s="5">
+        <v>0</v>
+      </c>
+      <c r="W40">
         <v>2601002</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="1:23">
+    <row r="41" customFormat="1" spans="1:22">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2933,10 +3049,10 @@
         <v>2001002</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6">
@@ -2952,39 +3068,36 @@
         <v>0</v>
       </c>
       <c r="J41" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41" s="6">
-        <v>2</v>
-      </c>
-      <c r="L41" s="6">
         <v>14001010</v>
       </c>
-      <c r="M41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
       <c r="N41" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O41" s="6">
-        <v>466</v>
+        <v>200</v>
       </c>
       <c r="P41" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q41" s="6">
         <v>15000</v>
       </c>
+      <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6">
+      <c r="T41" s="6">
         <v>1000</v>
       </c>
-      <c r="V41" s="15"/>
-      <c r="W41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="U41" s="14"/>
+      <c r="V41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2992,10 +3105,10 @@
         <v>2001003</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6">
@@ -3013,37 +3126,34 @@
       <c r="J42" s="6">
         <v>0</v>
       </c>
-      <c r="K42" s="6">
-        <v>0</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M42" s="12"/>
+      <c r="K42" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
       <c r="N42" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O42" s="6">
-        <v>466</v>
+        <v>200</v>
       </c>
       <c r="P42" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q42" s="6">
         <v>8000</v>
       </c>
+      <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6">
+      <c r="T42" s="6">
         <v>1000</v>
       </c>
-      <c r="V42" s="15"/>
-      <c r="W42" s="5">
+      <c r="U42" s="14"/>
+      <c r="V42" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:24">
+    <row r="43" customFormat="1" spans="1:23">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3051,61 +3161,58 @@
         <v>2001004</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6">
         <v>15003753</v>
       </c>
       <c r="G43" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="6">
         <v>0</v>
       </c>
       <c r="K43" s="6">
-        <v>0</v>
-      </c>
-      <c r="L43" s="6">
         <v>16001001</v>
       </c>
-      <c r="M43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6">
+        <v>100000</v>
+      </c>
       <c r="N43" s="6">
-        <v>100000</v>
+        <v>466</v>
       </c>
       <c r="O43" s="6">
-        <v>466</v>
+        <v>200</v>
       </c>
       <c r="P43" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q43" s="6">
         <v>7000</v>
       </c>
+      <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6">
+      <c r="T43" s="6">
         <v>1000</v>
       </c>
-      <c r="V43" s="15"/>
-      <c r="W43" s="5">
-        <v>0</v>
-      </c>
-      <c r="X43">
+      <c r="U43" s="14"/>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43">
         <v>2601005</v>
       </c>
     </row>
-    <row r="44" customFormat="1" spans="1:23">
+    <row r="44" customFormat="1" spans="1:22">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3113,10 +3220,10 @@
         <v>2001005</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6">
@@ -3132,41 +3239,38 @@
         <v>0</v>
       </c>
       <c r="J44" s="6">
-        <v>0</v>
-      </c>
-      <c r="K44" s="6">
         <v>2</v>
       </c>
-      <c r="L44" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="M44" s="12"/>
+      <c r="K44" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
       <c r="N44" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O44" s="6">
-        <v>466</v>
+        <v>200</v>
       </c>
       <c r="P44" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q44" s="6">
         <v>25000</v>
       </c>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6">
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6">
         <v>1</v>
       </c>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6">
+      <c r="S44" s="6"/>
+      <c r="T44" s="6">
         <v>1000</v>
       </c>
-      <c r="V44" s="15"/>
-      <c r="W44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:23">
+      <c r="U44" s="14"/>
+      <c r="V44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:22">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3174,10 +3278,10 @@
         <v>2001006</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6">
@@ -3190,18 +3294,18 @@
         <v>0</v>
       </c>
       <c r="I45" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="6">
-        <v>1</v>
-      </c>
-      <c r="K45" s="6">
         <v>2</v>
       </c>
-      <c r="L45" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M45" s="12"/>
+      <c r="K45" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
       <c r="N45" s="6">
         <v>0</v>
       </c>
@@ -3211,21 +3315,18 @@
       <c r="P45" s="6">
         <v>0</v>
       </c>
-      <c r="Q45" s="6">
-        <v>0</v>
-      </c>
+      <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6">
+      <c r="T45" s="6">
         <v>1000</v>
       </c>
-      <c r="V45" s="15"/>
-      <c r="W45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="3:23">
+      <c r="U45" s="14"/>
+      <c r="V45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="3:22">
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -3244,11 +3345,10 @@
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="5"/>
-    </row>
-    <row r="47" customFormat="1" spans="1:23">
+      <c r="U46" s="14"/>
+      <c r="V46" s="5"/>
+    </row>
+    <row r="47" customFormat="1" spans="1:22">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3256,10 +3356,10 @@
         <v>2001008</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6">
@@ -3277,37 +3377,34 @@
       <c r="J47" s="6">
         <v>0</v>
       </c>
-      <c r="K47" s="6">
-        <v>0</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M47" s="12"/>
+      <c r="K47" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L47" s="11"/>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
       <c r="N47" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O47" s="6">
-        <v>466</v>
+        <v>200</v>
       </c>
       <c r="P47" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q47" s="6">
         <v>2500</v>
       </c>
+      <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6">
+      <c r="T47" s="6">
         <v>1000</v>
       </c>
-      <c r="V47" s="15"/>
-      <c r="W47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="3:23">
+      <c r="U47" s="14"/>
+      <c r="V47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="3:22">
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -3326,11 +3423,10 @@
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="5"/>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="U48" s="14"/>
+      <c r="V48" s="5"/>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3338,59 +3434,58 @@
         <v>2001021</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
       <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
         <v>1</v>
       </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>0</v>
-      </c>
       <c r="K50" s="6">
+        <v>3001011</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>180</v>
+      </c>
+      <c r="O50" s="6">
+        <v>100</v>
+      </c>
+      <c r="P50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="6">
         <v>1</v>
       </c>
-      <c r="L50" s="6">
-        <v>3001011</v>
-      </c>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6">
-        <v>0</v>
-      </c>
-      <c r="O50" s="6">
-        <v>180</v>
-      </c>
-      <c r="P50" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>0</v>
-      </c>
-      <c r="R50" s="6">
-        <v>1</v>
-      </c>
+      <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6">
+      <c r="T50" s="6">
         <v>2667</v>
       </c>
-      <c r="V50" s="15"/>
-      <c r="W50" s="5">
-        <v>0</v>
-      </c>
-      <c r="X50">
+      <c r="U50" s="14"/>
+      <c r="V50" s="5">
+        <v>0</v>
+      </c>
+      <c r="W50">
         <v>2601021</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3398,20 +3493,20 @@
         <v>2001022</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6">
         <v>15003751</v>
       </c>
       <c r="G51" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" s="6">
         <v>0</v>
@@ -3420,39 +3515,36 @@
         <v>0</v>
       </c>
       <c r="K51" s="6">
-        <v>0</v>
-      </c>
-      <c r="L51" s="6">
         <v>3001012</v>
       </c>
-      <c r="M51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6">
+        <v>6000</v>
+      </c>
       <c r="N51" s="6">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="O51" s="6">
         <v>1800</v>
       </c>
       <c r="P51" s="6">
-        <v>1800</v>
-      </c>
-      <c r="Q51" s="6">
         <v>2000</v>
       </c>
+      <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6">
+      <c r="T51" s="6">
         <v>267</v>
       </c>
-      <c r="V51" s="15"/>
-      <c r="W51" s="5">
-        <v>0</v>
-      </c>
-      <c r="X51">
+      <c r="U51" s="14"/>
+      <c r="V51" s="5">
+        <v>0</v>
+      </c>
+      <c r="W51">
         <v>2601022</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3460,10 +3552,10 @@
         <v>2001023</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6">
@@ -3479,39 +3571,36 @@
         <v>0</v>
       </c>
       <c r="J52" s="6">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
         <v>2</v>
       </c>
-      <c r="L52" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M52" s="12"/>
+      <c r="K52" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L52" s="11"/>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
       <c r="N52" s="6">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O52" s="6">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="P52" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q52" s="6">
         <v>15000</v>
       </c>
+      <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6">
+      <c r="T52" s="6">
         <v>2667</v>
       </c>
-      <c r="V52" s="15"/>
-      <c r="W52" s="5">
+      <c r="U52" s="14"/>
+      <c r="V52" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="53" customFormat="1" spans="1:23">
+    <row r="53" customFormat="1" spans="1:22">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3519,58 +3608,55 @@
         <v>2001024</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6">
         <v>15003753</v>
       </c>
       <c r="G53" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
         <v>1</v>
       </c>
-      <c r="I53" s="6">
-        <v>0</v>
-      </c>
-      <c r="J53" s="6">
-        <v>0</v>
-      </c>
-      <c r="K53" s="6">
-        <v>1</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="M53" s="12"/>
+      <c r="K53" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L53" s="11"/>
+      <c r="M53" s="6">
+        <v>8000</v>
+      </c>
       <c r="N53" s="6">
-        <v>8000</v>
+        <v>180</v>
       </c>
       <c r="O53" s="6">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="P53" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q53" s="6">
         <v>3000</v>
       </c>
+      <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6">
+      <c r="T53" s="6">
         <v>2667</v>
       </c>
-      <c r="V53" s="15"/>
-      <c r="W53" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="U53" s="14"/>
+      <c r="V53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3578,60 +3664,57 @@
         <v>2001025</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6">
         <v>15003754</v>
       </c>
       <c r="G54" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
         <v>1</v>
       </c>
-      <c r="I54" s="6">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6">
-        <v>0</v>
-      </c>
-      <c r="K54" s="6">
+      <c r="K54" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L54" s="11"/>
+      <c r="M54" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N54" s="6">
+        <v>180</v>
+      </c>
+      <c r="O54" s="6">
+        <v>100</v>
+      </c>
+      <c r="P54" s="6">
+        <v>25000</v>
+      </c>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6">
         <v>1</v>
       </c>
-      <c r="L54" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="M54" s="12"/>
-      <c r="N54" s="6">
-        <v>8000</v>
-      </c>
-      <c r="O54" s="6">
-        <v>180</v>
-      </c>
-      <c r="P54" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q54" s="6">
-        <v>25000</v>
-      </c>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6">
-        <v>1</v>
-      </c>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6">
+      <c r="S54" s="6"/>
+      <c r="T54" s="6">
         <v>2667</v>
       </c>
-      <c r="V54" s="15"/>
-      <c r="W54" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:23">
+      <c r="U54" s="14"/>
+      <c r="V54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:22">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -3639,10 +3722,10 @@
         <v>2001026</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6">
@@ -3655,66 +3738,62 @@
         <v>0</v>
       </c>
       <c r="I55" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="6">
-        <v>1</v>
-      </c>
-      <c r="K55" s="6">
         <v>2</v>
       </c>
-      <c r="L55" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="M55" s="12"/>
+      <c r="K55" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L55" s="11"/>
+      <c r="M55" s="6">
+        <v>0</v>
+      </c>
       <c r="N55" s="6">
         <v>0</v>
       </c>
       <c r="O55" s="6">
         <v>0</v>
       </c>
-      <c r="P55" s="6">
-        <v>0</v>
-      </c>
+      <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6">
+      <c r="T55" s="6">
         <v>2667</v>
       </c>
-      <c r="V55" s="15"/>
-      <c r="W55" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" s="2" customFormat="1" spans="1:24">
+      <c r="U55" s="14"/>
+      <c r="V55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:23">
       <c r="A56"/>
       <c r="B56"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="5"/>
-      <c r="X56"/>
-    </row>
-    <row r="57" ht="12" customHeight="1" spans="3:22">
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="5"/>
+      <c r="W56"/>
+    </row>
+    <row r="57" ht="12" customHeight="1" spans="3:21">
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -3733,10 +3812,9 @@
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="15"/>
-    </row>
-    <row r="58" customFormat="1" spans="1:25">
+      <c r="U57" s="14"/>
+    </row>
+    <row r="58" customFormat="1" spans="1:24">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -3744,64 +3822,61 @@
         <v>2001050</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6">
         <v>15003753</v>
       </c>
       <c r="G58" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="6">
         <v>0</v>
       </c>
       <c r="K58" s="6">
-        <v>0</v>
-      </c>
-      <c r="L58" s="6">
         <v>16001010</v>
       </c>
-      <c r="M58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6">
+        <v>10000</v>
+      </c>
       <c r="N58" s="6">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="O58" s="6">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="6">
         <v>600</v>
       </c>
+      <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6">
+      <c r="T58" s="6">
         <v>1000</v>
       </c>
-      <c r="V58" s="15"/>
-      <c r="W58" s="5">
-        <v>0</v>
+      <c r="U58" s="14"/>
+      <c r="V58" s="5">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>2601050</v>
       </c>
       <c r="X58">
-        <v>2601050</v>
-      </c>
-      <c r="Y58">
         <v>2500005</v>
       </c>
     </row>
-    <row r="59" customFormat="1" spans="3:23">
+    <row r="59" customFormat="1" spans="3:22">
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -3820,11 +3895,10 @@
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="5"/>
-    </row>
-    <row r="60" customFormat="1" spans="3:23">
+      <c r="U59" s="14"/>
+      <c r="V59" s="5"/>
+    </row>
+    <row r="60" customFormat="1" spans="3:22">
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -3843,11 +3917,10 @@
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="5"/>
-    </row>
-    <row r="61" customFormat="1" spans="3:23">
+      <c r="U60" s="14"/>
+      <c r="V60" s="5"/>
+    </row>
+    <row r="61" customFormat="1" spans="3:22">
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -3866,11 +3939,10 @@
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="5"/>
-    </row>
-    <row r="62" customFormat="1" spans="3:23">
+      <c r="U61" s="14"/>
+      <c r="V61" s="5"/>
+    </row>
+    <row r="62" customFormat="1" spans="3:22">
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -3889,19 +3961,18 @@
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="5"/>
-    </row>
-    <row r="63" s="3" customFormat="1" spans="21:23">
-      <c r="U63" s="6"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="5"/>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="20:22">
+      <c r="T63" s="6"/>
+      <c r="U63" s="5"/>
       <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-    </row>
-    <row r="64" spans="21:21">
-      <c r="U64" s="6"/>
-    </row>
-    <row r="65" spans="1:23">
+    </row>
+    <row r="64" spans="20:20">
+      <c r="T64" s="6"/>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3909,56 +3980,55 @@
         <v>2002001</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
       <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
         <v>1</v>
       </c>
-      <c r="I65" s="6">
-        <v>0</v>
-      </c>
-      <c r="J65" s="6">
-        <v>0</v>
-      </c>
       <c r="K65" s="6">
-        <v>1</v>
-      </c>
-      <c r="L65" s="6">
         <v>3002001</v>
       </c>
-      <c r="M65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6">
+        <v>0</v>
+      </c>
       <c r="N65" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O65" s="6">
         <v>300</v>
       </c>
       <c r="P65" s="6">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="6">
-        <v>0</v>
-      </c>
-      <c r="R65" s="6">
         <v>1</v>
       </c>
+      <c r="R65" s="6"/>
       <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6">
+      <c r="T65" s="6">
         <v>1540</v>
       </c>
-      <c r="V65" s="15"/>
-      <c r="W65" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="U65" s="14"/>
+      <c r="V65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -3966,62 +4036,59 @@
         <v>2002002</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6">
         <v>15003753</v>
       </c>
       <c r="G66" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
         <v>2</v>
       </c>
-      <c r="I66" s="6">
-        <v>0</v>
-      </c>
-      <c r="J66" s="6">
-        <v>0</v>
-      </c>
       <c r="K66" s="6">
-        <v>2</v>
-      </c>
-      <c r="L66" s="6">
         <v>13002030</v>
       </c>
-      <c r="M66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6">
+        <v>4000</v>
+      </c>
       <c r="N66" s="6">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="O66" s="6">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="P66" s="6">
-        <v>700</v>
-      </c>
-      <c r="Q66" s="6">
         <v>6500</v>
       </c>
+      <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6">
+      <c r="T66" s="6">
         <v>340</v>
       </c>
-      <c r="V66" s="15"/>
-      <c r="W66" s="5">
-        <v>0</v>
-      </c>
-      <c r="X66"/>
-      <c r="Y66">
+      <c r="U66" s="14"/>
+      <c r="V66" s="5">
+        <v>0</v>
+      </c>
+      <c r="W66"/>
+      <c r="X66">
         <v>2500010</v>
       </c>
     </row>
-    <row r="67" customFormat="1" spans="3:23">
+    <row r="67" customFormat="1" spans="3:22">
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -4040,11 +4107,10 @@
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="5"/>
-    </row>
-    <row r="68" customFormat="1" spans="1:23">
+      <c r="U67" s="14"/>
+      <c r="V67" s="5"/>
+    </row>
+    <row r="68" customFormat="1" spans="1:22">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -4052,56 +4118,55 @@
         <v>2002011</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="G68" s="6">
+        <v>1</v>
+      </c>
       <c r="H68" s="6">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
         <v>1</v>
       </c>
-      <c r="I68" s="6">
-        <v>0</v>
-      </c>
-      <c r="J68" s="6">
-        <v>0</v>
-      </c>
       <c r="K68" s="6">
+        <v>3002011</v>
+      </c>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6">
+        <v>0</v>
+      </c>
+      <c r="N68" s="6">
+        <v>300</v>
+      </c>
+      <c r="O68" s="6">
+        <v>200</v>
+      </c>
+      <c r="P68" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="6">
         <v>1</v>
       </c>
-      <c r="L68" s="6">
-        <v>3002011</v>
-      </c>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6">
-        <v>0</v>
-      </c>
-      <c r="O68" s="6">
-        <v>300</v>
-      </c>
-      <c r="P68" s="6">
-        <v>200</v>
-      </c>
-      <c r="Q68" s="6">
-        <v>0</v>
-      </c>
-      <c r="R68" s="6">
-        <v>1</v>
-      </c>
+      <c r="R68" s="6"/>
       <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6">
+      <c r="T68" s="6">
         <v>1400</v>
       </c>
-      <c r="V68" s="15"/>
-      <c r="W68" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:25">
+      <c r="U68" s="14"/>
+      <c r="V68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:24">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -4109,20 +4174,20 @@
         <v>2002012</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6">
         <v>15003751</v>
       </c>
       <c r="G69" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" s="6">
         <v>0</v>
@@ -4131,42 +4196,39 @@
         <v>0</v>
       </c>
       <c r="K69" s="6">
-        <v>0</v>
-      </c>
-      <c r="L69" s="6">
         <v>3002012</v>
       </c>
-      <c r="M69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6">
+        <v>8000</v>
+      </c>
       <c r="N69" s="6">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="O69" s="6">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="P69" s="6">
-        <v>700</v>
-      </c>
-      <c r="Q69" s="6">
         <v>7000</v>
       </c>
+      <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6">
+      <c r="T69" s="6">
         <v>420</v>
       </c>
-      <c r="V69" s="15"/>
-      <c r="W69" s="5">
-        <v>0</v>
+      <c r="U69" s="14"/>
+      <c r="V69" s="5">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>2602012</v>
       </c>
       <c r="X69">
-        <v>2602012</v>
-      </c>
-      <c r="Y69">
         <v>2500011</v>
       </c>
     </row>
-    <row r="70" customFormat="1" spans="4:23">
+    <row r="70" customFormat="1" spans="4:22">
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -4174,7 +4236,7 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
+      <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -4182,11 +4244,10 @@
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="15"/>
-      <c r="W70" s="5"/>
-    </row>
-    <row r="71" customFormat="1" spans="4:23">
+      <c r="U70" s="14"/>
+      <c r="V70" s="5"/>
+    </row>
+    <row r="71" customFormat="1" spans="4:22">
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -4194,7 +4255,7 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
+      <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -4202,11 +4263,10 @@
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="15"/>
-      <c r="W71" s="5"/>
-    </row>
-    <row r="72" customFormat="1" spans="1:24">
+      <c r="U71" s="14"/>
+      <c r="V71" s="5"/>
+    </row>
+    <row r="72" customFormat="1" spans="1:23">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -4214,247 +4274,237 @@
         <v>2003001</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
       <c r="H72" s="6">
+        <v>0</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
         <v>1</v>
       </c>
-      <c r="I72" s="6">
-        <v>0</v>
-      </c>
-      <c r="J72" s="6">
-        <v>0</v>
-      </c>
-      <c r="K72" s="6">
-        <v>1</v>
-      </c>
-      <c r="L72">
+      <c r="K72">
         <v>3003001</v>
       </c>
+      <c r="M72" s="6">
+        <v>0</v>
+      </c>
       <c r="N72" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O72" s="6">
         <v>300</v>
       </c>
       <c r="P72" s="6">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="6">
-        <v>0</v>
-      </c>
-      <c r="R72" s="6">
         <v>1</v>
       </c>
+      <c r="R72" s="6"/>
       <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6">
+      <c r="T72" s="6">
         <v>1540</v>
       </c>
-      <c r="V72" s="15"/>
-      <c r="W72" s="5">
-        <v>0</v>
-      </c>
-      <c r="X72">
+      <c r="U72" s="14"/>
+      <c r="V72" s="5">
+        <v>0</v>
+      </c>
+      <c r="W72">
         <v>2603001</v>
       </c>
     </row>
-    <row r="73" s="4" customFormat="1" spans="1:24">
+    <row r="73" s="4" customFormat="1" spans="1:23">
       <c r="A73" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B73" s="4">
         <v>2003002</v>
       </c>
-      <c r="C73" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16">
+      <c r="C73" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15">
         <v>15003751</v>
       </c>
-      <c r="G73" s="6">
-        <v>0</v>
-      </c>
-      <c r="H73" s="16">
+      <c r="G73" s="15">
         <v>2</v>
       </c>
-      <c r="I73" s="16">
-        <v>0</v>
-      </c>
-      <c r="J73" s="16">
-        <v>0</v>
-      </c>
-      <c r="K73" s="16">
+      <c r="H73" s="15">
+        <v>0</v>
+      </c>
+      <c r="I73" s="15">
+        <v>0</v>
+      </c>
+      <c r="J73" s="15">
         <v>1</v>
       </c>
-      <c r="L73" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="M73" s="17"/>
-      <c r="N73" s="16">
+      <c r="K73" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L73" s="16"/>
+      <c r="M73" s="15">
         <v>8000</v>
       </c>
-      <c r="O73" s="16">
+      <c r="N73" s="15">
         <v>600</v>
       </c>
-      <c r="P73" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="16">
+      <c r="O73" s="15">
+        <v>0</v>
+      </c>
+      <c r="P73" s="15">
         <v>2000</v>
       </c>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="6">
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="6">
         <v>1000</v>
       </c>
-      <c r="V73" s="16"/>
-      <c r="W73" s="5">
-        <v>0</v>
-      </c>
-      <c r="X73" s="4">
+      <c r="U73" s="15"/>
+      <c r="V73" s="5">
+        <v>0</v>
+      </c>
+      <c r="W73" s="4">
         <v>2603002</v>
       </c>
     </row>
-    <row r="74" s="4" customFormat="1" spans="1:24">
+    <row r="74" s="4" customFormat="1" spans="1:23">
       <c r="A74" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B74" s="4">
         <v>2003003</v>
       </c>
-      <c r="C74" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16">
+      <c r="C74" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15">
         <v>15003753</v>
       </c>
-      <c r="G74" s="6">
-        <v>0</v>
-      </c>
-      <c r="H74" s="16">
-        <v>0</v>
-      </c>
-      <c r="I74" s="16">
-        <v>0</v>
-      </c>
-      <c r="J74" s="16">
-        <v>0</v>
-      </c>
-      <c r="K74" s="16">
+      <c r="G74" s="15">
+        <v>0</v>
+      </c>
+      <c r="H74" s="15">
+        <v>0</v>
+      </c>
+      <c r="I74" s="15">
+        <v>0</v>
+      </c>
+      <c r="J74" s="15">
         <v>2</v>
       </c>
-      <c r="L74" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="M74" s="17"/>
-      <c r="N74" s="16">
-        <v>0</v>
-      </c>
-      <c r="O74" s="16">
+      <c r="K74" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="L74" s="16"/>
+      <c r="M74" s="15">
+        <v>0</v>
+      </c>
+      <c r="N74" s="15">
         <v>50</v>
       </c>
-      <c r="P74" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="16">
+      <c r="O74" s="15">
+        <v>0</v>
+      </c>
+      <c r="P74" s="15">
         <v>6000</v>
       </c>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="6">
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="6">
         <v>1000</v>
       </c>
-      <c r="V74" s="16"/>
-      <c r="W74" s="5">
+      <c r="U74" s="15"/>
+      <c r="V74" s="5">
         <v>15008005</v>
       </c>
-      <c r="X74" s="4">
+      <c r="W74" s="4">
         <v>2603003</v>
       </c>
     </row>
-    <row r="75" s="4" customFormat="1" spans="1:24">
+    <row r="75" s="4" customFormat="1" spans="1:23">
       <c r="A75" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B75" s="4">
         <v>2003004</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16">
+      <c r="C75" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15">
         <v>15003754</v>
       </c>
-      <c r="G75" s="6">
-        <v>0</v>
-      </c>
-      <c r="H75" s="16">
+      <c r="G75" s="15">
         <v>2</v>
       </c>
-      <c r="I75" s="16">
+      <c r="H75" s="15">
         <v>1</v>
       </c>
-      <c r="J75" s="16">
-        <v>0</v>
-      </c>
-      <c r="K75" s="16">
-        <v>0</v>
-      </c>
-      <c r="L75" s="16">
+      <c r="I75" s="15">
+        <v>0</v>
+      </c>
+      <c r="J75" s="15">
+        <v>0</v>
+      </c>
+      <c r="K75" s="15">
         <v>16001001</v>
       </c>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16">
+      <c r="L75" s="15"/>
+      <c r="M75" s="15">
         <v>8000</v>
       </c>
-      <c r="O75" s="16">
-        <v>0</v>
-      </c>
-      <c r="P75" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="16">
+      <c r="N75" s="15">
+        <v>0</v>
+      </c>
+      <c r="O75" s="15">
+        <v>0</v>
+      </c>
+      <c r="P75" s="15">
         <v>1500</v>
       </c>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="6">
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="6">
         <v>1000</v>
       </c>
-      <c r="V75" s="16"/>
-      <c r="W75" s="5">
-        <v>0</v>
-      </c>
-      <c r="X75" s="4">
+      <c r="U75" s="15"/>
+      <c r="V75" s="5">
+        <v>0</v>
+      </c>
+      <c r="W75" s="4">
         <v>2603004</v>
       </c>
     </row>
-    <row r="76" spans="21:21">
-      <c r="U76" s="6"/>
-    </row>
-    <row r="77" customFormat="1" spans="1:24">
+    <row r="76" spans="20:20">
+      <c r="T76" s="6"/>
+    </row>
+    <row r="77" customFormat="1" spans="1:23">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -4462,10 +4512,10 @@
         <v>2003050</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6">
@@ -4478,47 +4528,44 @@
         <v>0</v>
       </c>
       <c r="I77" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="6">
+        <v>2</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L77" s="11"/>
+      <c r="M77" s="6">
+        <v>0</v>
+      </c>
+      <c r="N77" s="6">
+        <v>0</v>
+      </c>
+      <c r="O77" s="6">
+        <v>0</v>
+      </c>
+      <c r="P77" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="6">
         <v>1</v>
       </c>
-      <c r="K77" s="6">
-        <v>2</v>
-      </c>
-      <c r="L77" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="M77" s="12"/>
-      <c r="N77" s="6">
-        <v>0</v>
-      </c>
-      <c r="O77" s="6">
-        <v>0</v>
-      </c>
-      <c r="P77" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="6">
-        <v>0</v>
-      </c>
-      <c r="R77" s="6">
-        <v>1</v>
-      </c>
+      <c r="R77" s="6"/>
       <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6">
+      <c r="T77" s="6">
         <v>1000</v>
       </c>
-      <c r="V77" s="15"/>
-      <c r="W77" s="5">
-        <v>0</v>
-      </c>
-      <c r="X77">
+      <c r="U77" s="14"/>
+      <c r="V77" s="5">
+        <v>0</v>
+      </c>
+      <c r="W77">
         <v>2603050</v>
       </c>
     </row>
-    <row r="78" customFormat="1" spans="1:24">
+    <row r="78" customFormat="1" spans="1:23">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -4526,10 +4573,10 @@
         <v>2003051</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6">
@@ -4542,18 +4589,18 @@
         <v>0</v>
       </c>
       <c r="I78" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="6">
-        <v>1</v>
-      </c>
-      <c r="K78" s="6">
         <v>2</v>
       </c>
-      <c r="L78" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M78" s="12"/>
+      <c r="K78" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L78" s="11"/>
+      <c r="M78" s="6">
+        <v>0</v>
+      </c>
       <c r="N78" s="6">
         <v>0</v>
       </c>
@@ -4563,24 +4610,21 @@
       <c r="P78" s="6">
         <v>0</v>
       </c>
-      <c r="Q78" s="6">
-        <v>0</v>
-      </c>
+      <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6">
+      <c r="T78" s="6">
         <v>1000</v>
       </c>
-      <c r="V78" s="15"/>
-      <c r="W78" s="5">
-        <v>0</v>
-      </c>
-      <c r="X78">
+      <c r="U78" s="14"/>
+      <c r="V78" s="5">
+        <v>0</v>
+      </c>
+      <c r="W78">
         <v>2603051</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="1:25">
+    <row r="79" customFormat="1" spans="1:24">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -4588,10 +4632,10 @@
         <v>2003052</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6">
@@ -4609,51 +4653,48 @@
       <c r="J79" s="6">
         <v>0</v>
       </c>
-      <c r="K79" s="6">
-        <v>0</v>
-      </c>
-      <c r="L79" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="M79" s="12"/>
+      <c r="K79" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L79" s="11"/>
+      <c r="M79" s="6">
+        <v>0</v>
+      </c>
       <c r="N79" s="6">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="O79" s="6">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="P79" s="6">
-        <v>700</v>
-      </c>
-      <c r="Q79" s="6">
         <v>12000</v>
       </c>
+      <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6">
+      <c r="T79" s="6">
         <v>340</v>
       </c>
-      <c r="V79" s="15"/>
-      <c r="W79" s="5">
+      <c r="U79" s="14"/>
+      <c r="V79" s="5">
         <v>15008014</v>
       </c>
+      <c r="W79">
+        <v>2603052</v>
+      </c>
       <c r="X79">
-        <v>2603052</v>
-      </c>
-      <c r="Y79">
         <v>2500020</v>
       </c>
     </row>
-    <row r="80" spans="21:21">
-      <c r="U80" s="6"/>
-    </row>
-    <row r="83" spans="17:17">
-      <c r="Q83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
+    <row r="80" spans="20:20">
+      <c r="T80" s="6"/>
+    </row>
+    <row r="83" spans="16:16">
+      <c r="P83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -4661,34 +4702,34 @@
         <v>2005001</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F84" s="6">
         <v>15003753</v>
       </c>
-      <c r="G84" s="6">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" s="6">
+        <v>2</v>
       </c>
       <c r="I84" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" s="6">
         <v>0</v>
       </c>
-      <c r="K84" s="6">
-        <v>0</v>
-      </c>
-      <c r="L84" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M84" s="12" t="s">
-        <v>119</v>
+      <c r="K84" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M84" s="6">
+        <v>0</v>
       </c>
       <c r="N84" s="6">
         <v>0</v>
@@ -4697,22 +4738,19 @@
         <v>0</v>
       </c>
       <c r="P84" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="6">
         <v>2000</v>
       </c>
+      <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6">
+      <c r="T84" s="6">
         <v>1000</v>
       </c>
-      <c r="V84" s="15"/>
-      <c r="W84" s="5">
+      <c r="U84" s="14"/>
+      <c r="V84" s="5">
         <v>15008014</v>
       </c>
-      <c r="X84">
+      <c r="W84">
         <v>2605001</v>
       </c>
     </row>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17655" windowHeight="12015"/>
+    <workbookView windowWidth="15720" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="137">
   <si>
     <t>#</t>
   </si>
@@ -358,7 +358,43 @@
     <t>投掷一个能返回的镖，造成伤害，伤害不再递减</t>
   </si>
   <si>
-    <t>闪电链</t>
+    <t>周围击退lv1</t>
+  </si>
+  <si>
+    <t>周围击退，造成伤害</t>
+  </si>
+  <si>
+    <t>13100101</t>
+  </si>
+  <si>
+    <t>周围击退lv2</t>
+  </si>
+  <si>
+    <t>13100102</t>
+  </si>
+  <si>
+    <t>周围击退lv3</t>
+  </si>
+  <si>
+    <t>周围击退，造成伤害，降低周围敌人护甲</t>
+  </si>
+  <si>
+    <t>13100103</t>
+  </si>
+  <si>
+    <t>周围击退lv4</t>
+  </si>
+  <si>
+    <t>13100104</t>
+  </si>
+  <si>
+    <t>周围击退lv5</t>
+  </si>
+  <si>
+    <t>周围击退，造成伤害，降低周围敌人护甲，提升周围友方攻击力</t>
+  </si>
+  <si>
+    <t>13100105</t>
   </si>
   <si>
     <t>道具技能（待定）</t>
@@ -1183,7 +1219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,6 +1245,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1583,12 +1622,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T22" sqref="T22"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1678,7 +1717,7 @@
       <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="14" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="5" t="s">
@@ -1752,7 +1791,7 @@
       <c r="T2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="V2" s="5" t="s">
@@ -1826,10 +1865,10 @@
       <c r="T3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="14" t="s">
         <v>48</v>
       </c>
       <c r="W3" s="7" t="s">
@@ -1854,14 +1893,14 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="14"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
@@ -1885,14 +1924,14 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="14"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
@@ -1916,14 +1955,14 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="14"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="3:21">
       <c r="C7" s="6"/>
@@ -1937,14 +1976,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="14"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" customFormat="1" spans="1:23">
       <c r="A8" t="s">
@@ -1997,7 +2036,7 @@
       <c r="T8" s="6">
         <v>2667</v>
       </c>
-      <c r="U8" s="14"/>
+      <c r="U8" s="15"/>
       <c r="V8" s="5">
         <v>0</v>
       </c>
@@ -2027,14 +2066,14 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="14"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="6"/>
@@ -2048,14 +2087,14 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="14"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
@@ -2079,14 +2118,14 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="14"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
@@ -2110,14 +2149,14 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="14"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="3:21">
       <c r="C13" s="6"/>
@@ -2131,14 +2170,14 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="14"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="3:21">
       <c r="C14" s="6"/>
@@ -2152,14 +2191,14 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="14"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" spans="3:21">
       <c r="C15" s="6"/>
@@ -2173,14 +2212,14 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="14"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="3:21">
       <c r="C16" s="6"/>
@@ -2194,14 +2233,14 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="14"/>
+      <c r="U16" s="15"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="6"/>
@@ -2215,14 +2254,14 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="14"/>
+      <c r="U17" s="15"/>
     </row>
     <row r="18" ht="40.5" spans="2:21">
       <c r="B18" s="8" t="s">
@@ -2239,14 +2278,14 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="14"/>
+      <c r="U18" s="15"/>
     </row>
     <row r="19" customFormat="1" ht="27" spans="1:23">
       <c r="A19" t="s">
@@ -2301,7 +2340,7 @@
       <c r="T19" s="6">
         <v>1000</v>
       </c>
-      <c r="U19" s="14"/>
+      <c r="U19" s="15"/>
       <c r="V19" s="5">
         <v>0</v>
       </c>
@@ -2362,7 +2401,7 @@
       <c r="T20" s="6">
         <v>1000</v>
       </c>
-      <c r="U20" s="14"/>
+      <c r="U20" s="15"/>
       <c r="V20" s="5">
         <v>0</v>
       </c>
@@ -2423,7 +2462,7 @@
       <c r="T21" s="6">
         <v>1000</v>
       </c>
-      <c r="U21" s="14"/>
+      <c r="U21" s="15"/>
       <c r="V21" s="5">
         <v>0</v>
       </c>
@@ -2484,7 +2523,7 @@
       <c r="T22" s="6">
         <v>1000</v>
       </c>
-      <c r="U22" s="14"/>
+      <c r="U22" s="15"/>
       <c r="V22" s="5">
         <v>0</v>
       </c>
@@ -2545,7 +2584,7 @@
       <c r="T23" s="6">
         <v>1000</v>
       </c>
-      <c r="U23" s="14"/>
+      <c r="U23" s="15"/>
       <c r="V23" s="5">
         <v>0</v>
       </c>
@@ -2565,190 +2604,306 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="14"/>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>2100201</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
+      <c r="U24" s="15"/>
+    </row>
+    <row r="25" customFormat="1" spans="3:22">
+      <c r="C25" s="6"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="14"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="U25" s="15"/>
+      <c r="V25" s="5"/>
+    </row>
+    <row r="26" customFormat="1" ht="27" spans="1:22">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26">
-        <v>2100202</v>
+        <v>2100201</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="E26" s="6">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>466</v>
+      </c>
+      <c r="O26" s="6">
+        <v>200</v>
+      </c>
+      <c r="P26" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="14"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="T26" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U26" s="15"/>
+      <c r="V26" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:21">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27">
-        <v>2100203</v>
+        <v>2100202</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="E27" s="6">
-        <v>3</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>466</v>
+      </c>
+      <c r="O27" s="6">
+        <v>200</v>
+      </c>
+      <c r="P27" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="14"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="U27" s="15"/>
+    </row>
+    <row r="28" ht="40.5" spans="1:21">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28">
-        <v>2100204</v>
+        <v>2100203</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="E28" s="6">
-        <v>4</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>466</v>
+      </c>
+      <c r="O28" s="6">
+        <v>200</v>
+      </c>
+      <c r="P28" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="14"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="U28" s="15"/>
+    </row>
+    <row r="29" ht="40.5" spans="1:21">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29">
-        <v>2100205</v>
+        <v>2100204</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="E29" s="6">
-        <v>5</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="F29" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>466</v>
+      </c>
+      <c r="O29" s="6">
+        <v>200</v>
+      </c>
+      <c r="P29" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="14"/>
-    </row>
-    <row r="30" spans="3:21">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="6"/>
+      <c r="U29" s="15"/>
+    </row>
+    <row r="30" ht="54" spans="1:21">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>2100205</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="6">
+        <v>5</v>
+      </c>
+      <c r="F30" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>466</v>
+      </c>
+      <c r="O30" s="6">
+        <v>200</v>
+      </c>
+      <c r="P30" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="14"/>
+      <c r="U30" s="15"/>
     </row>
     <row r="31" spans="3:21">
       <c r="C31" s="6"/>
@@ -2762,14 +2917,14 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-      <c r="U31" s="14"/>
+      <c r="U31" s="15"/>
     </row>
     <row r="32" spans="3:21">
       <c r="C32" s="6"/>
@@ -2783,14 +2938,14 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
-      <c r="U32" s="14"/>
+      <c r="U32" s="15"/>
     </row>
     <row r="33" spans="3:21">
       <c r="C33" s="6"/>
@@ -2804,14 +2959,14 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
-      <c r="U33" s="14"/>
+      <c r="U33" s="15"/>
     </row>
     <row r="34" spans="3:21">
       <c r="C34" s="6"/>
@@ -2825,29 +2980,19 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
-      <c r="U34" s="14"/>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>2500001</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="U34" s="15"/>
+    </row>
+    <row r="35" spans="3:21">
+      <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
+      <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -2856,19 +3001,29 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-      <c r="U35" s="14"/>
-    </row>
-    <row r="36" spans="3:21">
-      <c r="C36" s="6"/>
+      <c r="U35" s="15"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>2500001</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -2877,14 +3032,14 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-      <c r="U36" s="14"/>
+      <c r="U36" s="15"/>
     </row>
     <row r="37" spans="3:21">
       <c r="C37" s="6"/>
@@ -2898,14 +3053,14 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
-      <c r="U37" s="14"/>
+      <c r="U37" s="15"/>
     </row>
     <row r="38" spans="3:21">
       <c r="C38" s="6"/>
@@ -2919,200 +3074,165 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
-      <c r="U38" s="14"/>
-    </row>
-    <row r="39" spans="1:23">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <v>2001001</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="U38" s="15"/>
+    </row>
+    <row r="39" spans="3:21">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="6">
-        <v>1</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
-        <v>1</v>
-      </c>
-      <c r="K39" s="6">
-        <v>3001001</v>
-      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="6">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>233</v>
-      </c>
-      <c r="O39" s="9">
-        <v>100</v>
-      </c>
-      <c r="P39" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>1</v>
-      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="6">
+      <c r="T39" s="6"/>
+      <c r="U39" s="15"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>2001001</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1</v>
+      </c>
+      <c r="K40" s="6">
+        <v>3001001</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
+        <v>233</v>
+      </c>
+      <c r="O40" s="10">
+        <v>100</v>
+      </c>
+      <c r="P40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>1</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6">
         <v>2000</v>
       </c>
-      <c r="U39" s="14"/>
-      <c r="V39" s="5">
-        <v>0</v>
-      </c>
-      <c r="W39">
+      <c r="U40" s="15"/>
+      <c r="V40" s="5">
+        <v>0</v>
+      </c>
+      <c r="W40">
         <v>2601001</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="2:23">
-      <c r="B40" s="1">
+    <row r="41" s="1" customFormat="1" spans="2:23">
+      <c r="B41" s="1">
         <v>2001002</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="9">
+      <c r="C41" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="10">
         <v>2</v>
       </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9">
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10">
         <v>3001002</v>
       </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9">
+      <c r="L41" s="10"/>
+      <c r="M41" s="10">
         <v>99000</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N41" s="10">
         <v>100</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O41" s="10">
         <v>500</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P41" s="10">
         <v>1000</v>
       </c>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U40" s="14"/>
-      <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>2601002</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:22">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>2001002</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <v>2</v>
-      </c>
-      <c r="K41" s="6">
-        <v>14001010</v>
-      </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6">
-        <v>0</v>
-      </c>
-      <c r="N41" s="6">
-        <v>466</v>
-      </c>
-      <c r="O41" s="6">
-        <v>200</v>
-      </c>
-      <c r="P41" s="6">
-        <v>15000</v>
-      </c>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
       <c r="T41" s="6">
         <v>1000</v>
       </c>
-      <c r="U41" s="14"/>
+      <c r="U41" s="15"/>
       <c r="V41" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>2601002</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:22">
       <c r="A42" t="s">
         <v>0</v>
       </c>
       <c r="B42">
-        <v>2001003</v>
+        <v>2001002</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="G42" s="6">
         <v>0</v>
@@ -3124,12 +3244,12 @@
         <v>0</v>
       </c>
       <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L42" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="K42" s="6">
+        <v>14001010</v>
+      </c>
+      <c r="L42" s="6"/>
       <c r="M42" s="6">
         <v>0</v>
       </c>
@@ -3140,7 +3260,7 @@
         <v>200</v>
       </c>
       <c r="P42" s="6">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
@@ -3148,33 +3268,33 @@
       <c r="T42" s="6">
         <v>1000</v>
       </c>
-      <c r="U42" s="14"/>
+      <c r="U42" s="15"/>
       <c r="V42" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43">
-        <v>2001004</v>
+        <v>2001003</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G43" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="6">
         <v>0</v>
@@ -3182,12 +3302,12 @@
       <c r="J43" s="6">
         <v>0</v>
       </c>
-      <c r="K43" s="6">
-        <v>16001001</v>
-      </c>
-      <c r="L43" s="6"/>
+      <c r="K43" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L43" s="12"/>
       <c r="M43" s="6">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="N43" s="6">
         <v>466</v>
@@ -3196,7 +3316,7 @@
         <v>200</v>
       </c>
       <c r="P43" s="6">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -3204,49 +3324,46 @@
       <c r="T43" s="6">
         <v>1000</v>
       </c>
-      <c r="U43" s="14"/>
+      <c r="U43" s="15"/>
       <c r="V43" s="5">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>2601005</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:22">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:23">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44">
-        <v>2001005</v>
+        <v>2001004</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6">
-        <v>15003754</v>
+        <v>15003753</v>
       </c>
       <c r="G44" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="6">
         <v>0</v>
       </c>
       <c r="J44" s="6">
-        <v>2</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L44" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>16001001</v>
+      </c>
+      <c r="L44" s="6"/>
       <c r="M44" s="6">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="N44" s="6">
         <v>466</v>
@@ -3255,19 +3372,20 @@
         <v>200</v>
       </c>
       <c r="P44" s="6">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="Q44" s="6"/>
-      <c r="R44" s="6">
-        <v>1</v>
-      </c>
+      <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6">
         <v>1000</v>
       </c>
-      <c r="U44" s="14"/>
+      <c r="U44" s="15"/>
       <c r="V44" s="5">
         <v>0</v>
+      </c>
+      <c r="W44">
+        <v>2601005</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:22">
@@ -3275,17 +3393,17 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>2001006</v>
+        <v>2001005</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6">
-        <v>15003755</v>
+        <v>15003754</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -3294,216 +3412,213 @@
         <v>0</v>
       </c>
       <c r="I45" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L45" s="11"/>
+      <c r="K45" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="12"/>
       <c r="M45" s="6">
         <v>0</v>
       </c>
       <c r="N45" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O45" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P45" s="6">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
+      <c r="R45" s="6">
+        <v>1</v>
+      </c>
       <c r="S45" s="6"/>
       <c r="T45" s="6">
         <v>1000</v>
       </c>
-      <c r="U45" s="14"/>
+      <c r="U45" s="15"/>
       <c r="V45" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="3:22">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+    <row r="46" customFormat="1" spans="1:22">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>2001006</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
+      <c r="F46" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0</v>
+      </c>
+      <c r="P46" s="6">
+        <v>0</v>
+      </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="5"/>
-    </row>
-    <row r="47" customFormat="1" spans="1:22">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47">
-        <v>2001008</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="T46" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U46" s="15"/>
+      <c r="V46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="3:22">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L47" s="11"/>
-      <c r="M47" s="6">
-        <v>0</v>
-      </c>
-      <c r="N47" s="6">
-        <v>466</v>
-      </c>
-      <c r="O47" s="6">
-        <v>200</v>
-      </c>
-      <c r="P47" s="6">
-        <v>2500</v>
-      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U47" s="14"/>
-      <c r="V47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="3:22">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="5"/>
+    </row>
+    <row r="48" customFormat="1" spans="1:22">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>2001008</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
+      <c r="F48" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L48" s="12"/>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6">
+        <v>466</v>
+      </c>
+      <c r="O48" s="6">
+        <v>200</v>
+      </c>
+      <c r="P48" s="6">
+        <v>2500</v>
+      </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="5"/>
-    </row>
-    <row r="50" spans="1:23">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50">
-        <v>2001021</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6">
-        <v>1</v>
-      </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>1</v>
-      </c>
-      <c r="K50" s="6">
-        <v>3001011</v>
-      </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6">
-        <v>0</v>
-      </c>
-      <c r="N50" s="6">
-        <v>180</v>
-      </c>
-      <c r="O50" s="6">
-        <v>100</v>
-      </c>
-      <c r="P50" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>1</v>
-      </c>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U50" s="14"/>
-      <c r="V50" s="5">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>2601021</v>
-      </c>
+      <c r="T48" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U48" s="15"/>
+      <c r="V48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="3:22">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="5"/>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>0</v>
       </c>
       <c r="B51">
-        <v>2001022</v>
+        <v>2001021</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E51" s="6"/>
-      <c r="F51" s="6">
-        <v>15003751</v>
-      </c>
+      <c r="F51" s="6"/>
       <c r="G51" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="6">
         <v>0</v>
@@ -3512,57 +3627,59 @@
         <v>0</v>
       </c>
       <c r="J51" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="6">
-        <v>3001012</v>
+        <v>3001011</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="N51" s="6">
-        <v>1800</v>
+        <v>180</v>
       </c>
       <c r="O51" s="6">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="P51" s="6">
-        <v>2000</v>
-      </c>
-      <c r="Q51" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>1</v>
+      </c>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6">
-        <v>267</v>
-      </c>
-      <c r="U51" s="14"/>
+        <v>2667</v>
+      </c>
+      <c r="U51" s="15"/>
       <c r="V51" s="5">
         <v>0</v>
       </c>
       <c r="W51">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>2601021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>0</v>
       </c>
       <c r="B52">
-        <v>2001023</v>
+        <v>2001022</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="G52" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" s="6">
         <v>0</v>
@@ -3571,54 +3688,57 @@
         <v>0</v>
       </c>
       <c r="J52" s="6">
-        <v>2</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L52" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>3001012</v>
+      </c>
+      <c r="L52" s="6"/>
       <c r="M52" s="6">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="N52" s="6">
-        <v>180</v>
+        <v>1800</v>
       </c>
       <c r="O52" s="6">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="P52" s="6">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U52" s="14"/>
+        <v>267</v>
+      </c>
+      <c r="U52" s="15"/>
       <c r="V52" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:22">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53">
-        <v>2001024</v>
+        <v>2001023</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G53" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="6">
         <v>0</v>
@@ -3627,14 +3747,14 @@
         <v>0</v>
       </c>
       <c r="J53" s="6">
-        <v>1</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L53" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L53" s="12"/>
       <c r="M53" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N53" s="6">
         <v>180</v>
@@ -3643,7 +3763,7 @@
         <v>100</v>
       </c>
       <c r="P53" s="6">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
@@ -3651,27 +3771,27 @@
       <c r="T53" s="6">
         <v>2667</v>
       </c>
-      <c r="U53" s="14"/>
+      <c r="U53" s="15"/>
       <c r="V53" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:22">
       <c r="A54" t="s">
         <v>0</v>
       </c>
       <c r="B54">
-        <v>2001025</v>
+        <v>2001024</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6">
-        <v>15003754</v>
+        <v>15003753</v>
       </c>
       <c r="G54" s="6">
         <v>1</v>
@@ -3685,10 +3805,10 @@
       <c r="J54" s="6">
         <v>1</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L54" s="11"/>
+      <c r="K54" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L54" s="12"/>
       <c r="M54" s="6">
         <v>8000</v>
       </c>
@@ -3699,204 +3819,238 @@
         <v>100</v>
       </c>
       <c r="P54" s="6">
-        <v>25000</v>
+        <v>3000</v>
       </c>
       <c r="Q54" s="6"/>
-      <c r="R54" s="6">
-        <v>1</v>
-      </c>
+      <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6">
         <v>2667</v>
       </c>
-      <c r="U54" s="14"/>
+      <c r="U54" s="15"/>
       <c r="V54" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="1" spans="1:22">
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
         <v>0</v>
       </c>
       <c r="B55">
-        <v>2001026</v>
+        <v>2001025</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6">
-        <v>15003755</v>
+        <v>15003754</v>
       </c>
       <c r="G55" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="6">
         <v>0</v>
       </c>
       <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
         <v>1</v>
       </c>
-      <c r="J55" s="6">
-        <v>2</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L55" s="11"/>
+      <c r="K55" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L55" s="12"/>
       <c r="M55" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N55" s="6">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O55" s="6">
-        <v>0</v>
-      </c>
-      <c r="P55" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="P55" s="6">
+        <v>25000</v>
+      </c>
       <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
+      <c r="R55" s="6">
+        <v>1</v>
+      </c>
       <c r="S55" s="6"/>
       <c r="T55" s="6">
         <v>2667</v>
       </c>
-      <c r="U55" s="14"/>
+      <c r="U55" s="15"/>
       <c r="V55" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:23">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="12"/>
+    <row r="56" customFormat="1" spans="1:22">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>2001026</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6">
+        <v>2</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="L56" s="12"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="5"/>
-      <c r="W56"/>
-    </row>
-    <row r="57" ht="12" customHeight="1" spans="3:21">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
+      <c r="M56" s="6">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
+        <v>0</v>
+      </c>
+      <c r="O56" s="6">
+        <v>0</v>
+      </c>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6">
+        <v>2667</v>
+      </c>
+      <c r="U56" s="15"/>
+      <c r="V56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:23">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
       <c r="T57" s="6"/>
-      <c r="U57" s="14"/>
-    </row>
-    <row r="58" customFormat="1" spans="1:24">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>2001050</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="U57" s="15"/>
+      <c r="V57" s="5"/>
+      <c r="W57"/>
+    </row>
+    <row r="58" ht="12" customHeight="1" spans="3:21">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G58" s="6">
-        <v>2</v>
-      </c>
-      <c r="H58" s="6">
-        <v>1</v>
-      </c>
-      <c r="I58" s="6">
-        <v>0</v>
-      </c>
-      <c r="J58" s="6">
-        <v>0</v>
-      </c>
-      <c r="K58" s="6">
-        <v>16001010</v>
-      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="6">
-        <v>10000</v>
-      </c>
-      <c r="N58" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O58" s="6">
-        <v>0</v>
-      </c>
-      <c r="P58" s="6">
-        <v>600</v>
-      </c>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
-      <c r="T58" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U58" s="14"/>
-      <c r="V58" s="5">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>2601050</v>
-      </c>
-      <c r="X58">
-        <v>2500005</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="3:22">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="15"/>
+    </row>
+    <row r="59" customFormat="1" spans="1:24">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>2001050</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
+      <c r="F59" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G59" s="6">
+        <v>2</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0</v>
+      </c>
+      <c r="K59" s="6">
+        <v>16001010</v>
+      </c>
       <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
+      <c r="M59" s="6">
+        <v>10000</v>
+      </c>
+      <c r="N59" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O59" s="6">
+        <v>0</v>
+      </c>
+      <c r="P59" s="6">
+        <v>600</v>
+      </c>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="5"/>
+      <c r="T59" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U59" s="15"/>
+      <c r="V59" s="5">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>2601050</v>
+      </c>
+      <c r="X59">
+        <v>2500005</v>
+      </c>
     </row>
     <row r="60" customFormat="1" spans="3:22">
       <c r="C60" s="6"/>
@@ -3917,7 +4071,7 @@
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
-      <c r="U60" s="14"/>
+      <c r="U60" s="15"/>
       <c r="V60" s="5"/>
     </row>
     <row r="61" customFormat="1" spans="3:22">
@@ -3939,7 +4093,7 @@
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
-      <c r="U61" s="14"/>
+      <c r="U61" s="15"/>
       <c r="V61" s="5"/>
     </row>
     <row r="62" customFormat="1" spans="3:22">
@@ -3961,230 +4115,194 @@
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
-      <c r="U62" s="14"/>
+      <c r="U62" s="15"/>
       <c r="V62" s="5"/>
     </row>
-    <row r="63" s="3" customFormat="1" spans="20:22">
+    <row r="63" customFormat="1" spans="3:22">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
       <c r="T63" s="6"/>
-      <c r="U63" s="5"/>
+      <c r="U63" s="15"/>
       <c r="V63" s="5"/>
     </row>
-    <row r="64" spans="20:20">
+    <row r="64" s="3" customFormat="1" spans="20:22">
       <c r="T64" s="6"/>
-    </row>
-    <row r="65" spans="1:22">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65">
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+    </row>
+    <row r="65" spans="20:20">
+      <c r="T65" s="6"/>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
         <v>2002001</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6">
+      <c r="C66" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6">
         <v>1</v>
       </c>
-      <c r="H65" s="6">
-        <v>0</v>
-      </c>
-      <c r="I65" s="6">
-        <v>0</v>
-      </c>
-      <c r="J65" s="6">
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
         <v>1</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K66" s="6">
         <v>3002001</v>
-      </c>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6">
-        <v>0</v>
-      </c>
-      <c r="N65" s="6">
-        <v>300</v>
-      </c>
-      <c r="O65" s="6">
-        <v>300</v>
-      </c>
-      <c r="P65" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="6">
-        <v>1</v>
-      </c>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6">
-        <v>1540</v>
-      </c>
-      <c r="U65" s="14"/>
-      <c r="V65" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66">
-        <v>2002002</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G66" s="6">
-        <v>2</v>
-      </c>
-      <c r="H66" s="6">
-        <v>0</v>
-      </c>
-      <c r="I66" s="6">
-        <v>0</v>
-      </c>
-      <c r="J66" s="6">
-        <v>2</v>
-      </c>
-      <c r="K66" s="6">
-        <v>13002030</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="N66" s="6">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="O66" s="6">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="P66" s="6">
-        <v>6500</v>
-      </c>
-      <c r="Q66" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>1</v>
+      </c>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6">
-        <v>340</v>
-      </c>
-      <c r="U66" s="14"/>
+        <v>1540</v>
+      </c>
+      <c r="U66" s="15"/>
       <c r="V66" s="5">
         <v>0</v>
       </c>
-      <c r="W66"/>
-      <c r="X66">
-        <v>2500010</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="3:22">
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>2002002</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
+      <c r="F67" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G67" s="6">
+        <v>2</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
+        <v>2</v>
+      </c>
+      <c r="K67" s="6">
+        <v>13002030</v>
+      </c>
       <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
+      <c r="M67" s="6">
+        <v>4000</v>
+      </c>
+      <c r="N67" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O67" s="6">
+        <v>700</v>
+      </c>
+      <c r="P67" s="6">
+        <v>6500</v>
+      </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="14"/>
-      <c r="V67" s="5"/>
-    </row>
-    <row r="68" customFormat="1" spans="1:22">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68">
-        <v>2002011</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="T67" s="6">
+        <v>340</v>
+      </c>
+      <c r="U67" s="15"/>
+      <c r="V67" s="5">
+        <v>0</v>
+      </c>
+      <c r="W67"/>
+      <c r="X67">
+        <v>2500010</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="3:22">
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6">
-        <v>1</v>
-      </c>
-      <c r="H68" s="6">
-        <v>0</v>
-      </c>
-      <c r="I68" s="6">
-        <v>0</v>
-      </c>
-      <c r="J68" s="6">
-        <v>1</v>
-      </c>
-      <c r="K68" s="6">
-        <v>3002011</v>
-      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="6">
-        <v>0</v>
-      </c>
-      <c r="N68" s="6">
-        <v>300</v>
-      </c>
-      <c r="O68" s="6">
-        <v>200</v>
-      </c>
-      <c r="P68" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="6">
-        <v>1</v>
-      </c>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
-      <c r="T68" s="6">
-        <v>1400</v>
-      </c>
-      <c r="U68" s="14"/>
-      <c r="V68" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:24">
+      <c r="T68" s="6"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="5"/>
+    </row>
+    <row r="69" customFormat="1" spans="1:22">
       <c r="A69" t="s">
         <v>0</v>
       </c>
       <c r="B69">
-        <v>2002012</v>
+        <v>2002011</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E69" s="6"/>
-      <c r="F69" s="6">
-        <v>15003751</v>
-      </c>
+      <c r="F69" s="6"/>
       <c r="G69" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="6">
         <v>0</v>
@@ -4193,59 +4311,98 @@
         <v>0</v>
       </c>
       <c r="J69" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="6">
-        <v>3002012</v>
+        <v>3002011</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N69" s="6">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="O69" s="6">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="P69" s="6">
-        <v>7000</v>
-      </c>
-      <c r="Q69" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>1</v>
+      </c>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6">
-        <v>420</v>
-      </c>
-      <c r="U69" s="14"/>
+        <v>1400</v>
+      </c>
+      <c r="U69" s="15"/>
       <c r="V69" s="5">
         <v>0</v>
       </c>
-      <c r="W69">
-        <v>2602012</v>
-      </c>
-      <c r="X69">
-        <v>2500011</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="4:22">
-      <c r="D70" s="6"/>
+    </row>
+    <row r="70" customFormat="1" spans="1:24">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>2002012</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
+      <c r="F70" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G70" s="6">
+        <v>2</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0</v>
+      </c>
+      <c r="K70" s="6">
+        <v>3002012</v>
+      </c>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N70" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O70" s="6">
+        <v>700</v>
+      </c>
+      <c r="P70" s="6">
+        <v>7000</v>
+      </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="5"/>
+      <c r="T70" s="6">
+        <v>420</v>
+      </c>
+      <c r="U70" s="15"/>
+      <c r="V70" s="5">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>2602012</v>
+      </c>
+      <c r="X70">
+        <v>2500011</v>
+      </c>
     </row>
     <row r="71" customFormat="1" spans="4:22">
       <c r="D71" s="6"/>
@@ -4263,124 +4420,84 @@
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
-      <c r="U71" s="14"/>
+      <c r="U71" s="15"/>
       <c r="V71" s="5"/>
     </row>
-    <row r="72" customFormat="1" spans="1:23">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72">
-        <v>2003001</v>
-      </c>
-      <c r="C72" t="s">
-        <v>105</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>105</v>
-      </c>
+    <row r="72" customFormat="1" spans="4:22">
+      <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6">
-        <v>1</v>
-      </c>
-      <c r="H72" s="6">
-        <v>0</v>
-      </c>
-      <c r="I72" s="6">
-        <v>0</v>
-      </c>
-      <c r="J72" s="6">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>3003001</v>
-      </c>
-      <c r="M72" s="6">
-        <v>0</v>
-      </c>
-      <c r="N72" s="6">
-        <v>300</v>
-      </c>
-      <c r="O72" s="6">
-        <v>300</v>
-      </c>
-      <c r="P72" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="6">
-        <v>1</v>
-      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
-      <c r="T72" s="6">
+      <c r="T72" s="6"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="5"/>
+    </row>
+    <row r="73" customFormat="1" spans="1:23">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>2003001</v>
+      </c>
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>3003001</v>
+      </c>
+      <c r="M73" s="6">
+        <v>0</v>
+      </c>
+      <c r="N73" s="6">
+        <v>300</v>
+      </c>
+      <c r="O73" s="6">
+        <v>300</v>
+      </c>
+      <c r="P73" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="6">
+        <v>1</v>
+      </c>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6">
         <v>1540</v>
-      </c>
-      <c r="U72" s="14"/>
-      <c r="V72" s="5">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>2603001</v>
-      </c>
-    </row>
-    <row r="73" s="4" customFormat="1" spans="1:23">
-      <c r="A73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="4">
-        <v>2003002</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15">
-        <v>15003751</v>
-      </c>
-      <c r="G73" s="15">
-        <v>2</v>
-      </c>
-      <c r="H73" s="15">
-        <v>0</v>
-      </c>
-      <c r="I73" s="15">
-        <v>0</v>
-      </c>
-      <c r="J73" s="15">
-        <v>1</v>
-      </c>
-      <c r="K73" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L73" s="16"/>
-      <c r="M73" s="15">
-        <v>8000</v>
-      </c>
-      <c r="N73" s="15">
-        <v>600</v>
-      </c>
-      <c r="O73" s="15">
-        <v>0</v>
-      </c>
-      <c r="P73" s="15">
-        <v>2000</v>
-      </c>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="6">
-        <v>1000</v>
       </c>
       <c r="U73" s="15"/>
       <c r="V73" s="5">
         <v>0</v>
       </c>
-      <c r="W73" s="4">
-        <v>2603002</v>
+      <c r="W73">
+        <v>2603001</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="1" spans="1:23">
@@ -4388,58 +4505,58 @@
         <v>0</v>
       </c>
       <c r="B74" s="4">
-        <v>2003003</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15">
-        <v>15003753</v>
-      </c>
-      <c r="G74" s="15">
-        <v>0</v>
-      </c>
-      <c r="H74" s="15">
-        <v>0</v>
-      </c>
-      <c r="I74" s="15">
-        <v>0</v>
-      </c>
-      <c r="J74" s="15">
+        <v>2003002</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16">
+        <v>15003751</v>
+      </c>
+      <c r="G74" s="16">
         <v>2</v>
       </c>
-      <c r="K74" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="L74" s="16"/>
-      <c r="M74" s="15">
-        <v>0</v>
-      </c>
-      <c r="N74" s="15">
-        <v>50</v>
-      </c>
-      <c r="O74" s="15">
-        <v>0</v>
-      </c>
-      <c r="P74" s="15">
-        <v>6000</v>
-      </c>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
+      <c r="H74" s="16">
+        <v>0</v>
+      </c>
+      <c r="I74" s="16">
+        <v>0</v>
+      </c>
+      <c r="J74" s="16">
+        <v>1</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="16">
+        <v>8000</v>
+      </c>
+      <c r="N74" s="16">
+        <v>600</v>
+      </c>
+      <c r="O74" s="16">
+        <v>0</v>
+      </c>
+      <c r="P74" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
       <c r="T74" s="6">
         <v>1000</v>
       </c>
-      <c r="U74" s="15"/>
+      <c r="U74" s="16"/>
       <c r="V74" s="5">
-        <v>15008005</v>
+        <v>0</v>
       </c>
       <c r="W74" s="4">
-        <v>2603003</v>
+        <v>2603002</v>
       </c>
     </row>
     <row r="75" s="4" customFormat="1" spans="1:23">
@@ -4447,140 +4564,138 @@
         <v>0</v>
       </c>
       <c r="B75" s="4">
-        <v>2003004</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15">
-        <v>15003754</v>
-      </c>
-      <c r="G75" s="15">
+        <v>2003003</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16">
+        <v>15003753</v>
+      </c>
+      <c r="G75" s="16">
+        <v>0</v>
+      </c>
+      <c r="H75" s="16">
+        <v>0</v>
+      </c>
+      <c r="I75" s="16">
+        <v>0</v>
+      </c>
+      <c r="J75" s="16">
         <v>2</v>
       </c>
-      <c r="H75" s="15">
-        <v>1</v>
-      </c>
-      <c r="I75" s="15">
-        <v>0</v>
-      </c>
-      <c r="J75" s="15">
-        <v>0</v>
-      </c>
-      <c r="K75" s="15">
-        <v>16001001</v>
-      </c>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15">
-        <v>8000</v>
-      </c>
-      <c r="N75" s="15">
-        <v>0</v>
-      </c>
-      <c r="O75" s="15">
-        <v>0</v>
-      </c>
-      <c r="P75" s="15">
-        <v>1500</v>
-      </c>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
+      <c r="K75" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="16">
+        <v>0</v>
+      </c>
+      <c r="N75" s="16">
+        <v>50</v>
+      </c>
+      <c r="O75" s="16">
+        <v>0</v>
+      </c>
+      <c r="P75" s="16">
+        <v>6000</v>
+      </c>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
       <c r="T75" s="6">
         <v>1000</v>
       </c>
-      <c r="U75" s="15"/>
+      <c r="U75" s="16"/>
       <c r="V75" s="5">
-        <v>0</v>
+        <v>15008005</v>
       </c>
       <c r="W75" s="4">
+        <v>2603003</v>
+      </c>
+    </row>
+    <row r="76" s="4" customFormat="1" spans="1:23">
+      <c r="A76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="4">
+        <v>2003004</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16">
+        <v>15003754</v>
+      </c>
+      <c r="G76" s="16">
+        <v>2</v>
+      </c>
+      <c r="H76" s="16">
+        <v>1</v>
+      </c>
+      <c r="I76" s="16">
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
+        <v>0</v>
+      </c>
+      <c r="K76" s="16">
+        <v>16001001</v>
+      </c>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16">
+        <v>8000</v>
+      </c>
+      <c r="N76" s="16">
+        <v>0</v>
+      </c>
+      <c r="O76" s="16">
+        <v>0</v>
+      </c>
+      <c r="P76" s="16">
+        <v>1500</v>
+      </c>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U76" s="16"/>
+      <c r="V76" s="5">
+        <v>0</v>
+      </c>
+      <c r="W76" s="4">
         <v>2603004</v>
       </c>
     </row>
-    <row r="76" spans="20:20">
-      <c r="T76" s="6"/>
-    </row>
-    <row r="77" customFormat="1" spans="1:23">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77">
-        <v>2003050</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G77" s="6">
-        <v>0</v>
-      </c>
-      <c r="H77" s="6">
-        <v>0</v>
-      </c>
-      <c r="I77" s="6">
-        <v>1</v>
-      </c>
-      <c r="J77" s="6">
-        <v>2</v>
-      </c>
-      <c r="K77" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L77" s="11"/>
-      <c r="M77" s="6">
-        <v>0</v>
-      </c>
-      <c r="N77" s="6">
-        <v>0</v>
-      </c>
-      <c r="O77" s="6">
-        <v>0</v>
-      </c>
-      <c r="P77" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="6">
-        <v>1</v>
-      </c>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U77" s="14"/>
-      <c r="V77" s="5">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>2603050</v>
-      </c>
+    <row r="77" spans="20:20">
+      <c r="T77" s="6"/>
     </row>
     <row r="78" customFormat="1" spans="1:23">
       <c r="A78" t="s">
         <v>0</v>
       </c>
       <c r="B78">
-        <v>2003051</v>
+        <v>2003050</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="G78" s="6">
         <v>0</v>
@@ -4594,10 +4709,10 @@
       <c r="J78" s="6">
         <v>2</v>
       </c>
-      <c r="K78" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L78" s="11"/>
+      <c r="K78" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L78" s="12"/>
       <c r="M78" s="6">
         <v>0</v>
       </c>
@@ -4610,36 +4725,38 @@
       <c r="P78" s="6">
         <v>0</v>
       </c>
-      <c r="Q78" s="6"/>
+      <c r="Q78" s="6">
+        <v>1</v>
+      </c>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6">
         <v>1000</v>
       </c>
-      <c r="U78" s="14"/>
+      <c r="U78" s="15"/>
       <c r="V78" s="5">
         <v>0</v>
       </c>
       <c r="W78">
-        <v>2603051</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:24">
+        <v>2603050</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:23">
       <c r="A79" t="s">
         <v>0</v>
       </c>
       <c r="B79">
-        <v>2003052</v>
+        <v>2003051</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G79" s="6">
         <v>0</v>
@@ -4648,109 +4765,168 @@
         <v>0</v>
       </c>
       <c r="I79" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" s="6">
-        <v>0</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L79" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L79" s="12"/>
       <c r="M79" s="6">
         <v>0</v>
       </c>
       <c r="N79" s="6">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="O79" s="6">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="P79" s="6">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U79" s="15"/>
+      <c r="V79" s="5">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>2603051</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:24">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>2003052</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G80" s="6">
+        <v>0</v>
+      </c>
+      <c r="H80" s="6">
+        <v>0</v>
+      </c>
+      <c r="I80" s="6">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6">
+        <v>0</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L80" s="12"/>
+      <c r="M80" s="6">
+        <v>0</v>
+      </c>
+      <c r="N80" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O80" s="6">
+        <v>700</v>
+      </c>
+      <c r="P80" s="6">
+        <v>12000</v>
+      </c>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6">
         <v>340</v>
       </c>
-      <c r="U79" s="14"/>
-      <c r="V79" s="5">
+      <c r="U80" s="15"/>
+      <c r="V80" s="5">
         <v>15008014</v>
       </c>
-      <c r="W79">
+      <c r="W80">
         <v>2603052</v>
       </c>
-      <c r="X79">
+      <c r="X80">
         <v>2500020</v>
       </c>
     </row>
-    <row r="80" spans="20:20">
-      <c r="T80" s="6"/>
-    </row>
-    <row r="83" spans="16:16">
-      <c r="P83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84">
+    <row r="81" spans="20:20">
+      <c r="T81" s="6"/>
+    </row>
+    <row r="84" spans="16:16">
+      <c r="P84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
         <v>2005001</v>
       </c>
-      <c r="C84" t="s">
-        <v>121</v>
-      </c>
-      <c r="D84" t="s">
-        <v>122</v>
-      </c>
-      <c r="F84" s="6">
+      <c r="C85" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85" t="s">
+        <v>134</v>
+      </c>
+      <c r="F85" s="6">
         <v>15003753</v>
       </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84" s="6">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" s="6">
         <v>2</v>
       </c>
-      <c r="I84" s="6">
-        <v>0</v>
-      </c>
-      <c r="J84" s="6">
-        <v>0</v>
-      </c>
-      <c r="K84" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="L84" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="M84" s="6">
-        <v>0</v>
-      </c>
-      <c r="N84" s="6">
-        <v>0</v>
-      </c>
-      <c r="O84" s="6">
-        <v>0</v>
-      </c>
-      <c r="P84" s="6">
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6">
+        <v>0</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M85" s="6">
+        <v>0</v>
+      </c>
+      <c r="N85" s="6">
+        <v>0</v>
+      </c>
+      <c r="O85" s="6">
+        <v>0</v>
+      </c>
+      <c r="P85" s="6">
         <v>2000</v>
       </c>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6">
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6">
         <v>1000</v>
       </c>
-      <c r="U84" s="14"/>
-      <c r="V84" s="5">
+      <c r="U85" s="15"/>
+      <c r="V85" s="5">
         <v>15008014</v>
       </c>
-      <c r="W84">
+      <c r="W85">
         <v>2605001</v>
       </c>
     </row>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15720" windowHeight="11445"/>
+    <workbookView windowWidth="19485" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
   <si>
     <t>#</t>
   </si>
@@ -395,6 +395,45 @@
   </si>
   <si>
     <t>13100105</t>
+  </si>
+  <si>
+    <t>残血爆发(被动)lv1</t>
+  </si>
+  <si>
+    <t>每失去 1% 血量，提高2%攻击力</t>
+  </si>
+  <si>
+    <t>18100101,18001002</t>
+  </si>
+  <si>
+    <t>残血爆发(被动)lv2</t>
+  </si>
+  <si>
+    <t>18100102,18001002</t>
+  </si>
+  <si>
+    <t>残血爆发(被动)lv3</t>
+  </si>
+  <si>
+    <t>每失去 1% 血量，提高2%攻击力和1%攻击速度</t>
+  </si>
+  <si>
+    <t>18100103,18001002</t>
+  </si>
+  <si>
+    <t>残血爆发(被动)lv4</t>
+  </si>
+  <si>
+    <t>18100104,18001002</t>
+  </si>
+  <si>
+    <t>残血爆发(被动)lv5</t>
+  </si>
+  <si>
+    <t>每失去 1% 血量，提高2%攻击力和1%攻击速度，受到致命伤害无敌2 秒（30sCD）</t>
+  </si>
+  <si>
+    <t>18100105,18001002</t>
   </si>
   <si>
     <t>道具技能（待定）</t>
@@ -1253,13 +1292,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1268,7 +1301,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -1622,12 +1661,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+      <selection pane="topRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1717,7 +1756,7 @@
       <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="5" t="s">
@@ -1791,7 +1830,7 @@
       <c r="T2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="V2" s="5" t="s">
@@ -1865,10 +1904,10 @@
       <c r="T3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="12" t="s">
         <v>48</v>
       </c>
       <c r="W3" s="7" t="s">
@@ -1900,7 +1939,7 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="15"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
@@ -1931,7 +1970,7 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="15"/>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
@@ -1962,7 +2001,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="15"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="3:21">
       <c r="C7" s="6"/>
@@ -1983,7 +2022,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="15"/>
+      <c r="U7" s="13"/>
     </row>
     <row r="8" customFormat="1" spans="1:23">
       <c r="A8" t="s">
@@ -2036,7 +2075,7 @@
       <c r="T8" s="6">
         <v>2667</v>
       </c>
-      <c r="U8" s="15"/>
+      <c r="U8" s="13"/>
       <c r="V8" s="5">
         <v>0</v>
       </c>
@@ -2073,7 +2112,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="15"/>
+      <c r="U9" s="13"/>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="6"/>
@@ -2094,7 +2133,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="15"/>
+      <c r="U10" s="13"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
@@ -2125,7 +2164,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="15"/>
+      <c r="U11" s="13"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
@@ -2156,7 +2195,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="15"/>
+      <c r="U12" s="13"/>
     </row>
     <row r="13" spans="3:21">
       <c r="C13" s="6"/>
@@ -2177,7 +2216,7 @@
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="15"/>
+      <c r="U13" s="13"/>
     </row>
     <row r="14" spans="3:21">
       <c r="C14" s="6"/>
@@ -2198,7 +2237,7 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="15"/>
+      <c r="U14" s="13"/>
     </row>
     <row r="15" spans="3:21">
       <c r="C15" s="6"/>
@@ -2219,7 +2258,7 @@
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="15"/>
+      <c r="U15" s="13"/>
     </row>
     <row r="16" spans="3:21">
       <c r="C16" s="6"/>
@@ -2240,7 +2279,7 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="15"/>
+      <c r="U16" s="13"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="6"/>
@@ -2261,7 +2300,7 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="15"/>
+      <c r="U17" s="13"/>
     </row>
     <row r="18" ht="40.5" spans="2:21">
       <c r="B18" s="8" t="s">
@@ -2285,7 +2324,7 @@
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="15"/>
+      <c r="U18" s="13"/>
     </row>
     <row r="19" customFormat="1" ht="27" spans="1:23">
       <c r="A19" t="s">
@@ -2340,7 +2379,7 @@
       <c r="T19" s="6">
         <v>1000</v>
       </c>
-      <c r="U19" s="15"/>
+      <c r="U19" s="13"/>
       <c r="V19" s="5">
         <v>0</v>
       </c>
@@ -2401,7 +2440,7 @@
       <c r="T20" s="6">
         <v>1000</v>
       </c>
-      <c r="U20" s="15"/>
+      <c r="U20" s="13"/>
       <c r="V20" s="5">
         <v>0</v>
       </c>
@@ -2462,7 +2501,7 @@
       <c r="T21" s="6">
         <v>1000</v>
       </c>
-      <c r="U21" s="15"/>
+      <c r="U21" s="13"/>
       <c r="V21" s="5">
         <v>0</v>
       </c>
@@ -2523,7 +2562,7 @@
       <c r="T22" s="6">
         <v>1000</v>
       </c>
-      <c r="U22" s="15"/>
+      <c r="U22" s="13"/>
       <c r="V22" s="5">
         <v>0</v>
       </c>
@@ -2584,7 +2623,7 @@
       <c r="T23" s="6">
         <v>1000</v>
       </c>
-      <c r="U23" s="15"/>
+      <c r="U23" s="13"/>
       <c r="V23" s="5">
         <v>0</v>
       </c>
@@ -2611,19 +2650,19 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="15"/>
+      <c r="U24" s="13"/>
     </row>
     <row r="25" customFormat="1" spans="3:22">
       <c r="C25" s="6"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -2632,7 +2671,7 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="15"/>
+      <c r="U25" s="13"/>
       <c r="V25" s="5"/>
     </row>
     <row r="26" customFormat="1" ht="27" spans="1:22">
@@ -2645,7 +2684,7 @@
       <c r="C26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="6">
@@ -2669,7 +2708,7 @@
       <c r="K26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L26" s="12"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="6">
         <v>0</v>
       </c>
@@ -2688,7 +2727,7 @@
       <c r="T26" s="6">
         <v>1000</v>
       </c>
-      <c r="U26" s="15"/>
+      <c r="U26" s="13"/>
       <c r="V26" s="5">
         <v>15008014</v>
       </c>
@@ -2703,7 +2742,7 @@
       <c r="C27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="6">
@@ -2727,7 +2766,7 @@
       <c r="K27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="12"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="6">
         <v>0</v>
       </c>
@@ -2744,7 +2783,7 @@
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="15"/>
+      <c r="U27" s="13"/>
     </row>
     <row r="28" ht="40.5" spans="1:21">
       <c r="A28" t="s">
@@ -2756,7 +2795,7 @@
       <c r="C28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E28" s="6">
@@ -2780,7 +2819,7 @@
       <c r="K28" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L28" s="12"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="6">
         <v>0</v>
       </c>
@@ -2797,7 +2836,7 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="15"/>
+      <c r="U28" s="13"/>
     </row>
     <row r="29" ht="40.5" spans="1:21">
       <c r="A29" t="s">
@@ -2809,7 +2848,7 @@
       <c r="C29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="6">
@@ -2833,7 +2872,7 @@
       <c r="K29" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L29" s="12"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="6">
         <v>0</v>
       </c>
@@ -2850,7 +2889,7 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="15"/>
+      <c r="U29" s="13"/>
     </row>
     <row r="30" ht="54" spans="1:21">
       <c r="A30" t="s">
@@ -2862,7 +2901,7 @@
       <c r="C30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E30" s="6">
@@ -2886,7 +2925,7 @@
       <c r="K30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L30" s="12"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="6">
         <v>0</v>
       </c>
@@ -2903,7 +2942,7 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="15"/>
+      <c r="U30" s="13"/>
     </row>
     <row r="31" spans="3:21">
       <c r="C31" s="6"/>
@@ -2924,7 +2963,7 @@
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-      <c r="U31" s="15"/>
+      <c r="U31" s="13"/>
     </row>
     <row r="32" spans="3:21">
       <c r="C32" s="6"/>
@@ -2945,122 +2984,277 @@
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
-      <c r="U32" s="15"/>
-    </row>
-    <row r="33" spans="3:21">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="U32" s="13"/>
+    </row>
+    <row r="33" customFormat="1" ht="27" spans="1:22">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>2100301</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+      <c r="F33" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>2</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="15"/>
-    </row>
-    <row r="34" spans="3:21">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="T33" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U33" s="13"/>
+      <c r="V33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:22">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>2100302</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
+      <c r="F34" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>2</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="15"/>
-    </row>
-    <row r="35" spans="3:21">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="T34" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U34" s="13"/>
+      <c r="V34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="40.5" spans="1:22">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>2100303</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+      <c r="F35" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6">
+        <v>2</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L35" s="11"/>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="15"/>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="T35" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U35" s="13"/>
+      <c r="V35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="40.5" spans="1:22">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36">
-        <v>2500001</v>
+        <v>2100304</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6">
+        <v>87</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
         <v>1</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
+      <c r="J36" s="6">
+        <v>2</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="15"/>
-    </row>
-    <row r="37" spans="3:21">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="T36" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U36" s="13"/>
+      <c r="V36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="67.5" spans="1:22">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>2100305</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
+      <c r="F37" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>1</v>
+      </c>
+      <c r="J37" s="6">
+        <v>2</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="15"/>
+      <c r="T37" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U37" s="13"/>
+      <c r="V37" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="3:21">
       <c r="C38" s="6"/>
@@ -3081,7 +3275,7 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
-      <c r="U38" s="15"/>
+      <c r="U38" s="13"/>
     </row>
     <row r="39" spans="3:21">
       <c r="C39" s="6"/>
@@ -3102,407 +3296,166 @@
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
-      <c r="U39" s="15"/>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>2001001</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="U39" s="13"/>
+    </row>
+    <row r="40" spans="3:21">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6">
-        <v>1</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
-        <v>0</v>
-      </c>
-      <c r="J40" s="6">
-        <v>1</v>
-      </c>
-      <c r="K40" s="6">
-        <v>3001001</v>
-      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="6">
-        <v>0</v>
-      </c>
-      <c r="N40" s="10">
-        <v>233</v>
-      </c>
-      <c r="O40" s="10">
-        <v>100</v>
-      </c>
-      <c r="P40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>1</v>
-      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="6">
-        <v>2000</v>
-      </c>
-      <c r="U40" s="15"/>
-      <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>2601001</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="2:23">
-      <c r="B41" s="1">
-        <v>2001002</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="10"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="13"/>
+    </row>
+    <row r="41" spans="3:21">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="10">
-        <v>2</v>
-      </c>
-      <c r="H41" s="10">
-        <v>0</v>
-      </c>
-      <c r="I41" s="10">
-        <v>0</v>
-      </c>
-      <c r="J41" s="10">
-        <v>0</v>
-      </c>
-      <c r="K41" s="10">
-        <v>3001002</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10">
-        <v>99000</v>
-      </c>
-      <c r="N41" s="10">
-        <v>100</v>
-      </c>
-      <c r="O41" s="10">
-        <v>500</v>
-      </c>
-      <c r="P41" s="10">
-        <v>1000</v>
-      </c>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U41" s="15"/>
-      <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>2601002</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:22">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>2001002</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="13"/>
+    </row>
+    <row r="42" spans="3:21">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
-        <v>0</v>
-      </c>
-      <c r="J42" s="6">
-        <v>2</v>
-      </c>
-      <c r="K42" s="6">
-        <v>14001010</v>
-      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="6">
-        <v>0</v>
-      </c>
-      <c r="N42" s="6">
-        <v>466</v>
-      </c>
-      <c r="O42" s="6">
-        <v>200</v>
-      </c>
-      <c r="P42" s="6">
-        <v>15000</v>
-      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U42" s="15"/>
-      <c r="V42" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <v>2001003</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="T42" s="6"/>
+      <c r="U42" s="13"/>
+    </row>
+    <row r="43" spans="3:21">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
-        <v>0</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L43" s="12"/>
-      <c r="M43" s="6">
-        <v>0</v>
-      </c>
-      <c r="N43" s="6">
-        <v>466</v>
-      </c>
-      <c r="O43" s="6">
-        <v>200</v>
-      </c>
-      <c r="P43" s="6">
-        <v>8000</v>
-      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U43" s="15"/>
-      <c r="V43" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:23">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44">
-        <v>2001004</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="T43" s="6"/>
+      <c r="U43" s="13"/>
+    </row>
+    <row r="44" spans="3:21">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G44" s="6">
-        <v>2</v>
-      </c>
-      <c r="H44" s="6">
-        <v>1</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0</v>
-      </c>
-      <c r="J44" s="6">
-        <v>0</v>
-      </c>
-      <c r="K44" s="6">
-        <v>16001001</v>
-      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="6">
-        <v>100000</v>
-      </c>
-      <c r="N44" s="6">
-        <v>466</v>
-      </c>
-      <c r="O44" s="6">
-        <v>200</v>
-      </c>
-      <c r="P44" s="6">
-        <v>7000</v>
-      </c>
+      <c r="M44" s="6"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U44" s="15"/>
-      <c r="V44" s="5">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>2601005</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:22">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45">
-        <v>2001005</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="T44" s="6"/>
+      <c r="U44" s="13"/>
+    </row>
+    <row r="45" spans="3:21">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6">
-        <v>15003754</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0</v>
-      </c>
-      <c r="J45" s="6">
-        <v>2</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="6">
-        <v>0</v>
-      </c>
-      <c r="N45" s="6">
-        <v>466</v>
-      </c>
-      <c r="O45" s="6">
-        <v>200</v>
-      </c>
-      <c r="P45" s="6">
-        <v>25000</v>
-      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="6">
-        <v>1</v>
-      </c>
+      <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U45" s="15"/>
-      <c r="V45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:22">
+      <c r="T45" s="6"/>
+      <c r="U45" s="13"/>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>0</v>
       </c>
       <c r="B46">
-        <v>2001006</v>
+        <v>2500001</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6">
         <v>1</v>
       </c>
-      <c r="J46" s="6">
-        <v>2</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="6">
-        <v>0</v>
-      </c>
-      <c r="N46" s="6">
-        <v>0</v>
-      </c>
-      <c r="O46" s="6">
-        <v>0</v>
-      </c>
-      <c r="P46" s="6">
-        <v>0</v>
-      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U46" s="15"/>
-      <c r="V46" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="3:22">
+      <c r="T46" s="6"/>
+      <c r="U46" s="13"/>
+    </row>
+    <row r="47" spans="3:21">
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -3514,73 +3467,37 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="5"/>
-    </row>
-    <row r="48" customFormat="1" spans="1:22">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48">
-        <v>2001008</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="U47" s="13"/>
+    </row>
+    <row r="48" spans="3:21">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6">
-        <v>0</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="L48" s="12"/>
-      <c r="M48" s="6">
-        <v>0</v>
-      </c>
-      <c r="N48" s="6">
-        <v>466</v>
-      </c>
-      <c r="O48" s="6">
-        <v>200</v>
-      </c>
-      <c r="P48" s="6">
-        <v>2500</v>
-      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U48" s="15"/>
-      <c r="V48" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="3:22">
+      <c r="T48" s="6"/>
+      <c r="U48" s="13"/>
+    </row>
+    <row r="49" spans="3:21">
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -3592,132 +3509,182 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="5"/>
-    </row>
-    <row r="51" spans="1:23">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51">
-        <v>2001021</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="6"/>
+      <c r="U49" s="13"/>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>2001001</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1</v>
+      </c>
+      <c r="K50" s="6">
+        <v>3001001</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="10">
+        <v>233</v>
+      </c>
+      <c r="O50" s="10">
+        <v>100</v>
+      </c>
+      <c r="P50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>1</v>
+      </c>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6">
+        <v>2000</v>
+      </c>
+      <c r="U50" s="13"/>
+      <c r="V50" s="5">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>2601001</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:23">
+      <c r="B51" s="1">
+        <v>2001002</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="10"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6">
-        <v>1</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
-      <c r="I51" s="6">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
-        <v>1</v>
-      </c>
-      <c r="K51" s="6">
-        <v>3001011</v>
-      </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6">
-        <v>0</v>
-      </c>
-      <c r="N51" s="6">
-        <v>180</v>
-      </c>
-      <c r="O51" s="6">
+      <c r="G51" s="10">
+        <v>2</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0</v>
+      </c>
+      <c r="J51" s="10">
+        <v>0</v>
+      </c>
+      <c r="K51" s="10">
+        <v>3001002</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10">
+        <v>99000</v>
+      </c>
+      <c r="N51" s="10">
         <v>100</v>
       </c>
-      <c r="P51" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="6">
-        <v>1</v>
-      </c>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
+      <c r="O51" s="10">
+        <v>500</v>
+      </c>
+      <c r="P51" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
       <c r="T51" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U51" s="15"/>
+        <v>1000</v>
+      </c>
+      <c r="U51" s="13"/>
       <c r="V51" s="5">
         <v>0</v>
       </c>
       <c r="W51">
-        <v>2601021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+        <v>2601002</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:22">
       <c r="A52" t="s">
         <v>0</v>
       </c>
       <c r="B52">
-        <v>2001022</v>
+        <v>2001002</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6">
         <v>15003751</v>
       </c>
       <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
         <v>2</v>
       </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
-      <c r="I52" s="6">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
-        <v>0</v>
-      </c>
       <c r="K52" s="6">
-        <v>3001012</v>
+        <v>14001010</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="N52" s="6">
-        <v>1800</v>
+        <v>466</v>
       </c>
       <c r="O52" s="6">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="P52" s="6">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6">
-        <v>267</v>
-      </c>
-      <c r="U52" s="15"/>
+        <v>1000</v>
+      </c>
+      <c r="U52" s="13"/>
       <c r="V52" s="5">
         <v>0</v>
-      </c>
-      <c r="W52">
-        <v>2601022</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -3725,13 +3692,13 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>2001023</v>
+        <v>2001003</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6">
@@ -3747,110 +3714,113 @@
         <v>0</v>
       </c>
       <c r="J53" s="6">
-        <v>2</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L53" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L53" s="11"/>
       <c r="M53" s="6">
         <v>0</v>
       </c>
       <c r="N53" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O53" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P53" s="6">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U53" s="15"/>
+        <v>1000</v>
+      </c>
+      <c r="U53" s="13"/>
       <c r="V53" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="54" customFormat="1" spans="1:22">
+    <row r="54" customFormat="1" spans="1:23">
       <c r="A54" t="s">
         <v>0</v>
       </c>
       <c r="B54">
-        <v>2001024</v>
+        <v>2001004</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6">
         <v>15003753</v>
       </c>
       <c r="G54" s="6">
+        <v>2</v>
+      </c>
+      <c r="H54" s="6">
         <v>1</v>
       </c>
-      <c r="H54" s="6">
-        <v>0</v>
-      </c>
       <c r="I54" s="6">
         <v>0</v>
       </c>
       <c r="J54" s="6">
-        <v>1</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="L54" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <v>16001001</v>
+      </c>
+      <c r="L54" s="6"/>
       <c r="M54" s="6">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="N54" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O54" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P54" s="6">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U54" s="15"/>
+        <v>1000</v>
+      </c>
+      <c r="U54" s="13"/>
       <c r="V54" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54">
+        <v>2601005</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:22">
       <c r="A55" t="s">
         <v>0</v>
       </c>
       <c r="B55">
-        <v>2001025</v>
+        <v>2001005</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6">
         <v>15003754</v>
       </c>
       <c r="G55" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>0</v>
@@ -3859,20 +3829,20 @@
         <v>0</v>
       </c>
       <c r="J55" s="6">
-        <v>1</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="L55" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L55" s="11"/>
       <c r="M55" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N55" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O55" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P55" s="6">
         <v>25000</v>
@@ -3883,9 +3853,9 @@
       </c>
       <c r="S55" s="6"/>
       <c r="T55" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U55" s="15"/>
+        <v>1000</v>
+      </c>
+      <c r="U55" s="13"/>
       <c r="V55" s="5">
         <v>0</v>
       </c>
@@ -3895,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>2001026</v>
+        <v>2001006</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6">
@@ -3919,10 +3889,10 @@
       <c r="J56" s="6">
         <v>2</v>
       </c>
-      <c r="K56" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L56" s="12"/>
+      <c r="K56" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L56" s="11"/>
       <c r="M56" s="6">
         <v>0</v>
       </c>
@@ -3932,339 +3902,488 @@
       <c r="O56" s="6">
         <v>0</v>
       </c>
-      <c r="P56" s="6"/>
+      <c r="P56" s="6">
+        <v>0</v>
+      </c>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U56" s="15"/>
+        <v>1000</v>
+      </c>
+      <c r="U56" s="13"/>
       <c r="V56" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:23">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
+    <row r="57" customFormat="1" spans="3:22">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
       <c r="T57" s="6"/>
-      <c r="U57" s="15"/>
+      <c r="U57" s="13"/>
       <c r="V57" s="5"/>
-      <c r="W57"/>
-    </row>
-    <row r="58" ht="12" customHeight="1" spans="3:21">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+    </row>
+    <row r="58" customFormat="1" spans="1:22">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>2001008</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
+      <c r="F58" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L58" s="11"/>
+      <c r="M58" s="6">
+        <v>0</v>
+      </c>
+      <c r="N58" s="6">
+        <v>466</v>
+      </c>
+      <c r="O58" s="6">
+        <v>200</v>
+      </c>
+      <c r="P58" s="6">
+        <v>2500</v>
+      </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="15"/>
-    </row>
-    <row r="59" customFormat="1" spans="1:24">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59">
-        <v>2001050</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="T58" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U58" s="13"/>
+      <c r="V58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="3:22">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G59" s="6">
-        <v>2</v>
-      </c>
-      <c r="H59" s="6">
-        <v>1</v>
-      </c>
-      <c r="I59" s="6">
-        <v>0</v>
-      </c>
-      <c r="J59" s="6">
-        <v>0</v>
-      </c>
-      <c r="K59" s="6">
-        <v>16001010</v>
-      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="6">
-        <v>10000</v>
-      </c>
-      <c r="N59" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O59" s="6">
-        <v>0</v>
-      </c>
-      <c r="P59" s="6">
-        <v>600</v>
-      </c>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
-      <c r="T59" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U59" s="15"/>
-      <c r="V59" s="5">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>2601050</v>
-      </c>
-      <c r="X59">
-        <v>2500005</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="3:22">
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="5"/>
-    </row>
-    <row r="61" customFormat="1" spans="3:22">
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="5"/>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>2001021</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
+        <v>1</v>
+      </c>
+      <c r="K61" s="6">
+        <v>3001011</v>
+      </c>
       <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
+      <c r="M61" s="6">
+        <v>0</v>
+      </c>
+      <c r="N61" s="6">
+        <v>180</v>
+      </c>
+      <c r="O61" s="6">
+        <v>100</v>
+      </c>
+      <c r="P61" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>1</v>
+      </c>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="5"/>
-    </row>
-    <row r="62" customFormat="1" spans="3:22">
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="T61" s="6">
+        <v>2667</v>
+      </c>
+      <c r="U61" s="13"/>
+      <c r="V61" s="5">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>2601021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>2001022</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+      <c r="F62" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G62" s="6">
+        <v>2</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
+        <v>0</v>
+      </c>
+      <c r="K62" s="6">
+        <v>3001012</v>
+      </c>
       <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
+      <c r="M62" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N62" s="6">
+        <v>1800</v>
+      </c>
+      <c r="O62" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P62" s="6">
+        <v>2000</v>
+      </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="5"/>
-    </row>
-    <row r="63" customFormat="1" spans="3:22">
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="T62" s="6">
+        <v>267</v>
+      </c>
+      <c r="U62" s="13"/>
+      <c r="V62" s="5">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>2001023</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
+      <c r="F63" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <v>2</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L63" s="11"/>
+      <c r="M63" s="6">
+        <v>0</v>
+      </c>
+      <c r="N63" s="6">
+        <v>180</v>
+      </c>
+      <c r="O63" s="6">
+        <v>100</v>
+      </c>
+      <c r="P63" s="6">
+        <v>15000</v>
+      </c>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="5"/>
-    </row>
-    <row r="64" s="3" customFormat="1" spans="20:22">
-      <c r="T64" s="6"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-    </row>
-    <row r="65" spans="20:20">
-      <c r="T65" s="6"/>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="T63" s="6">
+        <v>2667</v>
+      </c>
+      <c r="U63" s="13"/>
+      <c r="V63" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:22">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>2001024</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>1</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L64" s="11"/>
+      <c r="M64" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N64" s="6">
+        <v>180</v>
+      </c>
+      <c r="O64" s="6">
+        <v>100</v>
+      </c>
+      <c r="P64" s="6">
+        <v>3000</v>
+      </c>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6">
+        <v>2667</v>
+      </c>
+      <c r="U64" s="13"/>
+      <c r="V64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>2001025</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6">
+        <v>15003754</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L65" s="11"/>
+      <c r="M65" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N65" s="6">
+        <v>180</v>
+      </c>
+      <c r="O65" s="6">
+        <v>100</v>
+      </c>
+      <c r="P65" s="6">
+        <v>25000</v>
+      </c>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6">
+        <v>1</v>
+      </c>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6">
+        <v>2667</v>
+      </c>
+      <c r="U65" s="13"/>
+      <c r="V65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:22">
       <c r="A66" t="s">
         <v>0</v>
       </c>
       <c r="B66">
-        <v>2002001</v>
+        <v>2001026</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="6">
+        <v>15003755</v>
+      </c>
       <c r="G66" s="6">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
         <v>1</v>
       </c>
-      <c r="H66" s="6">
-        <v>0</v>
-      </c>
-      <c r="I66" s="6">
-        <v>0</v>
-      </c>
       <c r="J66" s="6">
-        <v>1</v>
-      </c>
-      <c r="K66" s="6">
-        <v>3002001</v>
-      </c>
-      <c r="L66" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L66" s="11"/>
       <c r="M66" s="6">
         <v>0</v>
       </c>
       <c r="N66" s="6">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O66" s="6">
-        <v>300</v>
-      </c>
-      <c r="P66" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="6">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6">
-        <v>1540</v>
-      </c>
-      <c r="U66" s="15"/>
+        <v>2667</v>
+      </c>
+      <c r="U66" s="13"/>
       <c r="V66" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67">
-        <v>2002002</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G67" s="6">
-        <v>2</v>
-      </c>
-      <c r="H67" s="6">
-        <v>0</v>
-      </c>
-      <c r="I67" s="6">
-        <v>0</v>
-      </c>
-      <c r="J67" s="6">
-        <v>2</v>
-      </c>
-      <c r="K67" s="6">
-        <v>13002030</v>
-      </c>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6">
-        <v>4000</v>
-      </c>
-      <c r="N67" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O67" s="6">
-        <v>700</v>
-      </c>
-      <c r="P67" s="6">
-        <v>6500</v>
-      </c>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6">
-        <v>340</v>
-      </c>
-      <c r="U67" s="15"/>
-      <c r="V67" s="5">
-        <v>0</v>
-      </c>
+    <row r="67" s="2" customFormat="1" spans="1:23">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="5"/>
       <c r="W67"/>
-      <c r="X67">
-        <v>2500010</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="3:22">
+    </row>
+    <row r="68" ht="12" customHeight="1" spans="3:21">
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -4283,128 +4402,94 @@
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="5"/>
-    </row>
-    <row r="69" customFormat="1" spans="1:22">
+      <c r="U68" s="13"/>
+    </row>
+    <row r="69" customFormat="1" spans="1:24">
       <c r="A69" t="s">
         <v>0</v>
       </c>
       <c r="B69">
-        <v>2002011</v>
+        <v>2001050</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="6">
+        <v>15003753</v>
+      </c>
       <c r="G69" s="6">
+        <v>2</v>
+      </c>
+      <c r="H69" s="6">
         <v>1</v>
       </c>
-      <c r="H69" s="6">
-        <v>0</v>
-      </c>
       <c r="I69" s="6">
         <v>0</v>
       </c>
       <c r="J69" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="6">
-        <v>3002011</v>
+        <v>16001010</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N69" s="6">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="O69" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="6">
-        <v>1</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6">
-        <v>1400</v>
-      </c>
-      <c r="U69" s="15"/>
+        <v>1000</v>
+      </c>
+      <c r="U69" s="13"/>
       <c r="V69" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:24">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70">
-        <v>2002012</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="W69">
+        <v>2601050</v>
+      </c>
+      <c r="X69">
+        <v>2500005</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="3:22">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="6"/>
-      <c r="F70" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G70" s="6">
-        <v>2</v>
-      </c>
-      <c r="H70" s="6">
-        <v>0</v>
-      </c>
-      <c r="I70" s="6">
-        <v>0</v>
-      </c>
-      <c r="J70" s="6">
-        <v>0</v>
-      </c>
-      <c r="K70" s="6">
-        <v>3002012</v>
-      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N70" s="6">
-        <v>1000</v>
-      </c>
-      <c r="O70" s="6">
-        <v>700</v>
-      </c>
-      <c r="P70" s="6">
-        <v>7000</v>
-      </c>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
-      <c r="T70" s="6">
-        <v>420</v>
-      </c>
-      <c r="U70" s="15"/>
-      <c r="V70" s="5">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>2602012</v>
-      </c>
-      <c r="X70">
-        <v>2500011</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="4:22">
+      <c r="T70" s="6"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="5"/>
+    </row>
+    <row r="71" customFormat="1" spans="3:22">
+      <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -4412,6 +4497,8 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
@@ -4420,10 +4507,11 @@
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
-      <c r="U71" s="15"/>
+      <c r="U71" s="13"/>
       <c r="V71" s="5"/>
     </row>
-    <row r="72" customFormat="1" spans="4:22">
+    <row r="72" customFormat="1" spans="3:22">
+      <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -4431,6 +4519,8 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
@@ -4439,314 +4529,183 @@
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
-      <c r="U72" s="15"/>
+      <c r="U72" s="13"/>
       <c r="V72" s="5"/>
     </row>
-    <row r="73" customFormat="1" spans="1:23">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73">
-        <v>2003001</v>
-      </c>
-      <c r="C73" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>117</v>
-      </c>
+    <row r="73" customFormat="1" spans="3:22">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="6">
-        <v>1</v>
-      </c>
-      <c r="H73" s="6">
-        <v>0</v>
-      </c>
-      <c r="I73" s="6">
-        <v>0</v>
-      </c>
-      <c r="J73" s="6">
-        <v>1</v>
-      </c>
-      <c r="K73">
-        <v>3003001</v>
-      </c>
-      <c r="M73" s="6">
-        <v>0</v>
-      </c>
-      <c r="N73" s="6">
-        <v>300</v>
-      </c>
-      <c r="O73" s="6">
-        <v>300</v>
-      </c>
-      <c r="P73" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="6">
-        <v>1</v>
-      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
-      <c r="T73" s="6">
+      <c r="T73" s="6"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="5"/>
+    </row>
+    <row r="74" s="3" customFormat="1" spans="20:22">
+      <c r="T74" s="6"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+    </row>
+    <row r="75" spans="20:20">
+      <c r="T75" s="6"/>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>2002001</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6">
+        <v>1</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6">
+        <v>1</v>
+      </c>
+      <c r="K76" s="6">
+        <v>3002001</v>
+      </c>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6">
+        <v>0</v>
+      </c>
+      <c r="N76" s="6">
+        <v>300</v>
+      </c>
+      <c r="O76" s="6">
+        <v>300</v>
+      </c>
+      <c r="P76" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="6">
+        <v>1</v>
+      </c>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6">
         <v>1540</v>
       </c>
-      <c r="U73" s="15"/>
-      <c r="V73" s="5">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>2603001</v>
-      </c>
-    </row>
-    <row r="74" s="4" customFormat="1" spans="1:23">
-      <c r="A74" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="4">
-        <v>2003002</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16">
-        <v>15003751</v>
-      </c>
-      <c r="G74" s="16">
+      <c r="U76" s="13"/>
+      <c r="V76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>2002002</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G77" s="6">
         <v>2</v>
       </c>
-      <c r="H74" s="16">
-        <v>0</v>
-      </c>
-      <c r="I74" s="16">
-        <v>0</v>
-      </c>
-      <c r="J74" s="16">
-        <v>1</v>
-      </c>
-      <c r="K74" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="16">
-        <v>8000</v>
-      </c>
-      <c r="N74" s="16">
-        <v>600</v>
-      </c>
-      <c r="O74" s="16">
-        <v>0</v>
-      </c>
-      <c r="P74" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U74" s="16"/>
-      <c r="V74" s="5">
-        <v>0</v>
-      </c>
-      <c r="W74" s="4">
-        <v>2603002</v>
-      </c>
-    </row>
-    <row r="75" s="4" customFormat="1" spans="1:23">
-      <c r="A75" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="4">
-        <v>2003003</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16">
-        <v>15003753</v>
-      </c>
-      <c r="G75" s="16">
-        <v>0</v>
-      </c>
-      <c r="H75" s="16">
-        <v>0</v>
-      </c>
-      <c r="I75" s="16">
-        <v>0</v>
-      </c>
-      <c r="J75" s="16">
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
         <v>2</v>
       </c>
-      <c r="K75" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="16">
-        <v>0</v>
-      </c>
-      <c r="N75" s="16">
-        <v>50</v>
-      </c>
-      <c r="O75" s="16">
-        <v>0</v>
-      </c>
-      <c r="P75" s="16">
-        <v>6000</v>
-      </c>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U75" s="16"/>
-      <c r="V75" s="5">
-        <v>15008005</v>
-      </c>
-      <c r="W75" s="4">
-        <v>2603003</v>
-      </c>
-    </row>
-    <row r="76" s="4" customFormat="1" spans="1:23">
-      <c r="A76" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="4">
-        <v>2003004</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16">
-        <v>15003754</v>
-      </c>
-      <c r="G76" s="16">
-        <v>2</v>
-      </c>
-      <c r="H76" s="16">
-        <v>1</v>
-      </c>
-      <c r="I76" s="16">
-        <v>0</v>
-      </c>
-      <c r="J76" s="16">
-        <v>0</v>
-      </c>
-      <c r="K76" s="16">
-        <v>16001001</v>
-      </c>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16">
-        <v>8000</v>
-      </c>
-      <c r="N76" s="16">
-        <v>0</v>
-      </c>
-      <c r="O76" s="16">
-        <v>0</v>
-      </c>
-      <c r="P76" s="16">
+      <c r="K77" s="6">
+        <v>13002030</v>
+      </c>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6">
+        <v>4000</v>
+      </c>
+      <c r="N77" s="6">
         <v>1500</v>
       </c>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U76" s="16"/>
-      <c r="V76" s="5">
-        <v>0</v>
-      </c>
-      <c r="W76" s="4">
-        <v>2603004</v>
-      </c>
-    </row>
-    <row r="77" spans="20:20">
-      <c r="T77" s="6"/>
-    </row>
-    <row r="78" customFormat="1" spans="1:23">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78">
-        <v>2003050</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="O77" s="6">
+        <v>700</v>
+      </c>
+      <c r="P77" s="6">
+        <v>6500</v>
+      </c>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6">
+        <v>340</v>
+      </c>
+      <c r="U77" s="13"/>
+      <c r="V77" s="5">
+        <v>0</v>
+      </c>
+      <c r="W77"/>
+      <c r="X77">
+        <v>2500010</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="3:22">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G78" s="6">
-        <v>0</v>
-      </c>
-      <c r="H78" s="6">
-        <v>0</v>
-      </c>
-      <c r="I78" s="6">
-        <v>1</v>
-      </c>
-      <c r="J78" s="6">
-        <v>2</v>
-      </c>
-      <c r="K78" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="L78" s="12"/>
-      <c r="M78" s="6">
-        <v>0</v>
-      </c>
-      <c r="N78" s="6">
-        <v>0</v>
-      </c>
-      <c r="O78" s="6">
-        <v>0</v>
-      </c>
-      <c r="P78" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="6">
-        <v>1</v>
-      </c>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U78" s="15"/>
-      <c r="V78" s="5">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>2603050</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:23">
+      <c r="T78" s="6"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="5"/>
+    </row>
+    <row r="79" customFormat="1" spans="1:22">
       <c r="A79" t="s">
         <v>0</v>
       </c>
       <c r="B79">
-        <v>2003051</v>
+        <v>2002011</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>128</v>
@@ -4755,49 +4714,46 @@
         <v>128</v>
       </c>
       <c r="E79" s="6"/>
-      <c r="F79" s="6">
-        <v>15003752</v>
-      </c>
+      <c r="F79" s="6"/>
       <c r="G79" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="6">
         <v>0</v>
       </c>
       <c r="I79" s="6">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
         <v>1</v>
       </c>
-      <c r="J79" s="6">
-        <v>2</v>
-      </c>
-      <c r="K79" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="L79" s="12"/>
+      <c r="K79" s="6">
+        <v>3002011</v>
+      </c>
+      <c r="L79" s="6"/>
       <c r="M79" s="6">
         <v>0</v>
       </c>
       <c r="N79" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O79" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P79" s="6">
         <v>0</v>
       </c>
-      <c r="Q79" s="6"/>
+      <c r="Q79" s="6">
+        <v>1</v>
+      </c>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U79" s="15"/>
+        <v>1400</v>
+      </c>
+      <c r="U79" s="13"/>
       <c r="V79" s="5">
         <v>0</v>
-      </c>
-      <c r="W79">
-        <v>2603051</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:24">
@@ -4805,20 +4761,20 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>2003052</v>
+        <v>2002012</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6">
-        <v>15003753</v>
+        <v>15003751</v>
       </c>
       <c r="G80" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" s="6">
         <v>0</v>
@@ -4829,104 +4785,562 @@
       <c r="J80" s="6">
         <v>0</v>
       </c>
-      <c r="K80" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L80" s="12"/>
+      <c r="K80" s="6">
+        <v>3002012</v>
+      </c>
+      <c r="L80" s="6"/>
       <c r="M80" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N80" s="6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="O80" s="6">
         <v>700</v>
       </c>
       <c r="P80" s="6">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6">
-        <v>340</v>
-      </c>
-      <c r="U80" s="15"/>
+        <v>420</v>
+      </c>
+      <c r="U80" s="13"/>
       <c r="V80" s="5">
-        <v>15008014</v>
+        <v>0</v>
       </c>
       <c r="W80">
-        <v>2603052</v>
+        <v>2602012</v>
       </c>
       <c r="X80">
-        <v>2500020</v>
-      </c>
-    </row>
-    <row r="81" spans="20:20">
+        <v>2500011</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="4:22">
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
       <c r="T81" s="6"/>
-    </row>
-    <row r="84" spans="16:16">
-      <c r="P84" t="s">
+      <c r="U81" s="13"/>
+      <c r="V81" s="5"/>
+    </row>
+    <row r="82" customFormat="1" spans="4:22">
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="5"/>
+    </row>
+    <row r="83" customFormat="1" spans="1:23">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>2003001</v>
+      </c>
+      <c r="C83" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6">
+        <v>1</v>
+      </c>
+      <c r="H83" s="6">
+        <v>0</v>
+      </c>
+      <c r="I83" s="6">
+        <v>0</v>
+      </c>
+      <c r="J83" s="6">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>3003001</v>
+      </c>
+      <c r="M83" s="6">
+        <v>0</v>
+      </c>
+      <c r="N83" s="6">
+        <v>300</v>
+      </c>
+      <c r="O83" s="6">
+        <v>300</v>
+      </c>
+      <c r="P83" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>1</v>
+      </c>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6">
+        <v>1540</v>
+      </c>
+      <c r="U83" s="13"/>
+      <c r="V83" s="5">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>2603001</v>
+      </c>
+    </row>
+    <row r="84" s="4" customFormat="1" spans="1:23">
+      <c r="A84" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2003002</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="15" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="85" spans="1:23">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85">
-        <v>2005001</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="E84" s="15"/>
+      <c r="F84" s="15">
+        <v>15003751</v>
+      </c>
+      <c r="G84" s="15">
+        <v>2</v>
+      </c>
+      <c r="H84" s="15">
+        <v>0</v>
+      </c>
+      <c r="I84" s="15">
+        <v>0</v>
+      </c>
+      <c r="J84" s="15">
+        <v>1</v>
+      </c>
+      <c r="K84" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D85" t="s">
+      <c r="L84" s="17"/>
+      <c r="M84" s="15">
+        <v>8000</v>
+      </c>
+      <c r="N84" s="15">
+        <v>600</v>
+      </c>
+      <c r="O84" s="15">
+        <v>0</v>
+      </c>
+      <c r="P84" s="15">
+        <v>2000</v>
+      </c>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U84" s="15"/>
+      <c r="V84" s="5">
+        <v>0</v>
+      </c>
+      <c r="W84" s="4">
+        <v>2603002</v>
+      </c>
+    </row>
+    <row r="85" s="4" customFormat="1" spans="1:23">
+      <c r="A85" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="4">
+        <v>2003003</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F85" s="6">
+      <c r="D85" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15">
         <v>15003753</v>
       </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85" s="6">
+      <c r="G85" s="15">
+        <v>0</v>
+      </c>
+      <c r="H85" s="15">
+        <v>0</v>
+      </c>
+      <c r="I85" s="15">
+        <v>0</v>
+      </c>
+      <c r="J85" s="15">
         <v>2</v>
       </c>
-      <c r="I85" s="6">
-        <v>0</v>
-      </c>
-      <c r="J85" s="6">
-        <v>0</v>
-      </c>
-      <c r="K85" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L85" s="12" t="s">
+      <c r="K85" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="M85" s="6">
-        <v>0</v>
-      </c>
-      <c r="N85" s="6">
-        <v>0</v>
-      </c>
-      <c r="O85" s="6">
-        <v>0</v>
-      </c>
-      <c r="P85" s="6">
-        <v>2000</v>
-      </c>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="15">
+        <v>0</v>
+      </c>
+      <c r="N85" s="15">
+        <v>50</v>
+      </c>
+      <c r="O85" s="15">
+        <v>0</v>
+      </c>
+      <c r="P85" s="15">
+        <v>6000</v>
+      </c>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
       <c r="T85" s="6">
         <v>1000</v>
       </c>
       <c r="U85" s="15"/>
       <c r="V85" s="5">
+        <v>15008005</v>
+      </c>
+      <c r="W85" s="4">
+        <v>2603003</v>
+      </c>
+    </row>
+    <row r="86" s="4" customFormat="1" spans="1:23">
+      <c r="A86" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="4">
+        <v>2003004</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15">
+        <v>15003754</v>
+      </c>
+      <c r="G86" s="15">
+        <v>2</v>
+      </c>
+      <c r="H86" s="15">
+        <v>1</v>
+      </c>
+      <c r="I86" s="15">
+        <v>0</v>
+      </c>
+      <c r="J86" s="15">
+        <v>0</v>
+      </c>
+      <c r="K86" s="15">
+        <v>16001001</v>
+      </c>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15">
+        <v>8000</v>
+      </c>
+      <c r="N86" s="15">
+        <v>0</v>
+      </c>
+      <c r="O86" s="15">
+        <v>0</v>
+      </c>
+      <c r="P86" s="15">
+        <v>1500</v>
+      </c>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U86" s="15"/>
+      <c r="V86" s="5">
+        <v>0</v>
+      </c>
+      <c r="W86" s="4">
+        <v>2603004</v>
+      </c>
+    </row>
+    <row r="87" spans="20:20">
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" customFormat="1" spans="1:23">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>2003050</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G88" s="6">
+        <v>0</v>
+      </c>
+      <c r="H88" s="6">
+        <v>0</v>
+      </c>
+      <c r="I88" s="6">
+        <v>1</v>
+      </c>
+      <c r="J88" s="6">
+        <v>2</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L88" s="11"/>
+      <c r="M88" s="6">
+        <v>0</v>
+      </c>
+      <c r="N88" s="6">
+        <v>0</v>
+      </c>
+      <c r="O88" s="6">
+        <v>0</v>
+      </c>
+      <c r="P88" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>1</v>
+      </c>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U88" s="13"/>
+      <c r="V88" s="5">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>2603050</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:23">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>2003051</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G89" s="6">
+        <v>0</v>
+      </c>
+      <c r="H89" s="6">
+        <v>0</v>
+      </c>
+      <c r="I89" s="6">
+        <v>1</v>
+      </c>
+      <c r="J89" s="6">
+        <v>2</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L89" s="11"/>
+      <c r="M89" s="6">
+        <v>0</v>
+      </c>
+      <c r="N89" s="6">
+        <v>0</v>
+      </c>
+      <c r="O89" s="6">
+        <v>0</v>
+      </c>
+      <c r="P89" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U89" s="13"/>
+      <c r="V89" s="5">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>2603051</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:24">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>2003052</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0</v>
+      </c>
+      <c r="I90" s="6">
+        <v>0</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L90" s="11"/>
+      <c r="M90" s="6">
+        <v>0</v>
+      </c>
+      <c r="N90" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O90" s="6">
+        <v>700</v>
+      </c>
+      <c r="P90" s="6">
+        <v>12000</v>
+      </c>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6">
+        <v>340</v>
+      </c>
+      <c r="U90" s="13"/>
+      <c r="V90" s="5">
         <v>15008014</v>
       </c>
-      <c r="W85">
+      <c r="W90">
+        <v>2603052</v>
+      </c>
+      <c r="X90">
+        <v>2500020</v>
+      </c>
+    </row>
+    <row r="91" spans="20:20">
+      <c r="T91" s="6"/>
+    </row>
+    <row r="94" spans="16:16">
+      <c r="P94" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>2005001</v>
+      </c>
+      <c r="C95" t="s">
+        <v>146</v>
+      </c>
+      <c r="D95" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" s="6">
+        <v>2</v>
+      </c>
+      <c r="I95" s="6">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6">
+        <v>0</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="M95" s="6">
+        <v>0</v>
+      </c>
+      <c r="N95" s="6">
+        <v>0</v>
+      </c>
+      <c r="O95" s="6">
+        <v>0</v>
+      </c>
+      <c r="P95" s="6">
+        <v>2000</v>
+      </c>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U95" s="13"/>
+      <c r="V95" s="5">
+        <v>15008014</v>
+      </c>
+      <c r="W95">
         <v>2605001</v>
       </c>
     </row>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -430,10 +430,10 @@
     <t>残血爆发(被动)lv5</t>
   </si>
   <si>
-    <t>每失去 1% 血量，提高2%攻击力和1%攻击速度，受到致命伤害无敌2 秒（30sCD）</t>
-  </si>
-  <si>
-    <t>18100105,18001002</t>
+    <t>每失去 1% 血量，提高2%攻击力和1%攻击速度，受到致命伤害无敌4 秒（30sCD）</t>
+  </si>
+  <si>
+    <t>18100105,18001002,18100201</t>
   </si>
   <si>
     <t>道具技能（待定）</t>
@@ -1258,7 +1258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1284,9 +1284,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1661,12 +1658,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X95"/>
+  <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K36" sqref="K36"/>
+      <selection pane="topRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1756,7 +1753,7 @@
       <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="5" t="s">
@@ -1830,7 +1827,7 @@
       <c r="T2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="V2" s="5" t="s">
@@ -1904,10 +1901,10 @@
       <c r="T3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>48</v>
       </c>
       <c r="W3" s="7" t="s">
@@ -1932,14 +1929,14 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="13"/>
+      <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
@@ -1963,14 +1960,14 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="13"/>
+      <c r="U5" s="12"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
@@ -1994,14 +1991,14 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="13"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="3:21">
       <c r="C7" s="6"/>
@@ -2015,14 +2012,14 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="13"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" customFormat="1" spans="1:23">
       <c r="A8" t="s">
@@ -2075,7 +2072,7 @@
       <c r="T8" s="6">
         <v>2667</v>
       </c>
-      <c r="U8" s="13"/>
+      <c r="U8" s="12"/>
       <c r="V8" s="5">
         <v>0</v>
       </c>
@@ -2105,14 +2102,14 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="13"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="6"/>
@@ -2126,14 +2123,14 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="13"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
@@ -2157,14 +2154,14 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="13"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
@@ -2188,14 +2185,14 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="13"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="3:21">
       <c r="C13" s="6"/>
@@ -2209,14 +2206,14 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="13"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="3:21">
       <c r="C14" s="6"/>
@@ -2230,14 +2227,14 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="13"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="3:21">
       <c r="C15" s="6"/>
@@ -2251,14 +2248,14 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="13"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="3:21">
       <c r="C16" s="6"/>
@@ -2272,14 +2269,14 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="13"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="6"/>
@@ -2293,14 +2290,14 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="13"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="18" ht="40.5" spans="2:21">
       <c r="B18" s="8" t="s">
@@ -2317,14 +2314,14 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="13"/>
+      <c r="U18" s="12"/>
     </row>
     <row r="19" customFormat="1" ht="27" spans="1:23">
       <c r="A19" t="s">
@@ -2379,7 +2376,7 @@
       <c r="T19" s="6">
         <v>1000</v>
       </c>
-      <c r="U19" s="13"/>
+      <c r="U19" s="12"/>
       <c r="V19" s="5">
         <v>0</v>
       </c>
@@ -2440,7 +2437,7 @@
       <c r="T20" s="6">
         <v>1000</v>
       </c>
-      <c r="U20" s="13"/>
+      <c r="U20" s="12"/>
       <c r="V20" s="5">
         <v>0</v>
       </c>
@@ -2501,7 +2498,7 @@
       <c r="T21" s="6">
         <v>1000</v>
       </c>
-      <c r="U21" s="13"/>
+      <c r="U21" s="12"/>
       <c r="V21" s="5">
         <v>0</v>
       </c>
@@ -2562,7 +2559,7 @@
       <c r="T22" s="6">
         <v>1000</v>
       </c>
-      <c r="U22" s="13"/>
+      <c r="U22" s="12"/>
       <c r="V22" s="5">
         <v>0</v>
       </c>
@@ -2623,7 +2620,7 @@
       <c r="T23" s="6">
         <v>1000</v>
       </c>
-      <c r="U23" s="13"/>
+      <c r="U23" s="12"/>
       <c r="V23" s="5">
         <v>0</v>
       </c>
@@ -2643,14 +2640,14 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="13"/>
+      <c r="U24" s="12"/>
     </row>
     <row r="25" customFormat="1" spans="3:22">
       <c r="C25" s="6"/>
@@ -2661,8 +2658,8 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -2671,7 +2668,7 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="13"/>
+      <c r="U25" s="12"/>
       <c r="V25" s="5"/>
     </row>
     <row r="26" customFormat="1" ht="27" spans="1:22">
@@ -2708,7 +2705,7 @@
       <c r="K26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="6">
         <v>0</v>
       </c>
@@ -2727,7 +2724,7 @@
       <c r="T26" s="6">
         <v>1000</v>
       </c>
-      <c r="U26" s="13"/>
+      <c r="U26" s="12"/>
       <c r="V26" s="5">
         <v>15008014</v>
       </c>
@@ -2766,7 +2763,7 @@
       <c r="K27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="11"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="6">
         <v>0</v>
       </c>
@@ -2783,7 +2780,7 @@
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="13"/>
+      <c r="U27" s="12"/>
     </row>
     <row r="28" ht="40.5" spans="1:21">
       <c r="A28" t="s">
@@ -2819,7 +2816,7 @@
       <c r="K28" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L28" s="11"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="6">
         <v>0</v>
       </c>
@@ -2836,7 +2833,7 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="13"/>
+      <c r="U28" s="12"/>
     </row>
     <row r="29" ht="40.5" spans="1:21">
       <c r="A29" t="s">
@@ -2872,7 +2869,7 @@
       <c r="K29" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L29" s="11"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="6">
         <v>0</v>
       </c>
@@ -2889,7 +2886,7 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="13"/>
+      <c r="U29" s="12"/>
     </row>
     <row r="30" ht="54" spans="1:21">
       <c r="A30" t="s">
@@ -2925,7 +2922,7 @@
       <c r="K30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L30" s="11"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="6">
         <v>0</v>
       </c>
@@ -2942,7 +2939,7 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="13"/>
+      <c r="U30" s="12"/>
     </row>
     <row r="31" spans="3:21">
       <c r="C31" s="6"/>
@@ -2956,14 +2953,14 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-      <c r="U31" s="13"/>
+      <c r="U31" s="12"/>
     </row>
     <row r="32" spans="3:21">
       <c r="C32" s="6"/>
@@ -2977,14 +2974,14 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
-      <c r="U32" s="13"/>
+      <c r="U32" s="12"/>
     </row>
     <row r="33" customFormat="1" ht="27" spans="1:22">
       <c r="A33" t="s">
@@ -2996,7 +2993,7 @@
       <c r="C33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E33" s="6"/>
@@ -3015,10 +3012,10 @@
       <c r="J33" s="6">
         <v>2</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="11"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="6">
         <v>0</v>
       </c>
@@ -3035,7 +3032,7 @@
       <c r="T33" s="6">
         <v>1000</v>
       </c>
-      <c r="U33" s="13"/>
+      <c r="U33" s="12"/>
       <c r="V33" s="5">
         <v>0</v>
       </c>
@@ -3050,7 +3047,7 @@
       <c r="C34" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E34" s="6"/>
@@ -3069,10 +3066,10 @@
       <c r="J34" s="6">
         <v>2</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="11"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="6">
         <v>0</v>
       </c>
@@ -3089,7 +3086,7 @@
       <c r="T34" s="6">
         <v>1000</v>
       </c>
-      <c r="U34" s="13"/>
+      <c r="U34" s="12"/>
       <c r="V34" s="5">
         <v>0</v>
       </c>
@@ -3104,7 +3101,7 @@
       <c r="C35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>85</v>
       </c>
       <c r="E35" s="6"/>
@@ -3123,10 +3120,10 @@
       <c r="J35" s="6">
         <v>2</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="L35" s="11"/>
+      <c r="L35" s="10"/>
       <c r="M35" s="6">
         <v>0</v>
       </c>
@@ -3143,7 +3140,7 @@
       <c r="T35" s="6">
         <v>1000</v>
       </c>
-      <c r="U35" s="13"/>
+      <c r="U35" s="12"/>
       <c r="V35" s="5">
         <v>0</v>
       </c>
@@ -3158,7 +3155,7 @@
       <c r="C36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="6"/>
@@ -3177,10 +3174,10 @@
       <c r="J36" s="6">
         <v>2</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="L36" s="11"/>
+      <c r="L36" s="10"/>
       <c r="M36" s="6">
         <v>0</v>
       </c>
@@ -3197,7 +3194,7 @@
       <c r="T36" s="6">
         <v>1000</v>
       </c>
-      <c r="U36" s="13"/>
+      <c r="U36" s="12"/>
       <c r="V36" s="5">
         <v>0</v>
       </c>
@@ -3212,7 +3209,7 @@
       <c r="C37" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E37" s="6"/>
@@ -3231,10 +3228,10 @@
       <c r="J37" s="6">
         <v>2</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="L37" s="11"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="6">
         <v>0</v>
       </c>
@@ -3251,7 +3248,7 @@
       <c r="T37" s="6">
         <v>1000</v>
       </c>
-      <c r="U37" s="13"/>
+      <c r="U37" s="12"/>
       <c r="V37" s="5">
         <v>0</v>
       </c>
@@ -3268,14 +3265,14 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
-      <c r="U38" s="13"/>
+      <c r="U38" s="12"/>
     </row>
     <row r="39" spans="3:21">
       <c r="C39" s="6"/>
@@ -3289,35 +3286,36 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
-      <c r="U39" s="13"/>
-    </row>
-    <row r="40" spans="3:21">
+      <c r="U39" s="12"/>
+    </row>
+    <row r="40" customFormat="1" spans="3:22">
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="13"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="5"/>
     </row>
     <row r="41" spans="3:21">
       <c r="C41" s="6"/>
@@ -3331,14 +3329,14 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
-      <c r="U41" s="13"/>
+      <c r="U41" s="12"/>
     </row>
     <row r="42" spans="3:21">
       <c r="C42" s="6"/>
@@ -3352,14 +3350,14 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
-      <c r="U42" s="13"/>
+      <c r="U42" s="12"/>
     </row>
     <row r="43" spans="3:21">
       <c r="C43" s="6"/>
@@ -3373,14 +3371,14 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
-      <c r="U43" s="13"/>
+      <c r="U43" s="12"/>
     </row>
     <row r="44" spans="3:21">
       <c r="C44" s="6"/>
@@ -3394,14 +3392,14 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
-      <c r="U44" s="13"/>
+      <c r="U44" s="12"/>
     </row>
     <row r="45" spans="3:21">
       <c r="C45" s="6"/>
@@ -3415,29 +3413,19 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
-      <c r="U45" s="13"/>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46">
-        <v>2500001</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="U45" s="12"/>
+    </row>
+    <row r="46" spans="3:21">
+      <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="6">
-        <v>1</v>
-      </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -3446,14 +3434,14 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
-      <c r="U46" s="13"/>
+      <c r="U46" s="12"/>
     </row>
     <row r="47" spans="3:21">
       <c r="C47" s="6"/>
@@ -3467,14 +3455,14 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
-      <c r="U47" s="13"/>
+      <c r="U47" s="12"/>
     </row>
     <row r="48" spans="3:21">
       <c r="C48" s="6"/>
@@ -3488,14 +3476,14 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
-      <c r="U48" s="13"/>
+      <c r="U48" s="12"/>
     </row>
     <row r="49" spans="3:21">
       <c r="C49" s="6"/>
@@ -3509,414 +3497,173 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
-      <c r="U49" s="13"/>
-    </row>
-    <row r="50" spans="1:23">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50">
-        <v>2001001</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="U49" s="12"/>
+    </row>
+    <row r="50" spans="3:21">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6">
-        <v>1</v>
-      </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>1</v>
-      </c>
-      <c r="K50" s="6">
-        <v>3001001</v>
-      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="6">
-        <v>0</v>
-      </c>
-      <c r="N50" s="10">
-        <v>233</v>
-      </c>
-      <c r="O50" s="10">
-        <v>100</v>
-      </c>
-      <c r="P50" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>1</v>
-      </c>
+      <c r="M50" s="6"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="6">
-        <v>2000</v>
-      </c>
-      <c r="U50" s="13"/>
-      <c r="V50" s="5">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>2601001</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="2:23">
-      <c r="B51" s="1">
-        <v>2001002</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="10"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="12"/>
+    </row>
+    <row r="51" spans="3:21">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="10">
-        <v>2</v>
-      </c>
-      <c r="H51" s="10">
-        <v>0</v>
-      </c>
-      <c r="I51" s="10">
-        <v>0</v>
-      </c>
-      <c r="J51" s="10">
-        <v>0</v>
-      </c>
-      <c r="K51" s="10">
-        <v>3001002</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10">
-        <v>99000</v>
-      </c>
-      <c r="N51" s="10">
-        <v>100</v>
-      </c>
-      <c r="O51" s="10">
-        <v>500</v>
-      </c>
-      <c r="P51" s="10">
-        <v>1000</v>
-      </c>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U51" s="13"/>
-      <c r="V51" s="5">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>2601002</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:22">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52">
-        <v>2001002</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="12"/>
+    </row>
+    <row r="52" spans="3:21">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G52" s="6">
-        <v>0</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
-      <c r="I52" s="6">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
-        <v>2</v>
-      </c>
-      <c r="K52" s="6">
-        <v>14001010</v>
-      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="6">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6">
-        <v>466</v>
-      </c>
-      <c r="O52" s="6">
-        <v>200</v>
-      </c>
-      <c r="P52" s="6">
-        <v>15000</v>
-      </c>
+      <c r="M52" s="6"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U52" s="13"/>
-      <c r="V52" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <v>2001003</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="T52" s="6"/>
+      <c r="U52" s="12"/>
+    </row>
+    <row r="53" spans="3:21">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G53" s="6">
-        <v>0</v>
-      </c>
-      <c r="H53" s="6">
-        <v>0</v>
-      </c>
-      <c r="I53" s="6">
-        <v>0</v>
-      </c>
-      <c r="J53" s="6">
-        <v>0</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L53" s="11"/>
-      <c r="M53" s="6">
-        <v>0</v>
-      </c>
-      <c r="N53" s="6">
-        <v>466</v>
-      </c>
-      <c r="O53" s="6">
-        <v>200</v>
-      </c>
-      <c r="P53" s="6">
-        <v>8000</v>
-      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
-      <c r="T53" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U53" s="13"/>
-      <c r="V53" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:23">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>2001004</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="T53" s="6"/>
+      <c r="U53" s="12"/>
+    </row>
+    <row r="54" spans="3:21">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G54" s="6">
-        <v>2</v>
-      </c>
-      <c r="H54" s="6">
-        <v>1</v>
-      </c>
-      <c r="I54" s="6">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6">
-        <v>0</v>
-      </c>
-      <c r="K54" s="6">
-        <v>16001001</v>
-      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="6">
-        <v>100000</v>
-      </c>
-      <c r="N54" s="6">
-        <v>466</v>
-      </c>
-      <c r="O54" s="6">
-        <v>200</v>
-      </c>
-      <c r="P54" s="6">
-        <v>7000</v>
-      </c>
+      <c r="M54" s="6"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
-      <c r="T54" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U54" s="13"/>
-      <c r="V54" s="5">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>2601005</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:22">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55">
-        <v>2001005</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="T54" s="6"/>
+      <c r="U54" s="12"/>
+    </row>
+    <row r="55" spans="3:21">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="6">
-        <v>15003754</v>
-      </c>
-      <c r="G55" s="6">
-        <v>0</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0</v>
-      </c>
-      <c r="I55" s="6">
-        <v>0</v>
-      </c>
-      <c r="J55" s="6">
-        <v>2</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="L55" s="11"/>
-      <c r="M55" s="6">
-        <v>0</v>
-      </c>
-      <c r="N55" s="6">
-        <v>466</v>
-      </c>
-      <c r="O55" s="6">
-        <v>200</v>
-      </c>
-      <c r="P55" s="6">
-        <v>25000</v>
-      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
-      <c r="R55" s="6">
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="12"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>2500001</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6">
         <v>1</v>
       </c>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U55" s="13"/>
-      <c r="V55" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:22">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>2001006</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G56" s="6">
-        <v>0</v>
-      </c>
-      <c r="H56" s="6">
-        <v>0</v>
-      </c>
-      <c r="I56" s="6">
-        <v>1</v>
-      </c>
-      <c r="J56" s="6">
-        <v>2</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L56" s="11"/>
-      <c r="M56" s="6">
-        <v>0</v>
-      </c>
-      <c r="N56" s="6">
-        <v>0</v>
-      </c>
-      <c r="O56" s="6">
-        <v>0</v>
-      </c>
-      <c r="P56" s="6">
-        <v>0</v>
-      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
-      <c r="T56" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U56" s="13"/>
-      <c r="V56" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="3:22">
+      <c r="T56" s="6"/>
+      <c r="U56" s="12"/>
+    </row>
+    <row r="57" spans="3:21">
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -3928,73 +3675,37 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="5"/>
-    </row>
-    <row r="58" customFormat="1" spans="1:22">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>2001008</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="U57" s="12"/>
+    </row>
+    <row r="58" spans="3:21">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G58" s="6">
-        <v>0</v>
-      </c>
-      <c r="H58" s="6">
-        <v>0</v>
-      </c>
-      <c r="I58" s="6">
-        <v>0</v>
-      </c>
-      <c r="J58" s="6">
-        <v>0</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L58" s="11"/>
-      <c r="M58" s="6">
-        <v>0</v>
-      </c>
-      <c r="N58" s="6">
-        <v>466</v>
-      </c>
-      <c r="O58" s="6">
-        <v>200</v>
-      </c>
-      <c r="P58" s="6">
-        <v>2500</v>
-      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
-      <c r="T58" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U58" s="13"/>
-      <c r="V58" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="3:22">
+      <c r="T58" s="6"/>
+      <c r="U58" s="12"/>
+    </row>
+    <row r="59" spans="3:21">
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -4006,132 +3717,182 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="5"/>
-    </row>
-    <row r="61" spans="1:23">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61">
-        <v>2001021</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="6"/>
+      <c r="U59" s="12"/>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>2001001</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1</v>
+      </c>
+      <c r="K60" s="6">
+        <v>3001001</v>
+      </c>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6">
+        <v>0</v>
+      </c>
+      <c r="N60" s="9">
+        <v>233</v>
+      </c>
+      <c r="O60" s="9">
+        <v>100</v>
+      </c>
+      <c r="P60" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>1</v>
+      </c>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6">
+        <v>2000</v>
+      </c>
+      <c r="U60" s="12"/>
+      <c r="V60" s="5">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>2601001</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:23">
+      <c r="B61" s="1">
+        <v>2001002</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="9"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6">
-        <v>1</v>
-      </c>
-      <c r="H61" s="6">
-        <v>0</v>
-      </c>
-      <c r="I61" s="6">
-        <v>0</v>
-      </c>
-      <c r="J61" s="6">
-        <v>1</v>
-      </c>
-      <c r="K61" s="6">
-        <v>3001011</v>
-      </c>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6">
-        <v>0</v>
-      </c>
-      <c r="N61" s="6">
-        <v>180</v>
-      </c>
-      <c r="O61" s="6">
+      <c r="G61" s="9">
+        <v>2</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
+        <v>0</v>
+      </c>
+      <c r="J61" s="9">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9">
+        <v>3001002</v>
+      </c>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9">
+        <v>99000</v>
+      </c>
+      <c r="N61" s="9">
         <v>100</v>
       </c>
-      <c r="P61" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="6">
-        <v>1</v>
-      </c>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
+      <c r="O61" s="9">
+        <v>500</v>
+      </c>
+      <c r="P61" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
       <c r="T61" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U61" s="13"/>
+        <v>1000</v>
+      </c>
+      <c r="U61" s="12"/>
       <c r="V61" s="5">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>2601021</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+        <v>2601002</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:22">
       <c r="A62" t="s">
         <v>0</v>
       </c>
       <c r="B62">
-        <v>2001022</v>
+        <v>2001002</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6">
         <v>15003751</v>
       </c>
       <c r="G62" s="6">
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
         <v>2</v>
       </c>
-      <c r="H62" s="6">
-        <v>0</v>
-      </c>
-      <c r="I62" s="6">
-        <v>0</v>
-      </c>
-      <c r="J62" s="6">
-        <v>0</v>
-      </c>
       <c r="K62" s="6">
-        <v>3001012</v>
+        <v>14001010</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="N62" s="6">
-        <v>1800</v>
+        <v>466</v>
       </c>
       <c r="O62" s="6">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="P62" s="6">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6">
-        <v>267</v>
-      </c>
-      <c r="U62" s="13"/>
+        <v>1000</v>
+      </c>
+      <c r="U62" s="12"/>
       <c r="V62" s="5">
         <v>0</v>
-      </c>
-      <c r="W62">
-        <v>2601022</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4139,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>2001023</v>
+        <v>2001003</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6">
@@ -4161,110 +3922,113 @@
         <v>0</v>
       </c>
       <c r="J63" s="6">
-        <v>2</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="L63" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L63" s="10"/>
       <c r="M63" s="6">
         <v>0</v>
       </c>
       <c r="N63" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O63" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P63" s="6">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U63" s="13"/>
+        <v>1000</v>
+      </c>
+      <c r="U63" s="12"/>
       <c r="V63" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="64" customFormat="1" spans="1:22">
+    <row r="64" customFormat="1" spans="1:23">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64">
-        <v>2001024</v>
+        <v>2001004</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6">
         <v>15003753</v>
       </c>
       <c r="G64" s="6">
+        <v>2</v>
+      </c>
+      <c r="H64" s="6">
         <v>1</v>
       </c>
-      <c r="H64" s="6">
-        <v>0</v>
-      </c>
       <c r="I64" s="6">
         <v>0</v>
       </c>
       <c r="J64" s="6">
-        <v>1</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L64" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="6">
+        <v>16001001</v>
+      </c>
+      <c r="L64" s="6"/>
       <c r="M64" s="6">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="N64" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O64" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P64" s="6">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U64" s="13"/>
+        <v>1000</v>
+      </c>
+      <c r="U64" s="12"/>
       <c r="V64" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64">
+        <v>2601005</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:22">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65">
-        <v>2001025</v>
+        <v>2001005</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6">
         <v>15003754</v>
       </c>
       <c r="G65" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="6">
         <v>0</v>
@@ -4273,20 +4037,20 @@
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>1</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="L65" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L65" s="10"/>
       <c r="M65" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N65" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O65" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P65" s="6">
         <v>25000</v>
@@ -4297,9 +4061,9 @@
       </c>
       <c r="S65" s="6"/>
       <c r="T65" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U65" s="13"/>
+        <v>1000</v>
+      </c>
+      <c r="U65" s="12"/>
       <c r="V65" s="5">
         <v>0</v>
       </c>
@@ -4309,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>2001026</v>
+        <v>2001006</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6">
@@ -4333,10 +4097,10 @@
       <c r="J66" s="6">
         <v>2</v>
       </c>
-      <c r="K66" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="L66" s="11"/>
+      <c r="K66" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L66" s="10"/>
       <c r="M66" s="6">
         <v>0</v>
       </c>
@@ -4346,339 +4110,488 @@
       <c r="O66" s="6">
         <v>0</v>
       </c>
-      <c r="P66" s="6"/>
+      <c r="P66" s="6">
+        <v>0</v>
+      </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U66" s="13"/>
+        <v>1000</v>
+      </c>
+      <c r="U66" s="12"/>
       <c r="V66" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" spans="1:23">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
+    <row r="67" customFormat="1" spans="3:22">
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
       <c r="T67" s="6"/>
-      <c r="U67" s="13"/>
+      <c r="U67" s="12"/>
       <c r="V67" s="5"/>
-      <c r="W67"/>
-    </row>
-    <row r="68" ht="12" customHeight="1" spans="3:21">
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+    </row>
+    <row r="68" customFormat="1" spans="1:22">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>2001008</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
+      <c r="F68" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="6">
+        <v>0</v>
+      </c>
+      <c r="N68" s="6">
+        <v>466</v>
+      </c>
+      <c r="O68" s="6">
+        <v>200</v>
+      </c>
+      <c r="P68" s="6">
+        <v>2500</v>
+      </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="13"/>
-    </row>
-    <row r="69" customFormat="1" spans="1:24">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69">
-        <v>2001050</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="T68" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U68" s="12"/>
+      <c r="V68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="3:22">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G69" s="6">
-        <v>2</v>
-      </c>
-      <c r="H69" s="6">
-        <v>1</v>
-      </c>
-      <c r="I69" s="6">
-        <v>0</v>
-      </c>
-      <c r="J69" s="6">
-        <v>0</v>
-      </c>
-      <c r="K69" s="6">
-        <v>16001010</v>
-      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="6">
-        <v>10000</v>
-      </c>
-      <c r="N69" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O69" s="6">
-        <v>0</v>
-      </c>
-      <c r="P69" s="6">
-        <v>600</v>
-      </c>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
-      <c r="T69" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U69" s="13"/>
-      <c r="V69" s="5">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>2601050</v>
-      </c>
-      <c r="X69">
-        <v>2500005</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="3:22">
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="13"/>
-      <c r="V70" s="5"/>
-    </row>
-    <row r="71" customFormat="1" spans="3:22">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="5"/>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>2001021</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6">
+        <v>1</v>
+      </c>
+      <c r="K71" s="6">
+        <v>3001011</v>
+      </c>
       <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
+      <c r="M71" s="6">
+        <v>0</v>
+      </c>
+      <c r="N71" s="6">
+        <v>180</v>
+      </c>
+      <c r="O71" s="6">
+        <v>100</v>
+      </c>
+      <c r="P71" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>1</v>
+      </c>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="13"/>
-      <c r="V71" s="5"/>
-    </row>
-    <row r="72" customFormat="1" spans="3:22">
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="T71" s="6">
+        <v>2667</v>
+      </c>
+      <c r="U71" s="12"/>
+      <c r="V71" s="5">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>2601021</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>2001022</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
+      <c r="F72" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G72" s="6">
+        <v>2</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
+        <v>0</v>
+      </c>
+      <c r="K72" s="6">
+        <v>3001012</v>
+      </c>
       <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
+      <c r="M72" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N72" s="6">
+        <v>1800</v>
+      </c>
+      <c r="O72" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P72" s="6">
+        <v>2000</v>
+      </c>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="5"/>
-    </row>
-    <row r="73" customFormat="1" spans="3:22">
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="T72" s="6">
+        <v>267</v>
+      </c>
+      <c r="U72" s="12"/>
+      <c r="V72" s="5">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>2001023</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
+      <c r="F73" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6">
+        <v>2</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L73" s="10"/>
+      <c r="M73" s="6">
+        <v>0</v>
+      </c>
+      <c r="N73" s="6">
+        <v>180</v>
+      </c>
+      <c r="O73" s="6">
+        <v>100</v>
+      </c>
+      <c r="P73" s="6">
+        <v>15000</v>
+      </c>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="5"/>
-    </row>
-    <row r="74" s="3" customFormat="1" spans="20:22">
-      <c r="T74" s="6"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-    </row>
-    <row r="75" spans="20:20">
-      <c r="T75" s="6"/>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="T73" s="6">
+        <v>2667</v>
+      </c>
+      <c r="U73" s="12"/>
+      <c r="V73" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:22">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>2001024</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>1</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L74" s="10"/>
+      <c r="M74" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N74" s="6">
+        <v>180</v>
+      </c>
+      <c r="O74" s="6">
+        <v>100</v>
+      </c>
+      <c r="P74" s="6">
+        <v>3000</v>
+      </c>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6">
+        <v>2667</v>
+      </c>
+      <c r="U74" s="12"/>
+      <c r="V74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>2001025</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6">
+        <v>15003754</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6">
+        <v>0</v>
+      </c>
+      <c r="I75" s="6">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L75" s="10"/>
+      <c r="M75" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N75" s="6">
+        <v>180</v>
+      </c>
+      <c r="O75" s="6">
+        <v>100</v>
+      </c>
+      <c r="P75" s="6">
+        <v>25000</v>
+      </c>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6">
+        <v>1</v>
+      </c>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6">
+        <v>2667</v>
+      </c>
+      <c r="U75" s="12"/>
+      <c r="V75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:22">
       <c r="A76" t="s">
         <v>0</v>
       </c>
       <c r="B76">
-        <v>2002001</v>
+        <v>2001026</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
+      <c r="F76" s="6">
+        <v>15003755</v>
+      </c>
       <c r="G76" s="6">
+        <v>0</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
         <v>1</v>
       </c>
-      <c r="H76" s="6">
-        <v>0</v>
-      </c>
-      <c r="I76" s="6">
-        <v>0</v>
-      </c>
       <c r="J76" s="6">
-        <v>1</v>
-      </c>
-      <c r="K76" s="6">
-        <v>3002001</v>
-      </c>
-      <c r="L76" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L76" s="10"/>
       <c r="M76" s="6">
         <v>0</v>
       </c>
       <c r="N76" s="6">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O76" s="6">
-        <v>300</v>
-      </c>
-      <c r="P76" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="6">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6">
-        <v>1540</v>
-      </c>
-      <c r="U76" s="13"/>
+        <v>2667</v>
+      </c>
+      <c r="U76" s="12"/>
       <c r="V76" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77">
-        <v>2002002</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G77" s="6">
-        <v>2</v>
-      </c>
-      <c r="H77" s="6">
-        <v>0</v>
-      </c>
-      <c r="I77" s="6">
-        <v>0</v>
-      </c>
-      <c r="J77" s="6">
-        <v>2</v>
-      </c>
-      <c r="K77" s="6">
-        <v>13002030</v>
-      </c>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6">
-        <v>4000</v>
-      </c>
-      <c r="N77" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O77" s="6">
-        <v>700</v>
-      </c>
-      <c r="P77" s="6">
-        <v>6500</v>
-      </c>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6">
-        <v>340</v>
-      </c>
-      <c r="U77" s="13"/>
-      <c r="V77" s="5">
-        <v>0</v>
-      </c>
+    <row r="77" s="2" customFormat="1" spans="1:23">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="5"/>
       <c r="W77"/>
-      <c r="X77">
-        <v>2500010</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="3:22">
+    </row>
+    <row r="78" ht="12" customHeight="1" spans="3:21">
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -4697,128 +4610,94 @@
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="5"/>
-    </row>
-    <row r="79" customFormat="1" spans="1:22">
+      <c r="U78" s="12"/>
+    </row>
+    <row r="79" customFormat="1" spans="1:24">
       <c r="A79" t="s">
         <v>0</v>
       </c>
       <c r="B79">
-        <v>2002011</v>
+        <v>2001050</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="F79" s="6">
+        <v>15003753</v>
+      </c>
       <c r="G79" s="6">
+        <v>2</v>
+      </c>
+      <c r="H79" s="6">
         <v>1</v>
       </c>
-      <c r="H79" s="6">
-        <v>0</v>
-      </c>
       <c r="I79" s="6">
         <v>0</v>
       </c>
       <c r="J79" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="6">
-        <v>3002011</v>
+        <v>16001010</v>
       </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N79" s="6">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="O79" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P79" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="6">
-        <v>1</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6">
-        <v>1400</v>
-      </c>
-      <c r="U79" s="13"/>
+        <v>1000</v>
+      </c>
+      <c r="U79" s="12"/>
       <c r="V79" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:24">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80">
-        <v>2002012</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="W79">
+        <v>2601050</v>
+      </c>
+      <c r="X79">
+        <v>2500005</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="3:22">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G80" s="6">
-        <v>2</v>
-      </c>
-      <c r="H80" s="6">
-        <v>0</v>
-      </c>
-      <c r="I80" s="6">
-        <v>0</v>
-      </c>
-      <c r="J80" s="6">
-        <v>0</v>
-      </c>
-      <c r="K80" s="6">
-        <v>3002012</v>
-      </c>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N80" s="6">
-        <v>1000</v>
-      </c>
-      <c r="O80" s="6">
-        <v>700</v>
-      </c>
-      <c r="P80" s="6">
-        <v>7000</v>
-      </c>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
-      <c r="T80" s="6">
-        <v>420</v>
-      </c>
-      <c r="U80" s="13"/>
-      <c r="V80" s="5">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>2602012</v>
-      </c>
-      <c r="X80">
-        <v>2500011</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="4:22">
+      <c r="T80" s="6"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="5"/>
+    </row>
+    <row r="81" customFormat="1" spans="3:22">
+      <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -4826,6 +4705,8 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
@@ -4834,10 +4715,11 @@
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
-      <c r="U81" s="13"/>
+      <c r="U81" s="12"/>
       <c r="V81" s="5"/>
     </row>
-    <row r="82" customFormat="1" spans="4:22">
+    <row r="82" customFormat="1" spans="3:22">
+      <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -4845,6 +4727,8 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
@@ -4853,365 +4737,231 @@
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
-      <c r="U82" s="13"/>
+      <c r="U82" s="12"/>
       <c r="V82" s="5"/>
     </row>
-    <row r="83" customFormat="1" spans="1:23">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83">
-        <v>2003001</v>
-      </c>
-      <c r="C83" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>130</v>
-      </c>
+    <row r="83" customFormat="1" spans="3:22">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="6">
-        <v>1</v>
-      </c>
-      <c r="H83" s="6">
-        <v>0</v>
-      </c>
-      <c r="I83" s="6">
-        <v>0</v>
-      </c>
-      <c r="J83" s="6">
-        <v>1</v>
-      </c>
-      <c r="K83">
-        <v>3003001</v>
-      </c>
-      <c r="M83" s="6">
-        <v>0</v>
-      </c>
-      <c r="N83" s="6">
-        <v>300</v>
-      </c>
-      <c r="O83" s="6">
-        <v>300</v>
-      </c>
-      <c r="P83" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="6">
-        <v>1</v>
-      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
-      <c r="T83" s="6">
+      <c r="T83" s="6"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="5"/>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="20:22">
+      <c r="T84" s="6"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+    </row>
+    <row r="85" spans="20:20">
+      <c r="T85" s="6"/>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>2002001</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6">
+        <v>1</v>
+      </c>
+      <c r="H86" s="6">
+        <v>0</v>
+      </c>
+      <c r="I86" s="6">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6">
+        <v>1</v>
+      </c>
+      <c r="K86" s="6">
+        <v>3002001</v>
+      </c>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6">
+        <v>0</v>
+      </c>
+      <c r="N86" s="6">
+        <v>300</v>
+      </c>
+      <c r="O86" s="6">
+        <v>300</v>
+      </c>
+      <c r="P86" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="6">
+        <v>1</v>
+      </c>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6">
         <v>1540</v>
       </c>
-      <c r="U83" s="13"/>
-      <c r="V83" s="5">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>2603001</v>
-      </c>
-    </row>
-    <row r="84" s="4" customFormat="1" spans="1:23">
-      <c r="A84" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="4">
-        <v>2003002</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15">
-        <v>15003751</v>
-      </c>
-      <c r="G84" s="15">
+      <c r="U86" s="12"/>
+      <c r="V86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>2002002</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G87" s="6">
         <v>2</v>
       </c>
-      <c r="H84" s="15">
-        <v>0</v>
-      </c>
-      <c r="I84" s="15">
-        <v>0</v>
-      </c>
-      <c r="J84" s="15">
-        <v>1</v>
-      </c>
-      <c r="K84" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="15">
-        <v>8000</v>
-      </c>
-      <c r="N84" s="15">
-        <v>600</v>
-      </c>
-      <c r="O84" s="15">
-        <v>0</v>
-      </c>
-      <c r="P84" s="15">
-        <v>2000</v>
-      </c>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U84" s="15"/>
-      <c r="V84" s="5">
-        <v>0</v>
-      </c>
-      <c r="W84" s="4">
-        <v>2603002</v>
-      </c>
-    </row>
-    <row r="85" s="4" customFormat="1" spans="1:23">
-      <c r="A85" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="4">
-        <v>2003003</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15">
-        <v>15003753</v>
-      </c>
-      <c r="G85" s="15">
-        <v>0</v>
-      </c>
-      <c r="H85" s="15">
-        <v>0</v>
-      </c>
-      <c r="I85" s="15">
-        <v>0</v>
-      </c>
-      <c r="J85" s="15">
+      <c r="H87" s="6">
+        <v>0</v>
+      </c>
+      <c r="I87" s="6">
+        <v>0</v>
+      </c>
+      <c r="J87" s="6">
         <v>2</v>
       </c>
-      <c r="K85" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="15">
-        <v>0</v>
-      </c>
-      <c r="N85" s="15">
-        <v>50</v>
-      </c>
-      <c r="O85" s="15">
-        <v>0</v>
-      </c>
-      <c r="P85" s="15">
-        <v>6000</v>
-      </c>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
-      <c r="T85" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U85" s="15"/>
-      <c r="V85" s="5">
-        <v>15008005</v>
-      </c>
-      <c r="W85" s="4">
-        <v>2603003</v>
-      </c>
-    </row>
-    <row r="86" s="4" customFormat="1" spans="1:23">
-      <c r="A86" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="4">
-        <v>2003004</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15">
-        <v>15003754</v>
-      </c>
-      <c r="G86" s="15">
-        <v>2</v>
-      </c>
-      <c r="H86" s="15">
-        <v>1</v>
-      </c>
-      <c r="I86" s="15">
-        <v>0</v>
-      </c>
-      <c r="J86" s="15">
-        <v>0</v>
-      </c>
-      <c r="K86" s="15">
-        <v>16001001</v>
-      </c>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15">
-        <v>8000</v>
-      </c>
-      <c r="N86" s="15">
-        <v>0</v>
-      </c>
-      <c r="O86" s="15">
-        <v>0</v>
-      </c>
-      <c r="P86" s="15">
+      <c r="K87" s="6">
+        <v>13002030</v>
+      </c>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6">
+        <v>4000</v>
+      </c>
+      <c r="N87" s="6">
         <v>1500</v>
       </c>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U86" s="15"/>
-      <c r="V86" s="5">
-        <v>0</v>
-      </c>
-      <c r="W86" s="4">
-        <v>2603004</v>
-      </c>
-    </row>
-    <row r="87" spans="20:20">
-      <c r="T87" s="6"/>
-    </row>
-    <row r="88" customFormat="1" spans="1:23">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88">
-        <v>2003050</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>139</v>
-      </c>
+      <c r="O87" s="6">
+        <v>700</v>
+      </c>
+      <c r="P87" s="6">
+        <v>6500</v>
+      </c>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6">
+        <v>340</v>
+      </c>
+      <c r="U87" s="12"/>
+      <c r="V87" s="5">
+        <v>0</v>
+      </c>
+      <c r="W87"/>
+      <c r="X87">
+        <v>2500010</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="3:22">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="6"/>
-      <c r="F88" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G88" s="6">
-        <v>0</v>
-      </c>
-      <c r="H88" s="6">
-        <v>0</v>
-      </c>
-      <c r="I88" s="6">
-        <v>1</v>
-      </c>
-      <c r="J88" s="6">
-        <v>2</v>
-      </c>
-      <c r="K88" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="L88" s="11"/>
-      <c r="M88" s="6">
-        <v>0</v>
-      </c>
-      <c r="N88" s="6">
-        <v>0</v>
-      </c>
-      <c r="O88" s="6">
-        <v>0</v>
-      </c>
-      <c r="P88" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="6">
-        <v>1</v>
-      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
-      <c r="T88" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U88" s="13"/>
-      <c r="V88" s="5">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>2603050</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:23">
+      <c r="T88" s="6"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="5"/>
+    </row>
+    <row r="89" customFormat="1" spans="1:22">
       <c r="A89" t="s">
         <v>0</v>
       </c>
       <c r="B89">
-        <v>2003051</v>
+        <v>2002011</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E89" s="6"/>
-      <c r="F89" s="6">
-        <v>15003752</v>
-      </c>
+      <c r="F89" s="6"/>
       <c r="G89" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" s="6">
         <v>0</v>
       </c>
       <c r="I89" s="6">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6">
         <v>1</v>
       </c>
-      <c r="J89" s="6">
-        <v>2</v>
-      </c>
-      <c r="K89" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="L89" s="11"/>
+      <c r="K89" s="6">
+        <v>3002011</v>
+      </c>
+      <c r="L89" s="6"/>
       <c r="M89" s="6">
         <v>0</v>
       </c>
       <c r="N89" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O89" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P89" s="6">
         <v>0</v>
       </c>
-      <c r="Q89" s="6"/>
+      <c r="Q89" s="6">
+        <v>1</v>
+      </c>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U89" s="13"/>
+        <v>1400</v>
+      </c>
+      <c r="U89" s="12"/>
       <c r="V89" s="5">
         <v>0</v>
-      </c>
-      <c r="W89">
-        <v>2603051</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:24">
@@ -5219,20 +4969,20 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>2003052</v>
+        <v>2002012</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6">
-        <v>15003753</v>
+        <v>15003751</v>
       </c>
       <c r="G90" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90" s="6">
         <v>0</v>
@@ -5243,104 +4993,562 @@
       <c r="J90" s="6">
         <v>0</v>
       </c>
-      <c r="K90" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="L90" s="11"/>
+      <c r="K90" s="6">
+        <v>3002012</v>
+      </c>
+      <c r="L90" s="6"/>
       <c r="M90" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N90" s="6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="O90" s="6">
         <v>700</v>
       </c>
       <c r="P90" s="6">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
       <c r="T90" s="6">
-        <v>340</v>
-      </c>
-      <c r="U90" s="13"/>
+        <v>420</v>
+      </c>
+      <c r="U90" s="12"/>
       <c r="V90" s="5">
-        <v>15008014</v>
+        <v>0</v>
       </c>
       <c r="W90">
-        <v>2603052</v>
+        <v>2602012</v>
       </c>
       <c r="X90">
-        <v>2500020</v>
-      </c>
-    </row>
-    <row r="91" spans="20:20">
+        <v>2500011</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="4:22">
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
       <c r="T91" s="6"/>
-    </row>
-    <row r="94" spans="16:16">
-      <c r="P94" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95">
-        <v>2005001</v>
-      </c>
-      <c r="C95" t="s">
-        <v>146</v>
-      </c>
-      <c r="D95" t="s">
-        <v>147</v>
-      </c>
-      <c r="F95" s="6">
+      <c r="U91" s="12"/>
+      <c r="V91" s="5"/>
+    </row>
+    <row r="92" customFormat="1" spans="4:22">
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="5"/>
+    </row>
+    <row r="93" customFormat="1" spans="1:23">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>2003001</v>
+      </c>
+      <c r="C93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6">
+        <v>1</v>
+      </c>
+      <c r="H93" s="6">
+        <v>0</v>
+      </c>
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>3003001</v>
+      </c>
+      <c r="M93" s="6">
+        <v>0</v>
+      </c>
+      <c r="N93" s="6">
+        <v>300</v>
+      </c>
+      <c r="O93" s="6">
+        <v>300</v>
+      </c>
+      <c r="P93" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="6">
+        <v>1</v>
+      </c>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6">
+        <v>1540</v>
+      </c>
+      <c r="U93" s="12"/>
+      <c r="V93" s="5">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>2603001</v>
+      </c>
+    </row>
+    <row r="94" s="4" customFormat="1" spans="1:23">
+      <c r="A94" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="4">
+        <v>2003002</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14">
+        <v>15003751</v>
+      </c>
+      <c r="G94" s="14">
+        <v>2</v>
+      </c>
+      <c r="H94" s="14">
+        <v>0</v>
+      </c>
+      <c r="I94" s="14">
+        <v>0</v>
+      </c>
+      <c r="J94" s="14">
+        <v>1</v>
+      </c>
+      <c r="K94" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L94" s="16"/>
+      <c r="M94" s="14">
+        <v>8000</v>
+      </c>
+      <c r="N94" s="14">
+        <v>600</v>
+      </c>
+      <c r="O94" s="14">
+        <v>0</v>
+      </c>
+      <c r="P94" s="14">
+        <v>2000</v>
+      </c>
+      <c r="Q94" s="14"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U94" s="14"/>
+      <c r="V94" s="5">
+        <v>0</v>
+      </c>
+      <c r="W94" s="4">
+        <v>2603002</v>
+      </c>
+    </row>
+    <row r="95" s="4" customFormat="1" spans="1:23">
+      <c r="A95" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="4">
+        <v>2003003</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14">
         <v>15003753</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95" s="6">
+      <c r="G95" s="14">
+        <v>0</v>
+      </c>
+      <c r="H95" s="14">
+        <v>0</v>
+      </c>
+      <c r="I95" s="14">
+        <v>0</v>
+      </c>
+      <c r="J95" s="14">
         <v>2</v>
       </c>
-      <c r="I95" s="6">
-        <v>0</v>
-      </c>
-      <c r="J95" s="6">
-        <v>0</v>
-      </c>
-      <c r="K95" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="L95" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="M95" s="6">
-        <v>0</v>
-      </c>
-      <c r="N95" s="6">
-        <v>0</v>
-      </c>
-      <c r="O95" s="6">
-        <v>0</v>
-      </c>
-      <c r="P95" s="6">
-        <v>2000</v>
-      </c>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
+      <c r="K95" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L95" s="16"/>
+      <c r="M95" s="14">
+        <v>0</v>
+      </c>
+      <c r="N95" s="14">
+        <v>50</v>
+      </c>
+      <c r="O95" s="14">
+        <v>0</v>
+      </c>
+      <c r="P95" s="14">
+        <v>6000</v>
+      </c>
+      <c r="Q95" s="14"/>
+      <c r="R95" s="14"/>
+      <c r="S95" s="14"/>
       <c r="T95" s="6">
         <v>1000</v>
       </c>
-      <c r="U95" s="13"/>
+      <c r="U95" s="14"/>
       <c r="V95" s="5">
+        <v>15008005</v>
+      </c>
+      <c r="W95" s="4">
+        <v>2603003</v>
+      </c>
+    </row>
+    <row r="96" s="4" customFormat="1" spans="1:23">
+      <c r="A96" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="4">
+        <v>2003004</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14">
+        <v>15003754</v>
+      </c>
+      <c r="G96" s="14">
+        <v>2</v>
+      </c>
+      <c r="H96" s="14">
+        <v>1</v>
+      </c>
+      <c r="I96" s="14">
+        <v>0</v>
+      </c>
+      <c r="J96" s="14">
+        <v>0</v>
+      </c>
+      <c r="K96" s="14">
+        <v>16001001</v>
+      </c>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14">
+        <v>8000</v>
+      </c>
+      <c r="N96" s="14">
+        <v>0</v>
+      </c>
+      <c r="O96" s="14">
+        <v>0</v>
+      </c>
+      <c r="P96" s="14">
+        <v>1500</v>
+      </c>
+      <c r="Q96" s="14"/>
+      <c r="R96" s="14"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U96" s="14"/>
+      <c r="V96" s="5">
+        <v>0</v>
+      </c>
+      <c r="W96" s="4">
+        <v>2603004</v>
+      </c>
+    </row>
+    <row r="97" spans="20:20">
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" customFormat="1" spans="1:23">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>2003050</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G98" s="6">
+        <v>0</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0</v>
+      </c>
+      <c r="I98" s="6">
+        <v>1</v>
+      </c>
+      <c r="J98" s="6">
+        <v>2</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="L98" s="10"/>
+      <c r="M98" s="6">
+        <v>0</v>
+      </c>
+      <c r="N98" s="6">
+        <v>0</v>
+      </c>
+      <c r="O98" s="6">
+        <v>0</v>
+      </c>
+      <c r="P98" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="6">
+        <v>1</v>
+      </c>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U98" s="12"/>
+      <c r="V98" s="5">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>2603050</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:23">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>2003051</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G99" s="6">
+        <v>0</v>
+      </c>
+      <c r="H99" s="6">
+        <v>0</v>
+      </c>
+      <c r="I99" s="6">
+        <v>1</v>
+      </c>
+      <c r="J99" s="6">
+        <v>2</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="L99" s="10"/>
+      <c r="M99" s="6">
+        <v>0</v>
+      </c>
+      <c r="N99" s="6">
+        <v>0</v>
+      </c>
+      <c r="O99" s="6">
+        <v>0</v>
+      </c>
+      <c r="P99" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U99" s="12"/>
+      <c r="V99" s="5">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>2603051</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="1:24">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>2003052</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G100" s="6">
+        <v>0</v>
+      </c>
+      <c r="H100" s="6">
+        <v>0</v>
+      </c>
+      <c r="I100" s="6">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
+        <v>0</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L100" s="10"/>
+      <c r="M100" s="6">
+        <v>0</v>
+      </c>
+      <c r="N100" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O100" s="6">
+        <v>700</v>
+      </c>
+      <c r="P100" s="6">
+        <v>12000</v>
+      </c>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6">
+        <v>340</v>
+      </c>
+      <c r="U100" s="12"/>
+      <c r="V100" s="5">
         <v>15008014</v>
       </c>
-      <c r="W95">
+      <c r="W100">
+        <v>2603052</v>
+      </c>
+      <c r="X100">
+        <v>2500020</v>
+      </c>
+    </row>
+    <row r="101" spans="20:20">
+      <c r="T101" s="6"/>
+    </row>
+    <row r="104" spans="16:16">
+      <c r="P104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>2005001</v>
+      </c>
+      <c r="C105" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" t="s">
+        <v>147</v>
+      </c>
+      <c r="F105" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" s="6">
+        <v>2</v>
+      </c>
+      <c r="I105" s="6">
+        <v>0</v>
+      </c>
+      <c r="J105" s="6">
+        <v>0</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L105" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="M105" s="6">
+        <v>0</v>
+      </c>
+      <c r="N105" s="6">
+        <v>0</v>
+      </c>
+      <c r="O105" s="6">
+        <v>0</v>
+      </c>
+      <c r="P105" s="6">
+        <v>2000</v>
+      </c>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U105" s="12"/>
+      <c r="V105" s="5">
+        <v>15008014</v>
+      </c>
+      <c r="W105">
         <v>2605001</v>
       </c>
     </row>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -1660,10 +1660,10 @@
   <sheetPr/>
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H33" sqref="H33"/>
+      <selection pane="topRight" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64" s="6">
         <v>16001001</v>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="11445"/>
+    <workbookView windowWidth="13875" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="158">
   <si>
     <t>#</t>
   </si>
@@ -434,6 +434,30 @@
   </si>
   <si>
     <t>18100105,18001002,18100201</t>
+  </si>
+  <si>
+    <t>大盾lv1</t>
+  </si>
+  <si>
+    <t>一段时间内增加护甲</t>
+  </si>
+  <si>
+    <t>大盾lv2</t>
+  </si>
+  <si>
+    <t>大盾lv3</t>
+  </si>
+  <si>
+    <t>一段时间内增加护甲，躲避所有普通攻击</t>
+  </si>
+  <si>
+    <t>大盾lv4</t>
+  </si>
+  <si>
+    <t>大盾lv5</t>
+  </si>
+  <si>
+    <t>一段时间内增加护甲，摧毁投掷物2次</t>
   </si>
   <si>
     <t>道具技能（待定）</t>
@@ -1660,10 +1684,10 @@
   <sheetPr/>
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J65" sqref="J65"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1963,7 +1987,9 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -2157,7 +2183,9 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -3295,111 +3323,291 @@
       <c r="T39" s="6"/>
       <c r="U39" s="12"/>
     </row>
-    <row r="40" customFormat="1" spans="3:22">
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="10"/>
+    <row r="40" customFormat="1" ht="27" spans="1:22">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>2100401</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>2</v>
+      </c>
+      <c r="K40" s="6"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
+        <v>466</v>
+      </c>
+      <c r="O40" s="6">
+        <v>200</v>
+      </c>
+      <c r="P40" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
+      <c r="T40" s="6">
+        <v>1000</v>
+      </c>
       <c r="U40" s="12"/>
-      <c r="V40" s="5"/>
-    </row>
-    <row r="41" spans="3:21">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="V40" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:22">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>2100402</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="6">
+        <v>2</v>
+      </c>
+      <c r="F41" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>2</v>
+      </c>
       <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="6"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6">
+        <v>466</v>
+      </c>
+      <c r="O41" s="6">
+        <v>200</v>
+      </c>
+      <c r="P41" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
+      <c r="T41" s="6">
+        <v>1000</v>
+      </c>
       <c r="U41" s="12"/>
-    </row>
-    <row r="42" spans="3:21">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="6"/>
+      <c r="V41" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="42" ht="40.5" spans="1:22">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>2100403</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="6">
+        <v>3</v>
+      </c>
+      <c r="F42" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>2</v>
+      </c>
+      <c r="K42" s="6">
+        <v>14100301</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <v>466</v>
+      </c>
+      <c r="O42" s="6">
+        <v>200</v>
+      </c>
+      <c r="P42" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
+      <c r="T42" s="6">
+        <v>1000</v>
+      </c>
       <c r="U42" s="12"/>
-    </row>
-    <row r="43" spans="3:21">
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="6"/>
+      <c r="V42" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="43" ht="40.5" spans="1:22">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>2100404</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="6">
+        <v>4</v>
+      </c>
+      <c r="F43" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>2</v>
+      </c>
+      <c r="K43" s="6">
+        <v>14100301</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>466</v>
+      </c>
+      <c r="O43" s="6">
+        <v>200</v>
+      </c>
+      <c r="P43" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
+      <c r="T43" s="6">
+        <v>1000</v>
+      </c>
       <c r="U43" s="12"/>
-    </row>
-    <row r="44" spans="3:21">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="6"/>
+      <c r="V43" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="1:22">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>2100405</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="6">
+        <v>5</v>
+      </c>
+      <c r="F44" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>2</v>
+      </c>
+      <c r="K44" s="6">
+        <v>14100401</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
+        <v>466</v>
+      </c>
+      <c r="O44" s="6">
+        <v>200</v>
+      </c>
+      <c r="P44" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
+      <c r="T44" s="6">
+        <v>1000</v>
+      </c>
       <c r="U44" s="12"/>
+      <c r="V44" s="5">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="45" spans="3:21">
       <c r="C45" s="6"/>
@@ -3640,7 +3848,7 @@
         <v>2500001</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6">
@@ -3790,10 +3998,10 @@
         <v>2001002</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="6"/>
@@ -3847,10 +4055,10 @@
         <v>2001002</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6">
@@ -3903,10 +4111,10 @@
         <v>2001003</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6">
@@ -3925,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="6">
@@ -3959,10 +4167,10 @@
         <v>2001004</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6">
@@ -4018,10 +4226,10 @@
         <v>2001005</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6">
@@ -4040,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="6">
@@ -4076,10 +4284,10 @@
         <v>2001006</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6">
@@ -4098,7 +4306,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="6">
@@ -4154,10 +4362,10 @@
         <v>2001008</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6">
@@ -4176,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="6">
@@ -4291,10 +4499,10 @@
         <v>2001022</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6">
@@ -4350,10 +4558,10 @@
         <v>2001023</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6">
@@ -4372,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="6">
@@ -4406,10 +4614,10 @@
         <v>2001024</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6">
@@ -4428,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="6">
@@ -4462,10 +4670,10 @@
         <v>2001025</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6">
@@ -4484,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="6">
@@ -4520,10 +4728,10 @@
         <v>2001026</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6">
@@ -4542,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="6">
@@ -4620,10 +4828,10 @@
         <v>2001050</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6">
@@ -4778,10 +4986,10 @@
         <v>2002001</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -4834,10 +5042,10 @@
         <v>2002002</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6">
@@ -4916,10 +5124,10 @@
         <v>2002011</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -4972,10 +5180,10 @@
         <v>2002012</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6">
@@ -5072,10 +5280,10 @@
         <v>2003001</v>
       </c>
       <c r="C93" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -5130,10 +5338,10 @@
         <v>2003002</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E94" s="14"/>
       <c r="F94" s="14">
@@ -5152,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L94" s="16"/>
       <c r="M94" s="14">
@@ -5189,10 +5397,10 @@
         <v>2003003</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="14">
@@ -5211,7 +5419,7 @@
         <v>2</v>
       </c>
       <c r="K95" s="16" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L95" s="16"/>
       <c r="M95" s="14">
@@ -5248,10 +5456,10 @@
         <v>2003004</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14">
@@ -5310,10 +5518,10 @@
         <v>2003050</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6">
@@ -5332,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="L98" s="10"/>
       <c r="M98" s="6">
@@ -5371,10 +5579,10 @@
         <v>2003051</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6">
@@ -5393,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L99" s="10"/>
       <c r="M99" s="6">
@@ -5430,10 +5638,10 @@
         <v>2003052</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6">
@@ -5452,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="6">
@@ -5489,7 +5697,7 @@
     </row>
     <row r="104" spans="16:16">
       <c r="P104" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -5500,10 +5708,10 @@
         <v>2005001</v>
       </c>
       <c r="C105" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D105" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F105" s="6">
         <v>15003753</v>
@@ -5521,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="M105" s="6">
         <v>0</v>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13875" windowHeight="12255"/>
+    <workbookView windowWidth="14970" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1684,10 +1684,10 @@
   <sheetPr/>
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14970" windowHeight="9420"/>
+    <workbookView windowWidth="22740" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="159">
   <si>
     <t>#</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>一段时间内增加护甲，摧毁投掷物2次</t>
+  </si>
+  <si>
+    <t>14100401,18100301</t>
   </si>
   <si>
     <t>道具技能（待定）</t>
@@ -1684,10 +1687,10 @@
   <sheetPr/>
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D37" sqref="D37"/>
+      <selection pane="topRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3354,7 +3357,7 @@
       <c r="J40" s="6">
         <v>2</v>
       </c>
-      <c r="K40" s="6"/>
+      <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="6">
         <v>0</v>
@@ -3410,7 +3413,7 @@
       <c r="J41" s="6">
         <v>2</v>
       </c>
-      <c r="K41" s="6"/>
+      <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="6">
         <v>0</v>
@@ -3466,7 +3469,7 @@
       <c r="J42" s="6">
         <v>2</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="10">
         <v>14100301</v>
       </c>
       <c r="L42" s="10"/>
@@ -3524,7 +3527,7 @@
       <c r="J43" s="6">
         <v>2</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="10">
         <v>14100301</v>
       </c>
       <c r="L43" s="10"/>
@@ -3582,8 +3585,8 @@
       <c r="J44" s="6">
         <v>2</v>
       </c>
-      <c r="K44" s="6">
-        <v>14100401</v>
+      <c r="K44" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="6">
@@ -3848,7 +3851,7 @@
         <v>2500001</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6">
@@ -3998,10 +4001,10 @@
         <v>2001002</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="6"/>
@@ -4055,10 +4058,10 @@
         <v>2001002</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6">
@@ -4111,10 +4114,10 @@
         <v>2001003</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6">
@@ -4133,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="6">
@@ -4167,10 +4170,10 @@
         <v>2001004</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6">
@@ -4226,10 +4229,10 @@
         <v>2001005</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6">
@@ -4248,7 +4251,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="6">
@@ -4284,10 +4287,10 @@
         <v>2001006</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6">
@@ -4306,7 +4309,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="6">
@@ -4362,10 +4365,10 @@
         <v>2001008</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6">
@@ -4384,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="6">
@@ -4499,10 +4502,10 @@
         <v>2001022</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6">
@@ -4558,10 +4561,10 @@
         <v>2001023</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6">
@@ -4580,7 +4583,7 @@
         <v>2</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="6">
@@ -4614,10 +4617,10 @@
         <v>2001024</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6">
@@ -4636,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="6">
@@ -4670,10 +4673,10 @@
         <v>2001025</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6">
@@ -4692,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="6">
@@ -4728,10 +4731,10 @@
         <v>2001026</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6">
@@ -4750,7 +4753,7 @@
         <v>2</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="6">
@@ -4828,10 +4831,10 @@
         <v>2001050</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6">
@@ -4986,10 +4989,10 @@
         <v>2002001</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -5042,10 +5045,10 @@
         <v>2002002</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6">
@@ -5124,10 +5127,10 @@
         <v>2002011</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -5180,10 +5183,10 @@
         <v>2002012</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6">
@@ -5280,10 +5283,10 @@
         <v>2003001</v>
       </c>
       <c r="C93" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -5338,10 +5341,10 @@
         <v>2003002</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E94" s="14"/>
       <c r="F94" s="14">
@@ -5360,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L94" s="16"/>
       <c r="M94" s="14">
@@ -5397,10 +5400,10 @@
         <v>2003003</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="14">
@@ -5419,7 +5422,7 @@
         <v>2</v>
       </c>
       <c r="K95" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L95" s="16"/>
       <c r="M95" s="14">
@@ -5456,10 +5459,10 @@
         <v>2003004</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14">
@@ -5518,10 +5521,10 @@
         <v>2003050</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6">
@@ -5540,7 +5543,7 @@
         <v>2</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L98" s="10"/>
       <c r="M98" s="6">
@@ -5579,10 +5582,10 @@
         <v>2003051</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6">
@@ -5601,7 +5604,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L99" s="10"/>
       <c r="M99" s="6">
@@ -5638,10 +5641,10 @@
         <v>2003052</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6">
@@ -5660,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="6">
@@ -5697,7 +5700,7 @@
     </row>
     <row r="104" spans="16:16">
       <c r="P104" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -5708,10 +5711,10 @@
         <v>2005001</v>
       </c>
       <c r="C105" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D105" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F105" s="6">
         <v>15003753</v>
@@ -5729,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M105" s="6">
         <v>0</v>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22740" windowHeight="9420"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="165">
   <si>
     <t>#</t>
   </si>
@@ -461,6 +461,24 @@
   </si>
   <si>
     <t>14100401,18100301</t>
+  </si>
+  <si>
+    <t>驱散lv1</t>
+  </si>
+  <si>
+    <t>13100201</t>
+  </si>
+  <si>
+    <t>驱散lv2</t>
+  </si>
+  <si>
+    <t>驱散lv3</t>
+  </si>
+  <si>
+    <t>驱散lv4</t>
+  </si>
+  <si>
+    <t>驱散lv5</t>
   </si>
   <si>
     <t>道具技能（待定）</t>
@@ -800,12 +818,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1687,10 +1705,10 @@
   <sheetPr/>
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K44" sqref="K44"/>
+      <selection pane="topRight" activeCell="W47" sqref="W47:W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3654,110 +3672,310 @@
       <c r="T46" s="6"/>
       <c r="U46" s="12"/>
     </row>
-    <row r="47" spans="3:21">
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="6"/>
+    <row r="47" customFormat="1" ht="14" customHeight="1" spans="1:23">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>2100501</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G47" s="6">
+        <v>2</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>1</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N47" s="6">
+        <v>180</v>
+      </c>
+      <c r="O47" s="6">
+        <v>100</v>
+      </c>
+      <c r="P47" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
+      <c r="T47" s="6">
+        <v>2667</v>
+      </c>
       <c r="U47" s="12"/>
-    </row>
-    <row r="48" spans="3:21">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="6"/>
+      <c r="V47" s="5">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="48" ht="14" customHeight="1" spans="1:23">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>2100502</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="6">
+        <v>2</v>
+      </c>
+      <c r="F48" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G48" s="6">
+        <v>2</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>1</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N48" s="6">
+        <v>180</v>
+      </c>
+      <c r="O48" s="6">
+        <v>100</v>
+      </c>
+      <c r="P48" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
+      <c r="T48" s="6">
+        <v>2667</v>
+      </c>
       <c r="U48" s="12"/>
-    </row>
-    <row r="49" spans="3:21">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="6"/>
+      <c r="V48" s="5">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="49" ht="14" customHeight="1" spans="1:23">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>2100503</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="6">
+        <v>3</v>
+      </c>
+      <c r="F49" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G49" s="6">
+        <v>2</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N49" s="6">
+        <v>180</v>
+      </c>
+      <c r="O49" s="6">
+        <v>100</v>
+      </c>
+      <c r="P49" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
+      <c r="T49" s="6">
+        <v>2667</v>
+      </c>
       <c r="U49" s="12"/>
-    </row>
-    <row r="50" spans="3:21">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="6"/>
+      <c r="V49" s="5">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="50" ht="14" customHeight="1" spans="1:23">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>2100504</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="6">
+        <v>4</v>
+      </c>
+      <c r="F50" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G50" s="6">
+        <v>2</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N50" s="6">
+        <v>180</v>
+      </c>
+      <c r="O50" s="6">
+        <v>100</v>
+      </c>
+      <c r="P50" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
+      <c r="T50" s="6">
+        <v>2667</v>
+      </c>
       <c r="U50" s="12"/>
-    </row>
-    <row r="51" spans="3:21">
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="6"/>
+      <c r="V50" s="5">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="51" ht="14" customHeight="1" spans="1:23">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>2100505</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="6">
+        <v>5</v>
+      </c>
+      <c r="F51" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G51" s="6">
+        <v>2</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>1</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N51" s="6">
+        <v>180</v>
+      </c>
+      <c r="O51" s="6">
+        <v>100</v>
+      </c>
+      <c r="P51" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
+      <c r="T51" s="6">
+        <v>2667</v>
+      </c>
       <c r="U51" s="12"/>
+      <c r="V51" s="5">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>2601024</v>
+      </c>
     </row>
     <row r="52" spans="3:21">
       <c r="C52" s="6"/>
@@ -3851,7 +4069,7 @@
         <v>2500001</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6">
@@ -4001,10 +4219,10 @@
         <v>2001002</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="6"/>
@@ -4058,10 +4276,10 @@
         <v>2001002</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6">
@@ -4114,10 +4332,10 @@
         <v>2001003</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6">
@@ -4136,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="6">
@@ -4170,10 +4388,10 @@
         <v>2001004</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6">
@@ -4229,10 +4447,10 @@
         <v>2001005</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6">
@@ -4251,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="6">
@@ -4287,10 +4505,10 @@
         <v>2001006</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6">
@@ -4309,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="6">
@@ -4365,10 +4583,10 @@
         <v>2001008</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6">
@@ -4387,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="6">
@@ -4502,10 +4720,10 @@
         <v>2001022</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6">
@@ -4561,10 +4779,10 @@
         <v>2001023</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6">
@@ -4583,7 +4801,7 @@
         <v>2</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="6">
@@ -4609,7 +4827,7 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="74" customFormat="1" spans="1:22">
+    <row r="74" customFormat="1" spans="1:23">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -4617,10 +4835,10 @@
         <v>2001024</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6">
@@ -4639,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="6">
@@ -4664,6 +4882,9 @@
       <c r="V74" s="5">
         <v>0</v>
       </c>
+      <c r="W74">
+        <v>2601024</v>
+      </c>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" t="s">
@@ -4673,10 +4894,10 @@
         <v>2001025</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6">
@@ -4695,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="6">
@@ -4731,10 +4952,10 @@
         <v>2001026</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6">
@@ -4753,7 +4974,7 @@
         <v>2</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="6">
@@ -4831,10 +5052,10 @@
         <v>2001050</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6">
@@ -4989,10 +5210,10 @@
         <v>2002001</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -5045,10 +5266,10 @@
         <v>2002002</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6">
@@ -5127,10 +5348,10 @@
         <v>2002011</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -5183,10 +5404,10 @@
         <v>2002012</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6">
@@ -5283,10 +5504,10 @@
         <v>2003001</v>
       </c>
       <c r="C93" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -5341,10 +5562,10 @@
         <v>2003002</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E94" s="14"/>
       <c r="F94" s="14">
@@ -5363,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L94" s="16"/>
       <c r="M94" s="14">
@@ -5400,10 +5621,10 @@
         <v>2003003</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="14">
@@ -5422,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="K95" s="16" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L95" s="16"/>
       <c r="M95" s="14">
@@ -5459,10 +5680,10 @@
         <v>2003004</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14">
@@ -5521,10 +5742,10 @@
         <v>2003050</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6">
@@ -5543,7 +5764,7 @@
         <v>2</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L98" s="10"/>
       <c r="M98" s="6">
@@ -5582,10 +5803,10 @@
         <v>2003051</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6">
@@ -5604,7 +5825,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L99" s="10"/>
       <c r="M99" s="6">
@@ -5641,10 +5862,10 @@
         <v>2003052</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6">
@@ -5663,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="6">
@@ -5700,7 +5921,7 @@
     </row>
     <row r="104" spans="16:16">
       <c r="P104" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -5711,10 +5932,10 @@
         <v>2005001</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D105" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F105" s="6">
         <v>15003753</v>
@@ -5732,10 +5953,10 @@
         <v>0</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M105" s="6">
         <v>0</v>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="22640" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -126,8 +113,9 @@
           </rPr>
           <t xml:space="preserve">
 0 无
-1 技能目标单位
-2 技能释放者</t>
+1 技能目标单位（也是技能目标点）
+2 技能释放者 （也是释放者目标点）
+11 技能目标点</t>
         </r>
       </text>
     </comment>
@@ -268,7 +256,7 @@
     <t>是否是被动技能</t>
   </si>
   <si>
-    <t>技能目标类型</t>
+    <t>技能目标类型（选取即将触发效果的单位或点）</t>
   </si>
   <si>
     <t>触发的效果列表（主动释放产生的效果）</t>
@@ -658,7 +646,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1705,13 +1693,13 @@
   <sheetPr/>
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="W47" sqref="W47:W51"/>
+      <selection pane="topRight" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
@@ -1811,7 +1799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" ht="17" spans="1:24">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="2:21">
+    <row r="4" ht="84" spans="2:21">
       <c r="B4" s="8" t="s">
         <v>51</v>
       </c>
@@ -2348,7 +2336,7 @@
       <c r="T17" s="6"/>
       <c r="U17" s="12"/>
     </row>
-    <row r="18" ht="40.5" spans="2:21">
+    <row r="18" ht="51" spans="2:21">
       <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
@@ -2372,7 +2360,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="12"/>
     </row>
-    <row r="19" customFormat="1" ht="27" spans="1:23">
+    <row r="19" customFormat="1" ht="51" spans="1:23">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2433,7 +2421,7 @@
         <v>2601022</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="27" spans="1:23">
+    <row r="20" customFormat="1" ht="51" spans="1:23">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2494,7 +2482,7 @@
         <v>2601022</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="40.5" spans="1:23">
+    <row r="21" customFormat="1" ht="51" spans="1:23">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2555,7 +2543,7 @@
         <v>2601022</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="40.5" spans="1:23">
+    <row r="22" customFormat="1" ht="51" spans="1:23">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2616,7 +2604,7 @@
         <v>2601022</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="40.5" spans="1:23">
+    <row r="23" customFormat="1" ht="68" spans="1:23">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2720,7 +2708,7 @@
       <c r="U25" s="12"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" customFormat="1" ht="27" spans="1:22">
+    <row r="26" customFormat="1" ht="34" spans="1:22">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2778,7 +2766,7 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="27" ht="27" spans="1:21">
+    <row r="27" ht="34" spans="1:21">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2831,7 +2819,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="12"/>
     </row>
-    <row r="28" ht="40.5" spans="1:21">
+    <row r="28" ht="51" spans="1:21">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2884,7 +2872,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="12"/>
     </row>
-    <row r="29" ht="40.5" spans="1:21">
+    <row r="29" ht="51" spans="1:21">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2937,7 +2925,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="12"/>
     </row>
-    <row r="30" ht="54" spans="1:21">
+    <row r="30" ht="68" spans="1:21">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3032,7 +3020,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="12"/>
     </row>
-    <row r="33" customFormat="1" ht="27" spans="1:22">
+    <row r="33" customFormat="1" ht="51" spans="1:22">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3086,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:22">
+    <row r="34" ht="51" spans="1:22">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3140,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="40.5" spans="1:22">
+    <row r="35" ht="51" spans="1:22">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3194,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="40.5" spans="1:22">
+    <row r="36" ht="51" spans="1:22">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3248,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="67.5" spans="1:22">
+    <row r="37" ht="101" spans="1:22">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3344,7 +3332,7 @@
       <c r="T39" s="6"/>
       <c r="U39" s="12"/>
     </row>
-    <row r="40" customFormat="1" ht="27" spans="1:22">
+    <row r="40" customFormat="1" ht="34" spans="1:22">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -3400,7 +3388,7 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="41" ht="27" spans="1:22">
+    <row r="41" ht="34" spans="1:22">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3456,7 +3444,7 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="42" ht="40.5" spans="1:22">
+    <row r="42" ht="51" spans="1:22">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3514,7 +3502,7 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="43" ht="40.5" spans="1:22">
+    <row r="43" ht="51" spans="1:22">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3572,7 +3560,7 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="44" ht="27" spans="1:22">
+    <row r="44" ht="51" spans="1:22">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3701,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>102</v>
@@ -3762,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>102</v>
@@ -3823,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>102</v>
@@ -3884,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>102</v>
@@ -3945,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>102</v>
@@ -5313,7 +5301,6 @@
       <c r="V87" s="5">
         <v>0</v>
       </c>
-      <c r="W87"/>
       <c r="X87">
         <v>2500010</v>
       </c>
@@ -6001,7 +5988,7 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6018,7 +6005,7 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22640" windowHeight="14540"/>
+    <workbookView windowWidth="13635" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -146,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="167">
   <si>
     <t>#</t>
   </si>
@@ -467,6 +480,12 @@
   </si>
   <si>
     <t>驱散lv5</t>
+  </si>
+  <si>
+    <t>分摊伤害 lv1</t>
+  </si>
+  <si>
+    <t>13100301</t>
   </si>
   <si>
     <t>道具技能（待定）</t>
@@ -646,7 +665,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -806,12 +825,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1691,15 +1710,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X105"/>
+  <dimension ref="A1:X107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J44" sqref="J44"/>
+      <selection pane="topRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
@@ -1799,7 +1818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="1:24">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +1966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="84" spans="2:21">
+    <row r="4" ht="54" spans="2:21">
       <c r="B4" s="8" t="s">
         <v>51</v>
       </c>
@@ -2336,7 +2355,7 @@
       <c r="T17" s="6"/>
       <c r="U17" s="12"/>
     </row>
-    <row r="18" ht="51" spans="2:21">
+    <row r="18" ht="40.5" spans="2:21">
       <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
@@ -2360,7 +2379,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="12"/>
     </row>
-    <row r="19" customFormat="1" ht="51" spans="1:23">
+    <row r="19" customFormat="1" ht="27" spans="1:23">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2440,7 @@
         <v>2601022</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="51" spans="1:23">
+    <row r="20" customFormat="1" ht="27" spans="1:23">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2482,7 +2501,7 @@
         <v>2601022</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="51" spans="1:23">
+    <row r="21" customFormat="1" ht="40.5" spans="1:23">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2543,7 +2562,7 @@
         <v>2601022</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="51" spans="1:23">
+    <row r="22" customFormat="1" ht="40.5" spans="1:23">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2604,7 +2623,7 @@
         <v>2601022</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="68" spans="1:23">
+    <row r="23" customFormat="1" ht="40.5" spans="1:23">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2708,7 +2727,7 @@
       <c r="U25" s="12"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" customFormat="1" ht="34" spans="1:22">
+    <row r="26" customFormat="1" ht="27" spans="1:22">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2766,7 +2785,7 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="27" ht="34" spans="1:21">
+    <row r="27" ht="27" spans="1:21">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2819,7 +2838,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="12"/>
     </row>
-    <row r="28" ht="51" spans="1:21">
+    <row r="28" ht="40.5" spans="1:21">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2872,7 +2891,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="12"/>
     </row>
-    <row r="29" ht="51" spans="1:21">
+    <row r="29" ht="40.5" spans="1:21">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +2944,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="12"/>
     </row>
-    <row r="30" ht="68" spans="1:21">
+    <row r="30" ht="54" spans="1:21">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3020,7 +3039,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="12"/>
     </row>
-    <row r="33" customFormat="1" ht="51" spans="1:22">
+    <row r="33" customFormat="1" ht="27" spans="1:22">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="51" spans="1:22">
+    <row r="34" ht="27" spans="1:22">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3128,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="51" spans="1:22">
+    <row r="35" ht="40.5" spans="1:22">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3182,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="51" spans="1:22">
+    <row r="36" ht="40.5" spans="1:22">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3236,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="101" spans="1:22">
+    <row r="37" ht="67.5" spans="1:22">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3332,7 +3351,7 @@
       <c r="T39" s="6"/>
       <c r="U39" s="12"/>
     </row>
-    <row r="40" customFormat="1" ht="34" spans="1:22">
+    <row r="40" customFormat="1" ht="27" spans="1:22">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -3388,7 +3407,7 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="41" ht="34" spans="1:22">
+    <row r="41" ht="27" spans="1:22">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3444,7 +3463,7 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="42" ht="51" spans="1:22">
+    <row r="42" ht="40.5" spans="1:22">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3502,7 +3521,7 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="43" ht="51" spans="1:22">
+    <row r="43" ht="40.5" spans="1:22">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3560,7 +3579,7 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="44" ht="51" spans="1:22">
+    <row r="44" ht="27" spans="1:22">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4007,26 +4026,66 @@
       <c r="T53" s="6"/>
       <c r="U53" s="12"/>
     </row>
-    <row r="54" spans="3:21">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="6"/>
+    <row r="54" customFormat="1" ht="14" customHeight="1" spans="1:23">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>2100601</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G54" s="6">
+        <v>2</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>11</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L54" s="10"/>
+      <c r="M54" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N54" s="6">
+        <v>180</v>
+      </c>
+      <c r="O54" s="6">
+        <v>100</v>
+      </c>
+      <c r="P54" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
+      <c r="T54" s="6">
+        <v>2667</v>
+      </c>
       <c r="U54" s="12"/>
+      <c r="V54" s="5">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>2601024</v>
+      </c>
     </row>
     <row r="55" spans="3:21">
       <c r="C55" s="6"/>
@@ -4049,20 +4108,10 @@
       <c r="T55" s="6"/>
       <c r="U55" s="12"/>
     </row>
-    <row r="56" spans="1:21">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>2500001</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>107</v>
-      </c>
+    <row r="56" spans="3:21">
+      <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="6">
-        <v>1</v>
-      </c>
+      <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -4101,10 +4150,20 @@
       <c r="T57" s="6"/>
       <c r="U57" s="12"/>
     </row>
-    <row r="58" spans="3:21">
-      <c r="C58" s="6"/>
+    <row r="58" spans="1:21">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>2500001</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -4143,138 +4202,65 @@
       <c r="T59" s="6"/>
       <c r="U59" s="12"/>
     </row>
-    <row r="60" spans="1:23">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60">
-        <v>2001001</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>52</v>
-      </c>
+    <row r="60" spans="3:21">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6">
-        <v>1</v>
-      </c>
-      <c r="H60" s="6">
-        <v>0</v>
-      </c>
-      <c r="I60" s="6">
-        <v>0</v>
-      </c>
-      <c r="J60" s="6">
-        <v>1</v>
-      </c>
-      <c r="K60" s="6">
-        <v>3001001</v>
-      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="6">
-        <v>0</v>
-      </c>
-      <c r="N60" s="9">
-        <v>233</v>
-      </c>
-      <c r="O60" s="9">
-        <v>100</v>
-      </c>
-      <c r="P60" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="6">
-        <v>1</v>
-      </c>
+      <c r="M60" s="6"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
-      <c r="T60" s="6">
-        <v>2000</v>
-      </c>
+      <c r="T60" s="6"/>
       <c r="U60" s="12"/>
-      <c r="V60" s="5">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>2601001</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="2:23">
-      <c r="B61" s="1">
-        <v>2001002</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E61" s="9"/>
+    </row>
+    <row r="61" spans="3:21">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="9">
-        <v>2</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0</v>
-      </c>
-      <c r="J61" s="9">
-        <v>0</v>
-      </c>
-      <c r="K61" s="9">
-        <v>3001002</v>
-      </c>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9">
-        <v>99000</v>
-      </c>
-      <c r="N61" s="9">
-        <v>100</v>
-      </c>
-      <c r="O61" s="9">
-        <v>500</v>
-      </c>
-      <c r="P61" s="9">
-        <v>1000</v>
-      </c>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="6">
-        <v>1000</v>
-      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
       <c r="U61" s="12"/>
-      <c r="V61" s="5">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>2601002</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:22">
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" t="s">
         <v>0</v>
       </c>
       <c r="B62">
-        <v>2001002</v>
+        <v>2001001</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="6">
-        <v>15003751</v>
-      </c>
+      <c r="F62" s="6"/>
       <c r="G62" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="6">
         <v>0</v>
@@ -4283,113 +4269,116 @@
         <v>0</v>
       </c>
       <c r="J62" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" s="6">
-        <v>14001010</v>
+        <v>3001001</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6">
         <v>0</v>
       </c>
-      <c r="N62" s="6">
-        <v>466</v>
-      </c>
-      <c r="O62" s="6">
-        <v>200</v>
+      <c r="N62" s="9">
+        <v>233</v>
+      </c>
+      <c r="O62" s="9">
+        <v>100</v>
       </c>
       <c r="P62" s="6">
-        <v>15000</v>
-      </c>
-      <c r="Q62" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>1</v>
+      </c>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="U62" s="12"/>
       <c r="V62" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63">
-        <v>2001003</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G63" s="6">
-        <v>0</v>
-      </c>
-      <c r="H63" s="6">
-        <v>0</v>
-      </c>
-      <c r="I63" s="6">
-        <v>0</v>
-      </c>
-      <c r="J63" s="6">
-        <v>0</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="6">
-        <v>0</v>
-      </c>
-      <c r="N63" s="6">
-        <v>466</v>
-      </c>
-      <c r="O63" s="6">
-        <v>200</v>
-      </c>
-      <c r="P63" s="6">
-        <v>8000</v>
-      </c>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
+      <c r="W62">
+        <v>2601001</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:23">
+      <c r="B63" s="1">
+        <v>2001002</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="9">
+        <v>2</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0</v>
+      </c>
+      <c r="J63" s="9">
+        <v>0</v>
+      </c>
+      <c r="K63" s="9">
+        <v>3001002</v>
+      </c>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9">
+        <v>99000</v>
+      </c>
+      <c r="N63" s="9">
+        <v>100</v>
+      </c>
+      <c r="O63" s="9">
+        <v>500</v>
+      </c>
+      <c r="P63" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
       <c r="T63" s="6">
         <v>1000</v>
       </c>
       <c r="U63" s="12"/>
       <c r="V63" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>2601002</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:22">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64">
-        <v>2001004</v>
+        <v>2001002</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6">
-        <v>15003753</v>
+        <v>15003751</v>
       </c>
       <c r="G64" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="6">
         <v>0</v>
@@ -4398,11 +4387,11 @@
         <v>2</v>
       </c>
       <c r="K64" s="6">
-        <v>16001001</v>
+        <v>14001010</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="N64" s="6">
         <v>466</v>
@@ -4411,7 +4400,7 @@
         <v>200</v>
       </c>
       <c r="P64" s="6">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
@@ -4423,26 +4412,23 @@
       <c r="V64" s="5">
         <v>0</v>
       </c>
-      <c r="W64">
-        <v>2601005</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:22">
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65">
-        <v>2001005</v>
+        <v>2001003</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6">
-        <v>15003754</v>
+        <v>15003752</v>
       </c>
       <c r="G65" s="6">
         <v>0</v>
@@ -4454,10 +4440,10 @@
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="6">
@@ -4470,65 +4456,63 @@
         <v>200</v>
       </c>
       <c r="P65" s="6">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="Q65" s="6"/>
-      <c r="R65" s="6">
-        <v>1</v>
-      </c>
+      <c r="R65" s="6"/>
       <c r="S65" s="6"/>
       <c r="T65" s="6">
         <v>1000</v>
       </c>
       <c r="U65" s="12"/>
       <c r="V65" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:22">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:23">
       <c r="A66" t="s">
         <v>0</v>
       </c>
       <c r="B66">
-        <v>2001006</v>
+        <v>2001004</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6">
-        <v>15003755</v>
+        <v>15003753</v>
       </c>
       <c r="G66" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="6">
         <v>2</v>
       </c>
-      <c r="K66" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L66" s="10"/>
+      <c r="K66" s="6">
+        <v>16001001</v>
+      </c>
+      <c r="L66" s="6"/>
       <c r="M66" s="6">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="N66" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O66" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P66" s="6">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
@@ -4540,38 +4524,77 @@
       <c r="V66" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" customFormat="1" spans="3:22">
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="W66">
+        <v>2601005</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:22">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>2001005</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
+      <c r="F67" s="6">
+        <v>15003754</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
+        <v>2</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L67" s="10"/>
+      <c r="M67" s="6">
+        <v>0</v>
+      </c>
+      <c r="N67" s="6">
+        <v>466</v>
+      </c>
+      <c r="O67" s="6">
+        <v>200</v>
+      </c>
+      <c r="P67" s="6">
+        <v>25000</v>
+      </c>
       <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
+      <c r="R67" s="6">
+        <v>1</v>
+      </c>
       <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
+      <c r="T67" s="6">
+        <v>1000</v>
+      </c>
       <c r="U67" s="12"/>
-      <c r="V67" s="5"/>
+      <c r="V67" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="1" spans="1:22">
       <c r="A68" t="s">
         <v>0</v>
       </c>
       <c r="B68">
-        <v>2001008</v>
+        <v>2001006</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>123</v>
@@ -4587,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="I68" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K68" s="10" t="s">
         <v>124</v>
@@ -4600,13 +4623,13 @@
         <v>0</v>
       </c>
       <c r="N68" s="6">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="O68" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
@@ -4641,143 +4664,101 @@
       <c r="U69" s="12"/>
       <c r="V69" s="5"/>
     </row>
-    <row r="71" spans="1:23">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71">
-        <v>2001021</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>54</v>
-      </c>
+    <row r="70" customFormat="1" spans="1:22">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>2001008</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L70" s="10"/>
+      <c r="M70" s="6">
+        <v>0</v>
+      </c>
+      <c r="N70" s="6">
+        <v>466</v>
+      </c>
+      <c r="O70" s="6">
+        <v>200</v>
+      </c>
+      <c r="P70" s="6">
+        <v>2500</v>
+      </c>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U70" s="12"/>
+      <c r="V70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="3:22">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="6">
-        <v>1</v>
-      </c>
-      <c r="H71" s="6">
-        <v>0</v>
-      </c>
-      <c r="I71" s="6">
-        <v>0</v>
-      </c>
-      <c r="J71" s="6">
-        <v>1</v>
-      </c>
-      <c r="K71" s="6">
-        <v>3001011</v>
-      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="6">
-        <v>0</v>
-      </c>
-      <c r="N71" s="6">
-        <v>180</v>
-      </c>
-      <c r="O71" s="6">
-        <v>100</v>
-      </c>
-      <c r="P71" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="6">
-        <v>1</v>
-      </c>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
-      <c r="T71" s="6">
-        <v>2667</v>
-      </c>
+      <c r="T71" s="6"/>
       <c r="U71" s="12"/>
-      <c r="V71" s="5">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>2601021</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72">
-        <v>2001022</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G72" s="6">
-        <v>2</v>
-      </c>
-      <c r="H72" s="6">
-        <v>0</v>
-      </c>
-      <c r="I72" s="6">
-        <v>0</v>
-      </c>
-      <c r="J72" s="6">
-        <v>0</v>
-      </c>
-      <c r="K72" s="6">
-        <v>3001012</v>
-      </c>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N72" s="6">
-        <v>1800</v>
-      </c>
-      <c r="O72" s="6">
-        <v>1800</v>
-      </c>
-      <c r="P72" s="6">
-        <v>2000</v>
-      </c>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6">
-        <v>267</v>
-      </c>
-      <c r="U72" s="12"/>
-      <c r="V72" s="5">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="V71" s="5"/>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" t="s">
         <v>0</v>
       </c>
       <c r="B73">
-        <v>2001023</v>
+        <v>2001021</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="6">
-        <v>15003752</v>
-      </c>
+      <c r="F73" s="6"/>
       <c r="G73" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="6">
         <v>0</v>
@@ -4786,12 +4767,12 @@
         <v>0</v>
       </c>
       <c r="J73" s="6">
-        <v>2</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="L73" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="K73" s="6">
+        <v>3001011</v>
+      </c>
+      <c r="L73" s="6"/>
       <c r="M73" s="6">
         <v>0</v>
       </c>
@@ -4802,9 +4783,11 @@
         <v>100</v>
       </c>
       <c r="P73" s="6">
-        <v>15000</v>
-      </c>
-      <c r="Q73" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="6">
+        <v>1</v>
+      </c>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6">
@@ -4812,28 +4795,31 @@
       </c>
       <c r="U73" s="12"/>
       <c r="V73" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:23">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>2601021</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
         <v>0</v>
       </c>
       <c r="B74">
-        <v>2001024</v>
+        <v>2001022</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6">
-        <v>15003753</v>
+        <v>15003751</v>
       </c>
       <c r="G74" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" s="6">
         <v>0</v>
@@ -4842,36 +4828,36 @@
         <v>0</v>
       </c>
       <c r="J74" s="6">
-        <v>1</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L74" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <v>3001012</v>
+      </c>
+      <c r="L74" s="6"/>
       <c r="M74" s="6">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N74" s="6">
-        <v>180</v>
+        <v>1800</v>
       </c>
       <c r="O74" s="6">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="P74" s="6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6">
-        <v>2667</v>
+        <v>267</v>
       </c>
       <c r="U74" s="12"/>
       <c r="V74" s="5">
         <v>0</v>
       </c>
       <c r="W74">
-        <v>2601024</v>
+        <v>2601022</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -4879,20 +4865,20 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>2001025</v>
+        <v>2001023</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6">
-        <v>15003754</v>
+        <v>15003752</v>
       </c>
       <c r="G75" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="6">
         <v>0</v>
@@ -4901,14 +4887,14 @@
         <v>0</v>
       </c>
       <c r="J75" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N75" s="6">
         <v>180</v>
@@ -4917,64 +4903,64 @@
         <v>100</v>
       </c>
       <c r="P75" s="6">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q75" s="6"/>
-      <c r="R75" s="6">
-        <v>1</v>
-      </c>
+      <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6">
         <v>2667</v>
       </c>
       <c r="U75" s="12"/>
       <c r="V75" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:22">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:23">
       <c r="A76" t="s">
         <v>0</v>
       </c>
       <c r="B76">
-        <v>2001026</v>
+        <v>2001024</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6">
-        <v>15003755</v>
+        <v>15003753</v>
       </c>
       <c r="G76" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="6">
         <v>0</v>
       </c>
       <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6">
         <v>1</v>
       </c>
-      <c r="J76" s="6">
-        <v>2</v>
-      </c>
       <c r="K76" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N76" s="6">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O76" s="6">
-        <v>0</v>
-      </c>
-      <c r="P76" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="P76" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
@@ -4985,116 +4971,148 @@
       <c r="V76" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" s="2" customFormat="1" spans="1:23">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="6"/>
+      <c r="W76">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>2001025</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6">
+        <v>15003754</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
+        <v>1</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L77" s="10"/>
+      <c r="M77" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N77" s="6">
+        <v>180</v>
+      </c>
+      <c r="O77" s="6">
+        <v>100</v>
+      </c>
+      <c r="P77" s="6">
+        <v>25000</v>
+      </c>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6">
+        <v>1</v>
+      </c>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6">
+        <v>2667</v>
+      </c>
       <c r="U77" s="12"/>
-      <c r="V77" s="5"/>
-      <c r="W77"/>
-    </row>
-    <row r="78" ht="12" customHeight="1" spans="3:21">
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
+      <c r="V77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:22">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>2001026</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
+      <c r="F78" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G78" s="6">
+        <v>0</v>
+      </c>
+      <c r="H78" s="6">
+        <v>0</v>
+      </c>
+      <c r="I78" s="6">
+        <v>1</v>
+      </c>
+      <c r="J78" s="6">
+        <v>2</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="L78" s="10"/>
+      <c r="M78" s="6">
+        <v>0</v>
+      </c>
+      <c r="N78" s="6">
+        <v>0</v>
+      </c>
+      <c r="O78" s="6">
+        <v>0</v>
+      </c>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
+      <c r="T78" s="6">
+        <v>2667</v>
+      </c>
       <c r="U78" s="12"/>
-    </row>
-    <row r="79" customFormat="1" spans="1:24">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79">
-        <v>2001050</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G79" s="6">
-        <v>2</v>
-      </c>
-      <c r="H79" s="6">
-        <v>1</v>
-      </c>
-      <c r="I79" s="6">
-        <v>0</v>
-      </c>
-      <c r="J79" s="6">
-        <v>0</v>
-      </c>
-      <c r="K79" s="6">
-        <v>16001010</v>
-      </c>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6">
-        <v>10000</v>
-      </c>
-      <c r="N79" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O79" s="6">
-        <v>0</v>
-      </c>
-      <c r="P79" s="6">
-        <v>600</v>
-      </c>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6">
-        <v>1000</v>
-      </c>
+      <c r="V78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="1:23">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="6"/>
       <c r="U79" s="12"/>
-      <c r="V79" s="5">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>2601050</v>
-      </c>
-      <c r="X79">
-        <v>2500005</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="3:22">
+      <c r="V79" s="5"/>
+      <c r="W79"/>
+    </row>
+    <row r="80" ht="12" customHeight="1" spans="3:21">
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -5114,29 +5132,68 @@
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
       <c r="U80" s="12"/>
-      <c r="V80" s="5"/>
-    </row>
-    <row r="81" customFormat="1" spans="3:22">
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+    </row>
+    <row r="81" customFormat="1" spans="1:24">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>2001050</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
+      <c r="F81" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G81" s="6">
+        <v>2</v>
+      </c>
+      <c r="H81" s="6">
+        <v>1</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6">
+        <v>0</v>
+      </c>
+      <c r="K81" s="6">
+        <v>16001010</v>
+      </c>
       <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
+      <c r="M81" s="6">
+        <v>10000</v>
+      </c>
+      <c r="N81" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O81" s="6">
+        <v>0</v>
+      </c>
+      <c r="P81" s="6">
+        <v>600</v>
+      </c>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
+      <c r="T81" s="6">
+        <v>1000</v>
+      </c>
       <c r="U81" s="12"/>
-      <c r="V81" s="5"/>
+      <c r="V81" s="5">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>2601050</v>
+      </c>
+      <c r="X81">
+        <v>2500005</v>
+      </c>
     </row>
     <row r="82" customFormat="1" spans="3:22">
       <c r="C82" s="6"/>
@@ -5182,168 +5239,133 @@
       <c r="U83" s="12"/>
       <c r="V83" s="5"/>
     </row>
-    <row r="84" s="3" customFormat="1" spans="20:22">
+    <row r="84" customFormat="1" spans="3:22">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
       <c r="T84" s="6"/>
-      <c r="U84" s="5"/>
+      <c r="U84" s="12"/>
       <c r="V84" s="5"/>
     </row>
-    <row r="85" spans="20:20">
+    <row r="85" customFormat="1" spans="3:22">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
       <c r="T85" s="6"/>
-    </row>
-    <row r="86" spans="1:22">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86">
+      <c r="U85" s="12"/>
+      <c r="V85" s="5"/>
+    </row>
+    <row r="86" s="3" customFormat="1" spans="20:22">
+      <c r="T86" s="6"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+    </row>
+    <row r="87" spans="20:20">
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
         <v>2002001</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6">
-        <v>1</v>
-      </c>
-      <c r="H86" s="6">
-        <v>0</v>
-      </c>
-      <c r="I86" s="6">
-        <v>0</v>
-      </c>
-      <c r="J86" s="6">
-        <v>1</v>
-      </c>
-      <c r="K86" s="6">
-        <v>3002001</v>
-      </c>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6">
-        <v>0</v>
-      </c>
-      <c r="N86" s="6">
-        <v>300</v>
-      </c>
-      <c r="O86" s="6">
-        <v>300</v>
-      </c>
-      <c r="P86" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="6">
-        <v>1</v>
-      </c>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6">
-        <v>1540</v>
-      </c>
-      <c r="U86" s="12"/>
-      <c r="V86" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87">
-        <v>2002002</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D87" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G87" s="6">
-        <v>2</v>
-      </c>
-      <c r="H87" s="6">
-        <v>0</v>
-      </c>
-      <c r="I87" s="6">
-        <v>0</v>
-      </c>
-      <c r="J87" s="6">
-        <v>2</v>
-      </c>
-      <c r="K87" s="6">
-        <v>13002030</v>
-      </c>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6">
-        <v>4000</v>
-      </c>
-      <c r="N87" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O87" s="6">
-        <v>700</v>
-      </c>
-      <c r="P87" s="6">
-        <v>6500</v>
-      </c>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6">
-        <v>340</v>
-      </c>
-      <c r="U87" s="12"/>
-      <c r="V87" s="5">
-        <v>0</v>
-      </c>
-      <c r="X87">
-        <v>2500010</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="3:22">
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
+      <c r="G88" s="6">
+        <v>1</v>
+      </c>
+      <c r="H88" s="6">
+        <v>0</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6">
+        <v>1</v>
+      </c>
+      <c r="K88" s="6">
+        <v>3002001</v>
+      </c>
       <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
+      <c r="M88" s="6">
+        <v>0</v>
+      </c>
+      <c r="N88" s="6">
+        <v>300</v>
+      </c>
+      <c r="O88" s="6">
+        <v>300</v>
+      </c>
+      <c r="P88" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>1</v>
+      </c>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
+      <c r="T88" s="6">
+        <v>1540</v>
+      </c>
       <c r="U88" s="12"/>
-      <c r="V88" s="5"/>
-    </row>
-    <row r="89" customFormat="1" spans="1:22">
+      <c r="V88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
         <v>0</v>
       </c>
       <c r="B89">
-        <v>2002011</v>
+        <v>2002002</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>143</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
+      <c r="F89" s="6">
+        <v>15003753</v>
+      </c>
       <c r="G89" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" s="6">
         <v>0</v>
@@ -5352,311 +5374,272 @@
         <v>0</v>
       </c>
       <c r="J89" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" s="6">
-        <v>3002011</v>
+        <v>13002030</v>
       </c>
       <c r="L89" s="6"/>
       <c r="M89" s="6">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="N89" s="6">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="O89" s="6">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="P89" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="6">
-        <v>1</v>
-      </c>
+        <v>6500</v>
+      </c>
+      <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6">
-        <v>1400</v>
+        <v>340</v>
       </c>
       <c r="U89" s="12"/>
       <c r="V89" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:24">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90">
-        <v>2002012</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>144</v>
-      </c>
+      <c r="X89">
+        <v>2500010</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="3:22">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
       <c r="E90" s="6"/>
-      <c r="F90" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G90" s="6">
-        <v>2</v>
-      </c>
-      <c r="H90" s="6">
-        <v>0</v>
-      </c>
-      <c r="I90" s="6">
-        <v>0</v>
-      </c>
-      <c r="J90" s="6">
-        <v>0</v>
-      </c>
-      <c r="K90" s="6">
-        <v>3002012</v>
-      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N90" s="6">
-        <v>1000</v>
-      </c>
-      <c r="O90" s="6">
-        <v>700</v>
-      </c>
-      <c r="P90" s="6">
-        <v>7000</v>
-      </c>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
-      <c r="T90" s="6">
-        <v>420</v>
-      </c>
+      <c r="T90" s="6"/>
       <c r="U90" s="12"/>
-      <c r="V90" s="5">
-        <v>0</v>
-      </c>
-      <c r="W90">
-        <v>2602012</v>
-      </c>
-      <c r="X90">
-        <v>2500011</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" spans="4:22">
-      <c r="D91" s="6"/>
+      <c r="V90" s="5"/>
+    </row>
+    <row r="91" customFormat="1" spans="1:22">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>2002011</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
+      <c r="G91" s="6">
+        <v>1</v>
+      </c>
+      <c r="H91" s="6">
+        <v>0</v>
+      </c>
+      <c r="I91" s="6">
+        <v>0</v>
+      </c>
+      <c r="J91" s="6">
+        <v>1</v>
+      </c>
+      <c r="K91" s="6">
+        <v>3002011</v>
+      </c>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6">
+        <v>0</v>
+      </c>
+      <c r="N91" s="6">
+        <v>300</v>
+      </c>
+      <c r="O91" s="6">
+        <v>200</v>
+      </c>
+      <c r="P91" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="6">
+        <v>1</v>
+      </c>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
+      <c r="T91" s="6">
+        <v>1400</v>
+      </c>
       <c r="U91" s="12"/>
-      <c r="V91" s="5"/>
-    </row>
-    <row r="92" customFormat="1" spans="4:22">
-      <c r="D92" s="6"/>
+      <c r="V91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:24">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>2002012</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
+      <c r="F92" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G92" s="6">
+        <v>2</v>
+      </c>
+      <c r="H92" s="6">
+        <v>0</v>
+      </c>
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6">
+        <v>0</v>
+      </c>
+      <c r="K92" s="6">
+        <v>3002012</v>
+      </c>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N92" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O92" s="6">
+        <v>700</v>
+      </c>
+      <c r="P92" s="6">
+        <v>7000</v>
+      </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
+      <c r="T92" s="6">
+        <v>420</v>
+      </c>
       <c r="U92" s="12"/>
-      <c r="V92" s="5"/>
-    </row>
-    <row r="93" customFormat="1" spans="1:23">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93">
-        <v>2003001</v>
-      </c>
-      <c r="C93" t="s">
-        <v>145</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>145</v>
-      </c>
+      <c r="V92" s="5">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>2602012</v>
+      </c>
+      <c r="X92">
+        <v>2500011</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="4:22">
+      <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6">
-        <v>1</v>
-      </c>
-      <c r="H93" s="6">
-        <v>0</v>
-      </c>
-      <c r="I93" s="6">
-        <v>0</v>
-      </c>
-      <c r="J93" s="6">
-        <v>1</v>
-      </c>
-      <c r="K93">
-        <v>3003001</v>
-      </c>
-      <c r="M93" s="6">
-        <v>0</v>
-      </c>
-      <c r="N93" s="6">
-        <v>300</v>
-      </c>
-      <c r="O93" s="6">
-        <v>300</v>
-      </c>
-      <c r="P93" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="6">
-        <v>1</v>
-      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
-      <c r="T93" s="6">
+      <c r="T93" s="6"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="5"/>
+    </row>
+    <row r="94" customFormat="1" spans="4:22">
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="5"/>
+    </row>
+    <row r="95" customFormat="1" spans="1:23">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>2003001</v>
+      </c>
+      <c r="C95" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6">
+        <v>1</v>
+      </c>
+      <c r="H95" s="6">
+        <v>0</v>
+      </c>
+      <c r="I95" s="6">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>3003001</v>
+      </c>
+      <c r="M95" s="6">
+        <v>0</v>
+      </c>
+      <c r="N95" s="6">
+        <v>300</v>
+      </c>
+      <c r="O95" s="6">
+        <v>300</v>
+      </c>
+      <c r="P95" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="6">
+        <v>1</v>
+      </c>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6">
         <v>1540</v>
       </c>
-      <c r="U93" s="12"/>
-      <c r="V93" s="5">
-        <v>0</v>
-      </c>
-      <c r="W93">
+      <c r="U95" s="12"/>
+      <c r="V95" s="5">
+        <v>0</v>
+      </c>
+      <c r="W95">
         <v>2603001</v>
-      </c>
-    </row>
-    <row r="94" s="4" customFormat="1" spans="1:23">
-      <c r="A94" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="4">
-        <v>2003002</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14">
-        <v>15003751</v>
-      </c>
-      <c r="G94" s="14">
-        <v>2</v>
-      </c>
-      <c r="H94" s="14">
-        <v>0</v>
-      </c>
-      <c r="I94" s="14">
-        <v>0</v>
-      </c>
-      <c r="J94" s="14">
-        <v>1</v>
-      </c>
-      <c r="K94" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L94" s="16"/>
-      <c r="M94" s="14">
-        <v>8000</v>
-      </c>
-      <c r="N94" s="14">
-        <v>600</v>
-      </c>
-      <c r="O94" s="14">
-        <v>0</v>
-      </c>
-      <c r="P94" s="14">
-        <v>2000</v>
-      </c>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U94" s="14"/>
-      <c r="V94" s="5">
-        <v>0</v>
-      </c>
-      <c r="W94" s="4">
-        <v>2603002</v>
-      </c>
-    </row>
-    <row r="95" s="4" customFormat="1" spans="1:23">
-      <c r="A95" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="4">
-        <v>2003003</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14">
-        <v>15003753</v>
-      </c>
-      <c r="G95" s="14">
-        <v>0</v>
-      </c>
-      <c r="H95" s="14">
-        <v>0</v>
-      </c>
-      <c r="I95" s="14">
-        <v>0</v>
-      </c>
-      <c r="J95" s="14">
-        <v>2</v>
-      </c>
-      <c r="K95" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="L95" s="16"/>
-      <c r="M95" s="14">
-        <v>0</v>
-      </c>
-      <c r="N95" s="14">
-        <v>50</v>
-      </c>
-      <c r="O95" s="14">
-        <v>0</v>
-      </c>
-      <c r="P95" s="14">
-        <v>6000</v>
-      </c>
-      <c r="Q95" s="14"/>
-      <c r="R95" s="14"/>
-      <c r="S95" s="14"/>
-      <c r="T95" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U95" s="14"/>
-      <c r="V95" s="5">
-        <v>15008005</v>
-      </c>
-      <c r="W95" s="4">
-        <v>2603003</v>
       </c>
     </row>
     <row r="96" s="4" customFormat="1" spans="1:23">
@@ -5664,45 +5647,45 @@
         <v>0</v>
       </c>
       <c r="B96" s="4">
-        <v>2003004</v>
+        <v>2003002</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14">
-        <v>15003754</v>
+        <v>15003751</v>
       </c>
       <c r="G96" s="14">
         <v>2</v>
       </c>
       <c r="H96" s="14">
+        <v>0</v>
+      </c>
+      <c r="I96" s="14">
+        <v>0</v>
+      </c>
+      <c r="J96" s="14">
         <v>1</v>
       </c>
-      <c r="I96" s="14">
-        <v>0</v>
-      </c>
-      <c r="J96" s="14">
-        <v>0</v>
-      </c>
-      <c r="K96" s="14">
-        <v>16001001</v>
-      </c>
-      <c r="L96" s="14"/>
+      <c r="K96" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L96" s="16"/>
       <c r="M96" s="14">
         <v>8000</v>
       </c>
       <c r="N96" s="14">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O96" s="14">
         <v>0</v>
       </c>
       <c r="P96" s="14">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q96" s="14"/>
       <c r="R96" s="14"/>
@@ -5715,148 +5698,146 @@
         <v>0</v>
       </c>
       <c r="W96" s="4">
-        <v>2603004</v>
-      </c>
-    </row>
-    <row r="97" spans="20:20">
-      <c r="T97" s="6"/>
-    </row>
-    <row r="98" customFormat="1" spans="1:23">
-      <c r="A98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98">
-        <v>2003050</v>
-      </c>
-      <c r="C98" s="6" t="s">
+        <v>2603002</v>
+      </c>
+    </row>
+    <row r="97" s="4" customFormat="1" spans="1:23">
+      <c r="A97" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="4">
+        <v>2003003</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14">
+        <v>15003753</v>
+      </c>
+      <c r="G97" s="14">
+        <v>0</v>
+      </c>
+      <c r="H97" s="14">
+        <v>0</v>
+      </c>
+      <c r="I97" s="14">
+        <v>0</v>
+      </c>
+      <c r="J97" s="14">
+        <v>2</v>
+      </c>
+      <c r="K97" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L97" s="16"/>
+      <c r="M97" s="14">
+        <v>0</v>
+      </c>
+      <c r="N97" s="14">
+        <v>50</v>
+      </c>
+      <c r="O97" s="14">
+        <v>0</v>
+      </c>
+      <c r="P97" s="14">
+        <v>6000</v>
+      </c>
+      <c r="Q97" s="14"/>
+      <c r="R97" s="14"/>
+      <c r="S97" s="14"/>
+      <c r="T97" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U97" s="14"/>
+      <c r="V97" s="5">
+        <v>15008005</v>
+      </c>
+      <c r="W97" s="4">
+        <v>2603003</v>
+      </c>
+    </row>
+    <row r="98" s="4" customFormat="1" spans="1:23">
+      <c r="A98" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="4">
+        <v>2003004</v>
+      </c>
+      <c r="C98" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G98" s="6">
-        <v>0</v>
-      </c>
-      <c r="H98" s="6">
-        <v>0</v>
-      </c>
-      <c r="I98" s="6">
+      <c r="D98" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14">
+        <v>15003754</v>
+      </c>
+      <c r="G98" s="14">
+        <v>2</v>
+      </c>
+      <c r="H98" s="14">
         <v>1</v>
       </c>
-      <c r="J98" s="6">
-        <v>2</v>
-      </c>
-      <c r="K98" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="L98" s="10"/>
-      <c r="M98" s="6">
-        <v>0</v>
-      </c>
-      <c r="N98" s="6">
-        <v>0</v>
-      </c>
-      <c r="O98" s="6">
-        <v>0</v>
-      </c>
-      <c r="P98" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="6">
-        <v>1</v>
-      </c>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
+      <c r="I98" s="14">
+        <v>0</v>
+      </c>
+      <c r="J98" s="14">
+        <v>0</v>
+      </c>
+      <c r="K98" s="14">
+        <v>16001001</v>
+      </c>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14">
+        <v>8000</v>
+      </c>
+      <c r="N98" s="14">
+        <v>0</v>
+      </c>
+      <c r="O98" s="14">
+        <v>0</v>
+      </c>
+      <c r="P98" s="14">
+        <v>1500</v>
+      </c>
+      <c r="Q98" s="14"/>
+      <c r="R98" s="14"/>
+      <c r="S98" s="14"/>
       <c r="T98" s="6">
         <v>1000</v>
       </c>
-      <c r="U98" s="12"/>
+      <c r="U98" s="14"/>
       <c r="V98" s="5">
         <v>0</v>
       </c>
-      <c r="W98">
-        <v>2603050</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" spans="1:23">
-      <c r="A99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99">
-        <v>2003051</v>
-      </c>
-      <c r="C99" s="6" t="s">
+      <c r="W98" s="4">
+        <v>2603004</v>
+      </c>
+    </row>
+    <row r="99" spans="20:20">
+      <c r="T99" s="6"/>
+    </row>
+    <row r="100" customFormat="1" spans="1:23">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>2003050</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D100" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G99" s="6">
-        <v>0</v>
-      </c>
-      <c r="H99" s="6">
-        <v>0</v>
-      </c>
-      <c r="I99" s="6">
-        <v>1</v>
-      </c>
-      <c r="J99" s="6">
-        <v>2</v>
-      </c>
-      <c r="K99" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="L99" s="10"/>
-      <c r="M99" s="6">
-        <v>0</v>
-      </c>
-      <c r="N99" s="6">
-        <v>0</v>
-      </c>
-      <c r="O99" s="6">
-        <v>0</v>
-      </c>
-      <c r="P99" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="6"/>
-      <c r="T99" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U99" s="12"/>
-      <c r="V99" s="5">
-        <v>0</v>
-      </c>
-      <c r="W99">
-        <v>2603051</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" spans="1:24">
-      <c r="A100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100">
-        <v>2003052</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6">
-        <v>15003753</v>
+        <v>15003751</v>
       </c>
       <c r="G100" s="6">
         <v>0</v>
@@ -5865,109 +5846,229 @@
         <v>0</v>
       </c>
       <c r="I100" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="6">
         <v>0</v>
       </c>
       <c r="N100" s="6">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="O100" s="6">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="P100" s="6">
-        <v>12000</v>
-      </c>
-      <c r="Q100" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="6">
+        <v>1</v>
+      </c>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
       <c r="T100" s="6">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="U100" s="12"/>
       <c r="V100" s="5">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>2603050</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" spans="1:23">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>2003051</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G101" s="6">
+        <v>0</v>
+      </c>
+      <c r="H101" s="6">
+        <v>0</v>
+      </c>
+      <c r="I101" s="6">
+        <v>1</v>
+      </c>
+      <c r="J101" s="6">
+        <v>2</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L101" s="10"/>
+      <c r="M101" s="6">
+        <v>0</v>
+      </c>
+      <c r="N101" s="6">
+        <v>0</v>
+      </c>
+      <c r="O101" s="6">
+        <v>0</v>
+      </c>
+      <c r="P101" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U101" s="12"/>
+      <c r="V101" s="5">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>2603051</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" spans="1:24">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>2003052</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G102" s="6">
+        <v>0</v>
+      </c>
+      <c r="H102" s="6">
+        <v>0</v>
+      </c>
+      <c r="I102" s="6">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6">
+        <v>0</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L102" s="10"/>
+      <c r="M102" s="6">
+        <v>0</v>
+      </c>
+      <c r="N102" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O102" s="6">
+        <v>700</v>
+      </c>
+      <c r="P102" s="6">
+        <v>12000</v>
+      </c>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6">
+        <v>340</v>
+      </c>
+      <c r="U102" s="12"/>
+      <c r="V102" s="5">
         <v>15008014</v>
       </c>
-      <c r="W100">
+      <c r="W102">
         <v>2603052</v>
       </c>
-      <c r="X100">
+      <c r="X102">
         <v>2500020</v>
       </c>
     </row>
-    <row r="101" spans="20:20">
-      <c r="T101" s="6"/>
-    </row>
-    <row r="104" spans="16:16">
-      <c r="P104" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23">
-      <c r="A105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105">
+    <row r="103" spans="20:20">
+      <c r="T103" s="6"/>
+    </row>
+    <row r="106" spans="16:16">
+      <c r="P106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107">
         <v>2005001</v>
       </c>
-      <c r="C105" t="s">
-        <v>161</v>
-      </c>
-      <c r="D105" t="s">
-        <v>162</v>
-      </c>
-      <c r="F105" s="6">
+      <c r="C107" t="s">
+        <v>163</v>
+      </c>
+      <c r="D107" t="s">
+        <v>164</v>
+      </c>
+      <c r="F107" s="6">
         <v>15003753</v>
       </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105" s="6">
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" s="6">
         <v>2</v>
       </c>
-      <c r="I105" s="6">
-        <v>0</v>
-      </c>
-      <c r="J105" s="6">
-        <v>0</v>
-      </c>
-      <c r="K105" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="L105" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="M105" s="6">
-        <v>0</v>
-      </c>
-      <c r="N105" s="6">
-        <v>0</v>
-      </c>
-      <c r="O105" s="6">
-        <v>0</v>
-      </c>
-      <c r="P105" s="6">
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6">
+        <v>0</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L107" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="M107" s="6">
+        <v>0</v>
+      </c>
+      <c r="N107" s="6">
+        <v>0</v>
+      </c>
+      <c r="O107" s="6">
+        <v>0</v>
+      </c>
+      <c r="P107" s="6">
         <v>2000</v>
       </c>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
-      <c r="T105" s="6">
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6">
         <v>1000</v>
       </c>
-      <c r="U105" s="12"/>
-      <c r="V105" s="5">
+      <c r="U107" s="12"/>
+      <c r="V107" s="5">
         <v>15008014</v>
       </c>
-      <c r="W105">
+      <c r="W107">
         <v>2605001</v>
       </c>
     </row>
@@ -5988,7 +6089,7 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6005,7 +6106,7 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13635" windowHeight="11865"/>
+    <workbookView windowWidth="14910" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="170">
   <si>
     <t>#</t>
   </si>
@@ -452,6 +452,9 @@
     <t>一段时间内增加护甲，躲避所有普通攻击</t>
   </si>
   <si>
+    <t>14100301</t>
+  </si>
+  <si>
     <t>大盾lv4</t>
   </si>
   <si>
@@ -486,6 +489,12 @@
   </si>
   <si>
     <t>13100301</t>
+  </si>
+  <si>
+    <t>攻击力和护甲的增加lv1</t>
+  </si>
+  <si>
+    <t>14100601,14100602</t>
   </si>
   <si>
     <t>道具技能（待定）</t>
@@ -1710,12 +1719,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X107"/>
+  <dimension ref="A1:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B54" sqref="B54"/>
+      <selection pane="topRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3494,8 +3503,8 @@
       <c r="J42" s="6">
         <v>2</v>
       </c>
-      <c r="K42" s="10">
-        <v>14100301</v>
+      <c r="K42" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="6">
@@ -3529,7 +3538,7 @@
         <v>2100404</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>96</v>
@@ -3587,10 +3596,10 @@
         <v>2100405</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E44" s="6">
         <v>5</v>
@@ -3611,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="6">
@@ -3687,10 +3696,10 @@
         <v>2100501</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
@@ -3711,7 +3720,7 @@
         <v>11</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="6">
@@ -3748,10 +3757,10 @@
         <v>2100502</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E48" s="6">
         <v>2</v>
@@ -3772,7 +3781,7 @@
         <v>11</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="6">
@@ -3809,10 +3818,10 @@
         <v>2100503</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E49" s="6">
         <v>3</v>
@@ -3833,7 +3842,7 @@
         <v>11</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="6">
@@ -3870,10 +3879,10 @@
         <v>2100504</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E50" s="6">
         <v>4</v>
@@ -3894,7 +3903,7 @@
         <v>11</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="6">
@@ -3931,10 +3940,10 @@
         <v>2100505</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E51" s="6">
         <v>5</v>
@@ -3955,7 +3964,7 @@
         <v>11</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="6">
@@ -4034,10 +4043,10 @@
         <v>2100601</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -4058,7 +4067,7 @@
         <v>11</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="6">
@@ -4129,41 +4138,68 @@
       <c r="T56" s="6"/>
       <c r="U56" s="12"/>
     </row>
-    <row r="57" spans="3:21">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="6"/>
+    <row r="57" customFormat="1" spans="1:22">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>2100701</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>2</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="6">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6">
+        <v>466</v>
+      </c>
+      <c r="O57" s="6">
+        <v>200</v>
+      </c>
+      <c r="P57" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
+      <c r="T57" s="6">
+        <v>1000</v>
+      </c>
       <c r="U57" s="12"/>
-    </row>
-    <row r="58" spans="1:21">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>2500001</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="V57" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21">
+      <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="6">
-        <v>1</v>
-      </c>
+      <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -4223,10 +4259,20 @@
       <c r="T60" s="6"/>
       <c r="U60" s="12"/>
     </row>
-    <row r="61" spans="3:21">
-      <c r="C61" s="6"/>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>2500001</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -4244,194 +4290,86 @@
       <c r="T61" s="6"/>
       <c r="U61" s="12"/>
     </row>
-    <row r="62" spans="1:23">
-      <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62">
-        <v>2001001</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>52</v>
-      </c>
+    <row r="62" spans="3:21">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6">
-        <v>1</v>
-      </c>
-      <c r="H62" s="6">
-        <v>0</v>
-      </c>
-      <c r="I62" s="6">
-        <v>0</v>
-      </c>
-      <c r="J62" s="6">
-        <v>1</v>
-      </c>
-      <c r="K62" s="6">
-        <v>3001001</v>
-      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="6">
-        <v>0</v>
-      </c>
-      <c r="N62" s="9">
-        <v>233</v>
-      </c>
-      <c r="O62" s="9">
-        <v>100</v>
-      </c>
-      <c r="P62" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="6">
-        <v>1</v>
-      </c>
+      <c r="M62" s="6"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
-      <c r="T62" s="6">
-        <v>2000</v>
-      </c>
+      <c r="T62" s="6"/>
       <c r="U62" s="12"/>
-      <c r="V62" s="5">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>2601001</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="2:23">
-      <c r="B63" s="1">
-        <v>2001002</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" s="9"/>
+    </row>
+    <row r="63" spans="3:21">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="9">
-        <v>2</v>
-      </c>
-      <c r="H63" s="9">
-        <v>0</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0</v>
-      </c>
-      <c r="J63" s="9">
-        <v>0</v>
-      </c>
-      <c r="K63" s="9">
-        <v>3001002</v>
-      </c>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9">
-        <v>99000</v>
-      </c>
-      <c r="N63" s="9">
-        <v>100</v>
-      </c>
-      <c r="O63" s="9">
-        <v>500</v>
-      </c>
-      <c r="P63" s="9">
-        <v>1000</v>
-      </c>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="6">
-        <v>1000</v>
-      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
       <c r="U63" s="12"/>
-      <c r="V63" s="5">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>2601002</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:22">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64">
-        <v>2001002</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>113</v>
-      </c>
+    </row>
+    <row r="64" spans="3:21">
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G64" s="6">
-        <v>0</v>
-      </c>
-      <c r="H64" s="6">
-        <v>0</v>
-      </c>
-      <c r="I64" s="6">
-        <v>0</v>
-      </c>
-      <c r="J64" s="6">
-        <v>2</v>
-      </c>
-      <c r="K64" s="6">
-        <v>14001010</v>
-      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="6">
-        <v>0</v>
-      </c>
-      <c r="N64" s="6">
-        <v>466</v>
-      </c>
-      <c r="O64" s="6">
-        <v>200</v>
-      </c>
-      <c r="P64" s="6">
-        <v>15000</v>
-      </c>
+      <c r="M64" s="6"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
-      <c r="T64" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T64" s="6"/>
       <c r="U64" s="12"/>
-      <c r="V64" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65">
-        <v>2001003</v>
+        <v>2001001</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="E65" s="6"/>
-      <c r="F65" s="6">
-        <v>15003752</v>
-      </c>
+      <c r="F65" s="6"/>
       <c r="G65" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="6">
         <v>0</v>
@@ -4440,83 +4378,83 @@
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>0</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="L65" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="K65" s="6">
+        <v>3001001</v>
+      </c>
+      <c r="L65" s="6"/>
       <c r="M65" s="6">
         <v>0</v>
       </c>
-      <c r="N65" s="6">
-        <v>466</v>
-      </c>
-      <c r="O65" s="6">
-        <v>200</v>
+      <c r="N65" s="9">
+        <v>233</v>
+      </c>
+      <c r="O65" s="9">
+        <v>100</v>
       </c>
       <c r="P65" s="6">
-        <v>8000</v>
-      </c>
-      <c r="Q65" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>1</v>
+      </c>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
       <c r="T65" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="U65" s="12"/>
       <c r="V65" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="1:23">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66">
-        <v>2001004</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>2601001</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:23">
+      <c r="B66" s="1">
+        <v>2001002</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="9">
         <v>2</v>
       </c>
-      <c r="H66" s="6">
-        <v>1</v>
-      </c>
-      <c r="I66" s="6">
-        <v>0</v>
-      </c>
-      <c r="J66" s="6">
-        <v>2</v>
-      </c>
-      <c r="K66" s="6">
-        <v>16001001</v>
-      </c>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6">
-        <v>100000</v>
-      </c>
-      <c r="N66" s="6">
-        <v>466</v>
-      </c>
-      <c r="O66" s="6">
-        <v>200</v>
-      </c>
-      <c r="P66" s="6">
-        <v>7000</v>
-      </c>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9">
+        <v>0</v>
+      </c>
+      <c r="J66" s="9">
+        <v>0</v>
+      </c>
+      <c r="K66" s="9">
+        <v>3001002</v>
+      </c>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9">
+        <v>99000</v>
+      </c>
+      <c r="N66" s="9">
+        <v>100</v>
+      </c>
+      <c r="O66" s="9">
+        <v>500</v>
+      </c>
+      <c r="P66" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
       <c r="T66" s="6">
         <v>1000</v>
       </c>
@@ -4525,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>2601005</v>
+        <v>2601002</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:22">
@@ -4533,17 +4471,17 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>2001005</v>
+        <v>2001002</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6">
-        <v>15003754</v>
+        <v>15003751</v>
       </c>
       <c r="G67" s="6">
         <v>0</v>
@@ -4557,10 +4495,10 @@
       <c r="J67" s="6">
         <v>2</v>
       </c>
-      <c r="K67" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="L67" s="10"/>
+      <c r="K67" s="6">
+        <v>14001010</v>
+      </c>
+      <c r="L67" s="6"/>
       <c r="M67" s="6">
         <v>0</v>
       </c>
@@ -4571,12 +4509,10 @@
         <v>200</v>
       </c>
       <c r="P67" s="6">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q67" s="6"/>
-      <c r="R67" s="6">
-        <v>1</v>
-      </c>
+      <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6">
         <v>1000</v>
@@ -4586,22 +4522,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="1" spans="1:22">
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
         <v>0</v>
       </c>
       <c r="B68">
-        <v>2001006</v>
+        <v>2001003</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G68" s="6">
         <v>0</v>
@@ -4610,26 +4546,26 @@
         <v>0</v>
       </c>
       <c r="I68" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="6">
         <v>0</v>
       </c>
       <c r="N68" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O68" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P68" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
@@ -4639,47 +4575,84 @@
       </c>
       <c r="U68" s="12"/>
       <c r="V68" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="3:22">
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:23">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>2001004</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
+      <c r="F69" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G69" s="6">
+        <v>2</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>2</v>
+      </c>
+      <c r="K69" s="6">
+        <v>16001001</v>
+      </c>
       <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
+      <c r="M69" s="6">
+        <v>100000</v>
+      </c>
+      <c r="N69" s="6">
+        <v>466</v>
+      </c>
+      <c r="O69" s="6">
+        <v>200</v>
+      </c>
+      <c r="P69" s="6">
+        <v>7000</v>
+      </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
+      <c r="T69" s="6">
+        <v>1000</v>
+      </c>
       <c r="U69" s="12"/>
-      <c r="V69" s="5"/>
+      <c r="V69" s="5">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>2601005</v>
+      </c>
     </row>
     <row r="70" customFormat="1" spans="1:22">
       <c r="A70" t="s">
         <v>0</v>
       </c>
       <c r="B70">
-        <v>2001008</v>
+        <v>2001005</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6">
-        <v>15003755</v>
+        <v>15003754</v>
       </c>
       <c r="G70" s="6">
         <v>0</v>
@@ -4691,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="J70" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="6">
@@ -4707,10 +4680,12 @@
         <v>200</v>
       </c>
       <c r="P70" s="6">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
+      <c r="R70" s="6">
+        <v>1</v>
+      </c>
       <c r="S70" s="6"/>
       <c r="T70" s="6">
         <v>1000</v>
@@ -4720,45 +4695,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="1" spans="3:22">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+    <row r="71" customFormat="1" spans="1:22">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>2001006</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
+      <c r="F71" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0</v>
+      </c>
+      <c r="I71" s="6">
+        <v>1</v>
+      </c>
+      <c r="J71" s="6">
+        <v>2</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L71" s="10"/>
+      <c r="M71" s="6">
+        <v>0</v>
+      </c>
+      <c r="N71" s="6">
+        <v>0</v>
+      </c>
+      <c r="O71" s="6">
+        <v>0</v>
+      </c>
+      <c r="P71" s="6">
+        <v>0</v>
+      </c>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
+      <c r="T71" s="6">
+        <v>1000</v>
+      </c>
       <c r="U71" s="12"/>
-      <c r="V71" s="5"/>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="V71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="3:22">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="5"/>
+    </row>
+    <row r="73" customFormat="1" spans="1:22">
       <c r="A73" t="s">
         <v>0</v>
       </c>
       <c r="B73">
-        <v>2001021</v>
+        <v>2001008</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="F73" s="6">
+        <v>15003755</v>
+      </c>
       <c r="G73" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="6">
         <v>0</v>
@@ -4767,172 +4800,72 @@
         <v>0</v>
       </c>
       <c r="J73" s="6">
-        <v>1</v>
-      </c>
-      <c r="K73" s="6">
-        <v>3001011</v>
-      </c>
-      <c r="L73" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L73" s="10"/>
       <c r="M73" s="6">
         <v>0</v>
       </c>
       <c r="N73" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O73" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P73" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="6">
-        <v>1</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U73" s="12"/>
       <c r="V73" s="5">
         <v>0</v>
       </c>
-      <c r="W73">
-        <v>2601021</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74">
-        <v>2001022</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>128</v>
-      </c>
+    </row>
+    <row r="74" customFormat="1" spans="3:22">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G74" s="6">
-        <v>2</v>
-      </c>
-      <c r="H74" s="6">
-        <v>0</v>
-      </c>
-      <c r="I74" s="6">
-        <v>0</v>
-      </c>
-      <c r="J74" s="6">
-        <v>0</v>
-      </c>
-      <c r="K74" s="6">
-        <v>3001012</v>
-      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N74" s="6">
-        <v>1800</v>
-      </c>
-      <c r="O74" s="6">
-        <v>1800</v>
-      </c>
-      <c r="P74" s="6">
-        <v>2000</v>
-      </c>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
-      <c r="T74" s="6">
-        <v>267</v>
-      </c>
+      <c r="T74" s="6"/>
       <c r="U74" s="12"/>
-      <c r="V74" s="5">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75">
-        <v>2001023</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G75" s="6">
-        <v>0</v>
-      </c>
-      <c r="H75" s="6">
-        <v>0</v>
-      </c>
-      <c r="I75" s="6">
-        <v>0</v>
-      </c>
-      <c r="J75" s="6">
-        <v>2</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="L75" s="10"/>
-      <c r="M75" s="6">
-        <v>0</v>
-      </c>
-      <c r="N75" s="6">
-        <v>180</v>
-      </c>
-      <c r="O75" s="6">
-        <v>100</v>
-      </c>
-      <c r="P75" s="6">
-        <v>15000</v>
-      </c>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U75" s="12"/>
-      <c r="V75" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:23">
+      <c r="V74" s="5"/>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
         <v>0</v>
       </c>
       <c r="B76">
-        <v>2001024</v>
+        <v>2001021</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="E76" s="6"/>
-      <c r="F76" s="6">
-        <v>15003753</v>
-      </c>
+      <c r="F76" s="6"/>
       <c r="G76" s="6">
         <v>1</v>
       </c>
@@ -4945,12 +4878,12 @@
       <c r="J76" s="6">
         <v>1</v>
       </c>
-      <c r="K76" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L76" s="10"/>
+      <c r="K76" s="6">
+        <v>3001011</v>
+      </c>
+      <c r="L76" s="6"/>
       <c r="M76" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N76" s="6">
         <v>180</v>
@@ -4959,9 +4892,11 @@
         <v>100</v>
       </c>
       <c r="P76" s="6">
-        <v>3000</v>
-      </c>
-      <c r="Q76" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="6">
+        <v>1</v>
+      </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6">
@@ -4972,28 +4907,28 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
+        <v>2601021</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
         <v>0</v>
       </c>
       <c r="B77">
-        <v>2001025</v>
+        <v>2001022</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6">
-        <v>15003754</v>
+        <v>15003751</v>
       </c>
       <c r="G77" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="6">
         <v>0</v>
@@ -5002,53 +4937,54 @@
         <v>0</v>
       </c>
       <c r="J77" s="6">
-        <v>1</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="L77" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="6">
+        <v>3001012</v>
+      </c>
+      <c r="L77" s="6"/>
       <c r="M77" s="6">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N77" s="6">
-        <v>180</v>
+        <v>1800</v>
       </c>
       <c r="O77" s="6">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="P77" s="6">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="Q77" s="6"/>
-      <c r="R77" s="6">
-        <v>1</v>
-      </c>
+      <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6">
-        <v>2667</v>
+        <v>267</v>
       </c>
       <c r="U77" s="12"/>
       <c r="V77" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:22">
+      <c r="W77">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
         <v>0</v>
       </c>
       <c r="B78">
-        <v>2001026</v>
+        <v>2001023</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G78" s="6">
         <v>0</v>
@@ -5057,25 +4993,27 @@
         <v>0</v>
       </c>
       <c r="I78" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="6">
         <v>2</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="6">
         <v>0</v>
       </c>
       <c r="N78" s="6">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O78" s="6">
-        <v>0</v>
-      </c>
-      <c r="P78" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="P78" s="6">
+        <v>15000</v>
+      </c>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
@@ -5084,140 +5022,206 @@
       </c>
       <c r="U78" s="12"/>
       <c r="V78" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" s="2" customFormat="1" spans="1:23">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="6"/>
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:23">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>2001024</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G79" s="6">
+        <v>1</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0</v>
+      </c>
+      <c r="I79" s="6">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
+        <v>1</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L79" s="10"/>
+      <c r="M79" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N79" s="6">
+        <v>180</v>
+      </c>
+      <c r="O79" s="6">
+        <v>100</v>
+      </c>
+      <c r="P79" s="6">
+        <v>3000</v>
+      </c>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6">
+        <v>2667</v>
+      </c>
       <c r="U79" s="12"/>
-      <c r="V79" s="5"/>
-      <c r="W79"/>
-    </row>
-    <row r="80" ht="12" customHeight="1" spans="3:21">
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="V79" s="5">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>2001025</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
+      <c r="F80" s="6">
+        <v>15003754</v>
+      </c>
+      <c r="G80" s="6">
+        <v>1</v>
+      </c>
+      <c r="H80" s="6">
+        <v>0</v>
+      </c>
+      <c r="I80" s="6">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6">
+        <v>1</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="L80" s="10"/>
+      <c r="M80" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N80" s="6">
+        <v>180</v>
+      </c>
+      <c r="O80" s="6">
+        <v>100</v>
+      </c>
+      <c r="P80" s="6">
+        <v>25000</v>
+      </c>
       <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
+      <c r="R80" s="6">
+        <v>1</v>
+      </c>
       <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
+      <c r="T80" s="6">
+        <v>2667</v>
+      </c>
       <c r="U80" s="12"/>
-    </row>
-    <row r="81" customFormat="1" spans="1:24">
+      <c r="V80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:22">
       <c r="A81" t="s">
         <v>0</v>
       </c>
       <c r="B81">
-        <v>2001050</v>
+        <v>2001026</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6">
-        <v>15003753</v>
+        <v>15003755</v>
       </c>
       <c r="G81" s="6">
+        <v>0</v>
+      </c>
+      <c r="H81" s="6">
+        <v>0</v>
+      </c>
+      <c r="I81" s="6">
+        <v>1</v>
+      </c>
+      <c r="J81" s="6">
         <v>2</v>
       </c>
-      <c r="H81" s="6">
-        <v>1</v>
-      </c>
-      <c r="I81" s="6">
-        <v>0</v>
-      </c>
-      <c r="J81" s="6">
-        <v>0</v>
-      </c>
-      <c r="K81" s="6">
-        <v>16001010</v>
-      </c>
-      <c r="L81" s="6"/>
+      <c r="K81" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L81" s="10"/>
       <c r="M81" s="6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N81" s="6">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="O81" s="6">
         <v>0</v>
       </c>
-      <c r="P81" s="6">
-        <v>600</v>
-      </c>
+      <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="U81" s="12"/>
       <c r="V81" s="5">
         <v>0</v>
       </c>
-      <c r="W81">
-        <v>2601050</v>
-      </c>
-      <c r="X81">
-        <v>2500005</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="3:22">
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
+    </row>
+    <row r="82" s="2" customFormat="1" spans="1:23">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
       <c r="T82" s="6"/>
       <c r="U82" s="12"/>
       <c r="V82" s="5"/>
-    </row>
-    <row r="83" customFormat="1" spans="3:22">
+      <c r="W82"/>
+    </row>
+    <row r="83" ht="12" customHeight="1" spans="3:21">
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -5237,29 +5241,68 @@
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
       <c r="U83" s="12"/>
-      <c r="V83" s="5"/>
-    </row>
-    <row r="84" customFormat="1" spans="3:22">
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+    </row>
+    <row r="84" customFormat="1" spans="1:24">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>2001050</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
+      <c r="F84" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G84" s="6">
+        <v>2</v>
+      </c>
+      <c r="H84" s="6">
+        <v>1</v>
+      </c>
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0</v>
+      </c>
+      <c r="K84" s="6">
+        <v>16001010</v>
+      </c>
       <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
+      <c r="M84" s="6">
+        <v>10000</v>
+      </c>
+      <c r="N84" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O84" s="6">
+        <v>0</v>
+      </c>
+      <c r="P84" s="6">
+        <v>600</v>
+      </c>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
+      <c r="T84" s="6">
+        <v>1000</v>
+      </c>
       <c r="U84" s="12"/>
-      <c r="V84" s="5"/>
+      <c r="V84" s="5">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>2601050</v>
+      </c>
+      <c r="X84">
+        <v>2500005</v>
+      </c>
     </row>
     <row r="85" customFormat="1" spans="3:22">
       <c r="C85" s="6"/>
@@ -5283,157 +5326,86 @@
       <c r="U85" s="12"/>
       <c r="V85" s="5"/>
     </row>
-    <row r="86" s="3" customFormat="1" spans="20:22">
+    <row r="86" customFormat="1" spans="3:22">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
       <c r="T86" s="6"/>
-      <c r="U86" s="5"/>
+      <c r="U86" s="12"/>
       <c r="V86" s="5"/>
     </row>
-    <row r="87" spans="20:20">
+    <row r="87" customFormat="1" spans="3:22">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
       <c r="T87" s="6"/>
-    </row>
-    <row r="88" spans="1:22">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88">
-        <v>2002001</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>142</v>
-      </c>
+      <c r="U87" s="12"/>
+      <c r="V87" s="5"/>
+    </row>
+    <row r="88" customFormat="1" spans="3:22">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="6">
-        <v>1</v>
-      </c>
-      <c r="H88" s="6">
-        <v>0</v>
-      </c>
-      <c r="I88" s="6">
-        <v>0</v>
-      </c>
-      <c r="J88" s="6">
-        <v>1</v>
-      </c>
-      <c r="K88" s="6">
-        <v>3002001</v>
-      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="6">
-        <v>0</v>
-      </c>
-      <c r="N88" s="6">
-        <v>300</v>
-      </c>
-      <c r="O88" s="6">
-        <v>300</v>
-      </c>
-      <c r="P88" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="6">
-        <v>1</v>
-      </c>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
-      <c r="T88" s="6">
-        <v>1540</v>
-      </c>
+      <c r="T88" s="6"/>
       <c r="U88" s="12"/>
-      <c r="V88" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89">
-        <v>2002002</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G89" s="6">
-        <v>2</v>
-      </c>
-      <c r="H89" s="6">
-        <v>0</v>
-      </c>
-      <c r="I89" s="6">
-        <v>0</v>
-      </c>
-      <c r="J89" s="6">
-        <v>2</v>
-      </c>
-      <c r="K89" s="6">
-        <v>13002030</v>
-      </c>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6">
-        <v>4000</v>
-      </c>
-      <c r="N89" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O89" s="6">
-        <v>700</v>
-      </c>
-      <c r="P89" s="6">
-        <v>6500</v>
-      </c>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6">
-        <v>340</v>
-      </c>
-      <c r="U89" s="12"/>
-      <c r="V89" s="5">
-        <v>0</v>
-      </c>
-      <c r="X89">
-        <v>2500010</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="3:22">
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
+      <c r="V88" s="5"/>
+    </row>
+    <row r="89" s="3" customFormat="1" spans="20:22">
+      <c r="T89" s="6"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+    </row>
+    <row r="90" spans="20:20">
       <c r="T90" s="6"/>
-      <c r="U90" s="12"/>
-      <c r="V90" s="5"/>
-    </row>
-    <row r="91" customFormat="1" spans="1:22">
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" t="s">
         <v>0</v>
       </c>
       <c r="B91">
-        <v>2002011</v>
+        <v>2002001</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>145</v>
@@ -5456,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="6">
-        <v>3002011</v>
+        <v>3002001</v>
       </c>
       <c r="L91" s="6"/>
       <c r="M91" s="6">
@@ -5466,7 +5438,7 @@
         <v>300</v>
       </c>
       <c r="O91" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P91" s="6">
         <v>0</v>
@@ -5477,29 +5449,29 @@
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6">
-        <v>1400</v>
+        <v>1540</v>
       </c>
       <c r="U91" s="12"/>
       <c r="V91" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="1" spans="1:24">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
         <v>0</v>
       </c>
       <c r="B92">
-        <v>2002012</v>
+        <v>2002002</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>146</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6">
-        <v>15003751</v>
+        <v>15003753</v>
       </c>
       <c r="G92" s="6">
         <v>2</v>
@@ -5511,42 +5483,40 @@
         <v>0</v>
       </c>
       <c r="J92" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K92" s="6">
-        <v>3002012</v>
+        <v>13002030</v>
       </c>
       <c r="L92" s="6"/>
       <c r="M92" s="6">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N92" s="6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="O92" s="6">
         <v>700</v>
       </c>
       <c r="P92" s="6">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
       <c r="T92" s="6">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="U92" s="12"/>
       <c r="V92" s="5">
         <v>0</v>
       </c>
-      <c r="W92">
-        <v>2602012</v>
-      </c>
       <c r="X92">
-        <v>2500011</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="4:22">
+        <v>2500010</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="3:22">
+      <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -5554,6 +5524,8 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
@@ -5565,42 +5537,81 @@
       <c r="U93" s="12"/>
       <c r="V93" s="5"/>
     </row>
-    <row r="94" customFormat="1" spans="4:22">
-      <c r="D94" s="6"/>
+    <row r="94" customFormat="1" spans="1:22">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>2002011</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
+      <c r="G94" s="6">
+        <v>1</v>
+      </c>
+      <c r="H94" s="6">
+        <v>0</v>
+      </c>
+      <c r="I94" s="6">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6">
+        <v>1</v>
+      </c>
+      <c r="K94" s="6">
+        <v>3002011</v>
+      </c>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6">
+        <v>0</v>
+      </c>
+      <c r="N94" s="6">
+        <v>300</v>
+      </c>
+      <c r="O94" s="6">
+        <v>200</v>
+      </c>
+      <c r="P94" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="6">
+        <v>1</v>
+      </c>
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
+      <c r="T94" s="6">
+        <v>1400</v>
+      </c>
       <c r="U94" s="12"/>
-      <c r="V94" s="5"/>
-    </row>
-    <row r="95" customFormat="1" spans="1:23">
+      <c r="V94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:24">
       <c r="A95" t="s">
         <v>0</v>
       </c>
       <c r="B95">
-        <v>2003001</v>
-      </c>
-      <c r="C95" t="s">
-        <v>147</v>
+        <v>2002012</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
+      <c r="F95" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G95" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" s="6">
         <v>0</v>
@@ -5609,466 +5620,564 @@
         <v>0</v>
       </c>
       <c r="J95" s="6">
-        <v>1</v>
-      </c>
-      <c r="K95">
-        <v>3003001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K95" s="6">
+        <v>3002012</v>
+      </c>
+      <c r="L95" s="6"/>
       <c r="M95" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N95" s="6">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="O95" s="6">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="P95" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="6">
-        <v>1</v>
-      </c>
+        <v>7000</v>
+      </c>
+      <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
       <c r="T95" s="6">
-        <v>1540</v>
+        <v>420</v>
       </c>
       <c r="U95" s="12"/>
       <c r="V95" s="5">
         <v>0</v>
       </c>
       <c r="W95">
+        <v>2602012</v>
+      </c>
+      <c r="X95">
+        <v>2500011</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="4:22">
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="5"/>
+    </row>
+    <row r="97" customFormat="1" spans="4:22">
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="5"/>
+    </row>
+    <row r="98" customFormat="1" spans="1:23">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>2003001</v>
+      </c>
+      <c r="C98" t="s">
+        <v>150</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0</v>
+      </c>
+      <c r="J98" s="6">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>3003001</v>
+      </c>
+      <c r="M98" s="6">
+        <v>0</v>
+      </c>
+      <c r="N98" s="6">
+        <v>300</v>
+      </c>
+      <c r="O98" s="6">
+        <v>300</v>
+      </c>
+      <c r="P98" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="6">
+        <v>1</v>
+      </c>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6">
+        <v>1540</v>
+      </c>
+      <c r="U98" s="12"/>
+      <c r="V98" s="5">
+        <v>0</v>
+      </c>
+      <c r="W98">
         <v>2603001</v>
       </c>
     </row>
-    <row r="96" s="4" customFormat="1" spans="1:23">
-      <c r="A96" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="4">
+    <row r="99" s="4" customFormat="1" spans="1:23">
+      <c r="A99" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="4">
         <v>2003002</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14">
+      <c r="C99" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14">
         <v>15003751</v>
       </c>
-      <c r="G96" s="14">
+      <c r="G99" s="14">
         <v>2</v>
       </c>
-      <c r="H96" s="14">
-        <v>0</v>
-      </c>
-      <c r="I96" s="14">
-        <v>0</v>
-      </c>
-      <c r="J96" s="14">
+      <c r="H99" s="14">
+        <v>0</v>
+      </c>
+      <c r="I99" s="14">
+        <v>0</v>
+      </c>
+      <c r="J99" s="14">
         <v>1</v>
       </c>
-      <c r="K96" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="L96" s="16"/>
-      <c r="M96" s="14">
+      <c r="K99" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L99" s="16"/>
+      <c r="M99" s="14">
         <v>8000</v>
       </c>
-      <c r="N96" s="14">
+      <c r="N99" s="14">
         <v>600</v>
       </c>
-      <c r="O96" s="14">
-        <v>0</v>
-      </c>
-      <c r="P96" s="14">
+      <c r="O99" s="14">
+        <v>0</v>
+      </c>
+      <c r="P99" s="14">
         <v>2000</v>
       </c>
-      <c r="Q96" s="14"/>
-      <c r="R96" s="14"/>
-      <c r="S96" s="14"/>
-      <c r="T96" s="6">
+      <c r="Q99" s="14"/>
+      <c r="R99" s="14"/>
+      <c r="S99" s="14"/>
+      <c r="T99" s="6">
         <v>1000</v>
       </c>
-      <c r="U96" s="14"/>
-      <c r="V96" s="5">
-        <v>0</v>
-      </c>
-      <c r="W96" s="4">
+      <c r="U99" s="14"/>
+      <c r="V99" s="5">
+        <v>0</v>
+      </c>
+      <c r="W99" s="4">
         <v>2603002</v>
       </c>
     </row>
-    <row r="97" s="4" customFormat="1" spans="1:23">
-      <c r="A97" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="4">
+    <row r="100" s="4" customFormat="1" spans="1:23">
+      <c r="A100" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="4">
         <v>2003003</v>
       </c>
-      <c r="C97" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14">
+      <c r="C100" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14">
         <v>15003753</v>
       </c>
-      <c r="G97" s="14">
-        <v>0</v>
-      </c>
-      <c r="H97" s="14">
-        <v>0</v>
-      </c>
-      <c r="I97" s="14">
-        <v>0</v>
-      </c>
-      <c r="J97" s="14">
+      <c r="G100" s="14">
+        <v>0</v>
+      </c>
+      <c r="H100" s="14">
+        <v>0</v>
+      </c>
+      <c r="I100" s="14">
+        <v>0</v>
+      </c>
+      <c r="J100" s="14">
         <v>2</v>
       </c>
-      <c r="K97" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="L97" s="16"/>
-      <c r="M97" s="14">
-        <v>0</v>
-      </c>
-      <c r="N97" s="14">
+      <c r="K100" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L100" s="16"/>
+      <c r="M100" s="14">
+        <v>0</v>
+      </c>
+      <c r="N100" s="14">
         <v>50</v>
       </c>
-      <c r="O97" s="14">
-        <v>0</v>
-      </c>
-      <c r="P97" s="14">
+      <c r="O100" s="14">
+        <v>0</v>
+      </c>
+      <c r="P100" s="14">
         <v>6000</v>
       </c>
-      <c r="Q97" s="14"/>
-      <c r="R97" s="14"/>
-      <c r="S97" s="14"/>
-      <c r="T97" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U97" s="14"/>
-      <c r="V97" s="5">
-        <v>15008005</v>
-      </c>
-      <c r="W97" s="4">
-        <v>2603003</v>
-      </c>
-    </row>
-    <row r="98" s="4" customFormat="1" spans="1:23">
-      <c r="A98" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="4">
-        <v>2003004</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14">
-        <v>15003754</v>
-      </c>
-      <c r="G98" s="14">
-        <v>2</v>
-      </c>
-      <c r="H98" s="14">
-        <v>1</v>
-      </c>
-      <c r="I98" s="14">
-        <v>0</v>
-      </c>
-      <c r="J98" s="14">
-        <v>0</v>
-      </c>
-      <c r="K98" s="14">
-        <v>16001001</v>
-      </c>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14">
-        <v>8000</v>
-      </c>
-      <c r="N98" s="14">
-        <v>0</v>
-      </c>
-      <c r="O98" s="14">
-        <v>0</v>
-      </c>
-      <c r="P98" s="14">
-        <v>1500</v>
-      </c>
-      <c r="Q98" s="14"/>
-      <c r="R98" s="14"/>
-      <c r="S98" s="14"/>
-      <c r="T98" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U98" s="14"/>
-      <c r="V98" s="5">
-        <v>0</v>
-      </c>
-      <c r="W98" s="4">
-        <v>2603004</v>
-      </c>
-    </row>
-    <row r="99" spans="20:20">
-      <c r="T99" s="6"/>
-    </row>
-    <row r="100" customFormat="1" spans="1:23">
-      <c r="A100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100">
-        <v>2003050</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G100" s="6">
-        <v>0</v>
-      </c>
-      <c r="H100" s="6">
-        <v>0</v>
-      </c>
-      <c r="I100" s="6">
-        <v>1</v>
-      </c>
-      <c r="J100" s="6">
-        <v>2</v>
-      </c>
-      <c r="K100" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="L100" s="10"/>
-      <c r="M100" s="6">
-        <v>0</v>
-      </c>
-      <c r="N100" s="6">
-        <v>0</v>
-      </c>
-      <c r="O100" s="6">
-        <v>0</v>
-      </c>
-      <c r="P100" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="6">
-        <v>1</v>
-      </c>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
+      <c r="Q100" s="14"/>
+      <c r="R100" s="14"/>
+      <c r="S100" s="14"/>
       <c r="T100" s="6">
         <v>1000</v>
       </c>
-      <c r="U100" s="12"/>
+      <c r="U100" s="14"/>
       <c r="V100" s="5">
-        <v>0</v>
-      </c>
-      <c r="W100">
-        <v>2603050</v>
-      </c>
-    </row>
-    <row r="101" customFormat="1" spans="1:23">
-      <c r="A101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101">
-        <v>2003051</v>
-      </c>
-      <c r="C101" s="6" t="s">
+        <v>15008005</v>
+      </c>
+      <c r="W100" s="4">
+        <v>2603003</v>
+      </c>
+    </row>
+    <row r="101" s="4" customFormat="1" spans="1:23">
+      <c r="A101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="4">
+        <v>2003004</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D101" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G101" s="6">
-        <v>0</v>
-      </c>
-      <c r="H101" s="6">
-        <v>0</v>
-      </c>
-      <c r="I101" s="6">
+      <c r="E101" s="14"/>
+      <c r="F101" s="14">
+        <v>15003754</v>
+      </c>
+      <c r="G101" s="14">
+        <v>2</v>
+      </c>
+      <c r="H101" s="14">
         <v>1</v>
       </c>
-      <c r="J101" s="6">
-        <v>2</v>
-      </c>
-      <c r="K101" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="L101" s="10"/>
-      <c r="M101" s="6">
-        <v>0</v>
-      </c>
-      <c r="N101" s="6">
-        <v>0</v>
-      </c>
-      <c r="O101" s="6">
-        <v>0</v>
-      </c>
-      <c r="P101" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
+      <c r="I101" s="14">
+        <v>0</v>
+      </c>
+      <c r="J101" s="14">
+        <v>0</v>
+      </c>
+      <c r="K101" s="14">
+        <v>16001001</v>
+      </c>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14">
+        <v>8000</v>
+      </c>
+      <c r="N101" s="14">
+        <v>0</v>
+      </c>
+      <c r="O101" s="14">
+        <v>0</v>
+      </c>
+      <c r="P101" s="14">
+        <v>1500</v>
+      </c>
+      <c r="Q101" s="14"/>
+      <c r="R101" s="14"/>
+      <c r="S101" s="14"/>
       <c r="T101" s="6">
         <v>1000</v>
       </c>
-      <c r="U101" s="12"/>
+      <c r="U101" s="14"/>
       <c r="V101" s="5">
         <v>0</v>
       </c>
-      <c r="W101">
+      <c r="W101" s="4">
+        <v>2603004</v>
+      </c>
+    </row>
+    <row r="102" spans="20:20">
+      <c r="T102" s="6"/>
+    </row>
+    <row r="103" customFormat="1" spans="1:23">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>2003050</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G103" s="6">
+        <v>0</v>
+      </c>
+      <c r="H103" s="6">
+        <v>0</v>
+      </c>
+      <c r="I103" s="6">
+        <v>1</v>
+      </c>
+      <c r="J103" s="6">
+        <v>2</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L103" s="10"/>
+      <c r="M103" s="6">
+        <v>0</v>
+      </c>
+      <c r="N103" s="6">
+        <v>0</v>
+      </c>
+      <c r="O103" s="6">
+        <v>0</v>
+      </c>
+      <c r="P103" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="6">
+        <v>1</v>
+      </c>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U103" s="12"/>
+      <c r="V103" s="5">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>2603050</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:23">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>2003051</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G104" s="6">
+        <v>0</v>
+      </c>
+      <c r="H104" s="6">
+        <v>0</v>
+      </c>
+      <c r="I104" s="6">
+        <v>1</v>
+      </c>
+      <c r="J104" s="6">
+        <v>2</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L104" s="10"/>
+      <c r="M104" s="6">
+        <v>0</v>
+      </c>
+      <c r="N104" s="6">
+        <v>0</v>
+      </c>
+      <c r="O104" s="6">
+        <v>0</v>
+      </c>
+      <c r="P104" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U104" s="12"/>
+      <c r="V104" s="5">
+        <v>0</v>
+      </c>
+      <c r="W104">
         <v>2603051</v>
       </c>
     </row>
-    <row r="102" customFormat="1" spans="1:24">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102">
+    <row r="105" customFormat="1" spans="1:24">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105">
         <v>2003052</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6">
+      <c r="C105" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6">
         <v>15003753</v>
       </c>
-      <c r="G102" s="6">
-        <v>0</v>
-      </c>
-      <c r="H102" s="6">
-        <v>0</v>
-      </c>
-      <c r="I102" s="6">
-        <v>0</v>
-      </c>
-      <c r="J102" s="6">
-        <v>0</v>
-      </c>
-      <c r="K102" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="L102" s="10"/>
-      <c r="M102" s="6">
-        <v>0</v>
-      </c>
-      <c r="N102" s="6">
+      <c r="G105" s="6">
+        <v>0</v>
+      </c>
+      <c r="H105" s="6">
+        <v>0</v>
+      </c>
+      <c r="I105" s="6">
+        <v>0</v>
+      </c>
+      <c r="J105" s="6">
+        <v>0</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L105" s="10"/>
+      <c r="M105" s="6">
+        <v>0</v>
+      </c>
+      <c r="N105" s="6">
         <v>1500</v>
       </c>
-      <c r="O102" s="6">
+      <c r="O105" s="6">
         <v>700</v>
       </c>
-      <c r="P102" s="6">
+      <c r="P105" s="6">
         <v>12000</v>
       </c>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
-      <c r="T102" s="6">
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6">
         <v>340</v>
       </c>
-      <c r="U102" s="12"/>
-      <c r="V102" s="5">
+      <c r="U105" s="12"/>
+      <c r="V105" s="5">
         <v>15008014</v>
       </c>
-      <c r="W102">
+      <c r="W105">
         <v>2603052</v>
       </c>
-      <c r="X102">
+      <c r="X105">
         <v>2500020</v>
       </c>
     </row>
-    <row r="103" spans="20:20">
-      <c r="T103" s="6"/>
-    </row>
-    <row r="106" spans="16:16">
-      <c r="P106" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23">
-      <c r="A107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107">
+    <row r="106" spans="20:20">
+      <c r="T106" s="6"/>
+    </row>
+    <row r="109" spans="16:16">
+      <c r="P109" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110">
         <v>2005001</v>
       </c>
-      <c r="C107" t="s">
-        <v>163</v>
-      </c>
-      <c r="D107" t="s">
-        <v>164</v>
-      </c>
-      <c r="F107" s="6">
+      <c r="C110" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" t="s">
+        <v>167</v>
+      </c>
+      <c r="F110" s="6">
         <v>15003753</v>
       </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107" s="6">
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" s="6">
         <v>2</v>
       </c>
-      <c r="I107" s="6">
-        <v>0</v>
-      </c>
-      <c r="J107" s="6">
-        <v>0</v>
-      </c>
-      <c r="K107" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="L107" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M107" s="6">
-        <v>0</v>
-      </c>
-      <c r="N107" s="6">
-        <v>0</v>
-      </c>
-      <c r="O107" s="6">
-        <v>0</v>
-      </c>
-      <c r="P107" s="6">
+      <c r="I110" s="6">
+        <v>0</v>
+      </c>
+      <c r="J110" s="6">
+        <v>0</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="M110" s="6">
+        <v>0</v>
+      </c>
+      <c r="N110" s="6">
+        <v>0</v>
+      </c>
+      <c r="O110" s="6">
+        <v>0</v>
+      </c>
+      <c r="P110" s="6">
         <v>2000</v>
       </c>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="6"/>
-      <c r="T107" s="6">
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6">
         <v>1000</v>
       </c>
-      <c r="U107" s="12"/>
-      <c r="V107" s="5">
+      <c r="U110" s="12"/>
+      <c r="V110" s="5">
         <v>15008014</v>
       </c>
-      <c r="W107">
+      <c r="W110">
         <v>2605001</v>
       </c>
     </row>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="174">
   <si>
     <t>#</t>
   </si>
@@ -495,6 +495,18 @@
   </si>
   <si>
     <t>14100601,14100602</t>
+  </si>
+  <si>
+    <t>攻击力增加测试</t>
+  </si>
+  <si>
+    <t>14100603</t>
+  </si>
+  <si>
+    <t>护甲增加测试</t>
+  </si>
+  <si>
+    <t>14100604</t>
   </si>
   <si>
     <t>道具技能（待定）</t>
@@ -1721,10 +1733,10 @@
   <sheetPr/>
   <dimension ref="A1:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K44" sqref="K44"/>
+      <selection pane="topRight" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4196,47 +4208,121 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="58" spans="3:21">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="6"/>
+    <row r="58" customFormat="1" spans="1:22">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>2100702</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
+        <v>2</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="6">
+        <v>0</v>
+      </c>
+      <c r="N58" s="6">
+        <v>466</v>
+      </c>
+      <c r="O58" s="6">
+        <v>200</v>
+      </c>
+      <c r="P58" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
+      <c r="T58" s="6">
+        <v>1000</v>
+      </c>
       <c r="U58" s="12"/>
-    </row>
-    <row r="59" spans="3:21">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="6"/>
+      <c r="V58" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:22">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>2100703</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <v>2</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="6">
+        <v>0</v>
+      </c>
+      <c r="N59" s="6">
+        <v>466</v>
+      </c>
+      <c r="O59" s="6">
+        <v>200</v>
+      </c>
+      <c r="P59" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
+      <c r="T59" s="6">
+        <v>1000</v>
+      </c>
       <c r="U59" s="12"/>
+      <c r="V59" s="5">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="60" spans="3:21">
       <c r="C60" s="6"/>
@@ -4267,7 +4353,7 @@
         <v>2500001</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6">
@@ -4417,10 +4503,10 @@
         <v>2001002</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="6"/>
@@ -4474,10 +4560,10 @@
         <v>2001002</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6">
@@ -4530,10 +4616,10 @@
         <v>2001003</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6">
@@ -4552,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="6">
@@ -4586,10 +4672,10 @@
         <v>2001004</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6">
@@ -4645,10 +4731,10 @@
         <v>2001005</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6">
@@ -4667,7 +4753,7 @@
         <v>2</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="6">
@@ -4703,10 +4789,10 @@
         <v>2001006</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6">
@@ -4725,7 +4811,7 @@
         <v>2</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="6">
@@ -4781,10 +4867,10 @@
         <v>2001008</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6">
@@ -4803,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="6">
@@ -4918,10 +5004,10 @@
         <v>2001022</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6">
@@ -4977,10 +5063,10 @@
         <v>2001023</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6">
@@ -4999,7 +5085,7 @@
         <v>2</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="6">
@@ -5033,10 +5119,10 @@
         <v>2001024</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6">
@@ -5055,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="6">
@@ -5092,10 +5178,10 @@
         <v>2001025</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6">
@@ -5114,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="6">
@@ -5150,10 +5236,10 @@
         <v>2001026</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6">
@@ -5172,7 +5258,7 @@
         <v>2</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="6">
@@ -5250,10 +5336,10 @@
         <v>2001050</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6">
@@ -5408,10 +5494,10 @@
         <v>2002001</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -5464,10 +5550,10 @@
         <v>2002002</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6">
@@ -5545,10 +5631,10 @@
         <v>2002011</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -5601,10 +5687,10 @@
         <v>2002012</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6">
@@ -5701,10 +5787,10 @@
         <v>2003001</v>
       </c>
       <c r="C98" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -5759,10 +5845,10 @@
         <v>2003002</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="14">
@@ -5781,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L99" s="16"/>
       <c r="M99" s="14">
@@ -5818,10 +5904,10 @@
         <v>2003003</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="14">
@@ -5840,7 +5926,7 @@
         <v>2</v>
       </c>
       <c r="K100" s="16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L100" s="16"/>
       <c r="M100" s="14">
@@ -5877,10 +5963,10 @@
         <v>2003004</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="14">
@@ -5939,10 +6025,10 @@
         <v>2003050</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6">
@@ -5961,7 +6047,7 @@
         <v>2</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="6">
@@ -6000,10 +6086,10 @@
         <v>2003051</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6">
@@ -6022,7 +6108,7 @@
         <v>2</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="6">
@@ -6059,10 +6145,10 @@
         <v>2003052</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6">
@@ -6081,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L105" s="10"/>
       <c r="M105" s="6">
@@ -6118,7 +6204,7 @@
     </row>
     <row r="109" spans="16:16">
       <c r="P109" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -6129,10 +6215,10 @@
         <v>2005001</v>
       </c>
       <c r="C110" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D110" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F110" s="6">
         <v>15003753</v>
@@ -6150,10 +6236,10 @@
         <v>0</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M110" s="6">
         <v>0</v>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14910" windowHeight="12000"/>
+    <workbookView windowWidth="17565" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="173">
   <si>
     <t>#</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>周围击退，造成伤害</t>
-  </si>
-  <si>
-    <t>13100101</t>
   </si>
   <si>
     <t>周围击退lv2</t>
@@ -1733,10 +1730,10 @@
   <sheetPr/>
   <dimension ref="A1:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K56" sqref="K56"/>
+      <selection pane="topRight" activeCell="E33" sqref="E33:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2445,7 +2442,7 @@
         <v>400</v>
       </c>
       <c r="P19" s="6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -2506,7 +2503,7 @@
         <v>400</v>
       </c>
       <c r="P20" s="6">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -2628,7 +2625,7 @@
         <v>400</v>
       </c>
       <c r="P22" s="6">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -2689,7 +2686,7 @@
         <v>400</v>
       </c>
       <c r="P23" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -2779,8 +2776,8 @@
       <c r="J26" s="6">
         <v>0</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>68</v>
+      <c r="K26" s="6">
+        <v>13100101</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="6">
@@ -2814,7 +2811,7 @@
         <v>2100202</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>67</v>
@@ -2838,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="6">
@@ -2867,10 +2864,10 @@
         <v>2100203</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="E28" s="6">
         <v>3</v>
@@ -2891,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="6">
@@ -2920,10 +2917,10 @@
         <v>2100204</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="6">
         <v>4</v>
@@ -2944,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="6">
@@ -2973,10 +2970,10 @@
         <v>2100205</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="E30" s="6">
         <v>5</v>
@@ -2997,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="6">
@@ -3068,12 +3065,14 @@
         <v>2100301</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
       <c r="F33" s="6">
         <v>15003755</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="6">
@@ -3122,12 +3121,14 @@
         <v>2100302</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="E34" s="6">
+        <v>2</v>
+      </c>
       <c r="F34" s="6">
         <v>15003755</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="6">
@@ -3176,12 +3177,14 @@
         <v>2100303</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="6">
+        <v>3</v>
+      </c>
       <c r="F35" s="6">
         <v>15003755</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="6">
@@ -3230,12 +3233,14 @@
         <v>2100304</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4</v>
+      </c>
       <c r="F36" s="6">
         <v>15003755</v>
       </c>
@@ -3252,7 +3257,7 @@
         <v>2</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="6">
@@ -3284,12 +3289,14 @@
         <v>2100305</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="6">
+        <v>5</v>
+      </c>
       <c r="F37" s="6">
         <v>15003755</v>
       </c>
@@ -3306,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="6">
@@ -3380,10 +3387,10 @@
         <v>2100401</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
@@ -3436,10 +3443,10 @@
         <v>2100402</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="6">
         <v>2</v>
@@ -3492,10 +3499,10 @@
         <v>2100403</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="E42" s="6">
         <v>3</v>
@@ -3516,7 +3523,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="6">
@@ -3550,10 +3557,10 @@
         <v>2100404</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" s="6">
         <v>4</v>
@@ -3608,10 +3615,10 @@
         <v>2100405</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="E44" s="6">
         <v>5</v>
@@ -3632,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="6">
@@ -3708,10 +3715,10 @@
         <v>2100501</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
@@ -3732,7 +3739,7 @@
         <v>11</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="6">
@@ -3769,10 +3776,10 @@
         <v>2100502</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E48" s="6">
         <v>2</v>
@@ -3793,7 +3800,7 @@
         <v>11</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="6">
@@ -3830,10 +3837,10 @@
         <v>2100503</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E49" s="6">
         <v>3</v>
@@ -3854,7 +3861,7 @@
         <v>11</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="6">
@@ -3891,10 +3898,10 @@
         <v>2100504</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" s="6">
         <v>4</v>
@@ -3915,7 +3922,7 @@
         <v>11</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="6">
@@ -3952,10 +3959,10 @@
         <v>2100505</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" s="6">
         <v>5</v>
@@ -3976,7 +3983,7 @@
         <v>11</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="6">
@@ -4055,10 +4062,10 @@
         <v>2100601</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -4079,7 +4086,7 @@
         <v>11</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="6">
@@ -4158,10 +4165,10 @@
         <v>2100701</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
@@ -4182,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="6">
@@ -4216,10 +4223,10 @@
         <v>2100702</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
@@ -4240,7 +4247,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="6">
@@ -4274,10 +4281,10 @@
         <v>2100703</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
@@ -4298,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="6">
@@ -4353,7 +4360,7 @@
         <v>2500001</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6">
@@ -4503,10 +4510,10 @@
         <v>2001002</v>
       </c>
       <c r="C66" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="6"/>
@@ -4560,10 +4567,10 @@
         <v>2001002</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6">
@@ -4616,10 +4623,10 @@
         <v>2001003</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6">
@@ -4638,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="6">
@@ -4672,10 +4679,10 @@
         <v>2001004</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6">
@@ -4731,10 +4738,10 @@
         <v>2001005</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6">
@@ -4753,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="6">
@@ -4789,10 +4796,10 @@
         <v>2001006</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6">
@@ -4811,7 +4818,7 @@
         <v>2</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="6">
@@ -4867,10 +4874,10 @@
         <v>2001008</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6">
@@ -4889,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="6">
@@ -5004,10 +5011,10 @@
         <v>2001022</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6">
@@ -5063,10 +5070,10 @@
         <v>2001023</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6">
@@ -5085,7 +5092,7 @@
         <v>2</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="6">
@@ -5119,10 +5126,10 @@
         <v>2001024</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6">
@@ -5141,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="6">
@@ -5178,10 +5185,10 @@
         <v>2001025</v>
       </c>
       <c r="C80" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6">
@@ -5200,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="6">
@@ -5236,10 +5243,10 @@
         <v>2001026</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6">
@@ -5258,7 +5265,7 @@
         <v>2</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="6">
@@ -5336,10 +5343,10 @@
         <v>2001050</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6">
@@ -5494,10 +5501,10 @@
         <v>2002001</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -5550,10 +5557,10 @@
         <v>2002002</v>
       </c>
       <c r="C92" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6">
@@ -5631,10 +5638,10 @@
         <v>2002011</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -5687,10 +5694,10 @@
         <v>2002012</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6">
@@ -5787,10 +5794,10 @@
         <v>2003001</v>
       </c>
       <c r="C98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -5845,10 +5852,10 @@
         <v>2003002</v>
       </c>
       <c r="C99" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="14">
@@ -5867,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L99" s="16"/>
       <c r="M99" s="14">
@@ -5904,10 +5911,10 @@
         <v>2003003</v>
       </c>
       <c r="C100" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>159</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="14">
@@ -5926,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="K100" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L100" s="16"/>
       <c r="M100" s="14">
@@ -5963,10 +5970,10 @@
         <v>2003004</v>
       </c>
       <c r="C101" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D101" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="14">
@@ -6025,10 +6032,10 @@
         <v>2003050</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6">
@@ -6047,7 +6054,7 @@
         <v>2</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="6">
@@ -6086,10 +6093,10 @@
         <v>2003051</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6">
@@ -6108,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="6">
@@ -6145,10 +6152,10 @@
         <v>2003052</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6">
@@ -6167,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L105" s="10"/>
       <c r="M105" s="6">
@@ -6204,7 +6211,7 @@
     </row>
     <row r="109" spans="16:16">
       <c r="P109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -6215,10 +6222,10 @@
         <v>2005001</v>
       </c>
       <c r="C110" t="s">
+        <v>169</v>
+      </c>
+      <c r="D110" t="s">
         <v>170</v>
-      </c>
-      <c r="D110" t="s">
-        <v>171</v>
       </c>
       <c r="F110" s="6">
         <v>15003753</v>
@@ -6236,10 +6243,10 @@
         <v>0</v>
       </c>
       <c r="K110" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L110" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="L110" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="M110" s="6">
         <v>0</v>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17565" windowHeight="12075"/>
+    <workbookView windowWidth="14790" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1730,10 +1730,10 @@
   <sheetPr/>
   <dimension ref="A1:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E33" sqref="E33:E37"/>
+      <selection pane="topRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>2100702</v>
+        <v>2100801</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>111</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>2100703</v>
+        <v>2100901</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>113</v>
@@ -4515,7 +4515,9 @@
       <c r="D66" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E66" s="9"/>
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
       <c r="F66" s="6"/>
       <c r="G66" s="9">
         <v>2</v>
@@ -4572,7 +4574,9 @@
       <c r="D67" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E67" s="6"/>
+      <c r="E67" s="9">
+        <v>1</v>
+      </c>
       <c r="F67" s="6">
         <v>15003751</v>
       </c>
@@ -4620,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>2001003</v>
+        <v>2201101</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>120</v>
@@ -4628,7 +4632,9 @@
       <c r="D68" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E68" s="6"/>
+      <c r="E68" s="9">
+        <v>1</v>
+      </c>
       <c r="F68" s="6">
         <v>15003752</v>
       </c>
@@ -4684,7 +4690,9 @@
       <c r="D69" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="6"/>
+      <c r="E69" s="9">
+        <v>1</v>
+      </c>
       <c r="F69" s="6">
         <v>15003753</v>
       </c>
@@ -4743,7 +4751,9 @@
       <c r="D70" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E70" s="6"/>
+      <c r="E70" s="9">
+        <v>1</v>
+      </c>
       <c r="F70" s="6">
         <v>15003754</v>
       </c>
@@ -4801,7 +4811,9 @@
       <c r="D71" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="6"/>
+      <c r="E71" s="9">
+        <v>1</v>
+      </c>
       <c r="F71" s="6">
         <v>15003755</v>
       </c>
@@ -5016,7 +5028,9 @@
       <c r="D77" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E77" s="6"/>
+      <c r="E77" s="6">
+        <v>1</v>
+      </c>
       <c r="F77" s="6">
         <v>15003751</v>
       </c>
@@ -5075,7 +5089,9 @@
       <c r="D78" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E78" s="6"/>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
       <c r="F78" s="6">
         <v>15003752</v>
       </c>
@@ -5123,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>2001024</v>
+        <v>2201201</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>138</v>
@@ -5131,7 +5147,9 @@
       <c r="D79" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E79" s="6"/>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
       <c r="F79" s="6">
         <v>15003753</v>
       </c>
@@ -5190,7 +5208,9 @@
       <c r="D80" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E80" s="6"/>
+      <c r="E80" s="6">
+        <v>1</v>
+      </c>
       <c r="F80" s="6">
         <v>15003754</v>
       </c>
@@ -5248,7 +5268,9 @@
       <c r="D81" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E81" s="6"/>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
       <c r="F81" s="6">
         <v>15003755</v>
       </c>
@@ -6037,7 +6059,9 @@
       <c r="D103" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E103" s="6"/>
+      <c r="E103" s="6">
+        <v>1</v>
+      </c>
       <c r="F103" s="6">
         <v>15003751</v>
       </c>
@@ -6098,7 +6122,9 @@
       <c r="D104" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E104" s="6"/>
+      <c r="E104" s="6">
+        <v>1</v>
+      </c>
       <c r="F104" s="6">
         <v>15003752</v>
       </c>
@@ -6157,7 +6183,9 @@
       <c r="D105" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E105" s="6"/>
+      <c r="E105" s="6">
+        <v>1</v>
+      </c>
       <c r="F105" s="6">
         <v>15003753</v>
       </c>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14790" windowHeight="12105"/>
+    <workbookView windowWidth="19035" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,12 +154,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="R3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：普通攻击
+1：小招
+2：大招
+3：天赋技能
+4：队长技能</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="180">
   <si>
     <t>#</t>
   </si>
@@ -212,7 +238,7 @@
     <t>isNormalAttack</t>
   </si>
   <si>
-    <t>isBigSkill</t>
+    <t>skillCategory</t>
   </si>
   <si>
     <t>isNoBreak</t>
@@ -293,7 +319,7 @@
     <t>是否是普通攻击</t>
   </si>
   <si>
-    <t>是否是大招</t>
+    <t>技能类别</t>
   </si>
   <si>
     <t>是否'不能被打断' 0: 能被打断 , 1:不能被打断</t>
@@ -323,13 +349,34 @@
     <t>上官唯 专属技能</t>
   </si>
   <si>
+    <t>凤紫夕 普通攻击</t>
+  </si>
+  <si>
+    <t>凤紫夕 专属技能</t>
+  </si>
+  <si>
     <t>唐依 普通攻击</t>
   </si>
   <si>
-    <t>凤紫夕 专属技能</t>
-  </si>
-  <si>
-    <t>唐依 专属技能</t>
+    <t>唐依 专属小招 lv1</t>
+  </si>
+  <si>
+    <t>唐依 专属小招 lv2</t>
+  </si>
+  <si>
+    <t>唐依 专属小招 lv3</t>
+  </si>
+  <si>
+    <t>唐依 专属小招 lv4</t>
+  </si>
+  <si>
+    <t>唐依 专属小招 lv5</t>
+  </si>
+  <si>
+    <t>唐依 专属大招 lv 1</t>
+  </si>
+  <si>
+    <t>唐依 专属大招 lv 2</t>
   </si>
   <si>
     <t>倒数第 3 位是技能，最后两位是等级</t>
@@ -1728,19 +1775,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X110"/>
+  <dimension ref="A1:X120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C76" sqref="C76"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
@@ -1753,7 +1800,8 @@
     <col min="15" max="15" width="9.625" customWidth="1"/>
     <col min="16" max="16" width="12.375" customWidth="1"/>
     <col min="17" max="17" width="16.375" customWidth="1"/>
-    <col min="18" max="19" width="12.375" customWidth="1"/>
+    <col min="18" max="18" width="16.25" customWidth="1"/>
+    <col min="19" max="19" width="12.375" customWidth="1"/>
     <col min="20" max="20" width="21.625" customWidth="1"/>
     <col min="21" max="21" width="21.5" style="5" customWidth="1"/>
     <col min="22" max="22" width="12.375" style="5" customWidth="1"/>
@@ -2212,10 +2260,10 @@
         <v>2003101</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -2232,7 +2280,9 @@
       <c r="Q11" s="6">
         <v>1</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="12"/>
@@ -2242,16 +2292,20 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>2003202</v>
+        <v>2003201</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -2263,16 +2317,32 @@
       <c r="O12" s="9"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="R12" s="6">
+        <v>1</v>
+      </c>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="12"/>
     </row>
-    <row r="13" spans="3:21">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2003202</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2284,16 +2354,32 @@
       <c r="O13" s="9"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="R13" s="6">
+        <v>1</v>
+      </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="3:21">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>2003203</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -2305,16 +2391,32 @@
       <c r="O14" s="9"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="R14" s="6">
+        <v>1</v>
+      </c>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="12"/>
     </row>
-    <row r="15" spans="3:21">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2003204</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2326,16 +2428,32 @@
       <c r="O15" s="9"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="R15" s="6">
+        <v>1</v>
+      </c>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="12"/>
     </row>
-    <row r="16" spans="3:21">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2003205</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="6">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2347,7 +2465,9 @@
       <c r="O16" s="9"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="R16" s="6">
+        <v>1</v>
+      </c>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="12"/>
@@ -2373,14 +2493,25 @@
       <c r="T17" s="6"/>
       <c r="U17" s="12"/>
     </row>
-    <row r="18" ht="40.5" spans="2:21">
-      <c r="B18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>2003301</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>15003752</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2392,315 +2523,133 @@
       <c r="O18" s="9"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="R18" s="6">
+        <v>2</v>
+      </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="12"/>
     </row>
-    <row r="19" customFormat="1" ht="27" spans="1:23">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>2100101</v>
+        <v>2003302</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="E19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G19" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6">
         <v>2</v>
       </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>3100101</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N19" s="6">
-        <v>400</v>
-      </c>
-      <c r="O19" s="6">
-        <v>400</v>
-      </c>
-      <c r="P19" s="6">
-        <v>3000</v>
-      </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T19" s="6"/>
       <c r="U19" s="12"/>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" ht="27" spans="1:23">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>2100102</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G20" s="6">
-        <v>2</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <v>3100102</v>
-      </c>
+    </row>
+    <row r="20" spans="3:21">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N20" s="6">
-        <v>400</v>
-      </c>
-      <c r="O20" s="6">
-        <v>400</v>
-      </c>
-      <c r="P20" s="6">
-        <v>2500</v>
-      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T20" s="6"/>
       <c r="U20" s="12"/>
-      <c r="V20" s="5">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" ht="40.5" spans="1:23">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>2100103</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="6">
-        <v>3</v>
-      </c>
-      <c r="F21" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G21" s="6">
-        <v>2</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>3100103</v>
-      </c>
+    </row>
+    <row r="21" spans="3:21">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N21" s="6">
-        <v>400</v>
-      </c>
-      <c r="O21" s="6">
-        <v>400</v>
-      </c>
-      <c r="P21" s="6">
-        <v>2000</v>
-      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T21" s="6"/>
       <c r="U21" s="12"/>
-      <c r="V21" s="5">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="40.5" spans="1:23">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>2100104</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="6">
-        <v>4</v>
-      </c>
-      <c r="F22" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G22" s="6">
-        <v>2</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>3100104</v>
-      </c>
+    </row>
+    <row r="22" spans="3:21">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N22" s="6">
-        <v>400</v>
-      </c>
-      <c r="O22" s="6">
-        <v>400</v>
-      </c>
-      <c r="P22" s="6">
-        <v>1500</v>
-      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T22" s="6"/>
       <c r="U22" s="12"/>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="40.5" spans="1:23">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>2100105</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="6">
-        <v>5</v>
-      </c>
-      <c r="F23" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G23" s="6">
-        <v>2</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>3100105</v>
-      </c>
+    </row>
+    <row r="23" spans="3:21">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N23" s="6">
-        <v>400</v>
-      </c>
-      <c r="O23" s="6">
-        <v>400</v>
-      </c>
-      <c r="P23" s="6">
-        <v>1000</v>
-      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T23" s="6"/>
       <c r="U23" s="12"/>
-      <c r="V23" s="5">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>2601022</v>
-      </c>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="6"/>
@@ -2723,213 +2672,114 @@
       <c r="T24" s="6"/>
       <c r="U24" s="12"/>
     </row>
-    <row r="25" customFormat="1" spans="3:22">
+    <row r="25" spans="3:21">
       <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="12"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" customFormat="1" ht="27" spans="1:22">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>2100201</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <v>13100101</v>
-      </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>466</v>
-      </c>
-      <c r="O26" s="6">
-        <v>200</v>
-      </c>
-      <c r="P26" s="6">
-        <v>3000</v>
-      </c>
+    </row>
+    <row r="26" spans="3:21">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T26" s="6"/>
       <c r="U26" s="12"/>
-      <c r="V26" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="27" ht="27" spans="1:21">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>2100202</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2</v>
-      </c>
-      <c r="F27" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>466</v>
-      </c>
-      <c r="O27" s="6">
-        <v>200</v>
-      </c>
-      <c r="P27" s="6">
-        <v>3000</v>
-      </c>
+    </row>
+    <row r="27" spans="3:21">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="12"/>
     </row>
-    <row r="28" ht="40.5" spans="1:21">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>2100203</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="6">
-        <v>3</v>
-      </c>
-      <c r="F28" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="6">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6">
-        <v>466</v>
-      </c>
-      <c r="O28" s="6">
-        <v>200</v>
-      </c>
-      <c r="P28" s="6">
-        <v>3000</v>
-      </c>
+    <row r="28" ht="40.5" spans="2:21">
+      <c r="B28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="12"/>
     </row>
-    <row r="29" ht="40.5" spans="1:21">
+    <row r="29" customFormat="1" ht="27" spans="1:23">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29">
-        <v>2100204</v>
+        <v>2100101</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E29" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" s="6">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="G29" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
@@ -2940,18 +2790,18 @@
       <c r="J29" s="6">
         <v>0</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="10"/>
+      <c r="K29" s="6">
+        <v>3100101</v>
+      </c>
+      <c r="L29" s="6"/>
       <c r="M29" s="6">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="N29" s="6">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="O29" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P29" s="6">
         <v>3000</v>
@@ -2959,30 +2809,38 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
+      <c r="T29" s="6">
+        <v>1000</v>
+      </c>
       <c r="U29" s="12"/>
-    </row>
-    <row r="30" ht="54" spans="1:21">
+      <c r="V29" s="5">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="27" spans="1:23">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30">
-        <v>2100205</v>
+        <v>2100102</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E30" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F30" s="6">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="G30" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="6">
         <v>0</v>
@@ -2993,115 +2851,205 @@
       <c r="J30" s="6">
         <v>0</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" s="10"/>
+      <c r="K30" s="6">
+        <v>3100102</v>
+      </c>
+      <c r="L30" s="6"/>
       <c r="M30" s="6">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="N30" s="6">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="O30" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P30" s="6">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
+      <c r="T30" s="6">
+        <v>1000</v>
+      </c>
       <c r="U30" s="12"/>
-    </row>
-    <row r="31" spans="3:21">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="V30" s="5">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="40.5" spans="1:23">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>2100103</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3</v>
+      </c>
+      <c r="F31" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G31" s="6">
+        <v>2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>3100103</v>
+      </c>
       <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="6"/>
+      <c r="M31" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N31" s="6">
+        <v>400</v>
+      </c>
+      <c r="O31" s="6">
+        <v>400</v>
+      </c>
+      <c r="P31" s="6">
+        <v>2000</v>
+      </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
+      <c r="T31" s="6">
+        <v>1000</v>
+      </c>
       <c r="U31" s="12"/>
-    </row>
-    <row r="32" spans="3:21">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="V31" s="5">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="40.5" spans="1:23">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>2100104</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4</v>
+      </c>
+      <c r="F32" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G32" s="6">
+        <v>2</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>3100104</v>
+      </c>
       <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="6"/>
+      <c r="M32" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N32" s="6">
+        <v>400</v>
+      </c>
+      <c r="O32" s="6">
+        <v>400</v>
+      </c>
+      <c r="P32" s="6">
+        <v>1500</v>
+      </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
+      <c r="T32" s="6">
+        <v>1000</v>
+      </c>
       <c r="U32" s="12"/>
-    </row>
-    <row r="33" customFormat="1" ht="27" spans="1:22">
+      <c r="V32" s="5">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="40.5" spans="1:23">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33">
-        <v>2100301</v>
+        <v>2100105</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E33" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F33" s="6">
-        <v>15003755</v>
+        <v>15003751</v>
       </c>
       <c r="G33" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" s="6">
         <v>0</v>
       </c>
       <c r="I33" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="6">
-        <v>2</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L33" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>3100105</v>
+      </c>
+      <c r="L33" s="6"/>
       <c r="M33" s="6">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="N33" s="6">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O33" s="6">
-        <v>0</v>
-      </c>
-      <c r="P33" s="6"/>
+        <v>400</v>
+      </c>
+      <c r="P33" s="6">
+        <v>1000</v>
+      </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
@@ -3112,137 +3060,71 @@
       <c r="V33" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" ht="27" spans="1:22">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>2100302</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="6">
-        <v>2</v>
-      </c>
-      <c r="F34" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6">
-        <v>1</v>
-      </c>
-      <c r="J34" s="6">
-        <v>2</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="6">
-        <v>0</v>
-      </c>
-      <c r="N34" s="6">
-        <v>0</v>
-      </c>
-      <c r="O34" s="6">
-        <v>0</v>
-      </c>
+      <c r="W33">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T34" s="6"/>
       <c r="U34" s="12"/>
-      <c r="V34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="40.5" spans="1:22">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>2100303</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="6">
-        <v>3</v>
-      </c>
-      <c r="F35" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6">
-        <v>1</v>
-      </c>
-      <c r="J35" s="6">
-        <v>2</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>85</v>
-      </c>
+    </row>
+    <row r="35" customFormat="1" spans="3:22">
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="10"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="6">
-        <v>0</v>
-      </c>
-      <c r="O35" s="6">
-        <v>0</v>
-      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
-      <c r="T35" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T35" s="6"/>
       <c r="U35" s="12"/>
-      <c r="V35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="40.5" spans="1:22">
+      <c r="V35" s="5"/>
+    </row>
+    <row r="36" customFormat="1" ht="27" spans="1:22">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36">
-        <v>2100304</v>
+        <v>2100201</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E36" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" s="6">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G36" s="6">
         <v>0</v>
@@ -3251,25 +3133,27 @@
         <v>0</v>
       </c>
       <c r="I36" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="6">
-        <v>2</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>13100101</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="6">
         <v>0</v>
       </c>
       <c r="N36" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O36" s="6">
-        <v>0</v>
-      </c>
-      <c r="P36" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="P36" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
@@ -3278,27 +3162,27 @@
       </c>
       <c r="U36" s="12"/>
       <c r="V36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="67.5" spans="1:22">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:21">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37">
-        <v>2100305</v>
+        <v>2100202</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E37" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F37" s="6">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -3307,93 +3191,154 @@
         <v>0</v>
       </c>
       <c r="I37" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="6">
-        <v>2</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="6">
         <v>0</v>
       </c>
       <c r="N37" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O37" s="6">
-        <v>0</v>
-      </c>
-      <c r="P37" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="P37" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T37" s="6"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:21">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="6"/>
+    </row>
+    <row r="38" ht="40.5" spans="1:21">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>2100203</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3</v>
+      </c>
+      <c r="F38" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>466</v>
+      </c>
+      <c r="O38" s="6">
+        <v>200</v>
+      </c>
+      <c r="P38" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="12"/>
     </row>
-    <row r="39" spans="3:21">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="6"/>
+    <row r="39" ht="40.5" spans="1:21">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>2100204</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="6">
+        <v>4</v>
+      </c>
+      <c r="F39" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <v>466</v>
+      </c>
+      <c r="O39" s="6">
+        <v>200</v>
+      </c>
+      <c r="P39" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
       <c r="U39" s="12"/>
     </row>
-    <row r="40" customFormat="1" ht="27" spans="1:22">
+    <row r="40" ht="54" spans="1:21">
       <c r="A40" t="s">
         <v>0</v>
       </c>
       <c r="B40">
-        <v>2100401</v>
+        <v>2100205</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E40" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F40" s="6">
         <v>15003752</v>
@@ -3408,9 +3353,11 @@
         <v>0</v>
       </c>
       <c r="J40" s="6">
-        <v>2</v>
-      </c>
-      <c r="K40" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="L40" s="10"/>
       <c r="M40" s="6">
         <v>0</v>
@@ -3427,146 +3374,69 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T40" s="6"/>
       <c r="U40" s="12"/>
-      <c r="V40" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="41" ht="27" spans="1:22">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>2100402</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="6">
-        <v>2</v>
-      </c>
-      <c r="F41" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <v>2</v>
-      </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="6">
-        <v>0</v>
-      </c>
-      <c r="N41" s="6">
-        <v>466</v>
-      </c>
-      <c r="O41" s="6">
-        <v>200</v>
-      </c>
-      <c r="P41" s="6">
-        <v>3000</v>
-      </c>
+    </row>
+    <row r="41" spans="3:21">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T41" s="6"/>
       <c r="U41" s="12"/>
-      <c r="V41" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="42" ht="40.5" spans="1:22">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>2100403</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="6">
-        <v>3</v>
-      </c>
-      <c r="F42" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
-        <v>0</v>
-      </c>
-      <c r="J42" s="6">
-        <v>2</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="6">
-        <v>0</v>
-      </c>
-      <c r="N42" s="6">
-        <v>466</v>
-      </c>
-      <c r="O42" s="6">
-        <v>200</v>
-      </c>
-      <c r="P42" s="6">
-        <v>3000</v>
-      </c>
+    </row>
+    <row r="42" spans="3:21">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T42" s="6"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="43" ht="40.5" spans="1:22">
+    </row>
+    <row r="43" customFormat="1" ht="27" spans="1:22">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43">
-        <v>2100404</v>
+        <v>2100301</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E43" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43" s="6">
-        <v>15003752</v>
+        <v>15003755</v>
       </c>
       <c r="G43" s="6">
         <v>0</v>
@@ -3575,27 +3445,25 @@
         <v>0</v>
       </c>
       <c r="I43" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="6">
         <v>2</v>
       </c>
-      <c r="K43" s="10">
-        <v>14100301</v>
+      <c r="K43" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="6">
         <v>0</v>
       </c>
       <c r="N43" s="6">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="O43" s="6">
-        <v>200</v>
-      </c>
-      <c r="P43" s="6">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
@@ -3604,7 +3472,7 @@
       </c>
       <c r="U43" s="12"/>
       <c r="V43" s="5">
-        <v>15008014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" ht="27" spans="1:22">
@@ -3612,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>2100405</v>
+        <v>2100302</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E44" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F44" s="6">
-        <v>15003752</v>
+        <v>15003755</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -3633,27 +3501,25 @@
         <v>0</v>
       </c>
       <c r="I44" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="6">
         <v>2</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="6">
         <v>0</v>
       </c>
       <c r="N44" s="6">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="O44" s="6">
-        <v>200</v>
-      </c>
-      <c r="P44" s="6">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
@@ -3662,277 +3528,260 @@
       </c>
       <c r="U44" s="12"/>
       <c r="V44" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="45" spans="3:21">
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="40.5" spans="1:22">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>2100303</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="6">
+        <v>3</v>
+      </c>
+      <c r="F45" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1</v>
+      </c>
+      <c r="J45" s="6">
+        <v>2</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
+      <c r="T45" s="6">
+        <v>1000</v>
+      </c>
       <c r="U45" s="12"/>
-    </row>
-    <row r="46" spans="3:21">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
+      <c r="V45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="40.5" spans="1:22">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>2100304</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="6">
+        <v>4</v>
+      </c>
+      <c r="F46" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0</v>
+      </c>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
+      <c r="T46" s="6">
+        <v>1000</v>
+      </c>
       <c r="U46" s="12"/>
-    </row>
-    <row r="47" customFormat="1" ht="14" customHeight="1" spans="1:23">
+      <c r="V46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="67.5" spans="1:22">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47">
-        <v>2100501</v>
+        <v>2100305</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E47" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F47" s="6">
-        <v>15003753</v>
+        <v>15003755</v>
       </c>
       <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1</v>
+      </c>
+      <c r="J47" s="6">
         <v>2</v>
       </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6">
-        <v>11</v>
-      </c>
       <c r="K47" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N47" s="6">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O47" s="6">
-        <v>100</v>
-      </c>
-      <c r="P47" s="6">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U47" s="12"/>
       <c r="V47" s="5">
         <v>0</v>
       </c>
-      <c r="W47">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="48" ht="14" customHeight="1" spans="1:23">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48">
-        <v>2100502</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="6">
-        <v>2</v>
-      </c>
-      <c r="F48" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G48" s="6">
-        <v>2</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6">
-        <v>11</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N48" s="6">
-        <v>180</v>
-      </c>
-      <c r="O48" s="6">
-        <v>100</v>
-      </c>
-      <c r="P48" s="6">
-        <v>3000</v>
-      </c>
+    </row>
+    <row r="48" spans="3:21">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="6">
-        <v>2667</v>
-      </c>
+      <c r="T48" s="6"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="5">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="49" ht="14" customHeight="1" spans="1:23">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49">
-        <v>2100503</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="6">
-        <v>3</v>
-      </c>
-      <c r="F49" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G49" s="6">
-        <v>2</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0</v>
-      </c>
-      <c r="I49" s="6">
-        <v>0</v>
-      </c>
-      <c r="J49" s="6">
-        <v>11</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N49" s="6">
-        <v>180</v>
-      </c>
-      <c r="O49" s="6">
-        <v>100</v>
-      </c>
-      <c r="P49" s="6">
-        <v>3000</v>
-      </c>
+    </row>
+    <row r="49" spans="3:21">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
-      <c r="T49" s="6">
-        <v>2667</v>
-      </c>
+      <c r="T49" s="6"/>
       <c r="U49" s="12"/>
-      <c r="V49" s="5">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="50" ht="14" customHeight="1" spans="1:23">
+    </row>
+    <row r="50" customFormat="1" ht="27" spans="1:22">
       <c r="A50" t="s">
         <v>0</v>
       </c>
       <c r="B50">
-        <v>2100504</v>
+        <v>2100401</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="E50" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F50" s="6">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
         <v>2</v>
       </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>11</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N50" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O50" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P50" s="6">
         <v>3000</v>
@@ -3941,59 +3790,54 @@
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U50" s="12"/>
       <c r="V50" s="5">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="51" ht="14" customHeight="1" spans="1:23">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="51" ht="27" spans="1:22">
       <c r="A51" t="s">
         <v>0</v>
       </c>
       <c r="B51">
-        <v>2100505</v>
+        <v>2100402</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="E51" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F51" s="6">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
         <v>2</v>
       </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
-      <c r="I51" s="6">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
-        <v>11</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N51" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O51" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P51" s="6">
         <v>3000</v>
@@ -4002,101 +3846,172 @@
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U51" s="12"/>
       <c r="V51" s="5">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="52" spans="3:21">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="6"/>
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="52" ht="40.5" spans="1:22">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>2100403</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="6">
+        <v>3</v>
+      </c>
+      <c r="F52" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>2</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>466</v>
+      </c>
+      <c r="O52" s="6">
+        <v>200</v>
+      </c>
+      <c r="P52" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
+      <c r="T52" s="6">
+        <v>1000</v>
+      </c>
       <c r="U52" s="12"/>
-    </row>
-    <row r="53" spans="3:21">
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="6"/>
+      <c r="V52" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="53" ht="40.5" spans="1:22">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>2100404</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="6">
+        <v>4</v>
+      </c>
+      <c r="F53" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>2</v>
+      </c>
+      <c r="K53" s="10">
+        <v>14100301</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6">
+        <v>466</v>
+      </c>
+      <c r="O53" s="6">
+        <v>200</v>
+      </c>
+      <c r="P53" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
+      <c r="T53" s="6">
+        <v>1000</v>
+      </c>
       <c r="U53" s="12"/>
-    </row>
-    <row r="54" customFormat="1" ht="14" customHeight="1" spans="1:23">
+      <c r="V53" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="54" ht="27" spans="1:22">
       <c r="A54" t="s">
         <v>0</v>
       </c>
       <c r="B54">
-        <v>2100601</v>
+        <v>2100405</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="6">
+        <v>5</v>
+      </c>
+      <c r="F54" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>2</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G54" s="6">
-        <v>2</v>
-      </c>
-      <c r="H54" s="6">
-        <v>0</v>
-      </c>
-      <c r="I54" s="6">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6">
-        <v>11</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N54" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O54" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P54" s="6">
         <v>3000</v>
@@ -4105,14 +4020,11 @@
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U54" s="12"/>
       <c r="V54" s="5">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>2601024</v>
+        <v>15008014</v>
       </c>
     </row>
     <row r="55" spans="3:21">
@@ -4157,49 +4069,49 @@
       <c r="T56" s="6"/>
       <c r="U56" s="12"/>
     </row>
-    <row r="57" customFormat="1" spans="1:22">
+    <row r="57" customFormat="1" ht="14" customHeight="1" spans="1:23">
       <c r="A57" t="s">
         <v>0</v>
       </c>
       <c r="B57">
-        <v>2100701</v>
+        <v>2100501</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G57" s="6">
+        <v>2</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>11</v>
+      </c>
+      <c r="K57" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="6">
-        <v>1</v>
-      </c>
-      <c r="F57" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
-      <c r="H57" s="6">
-        <v>0</v>
-      </c>
-      <c r="I57" s="6">
-        <v>0</v>
-      </c>
-      <c r="J57" s="6">
-        <v>2</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N57" s="6">
-        <v>466</v>
+        <v>180</v>
       </c>
       <c r="O57" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="6">
         <v>3000</v>
@@ -4208,34 +4120,37 @@
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="U57" s="12"/>
       <c r="V57" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:22">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="58" ht="14" customHeight="1" spans="1:23">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58">
-        <v>2100801</v>
+        <v>2100502</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E58" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="6">
-        <v>15003752</v>
+        <v>15003753</v>
       </c>
       <c r="G58" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" s="6">
         <v>0</v>
@@ -4244,20 +4159,20 @@
         <v>0</v>
       </c>
       <c r="J58" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N58" s="6">
-        <v>466</v>
+        <v>180</v>
       </c>
       <c r="O58" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P58" s="6">
         <v>3000</v>
@@ -4266,34 +4181,37 @@
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="U58" s="12"/>
       <c r="V58" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:22">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="59" ht="14" customHeight="1" spans="1:23">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="B59">
-        <v>2100901</v>
+        <v>2100503</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E59" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" s="6">
-        <v>15003752</v>
+        <v>15003753</v>
       </c>
       <c r="G59" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" s="6">
         <v>0</v>
@@ -4302,20 +4220,20 @@
         <v>0</v>
       </c>
       <c r="J59" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N59" s="6">
-        <v>466</v>
+        <v>180</v>
       </c>
       <c r="O59" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P59" s="6">
         <v>3000</v>
@@ -4324,64 +4242,137 @@
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="U59" s="12"/>
       <c r="V59" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21">
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="60" ht="14" customHeight="1" spans="1:23">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>2100504</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="6">
+        <v>4</v>
+      </c>
+      <c r="F60" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G60" s="6">
+        <v>2</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <v>11</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L60" s="10"/>
+      <c r="M60" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N60" s="6">
+        <v>180</v>
+      </c>
+      <c r="O60" s="6">
+        <v>100</v>
+      </c>
+      <c r="P60" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
+      <c r="T60" s="6">
+        <v>2667</v>
+      </c>
       <c r="U60" s="12"/>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="V60" s="5">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="61" ht="14" customHeight="1" spans="1:23">
       <c r="A61" t="s">
         <v>0</v>
       </c>
       <c r="B61">
-        <v>2500001</v>
+        <v>2100505</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="E61" s="6">
-        <v>1</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="F61" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G61" s="6">
+        <v>2</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
+        <v>11</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N61" s="6">
+        <v>180</v>
+      </c>
+      <c r="O61" s="6">
+        <v>100</v>
+      </c>
+      <c r="P61" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
+      <c r="T61" s="6">
+        <v>2667</v>
+      </c>
       <c r="U61" s="12"/>
+      <c r="V61" s="5">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>2601024</v>
+      </c>
     </row>
     <row r="62" spans="3:21">
       <c r="C62" s="6"/>
@@ -4425,160 +4416,127 @@
       <c r="T63" s="6"/>
       <c r="U63" s="12"/>
     </row>
-    <row r="64" spans="3:21">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="6"/>
+    <row r="64" customFormat="1" ht="14" customHeight="1" spans="1:23">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>2100601</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G64" s="6">
+        <v>2</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>11</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L64" s="10"/>
+      <c r="M64" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N64" s="6">
+        <v>180</v>
+      </c>
+      <c r="O64" s="6">
+        <v>100</v>
+      </c>
+      <c r="P64" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
+      <c r="T64" s="6">
+        <v>2667</v>
+      </c>
       <c r="U64" s="12"/>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65">
-        <v>2001001</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="V64" s="5">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="65" spans="3:21">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="6">
-        <v>1</v>
-      </c>
-      <c r="H65" s="6">
-        <v>0</v>
-      </c>
-      <c r="I65" s="6">
-        <v>0</v>
-      </c>
-      <c r="J65" s="6">
-        <v>1</v>
-      </c>
-      <c r="K65" s="6">
-        <v>3001001</v>
-      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="6">
-        <v>0</v>
-      </c>
-      <c r="N65" s="9">
-        <v>233</v>
-      </c>
-      <c r="O65" s="9">
-        <v>100</v>
-      </c>
-      <c r="P65" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="6">
-        <v>1</v>
-      </c>
+      <c r="M65" s="6"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
-      <c r="T65" s="6">
-        <v>2000</v>
-      </c>
+      <c r="T65" s="6"/>
       <c r="U65" s="12"/>
-      <c r="V65" s="5">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>2601001</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="2:23">
-      <c r="B66" s="1">
-        <v>2001002</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" s="9">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="66" spans="3:21">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="9">
-        <v>2</v>
-      </c>
-      <c r="H66" s="9">
-        <v>0</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0</v>
-      </c>
-      <c r="J66" s="9">
-        <v>0</v>
-      </c>
-      <c r="K66" s="9">
-        <v>3001002</v>
-      </c>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9">
-        <v>99000</v>
-      </c>
-      <c r="N66" s="9">
-        <v>100</v>
-      </c>
-      <c r="O66" s="9">
-        <v>500</v>
-      </c>
-      <c r="P66" s="9">
-        <v>1000</v>
-      </c>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="6">
-        <v>1000</v>
-      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
       <c r="U66" s="12"/>
-      <c r="V66" s="5">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>2601002</v>
-      </c>
     </row>
     <row r="67" customFormat="1" spans="1:22">
       <c r="A67" t="s">
         <v>0</v>
       </c>
       <c r="B67">
-        <v>2001002</v>
+        <v>2100701</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E67" s="9">
+        <v>116</v>
+      </c>
+      <c r="E67" s="6">
         <v>1</v>
       </c>
       <c r="F67" s="6">
-        <v>15003751</v>
+        <v>15003752</v>
       </c>
       <c r="G67" s="6">
         <v>0</v>
@@ -4592,10 +4550,10 @@
       <c r="J67" s="6">
         <v>2</v>
       </c>
-      <c r="K67" s="6">
-        <v>14001010</v>
-      </c>
-      <c r="L67" s="6"/>
+      <c r="K67" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L67" s="10"/>
       <c r="M67" s="6">
         <v>0</v>
       </c>
@@ -4606,7 +4564,7 @@
         <v>200</v>
       </c>
       <c r="P67" s="6">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
@@ -4616,23 +4574,23 @@
       </c>
       <c r="U67" s="12"/>
       <c r="V67" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:22">
       <c r="A68" t="s">
         <v>0</v>
       </c>
       <c r="B68">
-        <v>2201101</v>
+        <v>2100801</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" s="9">
+        <v>118</v>
+      </c>
+      <c r="E68" s="6">
         <v>1</v>
       </c>
       <c r="F68" s="6">
@@ -4648,10 +4606,10 @@
         <v>0</v>
       </c>
       <c r="J68" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="6">
@@ -4664,7 +4622,7 @@
         <v>200</v>
       </c>
       <c r="P68" s="6">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
@@ -4677,30 +4635,30 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="69" customFormat="1" spans="1:23">
+    <row r="69" customFormat="1" spans="1:22">
       <c r="A69" t="s">
         <v>0</v>
       </c>
       <c r="B69">
-        <v>2001004</v>
+        <v>2100901</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" s="9">
+        <v>120</v>
+      </c>
+      <c r="E69" s="6">
         <v>1</v>
       </c>
       <c r="F69" s="6">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G69" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="6">
         <v>0</v>
@@ -4708,12 +4666,12 @@
       <c r="J69" s="6">
         <v>2</v>
       </c>
-      <c r="K69" s="6">
-        <v>16001001</v>
-      </c>
-      <c r="L69" s="6"/>
+      <c r="K69" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L69" s="10"/>
       <c r="M69" s="6">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="N69" s="6">
         <v>466</v>
@@ -4722,7 +4680,7 @@
         <v>200</v>
       </c>
       <c r="P69" s="6">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
@@ -4732,131 +4690,62 @@
       </c>
       <c r="U69" s="12"/>
       <c r="V69" s="5">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>2601005</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:22">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70">
-        <v>2001005</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="9">
-        <v>1</v>
-      </c>
-      <c r="F70" s="6">
-        <v>15003754</v>
-      </c>
-      <c r="G70" s="6">
-        <v>0</v>
-      </c>
-      <c r="H70" s="6">
-        <v>0</v>
-      </c>
-      <c r="I70" s="6">
-        <v>0</v>
-      </c>
-      <c r="J70" s="6">
-        <v>2</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L70" s="10"/>
-      <c r="M70" s="6">
-        <v>0</v>
-      </c>
-      <c r="N70" s="6">
-        <v>466</v>
-      </c>
-      <c r="O70" s="6">
-        <v>200</v>
-      </c>
-      <c r="P70" s="6">
-        <v>25000</v>
-      </c>
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="70" spans="3:21">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
-      <c r="R70" s="6">
-        <v>1</v>
-      </c>
+      <c r="R70" s="6"/>
       <c r="S70" s="6"/>
-      <c r="T70" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T70" s="6"/>
       <c r="U70" s="12"/>
-      <c r="V70" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:22">
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>0</v>
       </c>
       <c r="B71">
-        <v>2001006</v>
+        <v>2500001</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="9">
-        <v>1</v>
-      </c>
-      <c r="F71" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G71" s="6">
-        <v>0</v>
-      </c>
-      <c r="H71" s="6">
-        <v>0</v>
-      </c>
-      <c r="I71" s="6">
-        <v>1</v>
-      </c>
-      <c r="J71" s="6">
-        <v>2</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="6">
-        <v>0</v>
-      </c>
-      <c r="N71" s="6">
-        <v>0</v>
-      </c>
-      <c r="O71" s="6">
-        <v>0</v>
-      </c>
-      <c r="P71" s="6">
-        <v>0</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
-      <c r="T71" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T71" s="6"/>
       <c r="U71" s="12"/>
-      <c r="V71" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="3:22">
+    </row>
+    <row r="72" spans="3:21">
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -4868,73 +4757,37 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
       <c r="U72" s="12"/>
-      <c r="V72" s="5"/>
-    </row>
-    <row r="73" customFormat="1" spans="1:22">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73">
-        <v>2001008</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>131</v>
-      </c>
+    </row>
+    <row r="73" spans="3:21">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="6"/>
-      <c r="F73" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G73" s="6">
-        <v>0</v>
-      </c>
-      <c r="H73" s="6">
-        <v>0</v>
-      </c>
-      <c r="I73" s="6">
-        <v>0</v>
-      </c>
-      <c r="J73" s="6">
-        <v>0</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L73" s="10"/>
-      <c r="M73" s="6">
-        <v>0</v>
-      </c>
-      <c r="N73" s="6">
-        <v>466</v>
-      </c>
-      <c r="O73" s="6">
-        <v>200</v>
-      </c>
-      <c r="P73" s="6">
-        <v>2500</v>
-      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
-      <c r="T73" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T73" s="6"/>
       <c r="U73" s="12"/>
-      <c r="V73" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="3:22">
+    </row>
+    <row r="74" spans="3:21">
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -4946,150 +4799,202 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
       <c r="U74" s="12"/>
-      <c r="V74" s="5"/>
-    </row>
-    <row r="76" spans="1:23">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76">
-        <v>2001021</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E76" s="6"/>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>2001001</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6">
+        <v>0</v>
+      </c>
+      <c r="I75" s="6">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1</v>
+      </c>
+      <c r="K75" s="6">
+        <v>3001001</v>
+      </c>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6">
+        <v>0</v>
+      </c>
+      <c r="N75" s="9">
+        <v>233</v>
+      </c>
+      <c r="O75" s="9">
+        <v>100</v>
+      </c>
+      <c r="P75" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>1</v>
+      </c>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6">
+        <v>2000</v>
+      </c>
+      <c r="U75" s="12"/>
+      <c r="V75" s="5">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>2601001</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:23">
+      <c r="B76" s="1">
+        <v>2001002</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" s="9">
+        <v>1</v>
+      </c>
       <c r="F76" s="6"/>
-      <c r="G76" s="6">
-        <v>1</v>
-      </c>
-      <c r="H76" s="6">
-        <v>0</v>
-      </c>
-      <c r="I76" s="6">
-        <v>0</v>
-      </c>
-      <c r="J76" s="6">
-        <v>1</v>
-      </c>
-      <c r="K76" s="6">
-        <v>3001011</v>
-      </c>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6">
-        <v>0</v>
-      </c>
-      <c r="N76" s="6">
-        <v>180</v>
-      </c>
-      <c r="O76" s="6">
+      <c r="G76" s="9">
+        <v>2</v>
+      </c>
+      <c r="H76" s="9">
+        <v>0</v>
+      </c>
+      <c r="I76" s="9">
+        <v>0</v>
+      </c>
+      <c r="J76" s="9">
+        <v>0</v>
+      </c>
+      <c r="K76" s="9">
+        <v>3001002</v>
+      </c>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9">
+        <v>99000</v>
+      </c>
+      <c r="N76" s="9">
         <v>100</v>
       </c>
-      <c r="P76" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="6">
-        <v>1</v>
-      </c>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
+      <c r="O76" s="9">
+        <v>500</v>
+      </c>
+      <c r="P76" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
       <c r="T76" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U76" s="12"/>
       <c r="V76" s="5">
         <v>0</v>
       </c>
       <c r="W76">
-        <v>2601021</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
+        <v>2601002</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:22">
       <c r="A77" t="s">
         <v>0</v>
       </c>
       <c r="B77">
-        <v>2001022</v>
+        <v>2001002</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" s="6">
+        <v>126</v>
+      </c>
+      <c r="E77" s="9">
         <v>1</v>
       </c>
       <c r="F77" s="6">
         <v>15003751</v>
       </c>
       <c r="G77" s="6">
+        <v>0</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
         <v>2</v>
       </c>
-      <c r="H77" s="6">
-        <v>0</v>
-      </c>
-      <c r="I77" s="6">
-        <v>0</v>
-      </c>
-      <c r="J77" s="6">
-        <v>0</v>
-      </c>
       <c r="K77" s="6">
-        <v>3001012</v>
+        <v>14001010</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="N77" s="6">
-        <v>1800</v>
+        <v>466</v>
       </c>
       <c r="O77" s="6">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="P77" s="6">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6">
-        <v>267</v>
+        <v>1000</v>
       </c>
       <c r="U77" s="12"/>
       <c r="V77" s="5">
         <v>0</v>
       </c>
-      <c r="W77">
-        <v>2601022</v>
-      </c>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" t="s">
         <v>0</v>
       </c>
       <c r="B78">
-        <v>2001023</v>
+        <v>2201101</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E78" s="6">
+        <v>128</v>
+      </c>
+      <c r="E78" s="9">
         <v>1</v>
       </c>
       <c r="F78" s="6">
@@ -5105,29 +5010,29 @@
         <v>0</v>
       </c>
       <c r="J78" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="6">
         <v>0</v>
       </c>
       <c r="N78" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O78" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P78" s="6">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U78" s="12"/>
       <c r="V78" s="5">
@@ -5139,83 +5044,83 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>2201201</v>
+        <v>2001004</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E79" s="6">
+        <v>131</v>
+      </c>
+      <c r="E79" s="9">
         <v>1</v>
       </c>
       <c r="F79" s="6">
         <v>15003753</v>
       </c>
       <c r="G79" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="6">
         <v>0</v>
       </c>
       <c r="J79" s="6">
-        <v>1</v>
-      </c>
-      <c r="K79" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="L79" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="K79" s="6">
+        <v>16001001</v>
+      </c>
+      <c r="L79" s="6"/>
       <c r="M79" s="6">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="N79" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O79" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P79" s="6">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U79" s="12"/>
       <c r="V79" s="5">
         <v>0</v>
       </c>
       <c r="W79">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
+        <v>2601005</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:22">
       <c r="A80" t="s">
         <v>0</v>
       </c>
       <c r="B80">
-        <v>2001025</v>
+        <v>2001005</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E80" s="6">
+        <v>133</v>
+      </c>
+      <c r="E80" s="9">
         <v>1</v>
       </c>
       <c r="F80" s="6">
         <v>15003754</v>
       </c>
       <c r="G80" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" s="6">
         <v>0</v>
@@ -5224,20 +5129,20 @@
         <v>0</v>
       </c>
       <c r="J80" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N80" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O80" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P80" s="6">
         <v>25000</v>
@@ -5248,7 +5153,7 @@
       </c>
       <c r="S80" s="6"/>
       <c r="T80" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U80" s="12"/>
       <c r="V80" s="5">
@@ -5260,15 +5165,15 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>2001026</v>
+        <v>2001006</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E81" s="6">
+        <v>136</v>
+      </c>
+      <c r="E81" s="9">
         <v>1</v>
       </c>
       <c r="F81" s="6">
@@ -5287,7 +5192,7 @@
         <v>2</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="6">
@@ -5299,338 +5204,501 @@
       <c r="O81" s="6">
         <v>0</v>
       </c>
-      <c r="P81" s="6"/>
+      <c r="P81" s="6">
+        <v>0</v>
+      </c>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U81" s="12"/>
       <c r="V81" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" spans="1:23">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
+    <row r="82" customFormat="1" spans="3:22">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
       <c r="T82" s="6"/>
       <c r="U82" s="12"/>
       <c r="V82" s="5"/>
-      <c r="W82"/>
-    </row>
-    <row r="83" ht="12" customHeight="1" spans="3:21">
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+    </row>
+    <row r="83" customFormat="1" spans="1:22">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>2001008</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
+      <c r="F83" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G83" s="6">
+        <v>0</v>
+      </c>
+      <c r="H83" s="6">
+        <v>0</v>
+      </c>
+      <c r="I83" s="6">
+        <v>0</v>
+      </c>
+      <c r="J83" s="6">
+        <v>0</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L83" s="10"/>
+      <c r="M83" s="6">
+        <v>0</v>
+      </c>
+      <c r="N83" s="6">
+        <v>466</v>
+      </c>
+      <c r="O83" s="6">
+        <v>200</v>
+      </c>
+      <c r="P83" s="6">
+        <v>2500</v>
+      </c>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
+      <c r="T83" s="6">
+        <v>1000</v>
+      </c>
       <c r="U83" s="12"/>
-    </row>
-    <row r="84" customFormat="1" spans="1:24">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84">
-        <v>2001050</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>147</v>
-      </c>
+      <c r="V83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="3:22">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G84" s="6">
-        <v>2</v>
-      </c>
-      <c r="H84" s="6">
-        <v>1</v>
-      </c>
-      <c r="I84" s="6">
-        <v>0</v>
-      </c>
-      <c r="J84" s="6">
-        <v>0</v>
-      </c>
-      <c r="K84" s="6">
-        <v>16001010</v>
-      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
       <c r="L84" s="6"/>
-      <c r="M84" s="6">
-        <v>10000</v>
-      </c>
-      <c r="N84" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O84" s="6">
-        <v>0</v>
-      </c>
-      <c r="P84" s="6">
-        <v>600</v>
-      </c>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
-      <c r="T84" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T84" s="6"/>
       <c r="U84" s="12"/>
-      <c r="V84" s="5">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>2601050</v>
-      </c>
-      <c r="X84">
-        <v>2500005</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="3:22">
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="12"/>
-      <c r="V85" s="5"/>
-    </row>
-    <row r="86" customFormat="1" spans="3:22">
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
+      <c r="V84" s="5"/>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>2001021</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
+      <c r="G86" s="6">
+        <v>1</v>
+      </c>
+      <c r="H86" s="6">
+        <v>0</v>
+      </c>
+      <c r="I86" s="6">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6">
+        <v>1</v>
+      </c>
+      <c r="K86" s="6">
+        <v>3001011</v>
+      </c>
       <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
+      <c r="M86" s="6">
+        <v>0</v>
+      </c>
+      <c r="N86" s="6">
+        <v>180</v>
+      </c>
+      <c r="O86" s="6">
+        <v>100</v>
+      </c>
+      <c r="P86" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="6">
+        <v>1</v>
+      </c>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
+      <c r="T86" s="6">
+        <v>2667</v>
+      </c>
       <c r="U86" s="12"/>
-      <c r="V86" s="5"/>
-    </row>
-    <row r="87" customFormat="1" spans="3:22">
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
+      <c r="V86" s="5">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>2601021</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>2001022</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G87" s="6">
+        <v>2</v>
+      </c>
+      <c r="H87" s="6">
+        <v>0</v>
+      </c>
+      <c r="I87" s="6">
+        <v>0</v>
+      </c>
+      <c r="J87" s="6">
+        <v>0</v>
+      </c>
+      <c r="K87" s="6">
+        <v>3001012</v>
+      </c>
       <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
+      <c r="M87" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N87" s="6">
+        <v>1800</v>
+      </c>
+      <c r="O87" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P87" s="6">
+        <v>2000</v>
+      </c>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
+      <c r="T87" s="6">
+        <v>267</v>
+      </c>
       <c r="U87" s="12"/>
-      <c r="V87" s="5"/>
-    </row>
-    <row r="88" customFormat="1" spans="3:22">
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
+      <c r="V87" s="5">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>2001023</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G88" s="6">
+        <v>0</v>
+      </c>
+      <c r="H88" s="6">
+        <v>0</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6">
+        <v>2</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L88" s="10"/>
+      <c r="M88" s="6">
+        <v>0</v>
+      </c>
+      <c r="N88" s="6">
+        <v>180</v>
+      </c>
+      <c r="O88" s="6">
+        <v>100</v>
+      </c>
+      <c r="P88" s="6">
+        <v>15000</v>
+      </c>
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
+      <c r="T88" s="6">
+        <v>2667</v>
+      </c>
       <c r="U88" s="12"/>
-      <c r="V88" s="5"/>
-    </row>
-    <row r="89" s="3" customFormat="1" spans="20:22">
-      <c r="T89" s="6"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-    </row>
-    <row r="90" spans="20:20">
-      <c r="T90" s="6"/>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="V88" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:23">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>2201201</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1</v>
+      </c>
+      <c r="F89" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G89" s="6">
+        <v>1</v>
+      </c>
+      <c r="H89" s="6">
+        <v>0</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6">
+        <v>1</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L89" s="10"/>
+      <c r="M89" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N89" s="6">
+        <v>180</v>
+      </c>
+      <c r="O89" s="6">
+        <v>100</v>
+      </c>
+      <c r="P89" s="6">
+        <v>3000</v>
+      </c>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6">
+        <v>2667</v>
+      </c>
+      <c r="U89" s="12"/>
+      <c r="V89" s="5">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>2001025</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6">
+        <v>15003754</v>
+      </c>
+      <c r="G90" s="6">
+        <v>1</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0</v>
+      </c>
+      <c r="I90" s="6">
+        <v>0</v>
+      </c>
+      <c r="J90" s="6">
+        <v>1</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L90" s="10"/>
+      <c r="M90" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N90" s="6">
+        <v>180</v>
+      </c>
+      <c r="O90" s="6">
+        <v>100</v>
+      </c>
+      <c r="P90" s="6">
+        <v>25000</v>
+      </c>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6">
+        <v>1</v>
+      </c>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6">
+        <v>2667</v>
+      </c>
+      <c r="U90" s="12"/>
+      <c r="V90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:22">
       <c r="A91" t="s">
         <v>0</v>
       </c>
       <c r="B91">
-        <v>2002001</v>
+        <v>2001026</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+      <c r="F91" s="6">
+        <v>15003755</v>
+      </c>
       <c r="G91" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="6">
         <v>0</v>
       </c>
       <c r="I91" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" s="6">
-        <v>1</v>
-      </c>
-      <c r="K91" s="6">
-        <v>3002001</v>
-      </c>
-      <c r="L91" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L91" s="10"/>
       <c r="M91" s="6">
         <v>0</v>
       </c>
       <c r="N91" s="6">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O91" s="6">
-        <v>300</v>
-      </c>
-      <c r="P91" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="6">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6">
-        <v>1540</v>
+        <v>2667</v>
       </c>
       <c r="U91" s="12"/>
       <c r="V91" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24">
-      <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92">
-        <v>2002002</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G92" s="6">
-        <v>2</v>
-      </c>
-      <c r="H92" s="6">
-        <v>0</v>
-      </c>
-      <c r="I92" s="6">
-        <v>0</v>
-      </c>
-      <c r="J92" s="6">
-        <v>2</v>
-      </c>
-      <c r="K92" s="6">
-        <v>13002030</v>
-      </c>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6">
-        <v>4000</v>
-      </c>
-      <c r="N92" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O92" s="6">
-        <v>700</v>
-      </c>
-      <c r="P92" s="6">
-        <v>6500</v>
-      </c>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6">
-        <v>340</v>
-      </c>
+    <row r="92" s="2" customFormat="1" spans="1:23">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="6"/>
       <c r="U92" s="12"/>
-      <c r="V92" s="5">
-        <v>0</v>
-      </c>
-      <c r="X92">
-        <v>2500010</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="3:22">
+      <c r="V92" s="5"/>
+      <c r="W92"/>
+    </row>
+    <row r="93" ht="12" customHeight="1" spans="3:21">
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -5650,127 +5718,93 @@
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
       <c r="U93" s="12"/>
-      <c r="V93" s="5"/>
-    </row>
-    <row r="94" customFormat="1" spans="1:22">
+    </row>
+    <row r="94" customFormat="1" spans="1:24">
       <c r="A94" t="s">
         <v>0</v>
       </c>
       <c r="B94">
-        <v>2002011</v>
+        <v>2001050</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
+      <c r="F94" s="6">
+        <v>15003753</v>
+      </c>
       <c r="G94" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="6">
         <v>0</v>
       </c>
       <c r="J94" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="6">
-        <v>3002011</v>
+        <v>16001010</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N94" s="6">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="O94" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P94" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="6">
-        <v>1</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="U94" s="12"/>
       <c r="V94" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" customFormat="1" spans="1:24">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95">
-        <v>2002012</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="W94">
+        <v>2601050</v>
+      </c>
+      <c r="X94">
+        <v>2500005</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="3:22">
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G95" s="6">
-        <v>2</v>
-      </c>
-      <c r="H95" s="6">
-        <v>0</v>
-      </c>
-      <c r="I95" s="6">
-        <v>0</v>
-      </c>
-      <c r="J95" s="6">
-        <v>0</v>
-      </c>
-      <c r="K95" s="6">
-        <v>3002012</v>
-      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N95" s="6">
-        <v>1000</v>
-      </c>
-      <c r="O95" s="6">
-        <v>700</v>
-      </c>
-      <c r="P95" s="6">
-        <v>7000</v>
-      </c>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
-      <c r="T95" s="6">
-        <v>420</v>
-      </c>
+      <c r="T95" s="6"/>
       <c r="U95" s="12"/>
-      <c r="V95" s="5">
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <v>2602012</v>
-      </c>
-      <c r="X95">
-        <v>2500011</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="4:22">
+      <c r="V95" s="5"/>
+    </row>
+    <row r="96" customFormat="1" spans="3:22">
+      <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -5778,6 +5812,8 @@
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
@@ -5789,7 +5825,8 @@
       <c r="U96" s="12"/>
       <c r="V96" s="5"/>
     </row>
-    <row r="97" customFormat="1" spans="4:22">
+    <row r="97" customFormat="1" spans="3:22">
+      <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -5797,6 +5834,8 @@
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
@@ -5808,389 +5847,248 @@
       <c r="U97" s="12"/>
       <c r="V97" s="5"/>
     </row>
-    <row r="98" customFormat="1" spans="1:23">
-      <c r="A98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98">
-        <v>2003001</v>
-      </c>
-      <c r="C98" t="s">
-        <v>153</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>153</v>
-      </c>
+    <row r="98" customFormat="1" spans="3:22">
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="6">
-        <v>1</v>
-      </c>
-      <c r="H98" s="6">
-        <v>0</v>
-      </c>
-      <c r="I98" s="6">
-        <v>0</v>
-      </c>
-      <c r="J98" s="6">
-        <v>1</v>
-      </c>
-      <c r="K98">
-        <v>3003001</v>
-      </c>
-      <c r="M98" s="6">
-        <v>0</v>
-      </c>
-      <c r="N98" s="6">
-        <v>300</v>
-      </c>
-      <c r="O98" s="6">
-        <v>300</v>
-      </c>
-      <c r="P98" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="6">
-        <v>1</v>
-      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
-      <c r="T98" s="6">
+      <c r="T98" s="6"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="5"/>
+    </row>
+    <row r="99" s="3" customFormat="1" spans="20:22">
+      <c r="T99" s="6"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+    </row>
+    <row r="100" spans="20:20">
+      <c r="T100" s="6"/>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>2002001</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6">
+        <v>1</v>
+      </c>
+      <c r="H101" s="6">
+        <v>0</v>
+      </c>
+      <c r="I101" s="6">
+        <v>0</v>
+      </c>
+      <c r="J101" s="6">
+        <v>1</v>
+      </c>
+      <c r="K101" s="6">
+        <v>3002001</v>
+      </c>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6">
+        <v>0</v>
+      </c>
+      <c r="N101" s="6">
+        <v>300</v>
+      </c>
+      <c r="O101" s="6">
+        <v>300</v>
+      </c>
+      <c r="P101" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="6">
+        <v>1</v>
+      </c>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6">
         <v>1540</v>
       </c>
-      <c r="U98" s="12"/>
-      <c r="V98" s="5">
-        <v>0</v>
-      </c>
-      <c r="W98">
-        <v>2603001</v>
-      </c>
-    </row>
-    <row r="99" s="4" customFormat="1" spans="1:23">
-      <c r="A99" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="4">
-        <v>2003002</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14">
-        <v>15003751</v>
-      </c>
-      <c r="G99" s="14">
+      <c r="U101" s="12"/>
+      <c r="V101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>2002002</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G102" s="6">
         <v>2</v>
       </c>
-      <c r="H99" s="14">
-        <v>0</v>
-      </c>
-      <c r="I99" s="14">
-        <v>0</v>
-      </c>
-      <c r="J99" s="14">
-        <v>1</v>
-      </c>
-      <c r="K99" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="L99" s="16"/>
-      <c r="M99" s="14">
-        <v>8000</v>
-      </c>
-      <c r="N99" s="14">
-        <v>600</v>
-      </c>
-      <c r="O99" s="14">
-        <v>0</v>
-      </c>
-      <c r="P99" s="14">
-        <v>2000</v>
-      </c>
-      <c r="Q99" s="14"/>
-      <c r="R99" s="14"/>
-      <c r="S99" s="14"/>
-      <c r="T99" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U99" s="14"/>
-      <c r="V99" s="5">
-        <v>0</v>
-      </c>
-      <c r="W99" s="4">
-        <v>2603002</v>
-      </c>
-    </row>
-    <row r="100" s="4" customFormat="1" spans="1:23">
-      <c r="A100" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="4">
-        <v>2003003</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14">
-        <v>15003753</v>
-      </c>
-      <c r="G100" s="14">
-        <v>0</v>
-      </c>
-      <c r="H100" s="14">
-        <v>0</v>
-      </c>
-      <c r="I100" s="14">
-        <v>0</v>
-      </c>
-      <c r="J100" s="14">
+      <c r="H102" s="6">
+        <v>0</v>
+      </c>
+      <c r="I102" s="6">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6">
         <v>2</v>
       </c>
-      <c r="K100" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="L100" s="16"/>
-      <c r="M100" s="14">
-        <v>0</v>
-      </c>
-      <c r="N100" s="14">
-        <v>50</v>
-      </c>
-      <c r="O100" s="14">
-        <v>0</v>
-      </c>
-      <c r="P100" s="14">
-        <v>6000</v>
-      </c>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="14"/>
-      <c r="S100" s="14"/>
-      <c r="T100" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U100" s="14"/>
-      <c r="V100" s="5">
-        <v>15008005</v>
-      </c>
-      <c r="W100" s="4">
-        <v>2603003</v>
-      </c>
-    </row>
-    <row r="101" s="4" customFormat="1" spans="1:23">
-      <c r="A101" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="4">
-        <v>2003004</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14">
-        <v>15003754</v>
-      </c>
-      <c r="G101" s="14">
-        <v>2</v>
-      </c>
-      <c r="H101" s="14">
-        <v>1</v>
-      </c>
-      <c r="I101" s="14">
-        <v>0</v>
-      </c>
-      <c r="J101" s="14">
-        <v>0</v>
-      </c>
-      <c r="K101" s="14">
-        <v>16001001</v>
-      </c>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14">
-        <v>8000</v>
-      </c>
-      <c r="N101" s="14">
-        <v>0</v>
-      </c>
-      <c r="O101" s="14">
-        <v>0</v>
-      </c>
-      <c r="P101" s="14">
+      <c r="K102" s="6">
+        <v>13002030</v>
+      </c>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6">
+        <v>4000</v>
+      </c>
+      <c r="N102" s="6">
         <v>1500</v>
       </c>
-      <c r="Q101" s="14"/>
-      <c r="R101" s="14"/>
-      <c r="S101" s="14"/>
-      <c r="T101" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U101" s="14"/>
-      <c r="V101" s="5">
-        <v>0</v>
-      </c>
-      <c r="W101" s="4">
-        <v>2603004</v>
-      </c>
-    </row>
-    <row r="102" spans="20:20">
-      <c r="T102" s="6"/>
-    </row>
-    <row r="103" customFormat="1" spans="1:23">
-      <c r="A103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103">
-        <v>2003050</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E103" s="6">
-        <v>1</v>
-      </c>
-      <c r="F103" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G103" s="6">
-        <v>0</v>
-      </c>
-      <c r="H103" s="6">
-        <v>0</v>
-      </c>
-      <c r="I103" s="6">
-        <v>1</v>
-      </c>
-      <c r="J103" s="6">
-        <v>2</v>
-      </c>
-      <c r="K103" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="L103" s="10"/>
-      <c r="M103" s="6">
-        <v>0</v>
-      </c>
-      <c r="N103" s="6">
-        <v>0</v>
-      </c>
-      <c r="O103" s="6">
-        <v>0</v>
-      </c>
-      <c r="P103" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="6">
-        <v>1</v>
-      </c>
+      <c r="O102" s="6">
+        <v>700</v>
+      </c>
+      <c r="P102" s="6">
+        <v>6500</v>
+      </c>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6">
+        <v>340</v>
+      </c>
+      <c r="U102" s="12"/>
+      <c r="V102" s="5">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>2500010</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" spans="3:22">
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
-      <c r="T103" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T103" s="6"/>
       <c r="U103" s="12"/>
-      <c r="V103" s="5">
-        <v>0</v>
-      </c>
-      <c r="W103">
-        <v>2603050</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:23">
+      <c r="V103" s="5"/>
+    </row>
+    <row r="104" customFormat="1" spans="1:22">
       <c r="A104" t="s">
         <v>0</v>
       </c>
       <c r="B104">
-        <v>2003051</v>
+        <v>2002011</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E104" s="6">
-        <v>1</v>
-      </c>
-      <c r="F104" s="6">
-        <v>15003752</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
       <c r="G104" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="6">
         <v>0</v>
       </c>
       <c r="I104" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" s="6">
-        <v>2</v>
-      </c>
-      <c r="K104" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="L104" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="K104" s="6">
+        <v>3002011</v>
+      </c>
+      <c r="L104" s="6"/>
       <c r="M104" s="6">
         <v>0</v>
       </c>
       <c r="N104" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O104" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P104" s="6">
         <v>0</v>
       </c>
-      <c r="Q104" s="6"/>
+      <c r="Q104" s="6">
+        <v>1</v>
+      </c>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
       <c r="T104" s="6">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="U104" s="12"/>
       <c r="V104" s="5">
         <v>0</v>
       </c>
-      <c r="W104">
-        <v>2603051</v>
-      </c>
     </row>
     <row r="105" customFormat="1" spans="1:24">
       <c r="A105" t="s">
         <v>0</v>
       </c>
       <c r="B105">
-        <v>2003052</v>
+        <v>2002012</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E105" s="6">
-        <v>1</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E105" s="6"/>
       <c r="F105" s="6">
-        <v>15003753</v>
+        <v>15003751</v>
       </c>
       <c r="G105" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105" s="6">
         <v>0</v>
@@ -6201,104 +6099,568 @@
       <c r="J105" s="6">
         <v>0</v>
       </c>
-      <c r="K105" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="L105" s="10"/>
+      <c r="K105" s="6">
+        <v>3002012</v>
+      </c>
+      <c r="L105" s="6"/>
       <c r="M105" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N105" s="6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="O105" s="6">
         <v>700</v>
       </c>
       <c r="P105" s="6">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
       <c r="T105" s="6">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="U105" s="12"/>
       <c r="V105" s="5">
-        <v>15008014</v>
+        <v>0</v>
       </c>
       <c r="W105">
-        <v>2603052</v>
+        <v>2602012</v>
       </c>
       <c r="X105">
-        <v>2500020</v>
-      </c>
-    </row>
-    <row r="106" spans="20:20">
+        <v>2500011</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" spans="4:22">
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
       <c r="T106" s="6"/>
-    </row>
-    <row r="109" spans="16:16">
-      <c r="P109" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23">
-      <c r="A110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110">
-        <v>2005001</v>
-      </c>
-      <c r="C110" t="s">
-        <v>169</v>
-      </c>
-      <c r="D110" t="s">
-        <v>170</v>
-      </c>
-      <c r="F110" s="6">
+      <c r="U106" s="12"/>
+      <c r="V106" s="5"/>
+    </row>
+    <row r="107" customFormat="1" spans="4:22">
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="5"/>
+    </row>
+    <row r="108" customFormat="1" spans="1:23">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>2003001</v>
+      </c>
+      <c r="C108" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6">
+        <v>1</v>
+      </c>
+      <c r="H108" s="6">
+        <v>0</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>3003001</v>
+      </c>
+      <c r="M108" s="6">
+        <v>0</v>
+      </c>
+      <c r="N108" s="6">
+        <v>300</v>
+      </c>
+      <c r="O108" s="6">
+        <v>300</v>
+      </c>
+      <c r="P108" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="6">
+        <v>1</v>
+      </c>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6">
+        <v>1540</v>
+      </c>
+      <c r="U108" s="12"/>
+      <c r="V108" s="5">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>2603001</v>
+      </c>
+    </row>
+    <row r="109" s="4" customFormat="1" spans="1:23">
+      <c r="A109" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="4">
+        <v>2003002</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14">
+        <v>15003751</v>
+      </c>
+      <c r="G109" s="14">
+        <v>2</v>
+      </c>
+      <c r="H109" s="14">
+        <v>0</v>
+      </c>
+      <c r="I109" s="14">
+        <v>0</v>
+      </c>
+      <c r="J109" s="14">
+        <v>1</v>
+      </c>
+      <c r="K109" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L109" s="16"/>
+      <c r="M109" s="14">
+        <v>8000</v>
+      </c>
+      <c r="N109" s="14">
+        <v>600</v>
+      </c>
+      <c r="O109" s="14">
+        <v>0</v>
+      </c>
+      <c r="P109" s="14">
+        <v>2000</v>
+      </c>
+      <c r="Q109" s="14"/>
+      <c r="R109" s="14"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U109" s="14"/>
+      <c r="V109" s="5">
+        <v>0</v>
+      </c>
+      <c r="W109" s="4">
+        <v>2603002</v>
+      </c>
+    </row>
+    <row r="110" s="4" customFormat="1" spans="1:23">
+      <c r="A110" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="4">
+        <v>2003003</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14">
         <v>15003753</v>
       </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110" s="6">
+      <c r="G110" s="14">
+        <v>0</v>
+      </c>
+      <c r="H110" s="14">
+        <v>0</v>
+      </c>
+      <c r="I110" s="14">
+        <v>0</v>
+      </c>
+      <c r="J110" s="14">
         <v>2</v>
       </c>
-      <c r="I110" s="6">
-        <v>0</v>
-      </c>
-      <c r="J110" s="6">
-        <v>0</v>
-      </c>
-      <c r="K110" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="L110" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="M110" s="6">
-        <v>0</v>
-      </c>
-      <c r="N110" s="6">
-        <v>0</v>
-      </c>
-      <c r="O110" s="6">
-        <v>0</v>
-      </c>
-      <c r="P110" s="6">
-        <v>2000</v>
-      </c>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="6"/>
+      <c r="K110" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L110" s="16"/>
+      <c r="M110" s="14">
+        <v>0</v>
+      </c>
+      <c r="N110" s="14">
+        <v>50</v>
+      </c>
+      <c r="O110" s="14">
+        <v>0</v>
+      </c>
+      <c r="P110" s="14">
+        <v>6000</v>
+      </c>
+      <c r="Q110" s="14"/>
+      <c r="R110" s="14"/>
+      <c r="S110" s="14"/>
       <c r="T110" s="6">
         <v>1000</v>
       </c>
-      <c r="U110" s="12"/>
+      <c r="U110" s="14"/>
       <c r="V110" s="5">
+        <v>15008005</v>
+      </c>
+      <c r="W110" s="4">
+        <v>2603003</v>
+      </c>
+    </row>
+    <row r="111" s="4" customFormat="1" spans="1:23">
+      <c r="A111" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="4">
+        <v>2003004</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14">
+        <v>15003754</v>
+      </c>
+      <c r="G111" s="14">
+        <v>2</v>
+      </c>
+      <c r="H111" s="14">
+        <v>1</v>
+      </c>
+      <c r="I111" s="14">
+        <v>0</v>
+      </c>
+      <c r="J111" s="14">
+        <v>0</v>
+      </c>
+      <c r="K111" s="14">
+        <v>16001001</v>
+      </c>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14">
+        <v>8000</v>
+      </c>
+      <c r="N111" s="14">
+        <v>0</v>
+      </c>
+      <c r="O111" s="14">
+        <v>0</v>
+      </c>
+      <c r="P111" s="14">
+        <v>1500</v>
+      </c>
+      <c r="Q111" s="14"/>
+      <c r="R111" s="14"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U111" s="14"/>
+      <c r="V111" s="5">
+        <v>0</v>
+      </c>
+      <c r="W111" s="4">
+        <v>2603004</v>
+      </c>
+    </row>
+    <row r="112" spans="20:20">
+      <c r="T112" s="6"/>
+    </row>
+    <row r="113" customFormat="1" spans="1:23">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>2003050</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E113" s="6">
+        <v>1</v>
+      </c>
+      <c r="F113" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G113" s="6">
+        <v>0</v>
+      </c>
+      <c r="H113" s="6">
+        <v>0</v>
+      </c>
+      <c r="I113" s="6">
+        <v>1</v>
+      </c>
+      <c r="J113" s="6">
+        <v>2</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="L113" s="10"/>
+      <c r="M113" s="6">
+        <v>0</v>
+      </c>
+      <c r="N113" s="6">
+        <v>0</v>
+      </c>
+      <c r="O113" s="6">
+        <v>0</v>
+      </c>
+      <c r="P113" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="6">
+        <v>1</v>
+      </c>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U113" s="12"/>
+      <c r="V113" s="5">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>2603050</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" spans="1:23">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>2003051</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E114" s="6">
+        <v>1</v>
+      </c>
+      <c r="F114" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G114" s="6">
+        <v>0</v>
+      </c>
+      <c r="H114" s="6">
+        <v>0</v>
+      </c>
+      <c r="I114" s="6">
+        <v>1</v>
+      </c>
+      <c r="J114" s="6">
+        <v>2</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="L114" s="10"/>
+      <c r="M114" s="6">
+        <v>0</v>
+      </c>
+      <c r="N114" s="6">
+        <v>0</v>
+      </c>
+      <c r="O114" s="6">
+        <v>0</v>
+      </c>
+      <c r="P114" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U114" s="12"/>
+      <c r="V114" s="5">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>2603051</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" spans="1:24">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>2003052</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E115" s="6">
+        <v>1</v>
+      </c>
+      <c r="F115" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G115" s="6">
+        <v>0</v>
+      </c>
+      <c r="H115" s="6">
+        <v>0</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0</v>
+      </c>
+      <c r="J115" s="6">
+        <v>0</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="L115" s="10"/>
+      <c r="M115" s="6">
+        <v>0</v>
+      </c>
+      <c r="N115" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O115" s="6">
+        <v>700</v>
+      </c>
+      <c r="P115" s="6">
+        <v>12000</v>
+      </c>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6">
+        <v>340</v>
+      </c>
+      <c r="U115" s="12"/>
+      <c r="V115" s="5">
         <v>15008014</v>
       </c>
-      <c r="W110">
+      <c r="W115">
+        <v>2603052</v>
+      </c>
+      <c r="X115">
+        <v>2500020</v>
+      </c>
+    </row>
+    <row r="116" spans="20:20">
+      <c r="T116" s="6"/>
+    </row>
+    <row r="119" spans="16:16">
+      <c r="P119" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>2005001</v>
+      </c>
+      <c r="C120" t="s">
+        <v>176</v>
+      </c>
+      <c r="D120" t="s">
+        <v>177</v>
+      </c>
+      <c r="F120" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120" s="6">
+        <v>2</v>
+      </c>
+      <c r="I120" s="6">
+        <v>0</v>
+      </c>
+      <c r="J120" s="6">
+        <v>0</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L120" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="M120" s="6">
+        <v>0</v>
+      </c>
+      <c r="N120" s="6">
+        <v>0</v>
+      </c>
+      <c r="O120" s="6">
+        <v>0</v>
+      </c>
+      <c r="P120" s="6">
+        <v>2000</v>
+      </c>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+      <c r="T120" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U120" s="12"/>
+      <c r="V120" s="5">
+        <v>15008014</v>
+      </c>
+      <c r="W120">
         <v>2605001</v>
       </c>
     </row>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19035" windowHeight="10395"/>
+    <workbookView windowWidth="18225" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="190">
   <si>
     <t>#</t>
   </si>
@@ -377,6 +377,36 @@
   </si>
   <si>
     <t>唐依 专属大招 lv 2</t>
+  </si>
+  <si>
+    <t>唐依 队长技能测试 lv1</t>
+  </si>
+  <si>
+    <t>唐依 队长技能测试 lv2</t>
+  </si>
+  <si>
+    <t>唐依 队长技能测试 lv3</t>
+  </si>
+  <si>
+    <t>唐依 队长技能测试 lv4</t>
+  </si>
+  <si>
+    <t>唐依 队长技能测试 lv5</t>
+  </si>
+  <si>
+    <t>唐依 队长技能测试2 lv1</t>
+  </si>
+  <si>
+    <t>唐依 队长技能测试2 lv2</t>
+  </si>
+  <si>
+    <t>唐依 队长技能测试2 lv3</t>
+  </si>
+  <si>
+    <t>唐依 队长技能测试2 lv4</t>
+  </si>
+  <si>
+    <t>唐依 队长技能测试2 lv5</t>
   </si>
   <si>
     <t>倒数第 3 位是技能，最后两位是等级</t>
@@ -1775,12 +1805,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X120"/>
+  <dimension ref="A1:X128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2588,11 +2618,25 @@
       <c r="T20" s="6"/>
       <c r="U20" s="12"/>
     </row>
-    <row r="21" spans="3:21">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+    <row r="21" customFormat="1" spans="1:22">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>2003401</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -2604,16 +2648,33 @@
       <c r="O21" s="9"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="R21" s="6">
+        <v>4</v>
+      </c>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="12"/>
-    </row>
-    <row r="22" spans="3:21">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:22">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>2003402</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2625,16 +2686,33 @@
       <c r="O22" s="9"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
+      <c r="R22" s="6">
+        <v>4</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="12"/>
-    </row>
-    <row r="23" spans="3:21">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:22">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>2003403</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -2646,16 +2724,33 @@
       <c r="O23" s="9"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="R23" s="6">
+        <v>4</v>
+      </c>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="12"/>
-    </row>
-    <row r="24" spans="3:21">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:22">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>2003404</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4</v>
+      </c>
+      <c r="F24" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -2667,16 +2762,33 @@
       <c r="O24" s="9"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="R24" s="6">
+        <v>4</v>
+      </c>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="12"/>
-    </row>
-    <row r="25" spans="3:21">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:22">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>2003405</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -2688,10 +2800,13 @@
       <c r="O25" s="9"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="R25" s="6">
+        <v>4</v>
+      </c>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="12"/>
+      <c r="V25" s="5"/>
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="6"/>
@@ -2735,14 +2850,25 @@
       <c r="T27" s="6"/>
       <c r="U27" s="12"/>
     </row>
-    <row r="28" ht="40.5" spans="2:21">
-      <c r="B28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+    <row r="28" customFormat="1" spans="1:22">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>2003501</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2754,317 +2880,190 @@
       <c r="O28" s="9"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
+      <c r="R28" s="6">
+        <v>4</v>
+      </c>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="12"/>
-    </row>
-    <row r="29" customFormat="1" ht="27" spans="1:23">
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:22">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29">
-        <v>2100101</v>
+        <v>2003502</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E29" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="6">
         <v>15003751</v>
       </c>
-      <c r="G29" s="6">
-        <v>2</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <v>3100101</v>
-      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N29" s="6">
-        <v>400</v>
-      </c>
-      <c r="O29" s="6">
-        <v>400</v>
-      </c>
-      <c r="P29" s="6">
-        <v>3000</v>
-      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
+      <c r="R29" s="6">
+        <v>4</v>
+      </c>
       <c r="S29" s="6"/>
-      <c r="T29" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T29" s="6"/>
       <c r="U29" s="12"/>
-      <c r="V29" s="5">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" ht="27" spans="1:23">
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:22">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30">
-        <v>2100102</v>
+        <v>2003503</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E30" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="6">
         <v>15003751</v>
       </c>
-      <c r="G30" s="6">
-        <v>2</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
-        <v>3100102</v>
-      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N30" s="6">
-        <v>400</v>
-      </c>
-      <c r="O30" s="6">
-        <v>400</v>
-      </c>
-      <c r="P30" s="6">
-        <v>2500</v>
-      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
+      <c r="R30" s="6">
+        <v>4</v>
+      </c>
       <c r="S30" s="6"/>
-      <c r="T30" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T30" s="6"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="5">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" ht="40.5" spans="1:23">
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:22">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31">
-        <v>2100103</v>
+        <v>2003504</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E31" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="6">
         <v>15003751</v>
       </c>
-      <c r="G31" s="6">
-        <v>2</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
-        <v>3100103</v>
-      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N31" s="6">
-        <v>400</v>
-      </c>
-      <c r="O31" s="6">
-        <v>400</v>
-      </c>
-      <c r="P31" s="6">
-        <v>2000</v>
-      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
+      <c r="R31" s="6">
+        <v>4</v>
+      </c>
       <c r="S31" s="6"/>
-      <c r="T31" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T31" s="6"/>
       <c r="U31" s="12"/>
-      <c r="V31" s="5">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" ht="40.5" spans="1:23">
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:22">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32">
-        <v>2100104</v>
+        <v>2003505</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E32" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32" s="6">
         <v>15003751</v>
       </c>
-      <c r="G32" s="6">
-        <v>2</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
-        <v>3100104</v>
-      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N32" s="6">
-        <v>400</v>
-      </c>
-      <c r="O32" s="6">
-        <v>400</v>
-      </c>
-      <c r="P32" s="6">
-        <v>1500</v>
-      </c>
+      <c r="M32" s="6"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
+      <c r="R32" s="6">
+        <v>4</v>
+      </c>
       <c r="S32" s="6"/>
-      <c r="T32" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T32" s="6"/>
       <c r="U32" s="12"/>
-      <c r="V32" s="5">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" ht="40.5" spans="1:23">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>2100105</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="6">
-        <v>5</v>
-      </c>
-      <c r="F33" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G33" s="6">
-        <v>2</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <v>3100105</v>
-      </c>
+      <c r="V32" s="5"/>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="B33" s="8"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N33" s="6">
-        <v>400</v>
-      </c>
-      <c r="O33" s="6">
-        <v>400</v>
-      </c>
-      <c r="P33" s="6">
-        <v>1000</v>
-      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T33" s="6"/>
       <c r="U33" s="12"/>
-      <c r="V33" s="5">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="34" spans="3:21">
+    </row>
+    <row r="34" spans="2:21">
+      <c r="B34" s="8"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -3085,108 +3084,74 @@
       <c r="T34" s="6"/>
       <c r="U34" s="12"/>
     </row>
-    <row r="35" customFormat="1" spans="3:22">
+    <row r="35" spans="2:21">
+      <c r="B35" s="8"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="12"/>
-      <c r="V35" s="5"/>
-    </row>
-    <row r="36" customFormat="1" ht="27" spans="1:22">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>2100201</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="7" t="s">
+    </row>
+    <row r="36" ht="40.5" spans="2:21">
+      <c r="B36" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0</v>
-      </c>
-      <c r="K36" s="6">
-        <v>13100101</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6">
-        <v>466</v>
-      </c>
-      <c r="O36" s="6">
-        <v>200</v>
-      </c>
-      <c r="P36" s="6">
-        <v>3000</v>
-      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T36" s="6"/>
       <c r="U36" s="12"/>
-      <c r="V36" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="37" ht="27" spans="1:21">
+    </row>
+    <row r="37" customFormat="1" ht="27" spans="1:23">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37">
-        <v>2100202</v>
+        <v>2100101</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="F37" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
       <c r="H37" s="6">
         <v>0</v>
       </c>
@@ -3196,18 +3161,18 @@
       <c r="J37" s="6">
         <v>0</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L37" s="10"/>
+      <c r="K37" s="6">
+        <v>3100101</v>
+      </c>
+      <c r="L37" s="6"/>
       <c r="M37" s="6">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="N37" s="6">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="O37" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P37" s="6">
         <v>3000</v>
@@ -3215,30 +3180,38 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
+      <c r="T37" s="6">
+        <v>1000</v>
+      </c>
       <c r="U37" s="12"/>
-    </row>
-    <row r="38" ht="40.5" spans="1:21">
+      <c r="V37" s="5">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="27" spans="1:23">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38">
-        <v>2100203</v>
+        <v>2100102</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>77</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="6">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="G38" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="6">
         <v>0</v>
@@ -3249,49 +3222,57 @@
       <c r="J38" s="6">
         <v>0</v>
       </c>
-      <c r="K38" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L38" s="10"/>
+      <c r="K38" s="6">
+        <v>3100102</v>
+      </c>
+      <c r="L38" s="6"/>
       <c r="M38" s="6">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="N38" s="6">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="O38" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P38" s="6">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
+      <c r="T38" s="6">
+        <v>1000</v>
+      </c>
       <c r="U38" s="12"/>
-    </row>
-    <row r="39" ht="40.5" spans="1:21">
+      <c r="V38" s="5">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" ht="27" spans="1:23">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39">
-        <v>2100204</v>
+        <v>2100103</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E39" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" s="6">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="G39" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
@@ -3302,49 +3283,57 @@
       <c r="J39" s="6">
         <v>0</v>
       </c>
-      <c r="K39" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L39" s="10"/>
+      <c r="K39" s="6">
+        <v>3100103</v>
+      </c>
+      <c r="L39" s="6"/>
       <c r="M39" s="6">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="N39" s="6">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="O39" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P39" s="6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
+      <c r="T39" s="6">
+        <v>1000</v>
+      </c>
       <c r="U39" s="12"/>
-    </row>
-    <row r="40" ht="54" spans="1:21">
+      <c r="V39" s="5">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="27" spans="1:23">
       <c r="A40" t="s">
         <v>0</v>
       </c>
       <c r="B40">
-        <v>2100205</v>
+        <v>2100104</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E40" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" s="6">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="G40" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" s="6">
         <v>0</v>
@@ -3355,48 +3344,96 @@
       <c r="J40" s="6">
         <v>0</v>
       </c>
-      <c r="K40" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L40" s="10"/>
+      <c r="K40" s="6">
+        <v>3100104</v>
+      </c>
+      <c r="L40" s="6"/>
       <c r="M40" s="6">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="N40" s="6">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="O40" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P40" s="6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
+      <c r="T40" s="6">
+        <v>1000</v>
+      </c>
       <c r="U40" s="12"/>
-    </row>
-    <row r="41" spans="3:21">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="V40" s="5">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" ht="40.5" spans="1:23">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>2100105</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="6">
+        <v>5</v>
+      </c>
+      <c r="F41" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G41" s="6">
+        <v>2</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>3100105</v>
+      </c>
       <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="6"/>
+      <c r="M41" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N41" s="6">
+        <v>400</v>
+      </c>
+      <c r="O41" s="6">
+        <v>400</v>
+      </c>
+      <c r="P41" s="6">
+        <v>1000</v>
+      </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
+      <c r="T41" s="6">
+        <v>1000</v>
+      </c>
       <c r="U41" s="12"/>
+      <c r="V41" s="5">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>2601022</v>
+      </c>
     </row>
     <row r="42" spans="3:21">
       <c r="C42" s="6"/>
@@ -3419,80 +3456,46 @@
       <c r="T42" s="6"/>
       <c r="U42" s="12"/>
     </row>
-    <row r="43" customFormat="1" ht="27" spans="1:22">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <v>2100301</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
-        <v>1</v>
-      </c>
-      <c r="J43" s="6">
-        <v>2</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>87</v>
-      </c>
+    <row r="43" customFormat="1" spans="3:22">
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="10"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="6">
-        <v>0</v>
-      </c>
-      <c r="N43" s="6">
-        <v>0</v>
-      </c>
-      <c r="O43" s="6">
-        <v>0</v>
-      </c>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T43" s="6"/>
       <c r="U43" s="12"/>
-      <c r="V43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="27" spans="1:22">
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" customFormat="1" spans="1:22">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44">
-        <v>2100302</v>
+        <v>2100201</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E44" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="6">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -3501,25 +3504,27 @@
         <v>0</v>
       </c>
       <c r="I44" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="6">
-        <v>2</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>89</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>13100101</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="6">
         <v>0</v>
       </c>
       <c r="N44" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O44" s="6">
-        <v>0</v>
-      </c>
-      <c r="P44" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="P44" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
@@ -3528,27 +3533,27 @@
       </c>
       <c r="U44" s="12"/>
       <c r="V44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="40.5" spans="1:22">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>0</v>
       </c>
       <c r="B45">
-        <v>2100303</v>
+        <v>2100202</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E45" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" s="6">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -3557,54 +3562,51 @@
         <v>0</v>
       </c>
       <c r="I45" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="6">
-        <v>2</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="6">
         <v>0</v>
       </c>
       <c r="N45" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O45" s="6">
-        <v>0</v>
-      </c>
-      <c r="P45" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="P45" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T45" s="6"/>
       <c r="U45" s="12"/>
-      <c r="V45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="40.5" spans="1:22">
+    </row>
+    <row r="46" ht="27" spans="1:21">
       <c r="A46" t="s">
         <v>0</v>
       </c>
       <c r="B46">
-        <v>2100304</v>
+        <v>2100203</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E46" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" s="6">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G46" s="6">
         <v>0</v>
@@ -3613,54 +3615,51 @@
         <v>0</v>
       </c>
       <c r="I46" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="6">
-        <v>2</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>94</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="6">
         <v>0</v>
       </c>
       <c r="N46" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O46" s="6">
-        <v>0</v>
-      </c>
-      <c r="P46" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="P46" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T46" s="6"/>
       <c r="U46" s="12"/>
-      <c r="V46" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="67.5" spans="1:22">
+    </row>
+    <row r="47" ht="27" spans="1:21">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47">
-        <v>2100305</v>
+        <v>2100204</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E47" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" s="6">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G47" s="6">
         <v>0</v>
@@ -3669,51 +3668,80 @@
         <v>0</v>
       </c>
       <c r="I47" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="6">
-        <v>2</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>97</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="6">
         <v>0</v>
       </c>
       <c r="N47" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O47" s="6">
-        <v>0</v>
-      </c>
-      <c r="P47" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="P47" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T47" s="6"/>
       <c r="U47" s="12"/>
-      <c r="V47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:21">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="6"/>
+    </row>
+    <row r="48" ht="40.5" spans="1:21">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>2100205</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="6">
+        <v>5</v>
+      </c>
+      <c r="F48" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6">
+        <v>466</v>
+      </c>
+      <c r="O48" s="6">
+        <v>200</v>
+      </c>
+      <c r="P48" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
@@ -3741,80 +3769,45 @@
       <c r="T49" s="6"/>
       <c r="U49" s="12"/>
     </row>
-    <row r="50" customFormat="1" ht="27" spans="1:22">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50">
-        <v>2100401</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>2</v>
-      </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="6">
-        <v>0</v>
-      </c>
-      <c r="N50" s="6">
-        <v>466</v>
-      </c>
-      <c r="O50" s="6">
-        <v>200</v>
-      </c>
-      <c r="P50" s="6">
-        <v>3000</v>
-      </c>
+    <row r="50" spans="3:21">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T50" s="6"/>
       <c r="U50" s="12"/>
-      <c r="V50" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="51" ht="27" spans="1:22">
+    </row>
+    <row r="51" customFormat="1" ht="27" spans="1:22">
       <c r="A51" t="s">
         <v>0</v>
       </c>
       <c r="B51">
-        <v>2100402</v>
+        <v>2100301</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E51" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" s="6">
-        <v>15003752</v>
+        <v>15003755</v>
       </c>
       <c r="G51" s="6">
         <v>0</v>
@@ -3823,25 +3816,25 @@
         <v>0</v>
       </c>
       <c r="I51" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="6">
         <v>2</v>
       </c>
-      <c r="K51" s="10"/>
+      <c r="K51" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="L51" s="10"/>
       <c r="M51" s="6">
         <v>0</v>
       </c>
       <c r="N51" s="6">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="O51" s="6">
-        <v>200</v>
-      </c>
-      <c r="P51" s="6">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
@@ -3850,27 +3843,27 @@
       </c>
       <c r="U51" s="12"/>
       <c r="V51" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="52" ht="40.5" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="27" spans="1:22">
       <c r="A52" t="s">
         <v>0</v>
       </c>
       <c r="B52">
-        <v>2100403</v>
+        <v>2100302</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E52" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="6">
-        <v>15003752</v>
+        <v>15003755</v>
       </c>
       <c r="G52" s="6">
         <v>0</v>
@@ -3879,27 +3872,25 @@
         <v>0</v>
       </c>
       <c r="I52" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="6">
         <v>2</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="6">
         <v>0</v>
       </c>
       <c r="N52" s="6">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="O52" s="6">
-        <v>200</v>
-      </c>
-      <c r="P52" s="6">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
@@ -3908,27 +3899,27 @@
       </c>
       <c r="U52" s="12"/>
       <c r="V52" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="53" ht="40.5" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="27" spans="1:22">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53">
-        <v>2100404</v>
+        <v>2100303</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E53" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" s="6">
-        <v>15003752</v>
+        <v>15003755</v>
       </c>
       <c r="G53" s="6">
         <v>0</v>
@@ -3937,27 +3928,25 @@
         <v>0</v>
       </c>
       <c r="I53" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="6">
         <v>2</v>
       </c>
-      <c r="K53" s="10">
-        <v>14100301</v>
+      <c r="K53" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="6">
         <v>0</v>
       </c>
       <c r="N53" s="6">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="O53" s="6">
-        <v>200</v>
-      </c>
-      <c r="P53" s="6">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
@@ -3966,7 +3955,7 @@
       </c>
       <c r="U53" s="12"/>
       <c r="V53" s="5">
-        <v>15008014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:22">
@@ -3974,19 +3963,19 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>2100405</v>
+        <v>2100304</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E54" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" s="6">
-        <v>15003752</v>
+        <v>15003755</v>
       </c>
       <c r="G54" s="6">
         <v>0</v>
@@ -3995,27 +3984,25 @@
         <v>0</v>
       </c>
       <c r="I54" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="6">
         <v>2</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="6">
         <v>0</v>
       </c>
       <c r="N54" s="6">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="O54" s="6">
-        <v>200</v>
-      </c>
-      <c r="P54" s="6">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
@@ -4024,29 +4011,64 @@
       </c>
       <c r="U54" s="12"/>
       <c r="V54" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="54" spans="1:22">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>2100305</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="6">
+        <v>5</v>
+      </c>
+      <c r="F55" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>1</v>
+      </c>
+      <c r="J55" s="6">
+        <v>2</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="6">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6">
+        <v>0</v>
+      </c>
+      <c r="O55" s="6">
+        <v>0</v>
+      </c>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
+      <c r="T55" s="6">
+        <v>1000</v>
+      </c>
       <c r="U55" s="12"/>
+      <c r="V55" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="3:21">
       <c r="C56" s="6"/>
@@ -4069,110 +4091,68 @@
       <c r="T56" s="6"/>
       <c r="U56" s="12"/>
     </row>
-    <row r="57" customFormat="1" ht="14" customHeight="1" spans="1:23">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57">
-        <v>2100501</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" s="6">
-        <v>1</v>
-      </c>
-      <c r="F57" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G57" s="6">
-        <v>2</v>
-      </c>
-      <c r="H57" s="6">
-        <v>0</v>
-      </c>
-      <c r="I57" s="6">
-        <v>0</v>
-      </c>
-      <c r="J57" s="6">
-        <v>11</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N57" s="6">
-        <v>180</v>
-      </c>
-      <c r="O57" s="6">
-        <v>100</v>
-      </c>
-      <c r="P57" s="6">
-        <v>3000</v>
-      </c>
+    <row r="57" spans="3:21">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
-      <c r="T57" s="6">
-        <v>2667</v>
-      </c>
+      <c r="T57" s="6"/>
       <c r="U57" s="12"/>
-      <c r="V57" s="5">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="58" ht="14" customHeight="1" spans="1:23">
+    </row>
+    <row r="58" customFormat="1" spans="1:22">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58">
-        <v>2100502</v>
+        <v>2100401</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
         <v>2</v>
       </c>
-      <c r="F58" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G58" s="6">
-        <v>2</v>
-      </c>
-      <c r="H58" s="6">
-        <v>0</v>
-      </c>
-      <c r="I58" s="6">
-        <v>0</v>
-      </c>
-      <c r="J58" s="6">
-        <v>11</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="K58" s="10"/>
       <c r="L58" s="10"/>
       <c r="M58" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N58" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O58" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P58" s="6">
         <v>3000</v>
@@ -4181,59 +4161,54 @@
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U58" s="12"/>
       <c r="V58" s="5">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="59" ht="14" customHeight="1" spans="1:23">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="B59">
-        <v>2100503</v>
+        <v>2100402</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="E59" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" s="6">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
         <v>2</v>
       </c>
-      <c r="H59" s="6">
-        <v>0</v>
-      </c>
-      <c r="I59" s="6">
-        <v>0</v>
-      </c>
-      <c r="J59" s="6">
-        <v>11</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="K59" s="10"/>
       <c r="L59" s="10"/>
       <c r="M59" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N59" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O59" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="6">
         <v>3000</v>
@@ -4242,59 +4217,56 @@
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U59" s="12"/>
       <c r="V59" s="5">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="60" ht="14" customHeight="1" spans="1:23">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="60" ht="27" spans="1:22">
       <c r="A60" t="s">
         <v>0</v>
       </c>
       <c r="B60">
-        <v>2100504</v>
+        <v>2100403</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="E60" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" s="6">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
         <v>2</v>
       </c>
-      <c r="H60" s="6">
-        <v>0</v>
-      </c>
-      <c r="I60" s="6">
-        <v>0</v>
-      </c>
-      <c r="J60" s="6">
-        <v>11</v>
-      </c>
       <c r="K60" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N60" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O60" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="6">
         <v>3000</v>
@@ -4303,59 +4275,56 @@
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U60" s="12"/>
       <c r="V60" s="5">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="61" ht="14" customHeight="1" spans="1:23">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:22">
       <c r="A61" t="s">
         <v>0</v>
       </c>
       <c r="B61">
-        <v>2100505</v>
+        <v>2100404</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="E61" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" s="6">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
         <v>2</v>
       </c>
-      <c r="H61" s="6">
-        <v>0</v>
-      </c>
-      <c r="I61" s="6">
-        <v>0</v>
-      </c>
-      <c r="J61" s="6">
-        <v>11</v>
-      </c>
-      <c r="K61" s="10" t="s">
-        <v>109</v>
+      <c r="K61" s="10">
+        <v>14100301</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N61" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O61" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P61" s="6">
         <v>3000</v>
@@ -4364,36 +4333,70 @@
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U61" s="12"/>
       <c r="V61" s="5">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21">
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="6"/>
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="62" ht="27" spans="1:22">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>2100405</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="6">
+        <v>5</v>
+      </c>
+      <c r="F62" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
+        <v>2</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L62" s="10"/>
+      <c r="M62" s="6">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6">
+        <v>466</v>
+      </c>
+      <c r="O62" s="6">
+        <v>200</v>
+      </c>
+      <c r="P62" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
+      <c r="T62" s="6">
+        <v>1000</v>
+      </c>
       <c r="U62" s="12"/>
+      <c r="V62" s="5">
+        <v>15008014</v>
+      </c>
     </row>
     <row r="63" spans="3:21">
       <c r="C63" s="6"/>
@@ -4416,130 +4419,170 @@
       <c r="T63" s="6"/>
       <c r="U63" s="12"/>
     </row>
-    <row r="64" customFormat="1" ht="14" customHeight="1" spans="1:23">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64">
-        <v>2100601</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="6">
-        <v>1</v>
-      </c>
-      <c r="F64" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G64" s="6">
-        <v>2</v>
-      </c>
-      <c r="H64" s="6">
-        <v>0</v>
-      </c>
-      <c r="I64" s="6">
-        <v>0</v>
-      </c>
-      <c r="J64" s="6">
-        <v>11</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N64" s="6">
-        <v>180</v>
-      </c>
-      <c r="O64" s="6">
-        <v>100</v>
-      </c>
-      <c r="P64" s="6">
-        <v>3000</v>
-      </c>
+    <row r="64" spans="3:21">
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
-      <c r="T64" s="6">
-        <v>2667</v>
-      </c>
+      <c r="T64" s="6"/>
       <c r="U64" s="12"/>
-      <c r="V64" s="5">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="65" spans="3:21">
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="6"/>
+    </row>
+    <row r="65" customFormat="1" ht="14" customHeight="1" spans="1:23">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>2100501</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G65" s="6">
+        <v>2</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>11</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L65" s="10"/>
+      <c r="M65" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N65" s="6">
+        <v>180</v>
+      </c>
+      <c r="O65" s="6">
+        <v>100</v>
+      </c>
+      <c r="P65" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
+      <c r="T65" s="6">
+        <v>2667</v>
+      </c>
       <c r="U65" s="12"/>
-    </row>
-    <row r="66" spans="3:21">
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="6"/>
+      <c r="V65" s="5">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="66" ht="14" customHeight="1" spans="1:23">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>2100502</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G66" s="6">
+        <v>2</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>11</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L66" s="10"/>
+      <c r="M66" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N66" s="6">
+        <v>180</v>
+      </c>
+      <c r="O66" s="6">
+        <v>100</v>
+      </c>
+      <c r="P66" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
+      <c r="T66" s="6">
+        <v>2667</v>
+      </c>
       <c r="U66" s="12"/>
-    </row>
-    <row r="67" customFormat="1" spans="1:22">
+      <c r="V66" s="5">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="67" ht="14" customHeight="1" spans="1:23">
       <c r="A67" t="s">
         <v>0</v>
       </c>
       <c r="B67">
-        <v>2100701</v>
+        <v>2100503</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E67" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" s="6">
-        <v>15003752</v>
+        <v>15003753</v>
       </c>
       <c r="G67" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" s="6">
         <v>0</v>
@@ -4548,20 +4591,20 @@
         <v>0</v>
       </c>
       <c r="J67" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N67" s="6">
-        <v>466</v>
+        <v>180</v>
       </c>
       <c r="O67" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P67" s="6">
         <v>3000</v>
@@ -4570,34 +4613,37 @@
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="U67" s="12"/>
       <c r="V67" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:22">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="68" ht="14" customHeight="1" spans="1:23">
       <c r="A68" t="s">
         <v>0</v>
       </c>
       <c r="B68">
-        <v>2100801</v>
+        <v>2100504</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E68" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F68" s="6">
-        <v>15003752</v>
+        <v>15003753</v>
       </c>
       <c r="G68" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" s="6">
         <v>0</v>
@@ -4606,20 +4652,20 @@
         <v>0</v>
       </c>
       <c r="J68" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K68" s="10" t="s">
         <v>119</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N68" s="6">
-        <v>466</v>
+        <v>180</v>
       </c>
       <c r="O68" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P68" s="6">
         <v>3000</v>
@@ -4628,34 +4674,37 @@
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="U68" s="12"/>
       <c r="V68" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:22">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="69" ht="14" customHeight="1" spans="1:23">
       <c r="A69" t="s">
         <v>0</v>
       </c>
       <c r="B69">
-        <v>2100901</v>
+        <v>2100505</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E69" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F69" s="6">
-        <v>15003752</v>
+        <v>15003753</v>
       </c>
       <c r="G69" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" s="6">
         <v>0</v>
@@ -4664,20 +4713,20 @@
         <v>0</v>
       </c>
       <c r="J69" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N69" s="6">
-        <v>466</v>
+        <v>180</v>
       </c>
       <c r="O69" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P69" s="6">
         <v>3000</v>
@@ -4686,11 +4735,14 @@
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="U69" s="12"/>
       <c r="V69" s="5">
-        <v>15008014</v>
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>2601024</v>
       </c>
     </row>
     <row r="70" spans="3:21">
@@ -4714,20 +4766,10 @@
       <c r="T70" s="6"/>
       <c r="U70" s="12"/>
     </row>
-    <row r="71" spans="1:21">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71">
-        <v>2500001</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>122</v>
-      </c>
+    <row r="71" spans="3:21">
+      <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="6">
-        <v>1</v>
-      </c>
+      <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -4745,26 +4787,66 @@
       <c r="T71" s="6"/>
       <c r="U71" s="12"/>
     </row>
-    <row r="72" spans="3:21">
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="6"/>
+    <row r="72" customFormat="1" ht="14" customHeight="1" spans="1:23">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>2100601</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G72" s="6">
+        <v>2</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
+        <v>11</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L72" s="10"/>
+      <c r="M72" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N72" s="6">
+        <v>180</v>
+      </c>
+      <c r="O72" s="6">
+        <v>100</v>
+      </c>
+      <c r="P72" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
+      <c r="T72" s="6">
+        <v>2667</v>
+      </c>
       <c r="U72" s="12"/>
+      <c r="V72" s="5">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>2601024</v>
+      </c>
     </row>
     <row r="73" spans="3:21">
       <c r="C73" s="6"/>
@@ -4808,23 +4890,27 @@
       <c r="T74" s="6"/>
       <c r="U74" s="12"/>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" customFormat="1" spans="1:22">
       <c r="A75" t="s">
         <v>0</v>
       </c>
       <c r="B75">
-        <v>2001001</v>
+        <v>2100701</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="F75" s="6">
+        <v>15003752</v>
+      </c>
       <c r="G75" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="6">
         <v>0</v>
@@ -4833,94 +4919,91 @@
         <v>0</v>
       </c>
       <c r="J75" s="6">
-        <v>1</v>
-      </c>
-      <c r="K75" s="6">
-        <v>3001001</v>
-      </c>
-      <c r="L75" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L75" s="10"/>
       <c r="M75" s="6">
         <v>0</v>
       </c>
-      <c r="N75" s="9">
-        <v>233</v>
-      </c>
-      <c r="O75" s="9">
-        <v>100</v>
+      <c r="N75" s="6">
+        <v>466</v>
+      </c>
+      <c r="O75" s="6">
+        <v>200</v>
       </c>
       <c r="P75" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="6">
-        <v>1</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="U75" s="12"/>
       <c r="V75" s="5">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>2601001</v>
-      </c>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="2:23">
-      <c r="B76" s="1">
-        <v>2001002</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E76" s="9">
-        <v>1</v>
-      </c>
-      <c r="F76" s="6"/>
-      <c r="G76" s="9">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:22">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>2100801</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6">
         <v>2</v>
       </c>
-      <c r="H76" s="9">
-        <v>0</v>
-      </c>
-      <c r="I76" s="9">
-        <v>0</v>
-      </c>
-      <c r="J76" s="9">
-        <v>0</v>
-      </c>
-      <c r="K76" s="9">
-        <v>3001002</v>
-      </c>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9">
-        <v>99000</v>
-      </c>
-      <c r="N76" s="9">
-        <v>100</v>
-      </c>
-      <c r="O76" s="9">
-        <v>500</v>
-      </c>
-      <c r="P76" s="9">
-        <v>1000</v>
-      </c>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
+      <c r="K76" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L76" s="10"/>
+      <c r="M76" s="6">
+        <v>0</v>
+      </c>
+      <c r="N76" s="6">
+        <v>466</v>
+      </c>
+      <c r="O76" s="6">
+        <v>200</v>
+      </c>
+      <c r="P76" s="6">
+        <v>3000</v>
+      </c>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
       <c r="T76" s="6">
         <v>1000</v>
       </c>
       <c r="U76" s="12"/>
       <c r="V76" s="5">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>2601002</v>
+        <v>15008014</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:22">
@@ -4928,19 +5011,19 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>2001002</v>
+        <v>2100901</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E77" s="9">
+        <v>130</v>
+      </c>
+      <c r="E77" s="6">
         <v>1</v>
       </c>
       <c r="F77" s="6">
-        <v>15003751</v>
+        <v>15003752</v>
       </c>
       <c r="G77" s="6">
         <v>0</v>
@@ -4954,10 +5037,10 @@
       <c r="J77" s="6">
         <v>2</v>
       </c>
-      <c r="K77" s="6">
-        <v>14001010</v>
-      </c>
-      <c r="L77" s="6"/>
+      <c r="K77" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L77" s="10"/>
       <c r="M77" s="6">
         <v>0</v>
       </c>
@@ -4968,7 +5051,7 @@
         <v>200</v>
       </c>
       <c r="P77" s="6">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
@@ -4978,247 +5061,104 @@
       </c>
       <c r="U77" s="12"/>
       <c r="V77" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78">
-        <v>2201101</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="9">
-        <v>1</v>
-      </c>
-      <c r="F78" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G78" s="6">
-        <v>0</v>
-      </c>
-      <c r="H78" s="6">
-        <v>0</v>
-      </c>
-      <c r="I78" s="6">
-        <v>0</v>
-      </c>
-      <c r="J78" s="6">
-        <v>0</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="L78" s="10"/>
-      <c r="M78" s="6">
-        <v>0</v>
-      </c>
-      <c r="N78" s="6">
-        <v>466</v>
-      </c>
-      <c r="O78" s="6">
-        <v>200</v>
-      </c>
-      <c r="P78" s="6">
-        <v>8000</v>
-      </c>
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="78" spans="3:21">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T78" s="6"/>
       <c r="U78" s="12"/>
-      <c r="V78" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:23">
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" t="s">
         <v>0</v>
       </c>
       <c r="B79">
-        <v>2001004</v>
+        <v>2500001</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" s="9">
-        <v>1</v>
-      </c>
-      <c r="F79" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G79" s="6">
-        <v>2</v>
-      </c>
-      <c r="H79" s="6">
-        <v>1</v>
-      </c>
-      <c r="I79" s="6">
-        <v>0</v>
-      </c>
-      <c r="J79" s="6">
-        <v>2</v>
-      </c>
-      <c r="K79" s="6">
-        <v>16001001</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="6">
-        <v>100000</v>
-      </c>
-      <c r="N79" s="6">
-        <v>466</v>
-      </c>
-      <c r="O79" s="6">
-        <v>200</v>
-      </c>
-      <c r="P79" s="6">
-        <v>7000</v>
-      </c>
+      <c r="M79" s="6"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
-      <c r="T79" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T79" s="6"/>
       <c r="U79" s="12"/>
-      <c r="V79" s="5">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>2601005</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:22">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80">
-        <v>2001005</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E80" s="9">
-        <v>1</v>
-      </c>
-      <c r="F80" s="6">
-        <v>15003754</v>
-      </c>
-      <c r="G80" s="6">
-        <v>0</v>
-      </c>
-      <c r="H80" s="6">
-        <v>0</v>
-      </c>
-      <c r="I80" s="6">
-        <v>0</v>
-      </c>
-      <c r="J80" s="6">
-        <v>2</v>
-      </c>
-      <c r="K80" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L80" s="10"/>
-      <c r="M80" s="6">
-        <v>0</v>
-      </c>
-      <c r="N80" s="6">
-        <v>466</v>
-      </c>
-      <c r="O80" s="6">
-        <v>200</v>
-      </c>
-      <c r="P80" s="6">
-        <v>25000</v>
-      </c>
+    </row>
+    <row r="80" spans="3:21">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
-      <c r="R80" s="6">
-        <v>1</v>
-      </c>
+      <c r="R80" s="6"/>
       <c r="S80" s="6"/>
-      <c r="T80" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T80" s="6"/>
       <c r="U80" s="12"/>
-      <c r="V80" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="1:22">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81">
-        <v>2001006</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E81" s="9">
-        <v>1</v>
-      </c>
-      <c r="F81" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G81" s="6">
-        <v>0</v>
-      </c>
-      <c r="H81" s="6">
-        <v>0</v>
-      </c>
-      <c r="I81" s="6">
-        <v>1</v>
-      </c>
-      <c r="J81" s="6">
-        <v>2</v>
-      </c>
-      <c r="K81" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="L81" s="10"/>
-      <c r="M81" s="6">
-        <v>0</v>
-      </c>
-      <c r="N81" s="6">
-        <v>0</v>
-      </c>
-      <c r="O81" s="6">
-        <v>0</v>
-      </c>
-      <c r="P81" s="6">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="81" spans="3:21">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
-      <c r="T81" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T81" s="6"/>
       <c r="U81" s="12"/>
-      <c r="V81" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="3:22">
+    </row>
+    <row r="82" spans="3:21">
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -5230,35 +5170,32 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
       <c r="U82" s="12"/>
-      <c r="V82" s="5"/>
-    </row>
-    <row r="83" customFormat="1" spans="1:22">
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" t="s">
         <v>0</v>
       </c>
       <c r="B83">
-        <v>2001008</v>
+        <v>2001001</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="E83" s="6"/>
-      <c r="F83" s="6">
-        <v>15003755</v>
-      </c>
+      <c r="F83" s="6"/>
       <c r="G83" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="6">
         <v>0</v>
@@ -5267,74 +5204,175 @@
         <v>0</v>
       </c>
       <c r="J83" s="6">
-        <v>0</v>
-      </c>
-      <c r="K83" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L83" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="K83" s="6">
+        <v>3001001</v>
+      </c>
+      <c r="L83" s="6"/>
       <c r="M83" s="6">
         <v>0</v>
       </c>
-      <c r="N83" s="6">
-        <v>466</v>
-      </c>
-      <c r="O83" s="6">
-        <v>200</v>
+      <c r="N83" s="9">
+        <v>233</v>
+      </c>
+      <c r="O83" s="9">
+        <v>100</v>
       </c>
       <c r="P83" s="6">
-        <v>2500</v>
-      </c>
-      <c r="Q83" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>1</v>
+      </c>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="U83" s="12"/>
       <c r="V83" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" customFormat="1" spans="3:22">
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
+      <c r="W83">
+        <v>2601001</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:23">
+      <c r="B84" s="1">
+        <v>2001002</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" s="9">
+        <v>1</v>
+      </c>
       <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
+      <c r="G84" s="9">
+        <v>2</v>
+      </c>
+      <c r="H84" s="9">
+        <v>0</v>
+      </c>
+      <c r="I84" s="9">
+        <v>0</v>
+      </c>
+      <c r="J84" s="9">
+        <v>0</v>
+      </c>
+      <c r="K84" s="9">
+        <v>3001002</v>
+      </c>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9">
+        <v>99000</v>
+      </c>
+      <c r="N84" s="9">
+        <v>100</v>
+      </c>
+      <c r="O84" s="9">
+        <v>500</v>
+      </c>
+      <c r="P84" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="6">
+        <v>1000</v>
+      </c>
       <c r="U84" s="12"/>
-      <c r="V84" s="5"/>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="V84" s="5">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>2601002</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:22">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>2001002</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="9">
+        <v>1</v>
+      </c>
+      <c r="F85" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G85" s="6">
+        <v>0</v>
+      </c>
+      <c r="H85" s="6">
+        <v>0</v>
+      </c>
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6">
+        <v>2</v>
+      </c>
+      <c r="K85" s="6">
+        <v>14001010</v>
+      </c>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6">
+        <v>0</v>
+      </c>
+      <c r="N85" s="6">
+        <v>466</v>
+      </c>
+      <c r="O85" s="6">
+        <v>200</v>
+      </c>
+      <c r="P85" s="6">
+        <v>15000</v>
+      </c>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U85" s="12"/>
+      <c r="V85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" t="s">
         <v>0</v>
       </c>
       <c r="B86">
-        <v>2001021</v>
+        <v>2201101</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="E86" s="9">
+        <v>1</v>
+      </c>
+      <c r="F86" s="6">
+        <v>15003752</v>
+      </c>
       <c r="G86" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" s="6">
         <v>0</v>
@@ -5343,46 +5381,41 @@
         <v>0</v>
       </c>
       <c r="J86" s="6">
-        <v>1</v>
-      </c>
-      <c r="K86" s="6">
-        <v>3001011</v>
-      </c>
-      <c r="L86" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L86" s="10"/>
       <c r="M86" s="6">
         <v>0</v>
       </c>
       <c r="N86" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O86" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P86" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="6">
-        <v>1</v>
-      </c>
+        <v>8000</v>
+      </c>
+      <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U86" s="12"/>
       <c r="V86" s="5">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>2601021</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:23">
       <c r="A87" t="s">
         <v>0</v>
       </c>
       <c r="B87">
-        <v>2001022</v>
+        <v>2001004</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>140</v>
@@ -5390,60 +5423,60 @@
       <c r="D87" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="9">
         <v>1</v>
       </c>
       <c r="F87" s="6">
-        <v>15003751</v>
+        <v>15003753</v>
       </c>
       <c r="G87" s="6">
         <v>2</v>
       </c>
       <c r="H87" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="6">
         <v>0</v>
       </c>
       <c r="J87" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87" s="6">
-        <v>3001012</v>
+        <v>16001001</v>
       </c>
       <c r="L87" s="6"/>
       <c r="M87" s="6">
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="N87" s="6">
-        <v>1800</v>
+        <v>466</v>
       </c>
       <c r="O87" s="6">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="P87" s="6">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6">
-        <v>267</v>
+        <v>1000</v>
       </c>
       <c r="U87" s="12"/>
       <c r="V87" s="5">
         <v>0</v>
       </c>
       <c r="W87">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22">
+        <v>2601005</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:22">
       <c r="A88" t="s">
         <v>0</v>
       </c>
       <c r="B88">
-        <v>2001023</v>
+        <v>2001005</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>142</v>
@@ -5451,11 +5484,11 @@
       <c r="D88" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="9">
         <v>1</v>
       </c>
       <c r="F88" s="6">
-        <v>15003752</v>
+        <v>15003754</v>
       </c>
       <c r="G88" s="6">
         <v>0</v>
@@ -5477,31 +5510,33 @@
         <v>0</v>
       </c>
       <c r="N88" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O88" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P88" s="6">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
+      <c r="R88" s="6">
+        <v>1</v>
+      </c>
       <c r="S88" s="6"/>
       <c r="T88" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U88" s="12"/>
       <c r="V88" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:22">
       <c r="A89" t="s">
         <v>0</v>
       </c>
       <c r="B89">
-        <v>2201201</v>
+        <v>2001006</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>145</v>
@@ -5509,130 +5544,87 @@
       <c r="D89" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="9">
         <v>1</v>
       </c>
       <c r="F89" s="6">
-        <v>15003753</v>
+        <v>15003755</v>
       </c>
       <c r="G89" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="6">
         <v>0</v>
       </c>
       <c r="I89" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" s="10" t="s">
         <v>147</v>
       </c>
       <c r="L89" s="10"/>
       <c r="M89" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N89" s="6">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O89" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U89" s="12"/>
       <c r="V89" s="5">
         <v>0</v>
       </c>
-      <c r="W89">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90">
-        <v>2001025</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E90" s="6">
-        <v>1</v>
-      </c>
-      <c r="F90" s="6">
-        <v>15003754</v>
-      </c>
-      <c r="G90" s="6">
-        <v>1</v>
-      </c>
-      <c r="H90" s="6">
-        <v>0</v>
-      </c>
-      <c r="I90" s="6">
-        <v>0</v>
-      </c>
-      <c r="J90" s="6">
-        <v>1</v>
-      </c>
-      <c r="K90" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="L90" s="10"/>
-      <c r="M90" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N90" s="6">
-        <v>180</v>
-      </c>
-      <c r="O90" s="6">
-        <v>100</v>
-      </c>
-      <c r="P90" s="6">
-        <v>25000</v>
-      </c>
+    </row>
+    <row r="90" customFormat="1" spans="3:22">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
-      <c r="R90" s="6">
-        <v>1</v>
-      </c>
+      <c r="R90" s="6"/>
       <c r="S90" s="6"/>
-      <c r="T90" s="6">
-        <v>2667</v>
-      </c>
+      <c r="T90" s="6"/>
       <c r="U90" s="12"/>
-      <c r="V90" s="5">
-        <v>0</v>
-      </c>
+      <c r="V90" s="5"/>
     </row>
     <row r="91" customFormat="1" spans="1:22">
       <c r="A91" t="s">
         <v>0</v>
       </c>
       <c r="B91">
-        <v>2001026</v>
+        <v>2001008</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E91" s="6">
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E91" s="6"/>
       <c r="F91" s="6">
         <v>15003755</v>
       </c>
@@ -5643,308 +5635,473 @@
         <v>0</v>
       </c>
       <c r="I91" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="6">
         <v>0</v>
       </c>
       <c r="N91" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O91" s="6">
-        <v>0</v>
-      </c>
-      <c r="P91" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="P91" s="6">
+        <v>2500</v>
+      </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U91" s="12"/>
       <c r="V91" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" spans="1:23">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
+    <row r="92" customFormat="1" spans="3:22">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
       <c r="T92" s="6"/>
       <c r="U92" s="12"/>
       <c r="V92" s="5"/>
-      <c r="W92"/>
-    </row>
-    <row r="93" ht="12" customHeight="1" spans="3:21">
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="12"/>
-    </row>
-    <row r="94" customFormat="1" spans="1:24">
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" t="s">
         <v>0</v>
       </c>
       <c r="B94">
-        <v>2001050</v>
+        <v>2001021</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="E94" s="6"/>
-      <c r="F94" s="6">
-        <v>15003753</v>
-      </c>
+      <c r="F94" s="6"/>
       <c r="G94" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" s="6">
         <v>0</v>
       </c>
       <c r="J94" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="6">
-        <v>16001010</v>
+        <v>3001011</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N94" s="6">
-        <v>1500</v>
+        <v>180</v>
       </c>
       <c r="O94" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P94" s="6">
-        <v>600</v>
-      </c>
-      <c r="Q94" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="6">
+        <v>1</v>
+      </c>
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="U94" s="12"/>
       <c r="V94" s="5">
         <v>0</v>
       </c>
       <c r="W94">
-        <v>2601050</v>
-      </c>
-      <c r="X94">
-        <v>2500005</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" spans="3:22">
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
+        <v>2601021</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>2001022</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
+      <c r="F95" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G95" s="6">
+        <v>2</v>
+      </c>
+      <c r="H95" s="6">
+        <v>0</v>
+      </c>
+      <c r="I95" s="6">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6">
+        <v>0</v>
+      </c>
+      <c r="K95" s="6">
+        <v>3001012</v>
+      </c>
       <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
+      <c r="M95" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N95" s="6">
+        <v>1800</v>
+      </c>
+      <c r="O95" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P95" s="6">
+        <v>2000</v>
+      </c>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
+      <c r="T95" s="6">
+        <v>267</v>
+      </c>
       <c r="U95" s="12"/>
-      <c r="V95" s="5"/>
-    </row>
-    <row r="96" customFormat="1" spans="3:22">
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
+      <c r="V95" s="5">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>2001023</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1</v>
+      </c>
+      <c r="F96" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G96" s="6">
+        <v>0</v>
+      </c>
+      <c r="H96" s="6">
+        <v>0</v>
+      </c>
+      <c r="I96" s="6">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6">
+        <v>2</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L96" s="10"/>
+      <c r="M96" s="6">
+        <v>0</v>
+      </c>
+      <c r="N96" s="6">
+        <v>180</v>
+      </c>
+      <c r="O96" s="6">
+        <v>100</v>
+      </c>
+      <c r="P96" s="6">
+        <v>15000</v>
+      </c>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
+      <c r="T96" s="6">
+        <v>2667</v>
+      </c>
       <c r="U96" s="12"/>
-      <c r="V96" s="5"/>
-    </row>
-    <row r="97" customFormat="1" spans="3:22">
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
+      <c r="V96" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:23">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>2201201</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1</v>
+      </c>
+      <c r="F97" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G97" s="6">
+        <v>1</v>
+      </c>
+      <c r="H97" s="6">
+        <v>0</v>
+      </c>
+      <c r="I97" s="6">
+        <v>0</v>
+      </c>
+      <c r="J97" s="6">
+        <v>1</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="L97" s="10"/>
+      <c r="M97" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N97" s="6">
+        <v>180</v>
+      </c>
+      <c r="O97" s="6">
+        <v>100</v>
+      </c>
+      <c r="P97" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
+      <c r="T97" s="6">
+        <v>2667</v>
+      </c>
       <c r="U97" s="12"/>
-      <c r="V97" s="5"/>
-    </row>
-    <row r="98" customFormat="1" spans="3:22">
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
+      <c r="V97" s="5">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>2001025</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98" s="6">
+        <v>15003754</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0</v>
+      </c>
+      <c r="J98" s="6">
+        <v>1</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L98" s="10"/>
+      <c r="M98" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N98" s="6">
+        <v>180</v>
+      </c>
+      <c r="O98" s="6">
+        <v>100</v>
+      </c>
+      <c r="P98" s="6">
+        <v>25000</v>
+      </c>
       <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
+      <c r="R98" s="6">
+        <v>1</v>
+      </c>
       <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
+      <c r="T98" s="6">
+        <v>2667</v>
+      </c>
       <c r="U98" s="12"/>
-      <c r="V98" s="5"/>
-    </row>
-    <row r="99" s="3" customFormat="1" spans="20:22">
-      <c r="T99" s="6"/>
-      <c r="U99" s="5"/>
-      <c r="V99" s="5"/>
-    </row>
-    <row r="100" spans="20:20">
+      <c r="V98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:22">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>2001026</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1</v>
+      </c>
+      <c r="F99" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G99" s="6">
+        <v>0</v>
+      </c>
+      <c r="H99" s="6">
+        <v>0</v>
+      </c>
+      <c r="I99" s="6">
+        <v>1</v>
+      </c>
+      <c r="J99" s="6">
+        <v>2</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L99" s="10"/>
+      <c r="M99" s="6">
+        <v>0</v>
+      </c>
+      <c r="N99" s="6">
+        <v>0</v>
+      </c>
+      <c r="O99" s="6">
+        <v>0</v>
+      </c>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6">
+        <v>2667</v>
+      </c>
+      <c r="U99" s="12"/>
+      <c r="V99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" s="2" customFormat="1" spans="1:23">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
       <c r="T100" s="6"/>
-    </row>
-    <row r="101" spans="1:22">
-      <c r="A101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101">
-        <v>2002001</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="U100" s="12"/>
+      <c r="V100" s="5"/>
+      <c r="W100"/>
+    </row>
+    <row r="101" ht="12" customHeight="1" spans="3:21">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="6">
-        <v>1</v>
-      </c>
-      <c r="H101" s="6">
-        <v>0</v>
-      </c>
-      <c r="I101" s="6">
-        <v>0</v>
-      </c>
-      <c r="J101" s="6">
-        <v>1</v>
-      </c>
-      <c r="K101" s="6">
-        <v>3002001</v>
-      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
       <c r="L101" s="6"/>
-      <c r="M101" s="6">
-        <v>0</v>
-      </c>
-      <c r="N101" s="6">
-        <v>300</v>
-      </c>
-      <c r="O101" s="6">
-        <v>300</v>
-      </c>
-      <c r="P101" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="6">
-        <v>1</v>
-      </c>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
-      <c r="T101" s="6">
-        <v>1540</v>
-      </c>
+      <c r="T101" s="6"/>
       <c r="U101" s="12"/>
-      <c r="V101" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24">
+    </row>
+    <row r="102" customFormat="1" spans="1:24">
       <c r="A102" t="s">
         <v>0</v>
       </c>
       <c r="B102">
-        <v>2002002</v>
+        <v>2001050</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6">
@@ -5954,42 +6111,45 @@
         <v>2</v>
       </c>
       <c r="H102" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" s="6">
         <v>0</v>
       </c>
       <c r="J102" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K102" s="6">
-        <v>13002030</v>
+        <v>16001010</v>
       </c>
       <c r="L102" s="6"/>
       <c r="M102" s="6">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N102" s="6">
         <v>1500</v>
       </c>
       <c r="O102" s="6">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="P102" s="6">
-        <v>6500</v>
+        <v>600</v>
       </c>
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
       <c r="T102" s="6">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="U102" s="12"/>
       <c r="V102" s="5">
         <v>0</v>
       </c>
+      <c r="W102">
+        <v>2601050</v>
+      </c>
       <c r="X102">
-        <v>2500010</v>
+        <v>2500005</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="3:22">
@@ -6014,125 +6174,52 @@
       <c r="U103" s="12"/>
       <c r="V103" s="5"/>
     </row>
-    <row r="104" customFormat="1" spans="1:22">
-      <c r="A104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104">
-        <v>2002011</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>158</v>
-      </c>
+    <row r="104" customFormat="1" spans="3:22">
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="6">
-        <v>1</v>
-      </c>
-      <c r="H104" s="6">
-        <v>0</v>
-      </c>
-      <c r="I104" s="6">
-        <v>0</v>
-      </c>
-      <c r="J104" s="6">
-        <v>1</v>
-      </c>
-      <c r="K104" s="6">
-        <v>3002011</v>
-      </c>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
       <c r="L104" s="6"/>
-      <c r="M104" s="6">
-        <v>0</v>
-      </c>
-      <c r="N104" s="6">
-        <v>300</v>
-      </c>
-      <c r="O104" s="6">
-        <v>200</v>
-      </c>
-      <c r="P104" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="6">
-        <v>1</v>
-      </c>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
-      <c r="T104" s="6">
-        <v>1400</v>
-      </c>
+      <c r="T104" s="6"/>
       <c r="U104" s="12"/>
-      <c r="V104" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" spans="1:24">
-      <c r="A105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105">
-        <v>2002012</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>159</v>
-      </c>
+      <c r="V104" s="5"/>
+    </row>
+    <row r="105" customFormat="1" spans="3:22">
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
       <c r="E105" s="6"/>
-      <c r="F105" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G105" s="6">
-        <v>2</v>
-      </c>
-      <c r="H105" s="6">
-        <v>0</v>
-      </c>
-      <c r="I105" s="6">
-        <v>0</v>
-      </c>
-      <c r="J105" s="6">
-        <v>0</v>
-      </c>
-      <c r="K105" s="6">
-        <v>3002012</v>
-      </c>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
       <c r="L105" s="6"/>
-      <c r="M105" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N105" s="6">
-        <v>1000</v>
-      </c>
-      <c r="O105" s="6">
-        <v>700</v>
-      </c>
-      <c r="P105" s="6">
-        <v>7000</v>
-      </c>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
-      <c r="T105" s="6">
-        <v>420</v>
-      </c>
+      <c r="T105" s="6"/>
       <c r="U105" s="12"/>
-      <c r="V105" s="5">
-        <v>0</v>
-      </c>
-      <c r="W105">
-        <v>2602012</v>
-      </c>
-      <c r="X105">
-        <v>2500011</v>
-      </c>
-    </row>
-    <row r="106" customFormat="1" spans="4:22">
+      <c r="V105" s="5"/>
+    </row>
+    <row r="106" customFormat="1" spans="3:22">
+      <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -6140,6 +6227,8 @@
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
       <c r="O106" s="6"/>
@@ -6151,269 +6240,213 @@
       <c r="U106" s="12"/>
       <c r="V106" s="5"/>
     </row>
-    <row r="107" customFormat="1" spans="4:22">
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="6"/>
+    <row r="107" s="3" customFormat="1" spans="20:22">
       <c r="T107" s="6"/>
-      <c r="U107" s="12"/>
+      <c r="U107" s="5"/>
       <c r="V107" s="5"/>
     </row>
-    <row r="108" customFormat="1" spans="1:23">
-      <c r="A108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108">
-        <v>2003001</v>
-      </c>
-      <c r="C108" t="s">
-        <v>160</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6">
-        <v>1</v>
-      </c>
-      <c r="H108" s="6">
-        <v>0</v>
-      </c>
-      <c r="I108" s="6">
-        <v>0</v>
-      </c>
-      <c r="J108" s="6">
-        <v>1</v>
-      </c>
-      <c r="K108">
-        <v>3003001</v>
-      </c>
-      <c r="M108" s="6">
-        <v>0</v>
-      </c>
-      <c r="N108" s="6">
+    <row r="108" spans="20:20">
+      <c r="T108" s="6"/>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>2002001</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6">
+        <v>1</v>
+      </c>
+      <c r="H109" s="6">
+        <v>0</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
+      <c r="J109" s="6">
+        <v>1</v>
+      </c>
+      <c r="K109" s="6">
+        <v>3002001</v>
+      </c>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6">
+        <v>0</v>
+      </c>
+      <c r="N109" s="6">
         <v>300</v>
       </c>
-      <c r="O108" s="6">
+      <c r="O109" s="6">
         <v>300</v>
       </c>
-      <c r="P108" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="6">
-        <v>1</v>
-      </c>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
-      <c r="T108" s="6">
+      <c r="P109" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="6">
+        <v>1</v>
+      </c>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6">
         <v>1540</v>
       </c>
-      <c r="U108" s="12"/>
-      <c r="V108" s="5">
-        <v>0</v>
-      </c>
-      <c r="W108">
-        <v>2603001</v>
-      </c>
-    </row>
-    <row r="109" s="4" customFormat="1" spans="1:23">
-      <c r="A109" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="4">
-        <v>2003002</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14">
-        <v>15003751</v>
-      </c>
-      <c r="G109" s="14">
+      <c r="U109" s="12"/>
+      <c r="V109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>2002002</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G110" s="6">
         <v>2</v>
       </c>
-      <c r="H109" s="14">
-        <v>0</v>
-      </c>
-      <c r="I109" s="14">
-        <v>0</v>
-      </c>
-      <c r="J109" s="14">
-        <v>1</v>
-      </c>
-      <c r="K109" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="L109" s="16"/>
-      <c r="M109" s="14">
-        <v>8000</v>
-      </c>
-      <c r="N109" s="14">
-        <v>600</v>
-      </c>
-      <c r="O109" s="14">
-        <v>0</v>
-      </c>
-      <c r="P109" s="14">
-        <v>2000</v>
-      </c>
-      <c r="Q109" s="14"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="14"/>
-      <c r="T109" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U109" s="14"/>
-      <c r="V109" s="5">
-        <v>0</v>
-      </c>
-      <c r="W109" s="4">
-        <v>2603002</v>
-      </c>
-    </row>
-    <row r="110" s="4" customFormat="1" spans="1:23">
-      <c r="A110" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="4">
-        <v>2003003</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14">
-        <v>15003753</v>
-      </c>
-      <c r="G110" s="14">
-        <v>0</v>
-      </c>
-      <c r="H110" s="14">
-        <v>0</v>
-      </c>
-      <c r="I110" s="14">
-        <v>0</v>
-      </c>
-      <c r="J110" s="14">
+      <c r="H110" s="6">
+        <v>0</v>
+      </c>
+      <c r="I110" s="6">
+        <v>0</v>
+      </c>
+      <c r="J110" s="6">
         <v>2</v>
       </c>
-      <c r="K110" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="L110" s="16"/>
-      <c r="M110" s="14">
-        <v>0</v>
-      </c>
-      <c r="N110" s="14">
-        <v>50</v>
-      </c>
-      <c r="O110" s="14">
-        <v>0</v>
-      </c>
-      <c r="P110" s="14">
-        <v>6000</v>
-      </c>
-      <c r="Q110" s="14"/>
-      <c r="R110" s="14"/>
-      <c r="S110" s="14"/>
+      <c r="K110" s="6">
+        <v>13002030</v>
+      </c>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6">
+        <v>4000</v>
+      </c>
+      <c r="N110" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O110" s="6">
+        <v>700</v>
+      </c>
+      <c r="P110" s="6">
+        <v>6500</v>
+      </c>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
       <c r="T110" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U110" s="14"/>
+        <v>340</v>
+      </c>
+      <c r="U110" s="12"/>
       <c r="V110" s="5">
-        <v>15008005</v>
-      </c>
-      <c r="W110" s="4">
-        <v>2603003</v>
-      </c>
-    </row>
-    <row r="111" s="4" customFormat="1" spans="1:23">
-      <c r="A111" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="4">
-        <v>2003004</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D111" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>2500010</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" spans="3:22">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="5"/>
+    </row>
+    <row r="112" customFormat="1" spans="1:22">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>2002011</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14">
-        <v>15003754</v>
-      </c>
-      <c r="G111" s="14">
-        <v>2</v>
-      </c>
-      <c r="H111" s="14">
-        <v>1</v>
-      </c>
-      <c r="I111" s="14">
-        <v>0</v>
-      </c>
-      <c r="J111" s="14">
-        <v>0</v>
-      </c>
-      <c r="K111" s="14">
-        <v>16001001</v>
-      </c>
-      <c r="L111" s="14"/>
-      <c r="M111" s="14">
-        <v>8000</v>
-      </c>
-      <c r="N111" s="14">
-        <v>0</v>
-      </c>
-      <c r="O111" s="14">
-        <v>0</v>
-      </c>
-      <c r="P111" s="14">
-        <v>1500</v>
-      </c>
-      <c r="Q111" s="14"/>
-      <c r="R111" s="14"/>
-      <c r="S111" s="14"/>
-      <c r="T111" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U111" s="14"/>
-      <c r="V111" s="5">
-        <v>0</v>
-      </c>
-      <c r="W111" s="4">
-        <v>2603004</v>
-      </c>
-    </row>
-    <row r="112" spans="20:20">
-      <c r="T112" s="6"/>
-    </row>
-    <row r="113" customFormat="1" spans="1:23">
+      <c r="D112" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6">
+        <v>1</v>
+      </c>
+      <c r="H112" s="6">
+        <v>0</v>
+      </c>
+      <c r="I112" s="6">
+        <v>0</v>
+      </c>
+      <c r="J112" s="6">
+        <v>1</v>
+      </c>
+      <c r="K112" s="6">
+        <v>3002011</v>
+      </c>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6">
+        <v>0</v>
+      </c>
+      <c r="N112" s="6">
+        <v>300</v>
+      </c>
+      <c r="O112" s="6">
+        <v>200</v>
+      </c>
+      <c r="P112" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="6">
+        <v>1</v>
+      </c>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6">
+        <v>1400</v>
+      </c>
+      <c r="U112" s="12"/>
+      <c r="V112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" spans="1:24">
       <c r="A113" t="s">
         <v>0</v>
       </c>
       <c r="B113">
-        <v>2003050</v>
+        <v>2002012</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>169</v>
@@ -6421,246 +6454,584 @@
       <c r="D113" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E113" s="6">
-        <v>1</v>
-      </c>
+      <c r="E113" s="6"/>
       <c r="F113" s="6">
         <v>15003751</v>
       </c>
       <c r="G113" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113" s="6">
         <v>0</v>
       </c>
       <c r="I113" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" s="6">
-        <v>2</v>
-      </c>
-      <c r="K113" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="L113" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="6">
+        <v>3002012</v>
+      </c>
+      <c r="L113" s="6"/>
       <c r="M113" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N113" s="6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O113" s="6">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="P113" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="6">
-        <v>1</v>
-      </c>
+        <v>7000</v>
+      </c>
+      <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
       <c r="T113" s="6">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="U113" s="12"/>
       <c r="V113" s="5">
         <v>0</v>
       </c>
       <c r="W113">
-        <v>2603050</v>
-      </c>
-    </row>
-    <row r="114" customFormat="1" spans="1:23">
-      <c r="A114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114">
-        <v>2003051</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E114" s="6">
-        <v>1</v>
-      </c>
-      <c r="F114" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G114" s="6">
-        <v>0</v>
-      </c>
-      <c r="H114" s="6">
-        <v>0</v>
-      </c>
-      <c r="I114" s="6">
-        <v>1</v>
-      </c>
-      <c r="J114" s="6">
-        <v>2</v>
-      </c>
-      <c r="K114" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="L114" s="10"/>
-      <c r="M114" s="6">
-        <v>0</v>
-      </c>
-      <c r="N114" s="6">
-        <v>0</v>
-      </c>
-      <c r="O114" s="6">
-        <v>0</v>
-      </c>
-      <c r="P114" s="6">
-        <v>0</v>
-      </c>
+        <v>2602012</v>
+      </c>
+      <c r="X113">
+        <v>2500011</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" spans="4:22">
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
-      <c r="T114" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T114" s="6"/>
       <c r="U114" s="12"/>
-      <c r="V114" s="5">
-        <v>0</v>
-      </c>
-      <c r="W114">
-        <v>2603051</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" spans="1:24">
-      <c r="A115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115">
-        <v>2003052</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E115" s="6">
-        <v>1</v>
-      </c>
-      <c r="F115" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G115" s="6">
-        <v>0</v>
-      </c>
-      <c r="H115" s="6">
-        <v>0</v>
-      </c>
-      <c r="I115" s="6">
-        <v>0</v>
-      </c>
-      <c r="J115" s="6">
-        <v>0</v>
-      </c>
-      <c r="K115" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="L115" s="10"/>
-      <c r="M115" s="6">
-        <v>0</v>
-      </c>
-      <c r="N115" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O115" s="6">
-        <v>700</v>
-      </c>
-      <c r="P115" s="6">
-        <v>12000</v>
-      </c>
+      <c r="V114" s="5"/>
+    </row>
+    <row r="115" customFormat="1" spans="4:22">
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
       <c r="S115" s="6"/>
-      <c r="T115" s="6">
+      <c r="T115" s="6"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="5"/>
+    </row>
+    <row r="116" customFormat="1" spans="1:23">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>2003001</v>
+      </c>
+      <c r="C116" t="s">
+        <v>170</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6">
+        <v>1</v>
+      </c>
+      <c r="H116" s="6">
+        <v>0</v>
+      </c>
+      <c r="I116" s="6">
+        <v>0</v>
+      </c>
+      <c r="J116" s="6">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>3003001</v>
+      </c>
+      <c r="M116" s="6">
+        <v>0</v>
+      </c>
+      <c r="N116" s="6">
+        <v>300</v>
+      </c>
+      <c r="O116" s="6">
+        <v>300</v>
+      </c>
+      <c r="P116" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="6">
+        <v>1</v>
+      </c>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6">
+        <v>1540</v>
+      </c>
+      <c r="U116" s="12"/>
+      <c r="V116" s="5">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>2603001</v>
+      </c>
+    </row>
+    <row r="117" s="4" customFormat="1" spans="1:23">
+      <c r="A117" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="4">
+        <v>2003002</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14">
+        <v>15003751</v>
+      </c>
+      <c r="G117" s="14">
+        <v>2</v>
+      </c>
+      <c r="H117" s="14">
+        <v>0</v>
+      </c>
+      <c r="I117" s="14">
+        <v>0</v>
+      </c>
+      <c r="J117" s="14">
+        <v>1</v>
+      </c>
+      <c r="K117" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L117" s="16"/>
+      <c r="M117" s="14">
+        <v>8000</v>
+      </c>
+      <c r="N117" s="14">
+        <v>600</v>
+      </c>
+      <c r="O117" s="14">
+        <v>0</v>
+      </c>
+      <c r="P117" s="14">
+        <v>2000</v>
+      </c>
+      <c r="Q117" s="14"/>
+      <c r="R117" s="14"/>
+      <c r="S117" s="14"/>
+      <c r="T117" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U117" s="14"/>
+      <c r="V117" s="5">
+        <v>0</v>
+      </c>
+      <c r="W117" s="4">
+        <v>2603002</v>
+      </c>
+    </row>
+    <row r="118" s="4" customFormat="1" spans="1:23">
+      <c r="A118" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="4">
+        <v>2003003</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14">
+        <v>15003753</v>
+      </c>
+      <c r="G118" s="14">
+        <v>0</v>
+      </c>
+      <c r="H118" s="14">
+        <v>0</v>
+      </c>
+      <c r="I118" s="14">
+        <v>0</v>
+      </c>
+      <c r="J118" s="14">
+        <v>2</v>
+      </c>
+      <c r="K118" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L118" s="16"/>
+      <c r="M118" s="14">
+        <v>0</v>
+      </c>
+      <c r="N118" s="14">
+        <v>50</v>
+      </c>
+      <c r="O118" s="14">
+        <v>0</v>
+      </c>
+      <c r="P118" s="14">
+        <v>6000</v>
+      </c>
+      <c r="Q118" s="14"/>
+      <c r="R118" s="14"/>
+      <c r="S118" s="14"/>
+      <c r="T118" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U118" s="14"/>
+      <c r="V118" s="5">
+        <v>15008005</v>
+      </c>
+      <c r="W118" s="4">
+        <v>2603003</v>
+      </c>
+    </row>
+    <row r="119" s="4" customFormat="1" spans="1:23">
+      <c r="A119" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="4">
+        <v>2003004</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14">
+        <v>15003754</v>
+      </c>
+      <c r="G119" s="14">
+        <v>2</v>
+      </c>
+      <c r="H119" s="14">
+        <v>1</v>
+      </c>
+      <c r="I119" s="14">
+        <v>0</v>
+      </c>
+      <c r="J119" s="14">
+        <v>0</v>
+      </c>
+      <c r="K119" s="14">
+        <v>16001001</v>
+      </c>
+      <c r="L119" s="14"/>
+      <c r="M119" s="14">
+        <v>8000</v>
+      </c>
+      <c r="N119" s="14">
+        <v>0</v>
+      </c>
+      <c r="O119" s="14">
+        <v>0</v>
+      </c>
+      <c r="P119" s="14">
+        <v>1500</v>
+      </c>
+      <c r="Q119" s="14"/>
+      <c r="R119" s="14"/>
+      <c r="S119" s="14"/>
+      <c r="T119" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U119" s="14"/>
+      <c r="V119" s="5">
+        <v>0</v>
+      </c>
+      <c r="W119" s="4">
+        <v>2603004</v>
+      </c>
+    </row>
+    <row r="120" spans="20:20">
+      <c r="T120" s="6"/>
+    </row>
+    <row r="121" customFormat="1" spans="1:23">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>2003050</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E121" s="6">
+        <v>1</v>
+      </c>
+      <c r="F121" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G121" s="6">
+        <v>0</v>
+      </c>
+      <c r="H121" s="6">
+        <v>0</v>
+      </c>
+      <c r="I121" s="6">
+        <v>1</v>
+      </c>
+      <c r="J121" s="6">
+        <v>2</v>
+      </c>
+      <c r="K121" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="L121" s="10"/>
+      <c r="M121" s="6">
+        <v>0</v>
+      </c>
+      <c r="N121" s="6">
+        <v>0</v>
+      </c>
+      <c r="O121" s="6">
+        <v>0</v>
+      </c>
+      <c r="P121" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="6">
+        <v>1</v>
+      </c>
+      <c r="R121" s="6"/>
+      <c r="S121" s="6"/>
+      <c r="T121" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U121" s="12"/>
+      <c r="V121" s="5">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>2603050</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" spans="1:23">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>2003051</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E122" s="6">
+        <v>1</v>
+      </c>
+      <c r="F122" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G122" s="6">
+        <v>0</v>
+      </c>
+      <c r="H122" s="6">
+        <v>0</v>
+      </c>
+      <c r="I122" s="6">
+        <v>1</v>
+      </c>
+      <c r="J122" s="6">
+        <v>2</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="L122" s="10"/>
+      <c r="M122" s="6">
+        <v>0</v>
+      </c>
+      <c r="N122" s="6">
+        <v>0</v>
+      </c>
+      <c r="O122" s="6">
+        <v>0</v>
+      </c>
+      <c r="P122" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="6"/>
+      <c r="T122" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U122" s="12"/>
+      <c r="V122" s="5">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>2603051</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="1:24">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>2003052</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E123" s="6">
+        <v>1</v>
+      </c>
+      <c r="F123" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G123" s="6">
+        <v>0</v>
+      </c>
+      <c r="H123" s="6">
+        <v>0</v>
+      </c>
+      <c r="I123" s="6">
+        <v>0</v>
+      </c>
+      <c r="J123" s="6">
+        <v>0</v>
+      </c>
+      <c r="K123" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L123" s="10"/>
+      <c r="M123" s="6">
+        <v>0</v>
+      </c>
+      <c r="N123" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O123" s="6">
+        <v>700</v>
+      </c>
+      <c r="P123" s="6">
+        <v>12000</v>
+      </c>
+      <c r="Q123" s="6"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="6"/>
+      <c r="T123" s="6">
         <v>340</v>
       </c>
-      <c r="U115" s="12"/>
-      <c r="V115" s="5">
+      <c r="U123" s="12"/>
+      <c r="V123" s="5">
         <v>15008014</v>
       </c>
-      <c r="W115">
+      <c r="W123">
         <v>2603052</v>
       </c>
-      <c r="X115">
+      <c r="X123">
         <v>2500020</v>
       </c>
     </row>
-    <row r="116" spans="20:20">
-      <c r="T116" s="6"/>
-    </row>
-    <row r="119" spans="16:16">
-      <c r="P119" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23">
-      <c r="A120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120">
+    <row r="124" spans="20:20">
+      <c r="T124" s="6"/>
+    </row>
+    <row r="127" spans="16:16">
+      <c r="P127" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128">
         <v>2005001</v>
       </c>
-      <c r="C120" t="s">
-        <v>176</v>
-      </c>
-      <c r="D120" t="s">
-        <v>177</v>
-      </c>
-      <c r="F120" s="6">
+      <c r="C128" t="s">
+        <v>186</v>
+      </c>
+      <c r="D128" t="s">
+        <v>187</v>
+      </c>
+      <c r="F128" s="6">
         <v>15003753</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120" s="6">
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128" s="6">
         <v>2</v>
       </c>
-      <c r="I120" s="6">
-        <v>0</v>
-      </c>
-      <c r="J120" s="6">
-        <v>0</v>
-      </c>
-      <c r="K120" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="L120" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="M120" s="6">
-        <v>0</v>
-      </c>
-      <c r="N120" s="6">
-        <v>0</v>
-      </c>
-      <c r="O120" s="6">
-        <v>0</v>
-      </c>
-      <c r="P120" s="6">
+      <c r="I128" s="6">
+        <v>0</v>
+      </c>
+      <c r="J128" s="6">
+        <v>0</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L128" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M128" s="6">
+        <v>0</v>
+      </c>
+      <c r="N128" s="6">
+        <v>0</v>
+      </c>
+      <c r="O128" s="6">
+        <v>0</v>
+      </c>
+      <c r="P128" s="6">
         <v>2000</v>
       </c>
-      <c r="Q120" s="6"/>
-      <c r="R120" s="6"/>
-      <c r="S120" s="6"/>
-      <c r="T120" s="6">
+      <c r="Q128" s="6"/>
+      <c r="R128" s="6"/>
+      <c r="S128" s="6"/>
+      <c r="T128" s="6">
         <v>1000</v>
       </c>
-      <c r="U120" s="12"/>
-      <c r="V120" s="5">
+      <c r="U128" s="12"/>
+      <c r="V128" s="5">
         <v>15008014</v>
       </c>
-      <c r="W120">
+      <c r="W128">
         <v>2605001</v>
       </c>
     </row>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18225" windowHeight="10395"/>
+    <workbookView windowWidth="14415" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1808,9 +1808,9 @@
   <dimension ref="A1:X128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P9" sqref="P9"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14415" windowHeight="10395"/>
+    <workbookView windowWidth="16995" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,9 +174,10 @@
           <t xml:space="preserve">
 0：普通攻击
 1：小招
-2：大招
-3：天赋技能
-4：队长技能</t>
+2：队长技能
+3：大招
+4：天赋技能
+</t>
         </r>
       </text>
     </comment>
@@ -185,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="193">
   <si>
     <t>#</t>
   </si>
@@ -235,7 +236,7 @@
     <t>cdTime</t>
   </si>
   <si>
-    <t>isNormalAttack</t>
+    <t>isNormalAttack_del</t>
   </si>
   <si>
     <t>skillCategory</t>
@@ -407,6 +408,15 @@
   </si>
   <si>
     <t>唐依 队长技能测试2 lv5</t>
+  </si>
+  <si>
+    <t>唐依 队长技能测试3 lv1</t>
+  </si>
+  <si>
+    <t>唐依 队长技能测试4 lv1</t>
+  </si>
+  <si>
+    <t>唐依 队长技能测试5 lv1</t>
   </si>
   <si>
     <t>倒数第 3 位是技能，最后两位是等级</t>
@@ -1805,12 +1815,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X128"/>
+  <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2114,7 +2124,9 @@
       <c r="Q5" s="6">
         <v>1</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="12"/>
@@ -2217,7 +2229,9 @@
       <c r="Q8" s="6">
         <v>1</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
       <c r="S8" s="6"/>
       <c r="T8" s="6">
         <v>2667</v>
@@ -2554,7 +2568,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -2591,7 +2605,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
@@ -2649,7 +2663,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
@@ -2687,7 +2701,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -2725,7 +2739,7 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -2763,7 +2777,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
@@ -2801,7 +2815,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
@@ -2881,7 +2895,7 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
@@ -2919,7 +2933,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
@@ -2957,7 +2971,7 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
@@ -2995,7 +3009,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
@@ -3033,7 +3047,7 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
@@ -3062,12 +3076,25 @@
       <c r="T33" s="6"/>
       <c r="U33" s="12"/>
     </row>
-    <row r="34" spans="2:21">
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+    <row r="34" customFormat="1" spans="1:22">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>2003601</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -3079,17 +3106,33 @@
       <c r="O34" s="9"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
+      <c r="R34" s="6">
+        <v>2</v>
+      </c>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="12"/>
-    </row>
-    <row r="35" spans="2:21">
-      <c r="B35" s="8"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="V34" s="5"/>
+    </row>
+    <row r="35" customFormat="1" spans="1:22">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>2003701</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -3101,19 +3144,33 @@
       <c r="O35" s="9"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
+      <c r="R35" s="6">
+        <v>2</v>
+      </c>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="12"/>
-    </row>
-    <row r="36" ht="40.5" spans="2:21">
-      <c r="B36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="V35" s="5"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:22">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>2003801</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>15003751</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -3125,380 +3182,273 @@
       <c r="O36" s="9"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
+      <c r="R36" s="6">
+        <v>2</v>
+      </c>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
       <c r="U36" s="12"/>
-    </row>
-    <row r="37" customFormat="1" ht="27" spans="1:23">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>2100101</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G37" s="6">
-        <v>2</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <v>3100101</v>
-      </c>
+      <c r="V36" s="5"/>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="8"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N37" s="6">
-        <v>400</v>
-      </c>
-      <c r="O37" s="6">
-        <v>400</v>
-      </c>
-      <c r="P37" s="6">
-        <v>3000</v>
-      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T37" s="6"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="5">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" ht="27" spans="1:23">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <v>2100102</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="6">
-        <v>2</v>
-      </c>
-      <c r="F38" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G38" s="6">
-        <v>2</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0</v>
-      </c>
-      <c r="J38" s="6">
-        <v>0</v>
-      </c>
-      <c r="K38" s="6">
-        <v>3100102</v>
-      </c>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N38" s="6">
-        <v>400</v>
-      </c>
-      <c r="O38" s="6">
-        <v>400</v>
-      </c>
-      <c r="P38" s="6">
-        <v>2500</v>
-      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T38" s="6"/>
       <c r="U38" s="12"/>
-      <c r="V38" s="5">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" ht="27" spans="1:23">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <v>2100103</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="6">
-        <v>3</v>
-      </c>
-      <c r="F39" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G39" s="6">
-        <v>2</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>3100103</v>
-      </c>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="B39" s="8"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N39" s="6">
-        <v>400</v>
-      </c>
-      <c r="O39" s="6">
-        <v>400</v>
-      </c>
-      <c r="P39" s="6">
-        <v>2000</v>
-      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T39" s="6"/>
       <c r="U39" s="12"/>
-      <c r="V39" s="5">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" ht="27" spans="1:23">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>2100104</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="6">
-        <v>4</v>
-      </c>
-      <c r="F40" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G40" s="6">
-        <v>2</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
-        <v>0</v>
-      </c>
-      <c r="J40" s="6">
-        <v>0</v>
-      </c>
-      <c r="K40" s="6">
-        <v>3100104</v>
-      </c>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N40" s="6">
-        <v>400</v>
-      </c>
-      <c r="O40" s="6">
-        <v>400</v>
-      </c>
-      <c r="P40" s="6">
-        <v>1500</v>
-      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T40" s="6"/>
       <c r="U40" s="12"/>
-      <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" ht="40.5" spans="1:23">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>2100105</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="6">
-        <v>5</v>
-      </c>
-      <c r="F41" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G41" s="6">
-        <v>2</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>3100105</v>
-      </c>
+    </row>
+    <row r="41" ht="40.5" spans="2:21">
+      <c r="B41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N41" s="6">
-        <v>400</v>
-      </c>
-      <c r="O41" s="6">
-        <v>400</v>
-      </c>
-      <c r="P41" s="6">
-        <v>1000</v>
-      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="6">
+      <c r="T41" s="6"/>
+      <c r="U41" s="12"/>
+    </row>
+    <row r="42" customFormat="1" ht="27" spans="1:23">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>2100101</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G42" s="6">
+        <v>2</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>3100101</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N42" s="6">
+        <v>400</v>
+      </c>
+      <c r="O42" s="6">
+        <v>400</v>
+      </c>
+      <c r="P42" s="6">
+        <v>3000</v>
+      </c>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6">
+        <v>2</v>
+      </c>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6">
         <v>1000</v>
       </c>
-      <c r="U41" s="12"/>
-      <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41">
+      <c r="U42" s="12"/>
+      <c r="V42" s="5">
+        <v>0</v>
+      </c>
+      <c r="W42">
         <v>2601022</v>
       </c>
     </row>
-    <row r="42" spans="3:21">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="12"/>
-    </row>
-    <row r="43" customFormat="1" spans="3:22">
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
+    <row r="43" customFormat="1" ht="27" spans="1:23">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>2100102</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G43" s="6">
+        <v>2</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>3100102</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N43" s="6">
+        <v>400</v>
+      </c>
+      <c r="O43" s="6">
+        <v>400</v>
+      </c>
+      <c r="P43" s="6">
+        <v>2500</v>
+      </c>
       <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
+      <c r="R43" s="6">
+        <v>2</v>
+      </c>
       <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
+      <c r="T43" s="6">
+        <v>1000</v>
+      </c>
       <c r="U43" s="12"/>
-      <c r="V43" s="5"/>
-    </row>
-    <row r="44" customFormat="1" spans="1:22">
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" ht="27" spans="1:23">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44">
-        <v>2100201</v>
+        <v>2100103</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" s="6">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="G44" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" s="6">
         <v>0</v>
@@ -3510,106 +3460,121 @@
         <v>0</v>
       </c>
       <c r="K44" s="6">
-        <v>13100101</v>
-      </c>
-      <c r="L44" s="10"/>
+        <v>3100103</v>
+      </c>
+      <c r="L44" s="6"/>
       <c r="M44" s="6">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="N44" s="6">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="O44" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P44" s="6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="R44" s="6">
+        <v>2</v>
+      </c>
       <c r="S44" s="6"/>
       <c r="T44" s="6">
         <v>1000</v>
       </c>
       <c r="U44" s="12"/>
       <c r="V44" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" ht="27" spans="1:23">
       <c r="A45" t="s">
         <v>0</v>
       </c>
       <c r="B45">
-        <v>2100202</v>
+        <v>2100104</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="6">
+        <v>4</v>
+      </c>
+      <c r="F45" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G45" s="6">
+        <v>2</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>3100104</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N45" s="6">
+        <v>400</v>
+      </c>
+      <c r="O45" s="6">
+        <v>400</v>
+      </c>
+      <c r="P45" s="6">
+        <v>1500</v>
+      </c>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6">
+        <v>2</v>
+      </c>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U45" s="12"/>
+      <c r="V45" s="5">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="40.5" spans="1:23">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>2100105</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="6">
-        <v>2</v>
-      </c>
-      <c r="F45" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0</v>
-      </c>
-      <c r="J45" s="6">
-        <v>0</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="6">
-        <v>0</v>
-      </c>
-      <c r="N45" s="6">
-        <v>466</v>
-      </c>
-      <c r="O45" s="6">
-        <v>200</v>
-      </c>
-      <c r="P45" s="6">
-        <v>3000</v>
-      </c>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="12"/>
-    </row>
-    <row r="46" ht="27" spans="1:21">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46">
-        <v>2100203</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="E46" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F46" s="6">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="G46" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" s="6">
         <v>0</v>
@@ -3620,194 +3585,214 @@
       <c r="J46" s="6">
         <v>0</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L46" s="10"/>
+      <c r="K46" s="6">
+        <v>3100105</v>
+      </c>
+      <c r="L46" s="6"/>
       <c r="M46" s="6">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="N46" s="6">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="O46" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P46" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
+      <c r="R46" s="6">
+        <v>2</v>
+      </c>
       <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
+      <c r="T46" s="6">
+        <v>1000</v>
+      </c>
       <c r="U46" s="12"/>
-    </row>
-    <row r="47" ht="27" spans="1:21">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47">
-        <v>2100204</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="6">
-        <v>4</v>
-      </c>
-      <c r="F47" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="6">
-        <v>0</v>
-      </c>
-      <c r="N47" s="6">
-        <v>466</v>
-      </c>
-      <c r="O47" s="6">
-        <v>200</v>
-      </c>
-      <c r="P47" s="6">
-        <v>3000</v>
-      </c>
+      <c r="V46" s="5">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
       <c r="U47" s="12"/>
     </row>
-    <row r="48" ht="40.5" spans="1:21">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48">
-        <v>2100205</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="6">
-        <v>5</v>
-      </c>
-      <c r="F48" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6">
-        <v>0</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>94</v>
-      </c>
+    <row r="48" customFormat="1" spans="3:22">
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="10"/>
       <c r="L48" s="10"/>
-      <c r="M48" s="6">
-        <v>0</v>
-      </c>
-      <c r="N48" s="6">
-        <v>466</v>
-      </c>
-      <c r="O48" s="6">
-        <v>200</v>
-      </c>
-      <c r="P48" s="6">
-        <v>3000</v>
-      </c>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="12"/>
-    </row>
-    <row r="49" spans="3:21">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="6"/>
+      <c r="V48" s="5"/>
+    </row>
+    <row r="49" customFormat="1" spans="1:22">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>2100201</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>13100101</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
+        <v>466</v>
+      </c>
+      <c r="O49" s="6">
+        <v>200</v>
+      </c>
+      <c r="P49" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
+      <c r="R49" s="6">
+        <v>2</v>
+      </c>
       <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
+      <c r="T49" s="6">
+        <v>1000</v>
+      </c>
       <c r="U49" s="12"/>
-    </row>
-    <row r="50" spans="3:21">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="6"/>
+      <c r="V49" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>2100202</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2</v>
+      </c>
+      <c r="F50" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>466</v>
+      </c>
+      <c r="O50" s="6">
+        <v>200</v>
+      </c>
+      <c r="P50" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
+      <c r="R50" s="6">
+        <v>2</v>
+      </c>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
       <c r="U50" s="12"/>
     </row>
-    <row r="51" customFormat="1" ht="27" spans="1:22">
+    <row r="51" ht="27" spans="1:21">
       <c r="A51" t="s">
         <v>0</v>
       </c>
       <c r="B51">
-        <v>2100301</v>
+        <v>2100203</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E51" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" s="6">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G51" s="6">
         <v>0</v>
@@ -3816,54 +3801,53 @@
         <v>0</v>
       </c>
       <c r="I51" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="6">
-        <v>2</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>97</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="6">
         <v>0</v>
       </c>
       <c r="N51" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O51" s="6">
-        <v>0</v>
-      </c>
-      <c r="P51" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="P51" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
+      <c r="R51" s="6">
+        <v>2</v>
+      </c>
       <c r="S51" s="6"/>
-      <c r="T51" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T51" s="6"/>
       <c r="U51" s="12"/>
-      <c r="V51" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="27" spans="1:22">
+    </row>
+    <row r="52" ht="27" spans="1:21">
       <c r="A52" t="s">
         <v>0</v>
       </c>
       <c r="B52">
-        <v>2100302</v>
+        <v>2100204</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E52" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" s="6">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G52" s="6">
         <v>0</v>
@@ -3872,54 +3856,53 @@
         <v>0</v>
       </c>
       <c r="I52" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="6">
-        <v>2</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="6">
         <v>0</v>
       </c>
       <c r="N52" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O52" s="6">
-        <v>0</v>
-      </c>
-      <c r="P52" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="P52" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
+      <c r="R52" s="6">
+        <v>2</v>
+      </c>
       <c r="S52" s="6"/>
-      <c r="T52" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T52" s="6"/>
       <c r="U52" s="12"/>
-      <c r="V52" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="27" spans="1:22">
+    </row>
+    <row r="53" ht="40.5" spans="1:21">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53">
-        <v>2100303</v>
+        <v>2100205</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E53" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F53" s="6">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G53" s="6">
         <v>0</v>
@@ -3928,208 +3911,211 @@
         <v>0</v>
       </c>
       <c r="I53" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="6">
-        <v>2</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="6">
         <v>0</v>
       </c>
       <c r="N53" s="6">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O53" s="6">
-        <v>0</v>
-      </c>
-      <c r="P53" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="P53" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
+      <c r="R53" s="6">
+        <v>2</v>
+      </c>
       <c r="S53" s="6"/>
-      <c r="T53" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T53" s="6"/>
       <c r="U53" s="12"/>
-      <c r="V53" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="27" spans="1:22">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>2100304</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="6">
-        <v>4</v>
-      </c>
-      <c r="F54" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G54" s="6">
-        <v>0</v>
-      </c>
-      <c r="H54" s="6">
-        <v>0</v>
-      </c>
-      <c r="I54" s="6">
-        <v>1</v>
-      </c>
-      <c r="J54" s="6">
-        <v>2</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="6">
-        <v>0</v>
-      </c>
-      <c r="N54" s="6">
-        <v>0</v>
-      </c>
-      <c r="O54" s="6">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="54" spans="3:21">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
-      <c r="T54" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T54" s="6"/>
       <c r="U54" s="12"/>
-      <c r="V54" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="54" spans="1:22">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55">
-        <v>2100305</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" s="6">
-        <v>5</v>
-      </c>
-      <c r="F55" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G55" s="6">
-        <v>0</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0</v>
-      </c>
-      <c r="I55" s="6">
-        <v>1</v>
-      </c>
-      <c r="J55" s="6">
-        <v>2</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="6">
-        <v>0</v>
-      </c>
-      <c r="N55" s="6">
-        <v>0</v>
-      </c>
-      <c r="O55" s="6">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="55" spans="3:21">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
-      <c r="T55" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T55" s="6"/>
       <c r="U55" s="12"/>
-      <c r="V55" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:21">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
+    </row>
+    <row r="56" customFormat="1" ht="27" spans="1:22">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>2100301</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6">
+        <v>2</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="6">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
+        <v>0</v>
+      </c>
+      <c r="O56" s="6">
+        <v>0</v>
+      </c>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
+      <c r="R56" s="6">
+        <v>2</v>
+      </c>
       <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
+      <c r="T56" s="6">
+        <v>1000</v>
+      </c>
       <c r="U56" s="12"/>
-    </row>
-    <row r="57" spans="3:21">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
+      <c r="V56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="27" spans="1:22">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>2100302</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="6">
+        <v>2</v>
+      </c>
+      <c r="F57" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1</v>
+      </c>
+      <c r="J57" s="6">
+        <v>2</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="6">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6">
+        <v>0</v>
+      </c>
+      <c r="O57" s="6">
+        <v>0</v>
+      </c>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
+      <c r="R57" s="6">
+        <v>2</v>
+      </c>
       <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
+      <c r="T57" s="6">
+        <v>1000</v>
+      </c>
       <c r="U57" s="12"/>
-    </row>
-    <row r="58" customFormat="1" spans="1:22">
+      <c r="V57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="27" spans="1:22">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58">
-        <v>2100401</v>
+        <v>2100303</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E58" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" s="6">
-        <v>15003752</v>
+        <v>15003755</v>
       </c>
       <c r="G58" s="6">
         <v>0</v>
@@ -4138,54 +4124,56 @@
         <v>0</v>
       </c>
       <c r="I58" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="6">
         <v>2</v>
       </c>
-      <c r="K58" s="10"/>
+      <c r="K58" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="L58" s="10"/>
       <c r="M58" s="6">
         <v>0</v>
       </c>
       <c r="N58" s="6">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="O58" s="6">
-        <v>200</v>
-      </c>
-      <c r="P58" s="6">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
+      <c r="R58" s="6">
+        <v>2</v>
+      </c>
       <c r="S58" s="6"/>
       <c r="T58" s="6">
         <v>1000</v>
       </c>
       <c r="U58" s="12"/>
       <c r="V58" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="1:22">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="B59">
-        <v>2100402</v>
+        <v>2100304</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E59" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" s="6">
-        <v>15003752</v>
+        <v>15003755</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
@@ -4194,54 +4182,56 @@
         <v>0</v>
       </c>
       <c r="I59" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="6">
         <v>2</v>
       </c>
-      <c r="K59" s="10"/>
+      <c r="K59" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="L59" s="10"/>
       <c r="M59" s="6">
         <v>0</v>
       </c>
       <c r="N59" s="6">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="O59" s="6">
-        <v>200</v>
-      </c>
-      <c r="P59" s="6">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
+      <c r="R59" s="6">
+        <v>2</v>
+      </c>
       <c r="S59" s="6"/>
       <c r="T59" s="6">
         <v>1000</v>
       </c>
       <c r="U59" s="12"/>
       <c r="V59" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="60" ht="27" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="54" spans="1:22">
       <c r="A60" t="s">
         <v>0</v>
       </c>
       <c r="B60">
-        <v>2100403</v>
+        <v>2100305</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E60" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F60" s="6">
-        <v>15003752</v>
+        <v>15003755</v>
       </c>
       <c r="G60" s="6">
         <v>0</v>
@@ -4250,217 +4240,217 @@
         <v>0</v>
       </c>
       <c r="I60" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="6">
         <v>2</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="6">
         <v>0</v>
       </c>
       <c r="N60" s="6">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="O60" s="6">
-        <v>200</v>
-      </c>
-      <c r="P60" s="6">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
+      <c r="R60" s="6">
+        <v>2</v>
+      </c>
       <c r="S60" s="6"/>
       <c r="T60" s="6">
         <v>1000</v>
       </c>
       <c r="U60" s="12"/>
       <c r="V60" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="61" ht="27" spans="1:22">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61">
-        <v>2100404</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" s="6">
-        <v>4</v>
-      </c>
-      <c r="F61" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G61" s="6">
-        <v>0</v>
-      </c>
-      <c r="H61" s="6">
-        <v>0</v>
-      </c>
-      <c r="I61" s="6">
-        <v>0</v>
-      </c>
-      <c r="J61" s="6">
-        <v>2</v>
-      </c>
-      <c r="K61" s="10">
-        <v>14100301</v>
-      </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="6">
-        <v>0</v>
-      </c>
-      <c r="N61" s="6">
-        <v>466</v>
-      </c>
-      <c r="O61" s="6">
-        <v>200</v>
-      </c>
-      <c r="P61" s="6">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
-      <c r="T61" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T61" s="6"/>
       <c r="U61" s="12"/>
-      <c r="V61" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="62" ht="27" spans="1:22">
-      <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62">
-        <v>2100405</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="6">
-        <v>5</v>
-      </c>
-      <c r="F62" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G62" s="6">
-        <v>0</v>
-      </c>
-      <c r="H62" s="6">
-        <v>0</v>
-      </c>
-      <c r="I62" s="6">
-        <v>0</v>
-      </c>
-      <c r="J62" s="6">
-        <v>2</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="6">
-        <v>0</v>
-      </c>
-      <c r="N62" s="6">
-        <v>466</v>
-      </c>
-      <c r="O62" s="6">
-        <v>200</v>
-      </c>
-      <c r="P62" s="6">
-        <v>3000</v>
-      </c>
+    </row>
+    <row r="62" spans="3:21">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
-      <c r="T62" s="6">
+      <c r="T62" s="6"/>
+      <c r="U62" s="12"/>
+    </row>
+    <row r="63" customFormat="1" spans="1:22">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>2100401</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <v>2</v>
+      </c>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="6">
+        <v>0</v>
+      </c>
+      <c r="N63" s="6">
+        <v>466</v>
+      </c>
+      <c r="O63" s="6">
+        <v>200</v>
+      </c>
+      <c r="P63" s="6">
+        <v>3000</v>
+      </c>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6">
+        <v>2</v>
+      </c>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6">
         <v>1000</v>
       </c>
-      <c r="U62" s="12"/>
-      <c r="V62" s="5">
+      <c r="U63" s="12"/>
+      <c r="V63" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="63" spans="3:21">
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="12"/>
-    </row>
-    <row r="64" spans="3:21">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="6"/>
+    <row r="64" spans="1:22">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>2100402</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="6">
+        <v>2</v>
+      </c>
+      <c r="F64" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>2</v>
+      </c>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="6">
+        <v>0</v>
+      </c>
+      <c r="N64" s="6">
+        <v>466</v>
+      </c>
+      <c r="O64" s="6">
+        <v>200</v>
+      </c>
+      <c r="P64" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
+      <c r="R64" s="6">
+        <v>2</v>
+      </c>
       <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
+      <c r="T64" s="6">
+        <v>1000</v>
+      </c>
       <c r="U64" s="12"/>
-    </row>
-    <row r="65" customFormat="1" ht="14" customHeight="1" spans="1:23">
+      <c r="V64" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="65" ht="27" spans="1:22">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65">
-        <v>2100501</v>
+        <v>2100403</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="E65" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" s="6">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G65" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65" s="6">
         <v>0</v>
@@ -4469,59 +4459,58 @@
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N65" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O65" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P65" s="6">
         <v>3000</v>
       </c>
       <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
+      <c r="R65" s="6">
+        <v>2</v>
+      </c>
       <c r="S65" s="6"/>
       <c r="T65" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U65" s="12"/>
       <c r="V65" s="5">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="66" ht="14" customHeight="1" spans="1:23">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="66" ht="27" spans="1:22">
       <c r="A66" t="s">
         <v>0</v>
       </c>
       <c r="B66">
-        <v>2100502</v>
+        <v>2100404</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="E66" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66" s="6">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G66" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66" s="6">
         <v>0</v>
@@ -4530,59 +4519,58 @@
         <v>0</v>
       </c>
       <c r="J66" s="6">
-        <v>11</v>
-      </c>
-      <c r="K66" s="10" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="K66" s="10">
+        <v>14100301</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N66" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O66" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="6">
         <v>3000</v>
       </c>
       <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
+      <c r="R66" s="6">
+        <v>2</v>
+      </c>
       <c r="S66" s="6"/>
       <c r="T66" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U66" s="12"/>
       <c r="V66" s="5">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="67" ht="14" customHeight="1" spans="1:23">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="67" ht="27" spans="1:22">
       <c r="A67" t="s">
         <v>0</v>
       </c>
       <c r="B67">
-        <v>2100503</v>
+        <v>2100405</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="E67" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F67" s="6">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G67" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67" s="6">
         <v>0</v>
@@ -4591,208 +4579,211 @@
         <v>0</v>
       </c>
       <c r="J67" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N67" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O67" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P67" s="6">
         <v>3000</v>
       </c>
       <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
+      <c r="R67" s="6">
+        <v>2</v>
+      </c>
       <c r="S67" s="6"/>
       <c r="T67" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U67" s="12"/>
       <c r="V67" s="5">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="68" ht="14" customHeight="1" spans="1:23">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68">
-        <v>2100504</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E68" s="6">
-        <v>4</v>
-      </c>
-      <c r="F68" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G68" s="6">
-        <v>2</v>
-      </c>
-      <c r="H68" s="6">
-        <v>0</v>
-      </c>
-      <c r="I68" s="6">
-        <v>0</v>
-      </c>
-      <c r="J68" s="6">
-        <v>11</v>
-      </c>
-      <c r="K68" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N68" s="6">
-        <v>180</v>
-      </c>
-      <c r="O68" s="6">
-        <v>100</v>
-      </c>
-      <c r="P68" s="6">
-        <v>3000</v>
-      </c>
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="68" spans="3:21">
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
-      <c r="T68" s="6">
-        <v>2667</v>
-      </c>
+      <c r="T68" s="6"/>
       <c r="U68" s="12"/>
-      <c r="V68" s="5">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="69" ht="14" customHeight="1" spans="1:23">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69">
-        <v>2100505</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" s="6">
-        <v>5</v>
-      </c>
-      <c r="F69" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G69" s="6">
-        <v>2</v>
-      </c>
-      <c r="H69" s="6">
-        <v>0</v>
-      </c>
-      <c r="I69" s="6">
-        <v>0</v>
-      </c>
-      <c r="J69" s="6">
-        <v>11</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N69" s="6">
-        <v>180</v>
-      </c>
-      <c r="O69" s="6">
-        <v>100</v>
-      </c>
-      <c r="P69" s="6">
-        <v>3000</v>
-      </c>
+    </row>
+    <row r="69" spans="3:21">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
-      <c r="T69" s="6">
+      <c r="T69" s="6"/>
+      <c r="U69" s="12"/>
+    </row>
+    <row r="70" customFormat="1" ht="14" customHeight="1" spans="1:23">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>2100501</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G70" s="6">
+        <v>2</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>11</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L70" s="10"/>
+      <c r="M70" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N70" s="6">
+        <v>180</v>
+      </c>
+      <c r="O70" s="6">
+        <v>100</v>
+      </c>
+      <c r="P70" s="6">
+        <v>3000</v>
+      </c>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6">
+        <v>2</v>
+      </c>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6">
         <v>2667</v>
       </c>
-      <c r="U69" s="12"/>
-      <c r="V69" s="5">
-        <v>0</v>
-      </c>
-      <c r="W69">
+      <c r="U70" s="12"/>
+      <c r="V70" s="5">
+        <v>0</v>
+      </c>
+      <c r="W70">
         <v>2601024</v>
       </c>
     </row>
-    <row r="70" spans="3:21">
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="12"/>
-    </row>
-    <row r="71" spans="3:21">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="6"/>
+    <row r="71" ht="14" customHeight="1" spans="1:23">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>2100502</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="6">
+        <v>2</v>
+      </c>
+      <c r="F71" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G71" s="6">
+        <v>2</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6">
+        <v>11</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L71" s="10"/>
+      <c r="M71" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N71" s="6">
+        <v>180</v>
+      </c>
+      <c r="O71" s="6">
+        <v>100</v>
+      </c>
+      <c r="P71" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
+      <c r="R71" s="6">
+        <v>2</v>
+      </c>
       <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
+      <c r="T71" s="6">
+        <v>2667</v>
+      </c>
       <c r="U71" s="12"/>
-    </row>
-    <row r="72" customFormat="1" ht="14" customHeight="1" spans="1:23">
+      <c r="V71" s="5">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="72" ht="14" customHeight="1" spans="1:23">
       <c r="A72" t="s">
         <v>0</v>
       </c>
       <c r="B72">
-        <v>2100601</v>
+        <v>2100503</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>124</v>
@@ -4801,7 +4792,7 @@
         <v>124</v>
       </c>
       <c r="E72" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72" s="6">
         <v>15003753</v>
@@ -4819,7 +4810,7 @@
         <v>11</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="6">
@@ -4835,7 +4826,9 @@
         <v>3000</v>
       </c>
       <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
+      <c r="R72" s="6">
+        <v>2</v>
+      </c>
       <c r="S72" s="6"/>
       <c r="T72" s="6">
         <v>2667</v>
@@ -4848,185 +4841,195 @@
         <v>2601024</v>
       </c>
     </row>
-    <row r="73" spans="3:21">
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="6"/>
+    <row r="73" ht="14" customHeight="1" spans="1:23">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>2100504</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="6">
+        <v>4</v>
+      </c>
+      <c r="F73" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G73" s="6">
+        <v>2</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6">
+        <v>11</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L73" s="10"/>
+      <c r="M73" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N73" s="6">
+        <v>180</v>
+      </c>
+      <c r="O73" s="6">
+        <v>100</v>
+      </c>
+      <c r="P73" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
+      <c r="R73" s="6">
+        <v>2</v>
+      </c>
       <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
+      <c r="T73" s="6">
+        <v>2667</v>
+      </c>
       <c r="U73" s="12"/>
-    </row>
-    <row r="74" spans="3:21">
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="6"/>
+      <c r="V73" s="5">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="74" ht="14" customHeight="1" spans="1:23">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>2100505</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="6">
+        <v>5</v>
+      </c>
+      <c r="F74" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G74" s="6">
+        <v>2</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>11</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L74" s="10"/>
+      <c r="M74" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N74" s="6">
+        <v>180</v>
+      </c>
+      <c r="O74" s="6">
+        <v>100</v>
+      </c>
+      <c r="P74" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
+      <c r="R74" s="6">
+        <v>2</v>
+      </c>
       <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
+      <c r="T74" s="6">
+        <v>2667</v>
+      </c>
       <c r="U74" s="12"/>
-    </row>
-    <row r="75" customFormat="1" spans="1:22">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75">
-        <v>2100701</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E75" s="6">
-        <v>1</v>
-      </c>
-      <c r="F75" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G75" s="6">
-        <v>0</v>
-      </c>
-      <c r="H75" s="6">
-        <v>0</v>
-      </c>
-      <c r="I75" s="6">
-        <v>0</v>
-      </c>
-      <c r="J75" s="6">
-        <v>2</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L75" s="10"/>
-      <c r="M75" s="6">
-        <v>0</v>
-      </c>
-      <c r="N75" s="6">
-        <v>466</v>
-      </c>
-      <c r="O75" s="6">
-        <v>200</v>
-      </c>
-      <c r="P75" s="6">
-        <v>3000</v>
-      </c>
+      <c r="V74" s="5">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="75" spans="3:21">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
-      <c r="T75" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T75" s="6"/>
       <c r="U75" s="12"/>
-      <c r="V75" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:22">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76">
-        <v>2100801</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" s="6">
-        <v>1</v>
-      </c>
-      <c r="F76" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G76" s="6">
-        <v>0</v>
-      </c>
-      <c r="H76" s="6">
-        <v>0</v>
-      </c>
-      <c r="I76" s="6">
-        <v>0</v>
-      </c>
-      <c r="J76" s="6">
-        <v>2</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="L76" s="10"/>
-      <c r="M76" s="6">
-        <v>0</v>
-      </c>
-      <c r="N76" s="6">
-        <v>466</v>
-      </c>
-      <c r="O76" s="6">
-        <v>200</v>
-      </c>
-      <c r="P76" s="6">
-        <v>3000</v>
-      </c>
+    </row>
+    <row r="76" spans="3:21">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
-      <c r="T76" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T76" s="6"/>
       <c r="U76" s="12"/>
-      <c r="V76" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:22">
+    </row>
+    <row r="77" customFormat="1" ht="14" customHeight="1" spans="1:23">
       <c r="A77" t="s">
         <v>0</v>
       </c>
       <c r="B77">
-        <v>2100901</v>
+        <v>2100601</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
       </c>
       <c r="F77" s="6">
-        <v>15003752</v>
+        <v>15003753</v>
       </c>
       <c r="G77" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" s="6">
         <v>0</v>
@@ -5035,33 +5038,38 @@
         <v>0</v>
       </c>
       <c r="J77" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N77" s="6">
-        <v>466</v>
+        <v>180</v>
       </c>
       <c r="O77" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P77" s="6">
         <v>3000</v>
       </c>
       <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
+      <c r="R77" s="6">
+        <v>2</v>
+      </c>
       <c r="S77" s="6"/>
       <c r="T77" s="6">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="U77" s="12"/>
       <c r="V77" s="5">
-        <v>15008014</v>
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>2601024</v>
       </c>
     </row>
     <row r="78" spans="3:21">
@@ -5085,20 +5093,10 @@
       <c r="T78" s="6"/>
       <c r="U78" s="12"/>
     </row>
-    <row r="79" spans="1:21">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79">
-        <v>2500001</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>132</v>
-      </c>
+    <row r="79" spans="3:21">
+      <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="6">
-        <v>1</v>
-      </c>
+      <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -5116,382 +5114,318 @@
       <c r="T79" s="6"/>
       <c r="U79" s="12"/>
     </row>
-    <row r="80" spans="3:21">
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="6"/>
+    <row r="80" customFormat="1" spans="1:22">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>2100701</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1</v>
+      </c>
+      <c r="F80" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G80" s="6">
+        <v>0</v>
+      </c>
+      <c r="H80" s="6">
+        <v>0</v>
+      </c>
+      <c r="I80" s="6">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6">
+        <v>2</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="L80" s="10"/>
+      <c r="M80" s="6">
+        <v>0</v>
+      </c>
+      <c r="N80" s="6">
+        <v>466</v>
+      </c>
+      <c r="O80" s="6">
+        <v>200</v>
+      </c>
+      <c r="P80" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
+      <c r="R80" s="6">
+        <v>2</v>
+      </c>
       <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
+      <c r="T80" s="6">
+        <v>1000</v>
+      </c>
       <c r="U80" s="12"/>
-    </row>
-    <row r="81" spans="3:21">
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="6"/>
+      <c r="V80" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:22">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>2100801</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+      <c r="F81" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G81" s="6">
+        <v>0</v>
+      </c>
+      <c r="H81" s="6">
+        <v>0</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6">
+        <v>2</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L81" s="10"/>
+      <c r="M81" s="6">
+        <v>0</v>
+      </c>
+      <c r="N81" s="6">
+        <v>466</v>
+      </c>
+      <c r="O81" s="6">
+        <v>200</v>
+      </c>
+      <c r="P81" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
+      <c r="R81" s="6">
+        <v>2</v>
+      </c>
       <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
+      <c r="T81" s="6">
+        <v>1000</v>
+      </c>
       <c r="U81" s="12"/>
-    </row>
-    <row r="82" spans="3:21">
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="6"/>
+      <c r="V81" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:22">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>2100901</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1</v>
+      </c>
+      <c r="F82" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G82" s="6">
+        <v>0</v>
+      </c>
+      <c r="H82" s="6">
+        <v>0</v>
+      </c>
+      <c r="I82" s="6">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6">
+        <v>2</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="L82" s="10"/>
+      <c r="M82" s="6">
+        <v>0</v>
+      </c>
+      <c r="N82" s="6">
+        <v>466</v>
+      </c>
+      <c r="O82" s="6">
+        <v>200</v>
+      </c>
+      <c r="P82" s="6">
+        <v>3000</v>
+      </c>
       <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
+      <c r="R82" s="6">
+        <v>2</v>
+      </c>
       <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
+      <c r="T82" s="6">
+        <v>1000</v>
+      </c>
       <c r="U82" s="12"/>
-    </row>
-    <row r="83" spans="1:23">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83">
-        <v>2001001</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="V82" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="83" spans="3:21">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="6">
-        <v>1</v>
-      </c>
-      <c r="H83" s="6">
-        <v>0</v>
-      </c>
-      <c r="I83" s="6">
-        <v>0</v>
-      </c>
-      <c r="J83" s="6">
-        <v>1</v>
-      </c>
-      <c r="K83" s="6">
-        <v>3001001</v>
-      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="6">
-        <v>0</v>
-      </c>
-      <c r="N83" s="9">
-        <v>233</v>
-      </c>
-      <c r="O83" s="9">
-        <v>100</v>
-      </c>
-      <c r="P83" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="6">
-        <v>1</v>
-      </c>
+      <c r="M83" s="6"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
-      <c r="T83" s="6">
-        <v>2000</v>
-      </c>
+      <c r="T83" s="6"/>
       <c r="U83" s="12"/>
-      <c r="V83" s="5">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>2601001</v>
-      </c>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="2:23">
-      <c r="B84" s="1">
-        <v>2001002</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="9">
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>2500001</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6">
         <v>1</v>
       </c>
       <c r="F84" s="6"/>
-      <c r="G84" s="9">
-        <v>2</v>
-      </c>
-      <c r="H84" s="9">
-        <v>0</v>
-      </c>
-      <c r="I84" s="9">
-        <v>0</v>
-      </c>
-      <c r="J84" s="9">
-        <v>0</v>
-      </c>
-      <c r="K84" s="9">
-        <v>3001002</v>
-      </c>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9">
-        <v>99000</v>
-      </c>
-      <c r="N84" s="9">
-        <v>100</v>
-      </c>
-      <c r="O84" s="9">
-        <v>500</v>
-      </c>
-      <c r="P84" s="9">
-        <v>1000</v>
-      </c>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="6">
-        <v>1000</v>
-      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
       <c r="U84" s="12"/>
-      <c r="V84" s="5">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>2601002</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:22">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85">
-        <v>2001002</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85" s="9">
-        <v>1</v>
-      </c>
-      <c r="F85" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G85" s="6">
-        <v>0</v>
-      </c>
-      <c r="H85" s="6">
-        <v>0</v>
-      </c>
-      <c r="I85" s="6">
-        <v>0</v>
-      </c>
-      <c r="J85" s="6">
-        <v>2</v>
-      </c>
-      <c r="K85" s="6">
-        <v>14001010</v>
-      </c>
+    </row>
+    <row r="85" spans="3:21">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
       <c r="L85" s="6"/>
-      <c r="M85" s="6">
-        <v>0</v>
-      </c>
-      <c r="N85" s="6">
-        <v>466</v>
-      </c>
-      <c r="O85" s="6">
-        <v>200</v>
-      </c>
-      <c r="P85" s="6">
-        <v>15000</v>
-      </c>
+      <c r="M85" s="6"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
-      <c r="T85" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T85" s="6"/>
       <c r="U85" s="12"/>
-      <c r="V85" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86">
-        <v>2201101</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E86" s="9">
-        <v>1</v>
-      </c>
-      <c r="F86" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G86" s="6">
-        <v>0</v>
-      </c>
-      <c r="H86" s="6">
-        <v>0</v>
-      </c>
-      <c r="I86" s="6">
-        <v>0</v>
-      </c>
-      <c r="J86" s="6">
-        <v>0</v>
-      </c>
-      <c r="K86" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L86" s="10"/>
-      <c r="M86" s="6">
-        <v>0</v>
-      </c>
-      <c r="N86" s="6">
-        <v>466</v>
-      </c>
-      <c r="O86" s="6">
-        <v>200</v>
-      </c>
-      <c r="P86" s="6">
-        <v>8000</v>
-      </c>
+    </row>
+    <row r="86" spans="3:21">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
-      <c r="T86" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T86" s="6"/>
       <c r="U86" s="12"/>
-      <c r="V86" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:23">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87">
-        <v>2001004</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E87" s="9">
-        <v>1</v>
-      </c>
-      <c r="F87" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G87" s="6">
-        <v>2</v>
-      </c>
-      <c r="H87" s="6">
-        <v>1</v>
-      </c>
-      <c r="I87" s="6">
-        <v>0</v>
-      </c>
-      <c r="J87" s="6">
-        <v>2</v>
-      </c>
-      <c r="K87" s="6">
-        <v>16001001</v>
-      </c>
+    </row>
+    <row r="87" spans="3:21">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="6">
-        <v>100000</v>
-      </c>
-      <c r="N87" s="6">
-        <v>466</v>
-      </c>
-      <c r="O87" s="6">
-        <v>200</v>
-      </c>
-      <c r="P87" s="6">
-        <v>7000</v>
-      </c>
+      <c r="M87" s="6"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
-      <c r="T87" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T87" s="6"/>
       <c r="U87" s="12"/>
-      <c r="V87" s="5">
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <v>2601005</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:22">
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" t="s">
         <v>0</v>
       </c>
       <c r="B88">
-        <v>2001005</v>
+        <v>2001001</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E88" s="9">
-        <v>1</v>
-      </c>
-      <c r="F88" s="6">
-        <v>15003754</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
       <c r="G88" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" s="6">
         <v>0</v>
@@ -5500,87 +5434,89 @@
         <v>0</v>
       </c>
       <c r="J88" s="6">
-        <v>2</v>
-      </c>
-      <c r="K88" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="L88" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="K88" s="6">
+        <v>3001001</v>
+      </c>
+      <c r="L88" s="6"/>
       <c r="M88" s="6">
         <v>0</v>
       </c>
-      <c r="N88" s="6">
-        <v>466</v>
-      </c>
-      <c r="O88" s="6">
-        <v>200</v>
+      <c r="N88" s="9">
+        <v>233</v>
+      </c>
+      <c r="O88" s="9">
+        <v>100</v>
       </c>
       <c r="P88" s="6">
-        <v>25000</v>
-      </c>
-      <c r="Q88" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>1</v>
+      </c>
       <c r="R88" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" s="6"/>
       <c r="T88" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="U88" s="12"/>
       <c r="V88" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:22">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89">
-        <v>2001006</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>146</v>
+      <c r="W88">
+        <v>2601001</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="2:23">
+      <c r="B89" s="1">
+        <v>2001002</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="E89" s="9">
         <v>1</v>
       </c>
-      <c r="F89" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G89" s="6">
-        <v>0</v>
-      </c>
-      <c r="H89" s="6">
-        <v>0</v>
-      </c>
-      <c r="I89" s="6">
-        <v>1</v>
-      </c>
-      <c r="J89" s="6">
-        <v>2</v>
-      </c>
-      <c r="K89" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="L89" s="10"/>
-      <c r="M89" s="6">
-        <v>0</v>
-      </c>
-      <c r="N89" s="6">
-        <v>0</v>
-      </c>
-      <c r="O89" s="6">
-        <v>0</v>
-      </c>
-      <c r="P89" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="9">
+        <v>2</v>
+      </c>
+      <c r="H89" s="9">
+        <v>0</v>
+      </c>
+      <c r="I89" s="9">
+        <v>0</v>
+      </c>
+      <c r="J89" s="9">
+        <v>0</v>
+      </c>
+      <c r="K89" s="9">
+        <v>3001002</v>
+      </c>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9">
+        <v>99000</v>
+      </c>
+      <c r="N89" s="9">
+        <v>100</v>
+      </c>
+      <c r="O89" s="9">
+        <v>500</v>
+      </c>
+      <c r="P89" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9">
+        <v>2</v>
+      </c>
+      <c r="S89" s="9"/>
       <c r="T89" s="6">
         <v>1000</v>
       </c>
@@ -5588,45 +5524,88 @@
       <c r="V89" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" customFormat="1" spans="3:22">
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
+      <c r="W89">
+        <v>2601002</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:22">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>2001002</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" s="9">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0</v>
+      </c>
+      <c r="I90" s="6">
+        <v>0</v>
+      </c>
+      <c r="J90" s="6">
+        <v>2</v>
+      </c>
+      <c r="K90" s="6">
+        <v>14001010</v>
+      </c>
       <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
+      <c r="M90" s="6">
+        <v>0</v>
+      </c>
+      <c r="N90" s="6">
+        <v>466</v>
+      </c>
+      <c r="O90" s="6">
+        <v>200</v>
+      </c>
+      <c r="P90" s="6">
+        <v>15000</v>
+      </c>
       <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
+      <c r="R90" s="9">
+        <v>2</v>
+      </c>
       <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
+      <c r="T90" s="6">
+        <v>1000</v>
+      </c>
       <c r="U90" s="12"/>
-      <c r="V90" s="5"/>
-    </row>
-    <row r="91" customFormat="1" spans="1:22">
+      <c r="V90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" t="s">
         <v>0</v>
       </c>
       <c r="B91">
-        <v>2001008</v>
+        <v>2201101</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E91" s="6"/>
+        <v>141</v>
+      </c>
+      <c r="E91" s="9">
+        <v>1</v>
+      </c>
       <c r="F91" s="6">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G91" s="6">
         <v>0</v>
@@ -5641,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="6">
@@ -5654,387 +5633,353 @@
         <v>200</v>
       </c>
       <c r="P91" s="6">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
+      <c r="R91" s="9">
+        <v>2</v>
+      </c>
       <c r="S91" s="6"/>
       <c r="T91" s="6">
         <v>1000</v>
       </c>
       <c r="U91" s="12"/>
       <c r="V91" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customFormat="1" spans="3:22">
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:23">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>2001004</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="9">
+        <v>1</v>
+      </c>
+      <c r="F92" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G92" s="6">
+        <v>2</v>
+      </c>
+      <c r="H92" s="6">
+        <v>1</v>
+      </c>
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6">
+        <v>2</v>
+      </c>
+      <c r="K92" s="6">
+        <v>16001001</v>
+      </c>
       <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
+      <c r="M92" s="6">
+        <v>100000</v>
+      </c>
+      <c r="N92" s="6">
+        <v>466</v>
+      </c>
+      <c r="O92" s="6">
+        <v>200</v>
+      </c>
+      <c r="P92" s="6">
+        <v>7000</v>
+      </c>
       <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
+      <c r="R92" s="9">
+        <v>2</v>
+      </c>
       <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
+      <c r="T92" s="6">
+        <v>1000</v>
+      </c>
       <c r="U92" s="12"/>
-      <c r="V92" s="5"/>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="V92" s="5">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>2601005</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:22">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>2001005</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E93" s="9">
+        <v>1</v>
+      </c>
+      <c r="F93" s="6">
+        <v>15003754</v>
+      </c>
+      <c r="G93" s="6">
+        <v>0</v>
+      </c>
+      <c r="H93" s="6">
+        <v>0</v>
+      </c>
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6">
+        <v>2</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L93" s="10"/>
+      <c r="M93" s="6">
+        <v>0</v>
+      </c>
+      <c r="N93" s="6">
+        <v>466</v>
+      </c>
+      <c r="O93" s="6">
+        <v>200</v>
+      </c>
+      <c r="P93" s="6">
+        <v>25000</v>
+      </c>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="9">
+        <v>3</v>
+      </c>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U93" s="12"/>
+      <c r="V93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:22">
       <c r="A94" t="s">
         <v>0</v>
       </c>
       <c r="B94">
-        <v>2001021</v>
+        <v>2001006</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="E94" s="9">
+        <v>1</v>
+      </c>
+      <c r="F94" s="6">
+        <v>15003755</v>
+      </c>
       <c r="G94" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" s="6">
         <v>0</v>
       </c>
       <c r="I94" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="6">
-        <v>1</v>
-      </c>
-      <c r="K94" s="6">
-        <v>3001011</v>
-      </c>
-      <c r="L94" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="K94" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L94" s="10"/>
       <c r="M94" s="6">
         <v>0</v>
       </c>
       <c r="N94" s="6">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O94" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="6">
         <v>0</v>
       </c>
-      <c r="Q94" s="6">
-        <v>1</v>
-      </c>
-      <c r="R94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="9">
+        <v>4</v>
+      </c>
       <c r="S94" s="6"/>
       <c r="T94" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U94" s="12"/>
       <c r="V94" s="5">
         <v>0</v>
       </c>
-      <c r="W94">
-        <v>2601021</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95">
-        <v>2001022</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E95" s="6">
-        <v>1</v>
-      </c>
-      <c r="F95" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G95" s="6">
-        <v>2</v>
-      </c>
-      <c r="H95" s="6">
-        <v>0</v>
-      </c>
-      <c r="I95" s="6">
-        <v>0</v>
-      </c>
-      <c r="J95" s="6">
-        <v>0</v>
-      </c>
-      <c r="K95" s="6">
-        <v>3001012</v>
-      </c>
+    </row>
+    <row r="95" customFormat="1" spans="3:22">
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="6">
-        <v>6000</v>
-      </c>
-      <c r="N95" s="6">
-        <v>1800</v>
-      </c>
-      <c r="O95" s="6">
-        <v>1800</v>
-      </c>
-      <c r="P95" s="6">
-        <v>2000</v>
-      </c>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
-      <c r="T95" s="6">
-        <v>267</v>
-      </c>
+      <c r="T95" s="6"/>
       <c r="U95" s="12"/>
-      <c r="V95" s="5">
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="V95" s="5"/>
+    </row>
+    <row r="96" customFormat="1" spans="1:22">
       <c r="A96" t="s">
         <v>0</v>
       </c>
       <c r="B96">
-        <v>2001023</v>
+        <v>2001008</v>
       </c>
       <c r="C96" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G96" s="6">
+        <v>0</v>
+      </c>
+      <c r="H96" s="6">
+        <v>0</v>
+      </c>
+      <c r="I96" s="6">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6">
+        <v>0</v>
+      </c>
+      <c r="K96" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E96" s="6">
-        <v>1</v>
-      </c>
-      <c r="F96" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G96" s="6">
-        <v>0</v>
-      </c>
-      <c r="H96" s="6">
-        <v>0</v>
-      </c>
-      <c r="I96" s="6">
-        <v>0</v>
-      </c>
-      <c r="J96" s="6">
-        <v>2</v>
-      </c>
-      <c r="K96" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="L96" s="10"/>
       <c r="M96" s="6">
         <v>0</v>
       </c>
       <c r="N96" s="6">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="O96" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P96" s="6">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
       <c r="T96" s="6">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="U96" s="12"/>
       <c r="V96" s="5">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" spans="1:23">
-      <c r="A97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97">
-        <v>2201201</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E97" s="6">
-        <v>1</v>
-      </c>
-      <c r="F97" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G97" s="6">
-        <v>1</v>
-      </c>
-      <c r="H97" s="6">
-        <v>0</v>
-      </c>
-      <c r="I97" s="6">
-        <v>0</v>
-      </c>
-      <c r="J97" s="6">
-        <v>1</v>
-      </c>
-      <c r="K97" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="L97" s="10"/>
-      <c r="M97" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N97" s="6">
-        <v>180</v>
-      </c>
-      <c r="O97" s="6">
-        <v>100</v>
-      </c>
-      <c r="P97" s="6">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="3:22">
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
-      <c r="T97" s="6">
-        <v>2667</v>
-      </c>
+      <c r="T97" s="6"/>
       <c r="U97" s="12"/>
-      <c r="V97" s="5">
-        <v>0</v>
-      </c>
-      <c r="W97">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22">
-      <c r="A98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98">
-        <v>2001025</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E98" s="6">
-        <v>1</v>
-      </c>
-      <c r="F98" s="6">
-        <v>15003754</v>
-      </c>
-      <c r="G98" s="6">
-        <v>1</v>
-      </c>
-      <c r="H98" s="6">
-        <v>0</v>
-      </c>
-      <c r="I98" s="6">
-        <v>0</v>
-      </c>
-      <c r="J98" s="6">
-        <v>1</v>
-      </c>
-      <c r="K98" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="L98" s="10"/>
-      <c r="M98" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N98" s="6">
+      <c r="V97" s="5"/>
+    </row>
+    <row r="99" spans="1:23">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>2001021</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6">
+        <v>1</v>
+      </c>
+      <c r="H99" s="6">
+        <v>0</v>
+      </c>
+      <c r="I99" s="6">
+        <v>0</v>
+      </c>
+      <c r="J99" s="6">
+        <v>1</v>
+      </c>
+      <c r="K99" s="6">
+        <v>3001011</v>
+      </c>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6">
+        <v>0</v>
+      </c>
+      <c r="N99" s="6">
         <v>180</v>
       </c>
-      <c r="O98" s="6">
+      <c r="O99" s="6">
         <v>100</v>
       </c>
-      <c r="P98" s="6">
-        <v>25000</v>
-      </c>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6">
-        <v>1</v>
-      </c>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6">
-        <v>2667</v>
-      </c>
-      <c r="U98" s="12"/>
-      <c r="V98" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" spans="1:22">
-      <c r="A99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99">
-        <v>2001026</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E99" s="6">
-        <v>1</v>
-      </c>
-      <c r="F99" s="6">
-        <v>15003755</v>
-      </c>
-      <c r="G99" s="6">
-        <v>0</v>
-      </c>
-      <c r="H99" s="6">
-        <v>0</v>
-      </c>
-      <c r="I99" s="6">
-        <v>1</v>
-      </c>
-      <c r="J99" s="6">
-        <v>2</v>
-      </c>
-      <c r="K99" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="L99" s="10"/>
-      <c r="M99" s="6">
-        <v>0</v>
-      </c>
-      <c r="N99" s="6">
-        <v>0</v>
-      </c>
-      <c r="O99" s="6">
-        <v>0</v>
-      </c>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
+      <c r="P99" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="6">
+        <v>1</v>
+      </c>
+      <c r="R99" s="6">
+        <v>0</v>
+      </c>
       <c r="S99" s="6"/>
       <c r="T99" s="6">
         <v>2667</v>
@@ -6043,182 +5988,340 @@
       <c r="V99" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" s="2" customFormat="1" spans="1:23">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
-      <c r="O100" s="13"/>
-      <c r="P100" s="13"/>
-      <c r="Q100" s="13"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
-      <c r="T100" s="6"/>
+      <c r="W99">
+        <v>2601021</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>2001022</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="6">
+        <v>1</v>
+      </c>
+      <c r="F100" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G100" s="6">
+        <v>2</v>
+      </c>
+      <c r="H100" s="6">
+        <v>0</v>
+      </c>
+      <c r="I100" s="6">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
+        <v>0</v>
+      </c>
+      <c r="K100" s="6">
+        <v>3001012</v>
+      </c>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6">
+        <v>6000</v>
+      </c>
+      <c r="N100" s="6">
+        <v>1800</v>
+      </c>
+      <c r="O100" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P100" s="6">
+        <v>2000</v>
+      </c>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6">
+        <v>1</v>
+      </c>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6">
+        <v>267</v>
+      </c>
       <c r="U100" s="12"/>
-      <c r="V100" s="5"/>
-      <c r="W100"/>
-    </row>
-    <row r="101" ht="12" customHeight="1" spans="3:21">
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
+      <c r="V100" s="5">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>2001023</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G101" s="6">
+        <v>0</v>
+      </c>
+      <c r="H101" s="6">
+        <v>0</v>
+      </c>
+      <c r="I101" s="6">
+        <v>0</v>
+      </c>
+      <c r="J101" s="6">
+        <v>2</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="L101" s="10"/>
+      <c r="M101" s="6">
+        <v>0</v>
+      </c>
+      <c r="N101" s="6">
+        <v>180</v>
+      </c>
+      <c r="O101" s="6">
+        <v>100</v>
+      </c>
+      <c r="P101" s="6">
+        <v>15000</v>
+      </c>
       <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
+      <c r="R101" s="6">
+        <v>2</v>
+      </c>
       <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
+      <c r="T101" s="6">
+        <v>2667</v>
+      </c>
       <c r="U101" s="12"/>
-    </row>
-    <row r="102" customFormat="1" spans="1:24">
+      <c r="V101" s="5">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" spans="1:23">
       <c r="A102" t="s">
         <v>0</v>
       </c>
       <c r="B102">
-        <v>2001050</v>
+        <v>2201201</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E102" s="6"/>
+        <v>159</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
       <c r="F102" s="6">
         <v>15003753</v>
       </c>
       <c r="G102" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" s="6">
         <v>0</v>
       </c>
       <c r="J102" s="6">
-        <v>0</v>
-      </c>
-      <c r="K102" s="6">
-        <v>16001010</v>
-      </c>
-      <c r="L102" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L102" s="10"/>
       <c r="M102" s="6">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N102" s="6">
-        <v>1500</v>
+        <v>180</v>
       </c>
       <c r="O102" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="6">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
+      <c r="R102" s="6">
+        <v>2</v>
+      </c>
       <c r="S102" s="6"/>
       <c r="T102" s="6">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="U102" s="12"/>
       <c r="V102" s="5">
         <v>0</v>
       </c>
       <c r="W102">
-        <v>2601050</v>
-      </c>
-      <c r="X102">
-        <v>2500005</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" spans="3:22">
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>2001025</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1</v>
+      </c>
+      <c r="F103" s="6">
+        <v>15003754</v>
+      </c>
+      <c r="G103" s="6">
+        <v>1</v>
+      </c>
+      <c r="H103" s="6">
+        <v>0</v>
+      </c>
+      <c r="I103" s="6">
+        <v>0</v>
+      </c>
+      <c r="J103" s="6">
+        <v>1</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L103" s="10"/>
+      <c r="M103" s="6">
+        <v>8000</v>
+      </c>
+      <c r="N103" s="6">
+        <v>180</v>
+      </c>
+      <c r="O103" s="6">
+        <v>100</v>
+      </c>
+      <c r="P103" s="6">
+        <v>25000</v>
+      </c>
       <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
+      <c r="R103" s="6">
+        <v>3</v>
+      </c>
       <c r="S103" s="6"/>
-      <c r="T103" s="6"/>
+      <c r="T103" s="6">
+        <v>2667</v>
+      </c>
       <c r="U103" s="12"/>
-      <c r="V103" s="5"/>
-    </row>
-    <row r="104" customFormat="1" spans="3:22">
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
+      <c r="V103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:22">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>2001026</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E104" s="6">
+        <v>1</v>
+      </c>
+      <c r="F104" s="6">
+        <v>15003755</v>
+      </c>
+      <c r="G104" s="6">
+        <v>0</v>
+      </c>
+      <c r="H104" s="6">
+        <v>0</v>
+      </c>
+      <c r="I104" s="6">
+        <v>1</v>
+      </c>
+      <c r="J104" s="6">
+        <v>2</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L104" s="10"/>
+      <c r="M104" s="6">
+        <v>0</v>
+      </c>
+      <c r="N104" s="6">
+        <v>0</v>
+      </c>
+      <c r="O104" s="6">
+        <v>0</v>
+      </c>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
+      <c r="R104" s="6">
+        <v>2</v>
+      </c>
       <c r="S104" s="6"/>
-      <c r="T104" s="6"/>
+      <c r="T104" s="6">
+        <v>2667</v>
+      </c>
       <c r="U104" s="12"/>
-      <c r="V104" s="5"/>
-    </row>
-    <row r="105" customFormat="1" spans="3:22">
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
+      <c r="V104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" s="2" customFormat="1" spans="1:23">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
       <c r="T105" s="6"/>
       <c r="U105" s="12"/>
       <c r="V105" s="5"/>
-    </row>
-    <row r="106" customFormat="1" spans="3:22">
+      <c r="W105"/>
+    </row>
+    <row r="106" ht="12" customHeight="1" spans="3:21">
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -6238,130 +6341,136 @@
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
       <c r="U106" s="12"/>
-      <c r="V106" s="5"/>
-    </row>
-    <row r="107" s="3" customFormat="1" spans="20:22">
-      <c r="T107" s="6"/>
-      <c r="U107" s="5"/>
-      <c r="V107" s="5"/>
-    </row>
-    <row r="108" spans="20:20">
+    </row>
+    <row r="107" customFormat="1" spans="1:24">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>2001050</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G107" s="6">
+        <v>2</v>
+      </c>
+      <c r="H107" s="6">
+        <v>1</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6">
+        <v>0</v>
+      </c>
+      <c r="K107" s="6">
+        <v>16001010</v>
+      </c>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6">
+        <v>10000</v>
+      </c>
+      <c r="N107" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O107" s="6">
+        <v>0</v>
+      </c>
+      <c r="P107" s="6">
+        <v>600</v>
+      </c>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6">
+        <v>2</v>
+      </c>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U107" s="12"/>
+      <c r="V107" s="5">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>2601050</v>
+      </c>
+      <c r="X107">
+        <v>2500005</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" spans="3:22">
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
       <c r="T108" s="6"/>
-    </row>
-    <row r="109" spans="1:22">
-      <c r="A109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109">
-        <v>2002001</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>165</v>
-      </c>
+      <c r="U108" s="12"/>
+      <c r="V108" s="5"/>
+    </row>
+    <row r="109" customFormat="1" spans="3:22">
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="6">
-        <v>1</v>
-      </c>
-      <c r="H109" s="6">
-        <v>0</v>
-      </c>
-      <c r="I109" s="6">
-        <v>0</v>
-      </c>
-      <c r="J109" s="6">
-        <v>1</v>
-      </c>
-      <c r="K109" s="6">
-        <v>3002001</v>
-      </c>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
       <c r="L109" s="6"/>
-      <c r="M109" s="6">
-        <v>0</v>
-      </c>
-      <c r="N109" s="6">
-        <v>300</v>
-      </c>
-      <c r="O109" s="6">
-        <v>300</v>
-      </c>
-      <c r="P109" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="6">
-        <v>1</v>
-      </c>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
-      <c r="T109" s="6">
-        <v>1540</v>
-      </c>
+      <c r="T109" s="6"/>
       <c r="U109" s="12"/>
-      <c r="V109" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24">
-      <c r="A110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110">
-        <v>2002002</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>167</v>
-      </c>
+      <c r="V109" s="5"/>
+    </row>
+    <row r="110" customFormat="1" spans="3:22">
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
       <c r="E110" s="6"/>
-      <c r="F110" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G110" s="6">
-        <v>2</v>
-      </c>
-      <c r="H110" s="6">
-        <v>0</v>
-      </c>
-      <c r="I110" s="6">
-        <v>0</v>
-      </c>
-      <c r="J110" s="6">
-        <v>2</v>
-      </c>
-      <c r="K110" s="6">
-        <v>13002030</v>
-      </c>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
       <c r="L110" s="6"/>
-      <c r="M110" s="6">
-        <v>4000</v>
-      </c>
-      <c r="N110" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O110" s="6">
-        <v>700</v>
-      </c>
-      <c r="P110" s="6">
-        <v>6500</v>
-      </c>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
-      <c r="T110" s="6">
-        <v>340</v>
-      </c>
+      <c r="T110" s="6"/>
       <c r="U110" s="12"/>
-      <c r="V110" s="5">
-        <v>0</v>
-      </c>
-      <c r="X110">
-        <v>2500010</v>
-      </c>
+      <c r="V110" s="5"/>
     </row>
     <row r="111" customFormat="1" spans="3:22">
       <c r="C111" s="6"/>
@@ -6385,443 +6494,353 @@
       <c r="U111" s="12"/>
       <c r="V111" s="5"/>
     </row>
-    <row r="112" customFormat="1" spans="1:22">
-      <c r="A112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112">
-        <v>2002011</v>
-      </c>
-      <c r="C112" s="6" t="s">
+    <row r="112" s="3" customFormat="1" spans="20:22">
+      <c r="T112" s="6"/>
+      <c r="U112" s="5"/>
+      <c r="V112" s="5"/>
+    </row>
+    <row r="113" spans="20:20">
+      <c r="T113" s="6"/>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>2002001</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D114" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6">
-        <v>1</v>
-      </c>
-      <c r="H112" s="6">
-        <v>0</v>
-      </c>
-      <c r="I112" s="6">
-        <v>0</v>
-      </c>
-      <c r="J112" s="6">
-        <v>1</v>
-      </c>
-      <c r="K112" s="6">
-        <v>3002011</v>
-      </c>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6">
-        <v>0</v>
-      </c>
-      <c r="N112" s="6">
-        <v>300</v>
-      </c>
-      <c r="O112" s="6">
-        <v>200</v>
-      </c>
-      <c r="P112" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="6">
-        <v>1</v>
-      </c>
-      <c r="R112" s="6"/>
-      <c r="S112" s="6"/>
-      <c r="T112" s="6">
-        <v>1400</v>
-      </c>
-      <c r="U112" s="12"/>
-      <c r="V112" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" customFormat="1" spans="1:24">
-      <c r="A113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113">
-        <v>2002012</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6">
-        <v>15003751</v>
-      </c>
-      <c r="G113" s="6">
-        <v>2</v>
-      </c>
-      <c r="H113" s="6">
-        <v>0</v>
-      </c>
-      <c r="I113" s="6">
-        <v>0</v>
-      </c>
-      <c r="J113" s="6">
-        <v>0</v>
-      </c>
-      <c r="K113" s="6">
-        <v>3002012</v>
-      </c>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6">
-        <v>8000</v>
-      </c>
-      <c r="N113" s="6">
-        <v>1000</v>
-      </c>
-      <c r="O113" s="6">
-        <v>700</v>
-      </c>
-      <c r="P113" s="6">
-        <v>7000</v>
-      </c>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
-      <c r="T113" s="6">
-        <v>420</v>
-      </c>
-      <c r="U113" s="12"/>
-      <c r="V113" s="5">
-        <v>0</v>
-      </c>
-      <c r="W113">
-        <v>2602012</v>
-      </c>
-      <c r="X113">
-        <v>2500011</v>
-      </c>
-    </row>
-    <row r="114" customFormat="1" spans="4:22">
-      <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="6"/>
+      <c r="G114" s="6">
+        <v>1</v>
+      </c>
+      <c r="H114" s="6">
+        <v>0</v>
+      </c>
+      <c r="I114" s="6">
+        <v>0</v>
+      </c>
+      <c r="J114" s="6">
+        <v>1</v>
+      </c>
+      <c r="K114" s="6">
+        <v>3002001</v>
+      </c>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6">
+        <v>0</v>
+      </c>
+      <c r="N114" s="6">
+        <v>300</v>
+      </c>
+      <c r="O114" s="6">
+        <v>300</v>
+      </c>
+      <c r="P114" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="6">
+        <v>1</v>
+      </c>
+      <c r="R114" s="6">
+        <v>0</v>
+      </c>
       <c r="S114" s="6"/>
-      <c r="T114" s="6"/>
+      <c r="T114" s="6">
+        <v>1540</v>
+      </c>
       <c r="U114" s="12"/>
-      <c r="V114" s="5"/>
-    </row>
-    <row r="115" customFormat="1" spans="4:22">
-      <c r="D115" s="6"/>
+      <c r="V114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>2002002</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="6"/>
+      <c r="F115" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G115" s="6">
+        <v>2</v>
+      </c>
+      <c r="H115" s="6">
+        <v>0</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0</v>
+      </c>
+      <c r="J115" s="6">
+        <v>2</v>
+      </c>
+      <c r="K115" s="6">
+        <v>13002030</v>
+      </c>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6">
+        <v>4000</v>
+      </c>
+      <c r="N115" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O115" s="6">
+        <v>700</v>
+      </c>
+      <c r="P115" s="6">
+        <v>6500</v>
+      </c>
       <c r="Q115" s="6"/>
-      <c r="R115" s="6"/>
+      <c r="R115" s="6">
+        <v>1</v>
+      </c>
       <c r="S115" s="6"/>
-      <c r="T115" s="6"/>
+      <c r="T115" s="6">
+        <v>340</v>
+      </c>
       <c r="U115" s="12"/>
-      <c r="V115" s="5"/>
-    </row>
-    <row r="116" customFormat="1" spans="1:23">
-      <c r="A116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116">
-        <v>2003001</v>
-      </c>
-      <c r="C116" t="s">
-        <v>170</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>170</v>
-      </c>
+      <c r="V115" s="5">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>2500010</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" spans="3:22">
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="6">
-        <v>1</v>
-      </c>
-      <c r="H116" s="6">
-        <v>0</v>
-      </c>
-      <c r="I116" s="6">
-        <v>0</v>
-      </c>
-      <c r="J116" s="6">
-        <v>1</v>
-      </c>
-      <c r="K116">
-        <v>3003001</v>
-      </c>
-      <c r="M116" s="6">
-        <v>0</v>
-      </c>
-      <c r="N116" s="6">
-        <v>300</v>
-      </c>
-      <c r="O116" s="6">
-        <v>300</v>
-      </c>
-      <c r="P116" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="6">
-        <v>1</v>
-      </c>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
-      <c r="T116" s="6">
-        <v>1540</v>
-      </c>
+      <c r="T116" s="6"/>
       <c r="U116" s="12"/>
-      <c r="V116" s="5">
-        <v>0</v>
-      </c>
-      <c r="W116">
-        <v>2603001</v>
-      </c>
-    </row>
-    <row r="117" s="4" customFormat="1" spans="1:23">
-      <c r="A117" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="4">
-        <v>2003002</v>
-      </c>
-      <c r="C117" s="14" t="s">
+      <c r="V116" s="5"/>
+    </row>
+    <row r="117" customFormat="1" spans="1:22">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>2002011</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6">
+        <v>1</v>
+      </c>
+      <c r="H117" s="6">
+        <v>0</v>
+      </c>
+      <c r="I117" s="6">
+        <v>0</v>
+      </c>
+      <c r="J117" s="6">
+        <v>1</v>
+      </c>
+      <c r="K117" s="6">
+        <v>3002011</v>
+      </c>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6">
+        <v>0</v>
+      </c>
+      <c r="N117" s="6">
+        <v>300</v>
+      </c>
+      <c r="O117" s="6">
+        <v>200</v>
+      </c>
+      <c r="P117" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="6">
+        <v>1</v>
+      </c>
+      <c r="R117" s="6">
+        <v>0</v>
+      </c>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6">
+        <v>1400</v>
+      </c>
+      <c r="U117" s="12"/>
+      <c r="V117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:24">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>2002012</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14">
+      <c r="D118" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6">
         <v>15003751</v>
       </c>
-      <c r="G117" s="14">
-        <v>2</v>
-      </c>
-      <c r="H117" s="14">
-        <v>0</v>
-      </c>
-      <c r="I117" s="14">
-        <v>0</v>
-      </c>
-      <c r="J117" s="14">
-        <v>1</v>
-      </c>
-      <c r="K117" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="L117" s="16"/>
-      <c r="M117" s="14">
+      <c r="G118" s="6">
+        <v>2</v>
+      </c>
+      <c r="H118" s="6">
+        <v>0</v>
+      </c>
+      <c r="I118" s="6">
+        <v>0</v>
+      </c>
+      <c r="J118" s="6">
+        <v>0</v>
+      </c>
+      <c r="K118" s="6">
+        <v>3002012</v>
+      </c>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6">
         <v>8000</v>
       </c>
-      <c r="N117" s="14">
-        <v>600</v>
-      </c>
-      <c r="O117" s="14">
-        <v>0</v>
-      </c>
-      <c r="P117" s="14">
-        <v>2000</v>
-      </c>
-      <c r="Q117" s="14"/>
-      <c r="R117" s="14"/>
-      <c r="S117" s="14"/>
-      <c r="T117" s="6">
+      <c r="N118" s="6">
         <v>1000</v>
       </c>
-      <c r="U117" s="14"/>
-      <c r="V117" s="5">
-        <v>0</v>
-      </c>
-      <c r="W117" s="4">
-        <v>2603002</v>
-      </c>
-    </row>
-    <row r="118" s="4" customFormat="1" spans="1:23">
-      <c r="A118" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="4">
-        <v>2003003</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14">
-        <v>15003753</v>
-      </c>
-      <c r="G118" s="14">
-        <v>0</v>
-      </c>
-      <c r="H118" s="14">
-        <v>0</v>
-      </c>
-      <c r="I118" s="14">
-        <v>0</v>
-      </c>
-      <c r="J118" s="14">
-        <v>2</v>
-      </c>
-      <c r="K118" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="L118" s="16"/>
-      <c r="M118" s="14">
-        <v>0</v>
-      </c>
-      <c r="N118" s="14">
-        <v>50</v>
-      </c>
-      <c r="O118" s="14">
-        <v>0</v>
-      </c>
-      <c r="P118" s="14">
-        <v>6000</v>
-      </c>
-      <c r="Q118" s="14"/>
-      <c r="R118" s="14"/>
-      <c r="S118" s="14"/>
+      <c r="O118" s="6">
+        <v>700</v>
+      </c>
+      <c r="P118" s="6">
+        <v>7000</v>
+      </c>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6">
+        <v>1</v>
+      </c>
+      <c r="S118" s="6"/>
       <c r="T118" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U118" s="14"/>
+        <v>420</v>
+      </c>
+      <c r="U118" s="12"/>
       <c r="V118" s="5">
-        <v>15008005</v>
-      </c>
-      <c r="W118" s="4">
-        <v>2603003</v>
-      </c>
-    </row>
-    <row r="119" s="4" customFormat="1" spans="1:23">
-      <c r="A119" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="4">
-        <v>2003004</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14">
-        <v>15003754</v>
-      </c>
-      <c r="G119" s="14">
-        <v>2</v>
-      </c>
-      <c r="H119" s="14">
-        <v>1</v>
-      </c>
-      <c r="I119" s="14">
-        <v>0</v>
-      </c>
-      <c r="J119" s="14">
-        <v>0</v>
-      </c>
-      <c r="K119" s="14">
-        <v>16001001</v>
-      </c>
-      <c r="L119" s="14"/>
-      <c r="M119" s="14">
-        <v>8000</v>
-      </c>
-      <c r="N119" s="14">
-        <v>0</v>
-      </c>
-      <c r="O119" s="14">
-        <v>0</v>
-      </c>
-      <c r="P119" s="14">
-        <v>1500</v>
-      </c>
-      <c r="Q119" s="14"/>
-      <c r="R119" s="14"/>
-      <c r="S119" s="14"/>
-      <c r="T119" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U119" s="14"/>
-      <c r="V119" s="5">
-        <v>0</v>
-      </c>
-      <c r="W119" s="4">
-        <v>2603004</v>
-      </c>
-    </row>
-    <row r="120" spans="20:20">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>2602012</v>
+      </c>
+      <c r="X118">
+        <v>2500011</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" spans="4:22">
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+      <c r="T119" s="6"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="5"/>
+    </row>
+    <row r="120" customFormat="1" spans="4:22">
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
       <c r="T120" s="6"/>
+      <c r="U120" s="12"/>
+      <c r="V120" s="5"/>
     </row>
     <row r="121" customFormat="1" spans="1:23">
       <c r="A121" t="s">
         <v>0</v>
       </c>
       <c r="B121">
-        <v>2003050</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>179</v>
+        <v>2003001</v>
+      </c>
+      <c r="C121" t="s">
+        <v>173</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E121" s="6">
-        <v>1</v>
-      </c>
-      <c r="F121" s="6">
-        <v>15003751</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
       <c r="G121" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" s="6">
         <v>0</v>
       </c>
       <c r="I121" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="6">
-        <v>2</v>
-      </c>
-      <c r="K121" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="L121" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>3003001</v>
+      </c>
       <c r="M121" s="6">
         <v>0</v>
       </c>
       <c r="N121" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O121" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P121" s="6">
         <v>0</v>
@@ -6829,173 +6848,359 @@
       <c r="Q121" s="6">
         <v>1</v>
       </c>
-      <c r="R121" s="6"/>
+      <c r="R121" s="6">
+        <v>0</v>
+      </c>
       <c r="S121" s="6"/>
       <c r="T121" s="6">
-        <v>1000</v>
+        <v>1540</v>
       </c>
       <c r="U121" s="12"/>
       <c r="V121" s="5">
         <v>0</v>
       </c>
       <c r="W121">
-        <v>2603050</v>
-      </c>
-    </row>
-    <row r="122" customFormat="1" spans="1:23">
-      <c r="A122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122">
-        <v>2003051</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E122" s="6">
-        <v>1</v>
-      </c>
-      <c r="F122" s="6">
-        <v>15003752</v>
-      </c>
-      <c r="G122" s="6">
-        <v>0</v>
-      </c>
-      <c r="H122" s="6">
-        <v>0</v>
-      </c>
-      <c r="I122" s="6">
-        <v>1</v>
-      </c>
-      <c r="J122" s="6">
-        <v>2</v>
-      </c>
-      <c r="K122" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="L122" s="10"/>
-      <c r="M122" s="6">
-        <v>0</v>
-      </c>
-      <c r="N122" s="6">
-        <v>0</v>
-      </c>
-      <c r="O122" s="6">
-        <v>0</v>
-      </c>
-      <c r="P122" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q122" s="6"/>
-      <c r="R122" s="6"/>
-      <c r="S122" s="6"/>
+        <v>2603001</v>
+      </c>
+    </row>
+    <row r="122" s="4" customFormat="1" spans="1:23">
+      <c r="A122" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="4">
+        <v>2003002</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14">
+        <v>15003751</v>
+      </c>
+      <c r="G122" s="14">
+        <v>2</v>
+      </c>
+      <c r="H122" s="14">
+        <v>0</v>
+      </c>
+      <c r="I122" s="14">
+        <v>0</v>
+      </c>
+      <c r="J122" s="14">
+        <v>1</v>
+      </c>
+      <c r="K122" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L122" s="16"/>
+      <c r="M122" s="14">
+        <v>8000</v>
+      </c>
+      <c r="N122" s="14">
+        <v>600</v>
+      </c>
+      <c r="O122" s="14">
+        <v>0</v>
+      </c>
+      <c r="P122" s="14">
+        <v>2000</v>
+      </c>
+      <c r="Q122" s="14"/>
+      <c r="R122" s="14">
+        <v>1</v>
+      </c>
+      <c r="S122" s="14"/>
       <c r="T122" s="6">
         <v>1000</v>
       </c>
-      <c r="U122" s="12"/>
+      <c r="U122" s="14"/>
       <c r="V122" s="5">
         <v>0</v>
       </c>
-      <c r="W122">
+      <c r="W122" s="4">
+        <v>2603002</v>
+      </c>
+    </row>
+    <row r="123" s="4" customFormat="1" spans="1:23">
+      <c r="A123" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="4">
+        <v>2003003</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14">
+        <v>15003753</v>
+      </c>
+      <c r="G123" s="14">
+        <v>0</v>
+      </c>
+      <c r="H123" s="14">
+        <v>0</v>
+      </c>
+      <c r="I123" s="14">
+        <v>0</v>
+      </c>
+      <c r="J123" s="14">
+        <v>2</v>
+      </c>
+      <c r="K123" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="L123" s="16"/>
+      <c r="M123" s="14">
+        <v>0</v>
+      </c>
+      <c r="N123" s="14">
+        <v>50</v>
+      </c>
+      <c r="O123" s="14">
+        <v>0</v>
+      </c>
+      <c r="P123" s="14">
+        <v>6000</v>
+      </c>
+      <c r="Q123" s="14"/>
+      <c r="R123" s="14">
+        <v>1</v>
+      </c>
+      <c r="S123" s="14"/>
+      <c r="T123" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U123" s="14"/>
+      <c r="V123" s="5">
+        <v>15008005</v>
+      </c>
+      <c r="W123" s="4">
+        <v>2603003</v>
+      </c>
+    </row>
+    <row r="124" s="4" customFormat="1" spans="1:23">
+      <c r="A124" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="4">
+        <v>2003004</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14">
+        <v>15003754</v>
+      </c>
+      <c r="G124" s="14">
+        <v>2</v>
+      </c>
+      <c r="H124" s="14">
+        <v>1</v>
+      </c>
+      <c r="I124" s="14">
+        <v>0</v>
+      </c>
+      <c r="J124" s="14">
+        <v>0</v>
+      </c>
+      <c r="K124" s="14">
+        <v>16001001</v>
+      </c>
+      <c r="L124" s="14"/>
+      <c r="M124" s="14">
+        <v>8000</v>
+      </c>
+      <c r="N124" s="14">
+        <v>0</v>
+      </c>
+      <c r="O124" s="14">
+        <v>0</v>
+      </c>
+      <c r="P124" s="14">
+        <v>1500</v>
+      </c>
+      <c r="Q124" s="14"/>
+      <c r="R124" s="14">
+        <v>1</v>
+      </c>
+      <c r="S124" s="14"/>
+      <c r="T124" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U124" s="14"/>
+      <c r="V124" s="5">
+        <v>0</v>
+      </c>
+      <c r="W124" s="4">
+        <v>2603004</v>
+      </c>
+    </row>
+    <row r="125" spans="20:20">
+      <c r="T125" s="6"/>
+    </row>
+    <row r="126" customFormat="1" spans="1:23">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>2003050</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E126" s="6">
+        <v>1</v>
+      </c>
+      <c r="F126" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G126" s="6">
+        <v>0</v>
+      </c>
+      <c r="H126" s="6">
+        <v>0</v>
+      </c>
+      <c r="I126" s="6">
+        <v>1</v>
+      </c>
+      <c r="J126" s="6">
+        <v>2</v>
+      </c>
+      <c r="K126" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="L126" s="10"/>
+      <c r="M126" s="6">
+        <v>0</v>
+      </c>
+      <c r="N126" s="6">
+        <v>0</v>
+      </c>
+      <c r="O126" s="6">
+        <v>0</v>
+      </c>
+      <c r="P126" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="6">
+        <v>1</v>
+      </c>
+      <c r="R126" s="6">
+        <v>0</v>
+      </c>
+      <c r="S126" s="6"/>
+      <c r="T126" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U126" s="12"/>
+      <c r="V126" s="5">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>2603050</v>
+      </c>
+    </row>
+    <row r="127" customFormat="1" spans="1:23">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>2003051</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E127" s="6">
+        <v>1</v>
+      </c>
+      <c r="F127" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G127" s="6">
+        <v>0</v>
+      </c>
+      <c r="H127" s="6">
+        <v>0</v>
+      </c>
+      <c r="I127" s="6">
+        <v>1</v>
+      </c>
+      <c r="J127" s="6">
+        <v>2</v>
+      </c>
+      <c r="K127" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="L127" s="10"/>
+      <c r="M127" s="6">
+        <v>0</v>
+      </c>
+      <c r="N127" s="6">
+        <v>0</v>
+      </c>
+      <c r="O127" s="6">
+        <v>0</v>
+      </c>
+      <c r="P127" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="6"/>
+      <c r="R127" s="6">
+        <v>1</v>
+      </c>
+      <c r="S127" s="6"/>
+      <c r="T127" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U127" s="12"/>
+      <c r="V127" s="5">
+        <v>0</v>
+      </c>
+      <c r="W127">
         <v>2603051</v>
       </c>
     </row>
-    <row r="123" customFormat="1" spans="1:24">
-      <c r="A123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123">
+    <row r="128" customFormat="1" spans="1:24">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128">
         <v>2003052</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E123" s="6">
-        <v>1</v>
-      </c>
-      <c r="F123" s="6">
-        <v>15003753</v>
-      </c>
-      <c r="G123" s="6">
-        <v>0</v>
-      </c>
-      <c r="H123" s="6">
-        <v>0</v>
-      </c>
-      <c r="I123" s="6">
-        <v>0</v>
-      </c>
-      <c r="J123" s="6">
-        <v>0</v>
-      </c>
-      <c r="K123" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="L123" s="10"/>
-      <c r="M123" s="6">
-        <v>0</v>
-      </c>
-      <c r="N123" s="6">
-        <v>1500</v>
-      </c>
-      <c r="O123" s="6">
-        <v>700</v>
-      </c>
-      <c r="P123" s="6">
-        <v>12000</v>
-      </c>
-      <c r="Q123" s="6"/>
-      <c r="R123" s="6"/>
-      <c r="S123" s="6"/>
-      <c r="T123" s="6">
-        <v>340</v>
-      </c>
-      <c r="U123" s="12"/>
-      <c r="V123" s="5">
-        <v>15008014</v>
-      </c>
-      <c r="W123">
-        <v>2603052</v>
-      </c>
-      <c r="X123">
-        <v>2500020</v>
-      </c>
-    </row>
-    <row r="124" spans="20:20">
-      <c r="T124" s="6"/>
-    </row>
-    <row r="127" spans="16:16">
-      <c r="P127" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23">
-      <c r="A128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128">
-        <v>2005001</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="C128" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D128" t="s">
-        <v>187</v>
+      <c r="D128" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E128" s="6">
+        <v>1</v>
       </c>
       <c r="F128" s="6">
         <v>15003753</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="6">
         <v>0</v>
       </c>
       <c r="H128" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" s="6">
         <v>0</v>
@@ -7004,34 +7209,105 @@
         <v>0</v>
       </c>
       <c r="K128" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="L128" s="10" t="s">
-        <v>189</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="L128" s="10"/>
       <c r="M128" s="6">
         <v>0</v>
       </c>
       <c r="N128" s="6">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="O128" s="6">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="P128" s="6">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="Q128" s="6"/>
-      <c r="R128" s="6"/>
+      <c r="R128" s="6">
+        <v>2</v>
+      </c>
       <c r="S128" s="6"/>
       <c r="T128" s="6">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="U128" s="12"/>
       <c r="V128" s="5">
         <v>15008014</v>
       </c>
       <c r="W128">
+        <v>2603052</v>
+      </c>
+      <c r="X128">
+        <v>2500020</v>
+      </c>
+    </row>
+    <row r="129" spans="20:20">
+      <c r="T129" s="6"/>
+    </row>
+    <row r="132" spans="16:16">
+      <c r="P132" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>2005001</v>
+      </c>
+      <c r="C133" t="s">
+        <v>189</v>
+      </c>
+      <c r="D133" t="s">
+        <v>190</v>
+      </c>
+      <c r="F133" s="6">
+        <v>15003753</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133" s="6">
+        <v>2</v>
+      </c>
+      <c r="I133" s="6">
+        <v>0</v>
+      </c>
+      <c r="J133" s="6">
+        <v>0</v>
+      </c>
+      <c r="K133" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L133" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="M133" s="6">
+        <v>0</v>
+      </c>
+      <c r="N133" s="6">
+        <v>0</v>
+      </c>
+      <c r="O133" s="6">
+        <v>0</v>
+      </c>
+      <c r="P133" s="6">
+        <v>2000</v>
+      </c>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="6"/>
+      <c r="T133" s="6">
+        <v>1000</v>
+      </c>
+      <c r="U133" s="12"/>
+      <c r="V133" s="5">
+        <v>15008014</v>
+      </c>
+      <c r="W133">
         <v>2605001</v>
       </c>
     </row>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16995" windowHeight="10395"/>
+    <workbookView windowWidth="15960" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1">
+    <comment ref="Q3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="191">
   <si>
     <t>#</t>
   </si>
@@ -236,9 +236,6 @@
     <t>cdTime</t>
   </si>
   <si>
-    <t>isNormalAttack_del</t>
-  </si>
-  <si>
     <t>skillCategory</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
   </si>
   <si>
     <t>技能CD（毫秒）(在释放技能结束后,后摇时间开始前,则开始计时)(普通攻击不计算在这里)</t>
-  </si>
-  <si>
-    <t>是否是普通攻击</t>
   </si>
   <si>
     <t>技能类别</t>
@@ -1815,12 +1809,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X133"/>
+  <dimension ref="A1:W133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1839,18 +1833,17 @@
     <col min="14" max="14" width="14.625" customWidth="1"/>
     <col min="15" max="15" width="9.625" customWidth="1"/>
     <col min="16" max="16" width="12.375" customWidth="1"/>
-    <col min="17" max="17" width="16.375" customWidth="1"/>
-    <col min="18" max="18" width="16.25" customWidth="1"/>
-    <col min="19" max="19" width="12.375" customWidth="1"/>
-    <col min="20" max="20" width="21.625" customWidth="1"/>
-    <col min="21" max="21" width="21.5" style="5" customWidth="1"/>
-    <col min="22" max="22" width="12.375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="16.875" customWidth="1"/>
-    <col min="24" max="24" width="21.875" customWidth="1"/>
-    <col min="25" max="25" width="27.75" customWidth="1"/>
+    <col min="17" max="17" width="16.25" customWidth="1"/>
+    <col min="18" max="18" width="12.375" customWidth="1"/>
+    <col min="19" max="19" width="21.625" customWidth="1"/>
+    <col min="20" max="20" width="21.5" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="16.875" customWidth="1"/>
+    <col min="23" max="23" width="21.875" customWidth="1"/>
+    <col min="24" max="24" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:24">
+    <row r="1" ht="18" customHeight="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1908,173 +1901,164 @@
       <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="U2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:23">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:24">
-      <c r="A3" t="s">
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="7" t="s">
+    </row>
+    <row r="4" ht="54" spans="2:20">
+      <c r="B4" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="X3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" ht="54" spans="2:21">
-      <c r="B4" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2093,10 +2077,9 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="12"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2104,10 +2087,10 @@
         <v>2001101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -2122,16 +2105,13 @@
       <c r="O5" s="9"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="12"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="T5" s="12"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2119,7 @@
         <v>2001201</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6">
@@ -2159,10 +2139,9 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="12"/>
-    </row>
-    <row r="7" spans="3:21">
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="3:20">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2180,10 +2159,9 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="12"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:23">
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:22">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2191,10 +2169,10 @@
         <v>2002101</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -2227,24 +2205,21 @@
         <v>0</v>
       </c>
       <c r="Q8" s="6">
-        <v>1</v>
-      </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6">
         <v>2667</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="5">
-        <v>0</v>
-      </c>
-      <c r="W8">
+      <c r="T8" s="12"/>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>2601021</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2252,7 +2227,7 @@
         <v>2002201</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6">
@@ -2272,10 +2247,9 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="12"/>
-    </row>
-    <row r="10" spans="3:21">
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="3:20">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2293,10 +2267,9 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="12"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2304,10 +2277,10 @@
         <v>2003101</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -2322,16 +2295,13 @@
       <c r="O11" s="9"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="12"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2339,10 +2309,10 @@
         <v>2003201</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -2357,18 +2327,25 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6">
-        <v>1</v>
-      </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="12"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="N12" s="6">
+        <v>180</v>
+      </c>
+      <c r="O12" s="6">
+        <v>100</v>
+      </c>
+      <c r="P12" s="6">
+        <v>5000</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6">
+        <v>2667</v>
+      </c>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2376,10 +2353,10 @@
         <v>2003202</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
@@ -2394,18 +2371,25 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6">
-        <v>1</v>
-      </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="12"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="N13" s="6">
+        <v>180</v>
+      </c>
+      <c r="O13" s="6">
+        <v>100</v>
+      </c>
+      <c r="P13" s="6">
+        <v>5000</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6">
+        <v>2667</v>
+      </c>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2413,10 +2397,10 @@
         <v>2003203</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
@@ -2431,18 +2415,25 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6">
-        <v>1</v>
-      </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="12"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="N14" s="6">
+        <v>180</v>
+      </c>
+      <c r="O14" s="6">
+        <v>100</v>
+      </c>
+      <c r="P14" s="6">
+        <v>5000</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6">
+        <v>2667</v>
+      </c>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2450,10 +2441,10 @@
         <v>2003204</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6">
         <v>4</v>
@@ -2468,18 +2459,25 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6">
-        <v>1</v>
-      </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="12"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="N15" s="6">
+        <v>180</v>
+      </c>
+      <c r="O15" s="6">
+        <v>100</v>
+      </c>
+      <c r="P15" s="6">
+        <v>5000</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6">
+        <v>2667</v>
+      </c>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2487,10 +2485,10 @@
         <v>2003205</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="6">
         <v>5</v>
@@ -2505,18 +2503,25 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6">
-        <v>1</v>
-      </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="12"/>
-    </row>
-    <row r="17" spans="3:21">
+      <c r="N16" s="6">
+        <v>180</v>
+      </c>
+      <c r="O16" s="6">
+        <v>100</v>
+      </c>
+      <c r="P16" s="6">
+        <v>5000</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6">
+        <v>2667</v>
+      </c>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="3:20">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2534,10 +2539,9 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="12"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2545,10 +2549,10 @@
         <v>2003301</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -2566,15 +2570,14 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6">
+      <c r="Q18" s="6">
         <v>3</v>
       </c>
+      <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="12"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="T18" s="12"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2582,10 +2585,10 @@
         <v>2003302</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
@@ -2603,15 +2606,14 @@
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6">
+      <c r="Q19" s="6">
         <v>3</v>
       </c>
+      <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="12"/>
-    </row>
-    <row r="20" spans="3:21">
+      <c r="T19" s="12"/>
+    </row>
+    <row r="20" spans="3:20">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2629,10 +2631,9 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="12"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:22">
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:21">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2640,10 +2641,10 @@
         <v>2003401</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -2661,16 +2662,15 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q21" s="6">
+        <v>2</v>
+      </c>
+      <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:22">
+      <c r="T21" s="12"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:21">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2678,10 +2678,10 @@
         <v>2003402</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" s="6">
         <v>2</v>
@@ -2699,16 +2699,15 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q22" s="6">
+        <v>2</v>
+      </c>
+      <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:22">
+      <c r="T22" s="12"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:21">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2716,10 +2715,10 @@
         <v>2003403</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="6">
         <v>3</v>
@@ -2737,16 +2736,15 @@
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q23" s="6">
+        <v>2</v>
+      </c>
+      <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="5"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:22">
+      <c r="T23" s="12"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:21">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2754,10 +2752,10 @@
         <v>2003404</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" s="6">
         <v>4</v>
@@ -2775,16 +2773,15 @@
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q24" s="6">
+        <v>2</v>
+      </c>
+      <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25" customFormat="1" spans="1:22">
+      <c r="T24" s="12"/>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:21">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2792,10 +2789,10 @@
         <v>2003405</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" s="6">
         <v>5</v>
@@ -2813,16 +2810,15 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q25" s="6">
+        <v>2</v>
+      </c>
+      <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="3:21">
+      <c r="T25" s="12"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="3:20">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -2840,10 +2836,9 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="12"/>
-    </row>
-    <row r="27" spans="3:21">
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="3:20">
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -2861,10 +2856,9 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="12"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:22">
+      <c r="T27" s="12"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:21">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2872,10 +2866,10 @@
         <v>2003501</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
@@ -2893,16 +2887,15 @@
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q28" s="6">
+        <v>2</v>
+      </c>
+      <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="5"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:22">
+      <c r="T28" s="12"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:21">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2910,10 +2903,10 @@
         <v>2003502</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29" s="6">
         <v>2</v>
@@ -2931,16 +2924,15 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q29" s="6">
+        <v>2</v>
+      </c>
+      <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="5"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:22">
+      <c r="T29" s="12"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:21">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2948,10 +2940,10 @@
         <v>2003503</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -2969,16 +2961,15 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q30" s="6">
+        <v>2</v>
+      </c>
+      <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="5"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:22">
+      <c r="T30" s="12"/>
+      <c r="U30" s="5"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:21">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2986,10 +2977,10 @@
         <v>2003504</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31" s="6">
         <v>4</v>
@@ -3007,16 +2998,15 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q31" s="6">
+        <v>2</v>
+      </c>
+      <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="5"/>
-    </row>
-    <row r="32" customFormat="1" spans="1:22">
+      <c r="T31" s="12"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:21">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -3024,10 +3014,10 @@
         <v>2003505</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E32" s="6">
         <v>5</v>
@@ -3045,16 +3035,15 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q32" s="6">
+        <v>2</v>
+      </c>
+      <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="5"/>
-    </row>
-    <row r="33" spans="2:21">
+      <c r="T32" s="12"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="2:20">
       <c r="B33" s="8"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -3073,10 +3062,9 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="12"/>
-    </row>
-    <row r="34" customFormat="1" spans="1:22">
+      <c r="T33" s="12"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:21">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3084,10 +3072,10 @@
         <v>2003601</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -3105,16 +3093,15 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q34" s="6">
+        <v>2</v>
+      </c>
+      <c r="R34" s="6"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="5"/>
-    </row>
-    <row r="35" customFormat="1" spans="1:22">
+      <c r="T34" s="12"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" customFormat="1" spans="1:21">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3122,10 +3109,10 @@
         <v>2003701</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
@@ -3143,16 +3130,15 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q35" s="6">
+        <v>2</v>
+      </c>
+      <c r="R35" s="6"/>
       <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="5"/>
-    </row>
-    <row r="36" customFormat="1" spans="1:22">
+      <c r="T35" s="12"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:21">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3160,10 +3146,10 @@
         <v>2003801</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -3181,16 +3167,15 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q36" s="6">
+        <v>2</v>
+      </c>
+      <c r="R36" s="6"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="5"/>
-    </row>
-    <row r="37" spans="2:21">
+      <c r="T36" s="12"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="2:20">
       <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3209,10 +3194,9 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="12"/>
-    </row>
-    <row r="38" spans="2:21">
+      <c r="T37" s="12"/>
+    </row>
+    <row r="38" spans="2:20">
       <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -3231,10 +3215,9 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="12"/>
-    </row>
-    <row r="39" spans="2:21">
+      <c r="T38" s="12"/>
+    </row>
+    <row r="39" spans="2:20">
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3253,10 +3236,9 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="12"/>
-    </row>
-    <row r="40" spans="2:21">
+      <c r="T39" s="12"/>
+    </row>
+    <row r="40" spans="2:20">
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -3275,12 +3257,11 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="12"/>
-    </row>
-    <row r="41" ht="40.5" spans="2:21">
+      <c r="T40" s="12"/>
+    </row>
+    <row r="41" ht="40.5" spans="2:20">
       <c r="B41" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3299,10 +3280,9 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="12"/>
-    </row>
-    <row r="42" customFormat="1" ht="27" spans="1:23">
+      <c r="T41" s="12"/>
+    </row>
+    <row r="42" customFormat="1" ht="27" spans="1:22">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3310,10 +3290,10 @@
         <v>2100101</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
@@ -3349,23 +3329,22 @@
       <c r="P42" s="6">
         <v>3000</v>
       </c>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6">
-        <v>2</v>
-      </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6">
+      <c r="Q42" s="6">
+        <v>2</v>
+      </c>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6">
         <v>1000</v>
       </c>
-      <c r="U42" s="12"/>
-      <c r="V42" s="5">
-        <v>0</v>
-      </c>
-      <c r="W42">
+      <c r="T42" s="12"/>
+      <c r="U42" s="5">
+        <v>0</v>
+      </c>
+      <c r="V42">
         <v>2601022</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="27" spans="1:23">
+    <row r="43" customFormat="1" ht="27" spans="1:22">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3373,10 +3352,10 @@
         <v>2100102</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E43" s="6">
         <v>2</v>
@@ -3412,23 +3391,22 @@
       <c r="P43" s="6">
         <v>2500</v>
       </c>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6">
-        <v>2</v>
-      </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6">
+      <c r="Q43" s="6">
+        <v>2</v>
+      </c>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6">
         <v>1000</v>
       </c>
-      <c r="U43" s="12"/>
-      <c r="V43" s="5">
-        <v>0</v>
-      </c>
-      <c r="W43">
+      <c r="T43" s="12"/>
+      <c r="U43" s="5">
+        <v>0</v>
+      </c>
+      <c r="V43">
         <v>2601022</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="27" spans="1:23">
+    <row r="44" customFormat="1" ht="27" spans="1:22">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3436,10 +3414,10 @@
         <v>2100103</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E44" s="6">
         <v>3</v>
@@ -3475,23 +3453,22 @@
       <c r="P44" s="6">
         <v>2000</v>
       </c>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6">
-        <v>2</v>
-      </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6">
+      <c r="Q44" s="6">
+        <v>2</v>
+      </c>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6">
         <v>1000</v>
       </c>
-      <c r="U44" s="12"/>
-      <c r="V44" s="5">
-        <v>0</v>
-      </c>
-      <c r="W44">
+      <c r="T44" s="12"/>
+      <c r="U44" s="5">
+        <v>0</v>
+      </c>
+      <c r="V44">
         <v>2601022</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="27" spans="1:23">
+    <row r="45" customFormat="1" ht="27" spans="1:22">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3499,10 +3476,10 @@
         <v>2100104</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E45" s="6">
         <v>4</v>
@@ -3538,23 +3515,22 @@
       <c r="P45" s="6">
         <v>1500</v>
       </c>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6">
-        <v>2</v>
-      </c>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6">
+      <c r="Q45" s="6">
+        <v>2</v>
+      </c>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6">
         <v>1000</v>
       </c>
-      <c r="U45" s="12"/>
-      <c r="V45" s="5">
-        <v>0</v>
-      </c>
-      <c r="W45">
+      <c r="T45" s="12"/>
+      <c r="U45" s="5">
+        <v>0</v>
+      </c>
+      <c r="V45">
         <v>2601022</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="40.5" spans="1:23">
+    <row r="46" customFormat="1" ht="40.5" spans="1:22">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3562,10 +3538,10 @@
         <v>2100105</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E46" s="6">
         <v>5</v>
@@ -3601,23 +3577,22 @@
       <c r="P46" s="6">
         <v>1000</v>
       </c>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6">
-        <v>2</v>
-      </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6">
+      <c r="Q46" s="6">
+        <v>2</v>
+      </c>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6">
         <v>1000</v>
       </c>
-      <c r="U46" s="12"/>
-      <c r="V46" s="5">
-        <v>0</v>
-      </c>
-      <c r="W46">
+      <c r="T46" s="12"/>
+      <c r="U46" s="5">
+        <v>0</v>
+      </c>
+      <c r="V46">
         <v>2601022</v>
       </c>
     </row>
-    <row r="47" spans="3:21">
+    <row r="47" spans="3:20">
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -3635,10 +3610,9 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="12"/>
-    </row>
-    <row r="48" customFormat="1" spans="3:22">
+      <c r="T47" s="12"/>
+    </row>
+    <row r="48" customFormat="1" spans="3:21">
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="6"/>
@@ -3656,11 +3630,10 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="5"/>
-    </row>
-    <row r="49" customFormat="1" spans="1:22">
+      <c r="T48" s="12"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" customFormat="1" spans="1:21">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3668,10 +3641,10 @@
         <v>2100201</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
@@ -3707,20 +3680,19 @@
       <c r="P49" s="6">
         <v>3000</v>
       </c>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6">
-        <v>2</v>
-      </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6">
+      <c r="Q49" s="6">
+        <v>2</v>
+      </c>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6">
         <v>1000</v>
       </c>
-      <c r="U49" s="12"/>
-      <c r="V49" s="5">
+      <c r="T49" s="12"/>
+      <c r="U49" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3728,10 +3700,10 @@
         <v>2100202</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E50" s="6">
         <v>2</v>
@@ -3752,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="6">
@@ -3767,15 +3739,14 @@
       <c r="P50" s="6">
         <v>3000</v>
       </c>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q50" s="6">
+        <v>2</v>
+      </c>
+      <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="12"/>
-    </row>
-    <row r="51" ht="27" spans="1:21">
+      <c r="T50" s="12"/>
+    </row>
+    <row r="51" ht="27" spans="1:20">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3783,10 +3754,10 @@
         <v>2100203</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E51" s="6">
         <v>3</v>
@@ -3807,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="6">
@@ -3822,15 +3793,14 @@
       <c r="P51" s="6">
         <v>3000</v>
       </c>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q51" s="6">
+        <v>2</v>
+      </c>
+      <c r="R51" s="6"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="12"/>
-    </row>
-    <row r="52" ht="27" spans="1:21">
+      <c r="T51" s="12"/>
+    </row>
+    <row r="52" ht="27" spans="1:20">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3838,10 +3808,10 @@
         <v>2100204</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E52" s="6">
         <v>4</v>
@@ -3862,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="6">
@@ -3877,15 +3847,14 @@
       <c r="P52" s="6">
         <v>3000</v>
       </c>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q52" s="6">
+        <v>2</v>
+      </c>
+      <c r="R52" s="6"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="12"/>
-    </row>
-    <row r="53" ht="40.5" spans="1:21">
+      <c r="T52" s="12"/>
+    </row>
+    <row r="53" ht="40.5" spans="1:20">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3893,10 +3862,10 @@
         <v>2100205</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E53" s="6">
         <v>5</v>
@@ -3917,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="6">
@@ -3932,15 +3901,14 @@
       <c r="P53" s="6">
         <v>3000</v>
       </c>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6">
-        <v>2</v>
-      </c>
+      <c r="Q53" s="6">
+        <v>2</v>
+      </c>
+      <c r="R53" s="6"/>
       <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="12"/>
-    </row>
-    <row r="54" spans="3:21">
+      <c r="T53" s="12"/>
+    </row>
+    <row r="54" spans="3:20">
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -3958,10 +3926,9 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="12"/>
-    </row>
-    <row r="55" spans="3:21">
+      <c r="T54" s="12"/>
+    </row>
+    <row r="55" spans="3:20">
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -3979,10 +3946,9 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="12"/>
-    </row>
-    <row r="56" customFormat="1" ht="27" spans="1:22">
+      <c r="T55" s="12"/>
+    </row>
+    <row r="56" customFormat="1" ht="27" spans="1:21">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3990,10 +3956,10 @@
         <v>2100301</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
@@ -4014,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="6">
@@ -4027,20 +3993,19 @@
         <v>0</v>
       </c>
       <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6">
-        <v>2</v>
-      </c>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6">
+      <c r="Q56" s="6">
+        <v>2</v>
+      </c>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6">
         <v>1000</v>
       </c>
-      <c r="U56" s="12"/>
-      <c r="V56" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" ht="27" spans="1:22">
+      <c r="T56" s="12"/>
+      <c r="U56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="27" spans="1:21">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -4048,10 +4013,10 @@
         <v>2100302</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E57" s="6">
         <v>2</v>
@@ -4072,7 +4037,7 @@
         <v>2</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="6">
@@ -4085,20 +4050,19 @@
         <v>0</v>
       </c>
       <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6">
-        <v>2</v>
-      </c>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6">
+      <c r="Q57" s="6">
+        <v>2</v>
+      </c>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6">
         <v>1000</v>
       </c>
-      <c r="U57" s="12"/>
-      <c r="V57" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="27" spans="1:22">
+      <c r="T57" s="12"/>
+      <c r="U57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="27" spans="1:21">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -4106,10 +4070,10 @@
         <v>2100303</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E58" s="6">
         <v>3</v>
@@ -4130,7 +4094,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="6">
@@ -4143,20 +4107,19 @@
         <v>0</v>
       </c>
       <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6">
-        <v>2</v>
-      </c>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6">
+      <c r="Q58" s="6">
+        <v>2</v>
+      </c>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6">
         <v>1000</v>
       </c>
-      <c r="U58" s="12"/>
-      <c r="V58" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="27" spans="1:22">
+      <c r="T58" s="12"/>
+      <c r="U58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="1:21">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -4164,10 +4127,10 @@
         <v>2100304</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E59" s="6">
         <v>4</v>
@@ -4188,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="6">
@@ -4201,20 +4164,19 @@
         <v>0</v>
       </c>
       <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6">
-        <v>2</v>
-      </c>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6">
+      <c r="Q59" s="6">
+        <v>2</v>
+      </c>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6">
         <v>1000</v>
       </c>
-      <c r="U59" s="12"/>
-      <c r="V59" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" ht="54" spans="1:22">
+      <c r="T59" s="12"/>
+      <c r="U59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="54" spans="1:21">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -4222,10 +4184,10 @@
         <v>2100305</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E60" s="6">
         <v>5</v>
@@ -4246,7 +4208,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="6">
@@ -4259,20 +4221,19 @@
         <v>0</v>
       </c>
       <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6">
-        <v>2</v>
-      </c>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6">
+      <c r="Q60" s="6">
+        <v>2</v>
+      </c>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6">
         <v>1000</v>
       </c>
-      <c r="U60" s="12"/>
-      <c r="V60" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21">
+      <c r="T60" s="12"/>
+      <c r="U60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20">
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -4290,10 +4251,9 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="12"/>
-    </row>
-    <row r="62" spans="3:21">
+      <c r="T61" s="12"/>
+    </row>
+    <row r="62" spans="3:20">
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -4311,10 +4271,9 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="12"/>
-    </row>
-    <row r="63" customFormat="1" spans="1:22">
+      <c r="T62" s="12"/>
+    </row>
+    <row r="63" customFormat="1" spans="1:21">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -4322,10 +4281,10 @@
         <v>2100401</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
@@ -4359,20 +4318,19 @@
       <c r="P63" s="6">
         <v>3000</v>
       </c>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6">
-        <v>2</v>
-      </c>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6">
+      <c r="Q63" s="6">
+        <v>2</v>
+      </c>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6">
         <v>1000</v>
       </c>
-      <c r="U63" s="12"/>
-      <c r="V63" s="5">
+      <c r="T63" s="12"/>
+      <c r="U63" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -4380,10 +4338,10 @@
         <v>2100402</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
@@ -4417,20 +4375,19 @@
       <c r="P64" s="6">
         <v>3000</v>
       </c>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6">
-        <v>2</v>
-      </c>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6">
+      <c r="Q64" s="6">
+        <v>2</v>
+      </c>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6">
         <v>1000</v>
       </c>
-      <c r="U64" s="12"/>
-      <c r="V64" s="5">
+      <c r="T64" s="12"/>
+      <c r="U64" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="65" ht="27" spans="1:22">
+    <row r="65" ht="27" spans="1:21">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -4438,10 +4395,10 @@
         <v>2100403</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E65" s="6">
         <v>3</v>
@@ -4462,7 +4419,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="6">
@@ -4477,20 +4434,19 @@
       <c r="P65" s="6">
         <v>3000</v>
       </c>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6">
-        <v>2</v>
-      </c>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6">
+      <c r="Q65" s="6">
+        <v>2</v>
+      </c>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6">
         <v>1000</v>
       </c>
-      <c r="U65" s="12"/>
-      <c r="V65" s="5">
+      <c r="T65" s="12"/>
+      <c r="U65" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="66" ht="27" spans="1:22">
+    <row r="66" ht="27" spans="1:21">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -4498,10 +4454,10 @@
         <v>2100404</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E66" s="6">
         <v>4</v>
@@ -4537,20 +4493,19 @@
       <c r="P66" s="6">
         <v>3000</v>
       </c>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6">
-        <v>2</v>
-      </c>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6">
+      <c r="Q66" s="6">
+        <v>2</v>
+      </c>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6">
         <v>1000</v>
       </c>
-      <c r="U66" s="12"/>
-      <c r="V66" s="5">
+      <c r="T66" s="12"/>
+      <c r="U66" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="67" ht="27" spans="1:22">
+    <row r="67" ht="27" spans="1:21">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -4558,10 +4513,10 @@
         <v>2100405</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E67" s="6">
         <v>5</v>
@@ -4582,7 +4537,7 @@
         <v>2</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="6">
@@ -4597,20 +4552,19 @@
       <c r="P67" s="6">
         <v>3000</v>
       </c>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6">
-        <v>2</v>
-      </c>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6">
+      <c r="Q67" s="6">
+        <v>2</v>
+      </c>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6">
         <v>1000</v>
       </c>
-      <c r="U67" s="12"/>
-      <c r="V67" s="5">
+      <c r="T67" s="12"/>
+      <c r="U67" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="68" spans="3:21">
+    <row r="68" spans="3:20">
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -4628,10 +4582,9 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="12"/>
-    </row>
-    <row r="69" spans="3:21">
+      <c r="T68" s="12"/>
+    </row>
+    <row r="69" spans="3:20">
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -4649,10 +4602,9 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="12"/>
-    </row>
-    <row r="70" customFormat="1" ht="14" customHeight="1" spans="1:23">
+      <c r="T69" s="12"/>
+    </row>
+    <row r="70" customFormat="1" ht="14" customHeight="1" spans="1:22">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -4660,10 +4612,10 @@
         <v>2100501</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -4684,7 +4636,7 @@
         <v>11</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="6">
@@ -4699,23 +4651,22 @@
       <c r="P70" s="6">
         <v>3000</v>
       </c>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6">
-        <v>2</v>
-      </c>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6">
+      <c r="Q70" s="6">
+        <v>2</v>
+      </c>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6">
         <v>2667</v>
       </c>
-      <c r="U70" s="12"/>
-      <c r="V70" s="5">
-        <v>0</v>
-      </c>
-      <c r="W70">
+      <c r="T70" s="12"/>
+      <c r="U70" s="5">
+        <v>0</v>
+      </c>
+      <c r="V70">
         <v>2601024</v>
       </c>
     </row>
-    <row r="71" ht="14" customHeight="1" spans="1:23">
+    <row r="71" ht="14" customHeight="1" spans="1:22">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -4723,10 +4674,10 @@
         <v>2100502</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E71" s="6">
         <v>2</v>
@@ -4747,7 +4698,7 @@
         <v>11</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="6">
@@ -4762,23 +4713,22 @@
       <c r="P71" s="6">
         <v>3000</v>
       </c>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6">
-        <v>2</v>
-      </c>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6">
+      <c r="Q71" s="6">
+        <v>2</v>
+      </c>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6">
         <v>2667</v>
       </c>
-      <c r="U71" s="12"/>
-      <c r="V71" s="5">
-        <v>0</v>
-      </c>
-      <c r="W71">
+      <c r="T71" s="12"/>
+      <c r="U71" s="5">
+        <v>0</v>
+      </c>
+      <c r="V71">
         <v>2601024</v>
       </c>
     </row>
-    <row r="72" ht="14" customHeight="1" spans="1:23">
+    <row r="72" ht="14" customHeight="1" spans="1:22">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -4786,10 +4736,10 @@
         <v>2100503</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E72" s="6">
         <v>3</v>
@@ -4810,7 +4760,7 @@
         <v>11</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="6">
@@ -4825,23 +4775,22 @@
       <c r="P72" s="6">
         <v>3000</v>
       </c>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6">
-        <v>2</v>
-      </c>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6">
+      <c r="Q72" s="6">
+        <v>2</v>
+      </c>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6">
         <v>2667</v>
       </c>
-      <c r="U72" s="12"/>
-      <c r="V72" s="5">
-        <v>0</v>
-      </c>
-      <c r="W72">
+      <c r="T72" s="12"/>
+      <c r="U72" s="5">
+        <v>0</v>
+      </c>
+      <c r="V72">
         <v>2601024</v>
       </c>
     </row>
-    <row r="73" ht="14" customHeight="1" spans="1:23">
+    <row r="73" ht="14" customHeight="1" spans="1:22">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -4849,10 +4798,10 @@
         <v>2100504</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E73" s="6">
         <v>4</v>
@@ -4873,7 +4822,7 @@
         <v>11</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="6">
@@ -4888,23 +4837,22 @@
       <c r="P73" s="6">
         <v>3000</v>
       </c>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6">
-        <v>2</v>
-      </c>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6">
+      <c r="Q73" s="6">
+        <v>2</v>
+      </c>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6">
         <v>2667</v>
       </c>
-      <c r="U73" s="12"/>
-      <c r="V73" s="5">
-        <v>0</v>
-      </c>
-      <c r="W73">
+      <c r="T73" s="12"/>
+      <c r="U73" s="5">
+        <v>0</v>
+      </c>
+      <c r="V73">
         <v>2601024</v>
       </c>
     </row>
-    <row r="74" ht="14" customHeight="1" spans="1:23">
+    <row r="74" ht="14" customHeight="1" spans="1:22">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -4912,10 +4860,10 @@
         <v>2100505</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E74" s="6">
         <v>5</v>
@@ -4936,7 +4884,7 @@
         <v>11</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="6">
@@ -4951,23 +4899,22 @@
       <c r="P74" s="6">
         <v>3000</v>
       </c>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6">
-        <v>2</v>
-      </c>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6">
+      <c r="Q74" s="6">
+        <v>2</v>
+      </c>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6">
         <v>2667</v>
       </c>
-      <c r="U74" s="12"/>
-      <c r="V74" s="5">
-        <v>0</v>
-      </c>
-      <c r="W74">
+      <c r="T74" s="12"/>
+      <c r="U74" s="5">
+        <v>0</v>
+      </c>
+      <c r="V74">
         <v>2601024</v>
       </c>
     </row>
-    <row r="75" spans="3:21">
+    <row r="75" spans="3:20">
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -4985,10 +4932,9 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="12"/>
-    </row>
-    <row r="76" spans="3:21">
+      <c r="T75" s="12"/>
+    </row>
+    <row r="76" spans="3:20">
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -5006,10 +4952,9 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="12"/>
-    </row>
-    <row r="77" customFormat="1" ht="14" customHeight="1" spans="1:23">
+      <c r="T76" s="12"/>
+    </row>
+    <row r="77" customFormat="1" ht="14" customHeight="1" spans="1:22">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -5017,10 +4962,10 @@
         <v>2100601</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -5041,7 +4986,7 @@
         <v>11</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="6">
@@ -5056,23 +5001,22 @@
       <c r="P77" s="6">
         <v>3000</v>
       </c>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6">
-        <v>2</v>
-      </c>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6">
+      <c r="Q77" s="6">
+        <v>2</v>
+      </c>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6">
         <v>2667</v>
       </c>
-      <c r="U77" s="12"/>
-      <c r="V77" s="5">
-        <v>0</v>
-      </c>
-      <c r="W77">
+      <c r="T77" s="12"/>
+      <c r="U77" s="5">
+        <v>0</v>
+      </c>
+      <c r="V77">
         <v>2601024</v>
       </c>
     </row>
-    <row r="78" spans="3:21">
+    <row r="78" spans="3:20">
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -5090,10 +5034,9 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="12"/>
-    </row>
-    <row r="79" spans="3:21">
+      <c r="T78" s="12"/>
+    </row>
+    <row r="79" spans="3:20">
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -5111,10 +5054,9 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="12"/>
-    </row>
-    <row r="80" customFormat="1" spans="1:22">
+      <c r="T79" s="12"/>
+    </row>
+    <row r="80" customFormat="1" spans="1:21">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -5122,10 +5064,10 @@
         <v>2100701</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E80" s="6">
         <v>1</v>
@@ -5146,7 +5088,7 @@
         <v>2</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="6">
@@ -5161,20 +5103,19 @@
       <c r="P80" s="6">
         <v>3000</v>
       </c>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6">
-        <v>2</v>
-      </c>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6">
+      <c r="Q80" s="6">
+        <v>2</v>
+      </c>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6">
         <v>1000</v>
       </c>
-      <c r="U80" s="12"/>
-      <c r="V80" s="5">
+      <c r="T80" s="12"/>
+      <c r="U80" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="1:22">
+    <row r="81" customFormat="1" spans="1:21">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -5182,10 +5123,10 @@
         <v>2100801</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
@@ -5206,7 +5147,7 @@
         <v>2</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="6">
@@ -5221,20 +5162,19 @@
       <c r="P81" s="6">
         <v>3000</v>
       </c>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6">
-        <v>2</v>
-      </c>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6">
+      <c r="Q81" s="6">
+        <v>2</v>
+      </c>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6">
         <v>1000</v>
       </c>
-      <c r="U81" s="12"/>
-      <c r="V81" s="5">
+      <c r="T81" s="12"/>
+      <c r="U81" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="82" customFormat="1" spans="1:22">
+    <row r="82" customFormat="1" spans="1:21">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -5242,10 +5182,10 @@
         <v>2100901</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E82" s="6">
         <v>1</v>
@@ -5266,7 +5206,7 @@
         <v>2</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L82" s="10"/>
       <c r="M82" s="6">
@@ -5281,20 +5221,19 @@
       <c r="P82" s="6">
         <v>3000</v>
       </c>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6">
-        <v>2</v>
-      </c>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6">
+      <c r="Q82" s="6">
+        <v>2</v>
+      </c>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6">
         <v>1000</v>
       </c>
-      <c r="U82" s="12"/>
-      <c r="V82" s="5">
+      <c r="T82" s="12"/>
+      <c r="U82" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="83" spans="3:21">
+    <row r="83" spans="3:20">
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -5312,10 +5251,9 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="12"/>
-    </row>
-    <row r="84" spans="1:21">
+      <c r="T83" s="12"/>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -5323,7 +5261,7 @@
         <v>2500001</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6">
@@ -5343,10 +5281,9 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="12"/>
-    </row>
-    <row r="85" spans="3:21">
+      <c r="T84" s="12"/>
+    </row>
+    <row r="85" spans="3:20">
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -5364,10 +5301,9 @@
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="12"/>
-    </row>
-    <row r="86" spans="3:21">
+      <c r="T85" s="12"/>
+    </row>
+    <row r="86" spans="3:20">
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -5385,10 +5321,9 @@
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="12"/>
-    </row>
-    <row r="87" spans="3:21">
+      <c r="T86" s="12"/>
+    </row>
+    <row r="87" spans="3:20">
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -5406,10 +5341,9 @@
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="12"/>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="T87" s="12"/>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -5417,10 +5351,10 @@
         <v>2001001</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -5453,32 +5387,29 @@
         <v>0</v>
       </c>
       <c r="Q88" s="6">
-        <v>1</v>
-      </c>
-      <c r="R88" s="6">
-        <v>0</v>
-      </c>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6">
+        <v>0</v>
+      </c>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6">
         <v>2000</v>
       </c>
-      <c r="U88" s="12"/>
-      <c r="V88" s="5">
-        <v>0</v>
-      </c>
-      <c r="W88">
+      <c r="T88" s="12"/>
+      <c r="U88" s="5">
+        <v>0</v>
+      </c>
+      <c r="V88">
         <v>2601001</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" spans="2:23">
+    <row r="89" s="1" customFormat="1" spans="2:22">
       <c r="B89" s="1">
         <v>2001002</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E89" s="9">
         <v>1</v>
@@ -5512,23 +5443,22 @@
       <c r="P89" s="9">
         <v>1000</v>
       </c>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="9">
-        <v>2</v>
-      </c>
-      <c r="S89" s="9"/>
-      <c r="T89" s="6">
+      <c r="Q89" s="9">
+        <v>2</v>
+      </c>
+      <c r="R89" s="9"/>
+      <c r="S89" s="6">
         <v>1000</v>
       </c>
-      <c r="U89" s="12"/>
-      <c r="V89" s="5">
-        <v>0</v>
-      </c>
-      <c r="W89">
+      <c r="T89" s="12"/>
+      <c r="U89" s="5">
+        <v>0</v>
+      </c>
+      <c r="V89">
         <v>2601002</v>
       </c>
     </row>
-    <row r="90" customFormat="1" spans="1:22">
+    <row r="90" customFormat="1" spans="1:21">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -5536,10 +5466,10 @@
         <v>2001002</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E90" s="9">
         <v>1</v>
@@ -5575,20 +5505,19 @@
       <c r="P90" s="6">
         <v>15000</v>
       </c>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="9">
-        <v>2</v>
-      </c>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6">
+      <c r="Q90" s="9">
+        <v>2</v>
+      </c>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6">
         <v>1000</v>
       </c>
-      <c r="U90" s="12"/>
-      <c r="V90" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="T90" s="12"/>
+      <c r="U90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -5596,10 +5525,10 @@
         <v>2201101</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E91" s="9">
         <v>1</v>
@@ -5620,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="6">
@@ -5635,20 +5564,19 @@
       <c r="P91" s="6">
         <v>8000</v>
       </c>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="9">
-        <v>2</v>
-      </c>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6">
+      <c r="Q91" s="9">
+        <v>2</v>
+      </c>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6">
         <v>1000</v>
       </c>
-      <c r="U91" s="12"/>
-      <c r="V91" s="5">
+      <c r="T91" s="12"/>
+      <c r="U91" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="92" customFormat="1" spans="1:23">
+    <row r="92" customFormat="1" spans="1:22">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5656,10 +5584,10 @@
         <v>2001004</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E92" s="9">
         <v>1</v>
@@ -5695,23 +5623,22 @@
       <c r="P92" s="6">
         <v>7000</v>
       </c>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="9">
-        <v>2</v>
-      </c>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6">
+      <c r="Q92" s="9">
+        <v>2</v>
+      </c>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6">
         <v>1000</v>
       </c>
-      <c r="U92" s="12"/>
-      <c r="V92" s="5">
-        <v>0</v>
-      </c>
-      <c r="W92">
+      <c r="T92" s="12"/>
+      <c r="U92" s="5">
+        <v>0</v>
+      </c>
+      <c r="V92">
         <v>2601005</v>
       </c>
     </row>
-    <row r="93" customFormat="1" spans="1:22">
+    <row r="93" customFormat="1" spans="1:21">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -5719,10 +5646,10 @@
         <v>2001005</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E93" s="9">
         <v>1</v>
@@ -5743,7 +5670,7 @@
         <v>2</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="6">
@@ -5758,20 +5685,19 @@
       <c r="P93" s="6">
         <v>25000</v>
       </c>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="9">
+      <c r="Q93" s="9">
         <v>3</v>
       </c>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6">
+      <c r="R93" s="6"/>
+      <c r="S93" s="6">
         <v>1000</v>
       </c>
-      <c r="U93" s="12"/>
-      <c r="V93" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customFormat="1" spans="1:22">
+      <c r="T93" s="12"/>
+      <c r="U93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:21">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -5779,10 +5705,10 @@
         <v>2001006</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E94" s="9">
         <v>1</v>
@@ -5803,7 +5729,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="6">
@@ -5818,20 +5744,19 @@
       <c r="P94" s="6">
         <v>0</v>
       </c>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="9">
+      <c r="Q94" s="9">
         <v>4</v>
       </c>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6">
+      <c r="R94" s="6"/>
+      <c r="S94" s="6">
         <v>1000</v>
       </c>
-      <c r="U94" s="12"/>
-      <c r="V94" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" spans="3:22">
+      <c r="T94" s="12"/>
+      <c r="U94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="3:21">
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -5849,11 +5774,10 @@
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="12"/>
-      <c r="V95" s="5"/>
-    </row>
-    <row r="96" customFormat="1" spans="1:22">
+      <c r="T95" s="12"/>
+      <c r="U95" s="5"/>
+    </row>
+    <row r="96" customFormat="1" spans="1:21">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -5861,10 +5785,10 @@
         <v>2001008</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6">
@@ -5883,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L96" s="10"/>
       <c r="M96" s="6">
@@ -5900,16 +5824,15 @@
       </c>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6">
+      <c r="S96" s="6">
         <v>1000</v>
       </c>
-      <c r="U96" s="12"/>
-      <c r="V96" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" spans="3:22">
+      <c r="T96" s="12"/>
+      <c r="U96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="3:21">
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -5927,11 +5850,10 @@
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="12"/>
-      <c r="V97" s="5"/>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="T97" s="12"/>
+      <c r="U97" s="5"/>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -5939,10 +5861,10 @@
         <v>2001021</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -5975,24 +5897,21 @@
         <v>0</v>
       </c>
       <c r="Q99" s="6">
-        <v>1</v>
-      </c>
-      <c r="R99" s="6">
-        <v>0</v>
-      </c>
-      <c r="S99" s="6"/>
-      <c r="T99" s="6">
+        <v>0</v>
+      </c>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6">
         <v>2667</v>
       </c>
-      <c r="U99" s="12"/>
-      <c r="V99" s="5">
-        <v>0</v>
-      </c>
-      <c r="W99">
+      <c r="T99" s="12"/>
+      <c r="U99" s="5">
+        <v>0</v>
+      </c>
+      <c r="V99">
         <v>2601021</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:22">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -6000,10 +5919,10 @@
         <v>2001022</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E100" s="6">
         <v>1</v>
@@ -6039,23 +5958,22 @@
       <c r="P100" s="6">
         <v>2000</v>
       </c>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6">
-        <v>1</v>
-      </c>
-      <c r="S100" s="6"/>
-      <c r="T100" s="6">
+      <c r="Q100" s="6">
+        <v>1</v>
+      </c>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6">
         <v>267</v>
       </c>
-      <c r="U100" s="12"/>
-      <c r="V100" s="5">
-        <v>0</v>
-      </c>
-      <c r="W100">
+      <c r="T100" s="12"/>
+      <c r="U100" s="5">
+        <v>0</v>
+      </c>
+      <c r="V100">
         <v>2601022</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:21">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -6063,10 +5981,10 @@
         <v>2001023</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E101" s="6">
         <v>1</v>
@@ -6087,7 +6005,7 @@
         <v>2</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L101" s="10"/>
       <c r="M101" s="6">
@@ -6102,20 +6020,19 @@
       <c r="P101" s="6">
         <v>15000</v>
       </c>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6">
-        <v>2</v>
-      </c>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6">
+      <c r="Q101" s="6">
+        <v>2</v>
+      </c>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6">
         <v>2667</v>
       </c>
-      <c r="U101" s="12"/>
-      <c r="V101" s="5">
+      <c r="T101" s="12"/>
+      <c r="U101" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="102" customFormat="1" spans="1:23">
+    <row r="102" customFormat="1" spans="1:22">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -6123,10 +6040,10 @@
         <v>2201201</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E102" s="6">
         <v>1</v>
@@ -6147,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="6">
@@ -6162,23 +6079,22 @@
       <c r="P102" s="6">
         <v>3000</v>
       </c>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6">
-        <v>2</v>
-      </c>
-      <c r="S102" s="6"/>
-      <c r="T102" s="6">
+      <c r="Q102" s="6">
+        <v>2</v>
+      </c>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6">
         <v>2667</v>
       </c>
-      <c r="U102" s="12"/>
-      <c r="V102" s="5">
-        <v>0</v>
-      </c>
-      <c r="W102">
+      <c r="T102" s="12"/>
+      <c r="U102" s="5">
+        <v>0</v>
+      </c>
+      <c r="V102">
         <v>2601024</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:21">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -6186,10 +6102,10 @@
         <v>2001025</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E103" s="6">
         <v>1</v>
@@ -6210,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="6">
@@ -6225,20 +6141,19 @@
       <c r="P103" s="6">
         <v>25000</v>
       </c>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6">
+      <c r="Q103" s="6">
         <v>3</v>
       </c>
-      <c r="S103" s="6"/>
-      <c r="T103" s="6">
+      <c r="R103" s="6"/>
+      <c r="S103" s="6">
         <v>2667</v>
       </c>
-      <c r="U103" s="12"/>
-      <c r="V103" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:22">
+      <c r="T103" s="12"/>
+      <c r="U103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:21">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -6246,10 +6161,10 @@
         <v>2001026</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E104" s="6">
         <v>1</v>
@@ -6270,7 +6185,7 @@
         <v>2</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="6">
@@ -6283,20 +6198,19 @@
         <v>0</v>
       </c>
       <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6">
-        <v>2</v>
-      </c>
-      <c r="S104" s="6"/>
-      <c r="T104" s="6">
+      <c r="Q104" s="6">
+        <v>2</v>
+      </c>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6">
         <v>2667</v>
       </c>
-      <c r="U104" s="12"/>
-      <c r="V104" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" s="2" customFormat="1" spans="1:23">
+      <c r="T104" s="12"/>
+      <c r="U104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" s="2" customFormat="1" spans="1:22">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105" s="13"/>
@@ -6315,13 +6229,12 @@
       <c r="P105" s="13"/>
       <c r="Q105" s="13"/>
       <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
-      <c r="T105" s="6"/>
-      <c r="U105" s="12"/>
-      <c r="V105" s="5"/>
-      <c r="W105"/>
-    </row>
-    <row r="106" ht="12" customHeight="1" spans="3:21">
+      <c r="S105" s="6"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="5"/>
+      <c r="V105"/>
+    </row>
+    <row r="106" ht="12" customHeight="1" spans="3:20">
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -6339,10 +6252,9 @@
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
-      <c r="T106" s="6"/>
-      <c r="U106" s="12"/>
-    </row>
-    <row r="107" customFormat="1" spans="1:24">
+      <c r="T106" s="12"/>
+    </row>
+    <row r="107" customFormat="1" spans="1:23">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -6350,10 +6262,10 @@
         <v>2001050</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6">
@@ -6387,26 +6299,25 @@
       <c r="P107" s="6">
         <v>600</v>
       </c>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6">
-        <v>2</v>
-      </c>
-      <c r="S107" s="6"/>
-      <c r="T107" s="6">
+      <c r="Q107" s="6">
+        <v>2</v>
+      </c>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6">
         <v>1000</v>
       </c>
-      <c r="U107" s="12"/>
-      <c r="V107" s="5">
-        <v>0</v>
+      <c r="T107" s="12"/>
+      <c r="U107" s="5">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>2601050</v>
       </c>
       <c r="W107">
-        <v>2601050</v>
-      </c>
-      <c r="X107">
         <v>2500005</v>
       </c>
     </row>
-    <row r="108" customFormat="1" spans="3:22">
+    <row r="108" customFormat="1" spans="3:21">
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -6424,11 +6335,10 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
-      <c r="T108" s="6"/>
-      <c r="U108" s="12"/>
-      <c r="V108" s="5"/>
-    </row>
-    <row r="109" customFormat="1" spans="3:22">
+      <c r="T108" s="12"/>
+      <c r="U108" s="5"/>
+    </row>
+    <row r="109" customFormat="1" spans="3:21">
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -6446,11 +6356,10 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
-      <c r="T109" s="6"/>
-      <c r="U109" s="12"/>
-      <c r="V109" s="5"/>
-    </row>
-    <row r="110" customFormat="1" spans="3:22">
+      <c r="T109" s="12"/>
+      <c r="U109" s="5"/>
+    </row>
+    <row r="110" customFormat="1" spans="3:21">
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -6468,11 +6377,10 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
-      <c r="T110" s="6"/>
-      <c r="U110" s="12"/>
-      <c r="V110" s="5"/>
-    </row>
-    <row r="111" customFormat="1" spans="3:22">
+      <c r="T110" s="12"/>
+      <c r="U110" s="5"/>
+    </row>
+    <row r="111" customFormat="1" spans="3:21">
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
@@ -6490,19 +6398,18 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
       <c r="S111" s="6"/>
-      <c r="T111" s="6"/>
-      <c r="U111" s="12"/>
-      <c r="V111" s="5"/>
-    </row>
-    <row r="112" s="3" customFormat="1" spans="20:22">
-      <c r="T112" s="6"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="5"/>
+    </row>
+    <row r="112" s="3" customFormat="1" spans="19:21">
+      <c r="S112" s="6"/>
+      <c r="T112" s="5"/>
       <c r="U112" s="5"/>
-      <c r="V112" s="5"/>
-    </row>
-    <row r="113" spans="20:20">
-      <c r="T113" s="6"/>
-    </row>
-    <row r="114" spans="1:22">
+    </row>
+    <row r="113" spans="19:19">
+      <c r="S113" s="6"/>
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -6510,10 +6417,10 @@
         <v>2002001</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -6546,21 +6453,18 @@
         <v>0</v>
       </c>
       <c r="Q114" s="6">
-        <v>1</v>
-      </c>
-      <c r="R114" s="6">
-        <v>0</v>
-      </c>
-      <c r="S114" s="6"/>
-      <c r="T114" s="6">
+        <v>0</v>
+      </c>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6">
         <v>1540</v>
       </c>
-      <c r="U114" s="12"/>
-      <c r="V114" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24">
+      <c r="T114" s="12"/>
+      <c r="U114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -6568,10 +6472,10 @@
         <v>2002002</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6">
@@ -6605,23 +6509,22 @@
       <c r="P115" s="6">
         <v>6500</v>
       </c>
-      <c r="Q115" s="6"/>
-      <c r="R115" s="6">
-        <v>1</v>
-      </c>
-      <c r="S115" s="6"/>
-      <c r="T115" s="6">
+      <c r="Q115" s="6">
+        <v>1</v>
+      </c>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6">
         <v>340</v>
       </c>
-      <c r="U115" s="12"/>
-      <c r="V115" s="5">
-        <v>0</v>
-      </c>
-      <c r="X115">
+      <c r="T115" s="12"/>
+      <c r="U115" s="5">
+        <v>0</v>
+      </c>
+      <c r="W115">
         <v>2500010</v>
       </c>
     </row>
-    <row r="116" customFormat="1" spans="3:22">
+    <row r="116" customFormat="1" spans="3:21">
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
@@ -6639,11 +6542,10 @@
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
-      <c r="T116" s="6"/>
-      <c r="U116" s="12"/>
-      <c r="V116" s="5"/>
-    </row>
-    <row r="117" customFormat="1" spans="1:22">
+      <c r="T116" s="12"/>
+      <c r="U116" s="5"/>
+    </row>
+    <row r="117" customFormat="1" spans="1:21">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -6651,10 +6553,10 @@
         <v>2002011</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -6687,21 +6589,18 @@
         <v>0</v>
       </c>
       <c r="Q117" s="6">
-        <v>1</v>
-      </c>
-      <c r="R117" s="6">
-        <v>0</v>
-      </c>
-      <c r="S117" s="6"/>
-      <c r="T117" s="6">
+        <v>0</v>
+      </c>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6">
         <v>1400</v>
       </c>
-      <c r="U117" s="12"/>
-      <c r="V117" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" spans="1:24">
+      <c r="T117" s="12"/>
+      <c r="U117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:23">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -6709,10 +6608,10 @@
         <v>2002012</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6">
@@ -6746,26 +6645,25 @@
       <c r="P118" s="6">
         <v>7000</v>
       </c>
-      <c r="Q118" s="6"/>
-      <c r="R118" s="6">
-        <v>1</v>
-      </c>
-      <c r="S118" s="6"/>
-      <c r="T118" s="6">
+      <c r="Q118" s="6">
+        <v>1</v>
+      </c>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6">
         <v>420</v>
       </c>
-      <c r="U118" s="12"/>
-      <c r="V118" s="5">
-        <v>0</v>
+      <c r="T118" s="12"/>
+      <c r="U118" s="5">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>2602012</v>
       </c>
       <c r="W118">
-        <v>2602012</v>
-      </c>
-      <c r="X118">
         <v>2500011</v>
       </c>
     </row>
-    <row r="119" customFormat="1" spans="4:22">
+    <row r="119" customFormat="1" spans="4:21">
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -6780,11 +6678,10 @@
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
       <c r="S119" s="6"/>
-      <c r="T119" s="6"/>
-      <c r="U119" s="12"/>
-      <c r="V119" s="5"/>
-    </row>
-    <row r="120" customFormat="1" spans="4:22">
+      <c r="T119" s="12"/>
+      <c r="U119" s="5"/>
+    </row>
+    <row r="120" customFormat="1" spans="4:21">
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -6799,11 +6696,10 @@
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
       <c r="S120" s="6"/>
-      <c r="T120" s="6"/>
-      <c r="U120" s="12"/>
-      <c r="V120" s="5"/>
-    </row>
-    <row r="121" customFormat="1" spans="1:23">
+      <c r="T120" s="12"/>
+      <c r="U120" s="5"/>
+    </row>
+    <row r="121" customFormat="1" spans="1:22">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -6811,10 +6707,10 @@
         <v>2003001</v>
       </c>
       <c r="C121" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -6846,24 +6742,21 @@
         <v>0</v>
       </c>
       <c r="Q121" s="6">
-        <v>1</v>
-      </c>
-      <c r="R121" s="6">
-        <v>0</v>
-      </c>
-      <c r="S121" s="6"/>
-      <c r="T121" s="6">
+        <v>0</v>
+      </c>
+      <c r="R121" s="6"/>
+      <c r="S121" s="6">
         <v>1540</v>
       </c>
-      <c r="U121" s="12"/>
-      <c r="V121" s="5">
-        <v>0</v>
-      </c>
-      <c r="W121">
+      <c r="T121" s="12"/>
+      <c r="U121" s="5">
+        <v>0</v>
+      </c>
+      <c r="V121">
         <v>2603001</v>
       </c>
     </row>
-    <row r="122" s="4" customFormat="1" spans="1:23">
+    <row r="122" s="4" customFormat="1" spans="1:22">
       <c r="A122" s="4" t="s">
         <v>0</v>
       </c>
@@ -6871,10 +6764,10 @@
         <v>2003002</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="14">
@@ -6893,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="K122" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L122" s="16"/>
       <c r="M122" s="14">
@@ -6908,23 +6801,22 @@
       <c r="P122" s="14">
         <v>2000</v>
       </c>
-      <c r="Q122" s="14"/>
-      <c r="R122" s="14">
-        <v>1</v>
-      </c>
-      <c r="S122" s="14"/>
-      <c r="T122" s="6">
+      <c r="Q122" s="14">
+        <v>1</v>
+      </c>
+      <c r="R122" s="14"/>
+      <c r="S122" s="6">
         <v>1000</v>
       </c>
-      <c r="U122" s="14"/>
-      <c r="V122" s="5">
-        <v>0</v>
-      </c>
-      <c r="W122" s="4">
+      <c r="T122" s="14"/>
+      <c r="U122" s="5">
+        <v>0</v>
+      </c>
+      <c r="V122" s="4">
         <v>2603002</v>
       </c>
     </row>
-    <row r="123" s="4" customFormat="1" spans="1:23">
+    <row r="123" s="4" customFormat="1" spans="1:22">
       <c r="A123" s="4" t="s">
         <v>0</v>
       </c>
@@ -6932,10 +6824,10 @@
         <v>2003003</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E123" s="14"/>
       <c r="F123" s="14">
@@ -6954,7 +6846,7 @@
         <v>2</v>
       </c>
       <c r="K123" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L123" s="16"/>
       <c r="M123" s="14">
@@ -6969,23 +6861,22 @@
       <c r="P123" s="14">
         <v>6000</v>
       </c>
-      <c r="Q123" s="14"/>
-      <c r="R123" s="14">
-        <v>1</v>
-      </c>
-      <c r="S123" s="14"/>
-      <c r="T123" s="6">
+      <c r="Q123" s="14">
+        <v>1</v>
+      </c>
+      <c r="R123" s="14"/>
+      <c r="S123" s="6">
         <v>1000</v>
       </c>
-      <c r="U123" s="14"/>
-      <c r="V123" s="5">
+      <c r="T123" s="14"/>
+      <c r="U123" s="5">
         <v>15008005</v>
       </c>
-      <c r="W123" s="4">
+      <c r="V123" s="4">
         <v>2603003</v>
       </c>
     </row>
-    <row r="124" s="4" customFormat="1" spans="1:23">
+    <row r="124" s="4" customFormat="1" spans="1:22">
       <c r="A124" s="4" t="s">
         <v>0</v>
       </c>
@@ -6993,10 +6884,10 @@
         <v>2003004</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E124" s="14"/>
       <c r="F124" s="14">
@@ -7030,26 +6921,25 @@
       <c r="P124" s="14">
         <v>1500</v>
       </c>
-      <c r="Q124" s="14"/>
-      <c r="R124" s="14">
-        <v>1</v>
-      </c>
-      <c r="S124" s="14"/>
-      <c r="T124" s="6">
+      <c r="Q124" s="14">
+        <v>1</v>
+      </c>
+      <c r="R124" s="14"/>
+      <c r="S124" s="6">
         <v>1000</v>
       </c>
-      <c r="U124" s="14"/>
-      <c r="V124" s="5">
-        <v>0</v>
-      </c>
-      <c r="W124" s="4">
+      <c r="T124" s="14"/>
+      <c r="U124" s="5">
+        <v>0</v>
+      </c>
+      <c r="V124" s="4">
         <v>2603004</v>
       </c>
     </row>
-    <row r="125" spans="20:20">
-      <c r="T125" s="6"/>
-    </row>
-    <row r="126" customFormat="1" spans="1:23">
+    <row r="125" spans="19:19">
+      <c r="S125" s="6"/>
+    </row>
+    <row r="126" customFormat="1" spans="1:22">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -7057,10 +6947,10 @@
         <v>2003050</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E126" s="6">
         <v>1</v>
@@ -7081,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="6">
@@ -7097,24 +6987,21 @@
         <v>0</v>
       </c>
       <c r="Q126" s="6">
-        <v>1</v>
-      </c>
-      <c r="R126" s="6">
-        <v>0</v>
-      </c>
-      <c r="S126" s="6"/>
-      <c r="T126" s="6">
+        <v>0</v>
+      </c>
+      <c r="R126" s="6"/>
+      <c r="S126" s="6">
         <v>1000</v>
       </c>
-      <c r="U126" s="12"/>
-      <c r="V126" s="5">
-        <v>0</v>
-      </c>
-      <c r="W126">
+      <c r="T126" s="12"/>
+      <c r="U126" s="5">
+        <v>0</v>
+      </c>
+      <c r="V126">
         <v>2603050</v>
       </c>
     </row>
-    <row r="127" customFormat="1" spans="1:23">
+    <row r="127" customFormat="1" spans="1:22">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -7122,10 +7009,10 @@
         <v>2003051</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E127" s="6">
         <v>1</v>
@@ -7146,7 +7033,7 @@
         <v>2</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L127" s="10"/>
       <c r="M127" s="6">
@@ -7161,23 +7048,22 @@
       <c r="P127" s="6">
         <v>0</v>
       </c>
-      <c r="Q127" s="6"/>
-      <c r="R127" s="6">
-        <v>1</v>
-      </c>
-      <c r="S127" s="6"/>
-      <c r="T127" s="6">
+      <c r="Q127" s="6">
+        <v>1</v>
+      </c>
+      <c r="R127" s="6"/>
+      <c r="S127" s="6">
         <v>1000</v>
       </c>
-      <c r="U127" s="12"/>
-      <c r="V127" s="5">
-        <v>0</v>
-      </c>
-      <c r="W127">
+      <c r="T127" s="12"/>
+      <c r="U127" s="5">
+        <v>0</v>
+      </c>
+      <c r="V127">
         <v>2603051</v>
       </c>
     </row>
-    <row r="128" customFormat="1" spans="1:24">
+    <row r="128" customFormat="1" spans="1:23">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -7185,10 +7071,10 @@
         <v>2003052</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E128" s="6">
         <v>1</v>
@@ -7209,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L128" s="10"/>
       <c r="M128" s="6">
@@ -7224,34 +7110,33 @@
       <c r="P128" s="6">
         <v>12000</v>
       </c>
-      <c r="Q128" s="6"/>
-      <c r="R128" s="6">
-        <v>2</v>
-      </c>
-      <c r="S128" s="6"/>
-      <c r="T128" s="6">
+      <c r="Q128" s="6">
+        <v>2</v>
+      </c>
+      <c r="R128" s="6"/>
+      <c r="S128" s="6">
         <v>340</v>
       </c>
-      <c r="U128" s="12"/>
-      <c r="V128" s="5">
+      <c r="T128" s="12"/>
+      <c r="U128" s="5">
         <v>15008014</v>
       </c>
+      <c r="V128">
+        <v>2603052</v>
+      </c>
       <c r="W128">
-        <v>2603052</v>
-      </c>
-      <c r="X128">
         <v>2500020</v>
       </c>
     </row>
-    <row r="129" spans="20:20">
-      <c r="T129" s="6"/>
+    <row r="129" spans="19:19">
+      <c r="S129" s="6"/>
     </row>
     <row r="132" spans="16:16">
       <c r="P132" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -7259,10 +7144,10 @@
         <v>2005001</v>
       </c>
       <c r="C133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D133" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F133" s="6">
         <v>15003753</v>
@@ -7280,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="K133" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L133" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M133" s="6">
         <v>0</v>
@@ -7299,15 +7184,14 @@
       </c>
       <c r="Q133" s="6"/>
       <c r="R133" s="6"/>
-      <c r="S133" s="6"/>
-      <c r="T133" s="6">
+      <c r="S133" s="6">
         <v>1000</v>
       </c>
-      <c r="U133" s="12"/>
-      <c r="V133" s="5">
+      <c r="T133" s="12"/>
+      <c r="U133" s="5">
         <v>15008014</v>
       </c>
-      <c r="W133">
+      <c r="V133">
         <v>2605001</v>
       </c>
     </row>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15960" windowHeight="10395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1811,10 +1811,10 @@
   <sheetPr/>
   <dimension ref="A1:W133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K16" sqref="K16"/>
+      <selection pane="topRight" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>2201101</v>
+        <v>2001003</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>138</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <v>2201201</v>
+        <v>2001024</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>156</v>
@@ -6414,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="B114">
-        <v>2002001</v>
+        <v>2201101</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>166</v>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="B115">
-        <v>2002002</v>
+        <v>2201201</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>167</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="B117">
-        <v>2002011</v>
+        <v>2202101</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>169</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="B118">
-        <v>2002012</v>
+        <v>2202201</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>170</v>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -1811,10 +1811,10 @@
   <sheetPr/>
   <dimension ref="A1:W133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B103" sqref="B103"/>
+      <selection pane="topRight" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="17385" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 自己和所有友方单位
+1 所有友方单位(不包括自己)
+2 所有敌人
+3 所有友方和敌人(不包括自己)
+4 所有实体
+5 自己</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1">
+    <comment ref="P3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -154,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1">
+    <comment ref="S3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -186,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="195">
   <si>
     <t>#</t>
   </si>
@@ -209,12 +236,18 @@
     <t>skillReleaseTargeType</t>
   </si>
   <si>
+    <t>areaEffectId</t>
+  </si>
+  <si>
     <t>skillReleaseType</t>
   </si>
   <si>
     <t>isPassiveSkill</t>
   </si>
   <si>
+    <t>selectEntityType</t>
+  </si>
+  <si>
     <t>skillTargetType</t>
   </si>
   <si>
@@ -287,10 +320,16 @@
     <t>技能释放目标类型</t>
   </si>
   <si>
+    <t>释放区域性技能的效果id（作为技能起手关键）</t>
+  </si>
+  <si>
     <t xml:space="preserve">技能释放类型 </t>
   </si>
   <si>
     <t>是否是被动技能</t>
+  </si>
+  <si>
+    <t>选择实体类型</t>
   </si>
   <si>
     <t>技能目标类型（选取即将触发效果的单位或点）</t>
@@ -1809,12 +1848,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W133"/>
+  <dimension ref="A1:Y133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B114" sqref="B114"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1825,25 +1864,26 @@
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
-    <col min="11" max="12" width="32.375" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
-    <col min="16" max="16" width="12.375" customWidth="1"/>
-    <col min="17" max="17" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="13" max="14" width="32.375" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="9.625" customWidth="1"/>
     <col min="18" max="18" width="12.375" customWidth="1"/>
-    <col min="19" max="19" width="21.625" customWidth="1"/>
-    <col min="20" max="20" width="21.5" style="5" customWidth="1"/>
-    <col min="21" max="21" width="12.375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="16.875" customWidth="1"/>
-    <col min="23" max="23" width="21.875" customWidth="1"/>
-    <col min="24" max="24" width="27.75" customWidth="1"/>
+    <col min="19" max="19" width="16.25" customWidth="1"/>
+    <col min="20" max="20" width="12.375" customWidth="1"/>
+    <col min="21" max="21" width="21.625" customWidth="1"/>
+    <col min="22" max="22" width="21.5" style="5" customWidth="1"/>
+    <col min="23" max="23" width="12.375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="16.875" customWidth="1"/>
+    <col min="25" max="25" width="21.875" customWidth="1"/>
+    <col min="26" max="26" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:23">
+    <row r="1" ht="18" customHeight="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1889,10 +1929,10 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="8" t="s">
@@ -1901,49 +1941,55 @@
       <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -1952,113 +1998,125 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:23">
+      <c r="T2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="T3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="W3" t="s">
+      <c r="U3" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" ht="54" spans="2:20">
+      <c r="V3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="2:22">
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2071,15 +2129,17 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="12"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2087,10 +2147,10 @@
         <v>2001101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -2101,17 +2161,19 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="12"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2181,7 @@
         <v>2001201</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6">
@@ -2133,15 +2195,17 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="3:20">
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="12"/>
+    </row>
+    <row r="7" spans="3:22">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2153,15 +2217,17 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:22">
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="12"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:24">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2169,57 +2235,59 @@
         <v>2002101</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="6">
         <v>0</v>
       </c>
       <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="6">
+      <c r="M8" s="6">
         <v>3000101</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
         <v>180</v>
       </c>
-      <c r="O8" s="6">
+      <c r="Q8" s="6">
         <v>100</v>
       </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6"/>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
       <c r="S8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6">
         <v>2667</v>
       </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="5">
-        <v>0</v>
-      </c>
-      <c r="V8">
+      <c r="V8" s="12"/>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>2601021</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2295,7 @@
         <v>2002201</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6">
@@ -2241,15 +2309,17 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="3:20">
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="12"/>
+    </row>
+    <row r="10" spans="3:22">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2261,15 +2331,17 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="12"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2277,10 +2349,10 @@
         <v>2003101</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -2291,17 +2363,19 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="12"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2309,10 +2383,10 @@
         <v>2003201</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -2327,25 +2401,27 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6">
         <v>180</v>
       </c>
-      <c r="O12" s="6">
+      <c r="Q12" s="6">
         <v>100</v>
       </c>
-      <c r="P12" s="6">
+      <c r="R12" s="6">
         <v>5000</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="S12" s="6">
         <v>1</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6">
+      <c r="T12" s="6"/>
+      <c r="U12" s="6">
         <v>2667</v>
       </c>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="V12" s="12"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2353,10 +2429,10 @@
         <v>2003202</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
@@ -2371,25 +2447,27 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6">
         <v>180</v>
       </c>
-      <c r="O13" s="6">
+      <c r="Q13" s="6">
         <v>100</v>
       </c>
-      <c r="P13" s="6">
+      <c r="R13" s="6">
         <v>5000</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="S13" s="6">
         <v>1</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6">
+      <c r="T13" s="6"/>
+      <c r="U13" s="6">
         <v>2667</v>
       </c>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="V13" s="12"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2397,10 +2475,10 @@
         <v>2003203</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
@@ -2415,25 +2493,27 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6">
         <v>180</v>
       </c>
-      <c r="O14" s="6">
+      <c r="Q14" s="6">
         <v>100</v>
       </c>
-      <c r="P14" s="6">
+      <c r="R14" s="6">
         <v>5000</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="S14" s="6">
         <v>1</v>
       </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6">
+      <c r="T14" s="6"/>
+      <c r="U14" s="6">
         <v>2667</v>
       </c>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="V14" s="12"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2441,10 +2521,10 @@
         <v>2003204</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E15" s="6">
         <v>4</v>
@@ -2459,25 +2539,27 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="6">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6">
         <v>180</v>
       </c>
-      <c r="O15" s="6">
+      <c r="Q15" s="6">
         <v>100</v>
       </c>
-      <c r="P15" s="6">
+      <c r="R15" s="6">
         <v>5000</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="S15" s="6">
         <v>1</v>
       </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6">
+      <c r="T15" s="6"/>
+      <c r="U15" s="6">
         <v>2667</v>
       </c>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="V15" s="12"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2485,10 +2567,10 @@
         <v>2003205</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E16" s="6">
         <v>5</v>
@@ -2503,25 +2585,27 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="6">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6">
         <v>180</v>
       </c>
-      <c r="O16" s="6">
+      <c r="Q16" s="6">
         <v>100</v>
       </c>
-      <c r="P16" s="6">
+      <c r="R16" s="6">
         <v>5000</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="S16" s="6">
         <v>1</v>
       </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6">
+      <c r="T16" s="6"/>
+      <c r="U16" s="6">
         <v>2667</v>
       </c>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="3:20">
+      <c r="V16" s="12"/>
+    </row>
+    <row r="17" spans="3:22">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2533,15 +2617,17 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="12"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="12"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2549,10 +2635,10 @@
         <v>2003301</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -2567,17 +2653,19 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6">
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6">
         <v>3</v>
       </c>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="12"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="12"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2585,10 +2673,10 @@
         <v>2003302</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
@@ -2603,17 +2691,19 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6">
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6">
         <v>3</v>
       </c>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="12"/>
-    </row>
-    <row r="20" spans="3:20">
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="12"/>
+    </row>
+    <row r="20" spans="3:22">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2625,15 +2715,17 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:21">
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="12"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:23">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2641,10 +2733,10 @@
         <v>2003401</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -2659,18 +2751,20 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6">
-        <v>2</v>
-      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="5"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:21">
+      <c r="S21" s="6">
+        <v>2</v>
+      </c>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:23">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2678,10 +2772,10 @@
         <v>2003402</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E22" s="6">
         <v>2</v>
@@ -2696,18 +2790,20 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6">
-        <v>2</v>
-      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="5"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:21">
+      <c r="S22" s="6">
+        <v>2</v>
+      </c>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:23">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2715,10 +2811,10 @@
         <v>2003403</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E23" s="6">
         <v>3</v>
@@ -2733,18 +2829,20 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6">
-        <v>2</v>
-      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="5"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:21">
+      <c r="S23" s="6">
+        <v>2</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:23">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2752,10 +2850,10 @@
         <v>2003404</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E24" s="6">
         <v>4</v>
@@ -2770,18 +2868,20 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6">
-        <v>2</v>
-      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="5"/>
-    </row>
-    <row r="25" customFormat="1" spans="1:21">
+      <c r="S24" s="6">
+        <v>2</v>
+      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="5"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:23">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2789,10 +2889,10 @@
         <v>2003405</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E25" s="6">
         <v>5</v>
@@ -2807,18 +2907,20 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6">
-        <v>2</v>
-      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="5"/>
-    </row>
-    <row r="26" spans="3:20">
+      <c r="S25" s="6">
+        <v>2</v>
+      </c>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="5"/>
+    </row>
+    <row r="26" spans="3:22">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -2830,15 +2932,17 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="12"/>
-    </row>
-    <row r="27" spans="3:20">
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="12"/>
+    </row>
+    <row r="27" spans="3:22">
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -2850,15 +2954,17 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="12"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:21">
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="12"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:23">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2866,10 +2972,10 @@
         <v>2003501</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
@@ -2884,18 +2990,20 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6">
-        <v>2</v>
-      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="5"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:21">
+      <c r="S28" s="6">
+        <v>2</v>
+      </c>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="5"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:23">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2903,10 +3011,10 @@
         <v>2003502</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E29" s="6">
         <v>2</v>
@@ -2921,18 +3029,20 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6">
-        <v>2</v>
-      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="5"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:21">
+      <c r="S29" s="6">
+        <v>2</v>
+      </c>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="5"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:23">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2940,10 +3050,10 @@
         <v>2003503</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -2958,18 +3068,20 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6">
-        <v>2</v>
-      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="5"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:21">
+      <c r="S30" s="6">
+        <v>2</v>
+      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:23">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2977,10 +3089,10 @@
         <v>2003504</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E31" s="6">
         <v>4</v>
@@ -2995,18 +3107,20 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6">
-        <v>2</v>
-      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="5"/>
-    </row>
-    <row r="32" customFormat="1" spans="1:21">
+      <c r="S31" s="6">
+        <v>2</v>
+      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="5"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:23">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -3014,10 +3128,10 @@
         <v>2003505</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E32" s="6">
         <v>5</v>
@@ -3032,18 +3146,20 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6">
-        <v>2</v>
-      </c>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="5"/>
-    </row>
-    <row r="33" spans="2:20">
+      <c r="S32" s="6">
+        <v>2</v>
+      </c>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="5"/>
+    </row>
+    <row r="33" spans="2:22">
       <c r="B33" s="8"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -3056,15 +3172,17 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="12"/>
-    </row>
-    <row r="34" customFormat="1" spans="1:21">
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="12"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:23">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3072,10 +3190,10 @@
         <v>2003601</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -3090,18 +3208,20 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6">
-        <v>2</v>
-      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="5"/>
-    </row>
-    <row r="35" customFormat="1" spans="1:21">
+      <c r="S34" s="6">
+        <v>2</v>
+      </c>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" customFormat="1" spans="1:23">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3109,10 +3229,10 @@
         <v>2003701</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
@@ -3127,18 +3247,20 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6">
-        <v>2</v>
-      </c>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="5"/>
-    </row>
-    <row r="36" customFormat="1" spans="1:21">
+      <c r="S35" s="6">
+        <v>2</v>
+      </c>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:23">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3146,10 +3268,10 @@
         <v>2003801</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -3164,18 +3286,20 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6">
-        <v>2</v>
-      </c>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="5"/>
-    </row>
-    <row r="37" spans="2:20">
+      <c r="S36" s="6">
+        <v>2</v>
+      </c>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="5"/>
+    </row>
+    <row r="37" spans="2:22">
       <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3188,15 +3312,17 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="12"/>
-    </row>
-    <row r="38" spans="2:20">
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="12"/>
+    </row>
+    <row r="38" spans="2:22">
       <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -3209,15 +3335,17 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="12"/>
-    </row>
-    <row r="39" spans="2:20">
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="12"/>
+    </row>
+    <row r="39" spans="2:22">
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3230,15 +3358,17 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="12"/>
-    </row>
-    <row r="40" spans="2:20">
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="12"/>
+    </row>
+    <row r="40" spans="2:22">
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -3251,17 +3381,19 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="12"/>
-    </row>
-    <row r="41" ht="40.5" spans="2:20">
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="12"/>
+    </row>
+    <row r="41" ht="40.5" spans="2:22">
       <c r="B41" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3274,15 +3406,17 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="12"/>
-    </row>
-    <row r="42" customFormat="1" ht="27" spans="1:22">
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="12"/>
+    </row>
+    <row r="42" customFormat="1" ht="27" spans="1:24">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3290,10 +3424,10 @@
         <v>2100101</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
@@ -3304,47 +3438,49 @@
       <c r="G42" s="6">
         <v>2</v>
       </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
+      <c r="H42" s="6"/>
       <c r="I42" s="6">
         <v>0</v>
       </c>
       <c r="J42" s="6">
         <v>0</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="6"/>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
         <v>3100101</v>
       </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6">
+      <c r="N42" s="6"/>
+      <c r="O42" s="6">
         <v>6000</v>
       </c>
-      <c r="N42" s="6">
+      <c r="P42" s="6">
         <v>400</v>
       </c>
-      <c r="O42" s="6">
+      <c r="Q42" s="6">
         <v>400</v>
       </c>
-      <c r="P42" s="6">
+      <c r="R42" s="6">
         <v>3000</v>
       </c>
-      <c r="Q42" s="6">
-        <v>2</v>
-      </c>
-      <c r="R42" s="6"/>
       <c r="S42" s="6">
+        <v>2</v>
+      </c>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6">
         <v>1000</v>
       </c>
-      <c r="T42" s="12"/>
-      <c r="U42" s="5">
-        <v>0</v>
-      </c>
-      <c r="V42">
+      <c r="V42" s="12"/>
+      <c r="W42" s="5">
+        <v>0</v>
+      </c>
+      <c r="X42">
         <v>2601022</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="27" spans="1:22">
+    <row r="43" customFormat="1" ht="27" spans="1:24">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3352,10 +3488,10 @@
         <v>2100102</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E43" s="6">
         <v>2</v>
@@ -3366,47 +3502,49 @@
       <c r="G43" s="6">
         <v>2</v>
       </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
+      <c r="H43" s="6"/>
       <c r="I43" s="6">
         <v>0</v>
       </c>
       <c r="J43" s="6">
         <v>0</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="6"/>
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
         <v>3100102</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6">
+      <c r="N43" s="6"/>
+      <c r="O43" s="6">
         <v>6000</v>
       </c>
-      <c r="N43" s="6">
+      <c r="P43" s="6">
         <v>400</v>
       </c>
-      <c r="O43" s="6">
+      <c r="Q43" s="6">
         <v>400</v>
       </c>
-      <c r="P43" s="6">
+      <c r="R43" s="6">
         <v>2500</v>
       </c>
-      <c r="Q43" s="6">
-        <v>2</v>
-      </c>
-      <c r="R43" s="6"/>
       <c r="S43" s="6">
+        <v>2</v>
+      </c>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6">
         <v>1000</v>
       </c>
-      <c r="T43" s="12"/>
-      <c r="U43" s="5">
-        <v>0</v>
-      </c>
-      <c r="V43">
+      <c r="V43" s="12"/>
+      <c r="W43" s="5">
+        <v>0</v>
+      </c>
+      <c r="X43">
         <v>2601022</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="27" spans="1:22">
+    <row r="44" customFormat="1" ht="27" spans="1:24">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3414,10 +3552,10 @@
         <v>2100103</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E44" s="6">
         <v>3</v>
@@ -3428,47 +3566,49 @@
       <c r="G44" s="6">
         <v>2</v>
       </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
+      <c r="H44" s="6"/>
       <c r="I44" s="6">
         <v>0</v>
       </c>
       <c r="J44" s="6">
         <v>0</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="6"/>
+      <c r="L44" s="6">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
         <v>3100103</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6">
+      <c r="N44" s="6"/>
+      <c r="O44" s="6">
         <v>6000</v>
       </c>
-      <c r="N44" s="6">
+      <c r="P44" s="6">
         <v>400</v>
       </c>
-      <c r="O44" s="6">
+      <c r="Q44" s="6">
         <v>400</v>
       </c>
-      <c r="P44" s="6">
+      <c r="R44" s="6">
         <v>2000</v>
       </c>
-      <c r="Q44" s="6">
-        <v>2</v>
-      </c>
-      <c r="R44" s="6"/>
       <c r="S44" s="6">
+        <v>2</v>
+      </c>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6">
         <v>1000</v>
       </c>
-      <c r="T44" s="12"/>
-      <c r="U44" s="5">
-        <v>0</v>
-      </c>
-      <c r="V44">
+      <c r="V44" s="12"/>
+      <c r="W44" s="5">
+        <v>0</v>
+      </c>
+      <c r="X44">
         <v>2601022</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="27" spans="1:22">
+    <row r="45" customFormat="1" ht="27" spans="1:24">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3476,10 +3616,10 @@
         <v>2100104</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E45" s="6">
         <v>4</v>
@@ -3490,47 +3630,49 @@
       <c r="G45" s="6">
         <v>2</v>
       </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
+      <c r="H45" s="6"/>
       <c r="I45" s="6">
         <v>0</v>
       </c>
       <c r="J45" s="6">
         <v>0</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="6"/>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
         <v>3100104</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6">
+      <c r="N45" s="6"/>
+      <c r="O45" s="6">
         <v>6000</v>
       </c>
-      <c r="N45" s="6">
+      <c r="P45" s="6">
         <v>400</v>
       </c>
-      <c r="O45" s="6">
+      <c r="Q45" s="6">
         <v>400</v>
       </c>
-      <c r="P45" s="6">
+      <c r="R45" s="6">
         <v>1500</v>
       </c>
-      <c r="Q45" s="6">
-        <v>2</v>
-      </c>
-      <c r="R45" s="6"/>
       <c r="S45" s="6">
+        <v>2</v>
+      </c>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6">
         <v>1000</v>
       </c>
-      <c r="T45" s="12"/>
-      <c r="U45" s="5">
-        <v>0</v>
-      </c>
-      <c r="V45">
+      <c r="V45" s="12"/>
+      <c r="W45" s="5">
+        <v>0</v>
+      </c>
+      <c r="X45">
         <v>2601022</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="40.5" spans="1:22">
+    <row r="46" customFormat="1" ht="40.5" spans="1:24">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3538,10 +3680,10 @@
         <v>2100105</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E46" s="6">
         <v>5</v>
@@ -3552,47 +3694,49 @@
       <c r="G46" s="6">
         <v>2</v>
       </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
+      <c r="H46" s="6"/>
       <c r="I46" s="6">
         <v>0</v>
       </c>
       <c r="J46" s="6">
         <v>0</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="6"/>
+      <c r="L46" s="6">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
         <v>3100105</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6">
+      <c r="N46" s="6"/>
+      <c r="O46" s="6">
         <v>6000</v>
       </c>
-      <c r="N46" s="6">
+      <c r="P46" s="6">
         <v>400</v>
       </c>
-      <c r="O46" s="6">
+      <c r="Q46" s="6">
         <v>400</v>
       </c>
-      <c r="P46" s="6">
+      <c r="R46" s="6">
         <v>1000</v>
       </c>
-      <c r="Q46" s="6">
-        <v>2</v>
-      </c>
-      <c r="R46" s="6"/>
       <c r="S46" s="6">
+        <v>2</v>
+      </c>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6">
         <v>1000</v>
       </c>
-      <c r="T46" s="12"/>
-      <c r="U46" s="5">
-        <v>0</v>
-      </c>
-      <c r="V46">
+      <c r="V46" s="12"/>
+      <c r="W46" s="5">
+        <v>0</v>
+      </c>
+      <c r="X46">
         <v>2601022</v>
       </c>
     </row>
-    <row r="47" spans="3:20">
+    <row r="47" spans="3:22">
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -3604,15 +3748,17 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="12"/>
-    </row>
-    <row r="48" customFormat="1" spans="3:21">
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="12"/>
+    </row>
+    <row r="48" customFormat="1" spans="3:23">
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="6"/>
@@ -3621,19 +3767,21 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="5"/>
-    </row>
-    <row r="49" customFormat="1" spans="1:21">
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="5"/>
+    </row>
+    <row r="49" customFormat="1" spans="1:23">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3641,10 +3789,10 @@
         <v>2100201</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
@@ -3655,44 +3803,46 @@
       <c r="G49" s="6">
         <v>0</v>
       </c>
-      <c r="H49" s="6">
-        <v>0</v>
-      </c>
+      <c r="H49" s="6"/>
       <c r="I49" s="6">
         <v>0</v>
       </c>
       <c r="J49" s="6">
         <v>0</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="6"/>
+      <c r="L49" s="6">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
         <v>13100101</v>
       </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="6">
-        <v>0</v>
-      </c>
-      <c r="N49" s="6">
+      <c r="N49" s="10"/>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+      <c r="P49" s="6">
         <v>466</v>
       </c>
-      <c r="O49" s="6">
+      <c r="Q49" s="6">
         <v>200</v>
       </c>
-      <c r="P49" s="6">
+      <c r="R49" s="6">
         <v>3000</v>
       </c>
-      <c r="Q49" s="6">
-        <v>2</v>
-      </c>
-      <c r="R49" s="6"/>
       <c r="S49" s="6">
+        <v>2</v>
+      </c>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6">
         <v>1000</v>
       </c>
-      <c r="T49" s="12"/>
-      <c r="U49" s="5">
+      <c r="V49" s="12"/>
+      <c r="W49" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3700,10 +3850,10 @@
         <v>2100202</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E50" s="6">
         <v>2</v>
@@ -3714,39 +3864,41 @@
       <c r="G50" s="6">
         <v>0</v>
       </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
+      <c r="H50" s="6"/>
       <c r="I50" s="6">
         <v>0</v>
       </c>
       <c r="J50" s="6">
         <v>0</v>
       </c>
-      <c r="K50" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="6">
-        <v>0</v>
-      </c>
-      <c r="N50" s="6">
+      <c r="K50" s="6"/>
+      <c r="L50" s="6">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N50" s="10"/>
+      <c r="O50" s="6">
+        <v>0</v>
+      </c>
+      <c r="P50" s="6">
         <v>466</v>
       </c>
-      <c r="O50" s="6">
+      <c r="Q50" s="6">
         <v>200</v>
       </c>
-      <c r="P50" s="6">
+      <c r="R50" s="6">
         <v>3000</v>
       </c>
-      <c r="Q50" s="6">
-        <v>2</v>
-      </c>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="12"/>
-    </row>
-    <row r="51" ht="27" spans="1:20">
+      <c r="S50" s="6">
+        <v>2</v>
+      </c>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="12"/>
+    </row>
+    <row r="51" ht="27" spans="1:22">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3754,10 +3906,10 @@
         <v>2100203</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E51" s="6">
         <v>3</v>
@@ -3768,39 +3920,41 @@
       <c r="G51" s="6">
         <v>0</v>
       </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
+      <c r="H51" s="6"/>
       <c r="I51" s="6">
         <v>0</v>
       </c>
       <c r="J51" s="6">
         <v>0</v>
       </c>
-      <c r="K51" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="6">
-        <v>0</v>
-      </c>
-      <c r="N51" s="6">
+      <c r="K51" s="6"/>
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N51" s="10"/>
+      <c r="O51" s="6">
+        <v>0</v>
+      </c>
+      <c r="P51" s="6">
         <v>466</v>
       </c>
-      <c r="O51" s="6">
+      <c r="Q51" s="6">
         <v>200</v>
       </c>
-      <c r="P51" s="6">
+      <c r="R51" s="6">
         <v>3000</v>
       </c>
-      <c r="Q51" s="6">
-        <v>2</v>
-      </c>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="12"/>
-    </row>
-    <row r="52" ht="27" spans="1:20">
+      <c r="S51" s="6">
+        <v>2</v>
+      </c>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="12"/>
+    </row>
+    <row r="52" ht="27" spans="1:22">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3808,10 +3962,10 @@
         <v>2100204</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E52" s="6">
         <v>4</v>
@@ -3822,39 +3976,41 @@
       <c r="G52" s="6">
         <v>0</v>
       </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
+      <c r="H52" s="6"/>
       <c r="I52" s="6">
         <v>0</v>
       </c>
       <c r="J52" s="6">
         <v>0</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="6">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6">
+      <c r="K52" s="6"/>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N52" s="10"/>
+      <c r="O52" s="6">
+        <v>0</v>
+      </c>
+      <c r="P52" s="6">
         <v>466</v>
       </c>
-      <c r="O52" s="6">
+      <c r="Q52" s="6">
         <v>200</v>
       </c>
-      <c r="P52" s="6">
+      <c r="R52" s="6">
         <v>3000</v>
       </c>
-      <c r="Q52" s="6">
-        <v>2</v>
-      </c>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="12"/>
-    </row>
-    <row r="53" ht="40.5" spans="1:20">
+      <c r="S52" s="6">
+        <v>2</v>
+      </c>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="12"/>
+    </row>
+    <row r="53" ht="40.5" spans="1:22">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3862,10 +4018,10 @@
         <v>2100205</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E53" s="6">
         <v>5</v>
@@ -3876,39 +4032,41 @@
       <c r="G53" s="6">
         <v>0</v>
       </c>
-      <c r="H53" s="6">
-        <v>0</v>
-      </c>
+      <c r="H53" s="6"/>
       <c r="I53" s="6">
         <v>0</v>
       </c>
       <c r="J53" s="6">
         <v>0</v>
       </c>
-      <c r="K53" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="6">
-        <v>0</v>
-      </c>
-      <c r="N53" s="6">
+      <c r="K53" s="6"/>
+      <c r="L53" s="6">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N53" s="10"/>
+      <c r="O53" s="6">
+        <v>0</v>
+      </c>
+      <c r="P53" s="6">
         <v>466</v>
       </c>
-      <c r="O53" s="6">
+      <c r="Q53" s="6">
         <v>200</v>
       </c>
-      <c r="P53" s="6">
+      <c r="R53" s="6">
         <v>3000</v>
       </c>
-      <c r="Q53" s="6">
-        <v>2</v>
-      </c>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="12"/>
-    </row>
-    <row r="54" spans="3:20">
+      <c r="S53" s="6">
+        <v>2</v>
+      </c>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="12"/>
+    </row>
+    <row r="54" spans="3:22">
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -3920,15 +4078,17 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
-      <c r="T54" s="12"/>
-    </row>
-    <row r="55" spans="3:20">
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="12"/>
+    </row>
+    <row r="55" spans="3:22">
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -3940,15 +4100,17 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
-      <c r="T55" s="12"/>
-    </row>
-    <row r="56" customFormat="1" ht="27" spans="1:21">
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="12"/>
+    </row>
+    <row r="56" customFormat="1" ht="27" spans="1:23">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3956,10 +4118,10 @@
         <v>2100301</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
@@ -3970,42 +4132,44 @@
       <c r="G56" s="6">
         <v>0</v>
       </c>
-      <c r="H56" s="6">
-        <v>0</v>
-      </c>
+      <c r="H56" s="6"/>
       <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
         <v>1</v>
       </c>
-      <c r="J56" s="6">
-        <v>2</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L56" s="10"/>
-      <c r="M56" s="6">
-        <v>0</v>
-      </c>
-      <c r="N56" s="6">
-        <v>0</v>
-      </c>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6">
+        <v>2</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N56" s="10"/>
       <c r="O56" s="6">
         <v>0</v>
       </c>
-      <c r="P56" s="6"/>
+      <c r="P56" s="6">
+        <v>0</v>
+      </c>
       <c r="Q56" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56" s="6"/>
       <c r="S56" s="6">
+        <v>2</v>
+      </c>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6">
         <v>1000</v>
       </c>
-      <c r="T56" s="12"/>
-      <c r="U56" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" ht="27" spans="1:21">
+      <c r="V56" s="12"/>
+      <c r="W56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="27" spans="1:23">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -4013,10 +4177,10 @@
         <v>2100302</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E57" s="6">
         <v>2</v>
@@ -4027,42 +4191,44 @@
       <c r="G57" s="6">
         <v>0</v>
       </c>
-      <c r="H57" s="6">
-        <v>0</v>
-      </c>
+      <c r="H57" s="6"/>
       <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
         <v>1</v>
       </c>
-      <c r="J57" s="6">
-        <v>2</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="6">
-        <v>0</v>
-      </c>
-      <c r="N57" s="6">
-        <v>0</v>
-      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6">
+        <v>2</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="N57" s="10"/>
       <c r="O57" s="6">
         <v>0</v>
       </c>
-      <c r="P57" s="6"/>
+      <c r="P57" s="6">
+        <v>0</v>
+      </c>
       <c r="Q57" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57" s="6"/>
       <c r="S57" s="6">
+        <v>2</v>
+      </c>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6">
         <v>1000</v>
       </c>
-      <c r="T57" s="12"/>
-      <c r="U57" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="27" spans="1:21">
+      <c r="V57" s="12"/>
+      <c r="W57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="27" spans="1:23">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -4070,10 +4236,10 @@
         <v>2100303</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E58" s="6">
         <v>3</v>
@@ -4084,42 +4250,44 @@
       <c r="G58" s="6">
         <v>0</v>
       </c>
-      <c r="H58" s="6">
-        <v>0</v>
-      </c>
+      <c r="H58" s="6"/>
       <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
         <v>1</v>
       </c>
-      <c r="J58" s="6">
-        <v>2</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="6">
-        <v>0</v>
-      </c>
-      <c r="N58" s="6">
-        <v>0</v>
-      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6">
+        <v>2</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N58" s="10"/>
       <c r="O58" s="6">
         <v>0</v>
       </c>
-      <c r="P58" s="6"/>
+      <c r="P58" s="6">
+        <v>0</v>
+      </c>
       <c r="Q58" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58" s="6"/>
       <c r="S58" s="6">
+        <v>2</v>
+      </c>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6">
         <v>1000</v>
       </c>
-      <c r="T58" s="12"/>
-      <c r="U58" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="27" spans="1:21">
+      <c r="V58" s="12"/>
+      <c r="W58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="1:23">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -4127,10 +4295,10 @@
         <v>2100304</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E59" s="6">
         <v>4</v>
@@ -4141,42 +4309,44 @@
       <c r="G59" s="6">
         <v>0</v>
       </c>
-      <c r="H59" s="6">
-        <v>0</v>
-      </c>
+      <c r="H59" s="6"/>
       <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
         <v>1</v>
       </c>
-      <c r="J59" s="6">
-        <v>2</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L59" s="10"/>
-      <c r="M59" s="6">
-        <v>0</v>
-      </c>
-      <c r="N59" s="6">
-        <v>0</v>
-      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6">
+        <v>2</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="N59" s="10"/>
       <c r="O59" s="6">
         <v>0</v>
       </c>
-      <c r="P59" s="6"/>
+      <c r="P59" s="6">
+        <v>0</v>
+      </c>
       <c r="Q59" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" s="6"/>
       <c r="S59" s="6">
+        <v>2</v>
+      </c>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6">
         <v>1000</v>
       </c>
-      <c r="T59" s="12"/>
-      <c r="U59" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" ht="54" spans="1:21">
+      <c r="V59" s="12"/>
+      <c r="W59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="54" spans="1:23">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -4184,10 +4354,10 @@
         <v>2100305</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E60" s="6">
         <v>5</v>
@@ -4198,42 +4368,44 @@
       <c r="G60" s="6">
         <v>0</v>
       </c>
-      <c r="H60" s="6">
-        <v>0</v>
-      </c>
+      <c r="H60" s="6"/>
       <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
         <v>1</v>
       </c>
-      <c r="J60" s="6">
-        <v>2</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="6">
-        <v>0</v>
-      </c>
-      <c r="N60" s="6">
-        <v>0</v>
-      </c>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6">
+        <v>2</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N60" s="10"/>
       <c r="O60" s="6">
         <v>0</v>
       </c>
-      <c r="P60" s="6"/>
+      <c r="P60" s="6">
+        <v>0</v>
+      </c>
       <c r="Q60" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" s="6"/>
       <c r="S60" s="6">
+        <v>2</v>
+      </c>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6">
         <v>1000</v>
       </c>
-      <c r="T60" s="12"/>
-      <c r="U60" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20">
+      <c r="V60" s="12"/>
+      <c r="W60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22">
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -4245,15 +4417,17 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
-      <c r="T61" s="12"/>
-    </row>
-    <row r="62" spans="3:20">
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="12"/>
+    </row>
+    <row r="62" spans="3:22">
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -4265,15 +4439,17 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
-      <c r="T62" s="12"/>
-    </row>
-    <row r="63" customFormat="1" spans="1:21">
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="12"/>
+    </row>
+    <row r="63" customFormat="1" spans="1:23">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -4281,10 +4457,10 @@
         <v>2100401</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
@@ -4295,42 +4471,44 @@
       <c r="G63" s="6">
         <v>0</v>
       </c>
-      <c r="H63" s="6">
-        <v>0</v>
-      </c>
+      <c r="H63" s="6"/>
       <c r="I63" s="6">
         <v>0</v>
       </c>
       <c r="J63" s="6">
-        <v>2</v>
-      </c>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="6">
-        <v>0</v>
-      </c>
-      <c r="N63" s="6">
+        <v>0</v>
+      </c>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6">
+        <v>2</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="6">
+        <v>0</v>
+      </c>
+      <c r="P63" s="6">
         <v>466</v>
       </c>
-      <c r="O63" s="6">
+      <c r="Q63" s="6">
         <v>200</v>
       </c>
-      <c r="P63" s="6">
+      <c r="R63" s="6">
         <v>3000</v>
       </c>
-      <c r="Q63" s="6">
-        <v>2</v>
-      </c>
-      <c r="R63" s="6"/>
       <c r="S63" s="6">
+        <v>2</v>
+      </c>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6">
         <v>1000</v>
       </c>
-      <c r="T63" s="12"/>
-      <c r="U63" s="5">
+      <c r="V63" s="12"/>
+      <c r="W63" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:23">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -4338,10 +4516,10 @@
         <v>2100402</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
@@ -4352,42 +4530,44 @@
       <c r="G64" s="6">
         <v>0</v>
       </c>
-      <c r="H64" s="6">
-        <v>0</v>
-      </c>
+      <c r="H64" s="6"/>
       <c r="I64" s="6">
         <v>0</v>
       </c>
       <c r="J64" s="6">
-        <v>2</v>
-      </c>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="6">
-        <v>0</v>
-      </c>
-      <c r="N64" s="6">
+        <v>0</v>
+      </c>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6">
+        <v>2</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="6">
+        <v>0</v>
+      </c>
+      <c r="P64" s="6">
         <v>466</v>
       </c>
-      <c r="O64" s="6">
+      <c r="Q64" s="6">
         <v>200</v>
       </c>
-      <c r="P64" s="6">
+      <c r="R64" s="6">
         <v>3000</v>
       </c>
-      <c r="Q64" s="6">
-        <v>2</v>
-      </c>
-      <c r="R64" s="6"/>
       <c r="S64" s="6">
+        <v>2</v>
+      </c>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6">
         <v>1000</v>
       </c>
-      <c r="T64" s="12"/>
-      <c r="U64" s="5">
+      <c r="V64" s="12"/>
+      <c r="W64" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="65" ht="27" spans="1:21">
+    <row r="65" ht="27" spans="1:23">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -4395,10 +4575,10 @@
         <v>2100403</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E65" s="6">
         <v>3</v>
@@ -4409,44 +4589,46 @@
       <c r="G65" s="6">
         <v>0</v>
       </c>
-      <c r="H65" s="6">
-        <v>0</v>
-      </c>
+      <c r="H65" s="6"/>
       <c r="I65" s="6">
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>2</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="6">
-        <v>0</v>
-      </c>
-      <c r="N65" s="6">
+        <v>0</v>
+      </c>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6">
+        <v>2</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="N65" s="10"/>
+      <c r="O65" s="6">
+        <v>0</v>
+      </c>
+      <c r="P65" s="6">
         <v>466</v>
       </c>
-      <c r="O65" s="6">
+      <c r="Q65" s="6">
         <v>200</v>
       </c>
-      <c r="P65" s="6">
+      <c r="R65" s="6">
         <v>3000</v>
       </c>
-      <c r="Q65" s="6">
-        <v>2</v>
-      </c>
-      <c r="R65" s="6"/>
       <c r="S65" s="6">
+        <v>2</v>
+      </c>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6">
         <v>1000</v>
       </c>
-      <c r="T65" s="12"/>
-      <c r="U65" s="5">
+      <c r="V65" s="12"/>
+      <c r="W65" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="66" ht="27" spans="1:21">
+    <row r="66" ht="27" spans="1:23">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -4454,10 +4636,10 @@
         <v>2100404</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E66" s="6">
         <v>4</v>
@@ -4468,44 +4650,46 @@
       <c r="G66" s="6">
         <v>0</v>
       </c>
-      <c r="H66" s="6">
-        <v>0</v>
-      </c>
+      <c r="H66" s="6"/>
       <c r="I66" s="6">
         <v>0</v>
       </c>
       <c r="J66" s="6">
-        <v>2</v>
-      </c>
-      <c r="K66" s="10">
+        <v>0</v>
+      </c>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6">
+        <v>2</v>
+      </c>
+      <c r="M66" s="10">
         <v>14100301</v>
       </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="6">
-        <v>0</v>
-      </c>
-      <c r="N66" s="6">
+      <c r="N66" s="10"/>
+      <c r="O66" s="6">
+        <v>0</v>
+      </c>
+      <c r="P66" s="6">
         <v>466</v>
       </c>
-      <c r="O66" s="6">
+      <c r="Q66" s="6">
         <v>200</v>
       </c>
-      <c r="P66" s="6">
+      <c r="R66" s="6">
         <v>3000</v>
       </c>
-      <c r="Q66" s="6">
-        <v>2</v>
-      </c>
-      <c r="R66" s="6"/>
       <c r="S66" s="6">
+        <v>2</v>
+      </c>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6">
         <v>1000</v>
       </c>
-      <c r="T66" s="12"/>
-      <c r="U66" s="5">
+      <c r="V66" s="12"/>
+      <c r="W66" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="67" ht="27" spans="1:21">
+    <row r="67" ht="27" spans="1:23">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -4513,10 +4697,10 @@
         <v>2100405</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E67" s="6">
         <v>5</v>
@@ -4527,44 +4711,46 @@
       <c r="G67" s="6">
         <v>0</v>
       </c>
-      <c r="H67" s="6">
-        <v>0</v>
-      </c>
+      <c r="H67" s="6"/>
       <c r="I67" s="6">
         <v>0</v>
       </c>
       <c r="J67" s="6">
-        <v>2</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="6">
-        <v>0</v>
-      </c>
-      <c r="N67" s="6">
+        <v>0</v>
+      </c>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6">
+        <v>2</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="N67" s="10"/>
+      <c r="O67" s="6">
+        <v>0</v>
+      </c>
+      <c r="P67" s="6">
         <v>466</v>
       </c>
-      <c r="O67" s="6">
+      <c r="Q67" s="6">
         <v>200</v>
       </c>
-      <c r="P67" s="6">
+      <c r="R67" s="6">
         <v>3000</v>
       </c>
-      <c r="Q67" s="6">
-        <v>2</v>
-      </c>
-      <c r="R67" s="6"/>
       <c r="S67" s="6">
+        <v>2</v>
+      </c>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6">
         <v>1000</v>
       </c>
-      <c r="T67" s="12"/>
-      <c r="U67" s="5">
+      <c r="V67" s="12"/>
+      <c r="W67" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="68" spans="3:20">
+    <row r="68" spans="3:22">
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -4576,15 +4762,17 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
-      <c r="T68" s="12"/>
-    </row>
-    <row r="69" spans="3:20">
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="12"/>
+    </row>
+    <row r="69" spans="3:22">
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -4596,15 +4784,17 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
-      <c r="T69" s="12"/>
-    </row>
-    <row r="70" customFormat="1" ht="14" customHeight="1" spans="1:22">
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="12"/>
+    </row>
+    <row r="70" customFormat="1" ht="14" customHeight="1" spans="1:24">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -4612,10 +4802,10 @@
         <v>2100501</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -4626,47 +4816,49 @@
       <c r="G70" s="6">
         <v>2</v>
       </c>
-      <c r="H70" s="6">
-        <v>0</v>
-      </c>
+      <c r="H70" s="6"/>
       <c r="I70" s="6">
         <v>0</v>
       </c>
       <c r="J70" s="6">
+        <v>0</v>
+      </c>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6">
         <v>11</v>
       </c>
-      <c r="K70" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L70" s="10"/>
-      <c r="M70" s="6">
+      <c r="M70" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N70" s="10"/>
+      <c r="O70" s="6">
         <v>8000</v>
       </c>
-      <c r="N70" s="6">
+      <c r="P70" s="6">
         <v>180</v>
       </c>
-      <c r="O70" s="6">
+      <c r="Q70" s="6">
         <v>100</v>
       </c>
-      <c r="P70" s="6">
+      <c r="R70" s="6">
         <v>3000</v>
       </c>
-      <c r="Q70" s="6">
-        <v>2</v>
-      </c>
-      <c r="R70" s="6"/>
       <c r="S70" s="6">
+        <v>2</v>
+      </c>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6">
         <v>2667</v>
       </c>
-      <c r="T70" s="12"/>
-      <c r="U70" s="5">
-        <v>0</v>
-      </c>
-      <c r="V70">
+      <c r="V70" s="12"/>
+      <c r="W70" s="5">
+        <v>0</v>
+      </c>
+      <c r="X70">
         <v>2601024</v>
       </c>
     </row>
-    <row r="71" ht="14" customHeight="1" spans="1:22">
+    <row r="71" ht="14" customHeight="1" spans="1:24">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -4674,10 +4866,10 @@
         <v>2100502</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E71" s="6">
         <v>2</v>
@@ -4688,47 +4880,49 @@
       <c r="G71" s="6">
         <v>2</v>
       </c>
-      <c r="H71" s="6">
-        <v>0</v>
-      </c>
+      <c r="H71" s="6"/>
       <c r="I71" s="6">
         <v>0</v>
       </c>
       <c r="J71" s="6">
+        <v>0</v>
+      </c>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6">
         <v>11</v>
       </c>
-      <c r="K71" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="6">
+      <c r="M71" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N71" s="10"/>
+      <c r="O71" s="6">
         <v>8000</v>
       </c>
-      <c r="N71" s="6">
+      <c r="P71" s="6">
         <v>180</v>
       </c>
-      <c r="O71" s="6">
+      <c r="Q71" s="6">
         <v>100</v>
       </c>
-      <c r="P71" s="6">
+      <c r="R71" s="6">
         <v>3000</v>
       </c>
-      <c r="Q71" s="6">
-        <v>2</v>
-      </c>
-      <c r="R71" s="6"/>
       <c r="S71" s="6">
+        <v>2</v>
+      </c>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6">
         <v>2667</v>
       </c>
-      <c r="T71" s="12"/>
-      <c r="U71" s="5">
-        <v>0</v>
-      </c>
-      <c r="V71">
+      <c r="V71" s="12"/>
+      <c r="W71" s="5">
+        <v>0</v>
+      </c>
+      <c r="X71">
         <v>2601024</v>
       </c>
     </row>
-    <row r="72" ht="14" customHeight="1" spans="1:22">
+    <row r="72" ht="14" customHeight="1" spans="1:24">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -4736,10 +4930,10 @@
         <v>2100503</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E72" s="6">
         <v>3</v>
@@ -4750,47 +4944,49 @@
       <c r="G72" s="6">
         <v>2</v>
       </c>
-      <c r="H72" s="6">
-        <v>0</v>
-      </c>
+      <c r="H72" s="6"/>
       <c r="I72" s="6">
         <v>0</v>
       </c>
       <c r="J72" s="6">
+        <v>0</v>
+      </c>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6">
         <v>11</v>
       </c>
-      <c r="K72" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L72" s="10"/>
-      <c r="M72" s="6">
+      <c r="M72" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N72" s="10"/>
+      <c r="O72" s="6">
         <v>8000</v>
       </c>
-      <c r="N72" s="6">
+      <c r="P72" s="6">
         <v>180</v>
       </c>
-      <c r="O72" s="6">
+      <c r="Q72" s="6">
         <v>100</v>
       </c>
-      <c r="P72" s="6">
+      <c r="R72" s="6">
         <v>3000</v>
       </c>
-      <c r="Q72" s="6">
-        <v>2</v>
-      </c>
-      <c r="R72" s="6"/>
       <c r="S72" s="6">
+        <v>2</v>
+      </c>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6">
         <v>2667</v>
       </c>
-      <c r="T72" s="12"/>
-      <c r="U72" s="5">
-        <v>0</v>
-      </c>
-      <c r="V72">
+      <c r="V72" s="12"/>
+      <c r="W72" s="5">
+        <v>0</v>
+      </c>
+      <c r="X72">
         <v>2601024</v>
       </c>
     </row>
-    <row r="73" ht="14" customHeight="1" spans="1:22">
+    <row r="73" ht="14" customHeight="1" spans="1:24">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -4798,10 +4994,10 @@
         <v>2100504</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E73" s="6">
         <v>4</v>
@@ -4812,47 +5008,49 @@
       <c r="G73" s="6">
         <v>2</v>
       </c>
-      <c r="H73" s="6">
-        <v>0</v>
-      </c>
+      <c r="H73" s="6"/>
       <c r="I73" s="6">
         <v>0</v>
       </c>
       <c r="J73" s="6">
+        <v>0</v>
+      </c>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6">
         <v>11</v>
       </c>
-      <c r="K73" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L73" s="10"/>
-      <c r="M73" s="6">
+      <c r="M73" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N73" s="10"/>
+      <c r="O73" s="6">
         <v>8000</v>
       </c>
-      <c r="N73" s="6">
+      <c r="P73" s="6">
         <v>180</v>
       </c>
-      <c r="O73" s="6">
+      <c r="Q73" s="6">
         <v>100</v>
       </c>
-      <c r="P73" s="6">
+      <c r="R73" s="6">
         <v>3000</v>
       </c>
-      <c r="Q73" s="6">
-        <v>2</v>
-      </c>
-      <c r="R73" s="6"/>
       <c r="S73" s="6">
+        <v>2</v>
+      </c>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6">
         <v>2667</v>
       </c>
-      <c r="T73" s="12"/>
-      <c r="U73" s="5">
-        <v>0</v>
-      </c>
-      <c r="V73">
+      <c r="V73" s="12"/>
+      <c r="W73" s="5">
+        <v>0</v>
+      </c>
+      <c r="X73">
         <v>2601024</v>
       </c>
     </row>
-    <row r="74" ht="14" customHeight="1" spans="1:22">
+    <row r="74" ht="14" customHeight="1" spans="1:24">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -4860,10 +5058,10 @@
         <v>2100505</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E74" s="6">
         <v>5</v>
@@ -4874,47 +5072,49 @@
       <c r="G74" s="6">
         <v>2</v>
       </c>
-      <c r="H74" s="6">
-        <v>0</v>
-      </c>
+      <c r="H74" s="6"/>
       <c r="I74" s="6">
         <v>0</v>
       </c>
       <c r="J74" s="6">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6">
         <v>11</v>
       </c>
-      <c r="K74" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L74" s="10"/>
-      <c r="M74" s="6">
+      <c r="M74" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N74" s="10"/>
+      <c r="O74" s="6">
         <v>8000</v>
       </c>
-      <c r="N74" s="6">
+      <c r="P74" s="6">
         <v>180</v>
       </c>
-      <c r="O74" s="6">
+      <c r="Q74" s="6">
         <v>100</v>
       </c>
-      <c r="P74" s="6">
+      <c r="R74" s="6">
         <v>3000</v>
       </c>
-      <c r="Q74" s="6">
-        <v>2</v>
-      </c>
-      <c r="R74" s="6"/>
       <c r="S74" s="6">
+        <v>2</v>
+      </c>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6">
         <v>2667</v>
       </c>
-      <c r="T74" s="12"/>
-      <c r="U74" s="5">
-        <v>0</v>
-      </c>
-      <c r="V74">
+      <c r="V74" s="12"/>
+      <c r="W74" s="5">
+        <v>0</v>
+      </c>
+      <c r="X74">
         <v>2601024</v>
       </c>
     </row>
-    <row r="75" spans="3:20">
+    <row r="75" spans="3:22">
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -4926,15 +5126,17 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
-      <c r="T75" s="12"/>
-    </row>
-    <row r="76" spans="3:20">
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="12"/>
+    </row>
+    <row r="76" spans="3:22">
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -4946,15 +5148,17 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
-      <c r="T76" s="12"/>
-    </row>
-    <row r="77" customFormat="1" ht="14" customHeight="1" spans="1:22">
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="12"/>
+    </row>
+    <row r="77" customFormat="1" ht="14" customHeight="1" spans="1:24">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -4962,10 +5166,10 @@
         <v>2100601</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -4976,47 +5180,49 @@
       <c r="G77" s="6">
         <v>2</v>
       </c>
-      <c r="H77" s="6">
-        <v>0</v>
-      </c>
+      <c r="H77" s="6"/>
       <c r="I77" s="6">
         <v>0</v>
       </c>
       <c r="J77" s="6">
+        <v>0</v>
+      </c>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6">
         <v>11</v>
       </c>
-      <c r="K77" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="L77" s="10"/>
-      <c r="M77" s="6">
+      <c r="M77" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N77" s="10"/>
+      <c r="O77" s="6">
         <v>8000</v>
       </c>
-      <c r="N77" s="6">
+      <c r="P77" s="6">
         <v>180</v>
       </c>
-      <c r="O77" s="6">
+      <c r="Q77" s="6">
         <v>100</v>
       </c>
-      <c r="P77" s="6">
+      <c r="R77" s="6">
         <v>3000</v>
       </c>
-      <c r="Q77" s="6">
-        <v>2</v>
-      </c>
-      <c r="R77" s="6"/>
       <c r="S77" s="6">
+        <v>2</v>
+      </c>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6">
         <v>2667</v>
       </c>
-      <c r="T77" s="12"/>
-      <c r="U77" s="5">
-        <v>0</v>
-      </c>
-      <c r="V77">
+      <c r="V77" s="12"/>
+      <c r="W77" s="5">
+        <v>0</v>
+      </c>
+      <c r="X77">
         <v>2601024</v>
       </c>
     </row>
-    <row r="78" spans="3:20">
+    <row r="78" spans="3:22">
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -5028,15 +5234,17 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="12"/>
-    </row>
-    <row r="79" spans="3:20">
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="12"/>
+    </row>
+    <row r="79" spans="3:22">
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -5048,15 +5256,17 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
-      <c r="T79" s="12"/>
-    </row>
-    <row r="80" customFormat="1" spans="1:21">
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="12"/>
+    </row>
+    <row r="80" customFormat="1" spans="1:23">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -5064,10 +5274,10 @@
         <v>2100701</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E80" s="6">
         <v>1</v>
@@ -5078,44 +5288,46 @@
       <c r="G80" s="6">
         <v>0</v>
       </c>
-      <c r="H80" s="6">
-        <v>0</v>
-      </c>
+      <c r="H80" s="6"/>
       <c r="I80" s="6">
         <v>0</v>
       </c>
       <c r="J80" s="6">
-        <v>2</v>
-      </c>
-      <c r="K80" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="L80" s="10"/>
-      <c r="M80" s="6">
-        <v>0</v>
-      </c>
-      <c r="N80" s="6">
+        <v>0</v>
+      </c>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6">
+        <v>2</v>
+      </c>
+      <c r="M80" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="N80" s="10"/>
+      <c r="O80" s="6">
+        <v>0</v>
+      </c>
+      <c r="P80" s="6">
         <v>466</v>
       </c>
-      <c r="O80" s="6">
+      <c r="Q80" s="6">
         <v>200</v>
       </c>
-      <c r="P80" s="6">
+      <c r="R80" s="6">
         <v>3000</v>
       </c>
-      <c r="Q80" s="6">
-        <v>2</v>
-      </c>
-      <c r="R80" s="6"/>
       <c r="S80" s="6">
+        <v>2</v>
+      </c>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6">
         <v>1000</v>
       </c>
-      <c r="T80" s="12"/>
-      <c r="U80" s="5">
+      <c r="V80" s="12"/>
+      <c r="W80" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="1:21">
+    <row r="81" customFormat="1" spans="1:23">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -5123,10 +5335,10 @@
         <v>2100801</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
@@ -5137,44 +5349,46 @@
       <c r="G81" s="6">
         <v>0</v>
       </c>
-      <c r="H81" s="6">
-        <v>0</v>
-      </c>
+      <c r="H81" s="6"/>
       <c r="I81" s="6">
         <v>0</v>
       </c>
       <c r="J81" s="6">
-        <v>2</v>
-      </c>
-      <c r="K81" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L81" s="10"/>
-      <c r="M81" s="6">
-        <v>0</v>
-      </c>
-      <c r="N81" s="6">
+        <v>0</v>
+      </c>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6">
+        <v>2</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N81" s="10"/>
+      <c r="O81" s="6">
+        <v>0</v>
+      </c>
+      <c r="P81" s="6">
         <v>466</v>
       </c>
-      <c r="O81" s="6">
+      <c r="Q81" s="6">
         <v>200</v>
       </c>
-      <c r="P81" s="6">
+      <c r="R81" s="6">
         <v>3000</v>
       </c>
-      <c r="Q81" s="6">
-        <v>2</v>
-      </c>
-      <c r="R81" s="6"/>
       <c r="S81" s="6">
+        <v>2</v>
+      </c>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6">
         <v>1000</v>
       </c>
-      <c r="T81" s="12"/>
-      <c r="U81" s="5">
+      <c r="V81" s="12"/>
+      <c r="W81" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="82" customFormat="1" spans="1:21">
+    <row r="82" customFormat="1" spans="1:23">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -5182,10 +5396,10 @@
         <v>2100901</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E82" s="6">
         <v>1</v>
@@ -5196,44 +5410,46 @@
       <c r="G82" s="6">
         <v>0</v>
       </c>
-      <c r="H82" s="6">
-        <v>0</v>
-      </c>
+      <c r="H82" s="6"/>
       <c r="I82" s="6">
         <v>0</v>
       </c>
       <c r="J82" s="6">
-        <v>2</v>
-      </c>
-      <c r="K82" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L82" s="10"/>
-      <c r="M82" s="6">
-        <v>0</v>
-      </c>
-      <c r="N82" s="6">
+        <v>0</v>
+      </c>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6">
+        <v>2</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="N82" s="10"/>
+      <c r="O82" s="6">
+        <v>0</v>
+      </c>
+      <c r="P82" s="6">
         <v>466</v>
       </c>
-      <c r="O82" s="6">
+      <c r="Q82" s="6">
         <v>200</v>
       </c>
-      <c r="P82" s="6">
+      <c r="R82" s="6">
         <v>3000</v>
       </c>
-      <c r="Q82" s="6">
-        <v>2</v>
-      </c>
-      <c r="R82" s="6"/>
       <c r="S82" s="6">
+        <v>2</v>
+      </c>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6">
         <v>1000</v>
       </c>
-      <c r="T82" s="12"/>
-      <c r="U82" s="5">
+      <c r="V82" s="12"/>
+      <c r="W82" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="83" spans="3:20">
+    <row r="83" spans="3:22">
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -5245,15 +5461,17 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
-      <c r="T83" s="12"/>
-    </row>
-    <row r="84" spans="1:20">
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="12"/>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -5261,7 +5479,7 @@
         <v>2500001</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6">
@@ -5275,15 +5493,17 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
-      <c r="T84" s="12"/>
-    </row>
-    <row r="85" spans="3:20">
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="12"/>
+    </row>
+    <row r="85" spans="3:22">
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -5295,15 +5515,17 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
-      <c r="T85" s="12"/>
-    </row>
-    <row r="86" spans="3:20">
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="12"/>
+    </row>
+    <row r="86" spans="3:22">
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -5315,15 +5537,17 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
-      <c r="T86" s="12"/>
-    </row>
-    <row r="87" spans="3:20">
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="12"/>
+    </row>
+    <row r="87" spans="3:22">
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -5335,15 +5559,17 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
-      <c r="T87" s="12"/>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="12"/>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -5351,65 +5577,67 @@
         <v>2001001</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6">
         <v>1</v>
       </c>
-      <c r="H88" s="6">
-        <v>0</v>
-      </c>
+      <c r="H88" s="6"/>
       <c r="I88" s="6">
         <v>0</v>
       </c>
       <c r="J88" s="6">
+        <v>0</v>
+      </c>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6">
         <v>1</v>
       </c>
-      <c r="K88" s="6">
+      <c r="M88" s="6">
         <v>3001001</v>
       </c>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6">
-        <v>0</v>
-      </c>
-      <c r="N88" s="9">
+      <c r="N88" s="6"/>
+      <c r="O88" s="6">
+        <v>0</v>
+      </c>
+      <c r="P88" s="9">
         <v>233</v>
       </c>
-      <c r="O88" s="9">
+      <c r="Q88" s="9">
         <v>100</v>
       </c>
-      <c r="P88" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="6">
-        <v>0</v>
-      </c>
-      <c r="R88" s="6"/>
+      <c r="R88" s="6">
+        <v>0</v>
+      </c>
       <c r="S88" s="6">
+        <v>0</v>
+      </c>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6">
         <v>2000</v>
       </c>
-      <c r="T88" s="12"/>
-      <c r="U88" s="5">
-        <v>0</v>
-      </c>
-      <c r="V88">
+      <c r="V88" s="12"/>
+      <c r="W88" s="5">
+        <v>0</v>
+      </c>
+      <c r="X88">
         <v>2601001</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" spans="2:22">
+    <row r="89" s="1" customFormat="1" spans="2:24">
       <c r="B89" s="1">
         <v>2001002</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E89" s="9">
         <v>1</v>
@@ -5418,47 +5646,49 @@
       <c r="G89" s="9">
         <v>2</v>
       </c>
-      <c r="H89" s="9">
-        <v>0</v>
-      </c>
+      <c r="H89" s="9"/>
       <c r="I89" s="9">
         <v>0</v>
       </c>
       <c r="J89" s="9">
         <v>0</v>
       </c>
-      <c r="K89" s="9">
+      <c r="K89" s="9"/>
+      <c r="L89" s="9">
+        <v>0</v>
+      </c>
+      <c r="M89" s="9">
         <v>3001002</v>
       </c>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9">
+      <c r="N89" s="9"/>
+      <c r="O89" s="9">
         <v>99000</v>
       </c>
-      <c r="N89" s="9">
+      <c r="P89" s="9">
         <v>100</v>
       </c>
-      <c r="O89" s="9">
+      <c r="Q89" s="9">
         <v>500</v>
       </c>
-      <c r="P89" s="9">
+      <c r="R89" s="9">
         <v>1000</v>
       </c>
-      <c r="Q89" s="9">
-        <v>2</v>
-      </c>
-      <c r="R89" s="9"/>
-      <c r="S89" s="6">
+      <c r="S89" s="9">
+        <v>2</v>
+      </c>
+      <c r="T89" s="9"/>
+      <c r="U89" s="6">
         <v>1000</v>
       </c>
-      <c r="T89" s="12"/>
-      <c r="U89" s="5">
-        <v>0</v>
-      </c>
-      <c r="V89">
+      <c r="V89" s="12"/>
+      <c r="W89" s="5">
+        <v>0</v>
+      </c>
+      <c r="X89">
         <v>2601002</v>
       </c>
     </row>
-    <row r="90" customFormat="1" spans="1:21">
+    <row r="90" customFormat="1" spans="1:23">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -5466,10 +5696,10 @@
         <v>2001002</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E90" s="9">
         <v>1</v>
@@ -5480,44 +5710,46 @@
       <c r="G90" s="6">
         <v>0</v>
       </c>
-      <c r="H90" s="6">
-        <v>0</v>
-      </c>
+      <c r="H90" s="6"/>
       <c r="I90" s="6">
         <v>0</v>
       </c>
       <c r="J90" s="6">
-        <v>2</v>
-      </c>
-      <c r="K90" s="6">
+        <v>0</v>
+      </c>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6">
+        <v>2</v>
+      </c>
+      <c r="M90" s="6">
         <v>14001010</v>
       </c>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6">
-        <v>0</v>
-      </c>
-      <c r="N90" s="6">
+      <c r="N90" s="6"/>
+      <c r="O90" s="6">
+        <v>0</v>
+      </c>
+      <c r="P90" s="6">
         <v>466</v>
       </c>
-      <c r="O90" s="6">
+      <c r="Q90" s="6">
         <v>200</v>
       </c>
-      <c r="P90" s="6">
+      <c r="R90" s="6">
         <v>15000</v>
       </c>
-      <c r="Q90" s="9">
-        <v>2</v>
-      </c>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6">
+      <c r="S90" s="9">
+        <v>2</v>
+      </c>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6">
         <v>1000</v>
       </c>
-      <c r="T90" s="12"/>
-      <c r="U90" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21">
+      <c r="V90" s="12"/>
+      <c r="W90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -5525,10 +5757,10 @@
         <v>2001003</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E91" s="9">
         <v>1</v>
@@ -5539,44 +5771,46 @@
       <c r="G91" s="6">
         <v>0</v>
       </c>
-      <c r="H91" s="6">
-        <v>0</v>
-      </c>
+      <c r="H91" s="6"/>
       <c r="I91" s="6">
         <v>0</v>
       </c>
       <c r="J91" s="6">
         <v>0</v>
       </c>
-      <c r="K91" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="L91" s="10"/>
-      <c r="M91" s="6">
-        <v>0</v>
-      </c>
-      <c r="N91" s="6">
+      <c r="K91" s="6"/>
+      <c r="L91" s="6">
+        <v>0</v>
+      </c>
+      <c r="M91" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N91" s="10"/>
+      <c r="O91" s="6">
+        <v>0</v>
+      </c>
+      <c r="P91" s="6">
         <v>466</v>
       </c>
-      <c r="O91" s="6">
+      <c r="Q91" s="6">
         <v>200</v>
       </c>
-      <c r="P91" s="6">
+      <c r="R91" s="6">
         <v>8000</v>
       </c>
-      <c r="Q91" s="9">
-        <v>2</v>
-      </c>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6">
+      <c r="S91" s="9">
+        <v>2</v>
+      </c>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6">
         <v>1000</v>
       </c>
-      <c r="T91" s="12"/>
-      <c r="U91" s="5">
+      <c r="V91" s="12"/>
+      <c r="W91" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="92" customFormat="1" spans="1:22">
+    <row r="92" customFormat="1" spans="1:24">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5584,10 +5818,10 @@
         <v>2001004</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E92" s="9">
         <v>1</v>
@@ -5598,47 +5832,49 @@
       <c r="G92" s="6">
         <v>2</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H92" s="6"/>
+      <c r="I92" s="6">
         <v>1</v>
       </c>
-      <c r="I92" s="6">
-        <v>0</v>
-      </c>
       <c r="J92" s="6">
-        <v>2</v>
-      </c>
-      <c r="K92" s="6">
+        <v>0</v>
+      </c>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6">
+        <v>2</v>
+      </c>
+      <c r="M92" s="6">
         <v>16001001</v>
       </c>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6">
+      <c r="N92" s="6"/>
+      <c r="O92" s="6">
         <v>100000</v>
       </c>
-      <c r="N92" s="6">
+      <c r="P92" s="6">
         <v>466</v>
       </c>
-      <c r="O92" s="6">
+      <c r="Q92" s="6">
         <v>200</v>
       </c>
-      <c r="P92" s="6">
+      <c r="R92" s="6">
         <v>7000</v>
       </c>
-      <c r="Q92" s="9">
-        <v>2</v>
-      </c>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6">
+      <c r="S92" s="9">
+        <v>2</v>
+      </c>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6">
         <v>1000</v>
       </c>
-      <c r="T92" s="12"/>
-      <c r="U92" s="5">
-        <v>0</v>
-      </c>
-      <c r="V92">
+      <c r="V92" s="12"/>
+      <c r="W92" s="5">
+        <v>0</v>
+      </c>
+      <c r="X92">
         <v>2601005</v>
       </c>
     </row>
-    <row r="93" customFormat="1" spans="1:21">
+    <row r="93" customFormat="1" spans="1:23">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -5646,10 +5882,10 @@
         <v>2001005</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E93" s="9">
         <v>1</v>
@@ -5660,44 +5896,46 @@
       <c r="G93" s="6">
         <v>0</v>
       </c>
-      <c r="H93" s="6">
-        <v>0</v>
-      </c>
+      <c r="H93" s="6"/>
       <c r="I93" s="6">
         <v>0</v>
       </c>
       <c r="J93" s="6">
-        <v>2</v>
-      </c>
-      <c r="K93" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="L93" s="10"/>
-      <c r="M93" s="6">
-        <v>0</v>
-      </c>
-      <c r="N93" s="6">
+        <v>0</v>
+      </c>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6">
+        <v>2</v>
+      </c>
+      <c r="M93" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N93" s="10"/>
+      <c r="O93" s="6">
+        <v>0</v>
+      </c>
+      <c r="P93" s="6">
         <v>466</v>
       </c>
-      <c r="O93" s="6">
+      <c r="Q93" s="6">
         <v>200</v>
       </c>
-      <c r="P93" s="6">
+      <c r="R93" s="6">
         <v>25000</v>
       </c>
-      <c r="Q93" s="9">
+      <c r="S93" s="9">
         <v>3</v>
       </c>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6">
+      <c r="T93" s="6"/>
+      <c r="U93" s="6">
         <v>1000</v>
       </c>
-      <c r="T93" s="12"/>
-      <c r="U93" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customFormat="1" spans="1:21">
+      <c r="V93" s="12"/>
+      <c r="W93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:23">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -5705,10 +5943,10 @@
         <v>2001006</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E94" s="9">
         <v>1</v>
@@ -5719,44 +5957,46 @@
       <c r="G94" s="6">
         <v>0</v>
       </c>
-      <c r="H94" s="6">
-        <v>0</v>
-      </c>
+      <c r="H94" s="6"/>
       <c r="I94" s="6">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6">
         <v>1</v>
       </c>
-      <c r="J94" s="6">
-        <v>2</v>
-      </c>
-      <c r="K94" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="L94" s="10"/>
-      <c r="M94" s="6">
-        <v>0</v>
-      </c>
-      <c r="N94" s="6">
-        <v>0</v>
-      </c>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6">
+        <v>2</v>
+      </c>
+      <c r="M94" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="N94" s="10"/>
       <c r="O94" s="6">
         <v>0</v>
       </c>
       <c r="P94" s="6">
         <v>0</v>
       </c>
-      <c r="Q94" s="9">
+      <c r="Q94" s="6">
+        <v>0</v>
+      </c>
+      <c r="R94" s="6">
+        <v>0</v>
+      </c>
+      <c r="S94" s="9">
         <v>4</v>
       </c>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6">
+      <c r="T94" s="6"/>
+      <c r="U94" s="6">
         <v>1000</v>
       </c>
-      <c r="T94" s="12"/>
-      <c r="U94" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" spans="3:21">
+      <c r="V94" s="12"/>
+      <c r="W94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="3:23">
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -5774,10 +6014,12 @@
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
-      <c r="T95" s="12"/>
-      <c r="U95" s="5"/>
-    </row>
-    <row r="96" customFormat="1" spans="1:21">
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="5"/>
+    </row>
+    <row r="96" customFormat="1" spans="1:23">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -5785,10 +6027,10 @@
         <v>2001008</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6">
@@ -5797,42 +6039,44 @@
       <c r="G96" s="6">
         <v>0</v>
       </c>
-      <c r="H96" s="6">
-        <v>0</v>
-      </c>
+      <c r="H96" s="6"/>
       <c r="I96" s="6">
         <v>0</v>
       </c>
       <c r="J96" s="6">
         <v>0</v>
       </c>
-      <c r="K96" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="L96" s="10"/>
-      <c r="M96" s="6">
-        <v>0</v>
-      </c>
-      <c r="N96" s="6">
+      <c r="K96" s="6"/>
+      <c r="L96" s="6">
+        <v>0</v>
+      </c>
+      <c r="M96" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N96" s="10"/>
+      <c r="O96" s="6">
+        <v>0</v>
+      </c>
+      <c r="P96" s="6">
         <v>466</v>
       </c>
-      <c r="O96" s="6">
+      <c r="Q96" s="6">
         <v>200</v>
       </c>
-      <c r="P96" s="6">
+      <c r="R96" s="6">
         <v>2500</v>
       </c>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6">
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6">
         <v>1000</v>
       </c>
-      <c r="T96" s="12"/>
-      <c r="U96" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" spans="3:21">
+      <c r="V96" s="12"/>
+      <c r="W96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="3:23">
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -5850,10 +6094,12 @@
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
-      <c r="T97" s="12"/>
-      <c r="U97" s="5"/>
-    </row>
-    <row r="99" spans="1:22">
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="5"/>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -5861,57 +6107,59 @@
         <v>2001021</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6">
         <v>1</v>
       </c>
-      <c r="H99" s="6">
-        <v>0</v>
-      </c>
+      <c r="H99" s="6"/>
       <c r="I99" s="6">
         <v>0</v>
       </c>
       <c r="J99" s="6">
+        <v>0</v>
+      </c>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6">
         <v>1</v>
       </c>
-      <c r="K99" s="6">
+      <c r="M99" s="6">
         <v>3001011</v>
       </c>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6">
-        <v>0</v>
-      </c>
-      <c r="N99" s="6">
+      <c r="N99" s="6"/>
+      <c r="O99" s="6">
+        <v>0</v>
+      </c>
+      <c r="P99" s="6">
         <v>180</v>
       </c>
-      <c r="O99" s="6">
+      <c r="Q99" s="6">
         <v>100</v>
       </c>
-      <c r="P99" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="6">
-        <v>0</v>
-      </c>
-      <c r="R99" s="6"/>
+      <c r="R99" s="6">
+        <v>0</v>
+      </c>
       <c r="S99" s="6">
+        <v>0</v>
+      </c>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6">
         <v>2667</v>
       </c>
-      <c r="T99" s="12"/>
-      <c r="U99" s="5">
-        <v>0</v>
-      </c>
-      <c r="V99">
+      <c r="V99" s="12"/>
+      <c r="W99" s="5">
+        <v>0</v>
+      </c>
+      <c r="X99">
         <v>2601021</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -5919,10 +6167,10 @@
         <v>2001022</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E100" s="6">
         <v>1</v>
@@ -5933,47 +6181,49 @@
       <c r="G100" s="6">
         <v>2</v>
       </c>
-      <c r="H100" s="6">
-        <v>0</v>
-      </c>
+      <c r="H100" s="6"/>
       <c r="I100" s="6">
         <v>0</v>
       </c>
       <c r="J100" s="6">
         <v>0</v>
       </c>
-      <c r="K100" s="6">
+      <c r="K100" s="6"/>
+      <c r="L100" s="6">
+        <v>0</v>
+      </c>
+      <c r="M100" s="6">
         <v>3001012</v>
       </c>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6">
+      <c r="N100" s="6"/>
+      <c r="O100" s="6">
         <v>6000</v>
       </c>
-      <c r="N100" s="6">
+      <c r="P100" s="6">
         <v>1800</v>
       </c>
-      <c r="O100" s="6">
+      <c r="Q100" s="6">
         <v>1800</v>
       </c>
-      <c r="P100" s="6">
+      <c r="R100" s="6">
         <v>2000</v>
       </c>
-      <c r="Q100" s="6">
+      <c r="S100" s="6">
         <v>1</v>
       </c>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6">
+      <c r="T100" s="6"/>
+      <c r="U100" s="6">
         <v>267</v>
       </c>
-      <c r="T100" s="12"/>
-      <c r="U100" s="5">
-        <v>0</v>
-      </c>
-      <c r="V100">
+      <c r="V100" s="12"/>
+      <c r="W100" s="5">
+        <v>0</v>
+      </c>
+      <c r="X100">
         <v>2601022</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:23">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -5981,10 +6231,10 @@
         <v>2001023</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E101" s="6">
         <v>1</v>
@@ -5995,44 +6245,46 @@
       <c r="G101" s="6">
         <v>0</v>
       </c>
-      <c r="H101" s="6">
-        <v>0</v>
-      </c>
+      <c r="H101" s="6"/>
       <c r="I101" s="6">
         <v>0</v>
       </c>
       <c r="J101" s="6">
-        <v>2</v>
-      </c>
-      <c r="K101" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="L101" s="10"/>
-      <c r="M101" s="6">
-        <v>0</v>
-      </c>
-      <c r="N101" s="6">
+        <v>0</v>
+      </c>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6">
+        <v>2</v>
+      </c>
+      <c r="M101" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="N101" s="10"/>
+      <c r="O101" s="6">
+        <v>0</v>
+      </c>
+      <c r="P101" s="6">
         <v>180</v>
       </c>
-      <c r="O101" s="6">
+      <c r="Q101" s="6">
         <v>100</v>
       </c>
-      <c r="P101" s="6">
+      <c r="R101" s="6">
         <v>15000</v>
       </c>
-      <c r="Q101" s="6">
-        <v>2</v>
-      </c>
-      <c r="R101" s="6"/>
       <c r="S101" s="6">
+        <v>2</v>
+      </c>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6">
         <v>2667</v>
       </c>
-      <c r="T101" s="12"/>
-      <c r="U101" s="5">
+      <c r="V101" s="12"/>
+      <c r="W101" s="5">
         <v>15008014</v>
       </c>
     </row>
-    <row r="102" customFormat="1" spans="1:22">
+    <row r="102" customFormat="1" spans="1:24">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -6040,10 +6292,10 @@
         <v>2001024</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E102" s="6">
         <v>1</v>
@@ -6054,47 +6306,49 @@
       <c r="G102" s="6">
         <v>1</v>
       </c>
-      <c r="H102" s="6">
-        <v>0</v>
-      </c>
+      <c r="H102" s="6"/>
       <c r="I102" s="6">
         <v>0</v>
       </c>
       <c r="J102" s="6">
+        <v>0</v>
+      </c>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6">
         <v>1</v>
       </c>
-      <c r="K102" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="L102" s="10"/>
-      <c r="M102" s="6">
+      <c r="M102" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="N102" s="10"/>
+      <c r="O102" s="6">
         <v>8000</v>
       </c>
-      <c r="N102" s="6">
+      <c r="P102" s="6">
         <v>180</v>
       </c>
-      <c r="O102" s="6">
+      <c r="Q102" s="6">
         <v>100</v>
       </c>
-      <c r="P102" s="6">
+      <c r="R102" s="6">
         <v>3000</v>
       </c>
-      <c r="Q102" s="6">
-        <v>2</v>
-      </c>
-      <c r="R102" s="6"/>
       <c r="S102" s="6">
+        <v>2</v>
+      </c>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6">
         <v>2667</v>
       </c>
-      <c r="T102" s="12"/>
-      <c r="U102" s="5">
-        <v>0</v>
-      </c>
-      <c r="V102">
+      <c r="V102" s="12"/>
+      <c r="W102" s="5">
+        <v>0</v>
+      </c>
+      <c r="X102">
         <v>2601024</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:23">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -6102,10 +6356,10 @@
         <v>2001025</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E103" s="6">
         <v>1</v>
@@ -6116,44 +6370,46 @@
       <c r="G103" s="6">
         <v>1</v>
       </c>
-      <c r="H103" s="6">
-        <v>0</v>
-      </c>
+      <c r="H103" s="6"/>
       <c r="I103" s="6">
         <v>0</v>
       </c>
       <c r="J103" s="6">
+        <v>0</v>
+      </c>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6">
         <v>1</v>
       </c>
-      <c r="K103" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="L103" s="10"/>
-      <c r="M103" s="6">
+      <c r="M103" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N103" s="10"/>
+      <c r="O103" s="6">
         <v>8000</v>
       </c>
-      <c r="N103" s="6">
+      <c r="P103" s="6">
         <v>180</v>
       </c>
-      <c r="O103" s="6">
+      <c r="Q103" s="6">
         <v>100</v>
       </c>
-      <c r="P103" s="6">
+      <c r="R103" s="6">
         <v>25000</v>
       </c>
-      <c r="Q103" s="6">
+      <c r="S103" s="6">
         <v>3</v>
       </c>
-      <c r="R103" s="6"/>
-      <c r="S103" s="6">
+      <c r="T103" s="6"/>
+      <c r="U103" s="6">
         <v>2667</v>
       </c>
-      <c r="T103" s="12"/>
-      <c r="U103" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:21">
+      <c r="V103" s="12"/>
+      <c r="W103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:23">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -6161,10 +6417,10 @@
         <v>2001026</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E104" s="6">
         <v>1</v>
@@ -6175,42 +6431,44 @@
       <c r="G104" s="6">
         <v>0</v>
       </c>
-      <c r="H104" s="6">
-        <v>0</v>
-      </c>
+      <c r="H104" s="6"/>
       <c r="I104" s="6">
+        <v>0</v>
+      </c>
+      <c r="J104" s="6">
         <v>1</v>
       </c>
-      <c r="J104" s="6">
-        <v>2</v>
-      </c>
-      <c r="K104" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="L104" s="10"/>
-      <c r="M104" s="6">
-        <v>0</v>
-      </c>
-      <c r="N104" s="6">
-        <v>0</v>
-      </c>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6">
+        <v>2</v>
+      </c>
+      <c r="M104" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="N104" s="10"/>
       <c r="O104" s="6">
         <v>0</v>
       </c>
-      <c r="P104" s="6"/>
+      <c r="P104" s="6">
+        <v>0</v>
+      </c>
       <c r="Q104" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R104" s="6"/>
       <c r="S104" s="6">
+        <v>2</v>
+      </c>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6">
         <v>2667</v>
       </c>
-      <c r="T104" s="12"/>
-      <c r="U104" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" s="2" customFormat="1" spans="1:22">
+      <c r="V104" s="12"/>
+      <c r="W104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" s="2" customFormat="1" spans="1:24">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105" s="13"/>
@@ -6221,20 +6479,22 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
       <c r="O105" s="13"/>
       <c r="P105" s="13"/>
       <c r="Q105" s="13"/>
       <c r="R105" s="13"/>
-      <c r="S105" s="6"/>
-      <c r="T105" s="12"/>
-      <c r="U105" s="5"/>
-      <c r="V105"/>
-    </row>
-    <row r="106" ht="12" customHeight="1" spans="3:20">
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="6"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="5"/>
+      <c r="X105"/>
+    </row>
+    <row r="106" ht="12" customHeight="1" spans="3:22">
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -6252,9 +6512,11 @@
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
-      <c r="T106" s="12"/>
-    </row>
-    <row r="107" customFormat="1" spans="1:23">
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="12"/>
+    </row>
+    <row r="107" customFormat="1" spans="1:25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -6262,10 +6524,10 @@
         <v>2001050</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6">
@@ -6274,50 +6536,52 @@
       <c r="G107" s="6">
         <v>2</v>
       </c>
-      <c r="H107" s="6">
+      <c r="H107" s="6"/>
+      <c r="I107" s="6">
         <v>1</v>
       </c>
-      <c r="I107" s="6">
-        <v>0</v>
-      </c>
       <c r="J107" s="6">
         <v>0</v>
       </c>
-      <c r="K107" s="6">
+      <c r="K107" s="6"/>
+      <c r="L107" s="6">
+        <v>0</v>
+      </c>
+      <c r="M107" s="6">
         <v>16001010</v>
       </c>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6">
+      <c r="N107" s="6"/>
+      <c r="O107" s="6">
         <v>10000</v>
       </c>
-      <c r="N107" s="6">
+      <c r="P107" s="6">
         <v>1500</v>
       </c>
-      <c r="O107" s="6">
-        <v>0</v>
-      </c>
-      <c r="P107" s="6">
+      <c r="Q107" s="6">
+        <v>0</v>
+      </c>
+      <c r="R107" s="6">
         <v>600</v>
       </c>
-      <c r="Q107" s="6">
-        <v>2</v>
-      </c>
-      <c r="R107" s="6"/>
       <c r="S107" s="6">
+        <v>2</v>
+      </c>
+      <c r="T107" s="6"/>
+      <c r="U107" s="6">
         <v>1000</v>
       </c>
-      <c r="T107" s="12"/>
-      <c r="U107" s="5">
-        <v>0</v>
-      </c>
-      <c r="V107">
+      <c r="V107" s="12"/>
+      <c r="W107" s="5">
+        <v>0</v>
+      </c>
+      <c r="X107">
         <v>2601050</v>
       </c>
-      <c r="W107">
+      <c r="Y107">
         <v>2500005</v>
       </c>
     </row>
-    <row r="108" customFormat="1" spans="3:21">
+    <row r="108" customFormat="1" spans="3:23">
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -6335,10 +6599,12 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
-      <c r="T108" s="12"/>
-      <c r="U108" s="5"/>
-    </row>
-    <row r="109" customFormat="1" spans="3:21">
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="5"/>
+    </row>
+    <row r="109" customFormat="1" spans="3:23">
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -6356,10 +6622,12 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
-      <c r="T109" s="12"/>
-      <c r="U109" s="5"/>
-    </row>
-    <row r="110" customFormat="1" spans="3:21">
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="5"/>
+    </row>
+    <row r="110" customFormat="1" spans="3:23">
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -6377,10 +6645,12 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
-      <c r="T110" s="12"/>
-      <c r="U110" s="5"/>
-    </row>
-    <row r="111" customFormat="1" spans="3:21">
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="5"/>
+    </row>
+    <row r="111" customFormat="1" spans="3:23">
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
@@ -6398,18 +6668,20 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
       <c r="S111" s="6"/>
-      <c r="T111" s="12"/>
-      <c r="U111" s="5"/>
-    </row>
-    <row r="112" s="3" customFormat="1" spans="19:21">
-      <c r="S112" s="6"/>
-      <c r="T112" s="5"/>
-      <c r="U112" s="5"/>
-    </row>
-    <row r="113" spans="19:19">
-      <c r="S113" s="6"/>
-    </row>
-    <row r="114" spans="1:21">
+      <c r="T111" s="6"/>
+      <c r="U111" s="6"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="5"/>
+    </row>
+    <row r="112" s="3" customFormat="1" spans="21:23">
+      <c r="U112" s="6"/>
+      <c r="V112" s="5"/>
+      <c r="W112" s="5"/>
+    </row>
+    <row r="113" spans="21:21">
+      <c r="U113" s="6"/>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -6417,54 +6689,56 @@
         <v>2201101</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6">
         <v>1</v>
       </c>
-      <c r="H114" s="6">
-        <v>0</v>
-      </c>
+      <c r="H114" s="6"/>
       <c r="I114" s="6">
         <v>0</v>
       </c>
       <c r="J114" s="6">
+        <v>0</v>
+      </c>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6">
         <v>1</v>
       </c>
-      <c r="K114" s="6">
+      <c r="M114" s="6">
         <v>3002001</v>
       </c>
-      <c r="L114" s="6"/>
-      <c r="M114" s="6">
-        <v>0</v>
-      </c>
-      <c r="N114" s="6">
+      <c r="N114" s="6"/>
+      <c r="O114" s="6">
+        <v>0</v>
+      </c>
+      <c r="P114" s="6">
         <v>300</v>
       </c>
-      <c r="O114" s="6">
+      <c r="Q114" s="6">
         <v>300</v>
       </c>
-      <c r="P114" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="6">
-        <v>0</v>
-      </c>
-      <c r="R114" s="6"/>
+      <c r="R114" s="6">
+        <v>0</v>
+      </c>
       <c r="S114" s="6">
+        <v>0</v>
+      </c>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6">
         <v>1540</v>
       </c>
-      <c r="T114" s="12"/>
-      <c r="U114" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="V114" s="12"/>
+      <c r="W114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -6472,10 +6746,10 @@
         <v>2201201</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6">
@@ -6484,47 +6758,49 @@
       <c r="G115" s="6">
         <v>2</v>
       </c>
-      <c r="H115" s="6">
-        <v>0</v>
-      </c>
+      <c r="H115" s="6"/>
       <c r="I115" s="6">
         <v>0</v>
       </c>
       <c r="J115" s="6">
-        <v>2</v>
-      </c>
-      <c r="K115" s="6">
+        <v>0</v>
+      </c>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6">
+        <v>2</v>
+      </c>
+      <c r="M115" s="6">
         <v>13002030</v>
       </c>
-      <c r="L115" s="6"/>
-      <c r="M115" s="6">
+      <c r="N115" s="6"/>
+      <c r="O115" s="6">
         <v>4000</v>
       </c>
-      <c r="N115" s="6">
+      <c r="P115" s="6">
         <v>1500</v>
       </c>
-      <c r="O115" s="6">
+      <c r="Q115" s="6">
         <v>700</v>
       </c>
-      <c r="P115" s="6">
+      <c r="R115" s="6">
         <v>6500</v>
       </c>
-      <c r="Q115" s="6">
+      <c r="S115" s="6">
         <v>1</v>
       </c>
-      <c r="R115" s="6"/>
-      <c r="S115" s="6">
+      <c r="T115" s="6"/>
+      <c r="U115" s="6">
         <v>340</v>
       </c>
-      <c r="T115" s="12"/>
-      <c r="U115" s="5">
-        <v>0</v>
-      </c>
-      <c r="W115">
+      <c r="V115" s="12"/>
+      <c r="W115" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y115">
         <v>2500010</v>
       </c>
     </row>
-    <row r="116" customFormat="1" spans="3:21">
+    <row r="116" customFormat="1" spans="3:23">
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
@@ -6542,10 +6818,12 @@
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
-      <c r="T116" s="12"/>
-      <c r="U116" s="5"/>
-    </row>
-    <row r="117" customFormat="1" spans="1:21">
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="5"/>
+    </row>
+    <row r="117" customFormat="1" spans="1:23">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -6553,54 +6831,56 @@
         <v>2202101</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6">
         <v>1</v>
       </c>
-      <c r="H117" s="6">
-        <v>0</v>
-      </c>
+      <c r="H117" s="6"/>
       <c r="I117" s="6">
         <v>0</v>
       </c>
       <c r="J117" s="6">
+        <v>0</v>
+      </c>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6">
         <v>1</v>
       </c>
-      <c r="K117" s="6">
+      <c r="M117" s="6">
         <v>3002011</v>
       </c>
-      <c r="L117" s="6"/>
-      <c r="M117" s="6">
-        <v>0</v>
-      </c>
-      <c r="N117" s="6">
+      <c r="N117" s="6"/>
+      <c r="O117" s="6">
+        <v>0</v>
+      </c>
+      <c r="P117" s="6">
         <v>300</v>
       </c>
-      <c r="O117" s="6">
+      <c r="Q117" s="6">
         <v>200</v>
       </c>
-      <c r="P117" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="6">
-        <v>0</v>
-      </c>
-      <c r="R117" s="6"/>
+      <c r="R117" s="6">
+        <v>0</v>
+      </c>
       <c r="S117" s="6">
+        <v>0</v>
+      </c>
+      <c r="T117" s="6"/>
+      <c r="U117" s="6">
         <v>1400</v>
       </c>
-      <c r="T117" s="12"/>
-      <c r="U117" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" spans="1:23">
+      <c r="V117" s="12"/>
+      <c r="W117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -6608,10 +6888,10 @@
         <v>2202201</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6">
@@ -6620,50 +6900,52 @@
       <c r="G118" s="6">
         <v>2</v>
       </c>
-      <c r="H118" s="6">
-        <v>0</v>
-      </c>
+      <c r="H118" s="6"/>
       <c r="I118" s="6">
         <v>0</v>
       </c>
       <c r="J118" s="6">
         <v>0</v>
       </c>
-      <c r="K118" s="6">
+      <c r="K118" s="6"/>
+      <c r="L118" s="6">
+        <v>0</v>
+      </c>
+      <c r="M118" s="6">
         <v>3002012</v>
       </c>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6">
+      <c r="N118" s="6"/>
+      <c r="O118" s="6">
         <v>8000</v>
       </c>
-      <c r="N118" s="6">
+      <c r="P118" s="6">
         <v>1000</v>
       </c>
-      <c r="O118" s="6">
+      <c r="Q118" s="6">
         <v>700</v>
       </c>
-      <c r="P118" s="6">
+      <c r="R118" s="6">
         <v>7000</v>
       </c>
-      <c r="Q118" s="6">
+      <c r="S118" s="6">
         <v>1</v>
       </c>
-      <c r="R118" s="6"/>
-      <c r="S118" s="6">
+      <c r="T118" s="6"/>
+      <c r="U118" s="6">
         <v>420</v>
       </c>
-      <c r="T118" s="12"/>
-      <c r="U118" s="5">
-        <v>0</v>
-      </c>
-      <c r="V118">
+      <c r="V118" s="12"/>
+      <c r="W118" s="5">
+        <v>0</v>
+      </c>
+      <c r="X118">
         <v>2602012</v>
       </c>
-      <c r="W118">
+      <c r="Y118">
         <v>2500011</v>
       </c>
     </row>
-    <row r="119" customFormat="1" spans="4:21">
+    <row r="119" customFormat="1" spans="4:23">
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -6671,17 +6953,19 @@
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
       <c r="O119" s="6"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
       <c r="S119" s="6"/>
-      <c r="T119" s="12"/>
-      <c r="U119" s="5"/>
-    </row>
-    <row r="120" customFormat="1" spans="4:21">
+      <c r="T119" s="6"/>
+      <c r="U119" s="6"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="5"/>
+    </row>
+    <row r="120" customFormat="1" spans="4:23">
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -6689,17 +6973,19 @@
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
       <c r="S120" s="6"/>
-      <c r="T120" s="12"/>
-      <c r="U120" s="5"/>
-    </row>
-    <row r="121" customFormat="1" spans="1:22">
+      <c r="T120" s="6"/>
+      <c r="U120" s="6"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="5"/>
+    </row>
+    <row r="121" customFormat="1" spans="1:24">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -6707,56 +6993,58 @@
         <v>2003001</v>
       </c>
       <c r="C121" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6">
         <v>1</v>
       </c>
-      <c r="H121" s="6">
-        <v>0</v>
-      </c>
+      <c r="H121" s="6"/>
       <c r="I121" s="6">
         <v>0</v>
       </c>
       <c r="J121" s="6">
+        <v>0</v>
+      </c>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6">
         <v>1</v>
       </c>
-      <c r="K121">
+      <c r="M121">
         <v>3003001</v>
       </c>
-      <c r="M121" s="6">
-        <v>0</v>
-      </c>
-      <c r="N121" s="6">
+      <c r="O121" s="6">
+        <v>0</v>
+      </c>
+      <c r="P121" s="6">
         <v>300</v>
       </c>
-      <c r="O121" s="6">
+      <c r="Q121" s="6">
         <v>300</v>
       </c>
-      <c r="P121" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="6">
-        <v>0</v>
-      </c>
-      <c r="R121" s="6"/>
+      <c r="R121" s="6">
+        <v>0</v>
+      </c>
       <c r="S121" s="6">
+        <v>0</v>
+      </c>
+      <c r="T121" s="6"/>
+      <c r="U121" s="6">
         <v>1540</v>
       </c>
-      <c r="T121" s="12"/>
-      <c r="U121" s="5">
-        <v>0</v>
-      </c>
-      <c r="V121">
+      <c r="V121" s="12"/>
+      <c r="W121" s="5">
+        <v>0</v>
+      </c>
+      <c r="X121">
         <v>2603001</v>
       </c>
     </row>
-    <row r="122" s="4" customFormat="1" spans="1:22">
+    <row r="122" s="4" customFormat="1" spans="1:24">
       <c r="A122" s="4" t="s">
         <v>0</v>
       </c>
@@ -6764,10 +7052,10 @@
         <v>2003002</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="14">
@@ -6776,47 +7064,49 @@
       <c r="G122" s="14">
         <v>2</v>
       </c>
-      <c r="H122" s="14">
-        <v>0</v>
-      </c>
+      <c r="H122" s="14"/>
       <c r="I122" s="14">
         <v>0</v>
       </c>
       <c r="J122" s="14">
+        <v>0</v>
+      </c>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14">
         <v>1</v>
       </c>
-      <c r="K122" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="L122" s="16"/>
-      <c r="M122" s="14">
+      <c r="M122" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="N122" s="16"/>
+      <c r="O122" s="14">
         <v>8000</v>
       </c>
-      <c r="N122" s="14">
+      <c r="P122" s="14">
         <v>600</v>
       </c>
-      <c r="O122" s="14">
-        <v>0</v>
-      </c>
-      <c r="P122" s="14">
+      <c r="Q122" s="14">
+        <v>0</v>
+      </c>
+      <c r="R122" s="14">
         <v>2000</v>
       </c>
-      <c r="Q122" s="14">
+      <c r="S122" s="14">
         <v>1</v>
       </c>
-      <c r="R122" s="14"/>
-      <c r="S122" s="6">
+      <c r="T122" s="14"/>
+      <c r="U122" s="6">
         <v>1000</v>
       </c>
-      <c r="T122" s="14"/>
-      <c r="U122" s="5">
-        <v>0</v>
-      </c>
-      <c r="V122" s="4">
+      <c r="V122" s="14"/>
+      <c r="W122" s="5">
+        <v>0</v>
+      </c>
+      <c r="X122" s="4">
         <v>2603002</v>
       </c>
     </row>
-    <row r="123" s="4" customFormat="1" spans="1:22">
+    <row r="123" s="4" customFormat="1" spans="1:24">
       <c r="A123" s="4" t="s">
         <v>0</v>
       </c>
@@ -6824,10 +7114,10 @@
         <v>2003003</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E123" s="14"/>
       <c r="F123" s="14">
@@ -6836,47 +7126,49 @@
       <c r="G123" s="14">
         <v>0</v>
       </c>
-      <c r="H123" s="14">
-        <v>0</v>
-      </c>
+      <c r="H123" s="14"/>
       <c r="I123" s="14">
         <v>0</v>
       </c>
       <c r="J123" s="14">
-        <v>2</v>
-      </c>
-      <c r="K123" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L123" s="16"/>
-      <c r="M123" s="14">
-        <v>0</v>
-      </c>
-      <c r="N123" s="14">
+        <v>0</v>
+      </c>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14">
+        <v>2</v>
+      </c>
+      <c r="M123" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="N123" s="16"/>
+      <c r="O123" s="14">
+        <v>0</v>
+      </c>
+      <c r="P123" s="14">
         <v>50</v>
       </c>
-      <c r="O123" s="14">
-        <v>0</v>
-      </c>
-      <c r="P123" s="14">
+      <c r="Q123" s="14">
+        <v>0</v>
+      </c>
+      <c r="R123" s="14">
         <v>6000</v>
       </c>
-      <c r="Q123" s="14">
+      <c r="S123" s="14">
         <v>1</v>
       </c>
-      <c r="R123" s="14"/>
-      <c r="S123" s="6">
+      <c r="T123" s="14"/>
+      <c r="U123" s="6">
         <v>1000</v>
       </c>
-      <c r="T123" s="14"/>
-      <c r="U123" s="5">
+      <c r="V123" s="14"/>
+      <c r="W123" s="5">
         <v>15008005</v>
       </c>
-      <c r="V123" s="4">
+      <c r="X123" s="4">
         <v>2603003</v>
       </c>
     </row>
-    <row r="124" s="4" customFormat="1" spans="1:22">
+    <row r="124" s="4" customFormat="1" spans="1:24">
       <c r="A124" s="4" t="s">
         <v>0</v>
       </c>
@@ -6884,10 +7176,10 @@
         <v>2003004</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E124" s="14"/>
       <c r="F124" s="14">
@@ -6896,50 +7188,52 @@
       <c r="G124" s="14">
         <v>2</v>
       </c>
-      <c r="H124" s="14">
+      <c r="H124" s="14"/>
+      <c r="I124" s="14">
         <v>1</v>
       </c>
-      <c r="I124" s="14">
-        <v>0</v>
-      </c>
       <c r="J124" s="14">
         <v>0</v>
       </c>
-      <c r="K124" s="14">
+      <c r="K124" s="14"/>
+      <c r="L124" s="14">
+        <v>0</v>
+      </c>
+      <c r="M124" s="14">
         <v>16001001</v>
       </c>
-      <c r="L124" s="14"/>
-      <c r="M124" s="14">
+      <c r="N124" s="14"/>
+      <c r="O124" s="14">
         <v>8000</v>
       </c>
-      <c r="N124" s="14">
-        <v>0</v>
-      </c>
-      <c r="O124" s="14">
-        <v>0</v>
-      </c>
       <c r="P124" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="14">
+        <v>0</v>
+      </c>
+      <c r="R124" s="14">
         <v>1500</v>
       </c>
-      <c r="Q124" s="14">
+      <c r="S124" s="14">
         <v>1</v>
       </c>
-      <c r="R124" s="14"/>
-      <c r="S124" s="6">
+      <c r="T124" s="14"/>
+      <c r="U124" s="6">
         <v>1000</v>
       </c>
-      <c r="T124" s="14"/>
-      <c r="U124" s="5">
-        <v>0</v>
-      </c>
-      <c r="V124" s="4">
+      <c r="V124" s="14"/>
+      <c r="W124" s="5">
+        <v>0</v>
+      </c>
+      <c r="X124" s="4">
         <v>2603004</v>
       </c>
     </row>
-    <row r="125" spans="19:19">
-      <c r="S125" s="6"/>
-    </row>
-    <row r="126" customFormat="1" spans="1:22">
+    <row r="125" spans="21:21">
+      <c r="U125" s="6"/>
+    </row>
+    <row r="126" customFormat="1" spans="1:24">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -6947,10 +7241,10 @@
         <v>2003050</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E126" s="6">
         <v>1</v>
@@ -6961,25 +7255,21 @@
       <c r="G126" s="6">
         <v>0</v>
       </c>
-      <c r="H126" s="6">
-        <v>0</v>
-      </c>
+      <c r="H126" s="6"/>
       <c r="I126" s="6">
+        <v>0</v>
+      </c>
+      <c r="J126" s="6">
         <v>1</v>
       </c>
-      <c r="J126" s="6">
-        <v>2</v>
-      </c>
-      <c r="K126" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="L126" s="10"/>
-      <c r="M126" s="6">
-        <v>0</v>
-      </c>
-      <c r="N126" s="6">
-        <v>0</v>
-      </c>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6">
+        <v>2</v>
+      </c>
+      <c r="M126" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="N126" s="10"/>
       <c r="O126" s="6">
         <v>0</v>
       </c>
@@ -6989,19 +7279,25 @@
       <c r="Q126" s="6">
         <v>0</v>
       </c>
-      <c r="R126" s="6"/>
+      <c r="R126" s="6">
+        <v>0</v>
+      </c>
       <c r="S126" s="6">
+        <v>0</v>
+      </c>
+      <c r="T126" s="6"/>
+      <c r="U126" s="6">
         <v>1000</v>
       </c>
-      <c r="T126" s="12"/>
-      <c r="U126" s="5">
-        <v>0</v>
-      </c>
-      <c r="V126">
+      <c r="V126" s="12"/>
+      <c r="W126" s="5">
+        <v>0</v>
+      </c>
+      <c r="X126">
         <v>2603050</v>
       </c>
     </row>
-    <row r="127" customFormat="1" spans="1:22">
+    <row r="127" customFormat="1" spans="1:24">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -7009,10 +7305,10 @@
         <v>2003051</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E127" s="6">
         <v>1</v>
@@ -7023,25 +7319,21 @@
       <c r="G127" s="6">
         <v>0</v>
       </c>
-      <c r="H127" s="6">
-        <v>0</v>
-      </c>
+      <c r="H127" s="6"/>
       <c r="I127" s="6">
+        <v>0</v>
+      </c>
+      <c r="J127" s="6">
         <v>1</v>
       </c>
-      <c r="J127" s="6">
-        <v>2</v>
-      </c>
-      <c r="K127" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="L127" s="10"/>
-      <c r="M127" s="6">
-        <v>0</v>
-      </c>
-      <c r="N127" s="6">
-        <v>0</v>
-      </c>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6">
+        <v>2</v>
+      </c>
+      <c r="M127" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="N127" s="10"/>
       <c r="O127" s="6">
         <v>0</v>
       </c>
@@ -7049,21 +7341,27 @@
         <v>0</v>
       </c>
       <c r="Q127" s="6">
+        <v>0</v>
+      </c>
+      <c r="R127" s="6">
+        <v>0</v>
+      </c>
+      <c r="S127" s="6">
         <v>1</v>
       </c>
-      <c r="R127" s="6"/>
-      <c r="S127" s="6">
+      <c r="T127" s="6"/>
+      <c r="U127" s="6">
         <v>1000</v>
       </c>
-      <c r="T127" s="12"/>
-      <c r="U127" s="5">
-        <v>0</v>
-      </c>
-      <c r="V127">
+      <c r="V127" s="12"/>
+      <c r="W127" s="5">
+        <v>0</v>
+      </c>
+      <c r="X127">
         <v>2603051</v>
       </c>
     </row>
-    <row r="128" customFormat="1" spans="1:23">
+    <row r="128" customFormat="1" spans="1:25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -7071,10 +7369,10 @@
         <v>2003052</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E128" s="6">
         <v>1</v>
@@ -7085,58 +7383,60 @@
       <c r="G128" s="6">
         <v>0</v>
       </c>
-      <c r="H128" s="6">
-        <v>0</v>
-      </c>
+      <c r="H128" s="6"/>
       <c r="I128" s="6">
         <v>0</v>
       </c>
       <c r="J128" s="6">
         <v>0</v>
       </c>
-      <c r="K128" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="L128" s="10"/>
-      <c r="M128" s="6">
-        <v>0</v>
-      </c>
-      <c r="N128" s="6">
+      <c r="K128" s="6"/>
+      <c r="L128" s="6">
+        <v>0</v>
+      </c>
+      <c r="M128" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="N128" s="10"/>
+      <c r="O128" s="6">
+        <v>0</v>
+      </c>
+      <c r="P128" s="6">
         <v>1500</v>
       </c>
-      <c r="O128" s="6">
+      <c r="Q128" s="6">
         <v>700</v>
       </c>
-      <c r="P128" s="6">
+      <c r="R128" s="6">
         <v>12000</v>
       </c>
-      <c r="Q128" s="6">
-        <v>2</v>
-      </c>
-      <c r="R128" s="6"/>
       <c r="S128" s="6">
+        <v>2</v>
+      </c>
+      <c r="T128" s="6"/>
+      <c r="U128" s="6">
         <v>340</v>
       </c>
-      <c r="T128" s="12"/>
-      <c r="U128" s="5">
+      <c r="V128" s="12"/>
+      <c r="W128" s="5">
         <v>15008014</v>
       </c>
-      <c r="V128">
+      <c r="X128">
         <v>2603052</v>
       </c>
-      <c r="W128">
+      <c r="Y128">
         <v>2500020</v>
       </c>
     </row>
-    <row r="129" spans="19:19">
-      <c r="S129" s="6"/>
-    </row>
-    <row r="132" spans="16:16">
-      <c r="P132" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22">
+    <row r="129" spans="21:21">
+      <c r="U129" s="6"/>
+    </row>
+    <row r="132" spans="18:18">
+      <c r="R132" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -7144,10 +7444,10 @@
         <v>2005001</v>
       </c>
       <c r="C133" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D133" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F133" s="6">
         <v>15003753</v>
@@ -7155,43 +7455,44 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="H133" s="6">
-        <v>2</v>
-      </c>
       <c r="I133" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" s="6">
         <v>0</v>
       </c>
-      <c r="K133" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="L133" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M133" s="6">
-        <v>0</v>
-      </c>
-      <c r="N133" s="6">
-        <v>0</v>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6">
+        <v>0</v>
+      </c>
+      <c r="M133" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="N133" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="O133" s="6">
         <v>0</v>
       </c>
       <c r="P133" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="6">
+        <v>0</v>
+      </c>
+      <c r="R133" s="6">
         <v>2000</v>
       </c>
-      <c r="Q133" s="6"/>
-      <c r="R133" s="6"/>
-      <c r="S133" s="6">
+      <c r="S133" s="6"/>
+      <c r="T133" s="6"/>
+      <c r="U133" s="6">
         <v>1000</v>
       </c>
-      <c r="T133" s="12"/>
-      <c r="U133" s="5">
+      <c r="V133" s="12"/>
+      <c r="W133" s="5">
         <v>15008014</v>
       </c>
-      <c r="V133">
+      <c r="X133">
         <v>2605001</v>
       </c>
     </row>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17385" windowHeight="11745"/>
+    <workbookView windowWidth="15480" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -248,7 +248,7 @@
     <t>selectEntityType</t>
   </si>
   <si>
-    <t>skillTargetType</t>
+    <t>skillEffectTargetType</t>
   </si>
   <si>
     <t>effectList</t>
@@ -332,7 +332,7 @@
     <t>选择实体类型</t>
   </si>
   <si>
-    <t>技能目标类型（选取即将触发效果的单位或点）</t>
+    <t>技能交过目标类型（选取即将触发效果的单位或点）</t>
   </si>
   <si>
     <t>触发的效果列表（主动释放产生的效果）</t>
@@ -1851,9 +1851,9 @@
   <dimension ref="A1:Y133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="topRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15480" windowHeight="8100"/>
+    <workbookView windowWidth="19350" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,12 +125,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0 自己和所有友方单位
-1 所有友方单位(不包括自己)
-2 所有敌人
-3 所有友方和敌人(不包括自己)
-4 所有实体
-5 自己</t>
+    AllEnemy = 0,
+        FriendAndEnemy = 1,
+        Friend = 2,
+        MeAndFriend = 3,
+        All = 4,
+        //自己 这个纯粹就是为了选自己加上的筛选
+        Self = 5,</t>
         </r>
       </text>
     </comment>
@@ -208,12 +209,61 @@
         </r>
       </text>
     </comment>
+    <comment ref="Z3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ //伤害
+        Hurt = 0,
+        //治疗
+        Healing = 1,
+        //控制
+        Control = 2,
+        //防御
+        Defence = 3,
+        //位移
+        Displacement = 4,
+        //保护
+        Protect = 5,
+        //召唤
+        Summon = 6,
+        //增益--------------------
+        //增益 攻击向 buff
+        Buff_Attack = 101,
+        //增益 防御向 buff
+        Buff_Defence = 102,
+        //增益 移动向 buffVe
+        Buff_Move = 103,
+        //减益--------------------
+        //减益 攻击向 buff
+        DeBuff_Attack = 201,
+        //减益 防御向 buff
+        DeBuff_Defence = 202,
+        //减益 移动向 buff
+        DeBuff_Move = 203,</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="203">
   <si>
     <t>#</t>
   </si>
@@ -290,6 +340,9 @@
     <t>skillTrackList</t>
   </si>
   <si>
+    <t>tagList</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -329,10 +382,10 @@
     <t>是否是被动技能</t>
   </si>
   <si>
-    <t>选择实体类型</t>
-  </si>
-  <si>
-    <t>技能交过目标类型（选取即将触发效果的单位或点）</t>
+    <t>选择筛选实体类型，传给效果列表，可以看成总筛选</t>
+  </si>
+  <si>
+    <t>技能效果目标类型（选取即将触发效果的单位或点）</t>
   </si>
   <si>
     <t>触发的效果列表（主动释放产生的效果）</t>
@@ -374,6 +427,9 @@
     <t>技能轨迹 Id 列表</t>
   </si>
   <si>
+    <t>技能标签（目前是给 ai 作倾向用的）</t>
+  </si>
+  <si>
     <t>倒数第 4 位是人物，倒数第 3 位是技能，最后 两位是等级</t>
   </si>
   <si>
@@ -798,6 +854,24 @@
   </si>
   <si>
     <t>14050002</t>
+  </si>
+  <si>
+    <t>ai 近战兵 普通攻击</t>
+  </si>
+  <si>
+    <t>ai 近战兵 给自己加攻击力</t>
+  </si>
+  <si>
+    <t>ai 近战兵 单体目标技能伤害</t>
+  </si>
+  <si>
+    <t>ai 远程兵 普通攻击</t>
+  </si>
+  <si>
+    <t>ai 远程兵 群伤技能伤害</t>
+  </si>
+  <si>
+    <t>ai 远程兵 位移（点）</t>
   </si>
 </sst>
 </file>
@@ -963,12 +1037,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1848,19 +1922,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y133"/>
+  <dimension ref="A1:Z145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="6330" ySplit="2805" topLeftCell="W126" activePane="bottomRight"/>
       <selection/>
-      <selection pane="topRight" activeCell="K3" sqref="K3"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="Z146" sqref="Z146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
@@ -1883,7 +1960,7 @@
     <col min="26" max="26" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:25">
+    <row r="1" ht="18" customHeight="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1959,164 +2036,173 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="X2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:25">
+        <v>28</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:26">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:22">
       <c r="B4" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2147,10 +2233,10 @@
         <v>2001101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -2181,7 +2267,7 @@
         <v>2001201</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6">
@@ -2235,10 +2321,10 @@
         <v>2002101</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -2295,7 +2381,7 @@
         <v>2002201</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6">
@@ -2349,10 +2435,10 @@
         <v>2003101</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -2383,10 +2469,10 @@
         <v>2003201</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -2429,10 +2515,10 @@
         <v>2003202</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
@@ -2475,10 +2561,10 @@
         <v>2003203</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
@@ -2521,10 +2607,10 @@
         <v>2003204</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" s="6">
         <v>4</v>
@@ -2567,10 +2653,10 @@
         <v>2003205</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16" s="6">
         <v>5</v>
@@ -2635,10 +2721,10 @@
         <v>2003301</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -2673,10 +2759,10 @@
         <v>2003302</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
@@ -2733,10 +2819,10 @@
         <v>2003401</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -2772,10 +2858,10 @@
         <v>2003402</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22" s="6">
         <v>2</v>
@@ -2811,10 +2897,10 @@
         <v>2003403</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E23" s="6">
         <v>3</v>
@@ -2850,10 +2936,10 @@
         <v>2003404</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24" s="6">
         <v>4</v>
@@ -2889,10 +2975,10 @@
         <v>2003405</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E25" s="6">
         <v>5</v>
@@ -2972,10 +3058,10 @@
         <v>2003501</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
@@ -3011,10 +3097,10 @@
         <v>2003502</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E29" s="6">
         <v>2</v>
@@ -3050,10 +3136,10 @@
         <v>2003503</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -3089,10 +3175,10 @@
         <v>2003504</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E31" s="6">
         <v>4</v>
@@ -3128,10 +3214,10 @@
         <v>2003505</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E32" s="6">
         <v>5</v>
@@ -3190,10 +3276,10 @@
         <v>2003601</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -3229,10 +3315,10 @@
         <v>2003701</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
@@ -3268,10 +3354,10 @@
         <v>2003801</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -3393,7 +3479,7 @@
     </row>
     <row r="41" ht="40.5" spans="2:22">
       <c r="B41" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3424,10 +3510,10 @@
         <v>2100101</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
@@ -3488,10 +3574,10 @@
         <v>2100102</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" s="6">
         <v>2</v>
@@ -3552,10 +3638,10 @@
         <v>2100103</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E44" s="6">
         <v>3</v>
@@ -3616,10 +3702,10 @@
         <v>2100104</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E45" s="6">
         <v>4</v>
@@ -3680,10 +3766,10 @@
         <v>2100105</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="6">
         <v>5</v>
@@ -3789,10 +3875,10 @@
         <v>2100201</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
@@ -3850,10 +3936,10 @@
         <v>2100202</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="6">
         <v>2</v>
@@ -3876,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N50" s="10"/>
       <c r="O50" s="6">
@@ -3906,10 +3992,10 @@
         <v>2100203</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="6">
         <v>3</v>
@@ -3932,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="6">
@@ -3962,10 +4048,10 @@
         <v>2100204</v>
       </c>
       <c r="C52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E52" s="6">
         <v>4</v>
@@ -3988,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N52" s="10"/>
       <c r="O52" s="6">
@@ -4018,10 +4104,10 @@
         <v>2100205</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="6">
         <v>5</v>
@@ -4044,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N53" s="10"/>
       <c r="O53" s="6">
@@ -4118,10 +4204,10 @@
         <v>2100301</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
@@ -4144,7 +4230,7 @@
         <v>2</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N56" s="10"/>
       <c r="O56" s="6">
@@ -4177,10 +4263,10 @@
         <v>2100302</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="E57" s="6">
         <v>2</v>
@@ -4203,7 +4289,7 @@
         <v>2</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N57" s="10"/>
       <c r="O57" s="6">
@@ -4236,10 +4322,10 @@
         <v>2100303</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="6">
         <v>3</v>
@@ -4262,7 +4348,7 @@
         <v>2</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N58" s="10"/>
       <c r="O58" s="6">
@@ -4295,10 +4381,10 @@
         <v>2100304</v>
       </c>
       <c r="C59" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="E59" s="6">
         <v>4</v>
@@ -4321,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N59" s="10"/>
       <c r="O59" s="6">
@@ -4354,10 +4440,10 @@
         <v>2100305</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E60" s="6">
         <v>5</v>
@@ -4380,7 +4466,7 @@
         <v>2</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N60" s="10"/>
       <c r="O60" s="6">
@@ -4457,10 +4543,10 @@
         <v>2100401</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
@@ -4516,10 +4602,10 @@
         <v>2100402</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
@@ -4575,10 +4661,10 @@
         <v>2100403</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E65" s="6">
         <v>3</v>
@@ -4601,7 +4687,7 @@
         <v>2</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N65" s="10"/>
       <c r="O65" s="6">
@@ -4636,10 +4722,10 @@
         <v>2100404</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="E66" s="6">
         <v>4</v>
@@ -4697,10 +4783,10 @@
         <v>2100405</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E67" s="6">
         <v>5</v>
@@ -4723,7 +4809,7 @@
         <v>2</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N67" s="10"/>
       <c r="O67" s="6">
@@ -4802,10 +4888,10 @@
         <v>2100501</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -4828,7 +4914,7 @@
         <v>11</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N70" s="10"/>
       <c r="O70" s="6">
@@ -4866,10 +4952,10 @@
         <v>2100502</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E71" s="6">
         <v>2</v>
@@ -4892,7 +4978,7 @@
         <v>11</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N71" s="10"/>
       <c r="O71" s="6">
@@ -4930,10 +5016,10 @@
         <v>2100503</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E72" s="6">
         <v>3</v>
@@ -4956,7 +5042,7 @@
         <v>11</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N72" s="10"/>
       <c r="O72" s="6">
@@ -4994,10 +5080,10 @@
         <v>2100504</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E73" s="6">
         <v>4</v>
@@ -5020,7 +5106,7 @@
         <v>11</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N73" s="10"/>
       <c r="O73" s="6">
@@ -5058,10 +5144,10 @@
         <v>2100505</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E74" s="6">
         <v>5</v>
@@ -5084,7 +5170,7 @@
         <v>11</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N74" s="10"/>
       <c r="O74" s="6">
@@ -5166,10 +5252,10 @@
         <v>2100601</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -5192,7 +5278,7 @@
         <v>11</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N77" s="10"/>
       <c r="O77" s="6">
@@ -5274,10 +5360,10 @@
         <v>2100701</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E80" s="6">
         <v>1</v>
@@ -5300,7 +5386,7 @@
         <v>2</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N80" s="10"/>
       <c r="O80" s="6">
@@ -5335,10 +5421,10 @@
         <v>2100801</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
@@ -5361,7 +5447,7 @@
         <v>2</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N81" s="10"/>
       <c r="O81" s="6">
@@ -5396,10 +5482,10 @@
         <v>2100901</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E82" s="6">
         <v>1</v>
@@ -5422,7 +5508,7 @@
         <v>2</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N82" s="10"/>
       <c r="O82" s="6">
@@ -5479,7 +5565,7 @@
         <v>2500001</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6">
@@ -5577,10 +5663,10 @@
         <v>2001001</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -5634,10 +5720,10 @@
         <v>2001002</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E89" s="9">
         <v>1</v>
@@ -5696,10 +5782,10 @@
         <v>2001002</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E90" s="9">
         <v>1</v>
@@ -5757,10 +5843,10 @@
         <v>2001003</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E91" s="9">
         <v>1</v>
@@ -5783,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N91" s="10"/>
       <c r="O91" s="6">
@@ -5818,10 +5904,10 @@
         <v>2001004</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E92" s="9">
         <v>1</v>
@@ -5882,10 +5968,10 @@
         <v>2001005</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E93" s="9">
         <v>1</v>
@@ -5908,7 +5994,7 @@
         <v>2</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N93" s="10"/>
       <c r="O93" s="6">
@@ -5943,10 +6029,10 @@
         <v>2001006</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E94" s="9">
         <v>1</v>
@@ -5969,7 +6055,7 @@
         <v>2</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N94" s="10"/>
       <c r="O94" s="6">
@@ -6027,10 +6113,10 @@
         <v>2001008</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6">
@@ -6051,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N96" s="10"/>
       <c r="O96" s="6">
@@ -6107,10 +6193,10 @@
         <v>2001021</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -6167,10 +6253,10 @@
         <v>2001022</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E100" s="6">
         <v>1</v>
@@ -6231,10 +6317,10 @@
         <v>2001023</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E101" s="6">
         <v>1</v>
@@ -6257,7 +6343,7 @@
         <v>2</v>
       </c>
       <c r="M101" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N101" s="10"/>
       <c r="O101" s="6">
@@ -6292,10 +6378,10 @@
         <v>2001024</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E102" s="6">
         <v>1</v>
@@ -6318,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N102" s="10"/>
       <c r="O102" s="6">
@@ -6356,10 +6442,10 @@
         <v>2001025</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E103" s="6">
         <v>1</v>
@@ -6382,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N103" s="10"/>
       <c r="O103" s="6">
@@ -6417,10 +6503,10 @@
         <v>2001026</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E104" s="6">
         <v>1</v>
@@ -6443,7 +6529,7 @@
         <v>2</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N104" s="10"/>
       <c r="O104" s="6">
@@ -6524,10 +6610,10 @@
         <v>2001050</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6">
@@ -6689,10 +6775,10 @@
         <v>2201101</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -6746,10 +6832,10 @@
         <v>2201201</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6">
@@ -6831,10 +6917,10 @@
         <v>2202101</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -6888,10 +6974,10 @@
         <v>2202201</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6">
@@ -6993,10 +7079,10 @@
         <v>2003001</v>
       </c>
       <c r="C121" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -7052,10 +7138,10 @@
         <v>2003002</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="14">
@@ -7076,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="M122" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N122" s="16"/>
       <c r="O122" s="14">
@@ -7114,10 +7200,10 @@
         <v>2003003</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E123" s="14"/>
       <c r="F123" s="14">
@@ -7138,7 +7224,7 @@
         <v>2</v>
       </c>
       <c r="M123" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N123" s="16"/>
       <c r="O123" s="14">
@@ -7176,10 +7262,10 @@
         <v>2003004</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E124" s="14"/>
       <c r="F124" s="14">
@@ -7241,10 +7327,10 @@
         <v>2003050</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E126" s="6">
         <v>1</v>
@@ -7267,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="M126" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N126" s="10"/>
       <c r="O126" s="6">
@@ -7305,10 +7391,10 @@
         <v>2003051</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E127" s="6">
         <v>1</v>
@@ -7331,7 +7417,7 @@
         <v>2</v>
       </c>
       <c r="M127" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N127" s="10"/>
       <c r="O127" s="6">
@@ -7369,10 +7455,10 @@
         <v>2003052</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E128" s="6">
         <v>1</v>
@@ -7395,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N128" s="10"/>
       <c r="O128" s="6">
@@ -7433,7 +7519,7 @@
     </row>
     <row r="132" spans="18:18">
       <c r="R132" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -7444,10 +7530,10 @@
         <v>2005001</v>
       </c>
       <c r="C133" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D133" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F133" s="6">
         <v>15003753</v>
@@ -7466,10 +7552,10 @@
         <v>0</v>
       </c>
       <c r="M133" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N133" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O133" s="6">
         <v>0</v>
@@ -7494,6 +7580,312 @@
       </c>
       <c r="X133">
         <v>2605001</v>
+      </c>
+    </row>
+    <row r="134" customFormat="1" spans="3:23">
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="6"/>
+      <c r="S134" s="6"/>
+      <c r="T134" s="6"/>
+      <c r="U134" s="6"/>
+      <c r="V134" s="12"/>
+      <c r="W134" s="5"/>
+    </row>
+    <row r="135" customFormat="1" spans="3:23">
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="6"/>
+      <c r="T135" s="6"/>
+      <c r="U135" s="6"/>
+      <c r="V135" s="12"/>
+      <c r="W135" s="5"/>
+    </row>
+    <row r="136" customFormat="1" spans="3:23">
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="6"/>
+      <c r="S136" s="6"/>
+      <c r="T136" s="6"/>
+      <c r="U136" s="6"/>
+      <c r="V136" s="12"/>
+      <c r="W136" s="5"/>
+    </row>
+    <row r="137" customFormat="1" spans="4:23">
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="6"/>
+      <c r="T137" s="6"/>
+      <c r="U137" s="6"/>
+      <c r="V137" s="12"/>
+      <c r="W137" s="5"/>
+    </row>
+    <row r="138" customFormat="1" spans="3:23">
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="6"/>
+      <c r="T138" s="6"/>
+      <c r="U138" s="6"/>
+      <c r="V138" s="12"/>
+      <c r="W138" s="5"/>
+    </row>
+    <row r="139" customFormat="1" spans="1:26">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>2601101</v>
+      </c>
+      <c r="C139" t="s">
+        <v>197</v>
+      </c>
+      <c r="D139" t="s">
+        <v>197</v>
+      </c>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6">
+        <v>1</v>
+      </c>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6">
+        <v>0</v>
+      </c>
+      <c r="J139" s="6">
+        <v>0</v>
+      </c>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6">
+        <v>1</v>
+      </c>
+      <c r="M139" s="6">
+        <v>3061101</v>
+      </c>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6">
+        <v>0</v>
+      </c>
+      <c r="P139" s="6">
+        <v>300</v>
+      </c>
+      <c r="Q139" s="6">
+        <v>300</v>
+      </c>
+      <c r="R139" s="6">
+        <v>0</v>
+      </c>
+      <c r="S139" s="6">
+        <v>0</v>
+      </c>
+      <c r="T139" s="6"/>
+      <c r="U139" s="6">
+        <v>1540</v>
+      </c>
+      <c r="V139" s="12"/>
+      <c r="W139" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="1" spans="1:26">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>2601202</v>
+      </c>
+      <c r="C140" t="s">
+        <v>198</v>
+      </c>
+      <c r="D140" t="s">
+        <v>198</v>
+      </c>
+      <c r="V140" s="5"/>
+      <c r="W140" s="5"/>
+      <c r="Z140">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141" customFormat="1" spans="1:26">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>2601302</v>
+      </c>
+      <c r="C141" t="s">
+        <v>199</v>
+      </c>
+      <c r="D141" t="s">
+        <v>199</v>
+      </c>
+      <c r="V141" s="5"/>
+      <c r="W141" s="5"/>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="1" spans="1:26">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>2602101</v>
+      </c>
+      <c r="C143" t="s">
+        <v>200</v>
+      </c>
+      <c r="D143" t="s">
+        <v>200</v>
+      </c>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6">
+        <v>1</v>
+      </c>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6">
+        <v>0</v>
+      </c>
+      <c r="J143" s="6">
+        <v>0</v>
+      </c>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6">
+        <v>1</v>
+      </c>
+      <c r="M143" s="6">
+        <v>3062101</v>
+      </c>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6">
+        <v>0</v>
+      </c>
+      <c r="P143" s="6">
+        <v>300</v>
+      </c>
+      <c r="Q143" s="6">
+        <v>200</v>
+      </c>
+      <c r="R143" s="6">
+        <v>0</v>
+      </c>
+      <c r="S143" s="6">
+        <v>0</v>
+      </c>
+      <c r="T143" s="6"/>
+      <c r="U143" s="6">
+        <v>1400</v>
+      </c>
+      <c r="V143" s="12"/>
+      <c r="W143" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>2602201</v>
+      </c>
+      <c r="C144" t="s">
+        <v>201</v>
+      </c>
+      <c r="D144" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>2602301</v>
+      </c>
+      <c r="C145" t="s">
+        <v>202</v>
+      </c>
+      <c r="D145" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z145">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="12255"/>
+    <workbookView windowWidth="14145" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1037,12 +1037,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1925,11 +1925,11 @@
   <dimension ref="A1:Z145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6330" ySplit="2805" topLeftCell="W126" activePane="bottomRight"/>
+      <pane xSplit="6330" ySplit="2805" topLeftCell="P130" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z146" sqref="Z146"/>
+      <selection pane="bottomRight" activeCell="S143" sqref="S143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2200,7 +2200,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="2:22">
+    <row r="4" ht="81" spans="2:22">
       <c r="B4" s="8" t="s">
         <v>55</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="U40" s="6"/>
       <c r="V40" s="12"/>
     </row>
-    <row r="41" ht="40.5" spans="2:22">
+    <row r="41" ht="54" spans="2:22">
       <c r="B41" s="8" t="s">
         <v>81</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>2601022</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="40.5" spans="1:24">
+    <row r="46" customFormat="1" ht="27" spans="1:24">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -7884,6 +7884,52 @@
       <c r="D145" t="s">
         <v>202</v>
       </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" s="6">
+        <v>15003752</v>
+      </c>
+      <c r="G145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>5</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>16010101</v>
+      </c>
+      <c r="O145">
+        <v>5000</v>
+      </c>
+      <c r="P145">
+        <v>50</v>
+      </c>
+      <c r="Q145">
+        <v>50</v>
+      </c>
+      <c r="R145">
+        <v>5000</v>
+      </c>
+      <c r="S145">
+        <v>1</v>
+      </c>
+      <c r="U145">
+        <v>1000</v>
+      </c>
+      <c r="X145">
+        <v>2601005</v>
+      </c>
+      <c r="Y145"/>
       <c r="Z145">
         <v>4</v>
       </c>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14145" windowHeight="8685"/>
+    <workbookView windowWidth="15840" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="204">
   <si>
     <t>#</t>
   </si>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t>ai 远程兵 位移（点）</t>
+  </si>
+  <si>
+    <t>ai 远程兵 单体技能</t>
   </si>
 </sst>
 </file>
@@ -1922,14 +1925,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z145"/>
+  <dimension ref="A1:Z146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6330" ySplit="2805" topLeftCell="P130" activePane="bottomRight"/>
+      <pane xSplit="6330" ySplit="2805" topLeftCell="M138" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S143" sqref="S143"/>
+      <selection pane="bottomRight" activeCell="O145" sqref="O145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7867,6 +7870,51 @@
       <c r="D144" t="s">
         <v>201</v>
       </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>11</v>
+      </c>
+      <c r="M144">
+        <v>13060101</v>
+      </c>
+      <c r="O144">
+        <v>8000</v>
+      </c>
+      <c r="P144">
+        <v>150</v>
+      </c>
+      <c r="Q144">
+        <v>100</v>
+      </c>
+      <c r="R144">
+        <v>2000</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
+      <c r="U144">
+        <v>1000</v>
+      </c>
+      <c r="X144">
+        <v>2601005</v>
+      </c>
       <c r="Z144">
         <v>0</v>
       </c>
@@ -7918,7 +7966,7 @@
         <v>50</v>
       </c>
       <c r="R145">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="S145">
         <v>1</v>
@@ -7932,6 +7980,70 @@
       <c r="Y145"/>
       <c r="Z145">
         <v>4</v>
+      </c>
+    </row>
+    <row r="146" customFormat="1" spans="1:26">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>2602401</v>
+      </c>
+      <c r="C146" t="s">
+        <v>203</v>
+      </c>
+      <c r="D146" t="s">
+        <v>203</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" s="6">
+        <v>15003751</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>4006101</v>
+      </c>
+      <c r="O146">
+        <v>10000</v>
+      </c>
+      <c r="P146">
+        <v>50</v>
+      </c>
+      <c r="Q146">
+        <v>50</v>
+      </c>
+      <c r="R146">
+        <v>1500</v>
+      </c>
+      <c r="S146">
+        <v>1</v>
+      </c>
+      <c r="U146">
+        <v>1000</v>
+      </c>
+      <c r="V146" s="5"/>
+      <c r="W146" s="5"/>
+      <c r="X146">
+        <v>2601005</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15840" windowHeight="8685"/>
+    <workbookView windowWidth="16665" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="205">
   <si>
     <t>#</t>
   </si>
@@ -875,6 +875,9 @@
   </si>
   <si>
     <t>ai 远程兵 单体技能</t>
+  </si>
+  <si>
+    <t>ai 远程兵 给自己加护甲</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1054,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,6 +1076,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,7 +1410,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1425,16 +1434,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1443,89 +1452,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1544,6 +1553,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1553,16 +1565,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1925,14 +1943,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z146"/>
+  <dimension ref="A1:Z147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6330" ySplit="2805" topLeftCell="M138" activePane="bottomRight"/>
+      <pane xSplit="6330" ySplit="2805" topLeftCell="A135" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O145" sqref="O145"/>
+      <selection pane="bottomRight" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1944,7 +1962,7 @@
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="8" max="8" width="21" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="11" width="13.875" customWidth="1"/>
     <col min="12" max="12" width="13.375" customWidth="1"/>
@@ -1956,8 +1974,8 @@
     <col min="19" max="19" width="16.25" customWidth="1"/>
     <col min="20" max="20" width="12.375" customWidth="1"/>
     <col min="21" max="21" width="21.625" customWidth="1"/>
-    <col min="22" max="22" width="21.5" style="5" customWidth="1"/>
-    <col min="23" max="23" width="12.375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="21.5" style="6" customWidth="1"/>
+    <col min="23" max="23" width="12.375" style="6" customWidth="1"/>
     <col min="24" max="24" width="16.875" customWidth="1"/>
     <col min="25" max="25" width="21.875" customWidth="1"/>
     <col min="26" max="26" width="27.75" customWidth="1"/>
@@ -1967,7 +1985,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1985,7 +2003,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -2015,25 +2033,25 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Y1" t="s">
@@ -2065,7 +2083,7 @@
       <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="s">
@@ -2095,22 +2113,22 @@
       <c r="Q2" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="X2" t="s">
@@ -2127,73 +2145,73 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="8" t="s">
         <v>52</v>
       </c>
       <c r="Y3" t="s">
@@ -2204,29 +2222,29 @@
       </c>
     </row>
     <row r="4" ht="81" spans="2:22">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="12"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="15"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
@@ -2235,32 +2253,32 @@
       <c r="B5">
         <v>2001101</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="12"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="15"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
@@ -2269,52 +2287,52 @@
       <c r="B6">
         <v>2001201</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="12"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="15"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="12"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="15"/>
     </row>
     <row r="8" customFormat="1" spans="1:24">
       <c r="A8" t="s">
@@ -2323,53 +2341,53 @@
       <c r="B8">
         <v>2002101</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
         <v>3000101</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
         <v>180</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="7">
         <v>100</v>
       </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6">
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7">
         <v>2667</v>
       </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="5">
+      <c r="V8" s="15"/>
+      <c r="W8" s="6">
         <v>0</v>
       </c>
       <c r="X8">
@@ -2383,52 +2401,52 @@
       <c r="B9">
         <v>2002201</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="12"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="15"/>
     </row>
     <row r="10" spans="3:22">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="12"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="15"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
@@ -2437,32 +2455,32 @@
       <c r="B11">
         <v>2003101</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="12"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="15"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
@@ -2471,44 +2489,44 @@
       <c r="B12">
         <v>2003201</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
         <v>15003751</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6">
+      <c r="G12" s="7"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7">
         <v>180</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="7">
         <v>100</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="7">
         <v>5000</v>
       </c>
-      <c r="S12" s="6">
-        <v>1</v>
-      </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6">
+      <c r="S12" s="7">
+        <v>1</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7">
         <v>2667</v>
       </c>
-      <c r="V12" s="12"/>
+      <c r="V12" s="15"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
@@ -2517,44 +2535,44 @@
       <c r="B13">
         <v>2003202</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="6">
-        <v>2</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
         <v>15003751</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6">
+      <c r="G13" s="7"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7">
         <v>180</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="7">
         <v>100</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="7">
         <v>5000</v>
       </c>
-      <c r="S13" s="6">
-        <v>1</v>
-      </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6">
+      <c r="S13" s="7">
+        <v>1</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7">
         <v>2667</v>
       </c>
-      <c r="V13" s="12"/>
+      <c r="V13" s="15"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
@@ -2563,44 +2581,44 @@
       <c r="B14">
         <v>2003203</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>15003751</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6">
+      <c r="G14" s="7"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7">
         <v>180</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="7">
         <v>100</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="7">
         <v>5000</v>
       </c>
-      <c r="S14" s="6">
-        <v>1</v>
-      </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6">
+      <c r="S14" s="7">
+        <v>1</v>
+      </c>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7">
         <v>2667</v>
       </c>
-      <c r="V14" s="12"/>
+      <c r="V14" s="15"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
@@ -2609,44 +2627,44 @@
       <c r="B15">
         <v>2003204</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="7">
         <v>4</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="7">
         <v>15003751</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6">
+      <c r="G15" s="7"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7">
         <v>180</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="7">
         <v>100</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="7">
         <v>5000</v>
       </c>
-      <c r="S15" s="6">
-        <v>1</v>
-      </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6">
+      <c r="S15" s="7">
+        <v>1</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7">
         <v>2667</v>
       </c>
-      <c r="V15" s="12"/>
+      <c r="V15" s="15"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
@@ -2655,66 +2673,66 @@
       <c r="B16">
         <v>2003205</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <v>5</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <v>15003751</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6">
+      <c r="G16" s="7"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7">
         <v>180</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="7">
         <v>100</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="7">
         <v>5000</v>
       </c>
-      <c r="S16" s="6">
-        <v>1</v>
-      </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6">
+      <c r="S16" s="7">
+        <v>1</v>
+      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7">
         <v>2667</v>
       </c>
-      <c r="V16" s="12"/>
+      <c r="V16" s="15"/>
     </row>
     <row r="17" spans="3:22">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="12"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="15"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
@@ -2723,36 +2741,36 @@
       <c r="B18">
         <v>2003301</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
         <v>15003752</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6">
+      <c r="G18" s="7"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7">
         <v>3</v>
       </c>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="12"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="15"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
@@ -2761,58 +2779,58 @@
       <c r="B19">
         <v>2003302</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="6">
-        <v>2</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7">
         <v>15003752</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6">
+      <c r="G19" s="7"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7">
         <v>3</v>
       </c>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="12"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="15"/>
     </row>
     <row r="20" spans="3:22">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="15"/>
     </row>
     <row r="21" customFormat="1" spans="1:23">
       <c r="A21" t="s">
@@ -2821,37 +2839,37 @@
       <c r="B21">
         <v>2003401</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
         <v>15003751</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6">
-        <v>2</v>
-      </c>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7">
+        <v>2</v>
+      </c>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="6"/>
     </row>
     <row r="22" customFormat="1" spans="1:23">
       <c r="A22" t="s">
@@ -2860,37 +2878,37 @@
       <c r="B22">
         <v>2003402</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="6">
-        <v>2</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
         <v>15003751</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6">
-        <v>2</v>
-      </c>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="5"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7">
+        <v>2</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="6"/>
     </row>
     <row r="23" customFormat="1" spans="1:23">
       <c r="A23" t="s">
@@ -2899,37 +2917,37 @@
       <c r="B23">
         <v>2003403</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="7">
         <v>3</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="7">
         <v>15003751</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6">
-        <v>2</v>
-      </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="5"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7">
+        <v>2</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="6"/>
     </row>
     <row r="24" customFormat="1" spans="1:23">
       <c r="A24" t="s">
@@ -2938,37 +2956,37 @@
       <c r="B24">
         <v>2003404</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>4</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>15003751</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6">
-        <v>2</v>
-      </c>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="5"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7">
+        <v>2</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="6"/>
     </row>
     <row r="25" customFormat="1" spans="1:23">
       <c r="A25" t="s">
@@ -2977,81 +2995,81 @@
       <c r="B25">
         <v>2003405</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="7">
         <v>5</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="7">
         <v>15003751</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6">
-        <v>2</v>
-      </c>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="5"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7">
+        <v>2</v>
+      </c>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="6"/>
     </row>
     <row r="26" spans="3:22">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="15"/>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="12"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="15"/>
     </row>
     <row r="28" customFormat="1" spans="1:23">
       <c r="A28" t="s">
@@ -3060,37 +3078,37 @@
       <c r="B28">
         <v>2003501</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
         <v>15003751</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6">
-        <v>2</v>
-      </c>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="5"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7">
+        <v>2</v>
+      </c>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="6"/>
     </row>
     <row r="29" customFormat="1" spans="1:23">
       <c r="A29" t="s">
@@ -3099,37 +3117,37 @@
       <c r="B29">
         <v>2003502</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="6">
-        <v>2</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7">
         <v>15003751</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6">
-        <v>2</v>
-      </c>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="5"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7">
+        <v>2</v>
+      </c>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="6"/>
     </row>
     <row r="30" customFormat="1" spans="1:23">
       <c r="A30" t="s">
@@ -3138,37 +3156,37 @@
       <c r="B30">
         <v>2003503</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="7">
         <v>3</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="7">
         <v>15003751</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6">
-        <v>2</v>
-      </c>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="5"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7">
+        <v>2</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="6"/>
     </row>
     <row r="31" customFormat="1" spans="1:23">
       <c r="A31" t="s">
@@ -3177,37 +3195,37 @@
       <c r="B31">
         <v>2003504</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="7">
         <v>4</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="7">
         <v>15003751</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6">
-        <v>2</v>
-      </c>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="5"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7">
+        <v>2</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="6"/>
     </row>
     <row r="32" customFormat="1" spans="1:23">
       <c r="A32" t="s">
@@ -3216,60 +3234,60 @@
       <c r="B32">
         <v>2003505</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="7">
         <v>5</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="7">
         <v>15003751</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6">
-        <v>2</v>
-      </c>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="5"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7">
+        <v>2</v>
+      </c>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="6"/>
     </row>
     <row r="33" spans="2:22">
-      <c r="B33" s="8"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="12"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="15"/>
     </row>
     <row r="34" customFormat="1" spans="1:23">
       <c r="A34" t="s">
@@ -3278,37 +3296,37 @@
       <c r="B34">
         <v>2003601</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
         <v>15003751</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6">
-        <v>2</v>
-      </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="5"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7">
+        <v>2</v>
+      </c>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="6"/>
     </row>
     <row r="35" customFormat="1" spans="1:23">
       <c r="A35" t="s">
@@ -3317,37 +3335,37 @@
       <c r="B35">
         <v>2003701</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7">
         <v>15003751</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6">
-        <v>2</v>
-      </c>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="5"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7">
+        <v>2</v>
+      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="6"/>
     </row>
     <row r="36" customFormat="1" spans="1:23">
       <c r="A36" t="s">
@@ -3356,154 +3374,154 @@
       <c r="B36">
         <v>2003801</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
         <v>15003751</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6">
-        <v>2</v>
-      </c>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="5"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7">
+        <v>2</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="6"/>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="12"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="15"/>
     </row>
     <row r="38" spans="2:22">
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="12"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="15"/>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="12"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="15"/>
     </row>
     <row r="40" spans="2:22">
-      <c r="B40" s="8"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="12"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="15"/>
     </row>
     <row r="41" ht="54" spans="2:22">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="12"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="15"/>
     </row>
     <row r="42" customFormat="1" ht="27" spans="1:24">
       <c r="A42" t="s">
@@ -3512,57 +3530,57 @@
       <c r="B42">
         <v>2100101</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="E42" s="7">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7">
         <v>15003751</v>
       </c>
-      <c r="G42" s="6">
-        <v>2</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6">
-        <v>0</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6">
-        <v>0</v>
-      </c>
-      <c r="M42" s="6">
+      <c r="G42" s="7">
+        <v>2</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
         <v>3100101</v>
       </c>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6">
+      <c r="N42" s="7"/>
+      <c r="O42" s="7">
         <v>6000</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="7">
         <v>400</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q42" s="7">
         <v>400</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="7">
         <v>3000</v>
       </c>
-      <c r="S42" s="6">
-        <v>2</v>
-      </c>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6">
+      <c r="S42" s="7">
+        <v>2</v>
+      </c>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7">
         <v>1000</v>
       </c>
-      <c r="V42" s="12"/>
-      <c r="W42" s="5">
+      <c r="V42" s="15"/>
+      <c r="W42" s="6">
         <v>0</v>
       </c>
       <c r="X42">
@@ -3576,57 +3594,57 @@
       <c r="B43">
         <v>2100102</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="6">
-        <v>2</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="E43" s="7">
+        <v>2</v>
+      </c>
+      <c r="F43" s="7">
         <v>15003751</v>
       </c>
-      <c r="G43" s="6">
-        <v>2</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6">
-        <v>0</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6">
-        <v>0</v>
-      </c>
-      <c r="M43" s="6">
+      <c r="G43" s="7">
+        <v>2</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
         <v>3100102</v>
       </c>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6">
+      <c r="N43" s="7"/>
+      <c r="O43" s="7">
         <v>6000</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43" s="7">
         <v>400</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="Q43" s="7">
         <v>400</v>
       </c>
-      <c r="R43" s="6">
+      <c r="R43" s="7">
         <v>2500</v>
       </c>
-      <c r="S43" s="6">
-        <v>2</v>
-      </c>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6">
+      <c r="S43" s="7">
+        <v>2</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7">
         <v>1000</v>
       </c>
-      <c r="V43" s="12"/>
-      <c r="W43" s="5">
+      <c r="V43" s="15"/>
+      <c r="W43" s="6">
         <v>0</v>
       </c>
       <c r="X43">
@@ -3640,57 +3658,57 @@
       <c r="B44">
         <v>2100103</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="7">
         <v>3</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="7">
         <v>15003751</v>
       </c>
-      <c r="G44" s="6">
-        <v>2</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6">
-        <v>0</v>
-      </c>
-      <c r="J44" s="6">
-        <v>0</v>
-      </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6">
-        <v>0</v>
-      </c>
-      <c r="M44" s="6">
+      <c r="G44" s="7">
+        <v>2</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
         <v>3100103</v>
       </c>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6">
+      <c r="N44" s="7"/>
+      <c r="O44" s="7">
         <v>6000</v>
       </c>
-      <c r="P44" s="6">
+      <c r="P44" s="7">
         <v>400</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="Q44" s="7">
         <v>400</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R44" s="7">
         <v>2000</v>
       </c>
-      <c r="S44" s="6">
-        <v>2</v>
-      </c>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6">
+      <c r="S44" s="7">
+        <v>2</v>
+      </c>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7">
         <v>1000</v>
       </c>
-      <c r="V44" s="12"/>
-      <c r="W44" s="5">
+      <c r="V44" s="15"/>
+      <c r="W44" s="6">
         <v>0</v>
       </c>
       <c r="X44">
@@ -3704,57 +3722,57 @@
       <c r="B45">
         <v>2100104</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="7">
         <v>4</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="7">
         <v>15003751</v>
       </c>
-      <c r="G45" s="6">
-        <v>2</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6">
-        <v>0</v>
-      </c>
-      <c r="J45" s="6">
-        <v>0</v>
-      </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6">
-        <v>0</v>
-      </c>
-      <c r="M45" s="6">
+      <c r="G45" s="7">
+        <v>2</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
         <v>3100104</v>
       </c>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6">
+      <c r="N45" s="7"/>
+      <c r="O45" s="7">
         <v>6000</v>
       </c>
-      <c r="P45" s="6">
+      <c r="P45" s="7">
         <v>400</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="Q45" s="7">
         <v>400</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="7">
         <v>1500</v>
       </c>
-      <c r="S45" s="6">
-        <v>2</v>
-      </c>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6">
+      <c r="S45" s="7">
+        <v>2</v>
+      </c>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7">
         <v>1000</v>
       </c>
-      <c r="V45" s="12"/>
-      <c r="W45" s="5">
+      <c r="V45" s="15"/>
+      <c r="W45" s="6">
         <v>0</v>
       </c>
       <c r="X45">
@@ -3768,57 +3786,57 @@
       <c r="B46">
         <v>2100105</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="7">
         <v>5</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="7">
         <v>15003751</v>
       </c>
-      <c r="G46" s="6">
-        <v>2</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6">
-        <v>0</v>
-      </c>
-      <c r="J46" s="6">
-        <v>0</v>
-      </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6">
-        <v>0</v>
-      </c>
-      <c r="M46" s="6">
+      <c r="G46" s="7">
+        <v>2</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
         <v>3100105</v>
       </c>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6">
+      <c r="N46" s="7"/>
+      <c r="O46" s="7">
         <v>6000</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46" s="7">
         <v>400</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="Q46" s="7">
         <v>400</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="7">
         <v>1000</v>
       </c>
-      <c r="S46" s="6">
-        <v>2</v>
-      </c>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6">
+      <c r="S46" s="7">
+        <v>2</v>
+      </c>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7">
         <v>1000</v>
       </c>
-      <c r="V46" s="12"/>
-      <c r="W46" s="5">
+      <c r="V46" s="15"/>
+      <c r="W46" s="6">
         <v>0</v>
       </c>
       <c r="X46">
@@ -3826,49 +3844,49 @@
       </c>
     </row>
     <row r="47" spans="3:22">
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="12"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="15"/>
     </row>
     <row r="48" customFormat="1" spans="3:23">
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="12"/>
-      <c r="W48" s="5"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="6"/>
     </row>
     <row r="49" customFormat="1" spans="1:23">
       <c r="A49" t="s">
@@ -3877,57 +3895,57 @@
       <c r="B49">
         <v>2100201</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6">
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7">
         <v>15003752</v>
       </c>
-      <c r="G49" s="6">
-        <v>0</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6">
-        <v>0</v>
-      </c>
-      <c r="J49" s="6">
-        <v>0</v>
-      </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6">
-        <v>0</v>
-      </c>
-      <c r="M49" s="6">
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
         <v>13100101</v>
       </c>
-      <c r="N49" s="10"/>
-      <c r="O49" s="6">
-        <v>0</v>
-      </c>
-      <c r="P49" s="6">
+      <c r="N49" s="13"/>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+      <c r="P49" s="7">
         <v>466</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="Q49" s="7">
         <v>200</v>
       </c>
-      <c r="R49" s="6">
+      <c r="R49" s="7">
         <v>3000</v>
       </c>
-      <c r="S49" s="6">
-        <v>2</v>
-      </c>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6">
+      <c r="S49" s="7">
+        <v>2</v>
+      </c>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7">
         <v>1000</v>
       </c>
-      <c r="V49" s="12"/>
-      <c r="W49" s="5">
+      <c r="V49" s="15"/>
+      <c r="W49" s="6">
         <v>15008014</v>
       </c>
     </row>
@@ -3938,54 +3956,54 @@
       <c r="B50">
         <v>2100202</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="6">
-        <v>2</v>
-      </c>
-      <c r="F50" s="6">
+      <c r="E50" s="7">
+        <v>2</v>
+      </c>
+      <c r="F50" s="7">
         <v>15003752</v>
       </c>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>0</v>
-      </c>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6">
-        <v>0</v>
-      </c>
-      <c r="M50" s="6" t="s">
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N50" s="10"/>
-      <c r="O50" s="6">
-        <v>0</v>
-      </c>
-      <c r="P50" s="6">
+      <c r="N50" s="13"/>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7">
         <v>466</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="Q50" s="7">
         <v>200</v>
       </c>
-      <c r="R50" s="6">
+      <c r="R50" s="7">
         <v>3000</v>
       </c>
-      <c r="S50" s="6">
-        <v>2</v>
-      </c>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="12"/>
+      <c r="S50" s="7">
+        <v>2</v>
+      </c>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="15"/>
     </row>
     <row r="51" ht="27" spans="1:22">
       <c r="A51" t="s">
@@ -3994,54 +4012,54 @@
       <c r="B51">
         <v>2100203</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="7">
         <v>3</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="7">
         <v>15003752</v>
       </c>
-      <c r="G51" s="6">
-        <v>0</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6">
-        <v>0</v>
-      </c>
-      <c r="M51" s="6" t="s">
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N51" s="10"/>
-      <c r="O51" s="6">
-        <v>0</v>
-      </c>
-      <c r="P51" s="6">
+      <c r="N51" s="13"/>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7">
         <v>466</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="Q51" s="7">
         <v>200</v>
       </c>
-      <c r="R51" s="6">
+      <c r="R51" s="7">
         <v>3000</v>
       </c>
-      <c r="S51" s="6">
-        <v>2</v>
-      </c>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="12"/>
+      <c r="S51" s="7">
+        <v>2</v>
+      </c>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="15"/>
     </row>
     <row r="52" ht="27" spans="1:22">
       <c r="A52" t="s">
@@ -4050,54 +4068,54 @@
       <c r="B52">
         <v>2100204</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="7">
         <v>4</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="7">
         <v>15003752</v>
       </c>
-      <c r="G52" s="6">
-        <v>0</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6">
-        <v>0</v>
-      </c>
-      <c r="M52" s="6" t="s">
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N52" s="10"/>
-      <c r="O52" s="6">
-        <v>0</v>
-      </c>
-      <c r="P52" s="6">
+      <c r="N52" s="13"/>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7">
         <v>466</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="Q52" s="7">
         <v>200</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52" s="7">
         <v>3000</v>
       </c>
-      <c r="S52" s="6">
-        <v>2</v>
-      </c>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="12"/>
+      <c r="S52" s="7">
+        <v>2</v>
+      </c>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="15"/>
     </row>
     <row r="53" ht="40.5" spans="1:22">
       <c r="A53" t="s">
@@ -4106,98 +4124,98 @@
       <c r="B53">
         <v>2100205</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="7">
         <v>5</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="7">
         <v>15003752</v>
       </c>
-      <c r="G53" s="6">
-        <v>0</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6">
-        <v>0</v>
-      </c>
-      <c r="J53" s="6">
-        <v>0</v>
-      </c>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6">
-        <v>0</v>
-      </c>
-      <c r="M53" s="6" t="s">
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N53" s="10"/>
-      <c r="O53" s="6">
-        <v>0</v>
-      </c>
-      <c r="P53" s="6">
+      <c r="N53" s="13"/>
+      <c r="O53" s="7">
+        <v>0</v>
+      </c>
+      <c r="P53" s="7">
         <v>466</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="Q53" s="7">
         <v>200</v>
       </c>
-      <c r="R53" s="6">
+      <c r="R53" s="7">
         <v>3000</v>
       </c>
-      <c r="S53" s="6">
-        <v>2</v>
-      </c>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="12"/>
+      <c r="S53" s="7">
+        <v>2</v>
+      </c>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="15"/>
     </row>
     <row r="54" spans="3:22">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="12"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="15"/>
     </row>
     <row r="55" spans="3:22">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="12"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="15"/>
     </row>
     <row r="56" customFormat="1" ht="27" spans="1:23">
       <c r="A56" t="s">
@@ -4206,55 +4224,55 @@
       <c r="B56">
         <v>2100301</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="6">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6">
+      <c r="E56" s="7">
+        <v>1</v>
+      </c>
+      <c r="F56" s="7">
         <v>15003755</v>
       </c>
-      <c r="G56" s="6">
-        <v>0</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6">
-        <v>0</v>
-      </c>
-      <c r="J56" s="6">
-        <v>1</v>
-      </c>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6">
-        <v>2</v>
-      </c>
-      <c r="M56" s="10" t="s">
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7">
+        <v>2</v>
+      </c>
+      <c r="M56" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N56" s="10"/>
-      <c r="O56" s="6">
-        <v>0</v>
-      </c>
-      <c r="P56" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="6">
-        <v>0</v>
-      </c>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6">
-        <v>2</v>
-      </c>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6">
+      <c r="N56" s="13"/>
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
+      <c r="P56" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>0</v>
+      </c>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7">
+        <v>2</v>
+      </c>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7">
         <v>1000</v>
       </c>
-      <c r="V56" s="12"/>
-      <c r="W56" s="5">
+      <c r="V56" s="15"/>
+      <c r="W56" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4265,55 +4283,55 @@
       <c r="B57">
         <v>2100302</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="6">
-        <v>2</v>
-      </c>
-      <c r="F57" s="6">
+      <c r="E57" s="7">
+        <v>2</v>
+      </c>
+      <c r="F57" s="7">
         <v>15003755</v>
       </c>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6">
-        <v>0</v>
-      </c>
-      <c r="J57" s="6">
-        <v>1</v>
-      </c>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6">
-        <v>2</v>
-      </c>
-      <c r="M57" s="10" t="s">
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <v>1</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7">
+        <v>2</v>
+      </c>
+      <c r="M57" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="N57" s="10"/>
-      <c r="O57" s="6">
-        <v>0</v>
-      </c>
-      <c r="P57" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="6">
-        <v>0</v>
-      </c>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6">
-        <v>2</v>
-      </c>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6">
+      <c r="N57" s="13"/>
+      <c r="O57" s="7">
+        <v>0</v>
+      </c>
+      <c r="P57" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0</v>
+      </c>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7">
+        <v>2</v>
+      </c>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7">
         <v>1000</v>
       </c>
-      <c r="V57" s="12"/>
-      <c r="W57" s="5">
+      <c r="V57" s="15"/>
+      <c r="W57" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4324,55 +4342,55 @@
       <c r="B58">
         <v>2100303</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="7">
         <v>3</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="7">
         <v>15003755</v>
       </c>
-      <c r="G58" s="6">
-        <v>0</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6">
-        <v>0</v>
-      </c>
-      <c r="J58" s="6">
-        <v>1</v>
-      </c>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6">
-        <v>2</v>
-      </c>
-      <c r="M58" s="10" t="s">
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <v>1</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7">
+        <v>2</v>
+      </c>
+      <c r="M58" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="N58" s="10"/>
-      <c r="O58" s="6">
-        <v>0</v>
-      </c>
-      <c r="P58" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="6">
-        <v>0</v>
-      </c>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6">
-        <v>2</v>
-      </c>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6">
+      <c r="N58" s="13"/>
+      <c r="O58" s="7">
+        <v>0</v>
+      </c>
+      <c r="P58" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>0</v>
+      </c>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7">
+        <v>2</v>
+      </c>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7">
         <v>1000</v>
       </c>
-      <c r="V58" s="12"/>
-      <c r="W58" s="5">
+      <c r="V58" s="15"/>
+      <c r="W58" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4383,55 +4401,55 @@
       <c r="B59">
         <v>2100304</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="7">
         <v>4</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="7">
         <v>15003755</v>
       </c>
-      <c r="G59" s="6">
-        <v>0</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6">
-        <v>0</v>
-      </c>
-      <c r="J59" s="6">
-        <v>1</v>
-      </c>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6">
-        <v>2</v>
-      </c>
-      <c r="M59" s="10" t="s">
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <v>1</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7">
+        <v>2</v>
+      </c>
+      <c r="M59" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="N59" s="10"/>
-      <c r="O59" s="6">
-        <v>0</v>
-      </c>
-      <c r="P59" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="6">
-        <v>0</v>
-      </c>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6">
-        <v>2</v>
-      </c>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6">
+      <c r="N59" s="13"/>
+      <c r="O59" s="7">
+        <v>0</v>
+      </c>
+      <c r="P59" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>0</v>
+      </c>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7">
+        <v>2</v>
+      </c>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7">
         <v>1000</v>
       </c>
-      <c r="V59" s="12"/>
-      <c r="W59" s="5">
+      <c r="V59" s="15"/>
+      <c r="W59" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4442,101 +4460,101 @@
       <c r="B60">
         <v>2100305</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="7">
         <v>5</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="7">
         <v>15003755</v>
       </c>
-      <c r="G60" s="6">
-        <v>0</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6">
-        <v>0</v>
-      </c>
-      <c r="J60" s="6">
-        <v>1</v>
-      </c>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6">
-        <v>2</v>
-      </c>
-      <c r="M60" s="10" t="s">
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>1</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7">
+        <v>2</v>
+      </c>
+      <c r="M60" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="N60" s="10"/>
-      <c r="O60" s="6">
-        <v>0</v>
-      </c>
-      <c r="P60" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="6">
-        <v>0</v>
-      </c>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6">
-        <v>2</v>
-      </c>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6">
+      <c r="N60" s="13"/>
+      <c r="O60" s="7">
+        <v>0</v>
+      </c>
+      <c r="P60" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>0</v>
+      </c>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7">
+        <v>2</v>
+      </c>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7">
         <v>1000</v>
       </c>
-      <c r="V60" s="12"/>
-      <c r="W60" s="5">
+      <c r="V60" s="15"/>
+      <c r="W60" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:22">
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="12"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="15"/>
     </row>
     <row r="62" spans="3:22">
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="12"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="15"/>
     </row>
     <row r="63" customFormat="1" spans="1:23">
       <c r="A63" t="s">
@@ -4545,55 +4563,55 @@
       <c r="B63">
         <v>2100401</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="6">
-        <v>1</v>
-      </c>
-      <c r="F63" s="6">
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7">
         <v>15003752</v>
       </c>
-      <c r="G63" s="6">
-        <v>0</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6">
-        <v>0</v>
-      </c>
-      <c r="J63" s="6">
-        <v>0</v>
-      </c>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6">
-        <v>2</v>
-      </c>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="6">
-        <v>0</v>
-      </c>
-      <c r="P63" s="6">
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7">
+        <v>2</v>
+      </c>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="7">
+        <v>0</v>
+      </c>
+      <c r="P63" s="7">
         <v>466</v>
       </c>
-      <c r="Q63" s="6">
+      <c r="Q63" s="7">
         <v>200</v>
       </c>
-      <c r="R63" s="6">
+      <c r="R63" s="7">
         <v>3000</v>
       </c>
-      <c r="S63" s="6">
-        <v>2</v>
-      </c>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6">
+      <c r="S63" s="7">
+        <v>2</v>
+      </c>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7">
         <v>1000</v>
       </c>
-      <c r="V63" s="12"/>
-      <c r="W63" s="5">
+      <c r="V63" s="15"/>
+      <c r="W63" s="6">
         <v>15008014</v>
       </c>
     </row>
@@ -4604,55 +4622,55 @@
       <c r="B64">
         <v>2100402</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="6">
-        <v>2</v>
-      </c>
-      <c r="F64" s="6">
+      <c r="E64" s="7">
+        <v>2</v>
+      </c>
+      <c r="F64" s="7">
         <v>15003752</v>
       </c>
-      <c r="G64" s="6">
-        <v>0</v>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6">
-        <v>0</v>
-      </c>
-      <c r="J64" s="6">
-        <v>0</v>
-      </c>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6">
-        <v>2</v>
-      </c>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="6">
-        <v>0</v>
-      </c>
-      <c r="P64" s="6">
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7">
+        <v>2</v>
+      </c>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="7">
+        <v>0</v>
+      </c>
+      <c r="P64" s="7">
         <v>466</v>
       </c>
-      <c r="Q64" s="6">
+      <c r="Q64" s="7">
         <v>200</v>
       </c>
-      <c r="R64" s="6">
+      <c r="R64" s="7">
         <v>3000</v>
       </c>
-      <c r="S64" s="6">
-        <v>2</v>
-      </c>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6">
+      <c r="S64" s="7">
+        <v>2</v>
+      </c>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7">
         <v>1000</v>
       </c>
-      <c r="V64" s="12"/>
-      <c r="W64" s="5">
+      <c r="V64" s="15"/>
+      <c r="W64" s="6">
         <v>15008014</v>
       </c>
     </row>
@@ -4663,57 +4681,57 @@
       <c r="B65">
         <v>2100403</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="7">
         <v>3</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="7">
         <v>15003752</v>
       </c>
-      <c r="G65" s="6">
-        <v>0</v>
-      </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6">
-        <v>0</v>
-      </c>
-      <c r="J65" s="6">
-        <v>0</v>
-      </c>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6">
-        <v>2</v>
-      </c>
-      <c r="M65" s="10" t="s">
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7">
+        <v>2</v>
+      </c>
+      <c r="M65" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="N65" s="10"/>
-      <c r="O65" s="6">
-        <v>0</v>
-      </c>
-      <c r="P65" s="6">
+      <c r="N65" s="13"/>
+      <c r="O65" s="7">
+        <v>0</v>
+      </c>
+      <c r="P65" s="7">
         <v>466</v>
       </c>
-      <c r="Q65" s="6">
+      <c r="Q65" s="7">
         <v>200</v>
       </c>
-      <c r="R65" s="6">
+      <c r="R65" s="7">
         <v>3000</v>
       </c>
-      <c r="S65" s="6">
-        <v>2</v>
-      </c>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6">
+      <c r="S65" s="7">
+        <v>2</v>
+      </c>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7">
         <v>1000</v>
       </c>
-      <c r="V65" s="12"/>
-      <c r="W65" s="5">
+      <c r="V65" s="15"/>
+      <c r="W65" s="6">
         <v>15008014</v>
       </c>
     </row>
@@ -4724,57 +4742,57 @@
       <c r="B66">
         <v>2100404</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="7">
         <v>4</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="7">
         <v>15003752</v>
       </c>
-      <c r="G66" s="6">
-        <v>0</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6">
-        <v>0</v>
-      </c>
-      <c r="J66" s="6">
-        <v>0</v>
-      </c>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6">
-        <v>2</v>
-      </c>
-      <c r="M66" s="10">
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7">
+        <v>2</v>
+      </c>
+      <c r="M66" s="13">
         <v>14100301</v>
       </c>
-      <c r="N66" s="10"/>
-      <c r="O66" s="6">
-        <v>0</v>
-      </c>
-      <c r="P66" s="6">
+      <c r="N66" s="13"/>
+      <c r="O66" s="7">
+        <v>0</v>
+      </c>
+      <c r="P66" s="7">
         <v>466</v>
       </c>
-      <c r="Q66" s="6">
+      <c r="Q66" s="7">
         <v>200</v>
       </c>
-      <c r="R66" s="6">
+      <c r="R66" s="7">
         <v>3000</v>
       </c>
-      <c r="S66" s="6">
-        <v>2</v>
-      </c>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6">
+      <c r="S66" s="7">
+        <v>2</v>
+      </c>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7">
         <v>1000</v>
       </c>
-      <c r="V66" s="12"/>
-      <c r="W66" s="5">
+      <c r="V66" s="15"/>
+      <c r="W66" s="6">
         <v>15008014</v>
       </c>
     </row>
@@ -4785,103 +4803,103 @@
       <c r="B67">
         <v>2100405</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="7">
         <v>5</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="7">
         <v>15003752</v>
       </c>
-      <c r="G67" s="6">
-        <v>0</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6">
-        <v>0</v>
-      </c>
-      <c r="J67" s="6">
-        <v>0</v>
-      </c>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6">
-        <v>2</v>
-      </c>
-      <c r="M67" s="10" t="s">
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7">
+        <v>2</v>
+      </c>
+      <c r="M67" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="N67" s="10"/>
-      <c r="O67" s="6">
-        <v>0</v>
-      </c>
-      <c r="P67" s="6">
+      <c r="N67" s="13"/>
+      <c r="O67" s="7">
+        <v>0</v>
+      </c>
+      <c r="P67" s="7">
         <v>466</v>
       </c>
-      <c r="Q67" s="6">
+      <c r="Q67" s="7">
         <v>200</v>
       </c>
-      <c r="R67" s="6">
+      <c r="R67" s="7">
         <v>3000</v>
       </c>
-      <c r="S67" s="6">
-        <v>2</v>
-      </c>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6">
+      <c r="S67" s="7">
+        <v>2</v>
+      </c>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7">
         <v>1000</v>
       </c>
-      <c r="V67" s="12"/>
-      <c r="W67" s="5">
+      <c r="V67" s="15"/>
+      <c r="W67" s="6">
         <v>15008014</v>
       </c>
     </row>
     <row r="68" spans="3:22">
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="12"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="15"/>
     </row>
     <row r="69" spans="3:22">
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="12"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="15"/>
     </row>
     <row r="70" customFormat="1" ht="14" customHeight="1" spans="1:24">
       <c r="A70" t="s">
@@ -4890,57 +4908,57 @@
       <c r="B70">
         <v>2100501</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E70" s="6">
-        <v>1</v>
-      </c>
-      <c r="F70" s="6">
+      <c r="E70" s="7">
+        <v>1</v>
+      </c>
+      <c r="F70" s="7">
         <v>15003753</v>
       </c>
-      <c r="G70" s="6">
-        <v>2</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6">
-        <v>0</v>
-      </c>
-      <c r="J70" s="6">
-        <v>0</v>
-      </c>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6">
+      <c r="G70" s="7">
+        <v>2</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7">
         <v>11</v>
       </c>
-      <c r="M70" s="10" t="s">
+      <c r="M70" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="N70" s="10"/>
-      <c r="O70" s="6">
+      <c r="N70" s="13"/>
+      <c r="O70" s="7">
         <v>8000</v>
       </c>
-      <c r="P70" s="6">
+      <c r="P70" s="7">
         <v>180</v>
       </c>
-      <c r="Q70" s="6">
+      <c r="Q70" s="7">
         <v>100</v>
       </c>
-      <c r="R70" s="6">
+      <c r="R70" s="7">
         <v>3000</v>
       </c>
-      <c r="S70" s="6">
-        <v>2</v>
-      </c>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6">
+      <c r="S70" s="7">
+        <v>2</v>
+      </c>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7">
         <v>2667</v>
       </c>
-      <c r="V70" s="12"/>
-      <c r="W70" s="5">
+      <c r="V70" s="15"/>
+      <c r="W70" s="6">
         <v>0</v>
       </c>
       <c r="X70">
@@ -4954,57 +4972,57 @@
       <c r="B71">
         <v>2100502</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E71" s="6">
-        <v>2</v>
-      </c>
-      <c r="F71" s="6">
+      <c r="E71" s="7">
+        <v>2</v>
+      </c>
+      <c r="F71" s="7">
         <v>15003753</v>
       </c>
-      <c r="G71" s="6">
-        <v>2</v>
-      </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6">
-        <v>0</v>
-      </c>
-      <c r="J71" s="6">
-        <v>0</v>
-      </c>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6">
+      <c r="G71" s="7">
+        <v>2</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7">
         <v>11</v>
       </c>
-      <c r="M71" s="10" t="s">
+      <c r="M71" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="N71" s="10"/>
-      <c r="O71" s="6">
+      <c r="N71" s="13"/>
+      <c r="O71" s="7">
         <v>8000</v>
       </c>
-      <c r="P71" s="6">
+      <c r="P71" s="7">
         <v>180</v>
       </c>
-      <c r="Q71" s="6">
+      <c r="Q71" s="7">
         <v>100</v>
       </c>
-      <c r="R71" s="6">
+      <c r="R71" s="7">
         <v>3000</v>
       </c>
-      <c r="S71" s="6">
-        <v>2</v>
-      </c>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6">
+      <c r="S71" s="7">
+        <v>2</v>
+      </c>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7">
         <v>2667</v>
       </c>
-      <c r="V71" s="12"/>
-      <c r="W71" s="5">
+      <c r="V71" s="15"/>
+      <c r="W71" s="6">
         <v>0</v>
       </c>
       <c r="X71">
@@ -5018,57 +5036,57 @@
       <c r="B72">
         <v>2100503</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="7">
         <v>3</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="7">
         <v>15003753</v>
       </c>
-      <c r="G72" s="6">
-        <v>2</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6">
-        <v>0</v>
-      </c>
-      <c r="J72" s="6">
-        <v>0</v>
-      </c>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6">
+      <c r="G72" s="7">
+        <v>2</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>0</v>
+      </c>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7">
         <v>11</v>
       </c>
-      <c r="M72" s="10" t="s">
+      <c r="M72" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="N72" s="10"/>
-      <c r="O72" s="6">
+      <c r="N72" s="13"/>
+      <c r="O72" s="7">
         <v>8000</v>
       </c>
-      <c r="P72" s="6">
+      <c r="P72" s="7">
         <v>180</v>
       </c>
-      <c r="Q72" s="6">
+      <c r="Q72" s="7">
         <v>100</v>
       </c>
-      <c r="R72" s="6">
+      <c r="R72" s="7">
         <v>3000</v>
       </c>
-      <c r="S72" s="6">
-        <v>2</v>
-      </c>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6">
+      <c r="S72" s="7">
+        <v>2</v>
+      </c>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7">
         <v>2667</v>
       </c>
-      <c r="V72" s="12"/>
-      <c r="W72" s="5">
+      <c r="V72" s="15"/>
+      <c r="W72" s="6">
         <v>0</v>
       </c>
       <c r="X72">
@@ -5082,57 +5100,57 @@
       <c r="B73">
         <v>2100504</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="7">
         <v>4</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="7">
         <v>15003753</v>
       </c>
-      <c r="G73" s="6">
-        <v>2</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6">
-        <v>0</v>
-      </c>
-      <c r="J73" s="6">
-        <v>0</v>
-      </c>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6">
+      <c r="G73" s="7">
+        <v>2</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <v>0</v>
+      </c>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7">
         <v>11</v>
       </c>
-      <c r="M73" s="10" t="s">
+      <c r="M73" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="N73" s="10"/>
-      <c r="O73" s="6">
+      <c r="N73" s="13"/>
+      <c r="O73" s="7">
         <v>8000</v>
       </c>
-      <c r="P73" s="6">
+      <c r="P73" s="7">
         <v>180</v>
       </c>
-      <c r="Q73" s="6">
+      <c r="Q73" s="7">
         <v>100</v>
       </c>
-      <c r="R73" s="6">
+      <c r="R73" s="7">
         <v>3000</v>
       </c>
-      <c r="S73" s="6">
-        <v>2</v>
-      </c>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6">
+      <c r="S73" s="7">
+        <v>2</v>
+      </c>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7">
         <v>2667</v>
       </c>
-      <c r="V73" s="12"/>
-      <c r="W73" s="5">
+      <c r="V73" s="15"/>
+      <c r="W73" s="6">
         <v>0</v>
       </c>
       <c r="X73">
@@ -5146,57 +5164,57 @@
       <c r="B74">
         <v>2100505</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="7">
         <v>5</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="7">
         <v>15003753</v>
       </c>
-      <c r="G74" s="6">
-        <v>2</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6">
-        <v>0</v>
-      </c>
-      <c r="J74" s="6">
-        <v>0</v>
-      </c>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6">
+      <c r="G74" s="7">
+        <v>2</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7">
+        <v>0</v>
+      </c>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7">
         <v>11</v>
       </c>
-      <c r="M74" s="10" t="s">
+      <c r="M74" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="N74" s="10"/>
-      <c r="O74" s="6">
+      <c r="N74" s="13"/>
+      <c r="O74" s="7">
         <v>8000</v>
       </c>
-      <c r="P74" s="6">
+      <c r="P74" s="7">
         <v>180</v>
       </c>
-      <c r="Q74" s="6">
+      <c r="Q74" s="7">
         <v>100</v>
       </c>
-      <c r="R74" s="6">
+      <c r="R74" s="7">
         <v>3000</v>
       </c>
-      <c r="S74" s="6">
-        <v>2</v>
-      </c>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6">
+      <c r="S74" s="7">
+        <v>2</v>
+      </c>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7">
         <v>2667</v>
       </c>
-      <c r="V74" s="12"/>
-      <c r="W74" s="5">
+      <c r="V74" s="15"/>
+      <c r="W74" s="6">
         <v>0</v>
       </c>
       <c r="X74">
@@ -5204,48 +5222,48 @@
       </c>
     </row>
     <row r="75" spans="3:22">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="12"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="15"/>
     </row>
     <row r="76" spans="3:22">
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="12"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="15"/>
     </row>
     <row r="77" customFormat="1" ht="14" customHeight="1" spans="1:24">
       <c r="A77" t="s">
@@ -5254,57 +5272,57 @@
       <c r="B77">
         <v>2100601</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="6">
-        <v>1</v>
-      </c>
-      <c r="F77" s="6">
+      <c r="E77" s="7">
+        <v>1</v>
+      </c>
+      <c r="F77" s="7">
         <v>15003753</v>
       </c>
-      <c r="G77" s="6">
-        <v>2</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6">
-        <v>0</v>
-      </c>
-      <c r="J77" s="6">
-        <v>0</v>
-      </c>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6">
+      <c r="G77" s="7">
+        <v>2</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="7">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7">
+        <v>0</v>
+      </c>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7">
         <v>11</v>
       </c>
-      <c r="M77" s="10" t="s">
+      <c r="M77" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="N77" s="10"/>
-      <c r="O77" s="6">
+      <c r="N77" s="13"/>
+      <c r="O77" s="7">
         <v>8000</v>
       </c>
-      <c r="P77" s="6">
+      <c r="P77" s="7">
         <v>180</v>
       </c>
-      <c r="Q77" s="6">
+      <c r="Q77" s="7">
         <v>100</v>
       </c>
-      <c r="R77" s="6">
+      <c r="R77" s="7">
         <v>3000</v>
       </c>
-      <c r="S77" s="6">
-        <v>2</v>
-      </c>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6">
+      <c r="S77" s="7">
+        <v>2</v>
+      </c>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7">
         <v>2667</v>
       </c>
-      <c r="V77" s="12"/>
-      <c r="W77" s="5">
+      <c r="V77" s="15"/>
+      <c r="W77" s="6">
         <v>0</v>
       </c>
       <c r="X77">
@@ -5312,48 +5330,48 @@
       </c>
     </row>
     <row r="78" spans="3:22">
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="12"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="15"/>
     </row>
     <row r="79" spans="3:22">
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="12"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="15"/>
     </row>
     <row r="80" customFormat="1" spans="1:23">
       <c r="A80" t="s">
@@ -5362,57 +5380,57 @@
       <c r="B80">
         <v>2100701</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E80" s="6">
-        <v>1</v>
-      </c>
-      <c r="F80" s="6">
+      <c r="E80" s="7">
+        <v>1</v>
+      </c>
+      <c r="F80" s="7">
         <v>15003752</v>
       </c>
-      <c r="G80" s="6">
-        <v>0</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6">
-        <v>0</v>
-      </c>
-      <c r="J80" s="6">
-        <v>0</v>
-      </c>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6">
-        <v>2</v>
-      </c>
-      <c r="M80" s="10" t="s">
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7">
+        <v>0</v>
+      </c>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7">
+        <v>2</v>
+      </c>
+      <c r="M80" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="N80" s="10"/>
-      <c r="O80" s="6">
-        <v>0</v>
-      </c>
-      <c r="P80" s="6">
+      <c r="N80" s="13"/>
+      <c r="O80" s="7">
+        <v>0</v>
+      </c>
+      <c r="P80" s="7">
         <v>466</v>
       </c>
-      <c r="Q80" s="6">
+      <c r="Q80" s="7">
         <v>200</v>
       </c>
-      <c r="R80" s="6">
+      <c r="R80" s="7">
         <v>3000</v>
       </c>
-      <c r="S80" s="6">
-        <v>2</v>
-      </c>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6">
+      <c r="S80" s="7">
+        <v>2</v>
+      </c>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7">
         <v>1000</v>
       </c>
-      <c r="V80" s="12"/>
-      <c r="W80" s="5">
+      <c r="V80" s="15"/>
+      <c r="W80" s="6">
         <v>15008014</v>
       </c>
     </row>
@@ -5423,57 +5441,57 @@
       <c r="B81">
         <v>2100801</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E81" s="6">
-        <v>1</v>
-      </c>
-      <c r="F81" s="6">
+      <c r="E81" s="7">
+        <v>1</v>
+      </c>
+      <c r="F81" s="7">
         <v>15003752</v>
       </c>
-      <c r="G81" s="6">
-        <v>0</v>
-      </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6">
-        <v>0</v>
-      </c>
-      <c r="J81" s="6">
-        <v>0</v>
-      </c>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6">
-        <v>2</v>
-      </c>
-      <c r="M81" s="10" t="s">
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7">
+        <v>0</v>
+      </c>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7">
+        <v>2</v>
+      </c>
+      <c r="M81" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N81" s="10"/>
-      <c r="O81" s="6">
-        <v>0</v>
-      </c>
-      <c r="P81" s="6">
+      <c r="N81" s="13"/>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+      <c r="P81" s="7">
         <v>466</v>
       </c>
-      <c r="Q81" s="6">
+      <c r="Q81" s="7">
         <v>200</v>
       </c>
-      <c r="R81" s="6">
+      <c r="R81" s="7">
         <v>3000</v>
       </c>
-      <c r="S81" s="6">
-        <v>2</v>
-      </c>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6">
+      <c r="S81" s="7">
+        <v>2</v>
+      </c>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7">
         <v>1000</v>
       </c>
-      <c r="V81" s="12"/>
-      <c r="W81" s="5">
+      <c r="V81" s="15"/>
+      <c r="W81" s="6">
         <v>15008014</v>
       </c>
     </row>
@@ -5484,81 +5502,81 @@
       <c r="B82">
         <v>2100901</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E82" s="6">
-        <v>1</v>
-      </c>
-      <c r="F82" s="6">
+      <c r="E82" s="7">
+        <v>1</v>
+      </c>
+      <c r="F82" s="7">
         <v>15003752</v>
       </c>
-      <c r="G82" s="6">
-        <v>0</v>
-      </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6">
-        <v>0</v>
-      </c>
-      <c r="J82" s="6">
-        <v>0</v>
-      </c>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6">
-        <v>2</v>
-      </c>
-      <c r="M82" s="10" t="s">
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7">
+        <v>0</v>
+      </c>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7">
+        <v>2</v>
+      </c>
+      <c r="M82" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="N82" s="10"/>
-      <c r="O82" s="6">
-        <v>0</v>
-      </c>
-      <c r="P82" s="6">
+      <c r="N82" s="13"/>
+      <c r="O82" s="7">
+        <v>0</v>
+      </c>
+      <c r="P82" s="7">
         <v>466</v>
       </c>
-      <c r="Q82" s="6">
+      <c r="Q82" s="7">
         <v>200</v>
       </c>
-      <c r="R82" s="6">
+      <c r="R82" s="7">
         <v>3000</v>
       </c>
-      <c r="S82" s="6">
-        <v>2</v>
-      </c>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6">
+      <c r="S82" s="7">
+        <v>2</v>
+      </c>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7">
         <v>1000</v>
       </c>
-      <c r="V82" s="12"/>
-      <c r="W82" s="5">
+      <c r="V82" s="15"/>
+      <c r="W82" s="6">
         <v>15008014</v>
       </c>
     </row>
     <row r="83" spans="3:22">
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="12"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="15"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" t="s">
@@ -5567,96 +5585,96 @@
       <c r="B84">
         <v>2500001</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6">
-        <v>1</v>
-      </c>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="12"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7">
+        <v>1</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="15"/>
     </row>
     <row r="85" spans="3:22">
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="12"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="15"/>
     </row>
     <row r="86" spans="3:22">
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="12"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="15"/>
     </row>
     <row r="87" spans="3:22">
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="12"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="15"/>
     </row>
     <row r="88" spans="1:24">
       <c r="A88" t="s">
@@ -5665,53 +5683,53 @@
       <c r="B88">
         <v>2001001</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6">
-        <v>1</v>
-      </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6">
-        <v>0</v>
-      </c>
-      <c r="J88" s="6">
-        <v>0</v>
-      </c>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6">
-        <v>1</v>
-      </c>
-      <c r="M88" s="6">
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7">
+        <v>1</v>
+      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7">
+        <v>0</v>
+      </c>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7">
+        <v>1</v>
+      </c>
+      <c r="M88" s="7">
         <v>3001001</v>
       </c>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6">
-        <v>0</v>
-      </c>
-      <c r="P88" s="9">
+      <c r="N88" s="7"/>
+      <c r="O88" s="7">
+        <v>0</v>
+      </c>
+      <c r="P88" s="12">
         <v>233</v>
       </c>
-      <c r="Q88" s="9">
+      <c r="Q88" s="12">
         <v>100</v>
       </c>
-      <c r="R88" s="6">
-        <v>0</v>
-      </c>
-      <c r="S88" s="6">
-        <v>0</v>
-      </c>
-      <c r="T88" s="6"/>
-      <c r="U88" s="6">
+      <c r="R88" s="7">
+        <v>0</v>
+      </c>
+      <c r="S88" s="7">
+        <v>0</v>
+      </c>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7">
         <v>2000</v>
       </c>
-      <c r="V88" s="12"/>
-      <c r="W88" s="5">
+      <c r="V88" s="15"/>
+      <c r="W88" s="6">
         <v>0</v>
       </c>
       <c r="X88">
@@ -5722,55 +5740,55 @@
       <c r="B89" s="1">
         <v>2001002</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E89" s="9">
-        <v>1</v>
-      </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="9">
-        <v>2</v>
-      </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9">
-        <v>0</v>
-      </c>
-      <c r="J89" s="9">
-        <v>0</v>
-      </c>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9">
-        <v>0</v>
-      </c>
-      <c r="M89" s="9">
+      <c r="E89" s="12">
+        <v>1</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="12">
+        <v>2</v>
+      </c>
+      <c r="H89" s="11"/>
+      <c r="I89" s="12">
+        <v>0</v>
+      </c>
+      <c r="J89" s="12">
+        <v>0</v>
+      </c>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12">
+        <v>0</v>
+      </c>
+      <c r="M89" s="12">
         <v>3001002</v>
       </c>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9">
+      <c r="N89" s="12"/>
+      <c r="O89" s="12">
         <v>99000</v>
       </c>
-      <c r="P89" s="9">
+      <c r="P89" s="12">
         <v>100</v>
       </c>
-      <c r="Q89" s="9">
+      <c r="Q89" s="12">
         <v>500</v>
       </c>
-      <c r="R89" s="9">
+      <c r="R89" s="12">
         <v>1000</v>
       </c>
-      <c r="S89" s="9">
-        <v>2</v>
-      </c>
-      <c r="T89" s="9"/>
-      <c r="U89" s="6">
+      <c r="S89" s="12">
+        <v>2</v>
+      </c>
+      <c r="T89" s="12"/>
+      <c r="U89" s="7">
         <v>1000</v>
       </c>
-      <c r="V89" s="12"/>
-      <c r="W89" s="5">
+      <c r="V89" s="15"/>
+      <c r="W89" s="6">
         <v>0</v>
       </c>
       <c r="X89">
@@ -5784,57 +5802,57 @@
       <c r="B90">
         <v>2001002</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E90" s="9">
-        <v>1</v>
-      </c>
-      <c r="F90" s="6">
+      <c r="E90" s="12">
+        <v>1</v>
+      </c>
+      <c r="F90" s="7">
         <v>15003751</v>
       </c>
-      <c r="G90" s="6">
-        <v>0</v>
-      </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6">
-        <v>0</v>
-      </c>
-      <c r="J90" s="6">
-        <v>0</v>
-      </c>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6">
-        <v>2</v>
-      </c>
-      <c r="M90" s="6">
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7">
+        <v>2</v>
+      </c>
+      <c r="M90" s="7">
         <v>14001010</v>
       </c>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6">
-        <v>0</v>
-      </c>
-      <c r="P90" s="6">
+      <c r="N90" s="7"/>
+      <c r="O90" s="7">
+        <v>0</v>
+      </c>
+      <c r="P90" s="7">
         <v>466</v>
       </c>
-      <c r="Q90" s="6">
+      <c r="Q90" s="7">
         <v>200</v>
       </c>
-      <c r="R90" s="6">
+      <c r="R90" s="7">
         <v>15000</v>
       </c>
-      <c r="S90" s="9">
-        <v>2</v>
-      </c>
-      <c r="T90" s="6"/>
-      <c r="U90" s="6">
+      <c r="S90" s="12">
+        <v>2</v>
+      </c>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7">
         <v>1000</v>
       </c>
-      <c r="V90" s="12"/>
-      <c r="W90" s="5">
+      <c r="V90" s="15"/>
+      <c r="W90" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5845,57 +5863,57 @@
       <c r="B91">
         <v>2001003</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E91" s="9">
-        <v>1</v>
-      </c>
-      <c r="F91" s="6">
+      <c r="E91" s="12">
+        <v>1</v>
+      </c>
+      <c r="F91" s="7">
         <v>15003752</v>
       </c>
-      <c r="G91" s="6">
-        <v>0</v>
-      </c>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6">
-        <v>0</v>
-      </c>
-      <c r="J91" s="6">
-        <v>0</v>
-      </c>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6">
-        <v>0</v>
-      </c>
-      <c r="M91" s="10" t="s">
+      <c r="G91" s="7">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11"/>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7">
+        <v>0</v>
+      </c>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7">
+        <v>0</v>
+      </c>
+      <c r="M91" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="N91" s="10"/>
-      <c r="O91" s="6">
-        <v>0</v>
-      </c>
-      <c r="P91" s="6">
+      <c r="N91" s="13"/>
+      <c r="O91" s="7">
+        <v>0</v>
+      </c>
+      <c r="P91" s="7">
         <v>466</v>
       </c>
-      <c r="Q91" s="6">
+      <c r="Q91" s="7">
         <v>200</v>
       </c>
-      <c r="R91" s="6">
+      <c r="R91" s="7">
         <v>8000</v>
       </c>
-      <c r="S91" s="9">
-        <v>2</v>
-      </c>
-      <c r="T91" s="6"/>
-      <c r="U91" s="6">
+      <c r="S91" s="12">
+        <v>2</v>
+      </c>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7">
         <v>1000</v>
       </c>
-      <c r="V91" s="12"/>
-      <c r="W91" s="5">
+      <c r="V91" s="15"/>
+      <c r="W91" s="6">
         <v>15008014</v>
       </c>
     </row>
@@ -5906,57 +5924,57 @@
       <c r="B92">
         <v>2001004</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="9">
-        <v>1</v>
-      </c>
-      <c r="F92" s="6">
+      <c r="E92" s="12">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7">
         <v>15003753</v>
       </c>
-      <c r="G92" s="6">
-        <v>2</v>
-      </c>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6">
-        <v>1</v>
-      </c>
-      <c r="J92" s="6">
-        <v>0</v>
-      </c>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6">
-        <v>2</v>
-      </c>
-      <c r="M92" s="6">
+      <c r="G92" s="7">
+        <v>2</v>
+      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="7">
+        <v>1</v>
+      </c>
+      <c r="J92" s="7">
+        <v>0</v>
+      </c>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7">
+        <v>2</v>
+      </c>
+      <c r="M92" s="7">
         <v>16001001</v>
       </c>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6">
+      <c r="N92" s="7"/>
+      <c r="O92" s="7">
         <v>100000</v>
       </c>
-      <c r="P92" s="6">
+      <c r="P92" s="7">
         <v>466</v>
       </c>
-      <c r="Q92" s="6">
+      <c r="Q92" s="7">
         <v>200</v>
       </c>
-      <c r="R92" s="6">
+      <c r="R92" s="7">
         <v>7000</v>
       </c>
-      <c r="S92" s="9">
-        <v>2</v>
-      </c>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6">
+      <c r="S92" s="12">
+        <v>2</v>
+      </c>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7">
         <v>1000</v>
       </c>
-      <c r="V92" s="12"/>
-      <c r="W92" s="5">
+      <c r="V92" s="15"/>
+      <c r="W92" s="6">
         <v>0</v>
       </c>
       <c r="X92">
@@ -5970,57 +5988,57 @@
       <c r="B93">
         <v>2001005</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E93" s="9">
-        <v>1</v>
-      </c>
-      <c r="F93" s="6">
+      <c r="E93" s="12">
+        <v>1</v>
+      </c>
+      <c r="F93" s="7">
         <v>15003754</v>
       </c>
-      <c r="G93" s="6">
-        <v>0</v>
-      </c>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6">
-        <v>0</v>
-      </c>
-      <c r="J93" s="6">
-        <v>0</v>
-      </c>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6">
-        <v>2</v>
-      </c>
-      <c r="M93" s="10" t="s">
+      <c r="G93" s="7">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11"/>
+      <c r="I93" s="7">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7">
+        <v>0</v>
+      </c>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7">
+        <v>2</v>
+      </c>
+      <c r="M93" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="N93" s="10"/>
-      <c r="O93" s="6">
-        <v>0</v>
-      </c>
-      <c r="P93" s="6">
+      <c r="N93" s="13"/>
+      <c r="O93" s="7">
+        <v>0</v>
+      </c>
+      <c r="P93" s="7">
         <v>466</v>
       </c>
-      <c r="Q93" s="6">
+      <c r="Q93" s="7">
         <v>200</v>
       </c>
-      <c r="R93" s="6">
+      <c r="R93" s="7">
         <v>25000</v>
       </c>
-      <c r="S93" s="9">
+      <c r="S93" s="12">
         <v>3</v>
       </c>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6">
+      <c r="T93" s="7"/>
+      <c r="U93" s="7">
         <v>1000</v>
       </c>
-      <c r="V93" s="12"/>
-      <c r="W93" s="5">
+      <c r="V93" s="15"/>
+      <c r="W93" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6031,82 +6049,82 @@
       <c r="B94">
         <v>2001006</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E94" s="9">
-        <v>1</v>
-      </c>
-      <c r="F94" s="6">
+      <c r="E94" s="12">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7">
         <v>15003755</v>
       </c>
-      <c r="G94" s="6">
-        <v>0</v>
-      </c>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6">
-        <v>0</v>
-      </c>
-      <c r="J94" s="6">
-        <v>1</v>
-      </c>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6">
-        <v>2</v>
-      </c>
-      <c r="M94" s="10" t="s">
+      <c r="G94" s="7">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="7">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7">
+        <v>1</v>
+      </c>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7">
+        <v>2</v>
+      </c>
+      <c r="M94" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="N94" s="10"/>
-      <c r="O94" s="6">
-        <v>0</v>
-      </c>
-      <c r="P94" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="6">
-        <v>0</v>
-      </c>
-      <c r="R94" s="6">
-        <v>0</v>
-      </c>
-      <c r="S94" s="9">
+      <c r="N94" s="13"/>
+      <c r="O94" s="7">
+        <v>0</v>
+      </c>
+      <c r="P94" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>0</v>
+      </c>
+      <c r="R94" s="7">
+        <v>0</v>
+      </c>
+      <c r="S94" s="12">
         <v>4</v>
       </c>
-      <c r="T94" s="6"/>
-      <c r="U94" s="6">
+      <c r="T94" s="7"/>
+      <c r="U94" s="7">
         <v>1000</v>
       </c>
-      <c r="V94" s="12"/>
-      <c r="W94" s="5">
+      <c r="V94" s="15"/>
+      <c r="W94" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="3:23">
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="12"/>
-      <c r="W95" s="5"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="15"/>
+      <c r="W95" s="6"/>
     </row>
     <row r="96" customFormat="1" spans="1:23">
       <c r="A96" t="s">
@@ -6115,78 +6133,78 @@
       <c r="B96">
         <v>2001008</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6">
+      <c r="E96" s="7"/>
+      <c r="F96" s="7">
         <v>15003755</v>
       </c>
-      <c r="G96" s="6">
-        <v>0</v>
-      </c>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6">
-        <v>0</v>
-      </c>
-      <c r="J96" s="6">
-        <v>0</v>
-      </c>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6">
-        <v>0</v>
-      </c>
-      <c r="M96" s="10" t="s">
+      <c r="G96" s="7">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="7">
+        <v>0</v>
+      </c>
+      <c r="J96" s="7">
+        <v>0</v>
+      </c>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7">
+        <v>0</v>
+      </c>
+      <c r="M96" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N96" s="10"/>
-      <c r="O96" s="6">
-        <v>0</v>
-      </c>
-      <c r="P96" s="6">
+      <c r="N96" s="13"/>
+      <c r="O96" s="7">
+        <v>0</v>
+      </c>
+      <c r="P96" s="7">
         <v>466</v>
       </c>
-      <c r="Q96" s="6">
+      <c r="Q96" s="7">
         <v>200</v>
       </c>
-      <c r="R96" s="6">
+      <c r="R96" s="7">
         <v>2500</v>
       </c>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
-      <c r="U96" s="6">
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7">
         <v>1000</v>
       </c>
-      <c r="V96" s="12"/>
-      <c r="W96" s="5">
+      <c r="V96" s="15"/>
+      <c r="W96" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="3:23">
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="12"/>
-      <c r="W97" s="5"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="15"/>
+      <c r="W97" s="6"/>
     </row>
     <row r="99" spans="1:24">
       <c r="A99" t="s">
@@ -6195,53 +6213,53 @@
       <c r="B99">
         <v>2001021</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6">
-        <v>1</v>
-      </c>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6">
-        <v>0</v>
-      </c>
-      <c r="J99" s="6">
-        <v>0</v>
-      </c>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6">
-        <v>1</v>
-      </c>
-      <c r="M99" s="6">
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7">
+        <v>1</v>
+      </c>
+      <c r="H99" s="11"/>
+      <c r="I99" s="7">
+        <v>0</v>
+      </c>
+      <c r="J99" s="7">
+        <v>0</v>
+      </c>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7">
+        <v>1</v>
+      </c>
+      <c r="M99" s="7">
         <v>3001011</v>
       </c>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6">
-        <v>0</v>
-      </c>
-      <c r="P99" s="6">
+      <c r="N99" s="7"/>
+      <c r="O99" s="7">
+        <v>0</v>
+      </c>
+      <c r="P99" s="7">
         <v>180</v>
       </c>
-      <c r="Q99" s="6">
+      <c r="Q99" s="7">
         <v>100</v>
       </c>
-      <c r="R99" s="6">
-        <v>0</v>
-      </c>
-      <c r="S99" s="6">
-        <v>0</v>
-      </c>
-      <c r="T99" s="6"/>
-      <c r="U99" s="6">
+      <c r="R99" s="7">
+        <v>0</v>
+      </c>
+      <c r="S99" s="7">
+        <v>0</v>
+      </c>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7">
         <v>2667</v>
       </c>
-      <c r="V99" s="12"/>
-      <c r="W99" s="5">
+      <c r="V99" s="15"/>
+      <c r="W99" s="6">
         <v>0</v>
       </c>
       <c r="X99">
@@ -6255,57 +6273,57 @@
       <c r="B100">
         <v>2001022</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E100" s="6">
-        <v>1</v>
-      </c>
-      <c r="F100" s="6">
+      <c r="E100" s="7">
+        <v>1</v>
+      </c>
+      <c r="F100" s="7">
         <v>15003751</v>
       </c>
-      <c r="G100" s="6">
-        <v>2</v>
-      </c>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6">
-        <v>0</v>
-      </c>
-      <c r="J100" s="6">
-        <v>0</v>
-      </c>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6">
-        <v>0</v>
-      </c>
-      <c r="M100" s="6">
+      <c r="G100" s="7">
+        <v>2</v>
+      </c>
+      <c r="H100" s="11"/>
+      <c r="I100" s="7">
+        <v>0</v>
+      </c>
+      <c r="J100" s="7">
+        <v>0</v>
+      </c>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7">
+        <v>0</v>
+      </c>
+      <c r="M100" s="7">
         <v>3001012</v>
       </c>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6">
+      <c r="N100" s="7"/>
+      <c r="O100" s="7">
         <v>6000</v>
       </c>
-      <c r="P100" s="6">
+      <c r="P100" s="7">
         <v>1800</v>
       </c>
-      <c r="Q100" s="6">
+      <c r="Q100" s="7">
         <v>1800</v>
       </c>
-      <c r="R100" s="6">
+      <c r="R100" s="7">
         <v>2000</v>
       </c>
-      <c r="S100" s="6">
-        <v>1</v>
-      </c>
-      <c r="T100" s="6"/>
-      <c r="U100" s="6">
+      <c r="S100" s="7">
+        <v>1</v>
+      </c>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7">
         <v>267</v>
       </c>
-      <c r="V100" s="12"/>
-      <c r="W100" s="5">
+      <c r="V100" s="15"/>
+      <c r="W100" s="6">
         <v>0</v>
       </c>
       <c r="X100">
@@ -6319,57 +6337,57 @@
       <c r="B101">
         <v>2001023</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E101" s="6">
-        <v>1</v>
-      </c>
-      <c r="F101" s="6">
+      <c r="E101" s="7">
+        <v>1</v>
+      </c>
+      <c r="F101" s="7">
         <v>15003752</v>
       </c>
-      <c r="G101" s="6">
-        <v>0</v>
-      </c>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6">
-        <v>0</v>
-      </c>
-      <c r="J101" s="6">
-        <v>0</v>
-      </c>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6">
-        <v>2</v>
-      </c>
-      <c r="M101" s="10" t="s">
+      <c r="G101" s="7">
+        <v>0</v>
+      </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="7">
+        <v>0</v>
+      </c>
+      <c r="J101" s="7">
+        <v>0</v>
+      </c>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7">
+        <v>2</v>
+      </c>
+      <c r="M101" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="N101" s="10"/>
-      <c r="O101" s="6">
-        <v>0</v>
-      </c>
-      <c r="P101" s="6">
+      <c r="N101" s="13"/>
+      <c r="O101" s="7">
+        <v>0</v>
+      </c>
+      <c r="P101" s="7">
         <v>180</v>
       </c>
-      <c r="Q101" s="6">
+      <c r="Q101" s="7">
         <v>100</v>
       </c>
-      <c r="R101" s="6">
+      <c r="R101" s="7">
         <v>15000</v>
       </c>
-      <c r="S101" s="6">
-        <v>2</v>
-      </c>
-      <c r="T101" s="6"/>
-      <c r="U101" s="6">
+      <c r="S101" s="7">
+        <v>2</v>
+      </c>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7">
         <v>2667</v>
       </c>
-      <c r="V101" s="12"/>
-      <c r="W101" s="5">
+      <c r="V101" s="15"/>
+      <c r="W101" s="6">
         <v>15008014</v>
       </c>
     </row>
@@ -6380,57 +6398,57 @@
       <c r="B102">
         <v>2001024</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E102" s="6">
-        <v>1</v>
-      </c>
-      <c r="F102" s="6">
+      <c r="E102" s="7">
+        <v>1</v>
+      </c>
+      <c r="F102" s="7">
         <v>15003753</v>
       </c>
-      <c r="G102" s="6">
-        <v>1</v>
-      </c>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6">
-        <v>0</v>
-      </c>
-      <c r="J102" s="6">
-        <v>0</v>
-      </c>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6">
-        <v>1</v>
-      </c>
-      <c r="M102" s="10" t="s">
+      <c r="G102" s="7">
+        <v>1</v>
+      </c>
+      <c r="H102" s="11"/>
+      <c r="I102" s="7">
+        <v>0</v>
+      </c>
+      <c r="J102" s="7">
+        <v>0</v>
+      </c>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7">
+        <v>1</v>
+      </c>
+      <c r="M102" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="N102" s="10"/>
-      <c r="O102" s="6">
+      <c r="N102" s="13"/>
+      <c r="O102" s="7">
         <v>8000</v>
       </c>
-      <c r="P102" s="6">
+      <c r="P102" s="7">
         <v>180</v>
       </c>
-      <c r="Q102" s="6">
+      <c r="Q102" s="7">
         <v>100</v>
       </c>
-      <c r="R102" s="6">
+      <c r="R102" s="7">
         <v>3000</v>
       </c>
-      <c r="S102" s="6">
-        <v>2</v>
-      </c>
-      <c r="T102" s="6"/>
-      <c r="U102" s="6">
+      <c r="S102" s="7">
+        <v>2</v>
+      </c>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7">
         <v>2667</v>
       </c>
-      <c r="V102" s="12"/>
-      <c r="W102" s="5">
+      <c r="V102" s="15"/>
+      <c r="W102" s="6">
         <v>0</v>
       </c>
       <c r="X102">
@@ -6444,57 +6462,57 @@
       <c r="B103">
         <v>2001025</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E103" s="6">
-        <v>1</v>
-      </c>
-      <c r="F103" s="6">
+      <c r="E103" s="7">
+        <v>1</v>
+      </c>
+      <c r="F103" s="7">
         <v>15003754</v>
       </c>
-      <c r="G103" s="6">
-        <v>1</v>
-      </c>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6">
-        <v>0</v>
-      </c>
-      <c r="J103" s="6">
-        <v>0</v>
-      </c>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6">
-        <v>1</v>
-      </c>
-      <c r="M103" s="10" t="s">
+      <c r="G103" s="7">
+        <v>1</v>
+      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="7">
+        <v>0</v>
+      </c>
+      <c r="J103" s="7">
+        <v>0</v>
+      </c>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7">
+        <v>1</v>
+      </c>
+      <c r="M103" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="N103" s="10"/>
-      <c r="O103" s="6">
+      <c r="N103" s="13"/>
+      <c r="O103" s="7">
         <v>8000</v>
       </c>
-      <c r="P103" s="6">
+      <c r="P103" s="7">
         <v>180</v>
       </c>
-      <c r="Q103" s="6">
+      <c r="Q103" s="7">
         <v>100</v>
       </c>
-      <c r="R103" s="6">
+      <c r="R103" s="7">
         <v>25000</v>
       </c>
-      <c r="S103" s="6">
+      <c r="S103" s="7">
         <v>3</v>
       </c>
-      <c r="T103" s="6"/>
-      <c r="U103" s="6">
+      <c r="T103" s="7"/>
+      <c r="U103" s="7">
         <v>2667</v>
       </c>
-      <c r="V103" s="12"/>
-      <c r="W103" s="5">
+      <c r="V103" s="15"/>
+      <c r="W103" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6505,105 +6523,105 @@
       <c r="B104">
         <v>2001026</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E104" s="6">
-        <v>1</v>
-      </c>
-      <c r="F104" s="6">
+      <c r="E104" s="7">
+        <v>1</v>
+      </c>
+      <c r="F104" s="7">
         <v>15003755</v>
       </c>
-      <c r="G104" s="6">
-        <v>0</v>
-      </c>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6">
-        <v>0</v>
-      </c>
-      <c r="J104" s="6">
-        <v>1</v>
-      </c>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6">
-        <v>2</v>
-      </c>
-      <c r="M104" s="10" t="s">
+      <c r="G104" s="7">
+        <v>0</v>
+      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="7">
+        <v>0</v>
+      </c>
+      <c r="J104" s="7">
+        <v>1</v>
+      </c>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7">
+        <v>2</v>
+      </c>
+      <c r="M104" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="N104" s="10"/>
-      <c r="O104" s="6">
-        <v>0</v>
-      </c>
-      <c r="P104" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="6">
-        <v>0</v>
-      </c>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6">
-        <v>2</v>
-      </c>
-      <c r="T104" s="6"/>
-      <c r="U104" s="6">
+      <c r="N104" s="13"/>
+      <c r="O104" s="7">
+        <v>0</v>
+      </c>
+      <c r="P104" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="7">
+        <v>0</v>
+      </c>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7">
+        <v>2</v>
+      </c>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7">
         <v>2667</v>
       </c>
-      <c r="V104" s="12"/>
-      <c r="W104" s="5">
+      <c r="V104" s="15"/>
+      <c r="W104" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="105" s="2" customFormat="1" spans="1:24">
       <c r="A105"/>
       <c r="B105"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
-      <c r="Q105" s="13"/>
-      <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
-      <c r="T105" s="13"/>
-      <c r="U105" s="6"/>
-      <c r="V105" s="12"/>
-      <c r="W105" s="5"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="16"/>
+      <c r="R105" s="16"/>
+      <c r="S105" s="16"/>
+      <c r="T105" s="16"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="15"/>
+      <c r="W105" s="6"/>
       <c r="X105"/>
     </row>
     <row r="106" ht="12" customHeight="1" spans="3:22">
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="6"/>
-      <c r="Q106" s="6"/>
-      <c r="R106" s="6"/>
-      <c r="S106" s="6"/>
-      <c r="T106" s="6"/>
-      <c r="U106" s="6"/>
-      <c r="V106" s="12"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="7"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+      <c r="V106" s="15"/>
     </row>
     <row r="107" customFormat="1" spans="1:25">
       <c r="A107" t="s">
@@ -6612,55 +6630,55 @@
       <c r="B107">
         <v>2001050</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6">
+      <c r="E107" s="7"/>
+      <c r="F107" s="7">
         <v>15003753</v>
       </c>
-      <c r="G107" s="6">
-        <v>2</v>
-      </c>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6">
-        <v>1</v>
-      </c>
-      <c r="J107" s="6">
-        <v>0</v>
-      </c>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6">
-        <v>0</v>
-      </c>
-      <c r="M107" s="6">
+      <c r="G107" s="7">
+        <v>2</v>
+      </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="7">
+        <v>1</v>
+      </c>
+      <c r="J107" s="7">
+        <v>0</v>
+      </c>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7">
+        <v>0</v>
+      </c>
+      <c r="M107" s="7">
         <v>16001010</v>
       </c>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6">
+      <c r="N107" s="7"/>
+      <c r="O107" s="7">
         <v>10000</v>
       </c>
-      <c r="P107" s="6">
+      <c r="P107" s="7">
         <v>1500</v>
       </c>
-      <c r="Q107" s="6">
-        <v>0</v>
-      </c>
-      <c r="R107" s="6">
+      <c r="Q107" s="7">
+        <v>0</v>
+      </c>
+      <c r="R107" s="7">
         <v>600</v>
       </c>
-      <c r="S107" s="6">
-        <v>2</v>
-      </c>
-      <c r="T107" s="6"/>
-      <c r="U107" s="6">
+      <c r="S107" s="7">
+        <v>2</v>
+      </c>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7">
         <v>1000</v>
       </c>
-      <c r="V107" s="12"/>
-      <c r="W107" s="5">
+      <c r="V107" s="15"/>
+      <c r="W107" s="6">
         <v>0</v>
       </c>
       <c r="X107">
@@ -6671,104 +6689,105 @@
       </c>
     </row>
     <row r="108" customFormat="1" spans="3:23">
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
-      <c r="T108" s="6"/>
-      <c r="U108" s="6"/>
-      <c r="V108" s="12"/>
-      <c r="W108" s="5"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+      <c r="V108" s="15"/>
+      <c r="W108" s="6"/>
     </row>
     <row r="109" customFormat="1" spans="3:23">
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
-      <c r="T109" s="6"/>
-      <c r="U109" s="6"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="5"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="15"/>
+      <c r="W109" s="6"/>
     </row>
     <row r="110" customFormat="1" spans="3:23">
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="6"/>
-      <c r="T110" s="6"/>
-      <c r="U110" s="6"/>
-      <c r="V110" s="12"/>
-      <c r="W110" s="5"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+      <c r="V110" s="15"/>
+      <c r="W110" s="6"/>
     </row>
     <row r="111" customFormat="1" spans="3:23">
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="6"/>
-      <c r="T111" s="6"/>
-      <c r="U111" s="6"/>
-      <c r="V111" s="12"/>
-      <c r="W111" s="5"/>
-    </row>
-    <row r="112" s="3" customFormat="1" spans="21:23">
-      <c r="U112" s="6"/>
-      <c r="V112" s="5"/>
-      <c r="W112" s="5"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7"/>
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="15"/>
+      <c r="W111" s="6"/>
+    </row>
+    <row r="112" s="3" customFormat="1" spans="8:23">
+      <c r="H112" s="5"/>
+      <c r="U112" s="7"/>
+      <c r="V112" s="6"/>
+      <c r="W112" s="6"/>
     </row>
     <row r="113" spans="21:21">
-      <c r="U113" s="6"/>
+      <c r="U113" s="7"/>
     </row>
     <row r="114" spans="1:23">
       <c r="A114" t="s">
@@ -6777,53 +6796,53 @@
       <c r="B114">
         <v>2201101</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6">
-        <v>1</v>
-      </c>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6">
-        <v>0</v>
-      </c>
-      <c r="J114" s="6">
-        <v>0</v>
-      </c>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6">
-        <v>1</v>
-      </c>
-      <c r="M114" s="6">
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7">
+        <v>1</v>
+      </c>
+      <c r="H114" s="11"/>
+      <c r="I114" s="7">
+        <v>0</v>
+      </c>
+      <c r="J114" s="7">
+        <v>0</v>
+      </c>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7">
+        <v>1</v>
+      </c>
+      <c r="M114" s="7">
         <v>3002001</v>
       </c>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6">
-        <v>0</v>
-      </c>
-      <c r="P114" s="6">
+      <c r="N114" s="7"/>
+      <c r="O114" s="7">
+        <v>0</v>
+      </c>
+      <c r="P114" s="7">
         <v>300</v>
       </c>
-      <c r="Q114" s="6">
+      <c r="Q114" s="7">
         <v>300</v>
       </c>
-      <c r="R114" s="6">
-        <v>0</v>
-      </c>
-      <c r="S114" s="6">
-        <v>0</v>
-      </c>
-      <c r="T114" s="6"/>
-      <c r="U114" s="6">
+      <c r="R114" s="7">
+        <v>0</v>
+      </c>
+      <c r="S114" s="7">
+        <v>0</v>
+      </c>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7">
         <v>1540</v>
       </c>
-      <c r="V114" s="12"/>
-      <c r="W114" s="5">
+      <c r="V114" s="15"/>
+      <c r="W114" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6834,55 +6853,55 @@
       <c r="B115">
         <v>2201201</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6">
+      <c r="E115" s="7"/>
+      <c r="F115" s="7">
         <v>15003753</v>
       </c>
-      <c r="G115" s="6">
-        <v>2</v>
-      </c>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6">
-        <v>0</v>
-      </c>
-      <c r="J115" s="6">
-        <v>0</v>
-      </c>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6">
-        <v>2</v>
-      </c>
-      <c r="M115" s="6">
+      <c r="G115" s="7">
+        <v>2</v>
+      </c>
+      <c r="H115" s="11"/>
+      <c r="I115" s="7">
+        <v>0</v>
+      </c>
+      <c r="J115" s="7">
+        <v>0</v>
+      </c>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7">
+        <v>2</v>
+      </c>
+      <c r="M115" s="7">
         <v>13002030</v>
       </c>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6">
+      <c r="N115" s="7"/>
+      <c r="O115" s="7">
         <v>4000</v>
       </c>
-      <c r="P115" s="6">
+      <c r="P115" s="7">
         <v>1500</v>
       </c>
-      <c r="Q115" s="6">
+      <c r="Q115" s="7">
         <v>700</v>
       </c>
-      <c r="R115" s="6">
+      <c r="R115" s="7">
         <v>6500</v>
       </c>
-      <c r="S115" s="6">
-        <v>1</v>
-      </c>
-      <c r="T115" s="6"/>
-      <c r="U115" s="6">
+      <c r="S115" s="7">
+        <v>1</v>
+      </c>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7">
         <v>340</v>
       </c>
-      <c r="V115" s="12"/>
-      <c r="W115" s="5">
+      <c r="V115" s="15"/>
+      <c r="W115" s="6">
         <v>0</v>
       </c>
       <c r="Y115">
@@ -6890,27 +6909,27 @@
       </c>
     </row>
     <row r="116" customFormat="1" spans="3:23">
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="6"/>
-      <c r="Q116" s="6"/>
-      <c r="R116" s="6"/>
-      <c r="S116" s="6"/>
-      <c r="T116" s="6"/>
-      <c r="U116" s="6"/>
-      <c r="V116" s="12"/>
-      <c r="W116" s="5"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+      <c r="V116" s="15"/>
+      <c r="W116" s="6"/>
     </row>
     <row r="117" customFormat="1" spans="1:23">
       <c r="A117" t="s">
@@ -6919,53 +6938,53 @@
       <c r="B117">
         <v>2202101</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6">
-        <v>1</v>
-      </c>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6">
-        <v>0</v>
-      </c>
-      <c r="J117" s="6">
-        <v>0</v>
-      </c>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6">
-        <v>1</v>
-      </c>
-      <c r="M117" s="6">
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7">
+        <v>1</v>
+      </c>
+      <c r="H117" s="11"/>
+      <c r="I117" s="7">
+        <v>0</v>
+      </c>
+      <c r="J117" s="7">
+        <v>0</v>
+      </c>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7">
+        <v>1</v>
+      </c>
+      <c r="M117" s="7">
         <v>3002011</v>
       </c>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6">
-        <v>0</v>
-      </c>
-      <c r="P117" s="6">
+      <c r="N117" s="7"/>
+      <c r="O117" s="7">
+        <v>0</v>
+      </c>
+      <c r="P117" s="7">
         <v>300</v>
       </c>
-      <c r="Q117" s="6">
+      <c r="Q117" s="7">
         <v>200</v>
       </c>
-      <c r="R117" s="6">
-        <v>0</v>
-      </c>
-      <c r="S117" s="6">
-        <v>0</v>
-      </c>
-      <c r="T117" s="6"/>
-      <c r="U117" s="6">
+      <c r="R117" s="7">
+        <v>0</v>
+      </c>
+      <c r="S117" s="7">
+        <v>0</v>
+      </c>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7">
         <v>1400</v>
       </c>
-      <c r="V117" s="12"/>
-      <c r="W117" s="5">
+      <c r="V117" s="15"/>
+      <c r="W117" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6976,55 +6995,55 @@
       <c r="B118">
         <v>2202201</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6">
+      <c r="E118" s="7"/>
+      <c r="F118" s="7">
         <v>15003751</v>
       </c>
-      <c r="G118" s="6">
-        <v>2</v>
-      </c>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6">
-        <v>0</v>
-      </c>
-      <c r="J118" s="6">
-        <v>0</v>
-      </c>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6">
-        <v>0</v>
-      </c>
-      <c r="M118" s="6">
+      <c r="G118" s="7">
+        <v>2</v>
+      </c>
+      <c r="H118" s="11"/>
+      <c r="I118" s="7">
+        <v>0</v>
+      </c>
+      <c r="J118" s="7">
+        <v>0</v>
+      </c>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7">
+        <v>0</v>
+      </c>
+      <c r="M118" s="7">
         <v>3002012</v>
       </c>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6">
+      <c r="N118" s="7"/>
+      <c r="O118" s="7">
         <v>8000</v>
       </c>
-      <c r="P118" s="6">
+      <c r="P118" s="7">
         <v>1000</v>
       </c>
-      <c r="Q118" s="6">
+      <c r="Q118" s="7">
         <v>700</v>
       </c>
-      <c r="R118" s="6">
+      <c r="R118" s="7">
         <v>7000</v>
       </c>
-      <c r="S118" s="6">
-        <v>1</v>
-      </c>
-      <c r="T118" s="6"/>
-      <c r="U118" s="6">
+      <c r="S118" s="7">
+        <v>1</v>
+      </c>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7">
         <v>420</v>
       </c>
-      <c r="V118" s="12"/>
-      <c r="W118" s="5">
+      <c r="V118" s="15"/>
+      <c r="W118" s="6">
         <v>0</v>
       </c>
       <c r="X118">
@@ -7035,44 +7054,44 @@
       </c>
     </row>
     <row r="119" customFormat="1" spans="4:23">
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
-      <c r="R119" s="6"/>
-      <c r="S119" s="6"/>
-      <c r="T119" s="6"/>
-      <c r="U119" s="6"/>
-      <c r="V119" s="12"/>
-      <c r="W119" s="5"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
+      <c r="S119" s="7"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="15"/>
+      <c r="W119" s="6"/>
     </row>
     <row r="120" customFormat="1" spans="4:23">
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
-      <c r="R120" s="6"/>
-      <c r="S120" s="6"/>
-      <c r="T120" s="6"/>
-      <c r="U120" s="6"/>
-      <c r="V120" s="12"/>
-      <c r="W120" s="5"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7"/>
+      <c r="R120" s="7"/>
+      <c r="S120" s="7"/>
+      <c r="T120" s="7"/>
+      <c r="U120" s="7"/>
+      <c r="V120" s="15"/>
+      <c r="W120" s="6"/>
     </row>
     <row r="121" customFormat="1" spans="1:24">
       <c r="A121" t="s">
@@ -7084,49 +7103,49 @@
       <c r="C121" t="s">
         <v>177</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6">
-        <v>1</v>
-      </c>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6">
-        <v>0</v>
-      </c>
-      <c r="J121" s="6">
-        <v>0</v>
-      </c>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6">
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7">
+        <v>1</v>
+      </c>
+      <c r="H121" s="11"/>
+      <c r="I121" s="7">
+        <v>0</v>
+      </c>
+      <c r="J121" s="7">
+        <v>0</v>
+      </c>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7">
         <v>1</v>
       </c>
       <c r="M121">
         <v>3003001</v>
       </c>
-      <c r="O121" s="6">
-        <v>0</v>
-      </c>
-      <c r="P121" s="6">
+      <c r="O121" s="7">
+        <v>0</v>
+      </c>
+      <c r="P121" s="7">
         <v>300</v>
       </c>
-      <c r="Q121" s="6">
+      <c r="Q121" s="7">
         <v>300</v>
       </c>
-      <c r="R121" s="6">
-        <v>0</v>
-      </c>
-      <c r="S121" s="6">
-        <v>0</v>
-      </c>
-      <c r="T121" s="6"/>
-      <c r="U121" s="6">
+      <c r="R121" s="7">
+        <v>0</v>
+      </c>
+      <c r="S121" s="7">
+        <v>0</v>
+      </c>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7">
         <v>1540</v>
       </c>
-      <c r="V121" s="12"/>
-      <c r="W121" s="5">
+      <c r="V121" s="15"/>
+      <c r="W121" s="6">
         <v>0</v>
       </c>
       <c r="X121">
@@ -7140,55 +7159,55 @@
       <c r="B122" s="4">
         <v>2003002</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14">
+      <c r="E122" s="17"/>
+      <c r="F122" s="17">
         <v>15003751</v>
       </c>
-      <c r="G122" s="14">
-        <v>2</v>
-      </c>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14">
-        <v>0</v>
-      </c>
-      <c r="J122" s="14">
-        <v>0</v>
-      </c>
-      <c r="K122" s="14"/>
-      <c r="L122" s="14">
-        <v>1</v>
-      </c>
-      <c r="M122" s="16" t="s">
+      <c r="G122" s="17">
+        <v>2</v>
+      </c>
+      <c r="H122" s="11"/>
+      <c r="I122" s="17">
+        <v>0</v>
+      </c>
+      <c r="J122" s="17">
+        <v>0</v>
+      </c>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17">
+        <v>1</v>
+      </c>
+      <c r="M122" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N122" s="16"/>
-      <c r="O122" s="14">
+      <c r="N122" s="19"/>
+      <c r="O122" s="17">
         <v>8000</v>
       </c>
-      <c r="P122" s="14">
+      <c r="P122" s="17">
         <v>600</v>
       </c>
-      <c r="Q122" s="14">
-        <v>0</v>
-      </c>
-      <c r="R122" s="14">
+      <c r="Q122" s="17">
+        <v>0</v>
+      </c>
+      <c r="R122" s="17">
         <v>2000</v>
       </c>
-      <c r="S122" s="14">
-        <v>1</v>
-      </c>
-      <c r="T122" s="14"/>
-      <c r="U122" s="6">
+      <c r="S122" s="17">
+        <v>1</v>
+      </c>
+      <c r="T122" s="17"/>
+      <c r="U122" s="7">
         <v>1000</v>
       </c>
-      <c r="V122" s="14"/>
-      <c r="W122" s="5">
+      <c r="V122" s="17"/>
+      <c r="W122" s="6">
         <v>0</v>
       </c>
       <c r="X122" s="4">
@@ -7202,55 +7221,55 @@
       <c r="B123" s="4">
         <v>2003003</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14">
+      <c r="E123" s="17"/>
+      <c r="F123" s="17">
         <v>15003753</v>
       </c>
-      <c r="G123" s="14">
-        <v>0</v>
-      </c>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14">
-        <v>0</v>
-      </c>
-      <c r="J123" s="14">
-        <v>0</v>
-      </c>
-      <c r="K123" s="14"/>
-      <c r="L123" s="14">
-        <v>2</v>
-      </c>
-      <c r="M123" s="16" t="s">
+      <c r="G123" s="17">
+        <v>0</v>
+      </c>
+      <c r="H123" s="11"/>
+      <c r="I123" s="17">
+        <v>0</v>
+      </c>
+      <c r="J123" s="17">
+        <v>0</v>
+      </c>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17">
+        <v>2</v>
+      </c>
+      <c r="M123" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="N123" s="16"/>
-      <c r="O123" s="14">
-        <v>0</v>
-      </c>
-      <c r="P123" s="14">
+      <c r="N123" s="19"/>
+      <c r="O123" s="17">
+        <v>0</v>
+      </c>
+      <c r="P123" s="17">
         <v>50</v>
       </c>
-      <c r="Q123" s="14">
-        <v>0</v>
-      </c>
-      <c r="R123" s="14">
+      <c r="Q123" s="17">
+        <v>0</v>
+      </c>
+      <c r="R123" s="17">
         <v>6000</v>
       </c>
-      <c r="S123" s="14">
-        <v>1</v>
-      </c>
-      <c r="T123" s="14"/>
-      <c r="U123" s="6">
+      <c r="S123" s="17">
+        <v>1</v>
+      </c>
+      <c r="T123" s="17"/>
+      <c r="U123" s="7">
         <v>1000</v>
       </c>
-      <c r="V123" s="14"/>
-      <c r="W123" s="5">
+      <c r="V123" s="17"/>
+      <c r="W123" s="6">
         <v>15008005</v>
       </c>
       <c r="X123" s="4">
@@ -7264,55 +7283,55 @@
       <c r="B124" s="4">
         <v>2003004</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C124" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14">
+      <c r="E124" s="17"/>
+      <c r="F124" s="17">
         <v>15003754</v>
       </c>
-      <c r="G124" s="14">
-        <v>2</v>
-      </c>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14">
-        <v>1</v>
-      </c>
-      <c r="J124" s="14">
-        <v>0</v>
-      </c>
-      <c r="K124" s="14"/>
-      <c r="L124" s="14">
-        <v>0</v>
-      </c>
-      <c r="M124" s="14">
+      <c r="G124" s="17">
+        <v>2</v>
+      </c>
+      <c r="H124" s="11"/>
+      <c r="I124" s="17">
+        <v>1</v>
+      </c>
+      <c r="J124" s="17">
+        <v>0</v>
+      </c>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17">
+        <v>0</v>
+      </c>
+      <c r="M124" s="17">
         <v>16001001</v>
       </c>
-      <c r="N124" s="14"/>
-      <c r="O124" s="14">
+      <c r="N124" s="17"/>
+      <c r="O124" s="17">
         <v>8000</v>
       </c>
-      <c r="P124" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="14">
-        <v>0</v>
-      </c>
-      <c r="R124" s="14">
+      <c r="P124" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="17">
+        <v>0</v>
+      </c>
+      <c r="R124" s="17">
         <v>1500</v>
       </c>
-      <c r="S124" s="14">
-        <v>1</v>
-      </c>
-      <c r="T124" s="14"/>
-      <c r="U124" s="6">
+      <c r="S124" s="17">
+        <v>1</v>
+      </c>
+      <c r="T124" s="17"/>
+      <c r="U124" s="7">
         <v>1000</v>
       </c>
-      <c r="V124" s="14"/>
-      <c r="W124" s="5">
+      <c r="V124" s="17"/>
+      <c r="W124" s="6">
         <v>0</v>
       </c>
       <c r="X124" s="4">
@@ -7320,7 +7339,7 @@
       </c>
     </row>
     <row r="125" spans="21:21">
-      <c r="U125" s="6"/>
+      <c r="U125" s="7"/>
     </row>
     <row r="126" customFormat="1" spans="1:24">
       <c r="A126" t="s">
@@ -7329,57 +7348,57 @@
       <c r="B126">
         <v>2003050</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E126" s="6">
-        <v>1</v>
-      </c>
-      <c r="F126" s="6">
+      <c r="E126" s="7">
+        <v>1</v>
+      </c>
+      <c r="F126" s="7">
         <v>15003751</v>
       </c>
-      <c r="G126" s="6">
-        <v>0</v>
-      </c>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6">
-        <v>0</v>
-      </c>
-      <c r="J126" s="6">
-        <v>1</v>
-      </c>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6">
-        <v>2</v>
-      </c>
-      <c r="M126" s="10" t="s">
+      <c r="G126" s="7">
+        <v>0</v>
+      </c>
+      <c r="H126" s="11"/>
+      <c r="I126" s="7">
+        <v>0</v>
+      </c>
+      <c r="J126" s="7">
+        <v>1</v>
+      </c>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7">
+        <v>2</v>
+      </c>
+      <c r="M126" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="N126" s="10"/>
-      <c r="O126" s="6">
-        <v>0</v>
-      </c>
-      <c r="P126" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="6">
-        <v>0</v>
-      </c>
-      <c r="R126" s="6">
-        <v>0</v>
-      </c>
-      <c r="S126" s="6">
-        <v>0</v>
-      </c>
-      <c r="T126" s="6"/>
-      <c r="U126" s="6">
+      <c r="N126" s="13"/>
+      <c r="O126" s="7">
+        <v>0</v>
+      </c>
+      <c r="P126" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="7">
+        <v>0</v>
+      </c>
+      <c r="R126" s="7">
+        <v>0</v>
+      </c>
+      <c r="S126" s="7">
+        <v>0</v>
+      </c>
+      <c r="T126" s="7"/>
+      <c r="U126" s="7">
         <v>1000</v>
       </c>
-      <c r="V126" s="12"/>
-      <c r="W126" s="5">
+      <c r="V126" s="15"/>
+      <c r="W126" s="6">
         <v>0</v>
       </c>
       <c r="X126">
@@ -7393,57 +7412,57 @@
       <c r="B127">
         <v>2003051</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E127" s="6">
-        <v>1</v>
-      </c>
-      <c r="F127" s="6">
+      <c r="E127" s="7">
+        <v>1</v>
+      </c>
+      <c r="F127" s="7">
         <v>15003752</v>
       </c>
-      <c r="G127" s="6">
-        <v>0</v>
-      </c>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6">
-        <v>0</v>
-      </c>
-      <c r="J127" s="6">
-        <v>1</v>
-      </c>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6">
-        <v>2</v>
-      </c>
-      <c r="M127" s="10" t="s">
+      <c r="G127" s="7">
+        <v>0</v>
+      </c>
+      <c r="H127" s="11"/>
+      <c r="I127" s="7">
+        <v>0</v>
+      </c>
+      <c r="J127" s="7">
+        <v>1</v>
+      </c>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7">
+        <v>2</v>
+      </c>
+      <c r="M127" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="N127" s="10"/>
-      <c r="O127" s="6">
-        <v>0</v>
-      </c>
-      <c r="P127" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q127" s="6">
-        <v>0</v>
-      </c>
-      <c r="R127" s="6">
-        <v>0</v>
-      </c>
-      <c r="S127" s="6">
-        <v>1</v>
-      </c>
-      <c r="T127" s="6"/>
-      <c r="U127" s="6">
+      <c r="N127" s="13"/>
+      <c r="O127" s="7">
+        <v>0</v>
+      </c>
+      <c r="P127" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="7">
+        <v>0</v>
+      </c>
+      <c r="R127" s="7">
+        <v>0</v>
+      </c>
+      <c r="S127" s="7">
+        <v>1</v>
+      </c>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7">
         <v>1000</v>
       </c>
-      <c r="V127" s="12"/>
-      <c r="W127" s="5">
+      <c r="V127" s="15"/>
+      <c r="W127" s="6">
         <v>0</v>
       </c>
       <c r="X127">
@@ -7457,57 +7476,57 @@
       <c r="B128">
         <v>2003052</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D128" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E128" s="6">
-        <v>1</v>
-      </c>
-      <c r="F128" s="6">
+      <c r="E128" s="7">
+        <v>1</v>
+      </c>
+      <c r="F128" s="7">
         <v>15003753</v>
       </c>
-      <c r="G128" s="6">
-        <v>0</v>
-      </c>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6">
-        <v>0</v>
-      </c>
-      <c r="J128" s="6">
-        <v>0</v>
-      </c>
-      <c r="K128" s="6"/>
-      <c r="L128" s="6">
-        <v>0</v>
-      </c>
-      <c r="M128" s="10" t="s">
+      <c r="G128" s="7">
+        <v>0</v>
+      </c>
+      <c r="H128" s="11"/>
+      <c r="I128" s="7">
+        <v>0</v>
+      </c>
+      <c r="J128" s="7">
+        <v>0</v>
+      </c>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7">
+        <v>0</v>
+      </c>
+      <c r="M128" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="N128" s="10"/>
-      <c r="O128" s="6">
-        <v>0</v>
-      </c>
-      <c r="P128" s="6">
+      <c r="N128" s="13"/>
+      <c r="O128" s="7">
+        <v>0</v>
+      </c>
+      <c r="P128" s="7">
         <v>1500</v>
       </c>
-      <c r="Q128" s="6">
+      <c r="Q128" s="7">
         <v>700</v>
       </c>
-      <c r="R128" s="6">
+      <c r="R128" s="7">
         <v>12000</v>
       </c>
-      <c r="S128" s="6">
-        <v>2</v>
-      </c>
-      <c r="T128" s="6"/>
-      <c r="U128" s="6">
+      <c r="S128" s="7">
+        <v>2</v>
+      </c>
+      <c r="T128" s="7"/>
+      <c r="U128" s="7">
         <v>340</v>
       </c>
-      <c r="V128" s="12"/>
-      <c r="W128" s="5">
+      <c r="V128" s="15"/>
+      <c r="W128" s="6">
         <v>15008014</v>
       </c>
       <c r="X128">
@@ -7518,7 +7537,7 @@
       </c>
     </row>
     <row r="129" spans="21:21">
-      <c r="U129" s="6"/>
+      <c r="U129" s="7"/>
     </row>
     <row r="132" spans="18:18">
       <c r="R132" t="s">
@@ -7538,47 +7557,47 @@
       <c r="D133" t="s">
         <v>194</v>
       </c>
-      <c r="F133" s="6">
+      <c r="F133" s="7">
         <v>15003753</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="I133" s="6">
-        <v>2</v>
-      </c>
-      <c r="J133" s="6">
-        <v>0</v>
-      </c>
-      <c r="K133" s="6"/>
-      <c r="L133" s="6">
-        <v>0</v>
-      </c>
-      <c r="M133" s="10" t="s">
+      <c r="I133" s="7">
+        <v>2</v>
+      </c>
+      <c r="J133" s="7">
+        <v>0</v>
+      </c>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7">
+        <v>0</v>
+      </c>
+      <c r="M133" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="N133" s="10" t="s">
+      <c r="N133" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="O133" s="6">
-        <v>0</v>
-      </c>
-      <c r="P133" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q133" s="6">
-        <v>0</v>
-      </c>
-      <c r="R133" s="6">
+      <c r="O133" s="7">
+        <v>0</v>
+      </c>
+      <c r="P133" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="7">
+        <v>0</v>
+      </c>
+      <c r="R133" s="7">
         <v>2000</v>
       </c>
-      <c r="S133" s="6"/>
-      <c r="T133" s="6"/>
-      <c r="U133" s="6">
+      <c r="S133" s="7"/>
+      <c r="T133" s="7"/>
+      <c r="U133" s="7">
         <v>1000</v>
       </c>
-      <c r="V133" s="12"/>
-      <c r="W133" s="5">
+      <c r="V133" s="15"/>
+      <c r="W133" s="6">
         <v>15008014</v>
       </c>
       <c r="X133">
@@ -7586,118 +7605,118 @@
       </c>
     </row>
     <row r="134" customFormat="1" spans="3:23">
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="6"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
-      <c r="R134" s="6"/>
-      <c r="S134" s="6"/>
-      <c r="T134" s="6"/>
-      <c r="U134" s="6"/>
-      <c r="V134" s="12"/>
-      <c r="W134" s="5"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="7"/>
+      <c r="R134" s="7"/>
+      <c r="S134" s="7"/>
+      <c r="T134" s="7"/>
+      <c r="U134" s="7"/>
+      <c r="V134" s="15"/>
+      <c r="W134" s="6"/>
     </row>
     <row r="135" customFormat="1" spans="3:23">
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="6"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="6"/>
-      <c r="R135" s="6"/>
-      <c r="S135" s="6"/>
-      <c r="T135" s="6"/>
-      <c r="U135" s="6"/>
-      <c r="V135" s="12"/>
-      <c r="W135" s="5"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7"/>
+      <c r="S135" s="7"/>
+      <c r="T135" s="7"/>
+      <c r="U135" s="7"/>
+      <c r="V135" s="15"/>
+      <c r="W135" s="6"/>
     </row>
     <row r="136" customFormat="1" spans="3:23">
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="6"/>
-      <c r="R136" s="6"/>
-      <c r="S136" s="6"/>
-      <c r="T136" s="6"/>
-      <c r="U136" s="6"/>
-      <c r="V136" s="12"/>
-      <c r="W136" s="5"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7"/>
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
+      <c r="Q136" s="7"/>
+      <c r="R136" s="7"/>
+      <c r="S136" s="7"/>
+      <c r="T136" s="7"/>
+      <c r="U136" s="7"/>
+      <c r="V136" s="15"/>
+      <c r="W136" s="6"/>
     </row>
     <row r="137" customFormat="1" spans="4:23">
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-      <c r="L137" s="6"/>
-      <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
-      <c r="O137" s="6"/>
-      <c r="P137" s="6"/>
-      <c r="Q137" s="6"/>
-      <c r="R137" s="6"/>
-      <c r="S137" s="6"/>
-      <c r="T137" s="6"/>
-      <c r="U137" s="6"/>
-      <c r="V137" s="12"/>
-      <c r="W137" s="5"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="7"/>
+      <c r="T137" s="7"/>
+      <c r="U137" s="7"/>
+      <c r="V137" s="15"/>
+      <c r="W137" s="6"/>
     </row>
     <row r="138" customFormat="1" spans="3:23">
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-      <c r="L138" s="6"/>
-      <c r="M138" s="6"/>
-      <c r="N138" s="6"/>
-      <c r="O138" s="6"/>
-      <c r="P138" s="6"/>
-      <c r="Q138" s="6"/>
-      <c r="R138" s="6"/>
-      <c r="S138" s="6"/>
-      <c r="T138" s="6"/>
-      <c r="U138" s="6"/>
-      <c r="V138" s="12"/>
-      <c r="W138" s="5"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="7"/>
+      <c r="R138" s="7"/>
+      <c r="S138" s="7"/>
+      <c r="T138" s="7"/>
+      <c r="U138" s="7"/>
+      <c r="V138" s="15"/>
+      <c r="W138" s="6"/>
     </row>
     <row r="139" customFormat="1" spans="1:26">
       <c r="A139" t="s">
@@ -7712,47 +7731,47 @@
       <c r="D139" t="s">
         <v>197</v>
       </c>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6">
-        <v>1</v>
-      </c>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6">
-        <v>0</v>
-      </c>
-      <c r="J139" s="6">
-        <v>0</v>
-      </c>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6">
-        <v>1</v>
-      </c>
-      <c r="M139" s="6">
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7">
+        <v>1</v>
+      </c>
+      <c r="H139" s="11"/>
+      <c r="I139" s="7">
+        <v>0</v>
+      </c>
+      <c r="J139" s="7">
+        <v>0</v>
+      </c>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7">
+        <v>1</v>
+      </c>
+      <c r="M139" s="7">
         <v>3061101</v>
       </c>
-      <c r="N139" s="6"/>
-      <c r="O139" s="6">
-        <v>0</v>
-      </c>
-      <c r="P139" s="6">
+      <c r="N139" s="7"/>
+      <c r="O139" s="7">
+        <v>0</v>
+      </c>
+      <c r="P139" s="7">
         <v>300</v>
       </c>
-      <c r="Q139" s="6">
+      <c r="Q139" s="7">
         <v>300</v>
       </c>
-      <c r="R139" s="6">
-        <v>0</v>
-      </c>
-      <c r="S139" s="6">
-        <v>0</v>
-      </c>
-      <c r="T139" s="6"/>
-      <c r="U139" s="6">
+      <c r="R139" s="7">
+        <v>0</v>
+      </c>
+      <c r="S139" s="7">
+        <v>0</v>
+      </c>
+      <c r="T139" s="7"/>
+      <c r="U139" s="7">
         <v>1540</v>
       </c>
-      <c r="V139" s="12"/>
-      <c r="W139" s="5">
+      <c r="V139" s="15"/>
+      <c r="W139" s="6">
         <v>0</v>
       </c>
       <c r="Z139">
@@ -7772,8 +7791,9 @@
       <c r="D140" t="s">
         <v>198</v>
       </c>
-      <c r="V140" s="5"/>
-      <c r="W140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="V140" s="6"/>
+      <c r="W140" s="6"/>
       <c r="Z140">
         <v>101</v>
       </c>
@@ -7791,8 +7811,9 @@
       <c r="D141" t="s">
         <v>199</v>
       </c>
-      <c r="V141" s="5"/>
-      <c r="W141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="V141" s="6"/>
+      <c r="W141" s="6"/>
       <c r="Z141">
         <v>0</v>
       </c>
@@ -7810,47 +7831,47 @@
       <c r="D143" t="s">
         <v>200</v>
       </c>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6">
-        <v>1</v>
-      </c>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6">
-        <v>0</v>
-      </c>
-      <c r="J143" s="6">
-        <v>0</v>
-      </c>
-      <c r="K143" s="6"/>
-      <c r="L143" s="6">
-        <v>1</v>
-      </c>
-      <c r="M143" s="6">
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7">
+        <v>1</v>
+      </c>
+      <c r="H143" s="11"/>
+      <c r="I143" s="7">
+        <v>0</v>
+      </c>
+      <c r="J143" s="7">
+        <v>0</v>
+      </c>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7">
+        <v>1</v>
+      </c>
+      <c r="M143" s="7">
         <v>3062101</v>
       </c>
-      <c r="N143" s="6"/>
-      <c r="O143" s="6">
-        <v>0</v>
-      </c>
-      <c r="P143" s="6">
+      <c r="N143" s="7"/>
+      <c r="O143" s="7">
+        <v>0</v>
+      </c>
+      <c r="P143" s="7">
         <v>300</v>
       </c>
-      <c r="Q143" s="6">
+      <c r="Q143" s="7">
         <v>200</v>
       </c>
-      <c r="R143" s="6">
-        <v>0</v>
-      </c>
-      <c r="S143" s="6">
-        <v>0</v>
-      </c>
-      <c r="T143" s="6"/>
-      <c r="U143" s="6">
+      <c r="R143" s="7">
+        <v>0</v>
+      </c>
+      <c r="S143" s="7">
+        <v>0</v>
+      </c>
+      <c r="T143" s="7"/>
+      <c r="U143" s="7">
         <v>1400</v>
       </c>
-      <c r="V143" s="12"/>
-      <c r="W143" s="5">
+      <c r="V143" s="15"/>
+      <c r="W143" s="6">
         <v>0</v>
       </c>
       <c r="Z143">
@@ -7873,7 +7894,7 @@
       <c r="E144">
         <v>1</v>
       </c>
-      <c r="F144" s="6">
+      <c r="F144" s="7">
         <v>15003751</v>
       </c>
       <c r="G144">
@@ -7935,7 +7956,7 @@
       <c r="E145">
         <v>1</v>
       </c>
-      <c r="F145" s="6">
+      <c r="F145" s="7">
         <v>15003752</v>
       </c>
       <c r="G145">
@@ -7998,12 +8019,13 @@
       <c r="E146">
         <v>1</v>
       </c>
-      <c r="F146" s="6">
+      <c r="F146" s="7">
         <v>15003751</v>
       </c>
       <c r="G146">
         <v>1</v>
       </c>
+      <c r="H146" s="5"/>
       <c r="I146">
         <v>0</v>
       </c>
@@ -8037,13 +8059,76 @@
       <c r="U146">
         <v>1000</v>
       </c>
-      <c r="V146" s="5"/>
-      <c r="W146" s="5"/>
+      <c r="V146" s="6"/>
+      <c r="W146" s="6"/>
       <c r="X146">
         <v>2601005</v>
       </c>
       <c r="Z146">
         <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="1" spans="1:26">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>2602501</v>
+      </c>
+      <c r="C147" t="s">
+        <v>204</v>
+      </c>
+      <c r="D147" t="s">
+        <v>204</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" s="7">
+        <v>15003751</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147" s="5"/>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>5</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>14060101</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>50</v>
+      </c>
+      <c r="Q147">
+        <v>50</v>
+      </c>
+      <c r="R147">
+        <v>5000</v>
+      </c>
+      <c r="S147">
+        <v>1</v>
+      </c>
+      <c r="U147">
+        <v>1000</v>
+      </c>
+      <c r="V147" s="6"/>
+      <c r="W147" s="6"/>
+      <c r="X147"/>
+      <c r="Z147">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16665" windowHeight="8685"/>
+    <workbookView windowWidth="15435" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="206">
   <si>
     <t>#</t>
   </si>
@@ -878,6 +878,9 @@
   </si>
   <si>
     <t>ai 远程兵 给自己加护甲</t>
+  </si>
+  <si>
+    <t>ai 远程兵 给队友加血</t>
   </si>
 </sst>
 </file>
@@ -1943,14 +1946,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z147"/>
+  <dimension ref="A1:Z148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6330" ySplit="2805" topLeftCell="A135" activePane="bottomRight"/>
+      <pane xSplit="6330" ySplit="2805" topLeftCell="A139" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A138" sqref="A138"/>
+      <selection pane="bottomRight" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8129,6 +8132,68 @@
       <c r="X147"/>
       <c r="Z147">
         <v>3</v>
+      </c>
+    </row>
+    <row r="148" customFormat="1" spans="1:26">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>2602601</v>
+      </c>
+      <c r="C148" t="s">
+        <v>205</v>
+      </c>
+      <c r="D148" t="s">
+        <v>205</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" s="7">
+        <v>15003751</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148" s="5"/>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>3</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>4006301</v>
+      </c>
+      <c r="O148">
+        <v>10000</v>
+      </c>
+      <c r="P148">
+        <v>50</v>
+      </c>
+      <c r="Q148">
+        <v>50</v>
+      </c>
+      <c r="R148">
+        <v>2000</v>
+      </c>
+      <c r="S148">
+        <v>1</v>
+      </c>
+      <c r="U148">
+        <v>1000</v>
+      </c>
+      <c r="V148" s="6"/>
+      <c r="W148" s="6"/>
+      <c r="Z148">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="10890"/>
+    <workbookView windowWidth="16365" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="209">
   <si>
     <t>#</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>18003101</t>
+  </si>
+  <si>
+    <t>凤紫夕 大招 lv1</t>
   </si>
   <si>
     <t>怪物1 普通攻击</t>
@@ -1052,12 +1055,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1967,11 +1970,11 @@
   <dimension ref="A1:Z168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6330" ySplit="2805" topLeftCell="P3" activePane="bottomRight"/>
+      <pane xSplit="6330" ySplit="2805" topLeftCell="G3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2431,27 +2434,62 @@
       <c r="V8" s="17"/>
       <c r="W8" s="7"/>
     </row>
-    <row r="9" spans="3:22">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+    <row r="9" customFormat="1" spans="1:23">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2003301</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>15003751</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
       <c r="H9" s="12"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
       <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="L9" s="8">
+        <v>2</v>
+      </c>
+      <c r="M9" s="8">
+        <v>14003301</v>
+      </c>
       <c r="N9" s="14"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
+      <c r="P9" s="8">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>50</v>
+      </c>
+      <c r="R9" s="8">
+        <v>6500</v>
+      </c>
+      <c r="S9" s="8">
+        <v>3</v>
+      </c>
       <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="U9" s="8">
+        <v>2667</v>
+      </c>
       <c r="V9" s="17"/>
+      <c r="W9" s="7"/>
     </row>
     <row r="10" spans="3:22">
       <c r="C10" s="8"/>
@@ -2527,10 +2565,10 @@
         <v>2101101</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -2823,10 +2861,10 @@
         <v>2001101</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -2854,7 +2892,7 @@
         <v>2001201</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8">
@@ -2905,10 +2943,10 @@
         <v>2002101</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -2962,7 +3000,7 @@
         <v>2002201</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8">
@@ -3044,10 +3082,10 @@
         <v>2003201</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E32" s="8">
         <v>1</v>
@@ -3087,10 +3125,10 @@
         <v>2003202</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E33" s="8">
         <v>2</v>
@@ -3130,10 +3168,10 @@
         <v>2003203</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E34" s="8">
         <v>3</v>
@@ -3173,10 +3211,10 @@
         <v>2003204</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E35" s="8">
         <v>4</v>
@@ -3216,10 +3254,10 @@
         <v>2003205</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E36" s="8">
         <v>5</v>
@@ -3281,10 +3319,10 @@
         <v>2003301</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="8">
         <v>1</v>
@@ -3316,10 +3354,10 @@
         <v>2003302</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E39" s="8">
         <v>2</v>
@@ -3373,10 +3411,10 @@
         <v>2003401</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E41" s="8">
         <v>1</v>
@@ -3409,10 +3447,10 @@
         <v>2003402</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E42" s="8">
         <v>2</v>
@@ -3445,10 +3483,10 @@
         <v>2003403</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E43" s="8">
         <v>3</v>
@@ -3481,10 +3519,10 @@
         <v>2003404</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E44" s="8">
         <v>4</v>
@@ -3517,10 +3555,10 @@
         <v>2003405</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E45" s="8">
         <v>5</v>
@@ -3597,10 +3635,10 @@
         <v>2003501</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48" s="8">
         <v>1</v>
@@ -3633,10 +3671,10 @@
         <v>2003502</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="8">
         <v>2</v>
@@ -3669,10 +3707,10 @@
         <v>2003503</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E50" s="8">
         <v>3</v>
@@ -3705,10 +3743,10 @@
         <v>2003504</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E51" s="8">
         <v>4</v>
@@ -3741,10 +3779,10 @@
         <v>2003505</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E52" s="8">
         <v>5</v>
@@ -3800,10 +3838,10 @@
         <v>2003601</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E54" s="8">
         <v>1</v>
@@ -3836,10 +3874,10 @@
         <v>2003701</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E55" s="8">
         <v>1</v>
@@ -3872,10 +3910,10 @@
         <v>2003801</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E56" s="8">
         <v>1</v>
@@ -3997,7 +4035,7 @@
     </row>
     <row r="61" ht="54" spans="2:22">
       <c r="B61" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4025,10 +4063,10 @@
         <v>2100101</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E62" s="8">
         <v>1</v>
@@ -4086,10 +4124,10 @@
         <v>2100102</v>
       </c>
       <c r="C63" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="E63" s="8">
         <v>2</v>
@@ -4147,10 +4185,10 @@
         <v>2100103</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E64" s="8">
         <v>3</v>
@@ -4208,10 +4246,10 @@
         <v>2100104</v>
       </c>
       <c r="C65" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="E65" s="8">
         <v>4</v>
@@ -4269,10 +4307,10 @@
         <v>2100105</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66" s="8">
         <v>5</v>
@@ -4375,10 +4413,10 @@
         <v>2100201</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="8">
         <v>1</v>
@@ -4433,10 +4471,10 @@
         <v>2100202</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="E70" s="8">
         <v>2</v>
@@ -4459,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N70" s="14"/>
       <c r="O70" s="8">
@@ -4486,10 +4524,10 @@
         <v>2100203</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E71" s="8">
         <v>3</v>
@@ -4512,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N71" s="14"/>
       <c r="O71" s="8">
@@ -4539,10 +4577,10 @@
         <v>2100204</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72" s="8">
         <v>4</v>
@@ -4565,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N72" s="14"/>
       <c r="O72" s="8">
@@ -4592,10 +4630,10 @@
         <v>2100205</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E73" s="8">
         <v>5</v>
@@ -4618,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N73" s="14"/>
       <c r="O73" s="8">
@@ -4689,10 +4727,10 @@
         <v>2100301</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E76" s="8">
         <v>1</v>
@@ -4715,7 +4753,7 @@
         <v>2</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N76" s="14"/>
       <c r="O76" s="8">
@@ -4745,10 +4783,10 @@
         <v>2100302</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E77" s="8">
         <v>2</v>
@@ -4771,7 +4809,7 @@
         <v>2</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N77" s="14"/>
       <c r="O77" s="8">
@@ -4801,10 +4839,10 @@
         <v>2100303</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78" s="8">
         <v>3</v>
@@ -4827,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N78" s="14"/>
       <c r="O78" s="8">
@@ -4857,10 +4895,10 @@
         <v>2100304</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E79" s="8">
         <v>4</v>
@@ -4883,7 +4921,7 @@
         <v>2</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N79" s="14"/>
       <c r="O79" s="8">
@@ -4913,10 +4951,10 @@
         <v>2100305</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E80" s="8">
         <v>5</v>
@@ -4939,7 +4977,7 @@
         <v>2</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N80" s="14"/>
       <c r="O80" s="8">
@@ -5013,10 +5051,10 @@
         <v>2100401</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E83" s="8">
         <v>1</v>
@@ -5069,10 +5107,10 @@
         <v>2100402</v>
       </c>
       <c r="C84" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="E84" s="8">
         <v>2</v>
@@ -5125,10 +5163,10 @@
         <v>2100403</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E85" s="8">
         <v>3</v>
@@ -5151,7 +5189,7 @@
         <v>2</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N85" s="14"/>
       <c r="O85" s="8">
@@ -5183,10 +5221,10 @@
         <v>2100404</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E86" s="8">
         <v>4</v>
@@ -5241,10 +5279,10 @@
         <v>2100405</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E87" s="8">
         <v>5</v>
@@ -5267,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N87" s="14"/>
       <c r="O87" s="8">
@@ -5343,10 +5381,10 @@
         <v>2100501</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E90" s="8">
         <v>1</v>
@@ -5369,7 +5407,7 @@
         <v>11</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N90" s="14"/>
       <c r="O90" s="8">
@@ -5404,10 +5442,10 @@
         <v>2100502</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E91" s="8">
         <v>2</v>
@@ -5430,7 +5468,7 @@
         <v>11</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N91" s="14"/>
       <c r="O91" s="8">
@@ -5465,10 +5503,10 @@
         <v>2100503</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E92" s="8">
         <v>3</v>
@@ -5491,7 +5529,7 @@
         <v>11</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N92" s="14"/>
       <c r="O92" s="8">
@@ -5526,10 +5564,10 @@
         <v>2100504</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E93" s="8">
         <v>4</v>
@@ -5552,7 +5590,7 @@
         <v>11</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N93" s="14"/>
       <c r="O93" s="8">
@@ -5587,10 +5625,10 @@
         <v>2100505</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E94" s="8">
         <v>5</v>
@@ -5613,7 +5651,7 @@
         <v>11</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N94" s="14"/>
       <c r="O94" s="8">
@@ -5692,10 +5730,10 @@
         <v>2100601</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E97" s="8">
         <v>1</v>
@@ -5718,7 +5756,7 @@
         <v>11</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N97" s="14"/>
       <c r="O97" s="8">
@@ -5797,10 +5835,10 @@
         <v>2100701</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E100" s="8">
         <v>1</v>
@@ -5823,7 +5861,7 @@
         <v>2</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N100" s="14"/>
       <c r="O100" s="8">
@@ -5855,10 +5893,10 @@
         <v>2100801</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E101" s="8">
         <v>1</v>
@@ -5881,7 +5919,7 @@
         <v>2</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N101" s="14"/>
       <c r="O101" s="8">
@@ -5913,10 +5951,10 @@
         <v>2100901</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E102" s="8">
         <v>1</v>
@@ -5939,7 +5977,7 @@
         <v>2</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N102" s="14"/>
       <c r="O102" s="8">
@@ -5993,7 +6031,7 @@
         <v>2500001</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8">
@@ -6088,10 +6126,10 @@
         <v>2001001</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
@@ -6145,10 +6183,10 @@
         <v>2001002</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E109" s="15">
         <v>1</v>
@@ -6204,10 +6242,10 @@
         <v>2001002</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E110" s="15">
         <v>1</v>
@@ -6262,10 +6300,10 @@
         <v>2001003</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E111" s="15">
         <v>1</v>
@@ -6288,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N111" s="14"/>
       <c r="O111" s="8">
@@ -6320,10 +6358,10 @@
         <v>2001004</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E112" s="15">
         <v>1</v>
@@ -6381,10 +6419,10 @@
         <v>2001005</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E113" s="15">
         <v>1</v>
@@ -6407,7 +6445,7 @@
         <v>2</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N113" s="14"/>
       <c r="O113" s="8">
@@ -6439,10 +6477,10 @@
         <v>2001006</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E114" s="15">
         <v>1</v>
@@ -6465,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N114" s="14"/>
       <c r="O114" s="8">
@@ -6520,10 +6558,10 @@
         <v>2001008</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8">
@@ -6544,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N116" s="14"/>
       <c r="O116" s="8">
@@ -6654,10 +6692,10 @@
         <v>2001022</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E120" s="8">
         <v>1</v>
@@ -6715,10 +6753,10 @@
         <v>2001023</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E121" s="8">
         <v>1</v>
@@ -6741,7 +6779,7 @@
         <v>2</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N121" s="14"/>
       <c r="O121" s="8">
@@ -6773,10 +6811,10 @@
         <v>2001024</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E122" s="8">
         <v>1</v>
@@ -6799,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N122" s="14"/>
       <c r="O122" s="8">
@@ -6834,10 +6872,10 @@
         <v>2001025</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E123" s="8">
         <v>1</v>
@@ -6860,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="M123" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N123" s="14"/>
       <c r="O123" s="8">
@@ -6892,10 +6930,10 @@
         <v>2001026</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E124" s="8">
         <v>1</v>
@@ -6918,7 +6956,7 @@
         <v>2</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N124" s="14"/>
       <c r="O124" s="8">
@@ -6996,10 +7034,10 @@
         <v>2001050</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8">
@@ -7160,10 +7198,10 @@
         <v>2201101</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
@@ -7214,10 +7252,10 @@
         <v>2201201</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8">
@@ -7296,10 +7334,10 @@
         <v>2202101</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
@@ -7350,10 +7388,10 @@
         <v>2202201</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="8">
@@ -7454,10 +7492,10 @@
         <v>2003001</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
@@ -7511,10 +7549,10 @@
         <v>2003002</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E142" s="21"/>
       <c r="F142" s="21">
@@ -7535,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="M142" s="23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N142" s="23"/>
       <c r="O142" s="21">
@@ -7570,10 +7608,10 @@
         <v>2003003</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E143" s="21"/>
       <c r="F143" s="21">
@@ -7594,7 +7632,7 @@
         <v>2</v>
       </c>
       <c r="M143" s="23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N143" s="23"/>
       <c r="O143" s="21">
@@ -7629,10 +7667,10 @@
         <v>2003004</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E144" s="21"/>
       <c r="F144" s="21">
@@ -7691,10 +7729,10 @@
         <v>2003050</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E146" s="8">
         <v>1</v>
@@ -7717,7 +7755,7 @@
         <v>2</v>
       </c>
       <c r="M146" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N146" s="14"/>
       <c r="O146" s="8">
@@ -7752,10 +7790,10 @@
         <v>2003051</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E147" s="8">
         <v>1</v>
@@ -7778,7 +7816,7 @@
         <v>2</v>
       </c>
       <c r="M147" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N147" s="14"/>
       <c r="O147" s="8">
@@ -7813,10 +7851,10 @@
         <v>2003052</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E148" s="8">
         <v>1</v>
@@ -7839,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="M148" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N148" s="14"/>
       <c r="O148" s="8">
@@ -7877,7 +7915,7 @@
     </row>
     <row r="152" spans="18:18">
       <c r="R152" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="153" spans="2:24">
@@ -7885,10 +7923,10 @@
         <v>2005001</v>
       </c>
       <c r="C153" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D153" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F153" s="8">
         <v>15003753</v>
@@ -7907,10 +7945,10 @@
         <v>0</v>
       </c>
       <c r="M153" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N153" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O153" s="8">
         <v>0</v>
@@ -8056,10 +8094,10 @@
         <v>2601101</v>
       </c>
       <c r="C159" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D159" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
@@ -8113,10 +8151,10 @@
         <v>2601202</v>
       </c>
       <c r="C160" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D160" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H160" s="5"/>
       <c r="N160" s="6"/>
@@ -8131,10 +8169,10 @@
         <v>2601302</v>
       </c>
       <c r="C161" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D161" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H161" s="5"/>
       <c r="N161" s="6"/>
@@ -8149,10 +8187,10 @@
         <v>2602101</v>
       </c>
       <c r="C163" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D163" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
@@ -8206,10 +8244,10 @@
         <v>2602201</v>
       </c>
       <c r="C164" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D164" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8265,10 +8303,10 @@
         <v>2602301</v>
       </c>
       <c r="C165" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D165" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8325,10 +8363,10 @@
         <v>2602401</v>
       </c>
       <c r="C166" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D166" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8388,10 +8426,10 @@
         <v>2602501</v>
       </c>
       <c r="C167" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D167" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8449,10 +8487,10 @@
         <v>2602601</v>
       </c>
       <c r="C168" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D168" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E168">
         <v>1</v>

--- a/data_config/Skill.xlsx
+++ b/data_config/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16365" windowHeight="10890"/>
+    <workbookView windowWidth="18855" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="212">
   <si>
     <t>#</t>
   </si>
@@ -443,6 +443,15 @@
   </si>
   <si>
     <t>凤紫夕 大招 lv1</t>
+  </si>
+  <si>
+    <t>夜魂 普通攻击</t>
+  </si>
+  <si>
+    <t>夜魂 q lv1</t>
+  </si>
+  <si>
+    <t>18004101,14004101</t>
   </si>
   <si>
     <t>怪物1 普通攻击</t>
@@ -1055,12 +1064,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1601,16 +1610,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1967,14 +1976,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z168"/>
+  <dimension ref="A1:Z178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6330" ySplit="2805" topLeftCell="G3" activePane="bottomRight"/>
+      <pane xSplit="6330" ySplit="2805" topLeftCell="L4" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2535,45 +2544,83 @@
       <c r="U11" s="8"/>
       <c r="V11" s="17"/>
     </row>
-    <row r="12" spans="3:22">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+    <row r="12" customFormat="1" spans="1:24">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2004101</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
       <c r="H12" s="12"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <v>3004101</v>
+      </c>
       <c r="N12" s="14"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>100</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
       <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="U12" s="8">
+        <v>2667</v>
+      </c>
       <c r="V12" s="17"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:23">
+      <c r="W12" s="7">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>2003101</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:24">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>2101101</v>
+        <v>2004201</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="8">
@@ -2586,10 +2633,10 @@
       <c r="L13" s="8">
         <v>1</v>
       </c>
-      <c r="M13" s="8">
-        <v>3101101</v>
-      </c>
-      <c r="N13" s="14"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="O13" s="8">
         <v>0</v>
       </c>
@@ -2607,11 +2654,14 @@
       </c>
       <c r="T13" s="8"/>
       <c r="U13" s="8">
-        <v>1540</v>
+        <v>2667</v>
       </c>
       <c r="V13" s="17"/>
       <c r="W13" s="7">
         <v>0</v>
+      </c>
+      <c r="X13">
+        <v>2003101</v>
       </c>
     </row>
     <row r="14" spans="3:22">
@@ -2812,27 +2862,62 @@
       <c r="U22" s="8"/>
       <c r="V22" s="17"/>
     </row>
-    <row r="23" spans="3:22">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+    <row r="23" customFormat="1" spans="1:23">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>2101101</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
       <c r="H23" s="12"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
       <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="8">
+        <v>3101101</v>
+      </c>
       <c r="N23" s="14"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>100</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0</v>
+      </c>
       <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
+      <c r="U23" s="8">
+        <v>1540</v>
+      </c>
       <c r="V23" s="17"/>
+      <c r="W23" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="3:22">
       <c r="C24" s="8"/>
@@ -2856,16 +2941,9 @@
       <c r="U24" s="8"/>
       <c r="V24" s="17"/>
     </row>
-    <row r="25" spans="2:22">
-      <c r="B25">
-        <v>2001101</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>61</v>
-      </c>
+    <row r="25" spans="3:22">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2880,24 +2958,15 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="8"/>
-      <c r="S25" s="8">
-        <v>0</v>
-      </c>
+      <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="17"/>
     </row>
-    <row r="26" spans="2:22">
-      <c r="B26">
-        <v>2001201</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>62</v>
-      </c>
+    <row r="26" spans="3:22">
+      <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8">
-        <v>1</v>
-      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="12"/>
@@ -2938,74 +3007,32 @@
       <c r="U27" s="8"/>
       <c r="V27" s="17"/>
     </row>
-    <row r="28" customFormat="1" spans="2:24">
-      <c r="B28">
-        <v>2002101</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>63</v>
-      </c>
+    <row r="28" spans="3:22">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="8">
-        <v>1</v>
-      </c>
+      <c r="G28" s="8"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="8">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0</v>
-      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="8">
-        <v>1</v>
-      </c>
-      <c r="M28" s="8">
-        <v>3000101</v>
-      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="14"/>
-      <c r="O28" s="8">
-        <v>0</v>
-      </c>
-      <c r="P28" s="8">
-        <v>180</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>100</v>
-      </c>
-      <c r="R28" s="8">
-        <v>0</v>
-      </c>
-      <c r="S28" s="8">
-        <v>0</v>
-      </c>
+      <c r="O28" s="8"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="8">
-        <v>2667</v>
-      </c>
+      <c r="U28" s="8"/>
       <c r="V28" s="17"/>
-      <c r="W28" s="7">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>2601021</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22">
-      <c r="B29">
-        <v>2002201</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="29" spans="3:22">
+      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
+      <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="12"/>
@@ -3046,16 +3073,9 @@
       <c r="U30" s="8"/>
       <c r="V30" s="17"/>
     </row>
-    <row r="31" spans="2:22">
-      <c r="B31">
-        <v>2003101</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>56</v>
-      </c>
+    <row r="31" spans="3:22">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -3070,29 +3090,16 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="8"/>
-      <c r="S31" s="8">
-        <v>0</v>
-      </c>
+      <c r="S31" s="8"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="17"/>
     </row>
-    <row r="32" spans="2:22">
-      <c r="B32">
-        <v>2003201</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="8">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8">
-        <v>15003751</v>
-      </c>
+    <row r="32" spans="3:22">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="12"/>
       <c r="I32" s="8"/>
@@ -3102,40 +3109,19 @@
       <c r="M32" s="8"/>
       <c r="N32" s="14"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="8">
-        <v>180</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>100</v>
-      </c>
-      <c r="R32" s="8">
-        <v>5000</v>
-      </c>
-      <c r="S32" s="8">
-        <v>1</v>
-      </c>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
       <c r="T32" s="8"/>
-      <c r="U32" s="8">
-        <v>2667</v>
-      </c>
+      <c r="U32" s="8"/>
       <c r="V32" s="17"/>
     </row>
-    <row r="33" spans="2:22">
-      <c r="B33">
-        <v>2003202</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="8">
-        <v>2</v>
-      </c>
-      <c r="F33" s="8">
-        <v>15003751</v>
-      </c>
+    <row r="33" spans="3:22">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="12"/>
       <c r="I33" s="8"/>
@@ -3145,40 +3131,19 @@
       <c r="M33" s="8"/>
       <c r="N33" s="14"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="8">
-        <v>180</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>100</v>
-      </c>
-      <c r="R33" s="8">
-        <v>5000</v>
-      </c>
-      <c r="S33" s="8">
-        <v>1</v>
-      </c>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
       <c r="T33" s="8"/>
-      <c r="U33" s="8">
-        <v>2667</v>
-      </c>
+      <c r="U33" s="8"/>
       <c r="V33" s="17"/>
     </row>
-    <row r="34" spans="2:22">
-      <c r="B34">
-        <v>2003203</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="8">
-        <v>3</v>
-      </c>
-      <c r="F34" s="8">
-        <v>15003751</v>
-      </c>
+    <row r="34" spans="3:22">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="12"/>
       <c r="I34" s="8"/>
@@ -3188,40 +3153,26 @@
       <c r="M34" s="8"/>
       <c r="N34" s="14"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="8">
-        <v>180</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>100</v>
-      </c>
-      <c r="R34" s="8">
-        <v>5000</v>
-      </c>
-      <c r="S34" s="8">
-        <v>1</v>
-      </c>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
       <c r="T34" s="8"/>
-      <c r="U34" s="8">
-        <v>2667</v>
-      </c>
+      <c r="U34" s="8"/>
       <c r="V34" s="17"/>
     </row>
     <row r="35" spans="2:22">
       <c r="B35">
-        <v>2003204</v>
+        <v>2001101</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="8">
-        <v>4</v>
-      </c>
-      <c r="F35" s="8">
-        <v>15003751</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="12"/>
       <c r="I35" s="8"/>
@@ -3231,40 +3182,28 @@
       <c r="M35" s="8"/>
       <c r="N35" s="14"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="8">
-        <v>180</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>100</v>
-      </c>
-      <c r="R35" s="8">
-        <v>5000</v>
-      </c>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="8"/>
       <c r="S35" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="8"/>
-      <c r="U35" s="8">
-        <v>2667</v>
-      </c>
+      <c r="U35" s="8"/>
       <c r="V35" s="17"/>
     </row>
     <row r="36" spans="2:22">
       <c r="B36">
-        <v>2003205</v>
+        <v>2001201</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>69</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D36" s="8"/>
       <c r="E36" s="8">
-        <v>5</v>
-      </c>
-      <c r="F36" s="8">
-        <v>15003751</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="12"/>
       <c r="I36" s="8"/>
@@ -3274,22 +3213,12 @@
       <c r="M36" s="8"/>
       <c r="N36" s="14"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="8">
-        <v>180</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>100</v>
-      </c>
-      <c r="R36" s="8">
-        <v>5000</v>
-      </c>
-      <c r="S36" s="8">
-        <v>1</v>
-      </c>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
       <c r="T36" s="8"/>
-      <c r="U36" s="8">
-        <v>2667</v>
-      </c>
+      <c r="U36" s="8"/>
       <c r="V36" s="17"/>
     </row>
     <row r="37" spans="3:22">
@@ -3314,57 +3243,75 @@
       <c r="U37" s="8"/>
       <c r="V37" s="17"/>
     </row>
-    <row r="38" spans="2:22">
+    <row r="38" customFormat="1" spans="2:24">
       <c r="B38">
-        <v>2003301</v>
+        <v>2002101</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="8">
-        <v>1</v>
-      </c>
-      <c r="F38" s="8">
-        <v>15003752</v>
-      </c>
-      <c r="G38" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
       <c r="H38" s="12"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0</v>
+      </c>
       <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
+      <c r="L38" s="8">
+        <v>1</v>
+      </c>
+      <c r="M38" s="8">
+        <v>3000101</v>
+      </c>
       <c r="N38" s="14"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="8"/>
+      <c r="O38" s="8">
+        <v>0</v>
+      </c>
+      <c r="P38" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>100</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0</v>
+      </c>
       <c r="S38" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
+      <c r="U38" s="8">
+        <v>2667</v>
+      </c>
       <c r="V38" s="17"/>
+      <c r="W38" s="7">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>2601021</v>
+      </c>
     </row>
     <row r="39" spans="2:22">
       <c r="B39">
-        <v>2003302</v>
+        <v>2002201</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D39" s="8"/>
       <c r="E39" s="8">
-        <v>2</v>
-      </c>
-      <c r="F39" s="8">
-        <v>15003752</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="12"/>
       <c r="I39" s="8"/>
@@ -3377,9 +3324,7 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="8"/>
-      <c r="S39" s="8">
-        <v>3</v>
-      </c>
+      <c r="S39" s="8"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="17"/>
@@ -3406,22 +3351,18 @@
       <c r="U40" s="8"/>
       <c r="V40" s="17"/>
     </row>
-    <row r="41" customFormat="1" spans="2:23">
+    <row r="41" spans="2:22">
       <c r="B41">
-        <v>2003401</v>
+        <v>2003101</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="8">
-        <v>1</v>
-      </c>
-      <c r="F41" s="8">
-        <v>15003751</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="12"/>
       <c r="I41" s="8"/>
@@ -3435,25 +3376,24 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
       <c r="V41" s="17"/>
-      <c r="W41" s="7"/>
-    </row>
-    <row r="42" customFormat="1" spans="2:23">
+    </row>
+    <row r="42" spans="2:22">
       <c r="B42">
-        <v>2003402</v>
+        <v>2003201</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E42" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="8">
         <v>15003751</v>
@@ -3467,29 +3407,36 @@
       <c r="M42" s="8"/>
       <c r="N42" s="14"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="8"/>
+      <c r="P42" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>100</v>
+      </c>
+      <c r="R42" s="8">
+        <v>5000</v>
+      </c>
       <c r="S42" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
+      <c r="U42" s="8">
+        <v>2667</v>
+      </c>
       <c r="V42" s="17"/>
-      <c r="W42" s="7"/>
-    </row>
-    <row r="43" customFormat="1" spans="2:23">
+    </row>
+    <row r="43" spans="2:22">
       <c r="B43">
-        <v>2003403</v>
+        <v>2003202</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E43" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="8">
         <v>15003751</v>
@@ -3503,29 +3450,36 @@
       <c r="M43" s="8"/>
       <c r="N43" s="14"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="8"/>
+      <c r="P43" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>100</v>
+      </c>
+      <c r="R43" s="8">
+        <v>5000</v>
+      </c>
       <c r="S43" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
+      <c r="U43" s="8">
+        <v>2667</v>
+      </c>
       <c r="V43" s="17"/>
-      <c r="W43" s="7"/>
-    </row>
-    <row r="44" customFormat="1" spans="2:23">
+    </row>
+    <row r="44" spans="2:22">
       <c r="B44">
-        <v>2003404</v>
+        <v>2003203</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E44" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" s="8">
         <v>15003751</v>
@@ -3539,29 +3493,36 @@
       <c r="M44" s="8"/>
       <c r="N44" s="14"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="8"/>
+      <c r="P44" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>100</v>
+      </c>
+      <c r="R44" s="8">
+        <v>5000</v>
+      </c>
       <c r="S44" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
+      <c r="U44" s="8">
+        <v>2667</v>
+      </c>
       <c r="V44" s="17"/>
-      <c r="W44" s="7"/>
-    </row>
-    <row r="45" customFormat="1" spans="2:23">
+    </row>
+    <row r="45" spans="2:22">
       <c r="B45">
-        <v>2003405</v>
+        <v>2003204</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E45" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" s="8">
         <v>15003751</v>
@@ -3575,22 +3536,40 @@
       <c r="M45" s="8"/>
       <c r="N45" s="14"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="8"/>
+      <c r="P45" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>100</v>
+      </c>
+      <c r="R45" s="8">
+        <v>5000</v>
+      </c>
       <c r="S45" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
+      <c r="U45" s="8">
+        <v>2667</v>
+      </c>
       <c r="V45" s="17"/>
-      <c r="W45" s="7"/>
-    </row>
-    <row r="46" spans="3:22">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46">
+        <v>2003205</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="8">
+        <v>5</v>
+      </c>
+      <c r="F46" s="8">
+        <v>15003751</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="12"/>
       <c r="I46" s="8"/>
@@ -3600,12 +3579,22 @@
       <c r="M46" s="8"/>
       <c r="N46" s="14"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
+      <c r="P46" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>100</v>
+      </c>
+      <c r="R46" s="8">
+        <v>5000</v>
+      </c>
+      <c r="S46" s="8">
+        <v>1</v>
+      </c>
       <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
+      <c r="U46" s="8">
+        <v>2667</v>
+      </c>
       <c r="V46" s="17"/>
     </row>
     <row r="47" spans="3:22">
@@ -3630,21 +3619,21 @@
       <c r="U47" s="8"/>
       <c r="V47" s="17"/>
     </row>
-    <row r="48" customFormat="1" spans="2:23">
+    <row r="48" spans="2:22">
       <c r="B48">
-        <v>2003501</v>
+        <v>2003301</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E48" s="8">
         <v>1</v>
       </c>
       <c r="F48" s="8">
-        <v>15003751</v>
+        <v>15003752</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="12"/>
@@ -3659,28 +3648,27 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
       <c r="V48" s="17"/>
-      <c r="W48" s="7"/>
-    </row>
-    <row r="49" customFormat="1" spans="2:23">
+    </row>
+    <row r="49" spans="2:22">
       <c r="B49">
-        <v>2003502</v>
+        <v>2003302</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E49" s="8">
         <v>2</v>
       </c>
       <c r="F49" s="8">
-        <v>15003751</v>
+        <v>15003752</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="12"/>
@@ -3695,29 +3683,17 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
       <c r="V49" s="17"/>
-      <c r="W49" s="7"/>
-    </row>
-    <row r="50" customFormat="1" spans="2:23">
-      <c r="B50">
-        <v>2003503</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="8">
-        <v>3</v>
-      </c>
-      <c r="F50" s="8">
-        <v>15003751</v>
-      </c>
+    </row>
+    <row r="50" spans="3:22">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="12"/>
       <c r="I50" s="8"/>
@@ -3730,26 +3706,23 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
       <c r="R50" s="8"/>
-      <c r="S50" s="8">
-        <v>2</v>
-      </c>
+      <c r="S50" s="8"/>
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
       <c r="V50" s="17"/>
-      <c r="W50" s="7"/>
     </row>
     <row r="51" customFormat="1" spans="2:23">
       <c r="B51">
-        <v>2003504</v>
+        <v>2003401</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E51" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F51" s="8">
         <v>15003751</v>
@@ -3776,16 +3749,16 @@
     </row>
     <row r="52" customFormat="1" spans="2:23">
       <c r="B52">
-        <v>2003505</v>
+        <v>2003402</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E52" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F52" s="8">
         <v>15003751</v>
@@ -3810,12 +3783,22 @@
       <c r="V52" s="17"/>
       <c r="W52" s="7"/>
     </row>
-    <row r="53" spans="2:22">
-      <c r="B53" s="10"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
+    <row r="53" customFormat="1" spans="2:23">
+      <c r="B53">
+        <v>2003403</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="8">
+        <v>3</v>
+      </c>
+      <c r="F53" s="8">
+        <v>15003751</v>
+      </c>
       <c r="G53" s="8"/>
       <c r="H53" s="12"/>
       <c r="I53" s="8"/>
@@ -3828,23 +3811,26 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
+      <c r="S53" s="8">
+        <v>2</v>
+      </c>
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
       <c r="V53" s="17"/>
+      <c r="W53" s="7"/>
     </row>
     <row r="54" customFormat="1" spans="2:23">
       <c r="B54">
-        <v>2003601</v>
+        <v>2003404</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E54" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F54" s="8">
         <v>15003751</v>
@@ -3871,16 +3857,16 @@
     </row>
     <row r="55" customFormat="1" spans="2:23">
       <c r="B55">
-        <v>2003701</v>
+        <v>2003405</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E55" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F55" s="8">
         <v>15003751</v>
@@ -3905,22 +3891,11 @@
       <c r="V55" s="17"/>
       <c r="W55" s="7"/>
     </row>
-    <row r="56" customFormat="1" spans="2:23">
-      <c r="B56">
-        <v>2003801</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="8">
-        <v>1</v>
-      </c>
-      <c r="F56" s="8">
-        <v>15003751</v>
-      </c>
+    <row r="56" spans="3:22">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="12"/>
       <c r="I56" s="8"/>
@@ -3933,16 +3908,12 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
       <c r="R56" s="8"/>
-      <c r="S56" s="8">
-        <v>2</v>
-      </c>
+      <c r="S56" s="8"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="17"/>
-      <c r="W56" s="7"/>
-    </row>
-    <row r="57" spans="2:22">
-      <c r="B57" s="10"/>
+    </row>
+    <row r="57" spans="3:22">
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3964,12 +3935,22 @@
       <c r="U57" s="8"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="2:22">
-      <c r="B58" s="10"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+    <row r="58" customFormat="1" spans="2:23">
+      <c r="B58">
+        <v>2003501</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="8">
+        <v>1</v>
+      </c>
+      <c r="F58" s="8">
+        <v>15003751</v>
+      </c>
       <c r="G58" s="8"/>
       <c r="H58" s="12"/>
       <c r="I58" s="8"/>
@@ -3982,17 +3963,30 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
       <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
+      <c r="S58" s="8">
+        <v>2</v>
+      </c>
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
       <c r="V58" s="17"/>
-    </row>
-    <row r="59" spans="2:22">
-      <c r="B59" s="10"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
+      <c r="W58" s="7"/>
+    </row>
+    <row r="59" customFormat="1" spans="2:23">
+      <c r="B59">
+        <v>2003502</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="8">
+        <v>2</v>
+      </c>
+      <c r="F59" s="8">
+        <v>15003751</v>
+      </c>
       <c r="G59" s="8"/>
       <c r="H59" s="12"/>
       <c r="I59" s="8"/>
@@ -4005,17 +3999,30 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
       <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
+      <c r="S59" s="8">
+        <v>2</v>
+      </c>
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
       <c r="V59" s="17"/>
-    </row>
-    <row r="60" spans="2:22">
-      <c r="B60" s="10"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
+      <c r="W59" s="7"/>
+    </row>
+    <row r="60" customFormat="1" spans="2:23">
+      <c r="B60">
+        <v>2003503</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="8">
+        <v>3</v>
+      </c>
+      <c r="F60" s="8">
+        <v>15003751</v>
+      </c>
       <c r="G60" s="8"/>
       <c r="H60" s="12"/>
       <c r="I60" s="8"/>
@@ -4028,19 +4035,30 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
       <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
+      <c r="S60" s="8">
+        <v>2</v>
+      </c>
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
       <c r="V60" s="17"/>
-    </row>
-    <row r="61" ht="54" spans="2:22">
-      <c r="B61" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
+      <c r="W60" s="7"/>
+    </row>
+    <row r="61" customFormat="1" spans="2:23">
+      <c r="B61">
+        <v>2003504</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="8">
+        <v>4</v>
+      </c>
+      <c r="F61" s="8">
+        <v>15003751</v>
+      </c>
       <c r="G61" s="8"/>
       <c r="H61" s="12"/>
       <c r="I61" s="8"/>
@@ -4053,317 +4071,183 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
       <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
+      <c r="S61" s="8">
+        <v>2</v>
+      </c>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
       <c r="V61" s="17"/>
-    </row>
-    <row r="62" customFormat="1" ht="27" spans="2:24">
+      <c r="W61" s="7"/>
+    </row>
+    <row r="62" customFormat="1" spans="2:23">
       <c r="B62">
-        <v>2100101</v>
+        <v>2003505</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E62" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F62" s="8">
         <v>15003751</v>
       </c>
-      <c r="G62" s="8">
-        <v>2</v>
-      </c>
+      <c r="G62" s="8"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="8">
-        <v>0</v>
-      </c>
-      <c r="J62" s="8">
-        <v>0</v>
-      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
       <c r="K62" s="8"/>
-      <c r="L62" s="8">
-        <v>0</v>
-      </c>
-      <c r="M62" s="8">
-        <v>3100101</v>
-      </c>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
       <c r="N62" s="14"/>
-      <c r="O62" s="8">
-        <v>6000</v>
-      </c>
-      <c r="P62" s="8">
-        <v>400</v>
-      </c>
-      <c r="Q62" s="8">
-        <v>400</v>
-      </c>
-      <c r="R62" s="8">
-        <v>3000</v>
-      </c>
+      <c r="O62" s="8"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="8"/>
       <c r="S62" s="8">
         <v>2</v>
       </c>
       <c r="T62" s="8"/>
-      <c r="U62" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U62" s="8"/>
       <c r="V62" s="17"/>
-      <c r="W62" s="7">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" ht="27" spans="2:24">
-      <c r="B63">
-        <v>2100102</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="8">
-        <v>2</v>
-      </c>
-      <c r="F63" s="8">
-        <v>15003751</v>
-      </c>
-      <c r="G63" s="8">
-        <v>2</v>
-      </c>
+      <c r="W62" s="7"/>
+    </row>
+    <row r="63" spans="2:22">
+      <c r="B63" s="10"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="8">
-        <v>0</v>
-      </c>
-      <c r="J63" s="8">
-        <v>0</v>
-      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
       <c r="K63" s="8"/>
-      <c r="L63" s="8">
-        <v>0</v>
-      </c>
-      <c r="M63" s="8">
-        <v>3100102</v>
-      </c>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
       <c r="N63" s="14"/>
-      <c r="O63" s="8">
-        <v>6000</v>
-      </c>
-      <c r="P63" s="8">
-        <v>400</v>
-      </c>
-      <c r="Q63" s="8">
-        <v>400</v>
-      </c>
-      <c r="R63" s="8">
-        <v>2500</v>
-      </c>
-      <c r="S63" s="8">
-        <v>2</v>
-      </c>
+      <c r="O63" s="8"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
       <c r="T63" s="8"/>
-      <c r="U63" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U63" s="8"/>
       <c r="V63" s="17"/>
-      <c r="W63" s="7">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" ht="27" spans="2:24">
+    </row>
+    <row r="64" customFormat="1" spans="2:23">
       <c r="B64">
-        <v>2100103</v>
+        <v>2003601</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E64" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64" s="8">
         <v>15003751</v>
       </c>
-      <c r="G64" s="8">
-        <v>2</v>
-      </c>
+      <c r="G64" s="8"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="8">
-        <v>0</v>
-      </c>
-      <c r="J64" s="8">
-        <v>0</v>
-      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="8">
-        <v>0</v>
-      </c>
-      <c r="M64" s="8">
-        <v>3100103</v>
-      </c>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
       <c r="N64" s="14"/>
-      <c r="O64" s="8">
-        <v>6000</v>
-      </c>
-      <c r="P64" s="8">
-        <v>400</v>
-      </c>
-      <c r="Q64" s="8">
-        <v>400</v>
-      </c>
-      <c r="R64" s="8">
-        <v>2000</v>
-      </c>
+      <c r="O64" s="8"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="8"/>
       <c r="S64" s="8">
         <v>2</v>
       </c>
       <c r="T64" s="8"/>
-      <c r="U64" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U64" s="8"/>
       <c r="V64" s="17"/>
-      <c r="W64" s="7">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" ht="27" spans="2:24">
+      <c r="W64" s="7"/>
+    </row>
+    <row r="65" customFormat="1" spans="2:23">
       <c r="B65">
-        <v>2100104</v>
+        <v>2003701</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E65" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F65" s="8">
         <v>15003751</v>
       </c>
-      <c r="G65" s="8">
-        <v>2</v>
-      </c>
+      <c r="G65" s="8"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="8">
-        <v>0</v>
-      </c>
-      <c r="J65" s="8">
-        <v>0</v>
-      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
       <c r="K65" s="8"/>
-      <c r="L65" s="8">
-        <v>0</v>
-      </c>
-      <c r="M65" s="8">
-        <v>3100104</v>
-      </c>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
       <c r="N65" s="14"/>
-      <c r="O65" s="8">
-        <v>6000</v>
-      </c>
-      <c r="P65" s="8">
-        <v>400</v>
-      </c>
-      <c r="Q65" s="8">
-        <v>400</v>
-      </c>
-      <c r="R65" s="8">
-        <v>1500</v>
-      </c>
+      <c r="O65" s="8"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="8"/>
       <c r="S65" s="8">
         <v>2</v>
       </c>
       <c r="T65" s="8"/>
-      <c r="U65" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U65" s="8"/>
       <c r="V65" s="17"/>
-      <c r="W65" s="7">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" ht="27" spans="2:24">
+      <c r="W65" s="7"/>
+    </row>
+    <row r="66" customFormat="1" spans="2:23">
       <c r="B66">
-        <v>2100105</v>
+        <v>2003801</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="E66" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F66" s="8">
         <v>15003751</v>
       </c>
-      <c r="G66" s="8">
-        <v>2</v>
-      </c>
+      <c r="G66" s="8"/>
       <c r="H66" s="12"/>
-      <c r="I66" s="8">
-        <v>0</v>
-      </c>
-      <c r="J66" s="8">
-        <v>0</v>
-      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
       <c r="K66" s="8"/>
-      <c r="L66" s="8">
-        <v>0</v>
-      </c>
-      <c r="M66" s="8">
-        <v>3100105</v>
-      </c>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
       <c r="N66" s="14"/>
-      <c r="O66" s="8">
-        <v>6000</v>
-      </c>
-      <c r="P66" s="8">
-        <v>400</v>
-      </c>
-      <c r="Q66" s="8">
-        <v>400</v>
-      </c>
-      <c r="R66" s="8">
-        <v>1000</v>
-      </c>
+      <c r="O66" s="8"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="8"/>
       <c r="S66" s="8">
         <v>2</v>
       </c>
       <c r="T66" s="8"/>
-      <c r="U66" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U66" s="8"/>
       <c r="V66" s="17"/>
-      <c r="W66" s="7">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>2601022</v>
-      </c>
-    </row>
-    <row r="67" spans="3:22">
+      <c r="W66" s="7"/>
+    </row>
+    <row r="67" spans="2:22">
+      <c r="B67" s="10"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -4385,9 +4269,10 @@
       <c r="U67" s="8"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" customFormat="1" spans="3:23">
+    <row r="68" spans="2:22">
+      <c r="B68" s="10"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -4396,200 +4281,106 @@
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
-      <c r="M68" s="14"/>
+      <c r="M68" s="8"/>
       <c r="N68" s="14"/>
       <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
       <c r="V68" s="17"/>
-      <c r="W68" s="7"/>
-    </row>
-    <row r="69" customFormat="1" spans="2:23">
-      <c r="B69">
-        <v>2100201</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="8">
-        <v>1</v>
-      </c>
-      <c r="F69" s="8">
-        <v>15003752</v>
-      </c>
-      <c r="G69" s="8">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="69" spans="2:22">
+      <c r="B69" s="10"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
       <c r="H69" s="12"/>
-      <c r="I69" s="8">
-        <v>0</v>
-      </c>
-      <c r="J69" s="8">
-        <v>0</v>
-      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
       <c r="K69" s="8"/>
-      <c r="L69" s="8">
-        <v>0</v>
-      </c>
-      <c r="M69" s="8">
-        <v>13100101</v>
-      </c>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
       <c r="N69" s="14"/>
-      <c r="O69" s="8">
-        <v>0</v>
-      </c>
-      <c r="P69" s="8">
-        <v>466</v>
-      </c>
-      <c r="Q69" s="8">
-        <v>200</v>
-      </c>
-      <c r="R69" s="8">
-        <v>3000</v>
-      </c>
-      <c r="S69" s="8">
-        <v>2</v>
-      </c>
+      <c r="O69" s="8"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
       <c r="T69" s="8"/>
-      <c r="U69" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U69" s="8"/>
       <c r="V69" s="17"/>
-      <c r="W69" s="7">
-        <v>15008014</v>
-      </c>
     </row>
     <row r="70" spans="2:22">
-      <c r="B70">
-        <v>2100202</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="8">
-        <v>2</v>
-      </c>
-      <c r="F70" s="8">
-        <v>15003752</v>
-      </c>
-      <c r="G70" s="8">
-        <v>0</v>
-      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
       <c r="H70" s="12"/>
-      <c r="I70" s="8">
-        <v>0</v>
-      </c>
-      <c r="J70" s="8">
-        <v>0</v>
-      </c>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
       <c r="K70" s="8"/>
-      <c r="L70" s="8">
-        <v>0</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
       <c r="N70" s="14"/>
-      <c r="O70" s="8">
-        <v>0</v>
-      </c>
-      <c r="P70" s="8">
-        <v>466</v>
-      </c>
-      <c r="Q70" s="8">
-        <v>200</v>
-      </c>
-      <c r="R70" s="8">
-        <v>3000</v>
-      </c>
-      <c r="S70" s="8">
-        <v>2</v>
-      </c>
+      <c r="O70" s="8"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" ht="27" spans="2:22">
-      <c r="B71">
-        <v>2100203</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E71" s="8">
-        <v>3</v>
-      </c>
-      <c r="F71" s="8">
-        <v>15003752</v>
-      </c>
-      <c r="G71" s="8">
-        <v>0</v>
-      </c>
+    <row r="71" ht="54" spans="2:22">
+      <c r="B71" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="12"/>
-      <c r="I71" s="8">
-        <v>0</v>
-      </c>
-      <c r="J71" s="8">
-        <v>0</v>
-      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
       <c r="K71" s="8"/>
-      <c r="L71" s="8">
-        <v>0</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>100</v>
-      </c>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
       <c r="N71" s="14"/>
-      <c r="O71" s="8">
-        <v>0</v>
-      </c>
-      <c r="P71" s="8">
-        <v>466</v>
-      </c>
-      <c r="Q71" s="8">
-        <v>200</v>
-      </c>
-      <c r="R71" s="8">
-        <v>3000</v>
-      </c>
-      <c r="S71" s="8">
-        <v>2</v>
-      </c>
+      <c r="O71" s="8"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
       <c r="V71" s="17"/>
     </row>
-    <row r="72" ht="27" spans="2:22">
+    <row r="72" customFormat="1" ht="27" spans="2:24">
       <c r="B72">
-        <v>2100204</v>
+        <v>2100101</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E72" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" s="8">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="G72" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="8">
@@ -4602,18 +4393,18 @@
       <c r="L72" s="8">
         <v>0</v>
       </c>
-      <c r="M72" s="8" t="s">
-        <v>102</v>
+      <c r="M72" s="8">
+        <v>3100101</v>
       </c>
       <c r="N72" s="14"/>
       <c r="O72" s="8">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="P72" s="8">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="Q72" s="8">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R72" s="8">
         <v>3000</v>
@@ -4622,27 +4413,35 @@
         <v>2</v>
       </c>
       <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
+      <c r="U72" s="8">
+        <v>1000</v>
+      </c>
       <c r="V72" s="17"/>
-    </row>
-    <row r="73" ht="40.5" spans="2:22">
+      <c r="W72" s="7">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" ht="27" spans="2:24">
       <c r="B73">
-        <v>2100205</v>
+        <v>2100102</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E73" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F73" s="8">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="G73" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="8">
@@ -4655,117 +4454,205 @@
       <c r="L73" s="8">
         <v>0</v>
       </c>
-      <c r="M73" s="8" t="s">
-        <v>105</v>
+      <c r="M73" s="8">
+        <v>3100102</v>
       </c>
       <c r="N73" s="14"/>
       <c r="O73" s="8">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="P73" s="8">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="Q73" s="8">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R73" s="8">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="S73" s="8">
         <v>2</v>
       </c>
       <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
+      <c r="U73" s="8">
+        <v>1000</v>
+      </c>
       <c r="V73" s="17"/>
-    </row>
-    <row r="74" spans="3:22">
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+      <c r="W73" s="7">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" ht="27" spans="2:24">
+      <c r="B74">
+        <v>2100103</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="8">
+        <v>3</v>
+      </c>
+      <c r="F74" s="8">
+        <v>15003751</v>
+      </c>
+      <c r="G74" s="8">
+        <v>2</v>
+      </c>
       <c r="H74" s="12"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
+      <c r="I74" s="8">
+        <v>0</v>
+      </c>
+      <c r="J74" s="8">
+        <v>0</v>
+      </c>
       <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
+      <c r="L74" s="8">
+        <v>0</v>
+      </c>
+      <c r="M74" s="8">
+        <v>3100103</v>
+      </c>
       <c r="N74" s="14"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
+      <c r="O74" s="8">
+        <v>6000</v>
+      </c>
+      <c r="P74" s="8">
+        <v>400</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>400</v>
+      </c>
+      <c r="R74" s="8">
+        <v>2000</v>
+      </c>
+      <c r="S74" s="8">
+        <v>2</v>
+      </c>
       <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
+      <c r="U74" s="8">
+        <v>1000</v>
+      </c>
       <c r="V74" s="17"/>
-    </row>
-    <row r="75" spans="3:22">
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
+      <c r="W74" s="7">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" ht="27" spans="2:24">
+      <c r="B75">
+        <v>2100104</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="8">
+        <v>4</v>
+      </c>
+      <c r="F75" s="8">
+        <v>15003751</v>
+      </c>
+      <c r="G75" s="8">
+        <v>2</v>
+      </c>
       <c r="H75" s="12"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
+      <c r="I75" s="8">
+        <v>0</v>
+      </c>
+      <c r="J75" s="8">
+        <v>0</v>
+      </c>
       <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
+      <c r="L75" s="8">
+        <v>0</v>
+      </c>
+      <c r="M75" s="8">
+        <v>3100104</v>
+      </c>
       <c r="N75" s="14"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
+      <c r="O75" s="8">
+        <v>6000</v>
+      </c>
+      <c r="P75" s="8">
+        <v>400</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>400</v>
+      </c>
+      <c r="R75" s="8">
+        <v>1500</v>
+      </c>
+      <c r="S75" s="8">
+        <v>2</v>
+      </c>
       <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
+      <c r="U75" s="8">
+        <v>1000</v>
+      </c>
       <c r="V75" s="17"/>
-    </row>
-    <row r="76" customFormat="1" ht="27" spans="2:23">
+      <c r="W75" s="7">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" ht="27" spans="2:24">
       <c r="B76">
-        <v>2100301</v>
+        <v>2100105</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E76" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F76" s="8">
-        <v>15003755</v>
+        <v>15003751</v>
       </c>
       <c r="G76" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="8">
         <v>0</v>
       </c>
       <c r="J76" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8">
-        <v>2</v>
-      </c>
-      <c r="M76" s="14" t="s">
-        <v>108</v>
+        <v>0</v>
+      </c>
+      <c r="M76" s="8">
+        <v>3100105</v>
       </c>
       <c r="N76" s="14"/>
       <c r="O76" s="8">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="P76" s="8">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q76" s="8">
-        <v>0</v>
-      </c>
-      <c r="R76" s="8"/>
+        <v>400</v>
+      </c>
+      <c r="R76" s="8">
+        <v>1000</v>
+      </c>
       <c r="S76" s="8">
         <v>2</v>
       </c>
@@ -4777,134 +4664,70 @@
       <c r="W76" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" ht="27" spans="2:23">
-      <c r="B77">
-        <v>2100302</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E77" s="8">
-        <v>2</v>
-      </c>
-      <c r="F77" s="8">
-        <v>15003755</v>
-      </c>
-      <c r="G77" s="8">
-        <v>0</v>
-      </c>
+      <c r="X76">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="77" spans="3:22">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
       <c r="H77" s="12"/>
-      <c r="I77" s="8">
-        <v>0</v>
-      </c>
-      <c r="J77" s="8">
-        <v>1</v>
-      </c>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
       <c r="K77" s="8"/>
-      <c r="L77" s="8">
-        <v>2</v>
-      </c>
-      <c r="M77" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
       <c r="N77" s="14"/>
-      <c r="O77" s="8">
-        <v>0</v>
-      </c>
-      <c r="P77" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="8">
-        <v>0</v>
-      </c>
+      <c r="O77" s="8"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
       <c r="R77" s="8"/>
-      <c r="S77" s="8">
-        <v>2</v>
-      </c>
+      <c r="S77" s="8"/>
       <c r="T77" s="8"/>
-      <c r="U77" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U77" s="8"/>
       <c r="V77" s="17"/>
-      <c r="W77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" ht="27" spans="2:23">
-      <c r="B78">
-        <v>2100303</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E78" s="8">
-        <v>3</v>
-      </c>
-      <c r="F78" s="8">
-        <v>15003755</v>
-      </c>
-      <c r="G78" s="8">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="78" customFormat="1" spans="3:23">
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
       <c r="H78" s="12"/>
-      <c r="I78" s="8">
-        <v>0</v>
-      </c>
-      <c r="J78" s="8">
-        <v>1</v>
-      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
       <c r="K78" s="8"/>
-      <c r="L78" s="8">
-        <v>2</v>
-      </c>
-      <c r="M78" s="14" t="s">
-        <v>113</v>
-      </c>
+      <c r="L78" s="8"/>
+      <c r="M78" s="14"/>
       <c r="N78" s="14"/>
-      <c r="O78" s="8">
-        <v>0</v>
-      </c>
-      <c r="P78" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="8">
-        <v>0</v>
-      </c>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
-      <c r="S78" s="8">
-        <v>2</v>
-      </c>
+      <c r="S78" s="8"/>
       <c r="T78" s="8"/>
-      <c r="U78" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U78" s="8"/>
       <c r="V78" s="17"/>
-      <c r="W78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" ht="27" spans="2:23">
+      <c r="W78" s="7"/>
+    </row>
+    <row r="79" customFormat="1" spans="2:23">
       <c r="B79">
-        <v>2100304</v>
+        <v>2100201</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E79" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F79" s="8">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G79" s="8">
         <v>0</v>
@@ -4914,26 +4737,28 @@
         <v>0</v>
       </c>
       <c r="J79" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="8"/>
       <c r="L79" s="8">
-        <v>2</v>
-      </c>
-      <c r="M79" s="14" t="s">
-        <v>115</v>
+        <v>0</v>
+      </c>
+      <c r="M79" s="8">
+        <v>13100101</v>
       </c>
       <c r="N79" s="14"/>
       <c r="O79" s="8">
         <v>0</v>
       </c>
       <c r="P79" s="8">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="Q79" s="8">
-        <v>0</v>
-      </c>
-      <c r="R79" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="R79" s="8">
+        <v>3000</v>
+      </c>
       <c r="S79" s="8">
         <v>2</v>
       </c>
@@ -4943,24 +4768,24 @@
       </c>
       <c r="V79" s="17"/>
       <c r="W79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" ht="54" spans="2:23">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22">
       <c r="B80">
-        <v>2100305</v>
+        <v>2100202</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E80" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F80" s="8">
-        <v>15003755</v>
+        <v>15003752</v>
       </c>
       <c r="G80" s="8">
         <v>0</v>
@@ -4970,94 +4795,153 @@
         <v>0</v>
       </c>
       <c r="J80" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="8"/>
       <c r="L80" s="8">
-        <v>2</v>
-      </c>
-      <c r="M80" s="14" t="s">
-        <v>118</v>
+        <v>0</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="N80" s="14"/>
       <c r="O80" s="8">
         <v>0</v>
       </c>
       <c r="P80" s="8">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="Q80" s="8">
-        <v>0</v>
-      </c>
-      <c r="R80" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="R80" s="8">
+        <v>3000</v>
+      </c>
       <c r="S80" s="8">
         <v>2</v>
       </c>
       <c r="T80" s="8"/>
-      <c r="U80" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U80" s="8"/>
       <c r="V80" s="17"/>
-      <c r="W80" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22">
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+    </row>
+    <row r="81" ht="27" spans="2:22">
+      <c r="B81">
+        <v>2100203</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81" s="8">
+        <v>3</v>
+      </c>
+      <c r="F81" s="8">
+        <v>15003752</v>
+      </c>
+      <c r="G81" s="8">
+        <v>0</v>
+      </c>
       <c r="H81" s="12"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
+      <c r="I81" s="8">
+        <v>0</v>
+      </c>
+      <c r="J81" s="8">
+        <v>0</v>
+      </c>
       <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
+      <c r="L81" s="8">
+        <v>0</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="N81" s="14"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
+      <c r="O81" s="8">
+        <v>0</v>
+      </c>
+      <c r="P81" s="8">
+        <v>466</v>
+      </c>
+      <c r="Q81" s="8">
+        <v>200</v>
+      </c>
+      <c r="R81" s="8">
+        <v>3000</v>
+      </c>
+      <c r="S81" s="8">
+        <v>2</v>
+      </c>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
       <c r="V81" s="17"/>
     </row>
-    <row r="82" spans="3:22">
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
+    <row r="82" ht="27" spans="2:22">
+      <c r="B82">
+        <v>2100204</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82" s="8">
+        <v>4</v>
+      </c>
+      <c r="F82" s="8">
+        <v>15003752</v>
+      </c>
+      <c r="G82" s="8">
+        <v>0</v>
+      </c>
       <c r="H82" s="12"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
+      <c r="I82" s="8">
+        <v>0</v>
+      </c>
+      <c r="J82" s="8">
+        <v>0</v>
+      </c>
       <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
+      <c r="L82" s="8">
+        <v>0</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="N82" s="14"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
+      <c r="O82" s="8">
+        <v>0</v>
+      </c>
+      <c r="P82" s="8">
+        <v>466</v>
+      </c>
+      <c r="Q82" s="8">
+        <v>200</v>
+      </c>
+      <c r="R82" s="8">
+        <v>3000</v>
+      </c>
+      <c r="S82" s="8">
+        <v>2</v>
+      </c>
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
       <c r="V82" s="17"/>
     </row>
-    <row r="83" customFormat="1" spans="2:23">
+    <row r="83" ht="40.5" spans="2:22">
       <c r="B83">
-        <v>2100401</v>
+        <v>2100205</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E83" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F83" s="8">
         <v>15003752</v>
@@ -5074,9 +4958,11 @@
       </c>
       <c r="K83" s="8"/>
       <c r="L83" s="8">
-        <v>2</v>
-      </c>
-      <c r="M83" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="N83" s="14"/>
       <c r="O83" s="8">
         <v>0</v>
@@ -5094,143 +4980,68 @@
         <v>2</v>
       </c>
       <c r="T83" s="8"/>
-      <c r="U83" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U83" s="8"/>
       <c r="V83" s="17"/>
-      <c r="W83" s="7">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="84" spans="2:23">
-      <c r="B84">
-        <v>2100402</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E84" s="8">
-        <v>2</v>
-      </c>
-      <c r="F84" s="8">
-        <v>15003752</v>
-      </c>
-      <c r="G84" s="8">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="84" spans="3:22">
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="8">
-        <v>0</v>
-      </c>
-      <c r="J84" s="8">
-        <v>0</v>
-      </c>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
       <c r="K84" s="8"/>
-      <c r="L84" s="8">
-        <v>2</v>
-      </c>
-      <c r="M84" s="14"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
       <c r="N84" s="14"/>
-      <c r="O84" s="8">
-        <v>0</v>
-      </c>
-      <c r="P84" s="8">
-        <v>466</v>
-      </c>
-      <c r="Q84" s="8">
-        <v>200</v>
-      </c>
-      <c r="R84" s="8">
-        <v>3000</v>
-      </c>
-      <c r="S84" s="8">
-        <v>2</v>
-      </c>
+      <c r="O84" s="8"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
       <c r="T84" s="8"/>
-      <c r="U84" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U84" s="8"/>
       <c r="V84" s="17"/>
-      <c r="W84" s="7">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="85" ht="27" spans="2:23">
-      <c r="B85">
-        <v>2100403</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E85" s="8">
-        <v>3</v>
-      </c>
-      <c r="F85" s="8">
-        <v>15003752</v>
-      </c>
-      <c r="G85" s="8">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="85" spans="3:22">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="8">
-        <v>0</v>
-      </c>
-      <c r="J85" s="8">
-        <v>0</v>
-      </c>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
       <c r="K85" s="8"/>
-      <c r="L85" s="8">
-        <v>2</v>
-      </c>
-      <c r="M85" s="14" t="s">
-        <v>124</v>
-      </c>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
       <c r="N85" s="14"/>
-      <c r="O85" s="8">
-        <v>0</v>
-      </c>
-      <c r="P85" s="8">
-        <v>466</v>
-      </c>
-      <c r="Q85" s="8">
-        <v>200</v>
-      </c>
-      <c r="R85" s="8">
-        <v>3000</v>
-      </c>
-      <c r="S85" s="8">
-        <v>2</v>
-      </c>
+      <c r="O85" s="8"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
       <c r="T85" s="8"/>
-      <c r="U85" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U85" s="8"/>
       <c r="V85" s="17"/>
-      <c r="W85" s="7">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="86" ht="27" spans="2:23">
+    </row>
+    <row r="86" customFormat="1" ht="27" spans="2:23">
       <c r="B86">
-        <v>2100404</v>
+        <v>2100301</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E86" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F86" s="8">
-        <v>15003752</v>
+        <v>15003755</v>
       </c>
       <c r="G86" s="8">
         <v>0</v>
@@ -5240,28 +5051,26 @@
         <v>0</v>
       </c>
       <c r="J86" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="8"/>
       <c r="L86" s="8">
         <v>2</v>
       </c>
-      <c r="M86" s="14">
-        <v>14100301</v>
+      <c r="M86" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="N86" s="14"/>
       <c r="O86" s="8">
         <v>0</v>
       </c>
       <c r="P86" s="8">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="8">
-        <v>200</v>
-      </c>
-      <c r="R86" s="8">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R86" s="8"/>
       <c r="S86" s="8">
         <v>2</v>
       </c>
@@ -5271,24 +5080,24 @@
       </c>
       <c r="V86" s="17"/>
       <c r="W86" s="7">
-        <v>15008014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" ht="27" spans="2:23">
       <c r="B87">
-        <v>2100405</v>
+        <v>2100302</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E87" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F87" s="8">
-        <v>15003752</v>
+        <v>15003755</v>
       </c>
       <c r="G87" s="8">
         <v>0</v>
@@ -5298,28 +5107,26 @@
         <v>0</v>
       </c>
       <c r="J87" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="8"/>
       <c r="L87" s="8">
         <v>2</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="N87" s="14"/>
       <c r="O87" s="8">
         <v>0</v>
       </c>
       <c r="P87" s="8">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="8">
-        <v>200</v>
-      </c>
-      <c r="R87" s="8">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R87" s="8"/>
       <c r="S87" s="8">
         <v>2</v>
       </c>
@@ -5329,254 +5136,239 @@
       </c>
       <c r="V87" s="17"/>
       <c r="W87" s="7">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="88" spans="3:22">
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" ht="27" spans="2:23">
+      <c r="B88">
+        <v>2100303</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E88" s="8">
+        <v>3</v>
+      </c>
+      <c r="F88" s="8">
+        <v>15003755</v>
+      </c>
+      <c r="G88" s="8">
+        <v>0</v>
+      </c>
       <c r="H88" s="12"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
+      <c r="I88" s="8">
+        <v>0</v>
+      </c>
+      <c r="J88" s="8">
+        <v>1</v>
+      </c>
       <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
+      <c r="L88" s="8">
+        <v>2</v>
+      </c>
+      <c r="M88" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="N88" s="14"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
+      <c r="O88" s="8">
+        <v>0</v>
+      </c>
+      <c r="P88" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="8">
+        <v>0</v>
+      </c>
       <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
+      <c r="S88" s="8">
+        <v>2</v>
+      </c>
       <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
+      <c r="U88" s="8">
+        <v>1000</v>
+      </c>
       <c r="V88" s="17"/>
-    </row>
-    <row r="89" spans="3:22">
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
+      <c r="W88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" ht="27" spans="2:23">
+      <c r="B89">
+        <v>2100304</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E89" s="8">
+        <v>4</v>
+      </c>
+      <c r="F89" s="8">
+        <v>15003755</v>
+      </c>
+      <c r="G89" s="8">
+        <v>0</v>
+      </c>
       <c r="H89" s="12"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
+      <c r="I89" s="8">
+        <v>0</v>
+      </c>
+      <c r="J89" s="8">
+        <v>1</v>
+      </c>
       <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
+      <c r="L89" s="8">
+        <v>2</v>
+      </c>
+      <c r="M89" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="N89" s="14"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
+      <c r="O89" s="8">
+        <v>0</v>
+      </c>
+      <c r="P89" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="8">
+        <v>0</v>
+      </c>
       <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
+      <c r="S89" s="8">
+        <v>2</v>
+      </c>
       <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
+      <c r="U89" s="8">
+        <v>1000</v>
+      </c>
       <c r="V89" s="17"/>
-    </row>
-    <row r="90" customFormat="1" ht="14" customHeight="1" spans="2:24">
+      <c r="W89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" ht="54" spans="2:23">
       <c r="B90">
-        <v>2100501</v>
+        <v>2100305</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="E90" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F90" s="8">
-        <v>15003753</v>
+        <v>15003755</v>
       </c>
       <c r="G90" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="8">
         <v>0</v>
       </c>
       <c r="J90" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="8"/>
       <c r="L90" s="8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="N90" s="14"/>
       <c r="O90" s="8">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="P90" s="8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="8">
-        <v>100</v>
-      </c>
-      <c r="R90" s="8">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R90" s="8"/>
       <c r="S90" s="8">
         <v>2</v>
       </c>
       <c r="T90" s="8"/>
       <c r="U90" s="8">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="V90" s="17"/>
       <c r="W90" s="7">
         <v>0</v>
       </c>
-      <c r="X90">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="91" ht="14" customHeight="1" spans="2:24">
-      <c r="B91">
-        <v>2100502</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="8">
-        <v>2</v>
-      </c>
-      <c r="F91" s="8">
-        <v>15003753</v>
-      </c>
-      <c r="G91" s="8">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="91" spans="3:22">
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
       <c r="H91" s="12"/>
-      <c r="I91" s="8">
-        <v>0</v>
-      </c>
-      <c r="J91" s="8">
-        <v>0</v>
-      </c>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
       <c r="K91" s="8"/>
-      <c r="L91" s="8">
-        <v>11</v>
-      </c>
-      <c r="M91" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
       <c r="N91" s="14"/>
-      <c r="O91" s="8">
-        <v>8000</v>
-      </c>
-      <c r="P91" s="8">
-        <v>180</v>
-      </c>
-      <c r="Q91" s="8">
-        <v>100</v>
-      </c>
-      <c r="R91" s="8">
-        <v>3000</v>
-      </c>
-      <c r="S91" s="8">
-        <v>2</v>
-      </c>
+      <c r="O91" s="8"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
       <c r="T91" s="8"/>
-      <c r="U91" s="8">
-        <v>2667</v>
-      </c>
+      <c r="U91" s="8"/>
       <c r="V91" s="17"/>
-      <c r="W91" s="7">
-        <v>0</v>
-      </c>
-      <c r="X91">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="92" ht="14" customHeight="1" spans="2:24">
-      <c r="B92">
-        <v>2100503</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E92" s="8">
-        <v>3</v>
-      </c>
-      <c r="F92" s="8">
-        <v>15003753</v>
-      </c>
-      <c r="G92" s="8">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="92" spans="3:22">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
       <c r="H92" s="12"/>
-      <c r="I92" s="8">
-        <v>0</v>
-      </c>
-      <c r="J92" s="8">
-        <v>0</v>
-      </c>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
       <c r="K92" s="8"/>
-      <c r="L92" s="8">
-        <v>11</v>
-      </c>
-      <c r="M92" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
       <c r="N92" s="14"/>
-      <c r="O92" s="8">
-        <v>8000</v>
-      </c>
-      <c r="P92" s="8">
-        <v>180</v>
-      </c>
-      <c r="Q92" s="8">
-        <v>100</v>
-      </c>
-      <c r="R92" s="8">
-        <v>3000</v>
-      </c>
-      <c r="S92" s="8">
-        <v>2</v>
-      </c>
+      <c r="O92" s="8"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
       <c r="T92" s="8"/>
-      <c r="U92" s="8">
-        <v>2667</v>
-      </c>
+      <c r="U92" s="8"/>
       <c r="V92" s="17"/>
-      <c r="W92" s="7">
-        <v>0</v>
-      </c>
-      <c r="X92">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="93" ht="14" customHeight="1" spans="2:24">
+    </row>
+    <row r="93" customFormat="1" spans="2:23">
       <c r="B93">
-        <v>2100504</v>
+        <v>2100401</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="E93" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F93" s="8">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G93" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="8">
@@ -5587,20 +5379,18 @@
       </c>
       <c r="K93" s="8"/>
       <c r="L93" s="8">
-        <v>11</v>
-      </c>
-      <c r="M93" s="14" t="s">
-        <v>130</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M93" s="14"/>
       <c r="N93" s="14"/>
       <c r="O93" s="8">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="P93" s="8">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="Q93" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R93" s="8">
         <v>3000</v>
@@ -5610,34 +5400,31 @@
       </c>
       <c r="T93" s="8"/>
       <c r="U93" s="8">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="V93" s="17"/>
       <c r="W93" s="7">
-        <v>0</v>
-      </c>
-      <c r="X93">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="94" ht="14" customHeight="1" spans="2:24">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23">
       <c r="B94">
-        <v>2100505</v>
+        <v>2100402</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="E94" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F94" s="8">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G94" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="8">
@@ -5648,20 +5435,18 @@
       </c>
       <c r="K94" s="8"/>
       <c r="L94" s="8">
-        <v>11</v>
-      </c>
-      <c r="M94" s="14" t="s">
-        <v>130</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M94" s="14"/>
       <c r="N94" s="14"/>
       <c r="O94" s="8">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="P94" s="8">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="Q94" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R94" s="8">
         <v>3000</v>
@@ -5671,78 +5456,147 @@
       </c>
       <c r="T94" s="8"/>
       <c r="U94" s="8">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="V94" s="17"/>
       <c r="W94" s="7">
-        <v>0</v>
-      </c>
-      <c r="X94">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22">
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="95" ht="27" spans="2:23">
+      <c r="B95">
+        <v>2100403</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="8">
+        <v>3</v>
+      </c>
+      <c r="F95" s="8">
+        <v>15003752</v>
+      </c>
+      <c r="G95" s="8">
+        <v>0</v>
+      </c>
       <c r="H95" s="12"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
+      <c r="I95" s="8">
+        <v>0</v>
+      </c>
+      <c r="J95" s="8">
+        <v>0</v>
+      </c>
       <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
+      <c r="L95" s="8">
+        <v>2</v>
+      </c>
+      <c r="M95" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="N95" s="14"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
+      <c r="O95" s="8">
+        <v>0</v>
+      </c>
+      <c r="P95" s="8">
+        <v>466</v>
+      </c>
+      <c r="Q95" s="8">
+        <v>200</v>
+      </c>
+      <c r="R95" s="8">
+        <v>3000</v>
+      </c>
+      <c r="S95" s="8">
+        <v>2</v>
+      </c>
       <c r="T95" s="8"/>
-      <c r="U95" s="8"/>
+      <c r="U95" s="8">
+        <v>1000</v>
+      </c>
       <c r="V95" s="17"/>
-    </row>
-    <row r="96" spans="3:22">
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
+      <c r="W95" s="7">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="96" ht="27" spans="2:23">
+      <c r="B96">
+        <v>2100404</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" s="8">
+        <v>4</v>
+      </c>
+      <c r="F96" s="8">
+        <v>15003752</v>
+      </c>
+      <c r="G96" s="8">
+        <v>0</v>
+      </c>
       <c r="H96" s="12"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
+      <c r="I96" s="8">
+        <v>0</v>
+      </c>
+      <c r="J96" s="8">
+        <v>0</v>
+      </c>
       <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
+      <c r="L96" s="8">
+        <v>2</v>
+      </c>
+      <c r="M96" s="14">
+        <v>14100301</v>
+      </c>
       <c r="N96" s="14"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="8"/>
-      <c r="S96" s="8"/>
+      <c r="O96" s="8">
+        <v>0</v>
+      </c>
+      <c r="P96" s="8">
+        <v>466</v>
+      </c>
+      <c r="Q96" s="8">
+        <v>200</v>
+      </c>
+      <c r="R96" s="8">
+        <v>3000</v>
+      </c>
+      <c r="S96" s="8">
+        <v>2</v>
+      </c>
       <c r="T96" s="8"/>
-      <c r="U96" s="8"/>
+      <c r="U96" s="8">
+        <v>1000</v>
+      </c>
       <c r="V96" s="17"/>
-    </row>
-    <row r="97" customFormat="1" ht="14" customHeight="1" spans="2:24">
+      <c r="W96" s="7">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="97" ht="27" spans="2:23">
       <c r="B97">
-        <v>2100601</v>
+        <v>2100405</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E97" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F97" s="8">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G97" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="8">
@@ -5753,20 +5607,20 @@
       </c>
       <c r="K97" s="8"/>
       <c r="L97" s="8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N97" s="14"/>
       <c r="O97" s="8">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="P97" s="8">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="Q97" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R97" s="8">
         <v>3000</v>
@@ -5776,14 +5630,11 @@
       </c>
       <c r="T97" s="8"/>
       <c r="U97" s="8">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="V97" s="17"/>
       <c r="W97" s="7">
-        <v>0</v>
-      </c>
-      <c r="X97">
-        <v>2601024</v>
+        <v>15008014</v>
       </c>
     </row>
     <row r="98" spans="3:22">
@@ -5830,24 +5681,24 @@
       <c r="U99" s="8"/>
       <c r="V99" s="17"/>
     </row>
-    <row r="100" customFormat="1" spans="2:23">
+    <row r="100" customFormat="1" ht="14" customHeight="1" spans="2:24">
       <c r="B100">
-        <v>2100701</v>
+        <v>2100501</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E100" s="8">
         <v>1</v>
       </c>
       <c r="F100" s="8">
-        <v>15003752</v>
+        <v>15003753</v>
       </c>
       <c r="G100" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100" s="12"/>
       <c r="I100" s="8">
@@ -5858,20 +5709,20 @@
       </c>
       <c r="K100" s="8"/>
       <c r="L100" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N100" s="14"/>
       <c r="O100" s="8">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="P100" s="8">
-        <v>466</v>
+        <v>180</v>
       </c>
       <c r="Q100" s="8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R100" s="8">
         <v>3000</v>
@@ -5881,31 +5732,34 @@
       </c>
       <c r="T100" s="8"/>
       <c r="U100" s="8">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="V100" s="17"/>
       <c r="W100" s="7">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="101" customFormat="1" spans="2:23">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="101" ht="14" customHeight="1" spans="2:24">
       <c r="B101">
-        <v>2100801</v>
+        <v>2100502</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E101" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" s="8">
-        <v>15003752</v>
+        <v>15003753</v>
       </c>
       <c r="G101" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="8">
@@ -5916,20 +5770,20 @@
       </c>
       <c r="K101" s="8"/>
       <c r="L101" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N101" s="14"/>
       <c r="O101" s="8">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="P101" s="8">
-        <v>466</v>
+        <v>180</v>
       </c>
       <c r="Q101" s="8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R101" s="8">
         <v>3000</v>
@@ -5939,31 +5793,34 @@
       </c>
       <c r="T101" s="8"/>
       <c r="U101" s="8">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="V101" s="17"/>
       <c r="W101" s="7">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="102" customFormat="1" spans="2:23">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="102" ht="14" customHeight="1" spans="2:24">
       <c r="B102">
-        <v>2100901</v>
+        <v>2100503</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E102" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F102" s="8">
-        <v>15003752</v>
+        <v>15003753</v>
       </c>
       <c r="G102" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H102" s="12"/>
       <c r="I102" s="8">
@@ -5974,20 +5831,20 @@
       </c>
       <c r="K102" s="8"/>
       <c r="L102" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N102" s="14"/>
       <c r="O102" s="8">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="P102" s="8">
-        <v>466</v>
+        <v>180</v>
       </c>
       <c r="Q102" s="8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R102" s="8">
         <v>3000</v>
@@ -5997,63 +5854,137 @@
       </c>
       <c r="T102" s="8"/>
       <c r="U102" s="8">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="V102" s="17"/>
       <c r="W102" s="7">
-        <v>15008014</v>
-      </c>
-    </row>
-    <row r="103" spans="3:22">
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="103" ht="14" customHeight="1" spans="2:24">
+      <c r="B103">
+        <v>2100504</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E103" s="8">
+        <v>4</v>
+      </c>
+      <c r="F103" s="8">
+        <v>15003753</v>
+      </c>
+      <c r="G103" s="8">
+        <v>2</v>
+      </c>
       <c r="H103" s="12"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
+      <c r="I103" s="8">
+        <v>0</v>
+      </c>
+      <c r="J103" s="8">
+        <v>0</v>
+      </c>
       <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
+      <c r="L103" s="8">
+        <v>11</v>
+      </c>
+      <c r="M103" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="N103" s="14"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
+      <c r="O103" s="8">
+        <v>8000</v>
+      </c>
+      <c r="P103" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q103" s="8">
+        <v>100</v>
+      </c>
+      <c r="R103" s="8">
+        <v>3000</v>
+      </c>
+      <c r="S103" s="8">
+        <v>2</v>
+      </c>
       <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
+      <c r="U103" s="8">
+        <v>2667</v>
+      </c>
       <c r="V103" s="17"/>
-    </row>
-    <row r="104" spans="2:22">
+      <c r="W103" s="7">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="104" ht="14" customHeight="1" spans="2:24">
       <c r="B104">
-        <v>2500001</v>
+        <v>2100505</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D104" s="8"/>
+        <v>137</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="E104" s="8">
-        <v>1</v>
-      </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="F104" s="8">
+        <v>15003753</v>
+      </c>
+      <c r="G104" s="8">
+        <v>2</v>
+      </c>
       <c r="H104" s="12"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
+      <c r="I104" s="8">
+        <v>0</v>
+      </c>
+      <c r="J104" s="8">
+        <v>0</v>
+      </c>
       <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
+      <c r="L104" s="8">
+        <v>11</v>
+      </c>
+      <c r="M104" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="N104" s="14"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="8"/>
-      <c r="S104" s="8"/>
+      <c r="O104" s="8">
+        <v>8000</v>
+      </c>
+      <c r="P104" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>100</v>
+      </c>
+      <c r="R104" s="8">
+        <v>3000</v>
+      </c>
+      <c r="S104" s="8">
+        <v>2</v>
+      </c>
       <c r="T104" s="8"/>
-      <c r="U104" s="8"/>
+      <c r="U104" s="8">
+        <v>2667</v>
+      </c>
       <c r="V104" s="17"/>
+      <c r="W104" s="7">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>2601024</v>
+      </c>
     </row>
     <row r="105" spans="3:22">
       <c r="C105" s="8"/>
@@ -6099,159 +6030,126 @@
       <c r="U106" s="8"/>
       <c r="V106" s="17"/>
     </row>
-    <row r="107" spans="3:22">
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
+    <row r="107" customFormat="1" ht="14" customHeight="1" spans="2:24">
+      <c r="B107">
+        <v>2100601</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E107" s="8">
+        <v>1</v>
+      </c>
+      <c r="F107" s="8">
+        <v>15003753</v>
+      </c>
+      <c r="G107" s="8">
+        <v>2</v>
+      </c>
       <c r="H107" s="12"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
+      <c r="I107" s="8">
+        <v>0</v>
+      </c>
+      <c r="J107" s="8">
+        <v>0</v>
+      </c>
       <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
+      <c r="L107" s="8">
+        <v>11</v>
+      </c>
+      <c r="M107" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="N107" s="14"/>
-      <c r="O107" s="8"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="15"/>
-      <c r="R107" s="8"/>
-      <c r="S107" s="8"/>
+      <c r="O107" s="8">
+        <v>8000</v>
+      </c>
+      <c r="P107" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q107" s="8">
+        <v>100</v>
+      </c>
+      <c r="R107" s="8">
+        <v>3000</v>
+      </c>
+      <c r="S107" s="8">
+        <v>2</v>
+      </c>
       <c r="T107" s="8"/>
-      <c r="U107" s="8"/>
+      <c r="U107" s="8">
+        <v>2667</v>
+      </c>
       <c r="V107" s="17"/>
-    </row>
-    <row r="108" spans="2:24">
-      <c r="B108">
-        <v>2001001</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="W107" s="7">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="108" spans="3:22">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
-      <c r="G108" s="8">
-        <v>1</v>
-      </c>
+      <c r="G108" s="8"/>
       <c r="H108" s="12"/>
-      <c r="I108" s="8">
-        <v>0</v>
-      </c>
-      <c r="J108" s="8">
-        <v>0</v>
-      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
       <c r="K108" s="8"/>
-      <c r="L108" s="8">
-        <v>1</v>
-      </c>
-      <c r="M108" s="8">
-        <v>3001001</v>
-      </c>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
       <c r="N108" s="14"/>
-      <c r="O108" s="8">
-        <v>0</v>
-      </c>
-      <c r="P108" s="15">
-        <v>233</v>
-      </c>
-      <c r="Q108" s="15">
-        <v>100</v>
-      </c>
-      <c r="R108" s="8">
-        <v>0</v>
-      </c>
-      <c r="S108" s="8">
-        <v>0</v>
-      </c>
+      <c r="O108" s="8"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
       <c r="T108" s="8"/>
-      <c r="U108" s="8">
-        <v>2000</v>
-      </c>
+      <c r="U108" s="8"/>
       <c r="V108" s="17"/>
-      <c r="W108" s="7">
-        <v>0</v>
-      </c>
-      <c r="X108">
-        <v>2601001</v>
-      </c>
-    </row>
-    <row r="109" s="1" customFormat="1" spans="2:24">
-      <c r="B109" s="1">
-        <v>2001002</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E109" s="15">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="109" spans="3:22">
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
       <c r="F109" s="8"/>
-      <c r="G109" s="15">
-        <v>2</v>
-      </c>
+      <c r="G109" s="8"/>
       <c r="H109" s="12"/>
-      <c r="I109" s="15">
-        <v>0</v>
-      </c>
-      <c r="J109" s="15">
-        <v>0</v>
-      </c>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15">
-        <v>0</v>
-      </c>
-      <c r="M109" s="15">
-        <v>3001002</v>
-      </c>
-      <c r="N109" s="19"/>
-      <c r="O109" s="15">
-        <v>99000</v>
-      </c>
-      <c r="P109" s="15">
-        <v>100</v>
-      </c>
-      <c r="Q109" s="15">
-        <v>500</v>
-      </c>
-      <c r="R109" s="15">
-        <v>1000</v>
-      </c>
-      <c r="S109" s="15">
-        <v>2</v>
-      </c>
-      <c r="T109" s="15"/>
-      <c r="U109" s="8">
-        <v>1000</v>
-      </c>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="14"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
       <c r="V109" s="17"/>
-      <c r="W109" s="7">
-        <v>0</v>
-      </c>
-      <c r="X109">
-        <v>2601002</v>
-      </c>
     </row>
     <row r="110" customFormat="1" spans="2:23">
       <c r="B110">
-        <v>2001002</v>
+        <v>2100701</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E110" s="15">
+        <v>140</v>
+      </c>
+      <c r="E110" s="8">
         <v>1</v>
       </c>
       <c r="F110" s="8">
-        <v>15003751</v>
+        <v>15003752</v>
       </c>
       <c r="G110" s="8">
         <v>0</v>
@@ -6267,8 +6165,8 @@
       <c r="L110" s="8">
         <v>2</v>
       </c>
-      <c r="M110" s="8">
-        <v>14001010</v>
+      <c r="M110" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="N110" s="14"/>
       <c r="O110" s="8">
@@ -6281,9 +6179,9 @@
         <v>200</v>
       </c>
       <c r="R110" s="8">
-        <v>15000</v>
-      </c>
-      <c r="S110" s="15">
+        <v>3000</v>
+      </c>
+      <c r="S110" s="8">
         <v>2</v>
       </c>
       <c r="T110" s="8"/>
@@ -6292,20 +6190,20 @@
       </c>
       <c r="V110" s="17"/>
       <c r="W110" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:23">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" spans="2:23">
       <c r="B111">
-        <v>2001003</v>
+        <v>2100801</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E111" s="15">
+        <v>142</v>
+      </c>
+      <c r="E111" s="8">
         <v>1</v>
       </c>
       <c r="F111" s="8">
@@ -6323,10 +6221,10 @@
       </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N111" s="14"/>
       <c r="O111" s="8">
@@ -6339,9 +6237,9 @@
         <v>200</v>
       </c>
       <c r="R111" s="8">
-        <v>8000</v>
-      </c>
-      <c r="S111" s="15">
+        <v>3000</v>
+      </c>
+      <c r="S111" s="8">
         <v>2</v>
       </c>
       <c r="T111" s="8"/>
@@ -6353,28 +6251,28 @@
         <v>15008014</v>
       </c>
     </row>
-    <row r="112" customFormat="1" spans="2:24">
+    <row r="112" customFormat="1" spans="2:23">
       <c r="B112">
-        <v>2001004</v>
+        <v>2100901</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E112" s="15">
+        <v>144</v>
+      </c>
+      <c r="E112" s="8">
         <v>1</v>
       </c>
       <c r="F112" s="8">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="G112" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112" s="12"/>
       <c r="I112" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" s="8">
         <v>0</v>
@@ -6383,12 +6281,12 @@
       <c r="L112" s="8">
         <v>2</v>
       </c>
-      <c r="M112" s="8">
-        <v>16001001</v>
+      <c r="M112" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="N112" s="14"/>
       <c r="O112" s="8">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="P112" s="8">
         <v>466</v>
@@ -6397,9 +6295,9 @@
         <v>200</v>
       </c>
       <c r="R112" s="8">
-        <v>7000</v>
-      </c>
-      <c r="S112" s="15">
+        <v>3000</v>
+      </c>
+      <c r="S112" s="8">
         <v>2</v>
       </c>
       <c r="T112" s="8"/>
@@ -6408,129 +6306,61 @@
       </c>
       <c r="V112" s="17"/>
       <c r="W112" s="7">
-        <v>0</v>
-      </c>
-      <c r="X112">
-        <v>2601005</v>
-      </c>
-    </row>
-    <row r="113" customFormat="1" spans="2:23">
-      <c r="B113">
-        <v>2001005</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E113" s="15">
-        <v>1</v>
-      </c>
-      <c r="F113" s="8">
-        <v>15003754</v>
-      </c>
-      <c r="G113" s="8">
-        <v>0</v>
-      </c>
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="113" spans="3:22">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
       <c r="H113" s="12"/>
-      <c r="I113" s="8">
-        <v>0</v>
-      </c>
-      <c r="J113" s="8">
-        <v>0</v>
-      </c>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
       <c r="K113" s="8"/>
-      <c r="L113" s="8">
-        <v>2</v>
-      </c>
-      <c r="M113" s="14" t="s">
-        <v>155</v>
-      </c>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
       <c r="N113" s="14"/>
-      <c r="O113" s="8">
-        <v>0</v>
-      </c>
-      <c r="P113" s="8">
-        <v>466</v>
-      </c>
-      <c r="Q113" s="8">
-        <v>200</v>
-      </c>
-      <c r="R113" s="8">
-        <v>25000</v>
-      </c>
-      <c r="S113" s="15">
-        <v>3</v>
-      </c>
+      <c r="O113" s="8"/>
+      <c r="P113" s="15"/>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8"/>
       <c r="T113" s="8"/>
-      <c r="U113" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U113" s="8"/>
       <c r="V113" s="17"/>
-      <c r="W113" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" customFormat="1" spans="2:23">
+    </row>
+    <row r="114" spans="2:22">
       <c r="B114">
-        <v>2001006</v>
+        <v>2500001</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E114" s="15">
-        <v>1</v>
-      </c>
-      <c r="F114" s="8">
-        <v>15003755</v>
-      </c>
-      <c r="G114" s="8">
-        <v>0</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8">
+        <v>1</v>
+      </c>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
       <c r="H114" s="12"/>
-      <c r="I114" s="8">
-        <v>0</v>
-      </c>
-      <c r="J114" s="8">
-        <v>1</v>
-      </c>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
       <c r="K114" s="8"/>
-      <c r="L114" s="8">
-        <v>2</v>
-      </c>
-      <c r="M114" s="14" t="s">
-        <v>158</v>
-      </c>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
       <c r="N114" s="14"/>
-      <c r="O114" s="8">
-        <v>0</v>
-      </c>
-      <c r="P114" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="8">
-        <v>0</v>
-      </c>
-      <c r="R114" s="8">
-        <v>0</v>
-      </c>
-      <c r="S114" s="15">
-        <v>4</v>
-      </c>
+      <c r="O114" s="8"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
       <c r="T114" s="8"/>
-      <c r="U114" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U114" s="8"/>
       <c r="V114" s="17"/>
-      <c r="W114" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" spans="3:23">
+    </row>
+    <row r="115" spans="3:22">
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -6544,70 +6374,37 @@
       <c r="M115" s="8"/>
       <c r="N115" s="14"/>
       <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="8"/>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="15"/>
       <c r="R115" s="8"/>
       <c r="S115" s="8"/>
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
       <c r="V115" s="17"/>
-      <c r="W115" s="7"/>
-    </row>
-    <row r="116" customFormat="1" spans="2:23">
-      <c r="B116">
-        <v>2001008</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>159</v>
-      </c>
+    </row>
+    <row r="116" spans="3:22">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
       <c r="E116" s="8"/>
-      <c r="F116" s="8">
-        <v>15003755</v>
-      </c>
-      <c r="G116" s="8">
-        <v>0</v>
-      </c>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
       <c r="H116" s="12"/>
-      <c r="I116" s="8">
-        <v>0</v>
-      </c>
-      <c r="J116" s="8">
-        <v>0</v>
-      </c>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
       <c r="K116" s="8"/>
-      <c r="L116" s="8">
-        <v>0</v>
-      </c>
-      <c r="M116" s="14" t="s">
-        <v>160</v>
-      </c>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
       <c r="N116" s="14"/>
-      <c r="O116" s="8">
-        <v>0</v>
-      </c>
-      <c r="P116" s="8">
-        <v>466</v>
-      </c>
-      <c r="Q116" s="8">
-        <v>200</v>
-      </c>
-      <c r="R116" s="8">
-        <v>2500</v>
-      </c>
+      <c r="O116" s="8"/>
+      <c r="P116" s="15"/>
+      <c r="Q116" s="15"/>
+      <c r="R116" s="8"/>
       <c r="S116" s="8"/>
       <c r="T116" s="8"/>
-      <c r="U116" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U116" s="8"/>
       <c r="V116" s="17"/>
-      <c r="W116" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" spans="3:23">
+    </row>
+    <row r="117" spans="3:22">
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -6621,90 +6418,148 @@
       <c r="M117" s="8"/>
       <c r="N117" s="14"/>
       <c r="O117" s="8"/>
-      <c r="P117" s="8"/>
-      <c r="Q117" s="8"/>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="15"/>
       <c r="R117" s="8"/>
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
       <c r="V117" s="17"/>
-      <c r="W117" s="7"/>
-    </row>
-    <row r="119" spans="2:24">
-      <c r="B119">
-        <v>2001021</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E119" s="8"/>
+    </row>
+    <row r="118" spans="2:24">
+      <c r="B118">
+        <v>2001001</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8">
+        <v>1</v>
+      </c>
+      <c r="H118" s="12"/>
+      <c r="I118" s="8">
+        <v>0</v>
+      </c>
+      <c r="J118" s="8">
+        <v>0</v>
+      </c>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8">
+        <v>1</v>
+      </c>
+      <c r="M118" s="8">
+        <v>3001001</v>
+      </c>
+      <c r="N118" s="14"/>
+      <c r="O118" s="8">
+        <v>0</v>
+      </c>
+      <c r="P118" s="15">
+        <v>233</v>
+      </c>
+      <c r="Q118" s="15">
+        <v>100</v>
+      </c>
+      <c r="R118" s="8">
+        <v>0</v>
+      </c>
+      <c r="S118" s="8">
+        <v>0</v>
+      </c>
+      <c r="T118" s="8"/>
+      <c r="U118" s="8">
+        <v>2000</v>
+      </c>
+      <c r="V118" s="17"/>
+      <c r="W118" s="7">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>2601001</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="2:24">
+      <c r="B119" s="1">
+        <v>2001002</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E119" s="15">
+        <v>1</v>
+      </c>
       <c r="F119" s="8"/>
-      <c r="G119" s="8">
-        <v>1</v>
+      <c r="G119" s="15">
+        <v>2</v>
       </c>
       <c r="H119" s="12"/>
-      <c r="I119" s="8">
-        <v>0</v>
-      </c>
-      <c r="J119" s="8">
-        <v>0</v>
-      </c>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8">
-        <v>1</v>
-      </c>
-      <c r="M119" s="8">
-        <v>3001011</v>
-      </c>
-      <c r="N119" s="14"/>
-      <c r="O119" s="8">
-        <v>0</v>
-      </c>
-      <c r="P119" s="8">
-        <v>180</v>
-      </c>
-      <c r="Q119" s="8">
+      <c r="I119" s="15">
+        <v>0</v>
+      </c>
+      <c r="J119" s="15">
+        <v>0</v>
+      </c>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15">
+        <v>0</v>
+      </c>
+      <c r="M119" s="15">
+        <v>3001002</v>
+      </c>
+      <c r="N119" s="18"/>
+      <c r="O119" s="15">
+        <v>99000</v>
+      </c>
+      <c r="P119" s="15">
         <v>100</v>
       </c>
-      <c r="R119" s="8">
-        <v>0</v>
-      </c>
-      <c r="S119" s="8">
-        <v>0</v>
-      </c>
-      <c r="T119" s="8"/>
+      <c r="Q119" s="15">
+        <v>500</v>
+      </c>
+      <c r="R119" s="15">
+        <v>1000</v>
+      </c>
+      <c r="S119" s="15">
+        <v>2</v>
+      </c>
+      <c r="T119" s="15"/>
       <c r="U119" s="8">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="V119" s="17"/>
       <c r="W119" s="7">
         <v>0</v>
       </c>
       <c r="X119">
-        <v>2601021</v>
-      </c>
-    </row>
-    <row r="120" spans="2:24">
+        <v>2601002</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" spans="2:23">
       <c r="B120">
-        <v>2001022</v>
+        <v>2001002</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E120" s="8">
+        <v>150</v>
+      </c>
+      <c r="E120" s="15">
         <v>1</v>
       </c>
       <c r="F120" s="8">
         <v>15003751</v>
       </c>
       <c r="G120" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H120" s="12"/>
       <c r="I120" s="8">
@@ -6715,50 +6570,47 @@
       </c>
       <c r="K120" s="8"/>
       <c r="L120" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M120" s="8">
-        <v>3001012</v>
+        <v>14001010</v>
       </c>
       <c r="N120" s="14"/>
       <c r="O120" s="8">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="P120" s="8">
-        <v>1800</v>
+        <v>466</v>
       </c>
       <c r="Q120" s="8">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="R120" s="8">
-        <v>2000</v>
-      </c>
-      <c r="S120" s="8">
-        <v>1</v>
+        <v>15000</v>
+      </c>
+      <c r="S120" s="15">
+        <v>2</v>
       </c>
       <c r="T120" s="8"/>
       <c r="U120" s="8">
-        <v>267</v>
+        <v>1000</v>
       </c>
       <c r="V120" s="17"/>
       <c r="W120" s="7">
         <v>0</v>
       </c>
-      <c r="X120">
-        <v>2601022</v>
-      </c>
     </row>
     <row r="121" spans="2:23">
       <c r="B121">
-        <v>2001023</v>
+        <v>2001003</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E121" s="8">
+        <v>152</v>
+      </c>
+      <c r="E121" s="15">
         <v>1</v>
       </c>
       <c r="F121" s="8">
@@ -6776,30 +6628,30 @@
       </c>
       <c r="K121" s="8"/>
       <c r="L121" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="N121" s="14"/>
       <c r="O121" s="8">
         <v>0</v>
       </c>
       <c r="P121" s="8">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="Q121" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R121" s="8">
-        <v>15000</v>
-      </c>
-      <c r="S121" s="8">
+        <v>8000</v>
+      </c>
+      <c r="S121" s="15">
         <v>2</v>
       </c>
       <c r="T121" s="8"/>
       <c r="U121" s="8">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="V121" s="17"/>
       <c r="W121" s="7">
@@ -6808,83 +6660,83 @@
     </row>
     <row r="122" customFormat="1" spans="2:24">
       <c r="B122">
-        <v>2001024</v>
+        <v>2001004</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E122" s="8">
+        <v>155</v>
+      </c>
+      <c r="E122" s="15">
         <v>1</v>
       </c>
       <c r="F122" s="8">
         <v>15003753</v>
       </c>
       <c r="G122" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122" s="12"/>
       <c r="I122" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" s="8">
         <v>0</v>
       </c>
       <c r="K122" s="8"/>
       <c r="L122" s="8">
-        <v>1</v>
-      </c>
-      <c r="M122" s="14" t="s">
-        <v>168</v>
+        <v>2</v>
+      </c>
+      <c r="M122" s="8">
+        <v>16001001</v>
       </c>
       <c r="N122" s="14"/>
       <c r="O122" s="8">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="P122" s="8">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="Q122" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R122" s="8">
-        <v>3000</v>
-      </c>
-      <c r="S122" s="8">
+        <v>7000</v>
+      </c>
+      <c r="S122" s="15">
         <v>2</v>
       </c>
       <c r="T122" s="8"/>
       <c r="U122" s="8">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="V122" s="17"/>
       <c r="W122" s="7">
         <v>0</v>
       </c>
       <c r="X122">
-        <v>2601024</v>
-      </c>
-    </row>
-    <row r="123" spans="2:23">
+        <v>2601005</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="2:23">
       <c r="B123">
-        <v>2001025</v>
+        <v>2001005</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E123" s="8">
+        <v>157</v>
+      </c>
+      <c r="E123" s="15">
         <v>1</v>
       </c>
       <c r="F123" s="8">
         <v>15003754</v>
       </c>
       <c r="G123" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" s="12"/>
       <c r="I123" s="8">
@@ -6895,30 +6747,30 @@
       </c>
       <c r="K123" s="8"/>
       <c r="L123" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M123" s="14" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="N123" s="14"/>
       <c r="O123" s="8">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="P123" s="8">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="Q123" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R123" s="8">
         <v>25000</v>
       </c>
-      <c r="S123" s="8">
+      <c r="S123" s="15">
         <v>3</v>
       </c>
       <c r="T123" s="8"/>
       <c r="U123" s="8">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="V123" s="17"/>
       <c r="W123" s="7">
@@ -6927,15 +6779,15 @@
     </row>
     <row r="124" customFormat="1" spans="2:23">
       <c r="B124">
-        <v>2001026</v>
+        <v>2001006</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E124" s="8">
+        <v>160</v>
+      </c>
+      <c r="E124" s="15">
         <v>1</v>
       </c>
       <c r="F124" s="8">
@@ -6956,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="N124" s="14"/>
       <c r="O124" s="8">
@@ -6968,345 +6820,499 @@
       <c r="Q124" s="8">
         <v>0</v>
       </c>
-      <c r="R124" s="8"/>
-      <c r="S124" s="8">
-        <v>2</v>
+      <c r="R124" s="8">
+        <v>0</v>
+      </c>
+      <c r="S124" s="15">
+        <v>4</v>
       </c>
       <c r="T124" s="8"/>
       <c r="U124" s="8">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="V124" s="17"/>
       <c r="W124" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" spans="1:24">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
+    <row r="125" customFormat="1" spans="3:23">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="20"/>
-      <c r="N125" s="20"/>
-      <c r="O125" s="18"/>
-      <c r="P125" s="18"/>
-      <c r="Q125" s="18"/>
-      <c r="R125" s="18"/>
-      <c r="S125" s="18"/>
-      <c r="T125" s="18"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="14"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="Q125" s="8"/>
+      <c r="R125" s="8"/>
+      <c r="S125" s="8"/>
+      <c r="T125" s="8"/>
       <c r="U125" s="8"/>
       <c r="V125" s="17"/>
       <c r="W125" s="7"/>
-      <c r="X125"/>
-    </row>
-    <row r="126" ht="12" customHeight="1" spans="3:22">
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
+    </row>
+    <row r="126" customFormat="1" spans="2:23">
+      <c r="B126">
+        <v>2001008</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
+      <c r="F126" s="8">
+        <v>15003755</v>
+      </c>
+      <c r="G126" s="8">
+        <v>0</v>
+      </c>
       <c r="H126" s="12"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
+      <c r="I126" s="8">
+        <v>0</v>
+      </c>
+      <c r="J126" s="8">
+        <v>0</v>
+      </c>
       <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
+      <c r="L126" s="8">
+        <v>0</v>
+      </c>
+      <c r="M126" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="N126" s="14"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
-      <c r="Q126" s="8"/>
-      <c r="R126" s="8"/>
+      <c r="O126" s="8">
+        <v>0</v>
+      </c>
+      <c r="P126" s="8">
+        <v>466</v>
+      </c>
+      <c r="Q126" s="8">
+        <v>200</v>
+      </c>
+      <c r="R126" s="8">
+        <v>2500</v>
+      </c>
       <c r="S126" s="8"/>
       <c r="T126" s="8"/>
-      <c r="U126" s="8"/>
+      <c r="U126" s="8">
+        <v>1000</v>
+      </c>
       <c r="V126" s="17"/>
-    </row>
-    <row r="127" customFormat="1" spans="2:25">
-      <c r="B127">
-        <v>2001050</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="W126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="1" spans="3:23">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
       <c r="E127" s="8"/>
-      <c r="F127" s="8">
-        <v>15003753</v>
-      </c>
-      <c r="G127" s="8">
-        <v>2</v>
-      </c>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="8">
-        <v>1</v>
-      </c>
-      <c r="J127" s="8">
-        <v>0</v>
-      </c>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
       <c r="K127" s="8"/>
-      <c r="L127" s="8">
-        <v>0</v>
-      </c>
-      <c r="M127" s="8">
-        <v>16001010</v>
-      </c>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
       <c r="N127" s="14"/>
-      <c r="O127" s="8">
-        <v>10000</v>
-      </c>
-      <c r="P127" s="8">
-        <v>1500</v>
-      </c>
-      <c r="Q127" s="8">
-        <v>0</v>
-      </c>
-      <c r="R127" s="8">
-        <v>600</v>
-      </c>
-      <c r="S127" s="8">
-        <v>2</v>
-      </c>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="8"/>
+      <c r="S127" s="8"/>
       <c r="T127" s="8"/>
-      <c r="U127" s="8">
-        <v>1000</v>
-      </c>
+      <c r="U127" s="8"/>
       <c r="V127" s="17"/>
-      <c r="W127" s="7">
-        <v>0</v>
-      </c>
-      <c r="X127">
-        <v>2601050</v>
-      </c>
-      <c r="Y127">
-        <v>2500005</v>
-      </c>
-    </row>
-    <row r="128" customFormat="1" spans="3:23">
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="14"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="8"/>
-      <c r="S128" s="8"/>
-      <c r="T128" s="8"/>
-      <c r="U128" s="8"/>
-      <c r="V128" s="17"/>
-      <c r="W128" s="7"/>
-    </row>
-    <row r="129" customFormat="1" spans="3:23">
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
+      <c r="W127" s="7"/>
+    </row>
+    <row r="129" spans="2:24">
+      <c r="B129">
+        <v>2001021</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
+      <c r="G129" s="8">
+        <v>1</v>
+      </c>
       <c r="H129" s="12"/>
-      <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
+      <c r="I129" s="8">
+        <v>0</v>
+      </c>
+      <c r="J129" s="8">
+        <v>0</v>
+      </c>
       <c r="K129" s="8"/>
-      <c r="L129" s="8"/>
-      <c r="M129" s="8"/>
+      <c r="L129" s="8">
+        <v>1</v>
+      </c>
+      <c r="M129" s="8">
+        <v>3001011</v>
+      </c>
       <c r="N129" s="14"/>
-      <c r="O129" s="8"/>
-      <c r="P129" s="8"/>
-      <c r="Q129" s="8"/>
-      <c r="R129" s="8"/>
-      <c r="S129" s="8"/>
+      <c r="O129" s="8">
+        <v>0</v>
+      </c>
+      <c r="P129" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q129" s="8">
+        <v>100</v>
+      </c>
+      <c r="R129" s="8">
+        <v>0</v>
+      </c>
+      <c r="S129" s="8">
+        <v>0</v>
+      </c>
       <c r="T129" s="8"/>
-      <c r="U129" s="8"/>
+      <c r="U129" s="8">
+        <v>2667</v>
+      </c>
       <c r="V129" s="17"/>
-      <c r="W129" s="7"/>
-    </row>
-    <row r="130" customFormat="1" spans="3:23">
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
+      <c r="W129" s="7">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>2601021</v>
+      </c>
+    </row>
+    <row r="130" spans="2:24">
+      <c r="B130">
+        <v>2001022</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E130" s="8">
+        <v>1</v>
+      </c>
+      <c r="F130" s="8">
+        <v>15003751</v>
+      </c>
+      <c r="G130" s="8">
+        <v>2</v>
+      </c>
       <c r="H130" s="12"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
+      <c r="I130" s="8">
+        <v>0</v>
+      </c>
+      <c r="J130" s="8">
+        <v>0</v>
+      </c>
       <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
+      <c r="L130" s="8">
+        <v>0</v>
+      </c>
+      <c r="M130" s="8">
+        <v>3001012</v>
+      </c>
       <c r="N130" s="14"/>
-      <c r="O130" s="8"/>
-      <c r="P130" s="8"/>
-      <c r="Q130" s="8"/>
-      <c r="R130" s="8"/>
-      <c r="S130" s="8"/>
+      <c r="O130" s="8">
+        <v>6000</v>
+      </c>
+      <c r="P130" s="8">
+        <v>1800</v>
+      </c>
+      <c r="Q130" s="8">
+        <v>1800</v>
+      </c>
+      <c r="R130" s="8">
+        <v>2000</v>
+      </c>
+      <c r="S130" s="8">
+        <v>1</v>
+      </c>
       <c r="T130" s="8"/>
-      <c r="U130" s="8"/>
+      <c r="U130" s="8">
+        <v>267</v>
+      </c>
       <c r="V130" s="17"/>
-      <c r="W130" s="7"/>
-    </row>
-    <row r="131" customFormat="1" spans="3:23">
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
+      <c r="W130" s="7">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>2601022</v>
+      </c>
+    </row>
+    <row r="131" spans="2:23">
+      <c r="B131">
+        <v>2001023</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E131" s="8">
+        <v>1</v>
+      </c>
+      <c r="F131" s="8">
+        <v>15003752</v>
+      </c>
+      <c r="G131" s="8">
+        <v>0</v>
+      </c>
       <c r="H131" s="12"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
+      <c r="I131" s="8">
+        <v>0</v>
+      </c>
+      <c r="J131" s="8">
+        <v>0</v>
+      </c>
       <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
+      <c r="L131" s="8">
+        <v>2</v>
+      </c>
+      <c r="M131" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="N131" s="14"/>
-      <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="8"/>
-      <c r="S131" s="8"/>
+      <c r="O131" s="8">
+        <v>0</v>
+      </c>
+      <c r="P131" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q131" s="8">
+        <v>100</v>
+      </c>
+      <c r="R131" s="8">
+        <v>15000</v>
+      </c>
+      <c r="S131" s="8">
+        <v>2</v>
+      </c>
       <c r="T131" s="8"/>
-      <c r="U131" s="8"/>
+      <c r="U131" s="8">
+        <v>2667</v>
+      </c>
       <c r="V131" s="17"/>
-      <c r="W131" s="7"/>
-    </row>
-    <row r="132" s="3" customFormat="1" spans="8:23">
-      <c r="H132" s="5"/>
-      <c r="N132" s="22"/>
-      <c r="U132" s="8"/>
-      <c r="V132" s="7"/>
-      <c r="W132" s="7"/>
-    </row>
-    <row r="133" spans="21:21">
-      <c r="U133" s="8"/>
-    </row>
-    <row r="134" spans="2:23">
+      <c r="W131" s="7">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="132" customFormat="1" spans="2:24">
+      <c r="B132">
+        <v>2001024</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E132" s="8">
+        <v>1</v>
+      </c>
+      <c r="F132" s="8">
+        <v>15003753</v>
+      </c>
+      <c r="G132" s="8">
+        <v>1</v>
+      </c>
+      <c r="H132" s="12"/>
+      <c r="I132" s="8">
+        <v>0</v>
+      </c>
+      <c r="J132" s="8">
+        <v>0</v>
+      </c>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8">
+        <v>1</v>
+      </c>
+      <c r="M132" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="N132" s="14"/>
+      <c r="O132" s="8">
+        <v>8000</v>
+      </c>
+      <c r="P132" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q132" s="8">
+        <v>100</v>
+      </c>
+      <c r="R132" s="8">
+        <v>3000</v>
+      </c>
+      <c r="S132" s="8">
+        <v>2</v>
+      </c>
+      <c r="T132" s="8"/>
+      <c r="U132" s="8">
+        <v>2667</v>
+      </c>
+      <c r="V132" s="17"/>
+      <c r="W132" s="7">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>2601024</v>
+      </c>
+    </row>
+    <row r="133" spans="2:23">
+      <c r="B133">
+        <v>2001025</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E133" s="8">
+        <v>1</v>
+      </c>
+      <c r="F133" s="8">
+        <v>15003754</v>
+      </c>
+      <c r="G133" s="8">
+        <v>1</v>
+      </c>
+      <c r="H133" s="12"/>
+      <c r="I133" s="8">
+        <v>0</v>
+      </c>
+      <c r="J133" s="8">
+        <v>0</v>
+      </c>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8">
+        <v>1</v>
+      </c>
+      <c r="M133" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="N133" s="14"/>
+      <c r="O133" s="8">
+        <v>8000</v>
+      </c>
+      <c r="P133" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q133" s="8">
+        <v>100</v>
+      </c>
+      <c r="R133" s="8">
+        <v>25000</v>
+      </c>
+      <c r="S133" s="8">
+        <v>3</v>
+      </c>
+      <c r="T133" s="8"/>
+      <c r="U133" s="8">
+        <v>2667</v>
+      </c>
+      <c r="V133" s="17"/>
+      <c r="W133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customFormat="1" spans="2:23">
       <c r="B134">
-        <v>2201101</v>
+        <v>2001026</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="E134" s="8">
+        <v>1</v>
+      </c>
+      <c r="F134" s="8">
+        <v>15003755</v>
+      </c>
       <c r="G134" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" s="12"/>
       <c r="I134" s="8">
         <v>0</v>
       </c>
       <c r="J134" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8">
-        <v>1</v>
-      </c>
-      <c r="M134" s="8">
-        <v>3002001</v>
+        <v>2</v>
+      </c>
+      <c r="M134" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="N134" s="14"/>
       <c r="O134" s="8">
         <v>0</v>
       </c>
       <c r="P134" s="8">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q134" s="8">
-        <v>300</v>
-      </c>
-      <c r="R134" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R134" s="8"/>
       <c r="S134" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T134" s="8"/>
       <c r="U134" s="8">
-        <v>1540</v>
+        <v>2667</v>
       </c>
       <c r="V134" s="17"/>
       <c r="W134" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:25">
-      <c r="B135">
-        <v>2201201</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8">
-        <v>15003753</v>
-      </c>
-      <c r="G135" s="8">
-        <v>2</v>
-      </c>
+    <row r="135" s="2" customFormat="1" spans="1:24">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
       <c r="H135" s="12"/>
-      <c r="I135" s="8">
-        <v>0</v>
-      </c>
-      <c r="J135" s="8">
-        <v>0</v>
-      </c>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8">
-        <v>2</v>
-      </c>
-      <c r="M135" s="8">
-        <v>13002030</v>
-      </c>
-      <c r="N135" s="14"/>
-      <c r="O135" s="8">
-        <v>4000</v>
-      </c>
-      <c r="P135" s="8">
-        <v>1500</v>
-      </c>
-      <c r="Q135" s="8">
-        <v>700</v>
-      </c>
-      <c r="R135" s="8">
-        <v>6500</v>
-      </c>
-      <c r="S135" s="8">
-        <v>1</v>
-      </c>
-      <c r="T135" s="8"/>
-      <c r="U135" s="8">
-        <v>340</v>
-      </c>
+      <c r="I135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="21"/>
+      <c r="N135" s="21"/>
+      <c r="O135" s="19"/>
+      <c r="P135" s="19"/>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="19"/>
+      <c r="S135" s="19"/>
+      <c r="T135" s="19"/>
+      <c r="U135" s="8"/>
       <c r="V135" s="17"/>
-      <c r="W135" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y135">
-        <v>2500010</v>
-      </c>
-    </row>
-    <row r="136" customFormat="1" spans="3:23">
+      <c r="W135" s="7"/>
+      <c r="X135"/>
+    </row>
+    <row r="136" ht="12" customHeight="1" spans="3:22">
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -7327,11 +7333,10 @@
       <c r="T136" s="8"/>
       <c r="U136" s="8"/>
       <c r="V136" s="17"/>
-      <c r="W136" s="7"/>
-    </row>
-    <row r="137" customFormat="1" spans="2:23">
+    </row>
+    <row r="137" customFormat="1" spans="2:25">
       <c r="B137">
-        <v>2202101</v>
+        <v>2001050</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>178</v>
@@ -7340,112 +7345,82 @@
         <v>178</v>
       </c>
       <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
+      <c r="F137" s="8">
+        <v>15003753</v>
+      </c>
       <c r="G137" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137" s="12"/>
       <c r="I137" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" s="8">
         <v>0</v>
       </c>
       <c r="K137" s="8"/>
       <c r="L137" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M137" s="8">
-        <v>3002011</v>
+        <v>16001010</v>
       </c>
       <c r="N137" s="14"/>
       <c r="O137" s="8">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P137" s="8">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="Q137" s="8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R137" s="8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="S137" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T137" s="8"/>
       <c r="U137" s="8">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="V137" s="17"/>
       <c r="W137" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" customFormat="1" spans="2:25">
-      <c r="B138">
-        <v>2202201</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="X137">
+        <v>2601050</v>
+      </c>
+      <c r="Y137">
+        <v>2500005</v>
+      </c>
+    </row>
+    <row r="138" customFormat="1" spans="3:23">
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
       <c r="E138" s="8"/>
-      <c r="F138" s="8">
-        <v>15003751</v>
-      </c>
-      <c r="G138" s="8">
-        <v>2</v>
-      </c>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
       <c r="H138" s="12"/>
-      <c r="I138" s="8">
-        <v>0</v>
-      </c>
-      <c r="J138" s="8">
-        <v>0</v>
-      </c>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
       <c r="K138" s="8"/>
-      <c r="L138" s="8">
-        <v>0</v>
-      </c>
-      <c r="M138" s="8">
-        <v>3002012</v>
-      </c>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
       <c r="N138" s="14"/>
-      <c r="O138" s="8">
-        <v>8000</v>
-      </c>
-      <c r="P138" s="8">
-        <v>1000</v>
-      </c>
-      <c r="Q138" s="8">
-        <v>700</v>
-      </c>
-      <c r="R138" s="8">
-        <v>7000</v>
-      </c>
-      <c r="S138" s="8">
-        <v>1</v>
-      </c>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+      <c r="Q138" s="8"/>
+      <c r="R138" s="8"/>
+      <c r="S138" s="8"/>
       <c r="T138" s="8"/>
-      <c r="U138" s="8">
-        <v>420</v>
-      </c>
+      <c r="U138" s="8"/>
       <c r="V138" s="17"/>
-      <c r="W138" s="7">
-        <v>0</v>
-      </c>
-      <c r="X138">
-        <v>2602012</v>
-      </c>
-      <c r="Y138">
-        <v>2500011</v>
-      </c>
-    </row>
-    <row r="139" customFormat="1" spans="4:23">
+      <c r="W138" s="7"/>
+    </row>
+    <row r="139" customFormat="1" spans="3:23">
+      <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
@@ -7455,7 +7430,8 @@
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
-      <c r="N139" s="6"/>
+      <c r="M139" s="8"/>
+      <c r="N139" s="14"/>
       <c r="O139" s="8"/>
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
@@ -7466,7 +7442,8 @@
       <c r="V139" s="17"/>
       <c r="W139" s="7"/>
     </row>
-    <row r="140" customFormat="1" spans="4:23">
+    <row r="140" customFormat="1" spans="3:23">
+      <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
@@ -7476,7 +7453,8 @@
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
-      <c r="N140" s="6"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="14"/>
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
@@ -7487,383 +7465,245 @@
       <c r="V140" s="17"/>
       <c r="W140" s="7"/>
     </row>
-    <row r="141" customFormat="1" spans="2:24">
-      <c r="B141">
-        <v>2003001</v>
-      </c>
-      <c r="C141" t="s">
-        <v>180</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>180</v>
-      </c>
+    <row r="141" customFormat="1" spans="3:23">
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
-      <c r="G141" s="8">
-        <v>1</v>
-      </c>
+      <c r="G141" s="8"/>
       <c r="H141" s="12"/>
-      <c r="I141" s="8">
-        <v>0</v>
-      </c>
-      <c r="J141" s="8">
-        <v>0</v>
-      </c>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
       <c r="K141" s="8"/>
-      <c r="L141" s="8">
-        <v>1</v>
-      </c>
-      <c r="M141">
-        <v>3003001</v>
-      </c>
-      <c r="N141" s="6"/>
-      <c r="O141" s="8">
-        <v>0</v>
-      </c>
-      <c r="P141" s="8">
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="14"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="8"/>
+      <c r="R141" s="8"/>
+      <c r="S141" s="8"/>
+      <c r="T141" s="8"/>
+      <c r="U141" s="8"/>
+      <c r="V141" s="17"/>
+      <c r="W141" s="7"/>
+    </row>
+    <row r="142" s="3" customFormat="1" spans="8:23">
+      <c r="H142" s="5"/>
+      <c r="N142" s="22"/>
+      <c r="U142" s="8"/>
+      <c r="V142" s="7"/>
+      <c r="W142" s="7"/>
+    </row>
+    <row r="143" spans="21:21">
+      <c r="U143" s="8"/>
+    </row>
+    <row r="144" spans="2:23">
+      <c r="B144">
+        <v>2201101</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8">
+        <v>1</v>
+      </c>
+      <c r="H144" s="12"/>
+      <c r="I144" s="8">
+        <v>0</v>
+      </c>
+      <c r="J144" s="8">
+        <v>0</v>
+      </c>
+      <c r="K144" s="8"/>
+      <c r="L144" s="8">
+        <v>1</v>
+      </c>
+      <c r="M144" s="8">
+        <v>3002001</v>
+      </c>
+      <c r="N144" s="14"/>
+      <c r="O144" s="8">
+        <v>0</v>
+      </c>
+      <c r="P144" s="8">
         <v>300</v>
       </c>
-      <c r="Q141" s="8">
+      <c r="Q144" s="8">
         <v>300</v>
       </c>
-      <c r="R141" s="8">
-        <v>0</v>
-      </c>
-      <c r="S141" s="8">
-        <v>0</v>
-      </c>
-      <c r="T141" s="8"/>
-      <c r="U141" s="8">
+      <c r="R144" s="8">
+        <v>0</v>
+      </c>
+      <c r="S144" s="8">
+        <v>0</v>
+      </c>
+      <c r="T144" s="8"/>
+      <c r="U144" s="8">
         <v>1540</v>
       </c>
-      <c r="V141" s="17"/>
-      <c r="W141" s="7">
-        <v>0</v>
-      </c>
-      <c r="X141">
-        <v>2603001</v>
-      </c>
-    </row>
-    <row r="142" s="4" customFormat="1" spans="2:24">
-      <c r="B142" s="4">
-        <v>2003002</v>
-      </c>
-      <c r="C142" s="21" t="s">
+      <c r="V144" s="17"/>
+      <c r="W144" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:25">
+      <c r="B145">
+        <v>2201201</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8">
+        <v>15003753</v>
+      </c>
+      <c r="G145" s="8">
+        <v>2</v>
+      </c>
+      <c r="H145" s="12"/>
+      <c r="I145" s="8">
+        <v>0</v>
+      </c>
+      <c r="J145" s="8">
+        <v>0</v>
+      </c>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8">
+        <v>2</v>
+      </c>
+      <c r="M145" s="8">
+        <v>13002030</v>
+      </c>
+      <c r="N145" s="14"/>
+      <c r="O145" s="8">
+        <v>4000</v>
+      </c>
+      <c r="P145" s="8">
+        <v>1500</v>
+      </c>
+      <c r="Q145" s="8">
+        <v>700</v>
+      </c>
+      <c r="R145" s="8">
+        <v>6500</v>
+      </c>
+      <c r="S145" s="8">
+        <v>1</v>
+      </c>
+      <c r="T145" s="8"/>
+      <c r="U145" s="8">
+        <v>340</v>
+      </c>
+      <c r="V145" s="17"/>
+      <c r="W145" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>2500010</v>
+      </c>
+    </row>
+    <row r="146" customFormat="1" spans="3:23">
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="14"/>
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+      <c r="Q146" s="8"/>
+      <c r="R146" s="8"/>
+      <c r="S146" s="8"/>
+      <c r="T146" s="8"/>
+      <c r="U146" s="8"/>
+      <c r="V146" s="17"/>
+      <c r="W146" s="7"/>
+    </row>
+    <row r="147" customFormat="1" spans="2:23">
+      <c r="B147">
+        <v>2202101</v>
+      </c>
+      <c r="C147" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D142" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21">
-        <v>15003751</v>
-      </c>
-      <c r="G142" s="21">
-        <v>2</v>
-      </c>
-      <c r="H142" s="12"/>
-      <c r="I142" s="21">
-        <v>0</v>
-      </c>
-      <c r="J142" s="21">
-        <v>0</v>
-      </c>
-      <c r="K142" s="21"/>
-      <c r="L142" s="21">
-        <v>1</v>
-      </c>
-      <c r="M142" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="N142" s="23"/>
-      <c r="O142" s="21">
-        <v>8000</v>
-      </c>
-      <c r="P142" s="21">
-        <v>600</v>
-      </c>
-      <c r="Q142" s="21">
-        <v>0</v>
-      </c>
-      <c r="R142" s="21">
-        <v>2000</v>
-      </c>
-      <c r="S142" s="21">
-        <v>1</v>
-      </c>
-      <c r="T142" s="21"/>
-      <c r="U142" s="8">
-        <v>1000</v>
-      </c>
-      <c r="V142" s="21"/>
-      <c r="W142" s="7">
-        <v>0</v>
-      </c>
-      <c r="X142" s="4">
-        <v>2603002</v>
-      </c>
-    </row>
-    <row r="143" s="4" customFormat="1" spans="2:24">
-      <c r="B143" s="4">
-        <v>2003003</v>
-      </c>
-      <c r="C143" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D143" s="21"